--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -904,7 +904,7 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>257</v>
+            <v>256</v>
           </cell>
           <cell r="D2">
             <v>81632</v>
@@ -927,13 +927,13 @@
             <v>11</v>
           </cell>
           <cell r="D3">
-            <v>22274</v>
+            <v>21532</v>
           </cell>
           <cell r="E3">
             <v>45</v>
           </cell>
           <cell r="F3" t="str">
-            <v>2022-11-14</v>
+            <v>2022-11-15</v>
           </cell>
         </row>
         <row r="4">
@@ -944,10 +944,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="D4">
-            <v>48908</v>
+            <v>44148</v>
           </cell>
           <cell r="E4">
             <v>30</v>
@@ -958,27 +958,27 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C5">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="D5">
-            <v>11244</v>
-          </cell>
-          <cell r="E5">
-            <v>35</v>
+            <v>11786</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F5" t="str">
-            <v>2022-11-21</v>
+            <v>2022-11-23</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
@@ -987,30 +987,30 @@
             <v>18</v>
           </cell>
           <cell r="D6">
-            <v>12360</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>inf</v>
+            <v>3405</v>
+          </cell>
+          <cell r="E6">
+            <v>37</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-11-23</v>
+            <v>2022-11-24</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Череда трава 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D7">
-            <v>8700</v>
+            <v>15931</v>
           </cell>
           <cell r="E7">
-            <v>33</v>
+            <v>37</v>
           </cell>
           <cell r="F7" t="str">
             <v>2022-11-24</v>
@@ -1018,7 +1018,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
@@ -1027,30 +1027,30 @@
             <v>19</v>
           </cell>
           <cell r="D8">
-            <v>16799</v>
+            <v>30590</v>
           </cell>
           <cell r="E8">
-            <v>37</v>
+            <v>31</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-25</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D9">
-            <v>31626</v>
+            <v>12315</v>
           </cell>
           <cell r="E9">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F9" t="str">
             <v>2022-11-25</v>
@@ -1058,19 +1058,19 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C10">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D10">
-            <v>3965</v>
+            <v>8700</v>
           </cell>
           <cell r="E10">
-            <v>37</v>
+            <v>33</v>
           </cell>
           <cell r="F10" t="str">
             <v>2022-11-25</v>
@@ -1078,19 +1078,19 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D11">
-            <v>13463</v>
+            <v>71071</v>
           </cell>
           <cell r="E11">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F11" t="str">
             <v>2022-11-28</v>
@@ -1098,7 +1098,7 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
@@ -1107,18 +1107,18 @@
             <v>22</v>
           </cell>
           <cell r="D12">
-            <v>75243</v>
+            <v>42084</v>
           </cell>
           <cell r="E12">
-            <v>30</v>
+            <v>29</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
@@ -1127,18 +1127,18 @@
             <v>22</v>
           </cell>
           <cell r="D13">
-            <v>43708</v>
+            <v>2688</v>
           </cell>
           <cell r="E13">
-            <v>29</v>
+            <v>51</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
@@ -1147,30 +1147,30 @@
             <v>22</v>
           </cell>
           <cell r="D14">
-            <v>2688</v>
+            <v>20523</v>
           </cell>
           <cell r="E14">
-            <v>51</v>
+            <v>33</v>
           </cell>
           <cell r="F14" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D15">
-            <v>26336</v>
+            <v>29433</v>
           </cell>
           <cell r="E15">
-            <v>44</v>
+            <v>92</v>
           </cell>
           <cell r="F15" t="str">
             <v>2022-11-30</v>
@@ -1178,7 +1178,7 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
@@ -1187,33 +1187,33 @@
             <v>23</v>
           </cell>
           <cell r="D16">
-            <v>21685</v>
+            <v>25398</v>
           </cell>
           <cell r="E16">
-            <v>33</v>
+            <v>44</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C17">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D17">
-            <v>30343</v>
+            <v>5484</v>
           </cell>
           <cell r="E17">
-            <v>92</v>
+            <v>59</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="18">
@@ -1227,13 +1227,13 @@
             <v>24</v>
           </cell>
           <cell r="D18">
-            <v>16987</v>
+            <v>16259</v>
           </cell>
           <cell r="E18">
             <v>43</v>
           </cell>
           <cell r="F18" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="19">
@@ -1247,13 +1247,13 @@
             <v>24</v>
           </cell>
           <cell r="D19">
-            <v>18841</v>
+            <v>18253</v>
           </cell>
           <cell r="E19">
             <v>31</v>
           </cell>
           <cell r="F19" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="20">
@@ -1267,18 +1267,18 @@
             <v>25</v>
           </cell>
           <cell r="D20">
-            <v>11355</v>
+            <v>11215</v>
           </cell>
           <cell r="E20">
             <v>35</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
@@ -1287,18 +1287,18 @@
             <v>25</v>
           </cell>
           <cell r="D21">
-            <v>5596</v>
+            <v>19144</v>
           </cell>
           <cell r="E21">
-            <v>59</v>
+            <v>48</v>
           </cell>
           <cell r="F21" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
@@ -1307,18 +1307,18 @@
             <v>25</v>
           </cell>
           <cell r="D22">
-            <v>19200</v>
+            <v>19383</v>
           </cell>
           <cell r="E22">
-            <v>48</v>
+            <v>31</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
@@ -1327,18 +1327,18 @@
             <v>26</v>
           </cell>
           <cell r="D23">
-            <v>20209</v>
+            <v>28170</v>
           </cell>
           <cell r="E23">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
@@ -1347,30 +1347,30 @@
             <v>26</v>
           </cell>
           <cell r="D24">
-            <v>40974</v>
+            <v>86509</v>
           </cell>
           <cell r="E24">
-            <v>112</v>
+            <v>39</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Лен семена 100г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D25">
-            <v>87965</v>
+            <v>15358</v>
           </cell>
           <cell r="E25">
-            <v>39</v>
+            <v>40</v>
           </cell>
           <cell r="F25" t="str">
             <v>2022-12-06</v>
@@ -1378,19 +1378,19 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C26">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D26">
-            <v>15820</v>
+            <v>40218</v>
           </cell>
           <cell r="E26">
-            <v>40</v>
+            <v>112</v>
           </cell>
           <cell r="F26" t="str">
             <v>2022-12-06</v>
@@ -1398,19 +1398,19 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C27">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D27">
-            <v>34584</v>
+            <v>11539</v>
           </cell>
           <cell r="E27">
-            <v>40</v>
+            <v>32</v>
           </cell>
           <cell r="F27" t="str">
             <v>2022-12-06</v>
@@ -1418,19 +1418,19 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C28">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D28">
-            <v>47328</v>
+            <v>32638</v>
           </cell>
           <cell r="E28">
-            <v>37</v>
+            <v>40</v>
           </cell>
           <cell r="F28" t="str">
             <v>2022-12-06</v>
@@ -1444,10 +1444,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D29">
-            <v>28228</v>
+            <v>27626</v>
           </cell>
           <cell r="E29">
             <v>33</v>
@@ -1458,19 +1458,19 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D30">
-            <v>27144</v>
+            <v>11886</v>
           </cell>
           <cell r="E30">
-            <v>35</v>
+            <v>51</v>
           </cell>
           <cell r="F30" t="str">
             <v>2022-12-07</v>
@@ -1478,19 +1478,19 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="B31" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D31">
-            <v>30256</v>
+            <v>47076</v>
           </cell>
           <cell r="E31">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F31" t="str">
             <v>2022-12-07</v>
@@ -1498,19 +1498,19 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C32">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D32">
-            <v>12488</v>
+            <v>18338</v>
           </cell>
           <cell r="E32">
-            <v>51</v>
+            <v>31</v>
           </cell>
           <cell r="F32" t="str">
             <v>2022-12-07</v>
@@ -1518,7 +1518,7 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
@@ -1527,18 +1527,18 @@
             <v>28</v>
           </cell>
           <cell r="D33">
-            <v>12015</v>
+            <v>27004</v>
           </cell>
           <cell r="E33">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
@@ -1547,18 +1547,18 @@
             <v>28</v>
           </cell>
           <cell r="D34">
-            <v>30385</v>
+            <v>22213</v>
           </cell>
           <cell r="E34">
-            <v>46</v>
+            <v>32</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
@@ -1567,18 +1567,18 @@
             <v>28</v>
           </cell>
           <cell r="D35">
-            <v>18702</v>
+            <v>29573</v>
           </cell>
           <cell r="E35">
-            <v>31</v>
+            <v>46</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
@@ -1587,13 +1587,13 @@
             <v>29</v>
           </cell>
           <cell r="D36">
-            <v>22773</v>
+            <v>27995</v>
           </cell>
           <cell r="E36">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="37">
@@ -1607,18 +1607,18 @@
             <v>29</v>
           </cell>
           <cell r="D37">
-            <v>28195</v>
+            <v>28069</v>
           </cell>
           <cell r="E37">
             <v>43</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
@@ -1627,18 +1627,18 @@
             <v>30</v>
           </cell>
           <cell r="D38">
-            <v>29241</v>
+            <v>116991</v>
           </cell>
           <cell r="E38">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
@@ -1647,38 +1647,38 @@
             <v>30</v>
           </cell>
           <cell r="D39">
-            <v>118307</v>
+            <v>13173</v>
           </cell>
           <cell r="E39">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
-            <v>31</v>
+            <v>33</v>
           </cell>
           <cell r="D40">
-            <v>13411</v>
+            <v>37089</v>
           </cell>
           <cell r="E40">
-            <v>30</v>
+            <v>39</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
@@ -1687,27 +1687,27 @@
             <v>33</v>
           </cell>
           <cell r="D41">
-            <v>27707</v>
+            <v>16078</v>
           </cell>
           <cell r="E41">
-            <v>43</v>
+            <v>35</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Береза почки 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B42" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C42">
-            <v>34</v>
+            <v>33</v>
           </cell>
           <cell r="D42">
-            <v>23345</v>
+            <v>27245</v>
           </cell>
           <cell r="E42">
             <v>43</v>
@@ -1718,7 +1718,7 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
@@ -1727,38 +1727,38 @@
             <v>34</v>
           </cell>
           <cell r="D43">
-            <v>37705</v>
+            <v>23135</v>
           </cell>
           <cell r="E43">
-            <v>39</v>
+            <v>43</v>
           </cell>
           <cell r="F43" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B44" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
-            <v>34</v>
+            <v>35</v>
           </cell>
           <cell r="D44">
-            <v>16400</v>
+            <v>28285</v>
           </cell>
           <cell r="E44">
-            <v>35</v>
+            <v>38</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
@@ -1767,13 +1767,13 @@
             <v>36</v>
           </cell>
           <cell r="D45">
-            <v>28747</v>
+            <v>25379</v>
           </cell>
           <cell r="E45">
-            <v>38</v>
+            <v>35</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="46">
@@ -1784,7 +1784,7 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="D46">
             <v>12902</v>
@@ -1793,12 +1793,12 @@
             <v>76</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="B47" t="str">
             <v>Линия ББЛ</v>
@@ -1807,113 +1807,113 @@
             <v>46</v>
           </cell>
           <cell r="D47">
-            <v>23600</v>
+            <v>9393</v>
           </cell>
           <cell r="E47">
-            <v>41</v>
+            <v>72</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-03</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B48" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C48">
-            <v>46</v>
+            <v>47</v>
           </cell>
           <cell r="D48">
-            <v>9519</v>
+            <v>23348</v>
           </cell>
           <cell r="E48">
-            <v>72</v>
+            <v>41</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="B49" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>10</v>
+            <v>14</v>
           </cell>
           <cell r="D49">
-            <v>3098</v>
+            <v>2988</v>
           </cell>
           <cell r="E49">
-            <v>84</v>
+            <v>115</v>
           </cell>
           <cell r="F49" t="str">
-            <v>2022-11-11</v>
+            <v>2022-11-18</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="B50" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C50">
-            <v>14</v>
+            <v>19</v>
           </cell>
           <cell r="D50">
-            <v>2988</v>
+            <v>14999</v>
           </cell>
           <cell r="E50">
-            <v>115</v>
+            <v>41</v>
           </cell>
           <cell r="F50" t="str">
-            <v>2022-11-17</v>
+            <v>2022-11-25</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="B51" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>19</v>
+            <v>23</v>
           </cell>
           <cell r="D51">
-            <v>15299</v>
+            <v>4701</v>
           </cell>
           <cell r="E51">
-            <v>41</v>
+            <v>110</v>
           </cell>
           <cell r="F51" t="str">
-            <v>2022-11-24</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="B52" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>23</v>
+            <v>30</v>
           </cell>
           <cell r="D52">
-            <v>4701</v>
+            <v>7928</v>
           </cell>
           <cell r="E52">
-            <v>110</v>
+            <v>84</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="53">
@@ -1924,10 +1924,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>62</v>
+            <v>61</v>
           </cell>
           <cell r="D53">
-            <v>4880</v>
+            <v>4820</v>
           </cell>
           <cell r="E53">
             <v>102</v>
@@ -1944,10 +1944,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>257</v>
+            <v>256</v>
           </cell>
           <cell r="D54">
-            <v>8360</v>
+            <v>8340</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1964,10 +1964,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>257</v>
+            <v>256</v>
           </cell>
           <cell r="D55">
-            <v>9760</v>
+            <v>9750</v>
           </cell>
           <cell r="E55">
             <v>104</v>
@@ -2004,10 +2004,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D57">
-            <v>2659</v>
+            <v>2479</v>
           </cell>
           <cell r="E57">
             <v>37</v>
@@ -2018,7 +2018,7 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="B58" t="str">
             <v>Линия ИМА С 50</v>
@@ -2027,30 +2027,30 @@
             <v>19</v>
           </cell>
           <cell r="D58">
-            <v>1908</v>
+            <v>1098</v>
           </cell>
           <cell r="E58">
-            <v>50</v>
+            <v>286</v>
           </cell>
           <cell r="F58" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-25</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="B59" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D59">
-            <v>3698</v>
+            <v>1908</v>
           </cell>
           <cell r="E59">
-            <v>38</v>
+            <v>50</v>
           </cell>
           <cell r="F59" t="str">
             <v>2022-11-25</v>
@@ -2058,19 +2058,19 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D60">
-            <v>1098</v>
+            <v>3680</v>
           </cell>
           <cell r="E60">
-            <v>286</v>
+            <v>38</v>
           </cell>
           <cell r="F60" t="str">
             <v>2022-11-28</v>
@@ -2078,16 +2078,16 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D61">
-            <v>141789</v>
+            <v>12665</v>
           </cell>
           <cell r="E61">
             <v>28</v>
@@ -2098,7 +2098,7 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B62" t="str">
             <v>Линия ИМА С 50</v>
@@ -2107,30 +2107,30 @@
             <v>22</v>
           </cell>
           <cell r="D62">
-            <v>12989</v>
+            <v>3910</v>
           </cell>
           <cell r="E62">
-            <v>28</v>
+            <v>43</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D63">
-            <v>4072</v>
+            <v>138981</v>
           </cell>
           <cell r="E63">
-            <v>43</v>
+            <v>28</v>
           </cell>
           <cell r="F63" t="str">
             <v>2022-11-30</v>
@@ -2138,19 +2138,19 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D64">
-            <v>29881</v>
+            <v>30801</v>
           </cell>
           <cell r="E64">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F64" t="str">
             <v>2022-12-02</v>
@@ -2158,7 +2158,7 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
@@ -2167,118 +2167,118 @@
             <v>25</v>
           </cell>
           <cell r="D65">
-            <v>32385</v>
+            <v>69989</v>
           </cell>
           <cell r="E65">
             <v>32</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>25</v>
+            <v>26</v>
           </cell>
           <cell r="D66">
-            <v>50346</v>
+            <v>21742</v>
           </cell>
           <cell r="E66">
-            <v>32</v>
+            <v>26</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>25</v>
+            <v>28</v>
           </cell>
           <cell r="D67">
-            <v>71537</v>
+            <v>594435</v>
           </cell>
           <cell r="E67">
-            <v>32</v>
+            <v>96</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>27</v>
+            <v>28</v>
           </cell>
           <cell r="D68">
-            <v>149935</v>
+            <v>127626</v>
           </cell>
           <cell r="E68">
-            <v>32</v>
+            <v>52</v>
           </cell>
           <cell r="F68" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>27</v>
+            <v>29</v>
           </cell>
           <cell r="D69">
-            <v>22966</v>
+            <v>60247</v>
           </cell>
           <cell r="E69">
-            <v>26</v>
+            <v>29</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>28</v>
+            <v>29</v>
           </cell>
           <cell r="D70">
-            <v>598395</v>
+            <v>49815</v>
           </cell>
           <cell r="E70">
-            <v>96</v>
+            <v>30</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
@@ -2287,98 +2287,98 @@
             <v>29</v>
           </cell>
           <cell r="D71">
-            <v>60427</v>
+            <v>46991</v>
           </cell>
           <cell r="E71">
-            <v>29</v>
+            <v>43</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
-            <v>29</v>
+            <v>31</v>
           </cell>
           <cell r="D72">
-            <v>128292</v>
+            <v>35564</v>
           </cell>
           <cell r="E72">
-            <v>52</v>
+            <v>53</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="D73">
-            <v>47819</v>
+            <v>7338</v>
           </cell>
           <cell r="E73">
-            <v>43</v>
+            <v>34</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="D74">
-            <v>22086</v>
+            <v>28225</v>
           </cell>
           <cell r="E74">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="F74" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="D75">
-            <v>50445</v>
+            <v>184531</v>
           </cell>
           <cell r="E75">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B76" t="str">
             <v>Линия ИМА С 50</v>
@@ -2387,78 +2387,78 @@
             <v>32</v>
           </cell>
           <cell r="D76">
-            <v>35870</v>
+            <v>35064</v>
           </cell>
           <cell r="E76">
-            <v>53</v>
+            <v>25</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B77" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>33</v>
+            <v>34</v>
           </cell>
           <cell r="D77">
-            <v>29287</v>
+            <v>58259</v>
           </cell>
           <cell r="E77">
-            <v>37</v>
+            <v>29</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>33</v>
+            <v>35</v>
           </cell>
           <cell r="D78">
-            <v>36000</v>
+            <v>44137</v>
           </cell>
           <cell r="E78">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>34</v>
+            <v>35</v>
           </cell>
           <cell r="D79">
-            <v>7860</v>
+            <v>25743</v>
           </cell>
           <cell r="E79">
-            <v>34</v>
+            <v>32</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
@@ -2467,38 +2467,38 @@
             <v>35</v>
           </cell>
           <cell r="D80">
-            <v>59915</v>
+            <v>27366</v>
           </cell>
           <cell r="E80">
             <v>29</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>35</v>
+            <v>36</v>
           </cell>
           <cell r="D81">
-            <v>26139</v>
+            <v>78378</v>
           </cell>
           <cell r="E81">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B82" t="str">
             <v>Линия ИМА С 50</v>
@@ -2507,98 +2507,98 @@
             <v>37</v>
           </cell>
           <cell r="D82">
-            <v>80628</v>
+            <v>100455</v>
           </cell>
           <cell r="E82">
-            <v>28</v>
+            <v>35</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>37</v>
+            <v>38</v>
           </cell>
           <cell r="D83">
-            <v>28608</v>
+            <v>66670</v>
           </cell>
           <cell r="E83">
-            <v>29</v>
+            <v>61</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>38</v>
+            <v>40</v>
           </cell>
           <cell r="D84">
-            <v>101139</v>
+            <v>1479935</v>
           </cell>
           <cell r="E84">
-            <v>35</v>
+            <v>31</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>39</v>
+            <v>41</v>
           </cell>
           <cell r="D85">
-            <v>67354</v>
+            <v>55365</v>
           </cell>
           <cell r="E85">
-            <v>61</v>
+            <v>32</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>41</v>
+            <v>42</v>
           </cell>
           <cell r="D86">
-            <v>1506161</v>
+            <v>100583</v>
           </cell>
           <cell r="E86">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
@@ -2607,73 +2607,73 @@
             <v>42</v>
           </cell>
           <cell r="D87">
-            <v>101591</v>
+            <v>89271</v>
           </cell>
           <cell r="E87">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>42</v>
+            <v>45</v>
           </cell>
           <cell r="D88">
-            <v>56373</v>
+            <v>78207</v>
           </cell>
           <cell r="E88">
-            <v>32</v>
+            <v>44</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2022-12-27</v>
+            <v>2023-01-02</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>46</v>
+            <v>51</v>
           </cell>
           <cell r="D89">
-            <v>79269</v>
+            <v>68767</v>
           </cell>
           <cell r="E89">
-            <v>44</v>
+            <v>30</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B90" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>51</v>
+            <v>53</v>
           </cell>
           <cell r="D90">
-            <v>69703</v>
+            <v>7297</v>
           </cell>
           <cell r="E90">
-            <v>30</v>
+            <v>39</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="91">
@@ -2687,33 +2687,33 @@
             <v>55</v>
           </cell>
           <cell r="D91">
-            <v>19826</v>
+            <v>19628</v>
           </cell>
           <cell r="E91">
             <v>37</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="B92" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C92">
-            <v>59</v>
+            <v>61</v>
           </cell>
           <cell r="D92">
-            <v>7729</v>
+            <v>40716</v>
           </cell>
           <cell r="E92">
-            <v>39</v>
+            <v>36</v>
           </cell>
           <cell r="F92" t="str">
-            <v>2023-01-19</v>
+            <v>2023-01-24</v>
           </cell>
         </row>
         <row r="93">
@@ -2724,16 +2724,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>65</v>
+            <v>63</v>
           </cell>
           <cell r="D93">
-            <v>52722</v>
+            <v>51372</v>
           </cell>
           <cell r="E93">
             <v>28</v>
           </cell>
           <cell r="F93" t="str">
-            <v>2023-01-27</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="94">
@@ -2744,10 +2744,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>75</v>
+            <v>74</v>
           </cell>
           <cell r="D94">
-            <v>6862</v>
+            <v>6826</v>
           </cell>
           <cell r="E94">
             <v>48</v>
@@ -2773,7 +2773,7 @@
             <v>38</v>
           </cell>
           <cell r="F95" t="str">
-            <v>2023-02-24</v>
+            <v>2023-02-27</v>
           </cell>
         </row>
         <row r="96">
@@ -2784,16 +2784,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>192</v>
+            <v>183</v>
           </cell>
           <cell r="D96">
-            <v>6865</v>
+            <v>6577</v>
           </cell>
           <cell r="E96" t="str">
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-25</v>
+            <v>2023-07-13</v>
           </cell>
         </row>
         <row r="97">
@@ -2804,7 +2804,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>207</v>
+            <v>206</v>
           </cell>
           <cell r="D97">
             <v>1188</v>
@@ -2824,7 +2824,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>207</v>
+            <v>206</v>
           </cell>
           <cell r="D98">
             <v>1152</v>
@@ -2844,7 +2844,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>214</v>
+            <v>213</v>
           </cell>
           <cell r="D99">
             <v>1530</v>
@@ -2864,10 +2864,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="D100">
-            <v>42110</v>
+            <v>40310</v>
           </cell>
           <cell r="E100">
             <v>31</v>
@@ -2884,10 +2884,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="D101">
-            <v>29298</v>
+            <v>27714</v>
           </cell>
           <cell r="E101">
             <v>37</v>
@@ -2907,18 +2907,18 @@
             <v>18</v>
           </cell>
           <cell r="D102">
-            <v>6064</v>
+            <v>5920</v>
           </cell>
           <cell r="E102">
             <v>30</v>
           </cell>
           <cell r="F102" t="str">
-            <v>2022-11-23</v>
+            <v>2022-11-24</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="B103" t="str">
             <v>Линия Консумаш</v>
@@ -2927,30 +2927,30 @@
             <v>22</v>
           </cell>
           <cell r="D103">
-            <v>17250</v>
+            <v>21543</v>
           </cell>
           <cell r="E103">
-            <v>41</v>
+            <v>30</v>
           </cell>
           <cell r="F103" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C104">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D104">
-            <v>22245</v>
+            <v>16710</v>
           </cell>
           <cell r="E104">
-            <v>30</v>
+            <v>41</v>
           </cell>
           <cell r="F104" t="str">
             <v>2022-11-30</v>
@@ -2967,13 +2967,13 @@
             <v>23</v>
           </cell>
           <cell r="D105">
-            <v>4654</v>
+            <v>4564</v>
           </cell>
           <cell r="E105">
             <v>34</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="106">
@@ -2984,10 +2984,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D106">
-            <v>26242</v>
+            <v>25180</v>
           </cell>
           <cell r="E106">
             <v>30</v>
@@ -3007,13 +3007,13 @@
             <v>26</v>
           </cell>
           <cell r="D107">
-            <v>14823</v>
+            <v>14643</v>
           </cell>
           <cell r="E107">
             <v>32</v>
           </cell>
           <cell r="F107" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="108">
@@ -3024,10 +3024,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="D108">
-            <v>3067</v>
+            <v>2923</v>
           </cell>
           <cell r="E108">
             <v>51</v>
@@ -3058,7 +3058,7 @@
             <v>13</v>
           </cell>
           <cell r="D8">
-            <v>77</v>
+            <v>76</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
@@ -3070,7 +3070,7 @@
             <v>81632</v>
           </cell>
           <cell r="K8">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="9">
@@ -3083,22 +3083,22 @@
             <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C10">
-            <v>1924</v>
+            <v>1982</v>
           </cell>
           <cell r="D10">
-            <v>99</v>
+            <v>102</v>
           </cell>
           <cell r="H10">
-            <v>48908</v>
+            <v>44148</v>
           </cell>
           <cell r="I10">
-            <v>48908</v>
+            <v>44148</v>
           </cell>
           <cell r="K10">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="L10">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="M10">
             <v>39400</v>
@@ -3124,7 +3124,7 @@
             <v>22</v>
           </cell>
           <cell r="L11">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M11">
             <v>10618</v>
@@ -3132,126 +3132,123 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C12">
-            <v>321</v>
+            <v>821</v>
           </cell>
           <cell r="D12">
-            <v>89</v>
+            <v>111</v>
           </cell>
           <cell r="H12">
-            <v>11244</v>
+            <v>21532</v>
           </cell>
           <cell r="I12">
-            <v>11244</v>
+            <v>21532</v>
           </cell>
           <cell r="K12">
-            <v>23</v>
-          </cell>
-          <cell r="L12">
-            <v>15</v>
-          </cell>
-          <cell r="M12">
-            <v>15760</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="C13">
-            <v>812</v>
+            <v>675</v>
           </cell>
           <cell r="D13">
-            <v>111</v>
+            <v>69</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H13">
-            <v>22274</v>
+            <v>32638</v>
           </cell>
           <cell r="I13">
-            <v>22274</v>
+            <v>32638</v>
           </cell>
           <cell r="K13">
-            <v>23</v>
+            <v>24</v>
+          </cell>
+          <cell r="L13">
+            <v>16</v>
+          </cell>
+          <cell r="M13">
+            <v>25445</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C14">
-            <v>652</v>
+            <v>117</v>
           </cell>
           <cell r="D14">
-            <v>67</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>↓</v>
+            <v>92</v>
           </cell>
           <cell r="H14">
-            <v>34584</v>
+            <v>3405</v>
           </cell>
           <cell r="I14">
-            <v>34584</v>
+            <v>3405</v>
           </cell>
           <cell r="K14">
-            <v>26</v>
-          </cell>
-          <cell r="L14">
-            <v>17</v>
-          </cell>
-          <cell r="M14">
-            <v>25445</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C15">
-            <v>746</v>
+            <v>294</v>
           </cell>
           <cell r="D15">
-            <v>89</v>
+            <v>93</v>
           </cell>
           <cell r="H15">
-            <v>31626</v>
+            <v>12315</v>
           </cell>
           <cell r="I15">
-            <v>31626</v>
+            <v>12315</v>
           </cell>
           <cell r="K15">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="L15">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="M15">
-            <v>27563</v>
+            <v>15267</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C16">
-            <v>70</v>
+            <v>759</v>
           </cell>
           <cell r="D16">
-            <v>57</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H16">
-            <v>5596</v>
+            <v>30590</v>
           </cell>
           <cell r="I16">
-            <v>5596</v>
+            <v>30590</v>
           </cell>
           <cell r="K16">
-            <v>26</v>
+            <v>25</v>
+          </cell>
+          <cell r="L16">
+            <v>15</v>
+          </cell>
+          <cell r="M16">
+            <v>27563</v>
           </cell>
         </row>
         <row r="17">
@@ -3259,19 +3256,19 @@
             <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C17">
-            <v>618</v>
+            <v>629</v>
           </cell>
           <cell r="D17">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="H17">
-            <v>26336</v>
+            <v>25398</v>
           </cell>
           <cell r="I17">
-            <v>26336</v>
+            <v>25398</v>
           </cell>
           <cell r="K17">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="18">
@@ -3279,22 +3276,22 @@
             <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C18">
-            <v>262</v>
+            <v>269</v>
           </cell>
           <cell r="D18">
-            <v>89</v>
+            <v>91</v>
           </cell>
           <cell r="H18">
-            <v>12360</v>
+            <v>11786</v>
           </cell>
           <cell r="I18">
-            <v>12360</v>
+            <v>11786</v>
           </cell>
           <cell r="K18">
-            <v>27</v>
+            <v>25</v>
           </cell>
           <cell r="L18">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="M18">
             <v>10834</v>
@@ -3302,79 +3299,82 @@
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C19">
-            <v>281</v>
+            <v>72</v>
           </cell>
           <cell r="D19">
-            <v>89</v>
+            <v>57</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H19">
-            <v>13463</v>
+            <v>5484</v>
           </cell>
           <cell r="I19">
-            <v>13463</v>
+            <v>5484</v>
           </cell>
           <cell r="K19">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C20">
-            <v>110</v>
+            <v>598</v>
           </cell>
           <cell r="D20">
-            <v>87</v>
+            <v>93</v>
           </cell>
           <cell r="H20">
-            <v>3965</v>
+            <v>20523</v>
           </cell>
           <cell r="I20">
-            <v>3965</v>
+            <v>20523</v>
           </cell>
           <cell r="K20">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C21">
-            <v>584</v>
+            <v>414</v>
           </cell>
           <cell r="D21">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="H21">
-            <v>21685</v>
+            <v>15931</v>
           </cell>
           <cell r="I21">
-            <v>21685</v>
+            <v>15931</v>
           </cell>
           <cell r="K21">
-            <v>28</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C22">
-            <v>586</v>
+            <v>1223</v>
           </cell>
           <cell r="D22">
-            <v>80</v>
+            <v>89</v>
           </cell>
           <cell r="H22">
-            <v>30343</v>
+            <v>42084</v>
           </cell>
           <cell r="I22">
-            <v>30343</v>
+            <v>42084</v>
           </cell>
           <cell r="K22">
             <v>28</v>
@@ -3400,10 +3400,10 @@
             <v>2</v>
           </cell>
           <cell r="H23">
-            <v>19200</v>
+            <v>19144</v>
           </cell>
           <cell r="I23">
-            <v>19200</v>
+            <v>19144</v>
           </cell>
           <cell r="K23">
             <v>28</v>
@@ -3411,39 +3411,39 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C24">
-            <v>1204</v>
+            <v>596</v>
           </cell>
           <cell r="D24">
-            <v>88</v>
+            <v>81</v>
           </cell>
           <cell r="H24">
-            <v>43708</v>
+            <v>29433</v>
           </cell>
           <cell r="I24">
-            <v>43708</v>
+            <v>29433</v>
           </cell>
           <cell r="K24">
-            <v>29</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C25">
-            <v>404</v>
+            <v>427</v>
           </cell>
           <cell r="D25">
-            <v>90</v>
+            <v>94</v>
           </cell>
           <cell r="H25">
-            <v>16799</v>
+            <v>19383</v>
           </cell>
           <cell r="I25">
-            <v>16799</v>
+            <v>19383</v>
           </cell>
           <cell r="K25">
             <v>29</v>
@@ -3451,19 +3451,25 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C26">
-            <v>417</v>
+            <v>2254</v>
           </cell>
           <cell r="D26">
-            <v>93</v>
+            <v>90</v>
+          </cell>
+          <cell r="F26">
+            <v>3360</v>
+          </cell>
+          <cell r="G26">
+            <v>2</v>
           </cell>
           <cell r="H26">
-            <v>20209</v>
+            <v>71071</v>
           </cell>
           <cell r="I26">
-            <v>20209</v>
+            <v>71071</v>
           </cell>
           <cell r="K26">
             <v>30</v>
@@ -3471,42 +3477,39 @@
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C27">
-            <v>594</v>
+            <v>534</v>
           </cell>
           <cell r="D27">
-            <v>79</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>↓</v>
+            <v>88</v>
           </cell>
           <cell r="H27">
-            <v>30385</v>
+            <v>28170</v>
           </cell>
           <cell r="I27">
-            <v>30385</v>
+            <v>18560</v>
           </cell>
           <cell r="K27">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C28">
-            <v>921</v>
+            <v>401</v>
           </cell>
           <cell r="D28">
-            <v>82</v>
+            <v>94</v>
           </cell>
           <cell r="H28">
-            <v>40974</v>
+            <v>16259</v>
           </cell>
           <cell r="I28">
-            <v>40974</v>
+            <v>16259</v>
           </cell>
           <cell r="K28">
             <v>31</v>
@@ -3517,16 +3520,16 @@
             <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C29">
-            <v>560</v>
+            <v>561</v>
           </cell>
           <cell r="D29">
             <v>88</v>
           </cell>
           <cell r="H29">
-            <v>28195</v>
+            <v>28069</v>
           </cell>
           <cell r="I29">
-            <v>28195</v>
+            <v>28069</v>
           </cell>
           <cell r="K29">
             <v>31</v>
@@ -3534,82 +3537,85 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C30">
-            <v>509</v>
+            <v>929</v>
           </cell>
           <cell r="D30">
-            <v>85</v>
+            <v>82</v>
           </cell>
           <cell r="H30">
-            <v>30256</v>
+            <v>40218</v>
           </cell>
           <cell r="I30">
-            <v>20646</v>
+            <v>40218</v>
           </cell>
           <cell r="K30">
-            <v>32</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C31">
-            <v>328</v>
+            <v>604</v>
           </cell>
           <cell r="D31">
-            <v>91</v>
+            <v>79</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H31">
-            <v>18841</v>
+            <v>29573</v>
           </cell>
           <cell r="I31">
-            <v>18841</v>
+            <v>29573</v>
           </cell>
           <cell r="K31">
-            <v>33</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C32">
-            <v>3083</v>
+            <v>335</v>
           </cell>
           <cell r="D32">
-            <v>77</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>↓</v>
+            <v>92</v>
           </cell>
           <cell r="H32">
-            <v>118307</v>
+            <v>18253</v>
           </cell>
           <cell r="I32">
-            <v>118307</v>
+            <v>18253</v>
           </cell>
           <cell r="K32">
-            <v>33</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C33">
-            <v>392</v>
+            <v>3098</v>
           </cell>
           <cell r="D33">
-            <v>92</v>
+            <v>77</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H33">
-            <v>16987</v>
+            <v>116991</v>
           </cell>
           <cell r="I33">
-            <v>16987</v>
+            <v>116991</v>
           </cell>
           <cell r="K33">
             <v>33</v>
@@ -3617,25 +3623,19 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C34">
-            <v>2202</v>
+            <v>427</v>
           </cell>
           <cell r="D34">
-            <v>87</v>
-          </cell>
-          <cell r="F34">
-            <v>3360</v>
-          </cell>
-          <cell r="G34">
-            <v>2</v>
+            <v>93</v>
           </cell>
           <cell r="H34">
-            <v>75243</v>
+            <v>27995</v>
           </cell>
           <cell r="I34">
-            <v>75243</v>
+            <v>27995</v>
           </cell>
           <cell r="K34">
             <v>33</v>
@@ -3643,62 +3643,62 @@
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C35">
-            <v>412</v>
+            <v>405</v>
           </cell>
           <cell r="D35">
-            <v>91</v>
+            <v>84</v>
           </cell>
           <cell r="H35">
-            <v>29241</v>
+            <v>22213</v>
           </cell>
           <cell r="I35">
-            <v>29241</v>
+            <v>22213</v>
           </cell>
           <cell r="K35">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C36">
-            <v>398</v>
+            <v>261</v>
           </cell>
           <cell r="D36">
-            <v>83</v>
+            <v>76</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H36">
-            <v>22773</v>
+            <v>23135</v>
           </cell>
           <cell r="I36">
-            <v>22773</v>
+            <v>23135</v>
           </cell>
           <cell r="K36">
-            <v>34</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Береза почки 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C37">
-            <v>258</v>
+            <v>184</v>
           </cell>
           <cell r="D37">
-            <v>76</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>↓</v>
+            <v>86</v>
           </cell>
           <cell r="H37">
-            <v>23345</v>
+            <v>11886</v>
           </cell>
           <cell r="I37">
-            <v>23345</v>
+            <v>11886</v>
           </cell>
           <cell r="K37">
             <v>35</v>
@@ -3709,19 +3709,19 @@
             <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C38">
-            <v>421</v>
+            <v>428</v>
           </cell>
           <cell r="D38">
             <v>96</v>
           </cell>
           <cell r="H38">
-            <v>28228</v>
+            <v>27626</v>
           </cell>
           <cell r="I38">
-            <v>28228</v>
+            <v>27626</v>
           </cell>
           <cell r="K38">
-            <v>36</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="39">
@@ -3729,16 +3729,16 @@
             <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C39">
-            <v>939</v>
+            <v>942</v>
           </cell>
           <cell r="D39">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="H39">
-            <v>47328</v>
+            <v>47076</v>
           </cell>
           <cell r="I39">
-            <v>47328</v>
+            <v>47076</v>
           </cell>
           <cell r="K39">
             <v>36</v>
@@ -3749,36 +3749,36 @@
             <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C40">
-            <v>452</v>
+            <v>457</v>
           </cell>
           <cell r="D40">
             <v>83</v>
           </cell>
           <cell r="H40">
-            <v>27707</v>
+            <v>27245</v>
           </cell>
           <cell r="I40">
-            <v>27707</v>
+            <v>27245</v>
           </cell>
           <cell r="K40">
-            <v>37</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C41">
-            <v>177</v>
+            <v>499</v>
           </cell>
           <cell r="D41">
-            <v>84</v>
+            <v>86</v>
           </cell>
           <cell r="H41">
-            <v>12488</v>
+            <v>37089</v>
           </cell>
           <cell r="I41">
-            <v>12488</v>
+            <v>37089</v>
           </cell>
           <cell r="K41">
             <v>37</v>
@@ -3786,19 +3786,19 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C42">
-            <v>491</v>
+            <v>327</v>
           </cell>
           <cell r="D42">
-            <v>85</v>
+            <v>87</v>
           </cell>
           <cell r="H42">
-            <v>37705</v>
+            <v>27004</v>
           </cell>
           <cell r="I42">
-            <v>37705</v>
+            <v>27004</v>
           </cell>
           <cell r="K42">
             <v>37</v>
@@ -3809,19 +3809,19 @@
             <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C43">
-            <v>257</v>
+            <v>262</v>
           </cell>
           <cell r="D43">
-            <v>85</v>
+            <v>86</v>
           </cell>
           <cell r="H43">
-            <v>15820</v>
+            <v>15358</v>
           </cell>
           <cell r="I43">
-            <v>15820</v>
+            <v>15358</v>
           </cell>
           <cell r="K43">
-            <v>38</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="44">
@@ -3829,16 +3829,16 @@
             <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C44">
-            <v>384</v>
+            <v>388</v>
           </cell>
           <cell r="D44">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="H44">
-            <v>18702</v>
+            <v>18338</v>
           </cell>
           <cell r="I44">
-            <v>18702</v>
+            <v>18338</v>
           </cell>
           <cell r="K44">
             <v>38</v>
@@ -3846,19 +3846,19 @@
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C45">
-            <v>326</v>
+            <v>240</v>
           </cell>
           <cell r="D45">
-            <v>88</v>
+            <v>100</v>
           </cell>
           <cell r="H45">
-            <v>27144</v>
+            <v>11539</v>
           </cell>
           <cell r="I45">
-            <v>27144</v>
+            <v>11539</v>
           </cell>
           <cell r="K45">
             <v>38</v>
@@ -3866,62 +3866,62 @@
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C46">
-            <v>234</v>
+            <v>36</v>
           </cell>
           <cell r="D46">
-            <v>98</v>
+            <v>83</v>
           </cell>
           <cell r="H46">
-            <v>12015</v>
+            <v>2688</v>
           </cell>
           <cell r="I46">
-            <v>12015</v>
+            <v>742</v>
           </cell>
           <cell r="K46">
-            <v>39</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C47">
-            <v>36</v>
+            <v>272</v>
           </cell>
           <cell r="D47">
-            <v>84</v>
+            <v>78</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H47">
-            <v>2688</v>
+            <v>23348</v>
           </cell>
           <cell r="I47">
-            <v>742</v>
+            <v>23348</v>
           </cell>
           <cell r="K47">
-            <v>41</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C48">
-            <v>269</v>
+            <v>216</v>
           </cell>
           <cell r="D48">
-            <v>78</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>↓</v>
+            <v>100</v>
           </cell>
           <cell r="H48">
-            <v>23600</v>
+            <v>11215</v>
           </cell>
           <cell r="I48">
-            <v>23600</v>
+            <v>11215</v>
           </cell>
           <cell r="K48">
             <v>43</v>
@@ -3929,42 +3929,42 @@
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C49">
-            <v>215</v>
+            <v>1000</v>
           </cell>
           <cell r="D49">
-            <v>99</v>
+            <v>77</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H49">
-            <v>11355</v>
+            <v>86509</v>
           </cell>
           <cell r="I49">
-            <v>11355</v>
+            <v>51803</v>
           </cell>
           <cell r="K49">
-            <v>43</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Лен семена 100г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C50">
-            <v>983</v>
+            <v>212</v>
           </cell>
           <cell r="D50">
-            <v>76</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>↓</v>
+            <v>100</v>
           </cell>
           <cell r="H50">
-            <v>87965</v>
+            <v>16078</v>
           </cell>
           <cell r="I50">
-            <v>53259</v>
+            <v>6320</v>
           </cell>
           <cell r="K50">
             <v>46</v>
@@ -3972,42 +3972,42 @@
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C51">
-            <v>208</v>
+            <v>143</v>
           </cell>
           <cell r="D51">
-            <v>99</v>
+            <v>89</v>
           </cell>
           <cell r="H51">
-            <v>16400</v>
+            <v>9393</v>
           </cell>
           <cell r="I51">
-            <v>6642</v>
+            <v>9393</v>
           </cell>
           <cell r="K51">
-            <v>47</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C52">
-            <v>141</v>
+            <v>339</v>
           </cell>
           <cell r="D52">
-            <v>89</v>
+            <v>94</v>
           </cell>
           <cell r="H52">
-            <v>9519</v>
+            <v>25379</v>
           </cell>
           <cell r="I52">
-            <v>9519</v>
+            <v>9704</v>
           </cell>
           <cell r="K52">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="53">
@@ -4015,19 +4015,19 @@
             <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C53">
-            <v>257</v>
+            <v>260</v>
           </cell>
           <cell r="D53">
-            <v>104</v>
+            <v>105</v>
           </cell>
           <cell r="H53">
-            <v>13411</v>
+            <v>13173</v>
           </cell>
           <cell r="I53">
-            <v>2309</v>
+            <v>2071</v>
           </cell>
           <cell r="K53">
-            <v>52</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="54">
@@ -4038,7 +4038,7 @@
             <v>173</v>
           </cell>
           <cell r="D54">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="F54">
             <v>280</v>
@@ -4053,7 +4053,7 @@
             <v>3864</v>
           </cell>
           <cell r="K54">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="55">
@@ -4061,19 +4061,19 @@
             <v>Крапива листья 50г</v>
           </cell>
           <cell r="C55">
-            <v>271</v>
+            <v>277</v>
           </cell>
           <cell r="D55">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="H55">
-            <v>28747</v>
+            <v>28285</v>
           </cell>
           <cell r="I55">
-            <v>9376</v>
+            <v>8914</v>
           </cell>
           <cell r="K55">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="56">
@@ -4105,114 +4105,111 @@
         </row>
         <row r="59">
           <cell r="B59" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>112</v>
+            <v>429</v>
           </cell>
           <cell r="D59">
-            <v>88</v>
+            <v>76</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H59">
-            <v>3098</v>
+            <v>14999</v>
           </cell>
           <cell r="I59">
-            <v>3098</v>
+            <v>14999</v>
           </cell>
           <cell r="K59">
-            <v>20</v>
-          </cell>
-          <cell r="L59">
-            <v>16</v>
-          </cell>
-          <cell r="M59">
-            <v>5036</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>425</v>
+            <v>76</v>
           </cell>
           <cell r="D60">
-            <v>76</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>↓</v>
+            <v>100</v>
           </cell>
           <cell r="H60">
-            <v>15299</v>
+            <v>2988</v>
           </cell>
           <cell r="I60">
-            <v>15299</v>
+            <v>2988</v>
           </cell>
           <cell r="K60">
-            <v>26</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>76</v>
+            <v>104</v>
           </cell>
           <cell r="D61">
-            <v>100</v>
+            <v>99</v>
           </cell>
           <cell r="H61">
-            <v>2988</v>
+            <v>4701</v>
           </cell>
           <cell r="I61">
-            <v>2988</v>
+            <v>2301</v>
           </cell>
           <cell r="K61">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>104</v>
+            <v>40</v>
           </cell>
           <cell r="D62">
-            <v>99</v>
+            <v>49</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H62">
-            <v>4701</v>
+            <v>4820</v>
           </cell>
           <cell r="I62">
-            <v>2301</v>
+            <v>4820</v>
           </cell>
           <cell r="K62">
-            <v>35</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
+            <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>40</v>
+            <v>16</v>
           </cell>
           <cell r="D63">
-            <v>49</v>
+            <v>69</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>4880</v>
+            <v>8340</v>
           </cell>
           <cell r="I63">
-            <v>4880</v>
+            <v>8340</v>
           </cell>
           <cell r="K63">
-            <v>36</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="64">
@@ -4220,7 +4217,7 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="C64">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="D64">
             <v>64</v>
@@ -4229,36 +4226,33 @@
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9760</v>
+            <v>9750</v>
           </cell>
           <cell r="I64">
-            <v>9760</v>
+            <v>9750</v>
           </cell>
           <cell r="K64">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65" t="str">
-            <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C65">
-            <v>16</v>
+            <v>114</v>
           </cell>
           <cell r="D65">
-            <v>68</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H65">
-            <v>8360</v>
+            <v>7928</v>
           </cell>
           <cell r="I65">
-            <v>8360</v>
+            <v>2958</v>
           </cell>
           <cell r="K65">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="66">
@@ -4311,7 +4305,7 @@
             <v>28</v>
           </cell>
           <cell r="D69">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="E69" t="str">
             <v>↓</v>
@@ -4337,7 +4331,7 @@
             <v>25</v>
           </cell>
           <cell r="D70">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
@@ -4395,7 +4389,7 @@
             <v>17</v>
           </cell>
           <cell r="D72">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="E72" t="str">
             <v>↓</v>
@@ -4415,19 +4409,25 @@
             <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C73">
-            <v>55</v>
+            <v>58</v>
           </cell>
           <cell r="D73">
-            <v>94</v>
+            <v>96</v>
           </cell>
           <cell r="H73">
-            <v>2659</v>
+            <v>2479</v>
           </cell>
           <cell r="I73">
-            <v>2659</v>
+            <v>2479</v>
           </cell>
           <cell r="K73">
-            <v>25</v>
+            <v>24</v>
+          </cell>
+          <cell r="L73">
+            <v>17</v>
+          </cell>
+          <cell r="M73">
+            <v>4924</v>
           </cell>
         </row>
         <row r="74">
@@ -4435,36 +4435,42 @@
             <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C74">
-            <v>270</v>
+            <v>274</v>
           </cell>
           <cell r="D74">
-            <v>83</v>
+            <v>84</v>
           </cell>
           <cell r="H74">
-            <v>12989</v>
+            <v>12665</v>
           </cell>
           <cell r="I74">
-            <v>12989</v>
+            <v>12665</v>
           </cell>
           <cell r="K74">
-            <v>27</v>
+            <v>26</v>
+          </cell>
+          <cell r="L74">
+            <v>18</v>
+          </cell>
+          <cell r="M74">
+            <v>10465</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C75">
-            <v>1259</v>
+            <v>3822</v>
           </cell>
           <cell r="D75">
             <v>89</v>
           </cell>
           <cell r="H75">
-            <v>50346</v>
+            <v>138981</v>
           </cell>
           <cell r="I75">
-            <v>50346</v>
+            <v>89157</v>
           </cell>
           <cell r="K75">
             <v>32</v>
@@ -4473,33 +4479,27 @@
             <v>15</v>
           </cell>
           <cell r="M75">
-            <v>40285</v>
+            <v>49987</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>3789</v>
+            <v>837</v>
           </cell>
           <cell r="D76">
-            <v>88</v>
+            <v>118</v>
           </cell>
           <cell r="H76">
-            <v>141789</v>
+            <v>30801</v>
           </cell>
           <cell r="I76">
-            <v>91965</v>
+            <v>30801</v>
           </cell>
           <cell r="K76">
             <v>33</v>
-          </cell>
-          <cell r="L76">
-            <v>16</v>
-          </cell>
-          <cell r="M76">
-            <v>49987</v>
           </cell>
         </row>
         <row r="77">
@@ -4507,7 +4507,7 @@
             <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C77">
-            <v>2475</v>
+            <v>2488</v>
           </cell>
           <cell r="D77">
             <v>82</v>
@@ -4519,13 +4519,13 @@
             <v>3</v>
           </cell>
           <cell r="H77">
-            <v>128292</v>
+            <v>127626</v>
           </cell>
           <cell r="I77">
-            <v>83655</v>
+            <v>82989</v>
           </cell>
           <cell r="K77">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="78">
@@ -4548,33 +4548,27 @@
             <v>1098</v>
           </cell>
           <cell r="K78">
-            <v>35</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C79">
-            <v>372</v>
+            <v>14182</v>
           </cell>
           <cell r="D79">
-            <v>85</v>
+            <v>90</v>
           </cell>
           <cell r="H79">
-            <v>22086</v>
+            <v>594435</v>
           </cell>
           <cell r="I79">
-            <v>22086</v>
+            <v>594435</v>
           </cell>
           <cell r="K79">
             <v>35</v>
-          </cell>
-          <cell r="L79">
-            <v>15</v>
-          </cell>
-          <cell r="M79">
-            <v>17901</v>
           </cell>
         </row>
         <row r="80">
@@ -4588,16 +4582,16 @@
             <v>97</v>
           </cell>
           <cell r="H80">
-            <v>3698</v>
+            <v>3680</v>
           </cell>
           <cell r="I80">
-            <v>3698</v>
+            <v>3680</v>
           </cell>
           <cell r="K80">
             <v>35</v>
           </cell>
           <cell r="L80">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M80">
             <v>3941</v>
@@ -4605,470 +4599,464 @@
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C81">
-            <v>14136</v>
+            <v>444</v>
           </cell>
           <cell r="D81">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="H81">
-            <v>598395</v>
+            <v>21742</v>
           </cell>
           <cell r="I81">
-            <v>598395</v>
+            <v>21742</v>
           </cell>
           <cell r="K81">
-            <v>35</v>
+            <v>36</v>
+          </cell>
+          <cell r="L81">
+            <v>15</v>
+          </cell>
+          <cell r="M81">
+            <v>20866</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C82">
-            <v>818</v>
+            <v>1361</v>
           </cell>
           <cell r="D82">
-            <v>116</v>
+            <v>91</v>
           </cell>
           <cell r="H82">
-            <v>32385</v>
+            <v>69989</v>
           </cell>
           <cell r="I82">
-            <v>32385</v>
+            <v>69989</v>
           </cell>
           <cell r="K82">
-            <v>35</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C83">
-            <v>512</v>
+            <v>722</v>
           </cell>
           <cell r="D83">
-            <v>99</v>
+            <v>95</v>
           </cell>
           <cell r="H83">
-            <v>29881</v>
+            <v>35564</v>
           </cell>
           <cell r="I83">
-            <v>29881</v>
+            <v>35564</v>
           </cell>
           <cell r="K83">
-            <v>36</v>
+            <v>40</v>
           </cell>
           <cell r="L83">
-            <v>15</v>
+            <v>16</v>
           </cell>
           <cell r="M83">
-            <v>16815</v>
+            <v>9850</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C84">
-            <v>430</v>
+            <v>793</v>
           </cell>
           <cell r="D84">
-            <v>89</v>
+            <v>88</v>
           </cell>
           <cell r="H84">
-            <v>22966</v>
+            <v>46991</v>
           </cell>
           <cell r="I84">
-            <v>22966</v>
+            <v>46991</v>
           </cell>
           <cell r="K84">
-            <v>38</v>
+            <v>40</v>
           </cell>
           <cell r="L84">
             <v>16</v>
           </cell>
           <cell r="M84">
-            <v>20866</v>
+            <v>15390</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C85">
-            <v>1340</v>
+            <v>498</v>
           </cell>
           <cell r="D85">
-            <v>89</v>
+            <v>99</v>
           </cell>
           <cell r="H85">
-            <v>71537</v>
+            <v>27366</v>
           </cell>
           <cell r="I85">
-            <v>71537</v>
+            <v>27366</v>
           </cell>
           <cell r="K85">
-            <v>39</v>
+            <v>40</v>
+          </cell>
+          <cell r="L85">
+            <v>16</v>
+          </cell>
+          <cell r="M85">
+            <v>15101</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C86">
-            <v>719</v>
+            <v>928</v>
           </cell>
           <cell r="D86">
-            <v>95</v>
+            <v>103</v>
+          </cell>
+          <cell r="F86">
+            <v>630</v>
+          </cell>
+          <cell r="G86">
+            <v>1</v>
           </cell>
           <cell r="H86">
-            <v>35870</v>
+            <v>49815</v>
           </cell>
           <cell r="I86">
-            <v>35870</v>
+            <v>49815</v>
           </cell>
           <cell r="K86">
             <v>40</v>
           </cell>
-          <cell r="L86">
-            <v>17</v>
-          </cell>
-          <cell r="M86">
-            <v>9850</v>
-          </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C87">
-            <v>3556</v>
+            <v>789</v>
           </cell>
           <cell r="D87">
-            <v>85</v>
+            <v>76</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H87">
-            <v>149935</v>
+            <v>58259</v>
           </cell>
           <cell r="I87">
-            <v>149935</v>
+            <v>58259</v>
           </cell>
           <cell r="K87">
-            <v>40</v>
-          </cell>
-          <cell r="L87">
-            <v>15</v>
-          </cell>
-          <cell r="M87">
-            <v>36936</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C88">
-            <v>784</v>
+            <v>338</v>
           </cell>
           <cell r="D88">
-            <v>88</v>
+            <v>79</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H88">
-            <v>47819</v>
+            <v>28225</v>
           </cell>
           <cell r="I88">
-            <v>47819</v>
+            <v>28225</v>
           </cell>
           <cell r="K88">
-            <v>41</v>
-          </cell>
-          <cell r="L88">
-            <v>17</v>
-          </cell>
-          <cell r="M88">
-            <v>15390</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C89">
-            <v>921</v>
+            <v>1024</v>
           </cell>
           <cell r="D89">
-            <v>103</v>
-          </cell>
-          <cell r="F89">
-            <v>630</v>
-          </cell>
-          <cell r="G89">
-            <v>1</v>
+            <v>92</v>
           </cell>
           <cell r="H89">
-            <v>50445</v>
+            <v>60247</v>
           </cell>
           <cell r="I89">
-            <v>50445</v>
+            <v>60247</v>
           </cell>
           <cell r="K89">
-            <v>41</v>
+            <v>45</v>
+          </cell>
+          <cell r="L89">
+            <v>17</v>
+          </cell>
+          <cell r="M89">
+            <v>34471</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C90">
-            <v>484</v>
+            <v>1072</v>
           </cell>
           <cell r="D90">
-            <v>96</v>
+            <v>87</v>
           </cell>
           <cell r="H90">
-            <v>28608</v>
+            <v>66670</v>
           </cell>
           <cell r="I90">
-            <v>28608</v>
+            <v>66670</v>
           </cell>
           <cell r="K90">
-            <v>42</v>
-          </cell>
-          <cell r="L90">
-            <v>17</v>
-          </cell>
-          <cell r="M90">
-            <v>15101</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C91">
-            <v>768</v>
+            <v>290</v>
           </cell>
           <cell r="D91">
-            <v>74</v>
-          </cell>
-          <cell r="E91" t="str">
-            <v>↓</v>
+            <v>87</v>
           </cell>
           <cell r="H91">
-            <v>59915</v>
+            <v>25743</v>
           </cell>
           <cell r="I91">
-            <v>59915</v>
+            <v>25743</v>
           </cell>
           <cell r="K91">
-            <v>42</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C92">
-            <v>325</v>
+            <v>717</v>
           </cell>
           <cell r="D92">
-            <v>77</v>
-          </cell>
-          <cell r="E92" t="str">
-            <v>↓</v>
+            <v>96</v>
           </cell>
           <cell r="H92">
-            <v>29287</v>
+            <v>35064</v>
           </cell>
           <cell r="I92">
-            <v>19442</v>
+            <v>35064</v>
           </cell>
           <cell r="K92">
-            <v>43</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C93">
-            <v>1022</v>
+            <v>3590</v>
           </cell>
           <cell r="D93">
-            <v>92</v>
+            <v>86</v>
           </cell>
           <cell r="H93">
-            <v>60427</v>
+            <v>184531</v>
           </cell>
           <cell r="I93">
-            <v>60427</v>
+            <v>147307</v>
           </cell>
           <cell r="K93">
-            <v>45</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C94">
-            <v>1064</v>
+            <v>66</v>
           </cell>
           <cell r="D94">
-            <v>87</v>
+            <v>90</v>
           </cell>
           <cell r="H94">
-            <v>67354</v>
+            <v>3910</v>
           </cell>
           <cell r="I94">
-            <v>67354</v>
+            <v>3910</v>
           </cell>
           <cell r="K94">
-            <v>46</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C95">
-            <v>706</v>
+            <v>1002</v>
           </cell>
           <cell r="D95">
-            <v>95</v>
+            <v>87</v>
           </cell>
           <cell r="H95">
-            <v>36000</v>
+            <v>78207</v>
           </cell>
           <cell r="I95">
-            <v>36000</v>
+            <v>52305</v>
           </cell>
           <cell r="K95">
-            <v>48</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C96">
-            <v>286</v>
+            <v>29518</v>
           </cell>
           <cell r="D96">
-            <v>87</v>
+            <v>94</v>
           </cell>
           <cell r="H96">
-            <v>26139</v>
+            <v>1479935</v>
           </cell>
           <cell r="I96">
-            <v>26139</v>
+            <v>1479935</v>
           </cell>
           <cell r="K96">
-            <v>48</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C97">
-            <v>64</v>
+            <v>161</v>
           </cell>
           <cell r="D97">
-            <v>87</v>
+            <v>78</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H97">
-            <v>4072</v>
+            <v>19628</v>
           </cell>
           <cell r="I97">
-            <v>4072</v>
+            <v>19628</v>
           </cell>
           <cell r="K97">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C98">
-            <v>989</v>
+            <v>1281</v>
           </cell>
           <cell r="D98">
-            <v>86</v>
+            <v>90</v>
           </cell>
           <cell r="H98">
-            <v>79269</v>
+            <v>89271</v>
           </cell>
           <cell r="I98">
-            <v>53367</v>
+            <v>48456</v>
           </cell>
           <cell r="K98">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C99">
-            <v>29210</v>
+            <v>881</v>
           </cell>
           <cell r="D99">
-            <v>93</v>
+            <v>82</v>
           </cell>
           <cell r="H99">
-            <v>1506161</v>
+            <v>51372</v>
           </cell>
           <cell r="I99">
-            <v>1506161</v>
+            <v>51372</v>
           </cell>
           <cell r="K99">
-            <v>51</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C100">
-            <v>159</v>
+            <v>1239</v>
           </cell>
           <cell r="D100">
-            <v>78</v>
-          </cell>
-          <cell r="E100" t="str">
-            <v>↓</v>
+            <v>88</v>
           </cell>
           <cell r="H100">
-            <v>19826</v>
+            <v>78378</v>
           </cell>
           <cell r="I100">
-            <v>19826</v>
+            <v>78378</v>
           </cell>
           <cell r="K100">
-            <v>52</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C101">
-            <v>865</v>
+            <v>541</v>
           </cell>
           <cell r="D101">
-            <v>80</v>
+            <v>103</v>
           </cell>
           <cell r="H101">
-            <v>52722</v>
+            <v>44137</v>
           </cell>
           <cell r="I101">
-            <v>52722</v>
+            <v>27451</v>
           </cell>
           <cell r="K101">
             <v>53</v>
@@ -5076,19 +5064,19 @@
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C102">
-            <v>1210</v>
+            <v>745</v>
           </cell>
           <cell r="D102">
-            <v>86</v>
+            <v>91</v>
           </cell>
           <cell r="H102">
-            <v>80628</v>
+            <v>68767</v>
           </cell>
           <cell r="I102">
-            <v>41428</v>
+            <v>38457</v>
           </cell>
           <cell r="K102">
             <v>55</v>
@@ -5096,254 +5084,254 @@
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C103">
-            <v>5</v>
+            <v>60</v>
           </cell>
           <cell r="D103">
-            <v>225</v>
-          </cell>
-          <cell r="E103" t="str">
-            <v>↑</v>
+            <v>117</v>
           </cell>
           <cell r="H103">
-            <v>1908</v>
+            <v>7297</v>
           </cell>
           <cell r="I103">
-            <v>1908</v>
+            <v>7297</v>
           </cell>
           <cell r="K103">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C104">
-            <v>4</v>
+            <v>1316</v>
           </cell>
           <cell r="D104">
-            <v>138</v>
-          </cell>
-          <cell r="E104" t="str">
-            <v>↑</v>
+            <v>102</v>
           </cell>
           <cell r="H104">
-            <v>1872</v>
+            <v>100455</v>
           </cell>
           <cell r="I104">
-            <v>1872</v>
+            <v>56142</v>
           </cell>
           <cell r="K104">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Ольха соплодия 20х1,5г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C105">
-            <v>47</v>
+            <v>54</v>
           </cell>
           <cell r="D105">
-            <v>97</v>
+            <v>101</v>
           </cell>
           <cell r="H105">
-            <v>6865</v>
+            <v>6826</v>
           </cell>
           <cell r="I105">
-            <v>698</v>
+            <v>6826</v>
           </cell>
           <cell r="K105">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C106">
-            <v>1308</v>
+            <v>594</v>
           </cell>
           <cell r="D106">
-            <v>102</v>
+            <v>91</v>
           </cell>
           <cell r="H106">
-            <v>101139</v>
+            <v>55365</v>
           </cell>
           <cell r="I106">
-            <v>56826</v>
+            <v>55365</v>
           </cell>
           <cell r="K106">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C107">
-            <v>102</v>
+            <v>40</v>
           </cell>
           <cell r="D107">
-            <v>98</v>
+            <v>67</v>
+          </cell>
+          <cell r="E107" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H107">
-            <v>7860</v>
+            <v>5814</v>
           </cell>
           <cell r="I107">
-            <v>7860</v>
+            <v>5814</v>
           </cell>
           <cell r="K107">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C108">
+            <v>1227</v>
+          </cell>
+          <cell r="D108">
+            <v>82</v>
+          </cell>
+          <cell r="H108">
+            <v>100583</v>
+          </cell>
+          <cell r="I108">
+            <v>100583</v>
+          </cell>
+          <cell r="K108">
             <v>55</v>
-          </cell>
-          <cell r="D108">
-            <v>108</v>
-          </cell>
-          <cell r="H108">
-            <v>7729</v>
-          </cell>
-          <cell r="I108">
-            <v>7729</v>
-          </cell>
-          <cell r="K108">
-            <v>56</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>54</v>
+            <v>108</v>
           </cell>
           <cell r="D109">
-            <v>101</v>
+            <v>104</v>
           </cell>
           <cell r="H109">
-            <v>6862</v>
+            <v>7338</v>
           </cell>
           <cell r="I109">
-            <v>6862</v>
+            <v>7338</v>
           </cell>
           <cell r="K109">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C110">
-            <v>40</v>
+            <v>5</v>
           </cell>
           <cell r="D110">
-            <v>67</v>
+            <v>222</v>
           </cell>
           <cell r="E110" t="str">
-            <v>↓</v>
+            <v>↑</v>
           </cell>
           <cell r="H110">
-            <v>5814</v>
+            <v>1908</v>
           </cell>
           <cell r="I110">
-            <v>5814</v>
+            <v>1908</v>
           </cell>
           <cell r="K110">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Ольха соплодия 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>1216</v>
+            <v>51</v>
           </cell>
           <cell r="D111">
-            <v>81</v>
+            <v>104</v>
           </cell>
           <cell r="H111">
-            <v>101591</v>
+            <v>6577</v>
           </cell>
           <cell r="I111">
-            <v>101591</v>
+            <v>410</v>
           </cell>
           <cell r="K111">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C112">
-            <v>114</v>
+            <v>4</v>
           </cell>
           <cell r="D112">
-            <v>79</v>
+            <v>138</v>
           </cell>
           <cell r="E112" t="str">
-            <v>↓</v>
+            <v>↑</v>
           </cell>
           <cell r="H112">
-            <v>9342</v>
+            <v>1872</v>
           </cell>
           <cell r="I112">
-            <v>5562</v>
+            <v>1872</v>
           </cell>
           <cell r="K112">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C113">
-            <v>734</v>
+            <v>383</v>
           </cell>
           <cell r="D113">
-            <v>90</v>
+            <v>87</v>
           </cell>
           <cell r="H113">
-            <v>69703</v>
+            <v>40716</v>
           </cell>
           <cell r="I113">
-            <v>39393</v>
+            <v>21186</v>
           </cell>
           <cell r="K113">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C114">
-            <v>583</v>
+            <v>114</v>
           </cell>
           <cell r="D114">
-            <v>90</v>
+            <v>78</v>
+          </cell>
+          <cell r="E114" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H114">
-            <v>56373</v>
+            <v>9342</v>
           </cell>
           <cell r="I114">
-            <v>56373</v>
+            <v>5562</v>
           </cell>
           <cell r="K114">
-            <v>56</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="115">
@@ -5356,25 +5344,25 @@
             <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>1486</v>
+            <v>1507</v>
           </cell>
           <cell r="D116">
-            <v>77</v>
+            <v>78</v>
           </cell>
           <cell r="E116" t="str">
             <v>↓</v>
           </cell>
           <cell r="H116">
-            <v>42110</v>
+            <v>40310</v>
           </cell>
           <cell r="I116">
-            <v>42110</v>
+            <v>40310</v>
           </cell>
           <cell r="K116">
             <v>15</v>
           </cell>
           <cell r="L116">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="M116">
             <v>19499</v>
@@ -5385,22 +5373,28 @@
             <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C117">
-            <v>1321</v>
+            <v>1340</v>
           </cell>
           <cell r="D117">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H117">
-            <v>29298</v>
+            <v>27714</v>
           </cell>
           <cell r="I117">
-            <v>29298</v>
+            <v>27714</v>
           </cell>
           <cell r="J117" t="str">
-            <v>!!!</v>
+            <v>!</v>
           </cell>
           <cell r="K117">
+            <v>17</v>
+          </cell>
+          <cell r="L117">
             <v>18</v>
+          </cell>
+          <cell r="M117">
+            <v>28980</v>
           </cell>
         </row>
         <row r="118">
@@ -5408,19 +5402,19 @@
             <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>259</v>
+            <v>261</v>
           </cell>
           <cell r="D118">
-            <v>94</v>
+            <v>95</v>
           </cell>
           <cell r="H118">
-            <v>6064</v>
+            <v>5920</v>
           </cell>
           <cell r="I118">
-            <v>6064</v>
+            <v>5920</v>
           </cell>
           <cell r="K118">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="119">
@@ -5428,59 +5422,59 @@
             <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C119">
-            <v>457</v>
+            <v>465</v>
           </cell>
           <cell r="D119">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="H119">
-            <v>22245</v>
+            <v>21543</v>
           </cell>
           <cell r="I119">
-            <v>22245</v>
+            <v>21543</v>
           </cell>
           <cell r="K119">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C120">
-            <v>97</v>
+            <v>343</v>
           </cell>
           <cell r="D120">
-            <v>79</v>
-          </cell>
-          <cell r="E120" t="str">
-            <v>↓</v>
+            <v>81</v>
           </cell>
           <cell r="H120">
-            <v>4654</v>
+            <v>16710</v>
           </cell>
           <cell r="I120">
-            <v>4654</v>
+            <v>16710</v>
           </cell>
           <cell r="K120">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C121">
-            <v>336</v>
+            <v>98</v>
           </cell>
           <cell r="D121">
-            <v>80</v>
+            <v>79</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H121">
-            <v>17250</v>
+            <v>4564</v>
           </cell>
           <cell r="I121">
-            <v>17250</v>
+            <v>4564</v>
           </cell>
           <cell r="K121">
             <v>27</v>
@@ -5491,19 +5485,19 @@
             <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>554</v>
+            <v>566</v>
           </cell>
           <cell r="D122">
-            <v>96</v>
+            <v>98</v>
           </cell>
           <cell r="H122">
-            <v>26242</v>
+            <v>25180</v>
           </cell>
           <cell r="I122">
-            <v>6352</v>
+            <v>5290</v>
           </cell>
           <cell r="K122">
-            <v>31</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="123">
@@ -5511,19 +5505,19 @@
             <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>293</v>
+            <v>295</v>
           </cell>
           <cell r="D123">
             <v>98</v>
           </cell>
           <cell r="H123">
-            <v>14823</v>
+            <v>14643</v>
           </cell>
           <cell r="I123">
-            <v>14823</v>
+            <v>14643</v>
           </cell>
           <cell r="K123">
-            <v>36</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="124">
@@ -5531,19 +5525,19 @@
             <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C124">
-            <v>48</v>
+            <v>50</v>
           </cell>
           <cell r="D124">
-            <v>97</v>
+            <v>101</v>
           </cell>
           <cell r="H124">
-            <v>3067</v>
+            <v>2923</v>
           </cell>
           <cell r="I124">
-            <v>3067</v>
+            <v>2923</v>
           </cell>
           <cell r="K124">
-            <v>54</v>
+            <v>51</v>
           </cell>
         </row>
       </sheetData>
@@ -5843,8 +5837,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,7 +5887,7 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -5927,7 +5921,7 @@
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22274</v>
+        <v>21532</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5935,7 +5929,7 @@
       </c>
       <c r="E5" s="28" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-14</v>
+        <v>2022-11-15</v>
       </c>
       <c r="G5" s="33" t="str">
         <f>IF(H5&gt;0,"•","")</f>
@@ -5953,11 +5947,11 @@
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>48908</v>
+        <v>44148</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5978,23 +5972,23 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11244</v>
-      </c>
-      <c r="D7" s="8">
+        <v>11786</v>
+      </c>
+      <c r="D7" s="8" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>inf</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-21</v>
+        <v>2022-11-23</v>
       </c>
       <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6002,12 +5996,12 @@
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15760</v>
+        <v>10834</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6015,36 +6009,36 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12360</v>
-      </c>
-      <c r="D8" s="8" t="str">
+        <v>15931</v>
+      </c>
+      <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>37</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-11-24</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H8" s="34">
         <f>VLOOKUP(A8,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16799</v>
+        <v>3405</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6081,7 +6075,7 @@
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-25</v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6098,11 +6092,11 @@
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31626</v>
+        <v>30590</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6123,19 +6117,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3965</v>
+        <v>12315</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6143,28 +6137,28 @@
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H12" s="34">
         <f>VLOOKUP(A12,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15267</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13463</v>
+        <v>71071</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6197,7 +6191,7 @@
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6210,7 +6204,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6218,15 +6212,15 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>75243</v>
+        <v>42084</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6239,7 +6233,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6247,15 +6241,15 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43708</v>
+        <v>29433</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6268,19 +6262,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30343</v>
+        <v>20523</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6297,7 +6291,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6305,15 +6299,15 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21685</v>
+        <v>25398</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6326,23 +6320,23 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26336</v>
+        <v>16259</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6355,7 +6349,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6363,15 +6357,15 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16987</v>
+        <v>18253</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6384,7 +6378,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6392,15 +6386,15 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18841</v>
+        <v>5484</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6413,7 +6407,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6421,15 +6415,15 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5596</v>
+        <v>11215</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6442,7 +6436,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6450,15 +6444,15 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11355</v>
+        <v>19144</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6471,7 +6465,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6479,15 +6473,15 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19200</v>
+        <v>19383</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6508,7 +6502,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40974</v>
+        <v>40218</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6516,7 +6510,7 @@
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6529,7 +6523,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6537,15 +6531,15 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20209</v>
+        <v>86509</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6558,19 +6552,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>87965</v>
+        <v>15358</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6587,15 +6581,15 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15820</v>
+        <v>32638</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6607,28 +6601,28 @@
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H28" s="34">
         <f>VLOOKUP(A28,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>25445</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34584</v>
+        <v>11539</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6636,28 +6630,28 @@
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H29" s="34">
         <f>VLOOKUP(A29,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>25445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47328</v>
+        <v>28170</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6674,19 +6668,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30385</v>
+        <v>47076</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6707,11 +6701,11 @@
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18702</v>
+        <v>18338</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6732,19 +6726,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27144</v>
+        <v>27626</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6761,19 +6755,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28228</v>
+        <v>11886</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6790,7 +6784,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6798,15 +6792,15 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12015</v>
+        <v>29573</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6819,7 +6813,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6827,15 +6821,15 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12488</v>
+        <v>27004</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6848,7 +6842,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6856,15 +6850,15 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30256</v>
+        <v>22213</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6885,7 +6879,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28195</v>
+        <v>28069</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6893,7 +6887,7 @@
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6906,7 +6900,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6914,15 +6908,15 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22773</v>
+        <v>27995</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6935,7 +6929,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6943,15 +6937,15 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29241</v>
+        <v>116991</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6964,7 +6958,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6972,15 +6966,15 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>118307</v>
+        <v>13173</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6993,23 +6987,23 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13411</v>
+        <v>27245</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7022,7 +7016,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7030,15 +7024,15 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27707</v>
+        <v>16078</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7051,19 +7045,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16400</v>
+        <v>37089</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7088,7 +7082,7 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23345</v>
+        <v>23135</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7096,7 +7090,7 @@
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7109,23 +7103,23 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37705</v>
+        <v>28285</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7138,7 +7132,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7146,15 +7140,15 @@
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12902</v>
+        <v>25379</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7167,23 +7161,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28747</v>
+        <v>12902</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7196,7 +7190,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7204,15 +7198,15 @@
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23600</v>
+        <v>9393</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-03</v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7225,23 +7219,23 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9519</v>
+        <v>23348</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7264,52 +7258,52 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3098</v>
+        <v>2988</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E52" s="29" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-11</v>
+        <v>2022-11-18</v>
       </c>
       <c r="G52" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H52" s="34">
         <f>VLOOKUP(A52,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>5036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2988</v>
+        <v>14999</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E53" s="29" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-17</v>
+        <v>2022-11-25</v>
       </c>
       <c r="G53" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7322,23 +7316,23 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15299</v>
+        <v>4701</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="E54" s="29" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G54" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7351,23 +7345,23 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4701</v>
+        <v>7928</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7384,11 +7378,11 @@
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4880</v>
+        <v>4820</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7413,11 +7407,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7442,11 +7436,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8360</v>
+        <v>8340</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7510,11 +7504,11 @@
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2659</v>
+        <v>2479</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7526,11 +7520,11 @@
       </c>
       <c r="G61" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H61" s="34">
         <f>VLOOKUP(A61,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -7551,7 +7545,7 @@
       </c>
       <c r="E62" s="29" t="str">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-25</v>
       </c>
       <c r="G62" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7564,19 +7558,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3698</v>
+        <v>1098</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7584,28 +7578,28 @@
       </c>
       <c r="G63" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H63" s="34">
         <f>VLOOKUP(A63,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>3941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1098</v>
+        <v>3680</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7613,24 +7607,24 @@
       </c>
       <c r="G64" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>141789</v>
+        <v>12665</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7646,12 +7640,12 @@
       </c>
       <c r="H65" s="34">
         <f>VLOOKUP(A65,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>49987</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7659,7 +7653,7 @@
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12989</v>
+        <v>138981</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7667,15 +7661,15 @@
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>49987</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -7684,11 +7678,11 @@
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4072</v>
+        <v>3910</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7709,15 +7703,15 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>50346</v>
+        <v>30801</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7729,16 +7723,16 @@
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H68" s="34">
         <f>VLOOKUP(A68,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7746,73 +7740,73 @@
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29881</v>
+        <v>69989</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H69" s="34">
         <f>VLOOKUP(A69,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>16815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>71537</v>
+        <v>21742</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" ref="G70:G103" si="1">IF(H70&gt;0,"•","")</f>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>20866</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32385</v>
+        <v>594435</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7825,52 +7819,52 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>149935</v>
+        <v>127626</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>36936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22966</v>
+        <v>60247</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7878,41 +7872,41 @@
       </c>
       <c r="H73" s="34">
         <f>VLOOKUP(A73,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>20866</v>
+        <v>34471</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>598395</v>
+        <v>46991</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G74" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H74" s="34">
         <f>VLOOKUP(A74,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7920,15 +7914,15 @@
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>60427</v>
+        <v>49815</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7941,110 +7935,110 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>128292</v>
+        <v>35564</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H76" s="34">
         <f>VLOOKUP(A76,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47819</v>
+        <v>184531</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H77" s="34">
         <f>VLOOKUP(A77,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22086</v>
+        <v>28225</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H78" s="34">
         <f>VLOOKUP(A78,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>17901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>50445</v>
+        <v>35064</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8057,7 +8051,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8065,44 +8059,44 @@
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35870</v>
+        <v>7338</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H80" s="34">
         <f>VLOOKUP(A80,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29287</v>
+        <v>58259</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8115,23 +8109,23 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>36000</v>
+        <v>44137</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8144,23 +8138,23 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7860</v>
+        <v>25743</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8173,7 +8167,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8181,7 +8175,7 @@
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59915</v>
+        <v>27366</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8189,36 +8183,36 @@
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H84" s="34">
         <f>VLOOKUP(A84,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15101</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26139</v>
+        <v>78378</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8231,7 +8225,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8239,15 +8233,15 @@
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>80628</v>
+        <v>100455</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8260,52 +8254,52 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28608</v>
+        <v>66670</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H87" s="34">
         <f>VLOOKUP(A87,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>101139</v>
+        <v>1479935</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8318,23 +8312,23 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>67354</v>
+        <v>55365</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8347,23 +8341,23 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1506161</v>
+        <v>89271</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8376,7 +8370,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8384,15 +8378,15 @@
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>56373</v>
+        <v>100583</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8405,23 +8399,23 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>101591</v>
+        <v>78207</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2023-01-02</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8434,23 +8428,23 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>79269</v>
+        <v>68767</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8463,23 +8457,23 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>69703</v>
+        <v>7297</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8500,7 +8494,7 @@
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19826</v>
+        <v>19628</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8508,7 +8502,7 @@
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8521,23 +8515,23 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7729</v>
+        <v>40716</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-19</v>
+        <v>2023-01-24</v>
       </c>
       <c r="G96" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8554,11 +8548,11 @@
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>52722</v>
+        <v>51372</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8566,7 +8560,7 @@
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-27</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G97" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8583,11 +8577,11 @@
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6862</v>
+        <v>6826</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8624,7 +8618,7 @@
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-24</v>
+        <v>2023-02-27</v>
       </c>
       <c r="G99" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8641,11 +8635,11 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6865</v>
+        <v>6577</v>
       </c>
       <c r="D100" s="8" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8653,7 +8647,7 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-25</v>
+        <v>2023-07-13</v>
       </c>
       <c r="G100" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8670,7 +8664,7 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8699,7 +8693,7 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8728,7 +8722,7 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8767,11 +8761,11 @@
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42110</v>
+        <v>40310</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8796,11 +8790,11 @@
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29298</v>
+        <v>27714</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8812,11 +8806,11 @@
       </c>
       <c r="G106" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>28980</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -8829,7 +8823,7 @@
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6064</v>
+        <v>5920</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8837,7 +8831,7 @@
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-11-24</v>
       </c>
       <c r="G107" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8858,7 +8852,7 @@
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17250</v>
+        <v>16710</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8866,7 +8860,7 @@
       </c>
       <c r="E108" s="29" t="str">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G108" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8883,11 +8877,11 @@
       </c>
       <c r="B109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22245</v>
+        <v>21543</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8916,7 +8910,7 @@
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4654</v>
+        <v>4564</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8924,7 +8918,7 @@
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G110" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8941,11 +8935,11 @@
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26242</v>
+        <v>25180</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8974,7 +8968,7 @@
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14823</v>
+        <v>14643</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8982,7 +8976,7 @@
       </c>
       <c r="E112" s="29" t="str">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G112" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8999,11 +8993,11 @@
       </c>
       <c r="B113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3067</v>
+        <v>2923</v>
       </c>
       <c r="D113" s="10">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -9029,7 +9023,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5357334</v>
+        <v>5382842</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Запасы (дней)</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>Выпустить до:</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>256</v>
+            <v>255</v>
           </cell>
           <cell r="D2">
             <v>81632</v>
@@ -924,10 +927,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="D3">
-            <v>21532</v>
+            <v>20076</v>
           </cell>
           <cell r="E3">
             <v>45</v>
@@ -938,27 +941,27 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B4" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>13</v>
+            <v>17</v>
           </cell>
           <cell r="D4">
-            <v>44148</v>
-          </cell>
-          <cell r="E4">
-            <v>30</v>
+            <v>11660</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F4" t="str">
-            <v>2022-11-17</v>
+            <v>2022-11-24</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
@@ -967,18 +970,18 @@
             <v>17</v>
           </cell>
           <cell r="D5">
-            <v>11786</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>inf</v>
+            <v>3307</v>
+          </cell>
+          <cell r="E5">
+            <v>37</v>
           </cell>
           <cell r="F5" t="str">
-            <v>2022-11-23</v>
+            <v>2022-11-24</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
@@ -987,38 +990,38 @@
             <v>18</v>
           </cell>
           <cell r="D6">
-            <v>3405</v>
+            <v>15483</v>
           </cell>
           <cell r="E6">
             <v>37</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-25</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>18</v>
+            <v>19</v>
           </cell>
           <cell r="D7">
-            <v>15931</v>
+            <v>30226</v>
           </cell>
           <cell r="E7">
-            <v>37</v>
+            <v>31</v>
           </cell>
           <cell r="F7" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
@@ -1027,73 +1030,73 @@
             <v>19</v>
           </cell>
           <cell r="D8">
-            <v>30590</v>
+            <v>11979</v>
           </cell>
           <cell r="E8">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="D9">
-            <v>12315</v>
+            <v>70399</v>
           </cell>
           <cell r="E9">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F9" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-29</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Череда трава 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C10">
-            <v>19</v>
+            <v>21</v>
           </cell>
           <cell r="D10">
-            <v>8700</v>
+            <v>2674</v>
           </cell>
           <cell r="E10">
-            <v>33</v>
+            <v>51</v>
           </cell>
           <cell r="F10" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>20</v>
+            <v>22</v>
           </cell>
           <cell r="D11">
-            <v>71071</v>
+            <v>24614</v>
           </cell>
           <cell r="E11">
-            <v>30</v>
+            <v>44</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2022-11-28</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="12">
@@ -1107,18 +1110,18 @@
             <v>22</v>
           </cell>
           <cell r="D12">
-            <v>42084</v>
+            <v>41692</v>
           </cell>
           <cell r="E12">
             <v>29</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
@@ -1127,18 +1130,18 @@
             <v>22</v>
           </cell>
           <cell r="D13">
-            <v>2688</v>
+            <v>20187</v>
           </cell>
           <cell r="E13">
-            <v>51</v>
+            <v>33</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
@@ -1147,38 +1150,38 @@
             <v>22</v>
           </cell>
           <cell r="D14">
-            <v>20523</v>
+            <v>29433</v>
           </cell>
           <cell r="E14">
-            <v>33</v>
+            <v>92</v>
           </cell>
           <cell r="F14" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>22</v>
+            <v>23</v>
           </cell>
           <cell r="D15">
-            <v>29433</v>
+            <v>5204</v>
           </cell>
           <cell r="E15">
-            <v>92</v>
+            <v>59</v>
           </cell>
           <cell r="F15" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
@@ -1187,18 +1190,18 @@
             <v>23</v>
           </cell>
           <cell r="D16">
-            <v>25398</v>
+            <v>17679</v>
           </cell>
           <cell r="E16">
-            <v>44</v>
+            <v>31</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
@@ -1207,13 +1210,13 @@
             <v>24</v>
           </cell>
           <cell r="D17">
-            <v>5484</v>
+            <v>10949</v>
           </cell>
           <cell r="E17">
-            <v>59</v>
+            <v>35</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="18">
@@ -1227,18 +1230,18 @@
             <v>24</v>
           </cell>
           <cell r="D18">
-            <v>16259</v>
+            <v>15979</v>
           </cell>
           <cell r="E18">
             <v>43</v>
           </cell>
           <cell r="F18" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
@@ -1247,18 +1250,18 @@
             <v>24</v>
           </cell>
           <cell r="D19">
-            <v>18253</v>
+            <v>18444</v>
           </cell>
           <cell r="E19">
-            <v>31</v>
+            <v>48</v>
           </cell>
           <cell r="F19" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
@@ -1267,18 +1270,18 @@
             <v>25</v>
           </cell>
           <cell r="D20">
-            <v>11215</v>
+            <v>84507</v>
           </cell>
           <cell r="E20">
-            <v>35</v>
+            <v>39</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
@@ -1287,33 +1290,33 @@
             <v>25</v>
           </cell>
           <cell r="D21">
-            <v>19144</v>
+            <v>18963</v>
           </cell>
           <cell r="E21">
-            <v>48</v>
+            <v>31</v>
           </cell>
           <cell r="F21" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C22">
-            <v>25</v>
+            <v>26</v>
           </cell>
           <cell r="D22">
-            <v>19383</v>
+            <v>25394</v>
           </cell>
           <cell r="E22">
-            <v>31</v>
+            <v>35</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="23">
@@ -1333,12 +1336,12 @@
             <v>30</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Лен семена 100г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
@@ -1347,18 +1350,18 @@
             <v>26</v>
           </cell>
           <cell r="D24">
-            <v>86509</v>
+            <v>15344</v>
           </cell>
           <cell r="E24">
-            <v>39</v>
+            <v>40</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
@@ -1367,18 +1370,18 @@
             <v>26</v>
           </cell>
           <cell r="D25">
-            <v>15358</v>
+            <v>39994</v>
           </cell>
           <cell r="E25">
-            <v>40</v>
+            <v>112</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
@@ -1387,18 +1390,18 @@
             <v>26</v>
           </cell>
           <cell r="D26">
-            <v>40218</v>
+            <v>11539</v>
           </cell>
           <cell r="E26">
-            <v>112</v>
+            <v>32</v>
           </cell>
           <cell r="F26" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
@@ -1407,18 +1410,18 @@
             <v>26</v>
           </cell>
           <cell r="D27">
-            <v>11539</v>
+            <v>32274</v>
           </cell>
           <cell r="E27">
-            <v>32</v>
+            <v>40</v>
           </cell>
           <cell r="F27" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
@@ -1427,13 +1430,13 @@
             <v>26</v>
           </cell>
           <cell r="D28">
-            <v>32638</v>
+            <v>82474</v>
           </cell>
           <cell r="E28">
-            <v>40</v>
+            <v>30</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="29">
@@ -1447,13 +1450,13 @@
             <v>27</v>
           </cell>
           <cell r="D29">
-            <v>27626</v>
+            <v>27346</v>
           </cell>
           <cell r="E29">
             <v>33</v>
           </cell>
           <cell r="F29" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="30">
@@ -1467,13 +1470,13 @@
             <v>27</v>
           </cell>
           <cell r="D30">
-            <v>11886</v>
+            <v>11662</v>
           </cell>
           <cell r="E30">
             <v>51</v>
           </cell>
           <cell r="F30" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="31">
@@ -1487,13 +1490,13 @@
             <v>27</v>
           </cell>
           <cell r="D31">
-            <v>47076</v>
+            <v>46348</v>
           </cell>
           <cell r="E31">
             <v>37</v>
           </cell>
           <cell r="F31" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="32">
@@ -1507,18 +1510,18 @@
             <v>27</v>
           </cell>
           <cell r="D32">
-            <v>18338</v>
+            <v>18128</v>
           </cell>
           <cell r="E32">
             <v>31</v>
           </cell>
           <cell r="F32" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
@@ -1527,18 +1530,18 @@
             <v>28</v>
           </cell>
           <cell r="D33">
-            <v>27004</v>
+            <v>22143</v>
           </cell>
           <cell r="E33">
-            <v>35</v>
+            <v>32</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
@@ -1547,13 +1550,13 @@
             <v>28</v>
           </cell>
           <cell r="D34">
-            <v>22213</v>
+            <v>27351</v>
           </cell>
           <cell r="E34">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="35">
@@ -1567,18 +1570,18 @@
             <v>28</v>
           </cell>
           <cell r="D35">
-            <v>29573</v>
+            <v>29559</v>
           </cell>
           <cell r="E35">
             <v>46</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
@@ -1587,18 +1590,18 @@
             <v>29</v>
           </cell>
           <cell r="D36">
-            <v>27995</v>
+            <v>28069</v>
           </cell>
           <cell r="E36">
             <v>43</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
@@ -1607,18 +1610,18 @@
             <v>29</v>
           </cell>
           <cell r="D37">
-            <v>28069</v>
+            <v>115269</v>
           </cell>
           <cell r="E37">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
@@ -1627,38 +1630,38 @@
             <v>30</v>
           </cell>
           <cell r="D38">
-            <v>116991</v>
+            <v>13033</v>
           </cell>
           <cell r="E38">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C39">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="D39">
-            <v>13173</v>
+            <v>15924</v>
           </cell>
           <cell r="E39">
-            <v>30</v>
+            <v>35</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
@@ -1667,18 +1670,18 @@
             <v>33</v>
           </cell>
           <cell r="D40">
-            <v>37089</v>
+            <v>22505</v>
           </cell>
           <cell r="E40">
-            <v>39</v>
+            <v>43</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
@@ -1687,13 +1690,13 @@
             <v>33</v>
           </cell>
           <cell r="D41">
-            <v>16078</v>
+            <v>36585</v>
           </cell>
           <cell r="E41">
-            <v>35</v>
+            <v>39</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="42">
@@ -1707,38 +1710,38 @@
             <v>33</v>
           </cell>
           <cell r="D42">
-            <v>27245</v>
+            <v>27175</v>
           </cell>
           <cell r="E42">
             <v>43</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Береза почки 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
-            <v>34</v>
+            <v>35</v>
           </cell>
           <cell r="D43">
-            <v>23135</v>
+            <v>28131</v>
           </cell>
           <cell r="E43">
-            <v>43</v>
+            <v>38</v>
           </cell>
           <cell r="F43" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B44" t="str">
             <v>Линия ББЛ</v>
@@ -1747,70 +1750,70 @@
             <v>35</v>
           </cell>
           <cell r="D44">
-            <v>28285</v>
+            <v>25155</v>
           </cell>
           <cell r="E44">
-            <v>38</v>
+            <v>35</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="D45">
-            <v>25379</v>
+            <v>12902</v>
           </cell>
           <cell r="E45">
-            <v>35</v>
+            <v>76</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>37</v>
+            <v>41</v>
           </cell>
           <cell r="D46">
-            <v>12902</v>
+            <v>19001</v>
           </cell>
           <cell r="E46">
-            <v>76</v>
+            <v>33</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B47" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C47">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="D47">
-            <v>9393</v>
+            <v>22732</v>
           </cell>
           <cell r="E47">
-            <v>72</v>
+            <v>41</v>
           </cell>
           <cell r="F47" t="str">
             <v>2023-01-03</v>
@@ -1818,7 +1821,7 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="B48" t="str">
             <v>Линия ББЛ</v>
@@ -1827,13 +1830,13 @@
             <v>47</v>
           </cell>
           <cell r="D48">
-            <v>23348</v>
+            <v>9379</v>
           </cell>
           <cell r="E48">
-            <v>41</v>
+            <v>72</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-04</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="49">
@@ -1847,13 +1850,13 @@
             <v>14</v>
           </cell>
           <cell r="D49">
-            <v>2988</v>
+            <v>2948</v>
           </cell>
           <cell r="E49">
             <v>115</v>
           </cell>
           <cell r="F49" t="str">
-            <v>2022-11-18</v>
+            <v>2022-11-21</v>
           </cell>
         </row>
         <row r="50">
@@ -1864,10 +1867,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C50">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D50">
-            <v>14999</v>
+            <v>14289</v>
           </cell>
           <cell r="E50">
             <v>41</v>
@@ -1887,13 +1890,13 @@
             <v>23</v>
           </cell>
           <cell r="D51">
-            <v>4701</v>
+            <v>4641</v>
           </cell>
           <cell r="E51">
             <v>110</v>
           </cell>
           <cell r="F51" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="52">
@@ -1904,16 +1907,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="D52">
-            <v>7928</v>
+            <v>7868</v>
           </cell>
           <cell r="E52">
             <v>84</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="53">
@@ -1927,13 +1930,13 @@
             <v>61</v>
           </cell>
           <cell r="D53">
-            <v>4820</v>
+            <v>4790</v>
           </cell>
           <cell r="E53">
             <v>102</v>
           </cell>
           <cell r="F53" t="str">
-            <v>2023-01-24</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="54">
@@ -1944,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>256</v>
+            <v>255</v>
           </cell>
           <cell r="D54">
-            <v>8340</v>
+            <v>8280</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1964,7 +1967,7 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>256</v>
+            <v>255</v>
           </cell>
           <cell r="D55">
             <v>9750</v>
@@ -2007,13 +2010,13 @@
             <v>16</v>
           </cell>
           <cell r="D57">
-            <v>2479</v>
+            <v>2461</v>
           </cell>
           <cell r="E57">
             <v>37</v>
           </cell>
           <cell r="F57" t="str">
-            <v>2022-11-22</v>
+            <v>2022-11-23</v>
           </cell>
         </row>
         <row r="58">
@@ -2024,7 +2027,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D58">
             <v>1098</v>
@@ -2044,7 +2047,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D59">
             <v>1908</v>
@@ -2058,19 +2061,19 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D60">
-            <v>3680</v>
+            <v>11261</v>
           </cell>
           <cell r="E60">
-            <v>38</v>
+            <v>28</v>
           </cell>
           <cell r="F60" t="str">
             <v>2022-11-28</v>
@@ -2078,127 +2081,127 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>21</v>
+            <v>22</v>
           </cell>
           <cell r="D61">
-            <v>12665</v>
+            <v>3838</v>
           </cell>
           <cell r="E61">
-            <v>28</v>
+            <v>43</v>
           </cell>
           <cell r="F61" t="str">
-            <v>2022-11-29</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B62" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C62">
-            <v>22</v>
+            <v>23</v>
           </cell>
           <cell r="D62">
-            <v>3910</v>
+            <v>29703</v>
           </cell>
           <cell r="E62">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>22</v>
+            <v>24</v>
           </cell>
           <cell r="D63">
-            <v>138981</v>
+            <v>66785</v>
           </cell>
           <cell r="E63">
-            <v>28</v>
+            <v>32</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>24</v>
+            <v>28</v>
           </cell>
           <cell r="D64">
-            <v>30801</v>
+            <v>189381</v>
           </cell>
           <cell r="E64">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>25</v>
+            <v>28</v>
           </cell>
           <cell r="D65">
-            <v>69989</v>
+            <v>594435</v>
           </cell>
           <cell r="E65">
-            <v>32</v>
+            <v>96</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>26</v>
+            <v>28</v>
           </cell>
           <cell r="D66">
-            <v>21742</v>
+            <v>48249</v>
           </cell>
           <cell r="E66">
-            <v>26</v>
+            <v>30</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
@@ -2207,478 +2210,478 @@
             <v>28</v>
           </cell>
           <cell r="D67">
-            <v>594435</v>
+            <v>124548</v>
           </cell>
           <cell r="E67">
-            <v>96</v>
+            <v>52</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>28</v>
+            <v>29</v>
           </cell>
           <cell r="D68">
-            <v>127626</v>
+            <v>59995</v>
           </cell>
           <cell r="E68">
-            <v>52</v>
+            <v>29</v>
           </cell>
           <cell r="F68" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="D69">
-            <v>60247</v>
+            <v>6906</v>
           </cell>
           <cell r="E69">
-            <v>29</v>
+            <v>34</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="D70">
-            <v>49815</v>
+            <v>27739</v>
           </cell>
           <cell r="E70">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="D71">
-            <v>46991</v>
+            <v>184531</v>
           </cell>
           <cell r="E71">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="D72">
-            <v>35564</v>
+            <v>34560</v>
           </cell>
           <cell r="E72">
-            <v>53</v>
+            <v>25</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>32</v>
+            <v>33</v>
           </cell>
           <cell r="D73">
-            <v>7338</v>
+            <v>57107</v>
           </cell>
           <cell r="E73">
-            <v>34</v>
+            <v>29</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
+            <v>34</v>
+          </cell>
+          <cell r="D74">
+            <v>24933</v>
+          </cell>
+          <cell r="E74">
             <v>32</v>
           </cell>
-          <cell r="D74">
-            <v>28225</v>
-          </cell>
-          <cell r="E74">
-            <v>37</v>
-          </cell>
           <cell r="F74" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>32</v>
+            <v>34</v>
           </cell>
           <cell r="D75">
-            <v>184531</v>
+            <v>26610</v>
           </cell>
           <cell r="E75">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B76" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C76">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="D76">
-            <v>35064</v>
+            <v>43579</v>
           </cell>
           <cell r="E76">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B77" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>34</v>
+            <v>36</v>
           </cell>
           <cell r="D77">
-            <v>58259</v>
+            <v>97125</v>
           </cell>
           <cell r="E77">
-            <v>29</v>
+            <v>35</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>35</v>
+            <v>36</v>
           </cell>
           <cell r="D78">
-            <v>44137</v>
+            <v>77946</v>
           </cell>
           <cell r="E78">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>35</v>
+            <v>38</v>
           </cell>
           <cell r="D79">
-            <v>25743</v>
+            <v>66634</v>
           </cell>
           <cell r="E79">
-            <v>32</v>
+            <v>61</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>35</v>
+            <v>38</v>
           </cell>
           <cell r="D80">
-            <v>27366</v>
+            <v>62309</v>
           </cell>
           <cell r="E80">
-            <v>29</v>
+            <v>43</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>36</v>
+            <v>40</v>
           </cell>
           <cell r="D81">
-            <v>78378</v>
+            <v>96857</v>
           </cell>
           <cell r="E81">
-            <v>28</v>
+            <v>29</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B82" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>37</v>
+            <v>40</v>
           </cell>
           <cell r="D82">
-            <v>100455</v>
+            <v>54339</v>
           </cell>
           <cell r="E82">
-            <v>35</v>
+            <v>32</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>38</v>
+            <v>40</v>
           </cell>
           <cell r="D83">
-            <v>66670</v>
+            <v>1463303</v>
           </cell>
           <cell r="E83">
-            <v>61</v>
+            <v>31</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>40</v>
+            <v>42</v>
           </cell>
           <cell r="D84">
-            <v>1479935</v>
+            <v>88983</v>
           </cell>
           <cell r="E84">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>41</v>
+            <v>42</v>
           </cell>
           <cell r="D85">
-            <v>55365</v>
+            <v>45482</v>
           </cell>
           <cell r="E85">
-            <v>32</v>
+            <v>53</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>42</v>
+            <v>43</v>
           </cell>
           <cell r="D86">
-            <v>100583</v>
+            <v>7432</v>
           </cell>
           <cell r="E86">
-            <v>29</v>
+            <v>38</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2022-12-28</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>42</v>
+            <v>45</v>
           </cell>
           <cell r="D87">
-            <v>89271</v>
+            <v>77253</v>
           </cell>
           <cell r="E87">
-            <v>32</v>
+            <v>44</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2022-12-28</v>
+            <v>2023-01-03</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>45</v>
+            <v>51</v>
           </cell>
           <cell r="D88">
-            <v>78207</v>
+            <v>68695</v>
           </cell>
           <cell r="E88">
-            <v>44</v>
+            <v>30</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>51</v>
+            <v>54</v>
           </cell>
           <cell r="D89">
-            <v>68767</v>
+            <v>19376</v>
           </cell>
           <cell r="E89">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B90" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>53</v>
+            <v>54</v>
           </cell>
           <cell r="D90">
-            <v>7297</v>
+            <v>42784</v>
           </cell>
           <cell r="E90">
-            <v>39</v>
+            <v>26</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-12</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
@@ -2687,13 +2690,13 @@
             <v>55</v>
           </cell>
           <cell r="D91">
-            <v>19628</v>
+            <v>7279</v>
           </cell>
           <cell r="E91">
-            <v>37</v>
+            <v>39</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="92">
@@ -2707,13 +2710,13 @@
             <v>61</v>
           </cell>
           <cell r="D92">
-            <v>40716</v>
+            <v>40518</v>
           </cell>
           <cell r="E92">
             <v>36</v>
           </cell>
           <cell r="F92" t="str">
-            <v>2023-01-24</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="93">
@@ -2727,13 +2730,13 @@
             <v>63</v>
           </cell>
           <cell r="D93">
-            <v>51372</v>
+            <v>51156</v>
           </cell>
           <cell r="E93">
             <v>28</v>
           </cell>
           <cell r="F93" t="str">
-            <v>2023-01-26</v>
+            <v>2023-01-27</v>
           </cell>
         </row>
         <row r="94">
@@ -2744,10 +2747,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>74</v>
+            <v>73</v>
           </cell>
           <cell r="D94">
-            <v>6826</v>
+            <v>6664</v>
           </cell>
           <cell r="E94">
             <v>48</v>
@@ -2764,7 +2767,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>85</v>
+            <v>84</v>
           </cell>
           <cell r="D95">
             <v>1872</v>
@@ -2784,7 +2787,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>183</v>
+            <v>184</v>
           </cell>
           <cell r="D96">
             <v>6577</v>
@@ -2793,7 +2796,7 @@
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-13</v>
+            <v>2023-07-17</v>
           </cell>
         </row>
         <row r="97">
@@ -2804,7 +2807,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>206</v>
+            <v>205</v>
           </cell>
           <cell r="D97">
             <v>1188</v>
@@ -2824,7 +2827,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>206</v>
+            <v>205</v>
           </cell>
           <cell r="D98">
             <v>1152</v>
@@ -2844,7 +2847,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>213</v>
+            <v>212</v>
           </cell>
           <cell r="D99">
             <v>1530</v>
@@ -2858,59 +2861,59 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="B100" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="D100">
-            <v>40310</v>
+            <v>25932</v>
           </cell>
           <cell r="E100">
-            <v>31</v>
+            <v>37</v>
           </cell>
           <cell r="F100" t="str">
-            <v>2022-11-15</v>
+            <v>2022-11-17</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="B101" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>13</v>
+            <v>16</v>
           </cell>
           <cell r="D101">
-            <v>27714</v>
+            <v>5416</v>
           </cell>
           <cell r="E101">
-            <v>37</v>
+            <v>30</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-11-17</v>
+            <v>2022-11-23</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="B102" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D102">
-            <v>5920</v>
+            <v>59514</v>
           </cell>
           <cell r="E102">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="F102" t="str">
             <v>2022-11-24</v>
@@ -2924,10 +2927,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C103">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D103">
-            <v>21543</v>
+            <v>20823</v>
           </cell>
           <cell r="E103">
             <v>30</v>
@@ -2938,19 +2941,19 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C104">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D104">
-            <v>16710</v>
+            <v>4240</v>
           </cell>
           <cell r="E104">
-            <v>41</v>
+            <v>34</v>
           </cell>
           <cell r="F104" t="str">
             <v>2022-11-30</v>
@@ -2958,19 +2961,19 @@
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B105" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D105">
-            <v>4564</v>
+            <v>16674</v>
           </cell>
           <cell r="E105">
-            <v>34</v>
+            <v>41</v>
           </cell>
           <cell r="F105" t="str">
             <v>2022-12-01</v>
@@ -2987,13 +2990,13 @@
             <v>23</v>
           </cell>
           <cell r="D106">
-            <v>25180</v>
+            <v>24406</v>
           </cell>
           <cell r="E106">
             <v>30</v>
           </cell>
           <cell r="F106" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="107">
@@ -3004,10 +3007,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D107">
-            <v>14643</v>
+            <v>14103</v>
           </cell>
           <cell r="E107">
             <v>32</v>
@@ -3027,13 +3030,13 @@
             <v>31</v>
           </cell>
           <cell r="D108">
-            <v>2923</v>
+            <v>2905</v>
           </cell>
           <cell r="E108">
             <v>51</v>
           </cell>
           <cell r="F108" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
       </sheetData>
@@ -3070,7 +3073,7 @@
             <v>81632</v>
           </cell>
           <cell r="K8">
-            <v>55</v>
+            <v>205</v>
           </cell>
         </row>
         <row r="9">
@@ -3080,74 +3083,74 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C10">
-            <v>1982</v>
+            <v>832</v>
           </cell>
           <cell r="D10">
-            <v>102</v>
+            <v>112</v>
           </cell>
           <cell r="H10">
-            <v>44148</v>
+            <v>20076</v>
           </cell>
           <cell r="I10">
-            <v>44148</v>
+            <v>20076</v>
           </cell>
           <cell r="K10">
-            <v>19</v>
+            <v>21</v>
           </cell>
           <cell r="L10">
-            <v>11</v>
+            <v>17</v>
           </cell>
           <cell r="M10">
-            <v>39400</v>
+            <v>33057</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Череда трава 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C11">
-            <v>307</v>
+            <v>117</v>
           </cell>
           <cell r="D11">
-            <v>86</v>
+            <v>92</v>
           </cell>
           <cell r="H11">
-            <v>8700</v>
+            <v>3307</v>
           </cell>
           <cell r="I11">
-            <v>8700</v>
+            <v>3307</v>
           </cell>
           <cell r="K11">
-            <v>22</v>
+            <v>23</v>
           </cell>
           <cell r="L11">
-            <v>15</v>
+            <v>21</v>
           </cell>
           <cell r="M11">
-            <v>10618</v>
+            <v>3827</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C12">
-            <v>821</v>
+            <v>635</v>
           </cell>
           <cell r="D12">
-            <v>111</v>
+            <v>88</v>
           </cell>
           <cell r="H12">
-            <v>21532</v>
+            <v>24614</v>
           </cell>
           <cell r="I12">
-            <v>21532</v>
+            <v>24614</v>
           </cell>
           <cell r="K12">
-            <v>22</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="13">
@@ -3155,25 +3158,25 @@
             <v>Солодка корни 50г</v>
           </cell>
           <cell r="C13">
-            <v>675</v>
+            <v>673</v>
           </cell>
           <cell r="D13">
-            <v>69</v>
+            <v>68</v>
           </cell>
           <cell r="E13" t="str">
             <v>↓</v>
           </cell>
           <cell r="H13">
-            <v>32638</v>
+            <v>32274</v>
           </cell>
           <cell r="I13">
-            <v>32638</v>
+            <v>32274</v>
           </cell>
           <cell r="K13">
             <v>24</v>
           </cell>
           <cell r="L13">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M13">
             <v>25445</v>
@@ -3181,180 +3184,189 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C14">
-            <v>117</v>
+            <v>294</v>
           </cell>
           <cell r="D14">
             <v>92</v>
           </cell>
           <cell r="H14">
-            <v>3405</v>
+            <v>11979</v>
           </cell>
           <cell r="I14">
-            <v>3405</v>
+            <v>11979</v>
           </cell>
           <cell r="K14">
             <v>24</v>
           </cell>
+          <cell r="L14">
+            <v>16</v>
+          </cell>
+          <cell r="M14">
+            <v>15267</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C15">
-            <v>294</v>
+            <v>260</v>
           </cell>
           <cell r="D15">
-            <v>93</v>
+            <v>87</v>
           </cell>
           <cell r="H15">
-            <v>12315</v>
+            <v>11660</v>
           </cell>
           <cell r="I15">
-            <v>12315</v>
+            <v>11660</v>
           </cell>
           <cell r="K15">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="L15">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="M15">
-            <v>15267</v>
+            <v>10834</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C16">
-            <v>759</v>
+            <v>75</v>
           </cell>
           <cell r="D16">
-            <v>89</v>
+            <v>59</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H16">
-            <v>30590</v>
+            <v>5204</v>
           </cell>
           <cell r="I16">
-            <v>30590</v>
+            <v>5204</v>
           </cell>
           <cell r="K16">
             <v>25</v>
           </cell>
-          <cell r="L16">
-            <v>15</v>
-          </cell>
-          <cell r="M16">
-            <v>27563</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C17">
-            <v>629</v>
+            <v>754</v>
           </cell>
           <cell r="D17">
-            <v>89</v>
+            <v>88</v>
           </cell>
           <cell r="H17">
-            <v>25398</v>
+            <v>30226</v>
           </cell>
           <cell r="I17">
-            <v>25398</v>
+            <v>30226</v>
           </cell>
           <cell r="K17">
             <v>25</v>
           </cell>
+          <cell r="L17">
+            <v>14</v>
+          </cell>
+          <cell r="M17">
+            <v>27563</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C18">
-            <v>269</v>
+            <v>592</v>
           </cell>
           <cell r="D18">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="H18">
-            <v>11786</v>
+            <v>20187</v>
           </cell>
           <cell r="I18">
-            <v>11786</v>
+            <v>20187</v>
           </cell>
           <cell r="K18">
-            <v>25</v>
-          </cell>
-          <cell r="L18">
-            <v>16</v>
-          </cell>
-          <cell r="M18">
-            <v>10834</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C19">
-            <v>72</v>
+            <v>391</v>
           </cell>
           <cell r="D19">
-            <v>57</v>
+            <v>75</v>
           </cell>
           <cell r="E19" t="str">
             <v>↓</v>
           </cell>
+          <cell r="F19">
+            <v>938</v>
+          </cell>
+          <cell r="G19">
+            <v>2</v>
+          </cell>
           <cell r="H19">
-            <v>5484</v>
+            <v>18444</v>
           </cell>
           <cell r="I19">
-            <v>5484</v>
+            <v>18444</v>
           </cell>
           <cell r="K19">
-            <v>26</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C20">
-            <v>598</v>
+            <v>414</v>
           </cell>
           <cell r="D20">
-            <v>93</v>
+            <v>92</v>
           </cell>
           <cell r="H20">
-            <v>20523</v>
+            <v>15483</v>
           </cell>
           <cell r="I20">
-            <v>20523</v>
+            <v>15483</v>
           </cell>
           <cell r="K20">
-            <v>26</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C21">
-            <v>414</v>
+            <v>596</v>
           </cell>
           <cell r="D21">
-            <v>92</v>
+            <v>80</v>
           </cell>
           <cell r="H21">
-            <v>15931</v>
+            <v>29433</v>
           </cell>
           <cell r="I21">
-            <v>15931</v>
+            <v>29433</v>
           </cell>
           <cell r="K21">
             <v>27</v>
@@ -3365,16 +3377,16 @@
             <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C22">
-            <v>1223</v>
+            <v>1207</v>
           </cell>
           <cell r="D22">
-            <v>89</v>
+            <v>88</v>
           </cell>
           <cell r="H22">
-            <v>42084</v>
+            <v>41692</v>
           </cell>
           <cell r="I22">
-            <v>42084</v>
+            <v>41692</v>
           </cell>
           <cell r="K22">
             <v>28</v>
@@ -3382,134 +3394,125 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C23">
-            <v>382</v>
+            <v>421</v>
           </cell>
           <cell r="D23">
-            <v>75</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="F23">
-            <v>938</v>
-          </cell>
-          <cell r="G23">
-            <v>2</v>
+            <v>92</v>
           </cell>
           <cell r="H23">
-            <v>19144</v>
+            <v>18963</v>
           </cell>
           <cell r="I23">
-            <v>19144</v>
+            <v>18963</v>
           </cell>
           <cell r="K23">
-            <v>28</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C24">
-            <v>596</v>
+            <v>531</v>
           </cell>
           <cell r="D24">
-            <v>81</v>
+            <v>87</v>
           </cell>
           <cell r="H24">
-            <v>29433</v>
+            <v>28170</v>
           </cell>
           <cell r="I24">
-            <v>29433</v>
+            <v>18560</v>
           </cell>
           <cell r="K24">
-            <v>28</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C25">
-            <v>427</v>
+            <v>2235</v>
           </cell>
           <cell r="D25">
-            <v>94</v>
+            <v>89</v>
+          </cell>
+          <cell r="F25">
+            <v>3360</v>
+          </cell>
+          <cell r="G25">
+            <v>2</v>
           </cell>
           <cell r="H25">
-            <v>19383</v>
+            <v>70399</v>
           </cell>
           <cell r="I25">
-            <v>19383</v>
+            <v>70399</v>
           </cell>
           <cell r="K25">
-            <v>29</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C26">
-            <v>2254</v>
+            <v>402</v>
           </cell>
           <cell r="D26">
-            <v>90</v>
-          </cell>
-          <cell r="F26">
-            <v>3360</v>
-          </cell>
-          <cell r="G26">
-            <v>2</v>
+            <v>93</v>
           </cell>
           <cell r="H26">
-            <v>71071</v>
+            <v>15979</v>
           </cell>
           <cell r="I26">
-            <v>71071</v>
+            <v>15979</v>
           </cell>
           <cell r="K26">
-            <v>30</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C27">
-            <v>534</v>
+            <v>559</v>
           </cell>
           <cell r="D27">
-            <v>88</v>
+            <v>86</v>
           </cell>
           <cell r="H27">
-            <v>28170</v>
+            <v>28069</v>
           </cell>
           <cell r="I27">
-            <v>18560</v>
+            <v>28069</v>
           </cell>
           <cell r="K27">
-            <v>30</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C28">
-            <v>401</v>
+            <v>930</v>
           </cell>
           <cell r="D28">
-            <v>94</v>
+            <v>81</v>
           </cell>
           <cell r="H28">
-            <v>16259</v>
+            <v>39994</v>
           </cell>
           <cell r="I28">
-            <v>16259</v>
+            <v>39994</v>
           </cell>
           <cell r="K28">
             <v>31</v>
@@ -3517,19 +3520,19 @@
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C29">
-            <v>561</v>
+            <v>336</v>
           </cell>
           <cell r="D29">
-            <v>88</v>
+            <v>91</v>
           </cell>
           <cell r="H29">
-            <v>28069</v>
+            <v>17679</v>
           </cell>
           <cell r="I29">
-            <v>28069</v>
+            <v>17679</v>
           </cell>
           <cell r="K29">
             <v>31</v>
@@ -3537,19 +3540,22 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C30">
-            <v>929</v>
+            <v>597</v>
           </cell>
           <cell r="D30">
-            <v>82</v>
+            <v>78</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H30">
-            <v>40218</v>
+            <v>29559</v>
           </cell>
           <cell r="I30">
-            <v>40218</v>
+            <v>29559</v>
           </cell>
           <cell r="K30">
             <v>31</v>
@@ -3557,42 +3563,42 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C31">
-            <v>604</v>
+            <v>432</v>
           </cell>
           <cell r="D31">
-            <v>79</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>↓</v>
+            <v>93</v>
           </cell>
           <cell r="H31">
-            <v>29573</v>
+            <v>27351</v>
           </cell>
           <cell r="I31">
-            <v>29573</v>
+            <v>27351</v>
           </cell>
           <cell r="K31">
-            <v>31</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C32">
-            <v>335</v>
+            <v>3092</v>
           </cell>
           <cell r="D32">
-            <v>92</v>
+            <v>77</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H32">
-            <v>18253</v>
+            <v>115269</v>
           </cell>
           <cell r="I32">
-            <v>18253</v>
+            <v>115269</v>
           </cell>
           <cell r="K32">
             <v>32</v>
@@ -3600,22 +3606,19 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C33">
-            <v>3098</v>
+            <v>401</v>
           </cell>
           <cell r="D33">
-            <v>77</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>↓</v>
+            <v>82</v>
           </cell>
           <cell r="H33">
-            <v>116991</v>
+            <v>22143</v>
           </cell>
           <cell r="I33">
-            <v>116991</v>
+            <v>22143</v>
           </cell>
           <cell r="K33">
             <v>33</v>
@@ -3623,62 +3626,62 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C34">
-            <v>427</v>
+            <v>184</v>
           </cell>
           <cell r="D34">
-            <v>93</v>
+            <v>85</v>
           </cell>
           <cell r="H34">
-            <v>27995</v>
+            <v>11662</v>
           </cell>
           <cell r="I34">
-            <v>27995</v>
+            <v>11662</v>
           </cell>
           <cell r="K34">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C35">
-            <v>405</v>
+            <v>266</v>
           </cell>
           <cell r="D35">
-            <v>84</v>
+            <v>76</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H35">
-            <v>22213</v>
+            <v>22505</v>
           </cell>
           <cell r="I35">
-            <v>22213</v>
+            <v>22505</v>
           </cell>
           <cell r="K35">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Береза почки 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C36">
-            <v>261</v>
+            <v>345</v>
           </cell>
           <cell r="D36">
-            <v>76</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>↓</v>
+            <v>90</v>
           </cell>
           <cell r="H36">
-            <v>23135</v>
+            <v>25394</v>
           </cell>
           <cell r="I36">
-            <v>23135</v>
+            <v>25394</v>
           </cell>
           <cell r="K36">
             <v>35</v>
@@ -3686,19 +3689,19 @@
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C37">
-            <v>184</v>
+            <v>427</v>
           </cell>
           <cell r="D37">
-            <v>86</v>
+            <v>95</v>
           </cell>
           <cell r="H37">
-            <v>11886</v>
+            <v>27346</v>
           </cell>
           <cell r="I37">
-            <v>11886</v>
+            <v>27346</v>
           </cell>
           <cell r="K37">
             <v>35</v>
@@ -3706,19 +3709,19 @@
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C38">
-            <v>428</v>
+            <v>942</v>
           </cell>
           <cell r="D38">
-            <v>96</v>
+            <v>80</v>
           </cell>
           <cell r="H38">
-            <v>27626</v>
+            <v>46348</v>
           </cell>
           <cell r="I38">
-            <v>27626</v>
+            <v>46348</v>
           </cell>
           <cell r="K38">
             <v>35</v>
@@ -3726,19 +3729,19 @@
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C39">
-            <v>942</v>
+            <v>500</v>
           </cell>
           <cell r="D39">
-            <v>80</v>
+            <v>85</v>
           </cell>
           <cell r="H39">
-            <v>47076</v>
+            <v>36585</v>
           </cell>
           <cell r="I39">
-            <v>47076</v>
+            <v>36585</v>
           </cell>
           <cell r="K39">
             <v>36</v>
@@ -3749,16 +3752,16 @@
             <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C40">
-            <v>457</v>
+            <v>450</v>
           </cell>
           <cell r="D40">
-            <v>83</v>
+            <v>81</v>
           </cell>
           <cell r="H40">
-            <v>27245</v>
+            <v>27175</v>
           </cell>
           <cell r="I40">
-            <v>27245</v>
+            <v>27175</v>
           </cell>
           <cell r="K40">
             <v>36</v>
@@ -3766,39 +3769,39 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C41">
-            <v>499</v>
+            <v>1972</v>
           </cell>
           <cell r="D41">
-            <v>86</v>
+            <v>101</v>
           </cell>
           <cell r="H41">
-            <v>37089</v>
+            <v>82474</v>
           </cell>
           <cell r="I41">
-            <v>37089</v>
+            <v>43364</v>
           </cell>
           <cell r="K41">
-            <v>37</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C42">
-            <v>327</v>
+            <v>259</v>
           </cell>
           <cell r="D42">
-            <v>87</v>
+            <v>85</v>
           </cell>
           <cell r="H42">
-            <v>27004</v>
+            <v>15344</v>
           </cell>
           <cell r="I42">
-            <v>27004</v>
+            <v>15344</v>
           </cell>
           <cell r="K42">
             <v>37</v>
@@ -3806,19 +3809,19 @@
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C43">
-            <v>262</v>
+            <v>383</v>
           </cell>
           <cell r="D43">
-            <v>86</v>
+            <v>98</v>
           </cell>
           <cell r="H43">
-            <v>15358</v>
+            <v>18128</v>
           </cell>
           <cell r="I43">
-            <v>15358</v>
+            <v>18128</v>
           </cell>
           <cell r="K43">
             <v>37</v>
@@ -3826,19 +3829,19 @@
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C44">
-            <v>388</v>
+            <v>235</v>
           </cell>
           <cell r="D44">
-            <v>99</v>
+            <v>98</v>
           </cell>
           <cell r="H44">
-            <v>18338</v>
+            <v>11539</v>
           </cell>
           <cell r="I44">
-            <v>18338</v>
+            <v>11539</v>
           </cell>
           <cell r="K44">
             <v>38</v>
@@ -3846,22 +3849,25 @@
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C45">
-            <v>240</v>
+            <v>278</v>
           </cell>
           <cell r="D45">
-            <v>100</v>
+            <v>79</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H45">
-            <v>11539</v>
+            <v>22732</v>
           </cell>
           <cell r="I45">
-            <v>11539</v>
+            <v>22732</v>
           </cell>
           <cell r="K45">
-            <v>38</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="46">
@@ -3875,10 +3881,10 @@
             <v>83</v>
           </cell>
           <cell r="H46">
-            <v>2688</v>
+            <v>2674</v>
           </cell>
           <cell r="I46">
-            <v>742</v>
+            <v>728</v>
           </cell>
           <cell r="K46">
             <v>41</v>
@@ -3886,22 +3892,19 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C47">
-            <v>272</v>
+            <v>214</v>
           </cell>
           <cell r="D47">
-            <v>78</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>↓</v>
+            <v>99</v>
           </cell>
           <cell r="H47">
-            <v>23348</v>
+            <v>10949</v>
           </cell>
           <cell r="I47">
-            <v>23348</v>
+            <v>10949</v>
           </cell>
           <cell r="K47">
             <v>42</v>
@@ -3909,42 +3912,42 @@
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C48">
-            <v>216</v>
+            <v>1018</v>
           </cell>
           <cell r="D48">
-            <v>100</v>
+            <v>78</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H48">
-            <v>11215</v>
+            <v>84507</v>
           </cell>
           <cell r="I48">
-            <v>11215</v>
+            <v>49801</v>
           </cell>
           <cell r="K48">
-            <v>43</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Лен семена 100г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C49">
-            <v>1000</v>
+            <v>207</v>
           </cell>
           <cell r="D49">
-            <v>77</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>↓</v>
+            <v>98</v>
           </cell>
           <cell r="H49">
-            <v>86509</v>
+            <v>15924</v>
           </cell>
           <cell r="I49">
-            <v>51803</v>
+            <v>6166</v>
           </cell>
           <cell r="K49">
             <v>45</v>
@@ -3952,39 +3955,39 @@
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C50">
-            <v>212</v>
+            <v>300</v>
           </cell>
           <cell r="D50">
-            <v>100</v>
+            <v>84</v>
           </cell>
           <cell r="H50">
-            <v>16078</v>
+            <v>19001</v>
           </cell>
           <cell r="I50">
-            <v>6320</v>
+            <v>8700</v>
           </cell>
           <cell r="K50">
-            <v>46</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C51">
-            <v>143</v>
+            <v>332</v>
           </cell>
           <cell r="D51">
-            <v>89</v>
+            <v>91</v>
           </cell>
           <cell r="H51">
-            <v>9393</v>
+            <v>25155</v>
           </cell>
           <cell r="I51">
-            <v>9393</v>
+            <v>9480</v>
           </cell>
           <cell r="K51">
             <v>50</v>
@@ -3992,19 +3995,19 @@
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C52">
-            <v>339</v>
+            <v>260</v>
           </cell>
           <cell r="D52">
-            <v>94</v>
+            <v>105</v>
           </cell>
           <cell r="H52">
-            <v>25379</v>
+            <v>13033</v>
           </cell>
           <cell r="I52">
-            <v>9704</v>
+            <v>1931</v>
           </cell>
           <cell r="K52">
             <v>50</v>
@@ -4012,19 +4015,19 @@
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C53">
-            <v>260</v>
+            <v>143</v>
           </cell>
           <cell r="D53">
-            <v>105</v>
+            <v>88</v>
           </cell>
           <cell r="H53">
-            <v>13173</v>
+            <v>9379</v>
           </cell>
           <cell r="I53">
-            <v>2071</v>
+            <v>9379</v>
           </cell>
           <cell r="K53">
             <v>50</v>
@@ -4032,48 +4035,48 @@
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="C54">
-            <v>173</v>
+            <v>272</v>
           </cell>
           <cell r="D54">
-            <v>80</v>
-          </cell>
-          <cell r="F54">
-            <v>280</v>
-          </cell>
-          <cell r="G54">
-            <v>2</v>
+            <v>87</v>
           </cell>
           <cell r="H54">
-            <v>12902</v>
+            <v>28131</v>
           </cell>
           <cell r="I54">
-            <v>3864</v>
+            <v>8760</v>
           </cell>
           <cell r="K54">
-            <v>55</v>
+            <v>59</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>277</v>
+            <v>173</v>
           </cell>
           <cell r="D55">
-            <v>89</v>
+            <v>80</v>
+          </cell>
+          <cell r="F55">
+            <v>280</v>
+          </cell>
+          <cell r="G55">
+            <v>2</v>
           </cell>
           <cell r="H55">
-            <v>28285</v>
+            <v>12902</v>
           </cell>
           <cell r="I55">
-            <v>8914</v>
+            <v>3864</v>
           </cell>
           <cell r="K55">
-            <v>55</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="56">
@@ -4088,105 +4091,108 @@
         </row>
         <row r="58">
           <cell r="B58" t="str">
-            <v>Фп Фитоконтроль Кардио (БАД) 20х1,5г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+          </cell>
+          <cell r="C58">
+            <v>431</v>
+          </cell>
+          <cell r="D58">
+            <v>77</v>
           </cell>
           <cell r="E58" t="str">
             <v>↓</v>
           </cell>
           <cell r="H58">
-            <v>690</v>
+            <v>14289</v>
           </cell>
           <cell r="I58">
-            <v>690</v>
-          </cell>
-          <cell r="J58" t="str">
-            <v>!!!</v>
+            <v>14289</v>
+          </cell>
+          <cell r="K58">
+            <v>25</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>429</v>
+            <v>76</v>
           </cell>
           <cell r="D59">
-            <v>76</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>↓</v>
+            <v>99</v>
           </cell>
           <cell r="H59">
-            <v>14999</v>
+            <v>2948</v>
           </cell>
           <cell r="I59">
-            <v>14999</v>
+            <v>2948</v>
           </cell>
           <cell r="K59">
-            <v>26</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>76</v>
+            <v>104</v>
           </cell>
           <cell r="D60">
-            <v>100</v>
+            <v>98</v>
           </cell>
           <cell r="H60">
-            <v>2988</v>
+            <v>4641</v>
           </cell>
           <cell r="I60">
-            <v>2988</v>
+            <v>2241</v>
           </cell>
           <cell r="K60">
-            <v>30</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>104</v>
+            <v>40</v>
           </cell>
           <cell r="D61">
-            <v>99</v>
+            <v>49</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H61">
-            <v>4701</v>
+            <v>4790</v>
           </cell>
           <cell r="I61">
-            <v>2301</v>
+            <v>4790</v>
           </cell>
           <cell r="K61">
-            <v>35</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>40</v>
+            <v>114</v>
           </cell>
           <cell r="D62">
-            <v>49</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H62">
-            <v>4820</v>
+            <v>7868</v>
           </cell>
           <cell r="I62">
-            <v>4820</v>
+            <v>2898</v>
           </cell>
           <cell r="K62">
-            <v>36</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="63">
@@ -4194,22 +4200,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="D63">
-            <v>69</v>
+            <v>71</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>8340</v>
+            <v>8280</v>
           </cell>
           <cell r="I63">
-            <v>8340</v>
+            <v>8280</v>
           </cell>
           <cell r="K63">
-            <v>55</v>
+            <v>147</v>
           </cell>
         </row>
         <row r="64">
@@ -4220,7 +4226,7 @@
             <v>10</v>
           </cell>
           <cell r="D64">
-            <v>64</v>
+            <v>63</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
@@ -4232,176 +4238,182 @@
             <v>9750</v>
           </cell>
           <cell r="K64">
-            <v>55</v>
+            <v>205</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
-          </cell>
-          <cell r="C65">
-            <v>114</v>
-          </cell>
-          <cell r="D65">
-            <v>89</v>
-          </cell>
-          <cell r="H65">
-            <v>7928</v>
-          </cell>
-          <cell r="I65">
-            <v>2958</v>
-          </cell>
-          <cell r="K65">
-            <v>55</v>
+            <v>Линия ИМА С 50</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>Линия ИМА С 50</v>
+            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
+          </cell>
+          <cell r="C66">
+            <v>54</v>
+          </cell>
+          <cell r="D66">
+            <v>90</v>
+          </cell>
+          <cell r="J66" t="str">
+            <v>!!!</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>57</v>
+            <v>199</v>
           </cell>
           <cell r="D67">
-            <v>88</v>
+            <v>111</v>
+          </cell>
+          <cell r="H67">
+            <v>414</v>
+          </cell>
+          <cell r="I67">
+            <v>414</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
           </cell>
+          <cell r="K67">
+            <v>2</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="B68" t="str">
-            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="C68">
-            <v>199</v>
+            <v>28</v>
           </cell>
           <cell r="D68">
-            <v>109</v>
+            <v>42</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H68">
-            <v>630</v>
+            <v>1188</v>
           </cell>
           <cell r="I68">
-            <v>630</v>
+            <v>1188</v>
           </cell>
           <cell r="J68" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K68">
-            <v>3</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69" t="str">
-            <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
           </cell>
           <cell r="C69">
-            <v>28</v>
+            <v>24</v>
           </cell>
           <cell r="D69">
-            <v>43</v>
+            <v>30</v>
           </cell>
           <cell r="E69" t="str">
             <v>↓</v>
           </cell>
           <cell r="H69">
-            <v>1188</v>
+            <v>1530</v>
           </cell>
           <cell r="I69">
-            <v>1188</v>
+            <v>1530</v>
           </cell>
           <cell r="J69" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K69">
-            <v>8</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70" t="str">
-            <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="C70">
-            <v>25</v>
+            <v>26</v>
           </cell>
           <cell r="D70">
-            <v>31</v>
+            <v>43</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
           </cell>
+          <cell r="F70">
+            <v>36</v>
+          </cell>
+          <cell r="G70">
+            <v>1</v>
+          </cell>
           <cell r="H70">
-            <v>1530</v>
+            <v>1152</v>
           </cell>
           <cell r="I70">
-            <v>1530</v>
+            <v>1152</v>
           </cell>
           <cell r="J70" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K70">
-            <v>10</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71" t="str">
-            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
           </cell>
           <cell r="C71">
-            <v>26</v>
+            <v>17</v>
           </cell>
           <cell r="D71">
-            <v>44</v>
+            <v>27</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
-          <cell r="F71">
-            <v>36</v>
-          </cell>
-          <cell r="G71">
-            <v>1</v>
-          </cell>
           <cell r="H71">
-            <v>1152</v>
+            <v>3222</v>
           </cell>
           <cell r="I71">
-            <v>1152</v>
-          </cell>
-          <cell r="J71" t="str">
-            <v>!!!</v>
+            <v>3222</v>
           </cell>
           <cell r="K71">
-            <v>11</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72" t="str">
-            <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C72">
-            <v>17</v>
+            <v>283</v>
           </cell>
           <cell r="D72">
-            <v>28</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>↓</v>
+            <v>87</v>
           </cell>
           <cell r="H72">
-            <v>3222</v>
+            <v>11261</v>
           </cell>
           <cell r="I72">
-            <v>3222</v>
+            <v>11261</v>
           </cell>
           <cell r="K72">
             <v>23</v>
+          </cell>
+          <cell r="L72">
+            <v>17</v>
+          </cell>
+          <cell r="M72">
+            <v>10465</v>
           </cell>
         </row>
         <row r="73">
@@ -4409,22 +4421,22 @@
             <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C73">
-            <v>58</v>
+            <v>57</v>
           </cell>
           <cell r="D73">
-            <v>96</v>
+            <v>94</v>
           </cell>
           <cell r="H73">
-            <v>2479</v>
+            <v>2461</v>
           </cell>
           <cell r="I73">
-            <v>2479</v>
+            <v>2461</v>
           </cell>
           <cell r="K73">
             <v>24</v>
           </cell>
           <cell r="L73">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="M73">
             <v>4924</v>
@@ -4432,71 +4444,74 @@
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C74">
-            <v>274</v>
+            <v>831</v>
           </cell>
           <cell r="D74">
-            <v>84</v>
+            <v>116</v>
           </cell>
           <cell r="H74">
-            <v>12665</v>
+            <v>29703</v>
           </cell>
           <cell r="I74">
-            <v>12665</v>
+            <v>29703</v>
           </cell>
           <cell r="K74">
-            <v>26</v>
+            <v>32</v>
           </cell>
           <cell r="L74">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="M74">
-            <v>10465</v>
+            <v>19995</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C75">
-            <v>3822</v>
+            <v>5</v>
           </cell>
           <cell r="D75">
-            <v>89</v>
+            <v>223</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H75">
-            <v>138981</v>
+            <v>1098</v>
           </cell>
           <cell r="I75">
-            <v>89157</v>
+            <v>1098</v>
           </cell>
           <cell r="K75">
-            <v>32</v>
-          </cell>
-          <cell r="L75">
-            <v>15</v>
-          </cell>
-          <cell r="M75">
-            <v>49987</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C76">
-            <v>837</v>
+            <v>2498</v>
           </cell>
           <cell r="D76">
-            <v>118</v>
+            <v>82</v>
+          </cell>
+          <cell r="F76">
+            <v>8946</v>
+          </cell>
+          <cell r="G76">
+            <v>3</v>
           </cell>
           <cell r="H76">
-            <v>30801</v>
+            <v>124548</v>
           </cell>
           <cell r="I76">
-            <v>30801</v>
+            <v>79911</v>
           </cell>
           <cell r="K76">
             <v>33</v>
@@ -4504,934 +4519,925 @@
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C77">
-            <v>2488</v>
+            <v>13896</v>
           </cell>
           <cell r="D77">
-            <v>82</v>
-          </cell>
-          <cell r="F77">
-            <v>8946</v>
-          </cell>
-          <cell r="G77">
-            <v>3</v>
+            <v>87</v>
           </cell>
           <cell r="H77">
-            <v>127626</v>
+            <v>594435</v>
           </cell>
           <cell r="I77">
-            <v>82989</v>
+            <v>594435</v>
           </cell>
           <cell r="K77">
-            <v>33</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C78">
-            <v>5</v>
+            <v>1375</v>
           </cell>
           <cell r="D78">
-            <v>211</v>
-          </cell>
-          <cell r="E78" t="str">
-            <v>↑</v>
+            <v>91</v>
           </cell>
           <cell r="H78">
-            <v>1098</v>
+            <v>66785</v>
           </cell>
           <cell r="I78">
-            <v>1098</v>
+            <v>66785</v>
           </cell>
           <cell r="K78">
-            <v>34</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C79">
-            <v>14182</v>
+            <v>914</v>
           </cell>
           <cell r="D79">
-            <v>90</v>
+            <v>100</v>
+          </cell>
+          <cell r="F79">
+            <v>630</v>
+          </cell>
+          <cell r="G79">
+            <v>1</v>
           </cell>
           <cell r="H79">
-            <v>594435</v>
+            <v>48249</v>
           </cell>
           <cell r="I79">
-            <v>594435</v>
+            <v>48249</v>
           </cell>
           <cell r="K79">
-            <v>35</v>
+            <v>39</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C80">
-            <v>95</v>
+            <v>493</v>
           </cell>
           <cell r="D80">
-            <v>97</v>
+            <v>98</v>
           </cell>
           <cell r="H80">
-            <v>3680</v>
+            <v>26610</v>
           </cell>
           <cell r="I80">
-            <v>3680</v>
+            <v>26610</v>
           </cell>
           <cell r="K80">
-            <v>35</v>
+            <v>39</v>
           </cell>
           <cell r="L80">
             <v>15</v>
           </cell>
           <cell r="M80">
-            <v>3941</v>
+            <v>15101</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>444</v>
+            <v>790</v>
           </cell>
           <cell r="D81">
-            <v>92</v>
+            <v>76</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H81">
-            <v>21742</v>
+            <v>57107</v>
           </cell>
           <cell r="I81">
-            <v>21742</v>
+            <v>57107</v>
           </cell>
           <cell r="K81">
-            <v>36</v>
+            <v>40</v>
           </cell>
           <cell r="L81">
-            <v>15</v>
+            <v>16</v>
           </cell>
           <cell r="M81">
-            <v>20866</v>
+            <v>31286</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C82">
-            <v>1361</v>
+            <v>343</v>
           </cell>
           <cell r="D82">
-            <v>91</v>
+            <v>79</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H82">
-            <v>69989</v>
+            <v>27739</v>
           </cell>
           <cell r="I82">
-            <v>69989</v>
+            <v>27739</v>
           </cell>
           <cell r="K82">
-            <v>38</v>
+            <v>41</v>
+          </cell>
+          <cell r="L82">
+            <v>17</v>
+          </cell>
+          <cell r="M82">
+            <v>10095</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C83">
-            <v>722</v>
+            <v>3795</v>
           </cell>
           <cell r="D83">
-            <v>95</v>
+            <v>89</v>
           </cell>
           <cell r="H83">
-            <v>35564</v>
+            <v>189381</v>
           </cell>
           <cell r="I83">
-            <v>35564</v>
+            <v>89085</v>
           </cell>
           <cell r="K83">
-            <v>40</v>
-          </cell>
-          <cell r="L83">
-            <v>16</v>
-          </cell>
-          <cell r="M83">
-            <v>9850</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C84">
-            <v>793</v>
+            <v>1018</v>
           </cell>
           <cell r="D84">
-            <v>88</v>
+            <v>91</v>
           </cell>
           <cell r="H84">
-            <v>46991</v>
+            <v>59995</v>
           </cell>
           <cell r="I84">
-            <v>46991</v>
+            <v>59995</v>
           </cell>
           <cell r="K84">
-            <v>40</v>
+            <v>44</v>
           </cell>
           <cell r="L84">
             <v>16</v>
           </cell>
           <cell r="M84">
-            <v>15390</v>
+            <v>34471</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C85">
-            <v>498</v>
+            <v>1065</v>
           </cell>
           <cell r="D85">
-            <v>99</v>
+            <v>86</v>
           </cell>
           <cell r="H85">
-            <v>27366</v>
+            <v>66634</v>
           </cell>
           <cell r="I85">
-            <v>27366</v>
+            <v>66634</v>
           </cell>
           <cell r="K85">
-            <v>40</v>
-          </cell>
-          <cell r="L85">
-            <v>16</v>
-          </cell>
-          <cell r="M85">
-            <v>15101</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C86">
-            <v>928</v>
+            <v>714</v>
           </cell>
           <cell r="D86">
-            <v>103</v>
-          </cell>
-          <cell r="F86">
-            <v>630</v>
-          </cell>
-          <cell r="G86">
-            <v>1</v>
+            <v>96</v>
           </cell>
           <cell r="H86">
-            <v>49815</v>
+            <v>34560</v>
           </cell>
           <cell r="I86">
-            <v>49815</v>
+            <v>34560</v>
           </cell>
           <cell r="K86">
-            <v>40</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C87">
-            <v>789</v>
+            <v>299</v>
           </cell>
           <cell r="D87">
-            <v>76</v>
-          </cell>
-          <cell r="E87" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H87">
-            <v>58259</v>
+            <v>24933</v>
           </cell>
           <cell r="I87">
-            <v>58259</v>
+            <v>24933</v>
           </cell>
           <cell r="K87">
-            <v>41</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C88">
-            <v>338</v>
+            <v>66</v>
           </cell>
           <cell r="D88">
-            <v>79</v>
-          </cell>
-          <cell r="E88" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H88">
-            <v>28225</v>
+            <v>3838</v>
           </cell>
           <cell r="I88">
-            <v>28225</v>
+            <v>3838</v>
           </cell>
           <cell r="K88">
-            <v>42</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C89">
-            <v>1024</v>
+            <v>3541</v>
           </cell>
           <cell r="D89">
-            <v>92</v>
+            <v>85</v>
           </cell>
           <cell r="H89">
-            <v>60247</v>
+            <v>184531</v>
           </cell>
           <cell r="I89">
-            <v>60247</v>
+            <v>147307</v>
           </cell>
           <cell r="K89">
-            <v>45</v>
+            <v>48</v>
           </cell>
           <cell r="L89">
             <v>17</v>
           </cell>
           <cell r="M89">
-            <v>34471</v>
+            <v>65254</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C90">
-            <v>1072</v>
+            <v>1010</v>
           </cell>
           <cell r="D90">
             <v>87</v>
           </cell>
           <cell r="H90">
-            <v>66670</v>
+            <v>77253</v>
           </cell>
           <cell r="I90">
-            <v>66670</v>
+            <v>51351</v>
           </cell>
           <cell r="K90">
-            <v>45</v>
+            <v>49</v>
+          </cell>
+          <cell r="L90">
+            <v>17</v>
+          </cell>
+          <cell r="M90">
+            <v>19698</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C91">
-            <v>290</v>
+            <v>29426</v>
           </cell>
           <cell r="D91">
-            <v>87</v>
+            <v>93</v>
           </cell>
           <cell r="H91">
-            <v>25743</v>
+            <v>1463303</v>
           </cell>
           <cell r="I91">
-            <v>25743</v>
+            <v>1463303</v>
           </cell>
           <cell r="K91">
-            <v>47</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C92">
-            <v>717</v>
+            <v>716</v>
           </cell>
           <cell r="D92">
-            <v>96</v>
+            <v>93</v>
           </cell>
           <cell r="H92">
-            <v>35064</v>
+            <v>45482</v>
           </cell>
           <cell r="I92">
-            <v>35064</v>
+            <v>35564</v>
           </cell>
           <cell r="K92">
-            <v>47</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C93">
-            <v>3590</v>
+            <v>876</v>
           </cell>
           <cell r="D93">
-            <v>86</v>
+            <v>82</v>
           </cell>
           <cell r="H93">
-            <v>184531</v>
+            <v>51156</v>
           </cell>
           <cell r="I93">
-            <v>147307</v>
+            <v>51156</v>
           </cell>
           <cell r="K93">
-            <v>48</v>
+            <v>51</v>
+          </cell>
+          <cell r="L93">
+            <v>17</v>
+          </cell>
+          <cell r="M93">
+            <v>16414</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C94">
-            <v>66</v>
+            <v>161</v>
           </cell>
           <cell r="D94">
-            <v>90</v>
+            <v>78</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H94">
-            <v>3910</v>
+            <v>19376</v>
           </cell>
           <cell r="I94">
-            <v>3910</v>
+            <v>19376</v>
           </cell>
           <cell r="K94">
-            <v>48</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C95">
-            <v>1002</v>
+            <v>1263</v>
           </cell>
           <cell r="D95">
-            <v>87</v>
+            <v>89</v>
           </cell>
           <cell r="H95">
-            <v>78207</v>
+            <v>88983</v>
           </cell>
           <cell r="I95">
-            <v>52305</v>
+            <v>48168</v>
           </cell>
           <cell r="K95">
-            <v>49</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C96">
-            <v>29518</v>
+            <v>539</v>
           </cell>
           <cell r="D96">
-            <v>94</v>
+            <v>102</v>
           </cell>
           <cell r="H96">
-            <v>1479935</v>
+            <v>43579</v>
           </cell>
           <cell r="I96">
-            <v>1479935</v>
+            <v>26893</v>
           </cell>
           <cell r="K96">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C97">
-            <v>161</v>
+            <v>1229</v>
           </cell>
           <cell r="D97">
-            <v>78</v>
-          </cell>
-          <cell r="E97" t="str">
-            <v>↓</v>
+            <v>87</v>
           </cell>
           <cell r="H97">
-            <v>19628</v>
+            <v>77946</v>
           </cell>
           <cell r="I97">
-            <v>19628</v>
+            <v>77946</v>
           </cell>
           <cell r="K97">
-            <v>52</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C98">
-            <v>1281</v>
+            <v>1321</v>
           </cell>
           <cell r="D98">
-            <v>90</v>
+            <v>102</v>
           </cell>
           <cell r="H98">
-            <v>89271</v>
+            <v>97125</v>
           </cell>
           <cell r="I98">
-            <v>48456</v>
+            <v>52812</v>
           </cell>
           <cell r="K98">
-            <v>52</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C99">
-            <v>881</v>
+            <v>111</v>
           </cell>
           <cell r="D99">
-            <v>82</v>
+            <v>77</v>
+          </cell>
+          <cell r="E99" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H99">
-            <v>51372</v>
+            <v>9270</v>
           </cell>
           <cell r="I99">
-            <v>51372</v>
+            <v>5490</v>
           </cell>
           <cell r="K99">
-            <v>52</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C100">
-            <v>1239</v>
+            <v>112</v>
           </cell>
           <cell r="D100">
-            <v>88</v>
+            <v>107</v>
           </cell>
           <cell r="H100">
-            <v>78378</v>
+            <v>6906</v>
           </cell>
           <cell r="I100">
-            <v>78378</v>
+            <v>6906</v>
           </cell>
           <cell r="K100">
-            <v>53</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C101">
-            <v>541</v>
+            <v>40</v>
           </cell>
           <cell r="D101">
-            <v>103</v>
+            <v>68</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H101">
-            <v>44137</v>
+            <v>5814</v>
           </cell>
           <cell r="I101">
-            <v>27451</v>
+            <v>5814</v>
           </cell>
           <cell r="K101">
-            <v>53</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C102">
-            <v>745</v>
+            <v>790</v>
           </cell>
           <cell r="D102">
-            <v>91</v>
+            <v>87</v>
           </cell>
           <cell r="H102">
-            <v>68767</v>
+            <v>62309</v>
           </cell>
           <cell r="I102">
-            <v>38457</v>
+            <v>46919</v>
           </cell>
           <cell r="K102">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C103">
-            <v>60</v>
+            <v>4</v>
           </cell>
           <cell r="D103">
-            <v>117</v>
+            <v>140</v>
+          </cell>
+          <cell r="E103" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H103">
-            <v>7297</v>
+            <v>1872</v>
           </cell>
           <cell r="I103">
-            <v>7297</v>
+            <v>1872</v>
           </cell>
           <cell r="K103">
-            <v>55</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C104">
-            <v>1316</v>
+            <v>598</v>
           </cell>
           <cell r="D104">
-            <v>102</v>
+            <v>90</v>
           </cell>
           <cell r="H104">
-            <v>100455</v>
+            <v>54339</v>
           </cell>
           <cell r="I104">
-            <v>56142</v>
+            <v>54339</v>
           </cell>
           <cell r="K104">
-            <v>55</v>
+            <v>58</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C105">
-            <v>54</v>
+            <v>737</v>
           </cell>
           <cell r="D105">
-            <v>101</v>
+            <v>89</v>
           </cell>
           <cell r="H105">
-            <v>6826</v>
+            <v>68695</v>
           </cell>
           <cell r="I105">
-            <v>6826</v>
+            <v>38385</v>
           </cell>
           <cell r="K105">
-            <v>55</v>
+            <v>58</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C106">
-            <v>594</v>
+            <v>1254</v>
           </cell>
           <cell r="D106">
-            <v>91</v>
+            <v>83</v>
           </cell>
           <cell r="H106">
-            <v>55365</v>
+            <v>96857</v>
           </cell>
           <cell r="I106">
-            <v>55365</v>
+            <v>96857</v>
           </cell>
           <cell r="K106">
-            <v>55</v>
+            <v>59</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C107">
-            <v>40</v>
+            <v>5</v>
           </cell>
           <cell r="D107">
-            <v>67</v>
+            <v>224</v>
           </cell>
           <cell r="E107" t="str">
-            <v>↓</v>
+            <v>↑</v>
           </cell>
           <cell r="H107">
-            <v>5814</v>
+            <v>1908</v>
           </cell>
           <cell r="I107">
-            <v>5814</v>
+            <v>1908</v>
           </cell>
           <cell r="K107">
-            <v>55</v>
+            <v>64</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C108">
-            <v>1227</v>
+            <v>379</v>
           </cell>
           <cell r="D108">
-            <v>82</v>
+            <v>86</v>
           </cell>
           <cell r="H108">
-            <v>100583</v>
+            <v>40518</v>
           </cell>
           <cell r="I108">
-            <v>100583</v>
+            <v>20988</v>
           </cell>
           <cell r="K108">
-            <v>55</v>
+            <v>71</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>108</v>
+            <v>94</v>
           </cell>
           <cell r="D109">
-            <v>104</v>
+            <v>96</v>
           </cell>
           <cell r="H109">
-            <v>7338</v>
+            <v>7432</v>
           </cell>
           <cell r="I109">
-            <v>7338</v>
+            <v>3536</v>
           </cell>
           <cell r="K109">
-            <v>55</v>
+            <v>77</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C110">
-            <v>5</v>
+            <v>430</v>
           </cell>
           <cell r="D110">
-            <v>222</v>
-          </cell>
-          <cell r="E110" t="str">
-            <v>↑</v>
+            <v>89</v>
           </cell>
           <cell r="H110">
-            <v>1908</v>
+            <v>42784</v>
           </cell>
           <cell r="I110">
-            <v>1908</v>
+            <v>21706</v>
           </cell>
           <cell r="K110">
-            <v>55</v>
+            <v>78</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>Фп Ольха соплодия 20х1,5г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>51</v>
+            <v>59</v>
           </cell>
           <cell r="D111">
-            <v>104</v>
+            <v>113</v>
           </cell>
           <cell r="H111">
-            <v>6577</v>
+            <v>7279</v>
           </cell>
           <cell r="I111">
-            <v>410</v>
+            <v>7279</v>
           </cell>
           <cell r="K111">
-            <v>55</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C112">
-            <v>4</v>
+            <v>56</v>
           </cell>
           <cell r="D112">
-            <v>138</v>
-          </cell>
-          <cell r="E112" t="str">
-            <v>↑</v>
+            <v>103</v>
           </cell>
           <cell r="H112">
-            <v>1872</v>
+            <v>6664</v>
           </cell>
           <cell r="I112">
-            <v>1872</v>
+            <v>6664</v>
           </cell>
           <cell r="K112">
-            <v>55</v>
+            <v>106</v>
           </cell>
         </row>
         <row r="113">
           <cell r="B113" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Ольха соплодия 20х1,5г</v>
           </cell>
           <cell r="C113">
-            <v>383</v>
+            <v>50</v>
           </cell>
           <cell r="D113">
-            <v>87</v>
+            <v>102</v>
           </cell>
           <cell r="H113">
-            <v>40716</v>
+            <v>6577</v>
           </cell>
           <cell r="I113">
-            <v>21186</v>
+            <v>410</v>
           </cell>
           <cell r="K113">
-            <v>55</v>
+            <v>131</v>
           </cell>
         </row>
         <row r="114">
           <cell r="B114" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
-          </cell>
-          <cell r="C114">
-            <v>114</v>
-          </cell>
-          <cell r="D114">
-            <v>78</v>
-          </cell>
-          <cell r="E114" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="H114">
-            <v>9342</v>
-          </cell>
-          <cell r="I114">
-            <v>5562</v>
-          </cell>
-          <cell r="K114">
-            <v>55</v>
+            <v>Линия Консумаш</v>
           </cell>
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>Линия Консумаш</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
+          </cell>
+          <cell r="C115">
+            <v>1356</v>
+          </cell>
+          <cell r="D115">
+            <v>94</v>
+          </cell>
+          <cell r="H115">
+            <v>25932</v>
+          </cell>
+          <cell r="I115">
+            <v>25932</v>
+          </cell>
+          <cell r="J115" t="str">
+            <v>!</v>
+          </cell>
+          <cell r="K115">
+            <v>16</v>
+          </cell>
+          <cell r="L115">
+            <v>17</v>
+          </cell>
+          <cell r="M115">
+            <v>28980</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>1507</v>
+            <v>263</v>
           </cell>
           <cell r="D116">
-            <v>78</v>
-          </cell>
-          <cell r="E116" t="str">
-            <v>↓</v>
+            <v>96</v>
           </cell>
           <cell r="H116">
-            <v>40310</v>
+            <v>5416</v>
           </cell>
           <cell r="I116">
-            <v>40310</v>
+            <v>5416</v>
           </cell>
           <cell r="K116">
-            <v>15</v>
-          </cell>
-          <cell r="L116">
-            <v>11</v>
-          </cell>
-          <cell r="M116">
-            <v>19499</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C117">
-            <v>1340</v>
+            <v>1478</v>
           </cell>
           <cell r="D117">
-            <v>94</v>
+            <v>76</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H117">
-            <v>27714</v>
+            <v>59514</v>
           </cell>
           <cell r="I117">
-            <v>27714</v>
-          </cell>
-          <cell r="J117" t="str">
-            <v>!</v>
+            <v>40094</v>
           </cell>
           <cell r="K117">
-            <v>17</v>
-          </cell>
-          <cell r="L117">
-            <v>18</v>
-          </cell>
-          <cell r="M117">
-            <v>28980</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>261</v>
+            <v>469</v>
           </cell>
           <cell r="D118">
-            <v>95</v>
+            <v>89</v>
           </cell>
           <cell r="H118">
-            <v>5920</v>
+            <v>20823</v>
           </cell>
           <cell r="I118">
-            <v>5920</v>
+            <v>20823</v>
           </cell>
           <cell r="K118">
-            <v>22</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C119">
-            <v>465</v>
+            <v>100</v>
           </cell>
           <cell r="D119">
-            <v>90</v>
+            <v>80</v>
           </cell>
           <cell r="H119">
-            <v>21543</v>
+            <v>4240</v>
           </cell>
           <cell r="I119">
-            <v>21543</v>
+            <v>4240</v>
           </cell>
           <cell r="K119">
             <v>25</v>
@@ -5445,13 +5451,13 @@
             <v>343</v>
           </cell>
           <cell r="D120">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="H120">
-            <v>16710</v>
+            <v>16674</v>
           </cell>
           <cell r="I120">
-            <v>16710</v>
+            <v>16674</v>
           </cell>
           <cell r="K120">
             <v>26</v>
@@ -5459,85 +5465,88 @@
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>98</v>
+            <v>569</v>
           </cell>
           <cell r="D121">
-            <v>79</v>
-          </cell>
-          <cell r="E121" t="str">
-            <v>↓</v>
+            <v>97</v>
           </cell>
           <cell r="H121">
-            <v>4564</v>
+            <v>24406</v>
           </cell>
           <cell r="I121">
-            <v>4564</v>
+            <v>4516</v>
           </cell>
           <cell r="K121">
-            <v>27</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>566</v>
+            <v>295</v>
           </cell>
           <cell r="D122">
-            <v>98</v>
+            <v>97</v>
           </cell>
           <cell r="H122">
-            <v>25180</v>
+            <v>14103</v>
           </cell>
           <cell r="I122">
-            <v>5290</v>
+            <v>14103</v>
           </cell>
           <cell r="K122">
-            <v>29</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>295</v>
+            <v>50</v>
           </cell>
           <cell r="D123">
-            <v>98</v>
+            <v>101</v>
           </cell>
           <cell r="H123">
-            <v>14643</v>
+            <v>2905</v>
           </cell>
           <cell r="I123">
-            <v>14643</v>
+            <v>2905</v>
           </cell>
           <cell r="K123">
-            <v>35</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="124">
           <cell r="B124" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>ИТОГО:</v>
           </cell>
           <cell r="C124">
-            <v>50</v>
+            <v>105291</v>
           </cell>
           <cell r="D124">
-            <v>101</v>
+            <v>89</v>
+          </cell>
+          <cell r="F124">
+            <v>14190</v>
           </cell>
           <cell r="H124">
-            <v>2923</v>
+            <v>5500053</v>
           </cell>
           <cell r="I124">
-            <v>2923</v>
+            <v>4872814</v>
           </cell>
           <cell r="K124">
-            <v>51</v>
+            <v>44</v>
+          </cell>
+          <cell r="M124">
+            <v>372676</v>
           </cell>
         </row>
       </sheetData>
@@ -5834,11 +5843,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5854,7 +5863,7 @@
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
@@ -5872,7 +5881,7 @@
       </c>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -5881,13 +5890,13 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -5902,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -5911,17 +5920,17 @@
       <c r="D4" s="16"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21532</v>
+        <v>20076</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5933,33 +5942,33 @@
       </c>
       <c r="G5" s="33" t="str">
         <f>IF(H5&gt;0,"•","")</f>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H5" s="34">
         <f>VLOOKUP(A5,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>33057</v>
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44148</v>
-      </c>
-      <c r="D6" s="8">
+        <v>11660</v>
+      </c>
+      <c r="D6" s="8" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>inf</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-17</v>
+        <v>2022-11-24</v>
       </c>
       <c r="G6" s="33" t="str">
         <f t="shared" ref="G6:G69" si="0">IF(H6&gt;0,"•","")</f>
@@ -5967,12 +5976,12 @@
       </c>
       <c r="H6" s="34">
         <f>VLOOKUP(A6,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>39400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -5980,15 +5989,15 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11786</v>
-      </c>
-      <c r="D7" s="8" t="str">
+        <v>3307</v>
+      </c>
+      <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>37</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-11-24</v>
       </c>
       <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
@@ -5996,10 +6005,10 @@
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
@@ -6009,7 +6018,7 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15931</v>
+        <v>15483</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6017,7 +6026,7 @@
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-25</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6028,38 +6037,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3405</v>
+        <v>30226</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H9" s="34">
         <f>VLOOKUP(A9,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6067,15 +6076,15 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8700</v>
+        <v>11979</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6083,86 +6092,86 @@
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30590</v>
+        <v>70399</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-29</v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>27563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12315</v>
+        <v>2674</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H12" s="34">
         <f>VLOOKUP(A12,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>71071</v>
+        <v>41692</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6173,9 +6182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6183,15 +6192,15 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2688</v>
+        <v>29433</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6202,9 +6211,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6212,15 +6221,15 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42084</v>
+        <v>20187</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6230,10 +6239,13 @@
         <f>VLOOKUP(A15,[2]остатки!$B$8:$M$124,12,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6241,15 +6253,15 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29433</v>
+        <v>24614</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6262,23 +6274,23 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20523</v>
+        <v>17679</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6291,7 +6303,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6299,15 +6311,15 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25398</v>
+        <v>5204</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6328,7 +6340,7 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16259</v>
+        <v>15979</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6336,7 +6348,7 @@
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6349,7 +6361,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6357,15 +6369,15 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18253</v>
+        <v>18444</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6378,7 +6390,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6386,15 +6398,15 @@
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5484</v>
+        <v>10949</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6407,7 +6419,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6415,15 +6427,15 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11215</v>
+        <v>18963</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6436,7 +6448,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6444,15 +6456,15 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19144</v>
+        <v>84507</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6465,23 +6477,23 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19383</v>
+        <v>82474</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6502,7 +6514,7 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40218</v>
+        <v>39994</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6510,7 +6522,7 @@
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6523,7 +6535,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6531,15 +6543,15 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>86509</v>
+        <v>15344</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6552,7 +6564,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6560,7 +6572,7 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15358</v>
+        <v>32274</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6568,20 +6580,20 @@
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H27" s="34">
         <f>VLOOKUP(A27,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>25445</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6589,28 +6601,28 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32638</v>
+        <v>11539</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H28" s="34">
         <f>VLOOKUP(A28,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>25445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6618,15 +6630,15 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11539</v>
+        <v>28170</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6639,7 +6651,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6647,15 +6659,15 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28170</v>
+        <v>25394</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6676,7 +6688,7 @@
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47076</v>
+        <v>46348</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6684,7 +6696,7 @@
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6697,7 +6709,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6705,15 +6717,15 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18338</v>
+        <v>27346</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6726,7 +6738,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6734,15 +6746,15 @@
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27626</v>
+        <v>11662</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6755,7 +6767,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6763,15 +6775,15 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11886</v>
+        <v>18128</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6792,7 +6804,7 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29573</v>
+        <v>29559</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6800,7 +6812,7 @@
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6813,7 +6825,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6821,15 +6833,15 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27004</v>
+        <v>22143</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6842,7 +6854,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6850,15 +6862,15 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22213</v>
+        <v>27351</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6887,7 +6899,7 @@
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6900,7 +6912,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6908,15 +6920,15 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27995</v>
+        <v>115269</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6929,7 +6941,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6937,15 +6949,15 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>116991</v>
+        <v>13033</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6958,23 +6970,23 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13173</v>
+        <v>15924</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6995,7 +7007,7 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27245</v>
+        <v>27175</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7003,7 +7015,7 @@
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7016,7 +7028,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7024,15 +7036,15 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16078</v>
+        <v>36585</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7045,7 +7057,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7053,15 +7065,15 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37089</v>
+        <v>22505</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7074,23 +7086,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23135</v>
+        <v>28131</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7103,7 +7115,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7111,15 +7123,15 @@
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28285</v>
+        <v>25155</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7132,23 +7144,23 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25379</v>
+        <v>12902</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7161,23 +7173,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12902</v>
+        <v>19001</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7190,19 +7202,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9393</v>
+        <v>22732</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7219,7 +7231,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7227,15 +7239,15 @@
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23348</v>
+        <v>9379</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-04</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7266,7 +7278,7 @@
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2988</v>
+        <v>2948</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7274,7 +7286,7 @@
       </c>
       <c r="E52" s="29" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-18</v>
+        <v>2022-11-21</v>
       </c>
       <c r="G52" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7291,11 +7303,11 @@
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14999</v>
+        <v>14289</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7324,7 +7336,7 @@
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4701</v>
+        <v>4641</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7332,7 +7344,7 @@
       </c>
       <c r="E54" s="29" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G54" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7349,11 +7361,11 @@
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7928</v>
+        <v>7868</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7361,7 +7373,7 @@
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7382,7 +7394,7 @@
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4820</v>
+        <v>4790</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7390,7 +7402,7 @@
       </c>
       <c r="E56" s="29" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-24</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G56" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7407,7 +7419,7 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7436,11 +7448,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8340</v>
+        <v>8280</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7508,7 +7520,7 @@
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2479</v>
+        <v>2461</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7516,7 +7528,7 @@
       </c>
       <c r="E61" s="29" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-22</v>
+        <v>2022-11-23</v>
       </c>
       <c r="G61" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7533,7 +7545,7 @@
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7562,7 +7574,7 @@
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7587,19 +7599,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3680</v>
+        <v>11261</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7611,57 +7623,57 @@
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>3941</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12665</v>
+        <v>3838</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E65" s="29" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G65" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H65" s="34">
         <f>VLOOKUP(A65,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>138981</v>
+        <v>29703</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7669,28 +7681,28 @@
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>49987</v>
+        <v>19995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3910</v>
+        <v>66785</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G67" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7703,23 +7715,23 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30801</v>
+        <v>189381</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7732,23 +7744,23 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>69989</v>
+        <v>594435</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7761,36 +7773,36 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21742</v>
+        <v>124548</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" ref="G70:G103" si="1">IF(H70&gt;0,"•","")</f>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>20866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7798,15 +7810,15 @@
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>594435</v>
+        <v>48249</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7819,81 +7831,81 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>127626</v>
+        <v>59995</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>34471</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>60247</v>
+        <v>6906</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H73" s="34">
         <f>VLOOKUP(A73,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>34471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>46991</v>
+        <v>184531</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G74" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7901,115 +7913,115 @@
       </c>
       <c r="H74" s="34">
         <f>VLOOKUP(A74,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15390</v>
+        <v>65254</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>49815</v>
+        <v>27739</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H75" s="34">
         <f>VLOOKUP(A75,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35564</v>
+        <v>34560</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H76" s="34">
         <f>VLOOKUP(A76,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>184531</v>
+        <v>57107</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H77" s="34">
         <f>VLOOKUP(A77,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>31286</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28225</v>
+        <v>24933</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8022,52 +8034,52 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35064</v>
+        <v>26610</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H79" s="34">
         <f>VLOOKUP(A79,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15101</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7338</v>
+        <v>43579</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8080,23 +8092,23 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>58259</v>
+        <v>77946</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8109,23 +8121,23 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44137</v>
+        <v>97125</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8138,23 +8150,23 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25743</v>
+        <v>62309</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8167,52 +8179,52 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27366</v>
+        <v>66634</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H84" s="34">
         <f>VLOOKUP(A84,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>78378</v>
+        <v>1463303</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8225,23 +8237,23 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>100455</v>
+        <v>54339</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8254,23 +8266,23 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>66670</v>
+        <v>96857</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8283,23 +8295,23 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1479935</v>
+        <v>45482</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8312,15 +8324,15 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>55365</v>
+        <v>88983</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8328,7 +8340,7 @@
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8341,23 +8353,23 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>89271</v>
+        <v>7432</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8370,52 +8382,52 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>100583</v>
+        <v>77253</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2023-01-03</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H91" s="34">
         <f>VLOOKUP(A91,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19698</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>78207</v>
+        <v>68695</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8428,23 +8440,23 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>68767</v>
+        <v>42784</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8457,23 +8469,23 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7297</v>
+        <v>19376</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-12</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8486,7 +8498,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8494,15 +8506,15 @@
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19628</v>
+        <v>7279</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8523,7 +8535,7 @@
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40716</v>
+        <v>40518</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8531,7 +8543,7 @@
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-24</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G96" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8552,7 +8564,7 @@
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>51372</v>
+        <v>51156</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8560,15 +8572,15 @@
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-26</v>
+        <v>2023-01-27</v>
       </c>
       <c r="G97" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H97" s="34">
         <f>VLOOKUP(A97,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>16414</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -8577,11 +8589,11 @@
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6826</v>
+        <v>6664</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8606,7 +8618,7 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8635,7 +8647,7 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8647,7 +8659,7 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-13</v>
+        <v>2023-07-17</v>
       </c>
       <c r="G100" s="33" t="str">
         <f t="shared" si="1"/>
@@ -8664,7 +8676,7 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8693,7 +8705,7 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8722,7 +8734,7 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8757,23 +8769,23 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40310</v>
+        <v>25932</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-15</v>
+        <v>2022-11-17</v>
       </c>
       <c r="G105" s="33" t="str">
         <f t="shared" ref="G105:G113" si="2">IF(H105&gt;0,"•","")</f>
@@ -8781,53 +8793,53 @@
       </c>
       <c r="H105" s="34">
         <f>VLOOKUP(A105,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19499</v>
+        <v>28980</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27714</v>
+        <v>5416</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E106" s="29" t="str">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-17</v>
+        <v>2022-11-23</v>
       </c>
       <c r="G106" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>28980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5920</v>
+        <v>59514</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8844,19 +8856,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16710</v>
+        <v>20823</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E108" s="29" t="str">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8873,19 +8885,19 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21543</v>
+        <v>4240</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8902,19 +8914,19 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4564</v>
+        <v>16674</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8939,7 +8951,7 @@
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25180</v>
+        <v>24406</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8947,7 +8959,7 @@
       </c>
       <c r="E111" s="29" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G111" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8964,11 +8976,11 @@
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14643</v>
+        <v>14103</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8997,7 +9009,7 @@
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2923</v>
+        <v>2905</v>
       </c>
       <c r="D113" s="10">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -9005,7 +9017,7 @@
       </c>
       <c r="E113" s="29" t="str">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G113" s="33" t="str">
         <f t="shared" si="2"/>
@@ -9023,7 +9035,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5382842</v>
+        <v>5484555</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,7 +907,7 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>255</v>
+            <v>254</v>
           </cell>
           <cell r="D2">
             <v>81632</v>
@@ -927,10 +927,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="D3">
-            <v>20076</v>
+            <v>17570</v>
           </cell>
           <cell r="E3">
             <v>45</v>
@@ -941,19 +941,19 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B4" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D4">
-            <v>11660</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>inf</v>
+            <v>3181</v>
+          </cell>
+          <cell r="E4">
+            <v>37</v>
           </cell>
           <cell r="F4" t="str">
             <v>2022-11-24</v>
@@ -961,16 +961,16 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C5">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D5">
-            <v>3307</v>
+            <v>13635</v>
           </cell>
           <cell r="E5">
             <v>37</v>
@@ -981,7 +981,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
@@ -990,30 +990,30 @@
             <v>18</v>
           </cell>
           <cell r="D6">
-            <v>15483</v>
+            <v>64575</v>
           </cell>
           <cell r="E6">
-            <v>37</v>
+            <v>30</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D7">
-            <v>30226</v>
+            <v>11335</v>
           </cell>
           <cell r="E7">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F7" t="str">
             <v>2022-11-28</v>
@@ -1021,7 +1021,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
@@ -1030,30 +1030,30 @@
             <v>19</v>
           </cell>
           <cell r="D8">
-            <v>11979</v>
+            <v>36512</v>
           </cell>
           <cell r="E8">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-11-28</v>
+            <v>2022-11-29</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D9">
-            <v>70399</v>
+            <v>17849</v>
           </cell>
           <cell r="E9">
-            <v>30</v>
+            <v>33</v>
           </cell>
           <cell r="F9" t="str">
             <v>2022-11-29</v>
@@ -1061,19 +1061,19 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C10">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D10">
-            <v>2674</v>
+            <v>22948</v>
           </cell>
           <cell r="E10">
-            <v>51</v>
+            <v>44</v>
           </cell>
           <cell r="F10" t="str">
             <v>2022-11-30</v>
@@ -1081,39 +1081,39 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="D11">
-            <v>24614</v>
+            <v>25485</v>
           </cell>
           <cell r="E11">
-            <v>44</v>
+            <v>92</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2022-12-01</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C12">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D12">
-            <v>41692</v>
+            <v>16489</v>
           </cell>
           <cell r="E12">
-            <v>29</v>
+            <v>31</v>
           </cell>
           <cell r="F12" t="str">
             <v>2022-12-01</v>
@@ -1121,19 +1121,19 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C13">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D13">
-            <v>20187</v>
+            <v>16163</v>
           </cell>
           <cell r="E13">
-            <v>33</v>
+            <v>31</v>
           </cell>
           <cell r="F13" t="str">
             <v>2022-12-01</v>
@@ -1141,19 +1141,19 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C14">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D14">
-            <v>29433</v>
+            <v>2674</v>
           </cell>
           <cell r="E14">
-            <v>92</v>
+            <v>51</v>
           </cell>
           <cell r="F14" t="str">
             <v>2022-12-01</v>
@@ -1161,19 +1161,19 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D15">
-            <v>5204</v>
+            <v>16792</v>
           </cell>
           <cell r="E15">
-            <v>59</v>
+            <v>48</v>
           </cell>
           <cell r="F15" t="str">
             <v>2022-12-02</v>
@@ -1181,7 +1181,7 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
@@ -1190,30 +1190,30 @@
             <v>23</v>
           </cell>
           <cell r="D16">
-            <v>17679</v>
+            <v>10179</v>
           </cell>
           <cell r="E16">
-            <v>31</v>
+            <v>35</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C17">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D17">
-            <v>10949</v>
+            <v>5204</v>
           </cell>
           <cell r="E17">
-            <v>35</v>
+            <v>59</v>
           </cell>
           <cell r="F17" t="str">
             <v>2022-12-05</v>
@@ -1227,10 +1227,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C18">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D18">
-            <v>15979</v>
+            <v>15489</v>
           </cell>
           <cell r="E18">
             <v>43</v>
@@ -1241,19 +1241,19 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D19">
-            <v>18444</v>
+            <v>77829</v>
           </cell>
           <cell r="E19">
-            <v>48</v>
+            <v>39</v>
           </cell>
           <cell r="F19" t="str">
             <v>2022-12-05</v>
@@ -1261,39 +1261,39 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Лен семена 100г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C20">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D20">
-            <v>84507</v>
+            <v>73724</v>
           </cell>
           <cell r="E20">
-            <v>39</v>
+            <v>30</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C21">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D21">
-            <v>18963</v>
+            <v>25370</v>
           </cell>
           <cell r="E21">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="F21" t="str">
             <v>2022-12-06</v>
@@ -1301,59 +1301,59 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C22">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D22">
-            <v>25394</v>
+            <v>13916</v>
           </cell>
           <cell r="E22">
-            <v>35</v>
+            <v>40</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C23">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D23">
-            <v>28170</v>
+            <v>10447</v>
           </cell>
           <cell r="E23">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C24">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D24">
-            <v>15344</v>
+            <v>24022</v>
           </cell>
           <cell r="E24">
-            <v>40</v>
+            <v>35</v>
           </cell>
           <cell r="F24" t="str">
             <v>2022-12-07</v>
@@ -1367,10 +1367,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D25">
-            <v>39994</v>
+            <v>38216</v>
           </cell>
           <cell r="E25">
             <v>112</v>
@@ -1381,19 +1381,19 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C26">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D26">
-            <v>11539</v>
+            <v>31238</v>
           </cell>
           <cell r="E26">
-            <v>32</v>
+            <v>40</v>
           </cell>
           <cell r="F26" t="str">
             <v>2022-12-07</v>
@@ -1401,19 +1401,19 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C27">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D27">
-            <v>32274</v>
+            <v>16336</v>
           </cell>
           <cell r="E27">
-            <v>40</v>
+            <v>31</v>
           </cell>
           <cell r="F27" t="str">
             <v>2022-12-07</v>
@@ -1421,7 +1421,7 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
@@ -1430,30 +1430,30 @@
             <v>26</v>
           </cell>
           <cell r="D28">
-            <v>82474</v>
+            <v>26268</v>
           </cell>
           <cell r="E28">
-            <v>30</v>
+            <v>33</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D29">
-            <v>27346</v>
+            <v>24537</v>
           </cell>
           <cell r="E29">
-            <v>33</v>
+            <v>43</v>
           </cell>
           <cell r="F29" t="str">
             <v>2022-12-08</v>
@@ -1467,10 +1467,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D30">
-            <v>11662</v>
+            <v>11424</v>
           </cell>
           <cell r="E30">
             <v>51</v>
@@ -1487,10 +1487,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D31">
-            <v>46348</v>
+            <v>44640</v>
           </cell>
           <cell r="E31">
             <v>37</v>
@@ -1501,7 +1501,7 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
@@ -1510,27 +1510,27 @@
             <v>27</v>
           </cell>
           <cell r="D32">
-            <v>18128</v>
+            <v>21163</v>
           </cell>
           <cell r="E32">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F32" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C33">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D33">
-            <v>22143</v>
+            <v>106743</v>
           </cell>
           <cell r="E33">
             <v>32</v>
@@ -1541,19 +1541,19 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C34">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D34">
-            <v>27351</v>
+            <v>27907</v>
           </cell>
           <cell r="E34">
-            <v>43</v>
+            <v>46</v>
           </cell>
           <cell r="F34" t="str">
             <v>2022-12-09</v>
@@ -1561,7 +1561,7 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
@@ -1570,30 +1570,30 @@
             <v>28</v>
           </cell>
           <cell r="D35">
-            <v>29559</v>
+            <v>27215</v>
           </cell>
           <cell r="E35">
-            <v>46</v>
+            <v>43</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C36">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="D36">
-            <v>28069</v>
+            <v>12529</v>
           </cell>
           <cell r="E36">
-            <v>43</v>
+            <v>30</v>
           </cell>
           <cell r="F36" t="str">
             <v>2022-12-12</v>
@@ -1601,7 +1601,7 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
@@ -1610,18 +1610,18 @@
             <v>29</v>
           </cell>
           <cell r="D37">
-            <v>115269</v>
+            <v>24165</v>
           </cell>
           <cell r="E37">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
@@ -1630,30 +1630,30 @@
             <v>30</v>
           </cell>
           <cell r="D38">
-            <v>13033</v>
+            <v>15042</v>
           </cell>
           <cell r="E38">
-            <v>30</v>
+            <v>35</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C39">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="D39">
-            <v>15924</v>
+            <v>21259</v>
           </cell>
           <cell r="E39">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F39" t="str">
             <v>2022-12-15</v>
@@ -1661,39 +1661,39 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Береза почки 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
-            <v>33</v>
+            <v>31</v>
           </cell>
           <cell r="D40">
-            <v>22505</v>
+            <v>34499</v>
           </cell>
           <cell r="E40">
-            <v>43</v>
+            <v>39</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C41">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="D41">
-            <v>36585</v>
-          </cell>
-          <cell r="E41">
-            <v>39</v>
+            <v>21278</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F41" t="str">
             <v>2022-12-16</v>
@@ -1701,7 +1701,7 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B42" t="str">
             <v>Линия ББЛ</v>
@@ -1710,18 +1710,18 @@
             <v>33</v>
           </cell>
           <cell r="D42">
-            <v>27175</v>
+            <v>26045</v>
           </cell>
           <cell r="E42">
-            <v>43</v>
+            <v>38</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
@@ -1730,13 +1730,13 @@
             <v>35</v>
           </cell>
           <cell r="D43">
-            <v>28131</v>
+            <v>55109</v>
           </cell>
           <cell r="E43">
-            <v>38</v>
+            <v>31</v>
           </cell>
           <cell r="F43" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="44">
@@ -1750,18 +1750,18 @@
             <v>35</v>
           </cell>
           <cell r="D44">
-            <v>25155</v>
+            <v>24777</v>
           </cell>
           <cell r="E44">
             <v>35</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
@@ -1770,53 +1770,53 @@
             <v>37</v>
           </cell>
           <cell r="D45">
-            <v>12902</v>
+            <v>21094</v>
           </cell>
           <cell r="E45">
-            <v>76</v>
+            <v>41</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Череда трава 50г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>41</v>
+            <v>38</v>
           </cell>
           <cell r="D46">
-            <v>19001</v>
+            <v>12902</v>
           </cell>
           <cell r="E46">
-            <v>33</v>
+            <v>76</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2022-12-28</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B47" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C47">
-            <v>45</v>
+            <v>38</v>
           </cell>
           <cell r="D47">
-            <v>22732</v>
+            <v>17517</v>
           </cell>
           <cell r="E47">
-            <v>41</v>
+            <v>33</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2023-01-03</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="48">
@@ -1836,7 +1836,7 @@
             <v>72</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-06</v>
           </cell>
         </row>
         <row r="49">
@@ -1847,10 +1847,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="D49">
-            <v>2948</v>
+            <v>2738</v>
           </cell>
           <cell r="E49">
             <v>115</v>
@@ -1867,10 +1867,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C50">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D50">
-            <v>14289</v>
+            <v>13549</v>
           </cell>
           <cell r="E50">
             <v>41</v>
@@ -1887,10 +1887,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D51">
-            <v>4641</v>
+            <v>4481</v>
           </cell>
           <cell r="E51">
             <v>110</v>
@@ -1907,10 +1907,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="D52">
-            <v>7868</v>
+            <v>7638</v>
           </cell>
           <cell r="E52">
             <v>84</v>
@@ -1927,10 +1927,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>61</v>
+            <v>60</v>
           </cell>
           <cell r="D53">
-            <v>4790</v>
+            <v>4700</v>
           </cell>
           <cell r="E53">
             <v>102</v>
@@ -1947,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>255</v>
+            <v>254</v>
           </cell>
           <cell r="D54">
-            <v>8280</v>
+            <v>8260</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1967,7 +1967,7 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>255</v>
+            <v>254</v>
           </cell>
           <cell r="D55">
             <v>9750</v>
@@ -1987,53 +1987,53 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C56">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="D56">
-            <v>3222</v>
+            <v>2592</v>
           </cell>
           <cell r="E56">
             <v>257</v>
           </cell>
           <cell r="F56" t="str">
-            <v>2023-10-30</v>
+            <v>2023-10-27</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="B57" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="D57">
-            <v>2461</v>
+            <v>1098</v>
           </cell>
           <cell r="E57">
-            <v>37</v>
+            <v>286</v>
           </cell>
           <cell r="F57" t="str">
-            <v>2022-11-23</v>
+            <v>2022-11-25</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="B58" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D58">
-            <v>1098</v>
+            <v>1890</v>
           </cell>
           <cell r="E58">
-            <v>286</v>
+            <v>50</v>
           </cell>
           <cell r="F58" t="str">
             <v>2022-11-25</v>
@@ -2041,47 +2041,47 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B59" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>18</v>
+            <v>22</v>
           </cell>
           <cell r="D59">
-            <v>1908</v>
+            <v>3820</v>
           </cell>
           <cell r="E59">
-            <v>50</v>
+            <v>43</v>
           </cell>
           <cell r="F59" t="str">
-            <v>2022-11-25</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>19</v>
+            <v>22</v>
           </cell>
           <cell r="D60">
-            <v>11261</v>
+            <v>28965</v>
           </cell>
           <cell r="E60">
-            <v>28</v>
+            <v>32</v>
           </cell>
           <cell r="F60" t="str">
-            <v>2022-11-28</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
@@ -2090,70 +2090,70 @@
             <v>22</v>
           </cell>
           <cell r="D61">
-            <v>3838</v>
+            <v>62519</v>
           </cell>
           <cell r="E61">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F61" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="B62" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C62">
-            <v>23</v>
+            <v>25</v>
           </cell>
           <cell r="D62">
-            <v>29703</v>
+            <v>113244</v>
           </cell>
           <cell r="E62">
-            <v>32</v>
+            <v>52</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="D63">
-            <v>66785</v>
+            <v>177231</v>
           </cell>
           <cell r="E63">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D64">
-            <v>189381</v>
+            <v>566985</v>
           </cell>
           <cell r="E64">
-            <v>28</v>
+            <v>96</v>
           </cell>
           <cell r="F64" t="str">
             <v>2022-12-09</v>
@@ -2161,19 +2161,19 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D65">
-            <v>594435</v>
+            <v>45657</v>
           </cell>
           <cell r="E65">
-            <v>96</v>
+            <v>30</v>
           </cell>
           <cell r="F65" t="str">
             <v>2022-12-09</v>
@@ -2181,7 +2181,7 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
@@ -2190,58 +2190,58 @@
             <v>28</v>
           </cell>
           <cell r="D66">
-            <v>48249</v>
+            <v>56215</v>
           </cell>
           <cell r="E66">
-            <v>30</v>
+            <v>29</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>28</v>
+            <v>30</v>
           </cell>
           <cell r="D67">
-            <v>124548</v>
+            <v>6888</v>
           </cell>
           <cell r="E67">
-            <v>52</v>
+            <v>34</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="D68">
-            <v>59995</v>
+            <v>26425</v>
           </cell>
           <cell r="E68">
-            <v>29</v>
+            <v>37</v>
           </cell>
           <cell r="F68" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
@@ -2250,50 +2250,50 @@
             <v>30</v>
           </cell>
           <cell r="D69">
-            <v>6906</v>
+            <v>173371</v>
           </cell>
           <cell r="E69">
-            <v>34</v>
+            <v>32</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="D70">
-            <v>27739</v>
+            <v>32922</v>
           </cell>
           <cell r="E70">
-            <v>37</v>
+            <v>25</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="D71">
-            <v>184531</v>
+            <v>53453</v>
           </cell>
           <cell r="E71">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="F71" t="str">
             <v>2022-12-15</v>
@@ -2301,7 +2301,7 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
@@ -2310,30 +2310,30 @@
             <v>32</v>
           </cell>
           <cell r="D72">
-            <v>34560</v>
+            <v>40843</v>
           </cell>
           <cell r="E72">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="D73">
-            <v>57107</v>
+            <v>23745</v>
           </cell>
           <cell r="E73">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F73" t="str">
             <v>2022-12-16</v>
@@ -2341,19 +2341,19 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>34</v>
+            <v>33</v>
           </cell>
           <cell r="D74">
-            <v>24933</v>
+            <v>21304</v>
           </cell>
           <cell r="E74">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F74" t="str">
             <v>2022-12-19</v>
@@ -2361,7 +2361,7 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
@@ -2370,18 +2370,18 @@
             <v>34</v>
           </cell>
           <cell r="D75">
-            <v>26610</v>
+            <v>75300</v>
           </cell>
           <cell r="E75">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B76" t="str">
             <v>Линия ИМА С 50</v>
@@ -2390,110 +2390,110 @@
             <v>35</v>
           </cell>
           <cell r="D76">
-            <v>43579</v>
+            <v>95397</v>
           </cell>
           <cell r="E76">
-            <v>30</v>
+            <v>35</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B77" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="D77">
-            <v>97125</v>
+            <v>65698</v>
           </cell>
           <cell r="E77">
-            <v>35</v>
+            <v>61</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="D78">
-            <v>77946</v>
+            <v>60887</v>
           </cell>
           <cell r="E78">
-            <v>28</v>
+            <v>43</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>38</v>
+            <v>39</v>
           </cell>
           <cell r="D79">
-            <v>66634</v>
+            <v>94139</v>
           </cell>
           <cell r="E79">
-            <v>61</v>
+            <v>29</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>38</v>
+            <v>39</v>
           </cell>
           <cell r="D80">
-            <v>62309</v>
+            <v>1427339</v>
           </cell>
           <cell r="E80">
-            <v>43</v>
+            <v>31</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="D81">
-            <v>96857</v>
+            <v>83511</v>
           </cell>
           <cell r="E81">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F81" t="str">
             <v>2022-12-27</v>
@@ -2510,150 +2510,150 @@
             <v>40</v>
           </cell>
           <cell r="D82">
-            <v>54339</v>
+            <v>53367</v>
           </cell>
           <cell r="E82">
             <v>32</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>40</v>
+            <v>41</v>
           </cell>
           <cell r="D83">
-            <v>1463303</v>
+            <v>44384</v>
           </cell>
           <cell r="E83">
-            <v>31</v>
+            <v>53</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>42</v>
+            <v>44</v>
           </cell>
           <cell r="D84">
-            <v>88983</v>
+            <v>7432</v>
           </cell>
           <cell r="E84">
-            <v>32</v>
+            <v>38</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-03</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>42</v>
+            <v>45</v>
           </cell>
           <cell r="D85">
-            <v>45482</v>
+            <v>76029</v>
           </cell>
           <cell r="E85">
-            <v>53</v>
+            <v>44</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>43</v>
+            <v>49</v>
           </cell>
           <cell r="D86">
-            <v>7432</v>
+            <v>65689</v>
           </cell>
           <cell r="E86">
-            <v>38</v>
+            <v>30</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2022-12-30</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>45</v>
+            <v>53</v>
           </cell>
           <cell r="D87">
-            <v>77253</v>
+            <v>7099</v>
           </cell>
           <cell r="E87">
-            <v>44</v>
+            <v>39</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2023-01-03</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>51</v>
+            <v>53</v>
           </cell>
           <cell r="D88">
-            <v>68695</v>
+            <v>41920</v>
           </cell>
           <cell r="E88">
-            <v>30</v>
+            <v>26</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>54</v>
+            <v>53</v>
           </cell>
           <cell r="D89">
-            <v>19376</v>
+            <v>39516</v>
           </cell>
           <cell r="E89">
-            <v>37</v>
+            <v>29</v>
           </cell>
           <cell r="F89" t="str">
             <v>2023-01-16</v>
@@ -2661,7 +2661,7 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B90" t="str">
             <v>Линия ИМА С 50</v>
@@ -2670,38 +2670,38 @@
             <v>54</v>
           </cell>
           <cell r="D90">
-            <v>42784</v>
+            <v>19196</v>
           </cell>
           <cell r="E90">
-            <v>26</v>
+            <v>37</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C91">
-            <v>55</v>
+            <v>59</v>
           </cell>
           <cell r="D91">
-            <v>7279</v>
+            <v>39222</v>
           </cell>
           <cell r="E91">
-            <v>39</v>
+            <v>36</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-17</v>
+            <v>2023-01-24</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="B92" t="str">
             <v>Линия ИМА С 50</v>
@@ -2710,13 +2710,13 @@
             <v>61</v>
           </cell>
           <cell r="D92">
-            <v>40518</v>
+            <v>7240</v>
           </cell>
           <cell r="E92">
-            <v>36</v>
+            <v>37</v>
           </cell>
           <cell r="F92" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="93">
@@ -2727,10 +2727,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>63</v>
+            <v>62</v>
           </cell>
           <cell r="D93">
-            <v>51156</v>
+            <v>50130</v>
           </cell>
           <cell r="E93">
             <v>28</v>
@@ -2756,7 +2756,7 @@
             <v>48</v>
           </cell>
           <cell r="F94" t="str">
-            <v>2023-02-10</v>
+            <v>2023-02-13</v>
           </cell>
         </row>
         <row r="95">
@@ -2767,10 +2767,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>84</v>
+            <v>83</v>
           </cell>
           <cell r="D95">
-            <v>1872</v>
+            <v>1854</v>
           </cell>
           <cell r="E95">
             <v>38</v>
@@ -2787,7 +2787,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>184</v>
+            <v>186</v>
           </cell>
           <cell r="D96">
             <v>6577</v>
@@ -2796,41 +2796,41 @@
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-17</v>
+            <v>2023-07-20</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="B97" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>205</v>
+            <v>203</v>
           </cell>
           <cell r="D97">
-            <v>1188</v>
+            <v>1134</v>
           </cell>
           <cell r="E97">
             <v>100</v>
           </cell>
           <cell r="F97" t="str">
-            <v>2023-08-15</v>
+            <v>2023-08-14</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="B98" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>205</v>
+            <v>204</v>
           </cell>
           <cell r="D98">
-            <v>1152</v>
+            <v>1170</v>
           </cell>
           <cell r="E98">
             <v>100</v>
@@ -2847,10 +2847,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>212</v>
+            <v>211</v>
           </cell>
           <cell r="D99">
-            <v>1530</v>
+            <v>1512</v>
           </cell>
           <cell r="E99">
             <v>100</v>
@@ -2867,16 +2867,16 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>12</v>
+            <v>10</v>
           </cell>
           <cell r="D100">
-            <v>25932</v>
+            <v>21720</v>
           </cell>
           <cell r="E100">
             <v>37</v>
           </cell>
           <cell r="F100" t="str">
-            <v>2022-11-17</v>
+            <v>2022-11-16</v>
           </cell>
         </row>
         <row r="101">
@@ -2887,16 +2887,16 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>16</v>
+            <v>13</v>
           </cell>
           <cell r="D101">
-            <v>5416</v>
+            <v>4390</v>
           </cell>
           <cell r="E101">
             <v>30</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-11-23</v>
+            <v>2022-11-21</v>
           </cell>
         </row>
         <row r="102">
@@ -2907,16 +2907,16 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D102">
-            <v>59514</v>
+            <v>54222</v>
           </cell>
           <cell r="E102">
             <v>31</v>
           </cell>
           <cell r="F102" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-23</v>
           </cell>
         </row>
         <row r="103">
@@ -2927,10 +2927,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C103">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D103">
-            <v>20823</v>
+            <v>19455</v>
           </cell>
           <cell r="E103">
             <v>30</v>
@@ -2941,7 +2941,7 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
@@ -2950,30 +2950,30 @@
             <v>21</v>
           </cell>
           <cell r="D104">
-            <v>4240</v>
+            <v>15882</v>
           </cell>
           <cell r="E104">
-            <v>34</v>
+            <v>41</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="B105" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D105">
-            <v>16674</v>
+            <v>4240</v>
           </cell>
           <cell r="E105">
-            <v>41</v>
+            <v>34</v>
           </cell>
           <cell r="F105" t="str">
             <v>2022-12-01</v>
@@ -2987,10 +2987,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D106">
-            <v>24406</v>
+            <v>23758</v>
           </cell>
           <cell r="E106">
             <v>30</v>
@@ -3007,10 +3007,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D107">
-            <v>14103</v>
+            <v>13635</v>
           </cell>
           <cell r="E107">
             <v>32</v>
@@ -3027,7 +3027,7 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="D108">
             <v>2905</v>
@@ -3061,7 +3061,7 @@
             <v>13</v>
           </cell>
           <cell r="D8">
-            <v>76</v>
+            <v>74</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
@@ -3073,7 +3073,7 @@
             <v>81632</v>
           </cell>
           <cell r="K8">
-            <v>205</v>
+            <v>204</v>
           </cell>
         </row>
         <row r="9">
@@ -3086,22 +3086,22 @@
             <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C10">
-            <v>832</v>
+            <v>853</v>
           </cell>
           <cell r="D10">
-            <v>112</v>
+            <v>114</v>
           </cell>
           <cell r="H10">
-            <v>20076</v>
+            <v>17570</v>
           </cell>
           <cell r="I10">
-            <v>20076</v>
+            <v>17570</v>
           </cell>
           <cell r="K10">
-            <v>21</v>
+            <v>18</v>
           </cell>
           <cell r="L10">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="M10">
             <v>33057</v>
@@ -3109,48 +3109,54 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C11">
-            <v>117</v>
+            <v>298</v>
           </cell>
           <cell r="D11">
-            <v>92</v>
+            <v>93</v>
           </cell>
           <cell r="H11">
-            <v>3307</v>
+            <v>11335</v>
           </cell>
           <cell r="I11">
-            <v>3307</v>
+            <v>11335</v>
           </cell>
           <cell r="K11">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="L11">
-            <v>21</v>
+            <v>15</v>
           </cell>
           <cell r="M11">
-            <v>3827</v>
+            <v>15267</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C12">
-            <v>635</v>
+            <v>116</v>
           </cell>
           <cell r="D12">
-            <v>88</v>
+            <v>91</v>
           </cell>
           <cell r="H12">
-            <v>24614</v>
+            <v>3181</v>
           </cell>
           <cell r="I12">
-            <v>24614</v>
+            <v>3181</v>
           </cell>
           <cell r="K12">
-            <v>24</v>
+            <v>22</v>
+          </cell>
+          <cell r="L12">
+            <v>20</v>
+          </cell>
+          <cell r="M12">
+            <v>3827</v>
           </cell>
         </row>
         <row r="13">
@@ -3158,25 +3164,25 @@
             <v>Солодка корни 50г</v>
           </cell>
           <cell r="C13">
-            <v>673</v>
+            <v>665</v>
           </cell>
           <cell r="D13">
-            <v>68</v>
+            <v>66</v>
           </cell>
           <cell r="E13" t="str">
             <v>↓</v>
           </cell>
           <cell r="H13">
-            <v>32274</v>
+            <v>31238</v>
           </cell>
           <cell r="I13">
-            <v>32274</v>
+            <v>31238</v>
           </cell>
           <cell r="K13">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="L13">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="M13">
             <v>25445</v>
@@ -3184,366 +3190,369 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C14">
-            <v>294</v>
+            <v>424</v>
           </cell>
           <cell r="D14">
-            <v>92</v>
+            <v>94</v>
           </cell>
           <cell r="H14">
-            <v>11979</v>
+            <v>13635</v>
           </cell>
           <cell r="I14">
-            <v>11979</v>
+            <v>13635</v>
           </cell>
           <cell r="K14">
-            <v>24</v>
-          </cell>
-          <cell r="L14">
-            <v>16</v>
-          </cell>
-          <cell r="M14">
-            <v>15267</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C15">
-            <v>260</v>
+            <v>609</v>
           </cell>
           <cell r="D15">
-            <v>87</v>
+            <v>95</v>
           </cell>
           <cell r="H15">
-            <v>11660</v>
+            <v>17849</v>
           </cell>
           <cell r="I15">
-            <v>11660</v>
+            <v>17849</v>
           </cell>
           <cell r="K15">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="L15">
-            <v>15</v>
+            <v>20</v>
           </cell>
           <cell r="M15">
-            <v>10834</v>
+            <v>21828</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C16">
-            <v>75</v>
+            <v>646</v>
           </cell>
           <cell r="D16">
-            <v>59</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H16">
-            <v>5204</v>
+            <v>22948</v>
           </cell>
           <cell r="I16">
-            <v>5204</v>
+            <v>22948</v>
           </cell>
           <cell r="K16">
-            <v>25</v>
+            <v>23</v>
+          </cell>
+          <cell r="L16">
+            <v>14</v>
+          </cell>
+          <cell r="M16">
+            <v>13875</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C17">
-            <v>754</v>
+            <v>630</v>
           </cell>
           <cell r="D17">
-            <v>88</v>
+            <v>84</v>
           </cell>
           <cell r="H17">
-            <v>30226</v>
+            <v>25485</v>
           </cell>
           <cell r="I17">
-            <v>30226</v>
+            <v>25485</v>
           </cell>
           <cell r="K17">
-            <v>25</v>
-          </cell>
-          <cell r="L17">
-            <v>14</v>
-          </cell>
-          <cell r="M17">
-            <v>27563</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C18">
-            <v>592</v>
+            <v>449</v>
           </cell>
           <cell r="D18">
-            <v>92</v>
+            <v>97</v>
           </cell>
           <cell r="H18">
-            <v>20187</v>
+            <v>16163</v>
           </cell>
           <cell r="I18">
-            <v>20187</v>
+            <v>16163</v>
           </cell>
           <cell r="K18">
-            <v>26</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C19">
-            <v>391</v>
+            <v>1253</v>
           </cell>
           <cell r="D19">
-            <v>75</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="F19">
-            <v>938</v>
-          </cell>
-          <cell r="G19">
-            <v>2</v>
+            <v>91</v>
           </cell>
           <cell r="H19">
-            <v>18444</v>
+            <v>36512</v>
           </cell>
           <cell r="I19">
-            <v>18444</v>
+            <v>36512</v>
           </cell>
           <cell r="K19">
-            <v>27</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C20">
-            <v>414</v>
+            <v>75</v>
           </cell>
           <cell r="D20">
-            <v>92</v>
+            <v>59</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H20">
-            <v>15483</v>
+            <v>5204</v>
           </cell>
           <cell r="I20">
-            <v>15483</v>
+            <v>5204</v>
           </cell>
           <cell r="K20">
-            <v>27</v>
+            <v>25</v>
+          </cell>
+          <cell r="L20">
+            <v>21</v>
+          </cell>
+          <cell r="M20">
+            <v>5909</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C21">
-            <v>596</v>
+            <v>405</v>
           </cell>
           <cell r="D21">
-            <v>80</v>
+            <v>77</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>↓</v>
+          </cell>
+          <cell r="F21">
+            <v>938</v>
+          </cell>
+          <cell r="G21">
+            <v>2</v>
           </cell>
           <cell r="H21">
-            <v>29433</v>
+            <v>16792</v>
           </cell>
           <cell r="I21">
-            <v>29433</v>
+            <v>16792</v>
           </cell>
           <cell r="K21">
-            <v>27</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C22">
-            <v>1207</v>
+            <v>550</v>
           </cell>
           <cell r="D22">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="H22">
-            <v>41692</v>
+            <v>25370</v>
           </cell>
           <cell r="I22">
-            <v>41692</v>
+            <v>25370</v>
           </cell>
           <cell r="K22">
-            <v>28</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C23">
-            <v>421</v>
+            <v>2281</v>
           </cell>
           <cell r="D23">
-            <v>92</v>
+            <v>91</v>
+          </cell>
+          <cell r="F23">
+            <v>3360</v>
+          </cell>
+          <cell r="G23">
+            <v>2</v>
           </cell>
           <cell r="H23">
-            <v>18963</v>
+            <v>64575</v>
           </cell>
           <cell r="I23">
-            <v>18963</v>
+            <v>64575</v>
           </cell>
           <cell r="K23">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C24">
-            <v>531</v>
+            <v>937</v>
           </cell>
           <cell r="D24">
-            <v>87</v>
+            <v>80</v>
           </cell>
           <cell r="H24">
-            <v>28170</v>
+            <v>38216</v>
           </cell>
           <cell r="I24">
-            <v>18560</v>
+            <v>38216</v>
           </cell>
           <cell r="K24">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C25">
-            <v>2235</v>
+            <v>458</v>
           </cell>
           <cell r="D25">
-            <v>89</v>
-          </cell>
-          <cell r="F25">
-            <v>3360</v>
-          </cell>
-          <cell r="G25">
-            <v>2</v>
+            <v>97</v>
           </cell>
           <cell r="H25">
-            <v>70399</v>
+            <v>24537</v>
           </cell>
           <cell r="I25">
-            <v>70399</v>
+            <v>24537</v>
           </cell>
           <cell r="K25">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C26">
-            <v>402</v>
+            <v>345</v>
           </cell>
           <cell r="D26">
             <v>93</v>
           </cell>
           <cell r="H26">
-            <v>15979</v>
+            <v>16489</v>
           </cell>
           <cell r="I26">
-            <v>15979</v>
+            <v>16489</v>
           </cell>
           <cell r="K26">
-            <v>31</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C27">
-            <v>559</v>
+            <v>608</v>
           </cell>
           <cell r="D27">
-            <v>86</v>
+            <v>78</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H27">
-            <v>28069</v>
+            <v>27907</v>
           </cell>
           <cell r="I27">
-            <v>28069</v>
+            <v>27907</v>
           </cell>
           <cell r="K27">
-            <v>31</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C28">
-            <v>930</v>
+            <v>406</v>
           </cell>
           <cell r="D28">
-            <v>81</v>
+            <v>93</v>
           </cell>
           <cell r="H28">
-            <v>39994</v>
+            <v>15489</v>
           </cell>
           <cell r="I28">
-            <v>39994</v>
+            <v>15489</v>
           </cell>
           <cell r="K28">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C29">
-            <v>336</v>
+            <v>560</v>
           </cell>
           <cell r="D29">
-            <v>91</v>
+            <v>86</v>
           </cell>
           <cell r="H29">
-            <v>17679</v>
+            <v>27215</v>
           </cell>
           <cell r="I29">
-            <v>17679</v>
+            <v>27215</v>
           </cell>
           <cell r="K29">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C30">
-            <v>597</v>
+            <v>3142</v>
           </cell>
           <cell r="D30">
             <v>78</v>
@@ -3552,30 +3561,33 @@
             <v>↓</v>
           </cell>
           <cell r="H30">
-            <v>29559</v>
+            <v>106743</v>
           </cell>
           <cell r="I30">
-            <v>29559</v>
+            <v>106743</v>
           </cell>
           <cell r="K30">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C31">
-            <v>432</v>
+            <v>278</v>
           </cell>
           <cell r="D31">
-            <v>93</v>
+            <v>79</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H31">
-            <v>27351</v>
+            <v>21259</v>
           </cell>
           <cell r="I31">
-            <v>27351</v>
+            <v>21259</v>
           </cell>
           <cell r="K31">
             <v>32</v>
@@ -3583,22 +3595,19 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C32">
-            <v>3092</v>
+            <v>2022</v>
           </cell>
           <cell r="D32">
-            <v>77</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>↓</v>
+            <v>104</v>
           </cell>
           <cell r="H32">
-            <v>115269</v>
+            <v>73724</v>
           </cell>
           <cell r="I32">
-            <v>115269</v>
+            <v>34614</v>
           </cell>
           <cell r="K32">
             <v>32</v>
@@ -3606,265 +3615,259 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C33">
-            <v>401</v>
+            <v>478</v>
           </cell>
           <cell r="D33">
-            <v>82</v>
+            <v>86</v>
           </cell>
           <cell r="H33">
-            <v>22143</v>
+            <v>24165</v>
           </cell>
           <cell r="I33">
-            <v>22143</v>
+            <v>24165</v>
           </cell>
           <cell r="K33">
-            <v>33</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C34">
-            <v>184</v>
+            <v>409</v>
           </cell>
           <cell r="D34">
-            <v>85</v>
+            <v>83</v>
           </cell>
           <cell r="H34">
-            <v>11662</v>
+            <v>21163</v>
           </cell>
           <cell r="I34">
-            <v>11662</v>
+            <v>21163</v>
           </cell>
           <cell r="K34">
-            <v>34</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Береза почки 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C35">
-            <v>266</v>
+            <v>398</v>
           </cell>
           <cell r="D35">
-            <v>76</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>↓</v>
+            <v>102</v>
           </cell>
           <cell r="H35">
-            <v>22505</v>
+            <v>16336</v>
           </cell>
           <cell r="I35">
-            <v>22505</v>
+            <v>16336</v>
           </cell>
           <cell r="K35">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C36">
-            <v>345</v>
+            <v>274</v>
           </cell>
           <cell r="D36">
             <v>90</v>
           </cell>
           <cell r="H36">
-            <v>25394</v>
+            <v>13916</v>
           </cell>
           <cell r="I36">
-            <v>25394</v>
+            <v>13916</v>
           </cell>
           <cell r="K36">
-            <v>35</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C37">
-            <v>427</v>
+            <v>356</v>
           </cell>
           <cell r="D37">
-            <v>95</v>
+            <v>92</v>
           </cell>
           <cell r="H37">
-            <v>27346</v>
+            <v>24022</v>
           </cell>
           <cell r="I37">
-            <v>27346</v>
+            <v>24022</v>
           </cell>
           <cell r="K37">
-            <v>35</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C38">
-            <v>942</v>
+            <v>433</v>
           </cell>
           <cell r="D38">
-            <v>80</v>
+            <v>95</v>
           </cell>
           <cell r="H38">
-            <v>46348</v>
+            <v>26268</v>
           </cell>
           <cell r="I38">
-            <v>46348</v>
+            <v>26268</v>
           </cell>
           <cell r="K38">
-            <v>35</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C39">
-            <v>500</v>
+            <v>245</v>
           </cell>
           <cell r="D39">
-            <v>85</v>
+            <v>102</v>
           </cell>
           <cell r="H39">
-            <v>36585</v>
+            <v>10447</v>
           </cell>
           <cell r="I39">
-            <v>36585</v>
+            <v>10447</v>
           </cell>
           <cell r="K39">
-            <v>36</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C40">
-            <v>450</v>
+            <v>183</v>
           </cell>
           <cell r="D40">
-            <v>81</v>
+            <v>84</v>
           </cell>
           <cell r="H40">
-            <v>27175</v>
+            <v>11424</v>
           </cell>
           <cell r="I40">
-            <v>27175</v>
+            <v>11424</v>
           </cell>
           <cell r="K40">
-            <v>36</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C41">
-            <v>1972</v>
+            <v>947</v>
           </cell>
           <cell r="D41">
-            <v>101</v>
+            <v>80</v>
           </cell>
           <cell r="H41">
-            <v>82474</v>
+            <v>44640</v>
           </cell>
           <cell r="I41">
-            <v>43364</v>
+            <v>44640</v>
           </cell>
           <cell r="K41">
-            <v>36</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C42">
-            <v>259</v>
+            <v>513</v>
           </cell>
           <cell r="D42">
-            <v>85</v>
+            <v>86</v>
           </cell>
           <cell r="H42">
-            <v>15344</v>
+            <v>34499</v>
           </cell>
           <cell r="I42">
-            <v>15344</v>
+            <v>34499</v>
           </cell>
           <cell r="K42">
-            <v>37</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C43">
-            <v>383</v>
+            <v>292</v>
           </cell>
           <cell r="D43">
-            <v>98</v>
+            <v>82</v>
           </cell>
           <cell r="H43">
-            <v>18128</v>
+            <v>21094</v>
           </cell>
           <cell r="I43">
-            <v>18128</v>
+            <v>21094</v>
           </cell>
           <cell r="K43">
-            <v>37</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C44">
-            <v>235</v>
+            <v>217</v>
           </cell>
           <cell r="D44">
-            <v>98</v>
+            <v>100</v>
           </cell>
           <cell r="H44">
-            <v>11539</v>
+            <v>10179</v>
           </cell>
           <cell r="I44">
-            <v>11539</v>
+            <v>10179</v>
           </cell>
           <cell r="K44">
-            <v>38</v>
+            <v>39</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C45">
-            <v>278</v>
+            <v>1084</v>
           </cell>
           <cell r="D45">
-            <v>79</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>↓</v>
+            <v>83</v>
           </cell>
           <cell r="H45">
-            <v>22732</v>
+            <v>77829</v>
           </cell>
           <cell r="I45">
-            <v>22732</v>
+            <v>77829</v>
           </cell>
           <cell r="K45">
             <v>41</v>
@@ -3884,7 +3887,7 @@
             <v>2674</v>
           </cell>
           <cell r="I46">
-            <v>728</v>
+            <v>2674</v>
           </cell>
           <cell r="K46">
             <v>41</v>
@@ -3892,42 +3895,39 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C47">
-            <v>214</v>
+            <v>212</v>
           </cell>
           <cell r="D47">
-            <v>99</v>
+            <v>100</v>
           </cell>
           <cell r="H47">
-            <v>10949</v>
+            <v>15042</v>
           </cell>
           <cell r="I47">
-            <v>10949</v>
+            <v>15042</v>
           </cell>
           <cell r="K47">
-            <v>42</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Лен семена 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C48">
-            <v>1018</v>
+            <v>311</v>
           </cell>
           <cell r="D48">
-            <v>78</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>↓</v>
+            <v>88</v>
           </cell>
           <cell r="H48">
-            <v>84507</v>
+            <v>17517</v>
           </cell>
           <cell r="I48">
-            <v>49801</v>
+            <v>7216</v>
           </cell>
           <cell r="K48">
             <v>44</v>
@@ -3935,39 +3935,39 @@
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C49">
-            <v>207</v>
+            <v>776</v>
           </cell>
           <cell r="D49">
-            <v>98</v>
+            <v>90</v>
           </cell>
           <cell r="H49">
-            <v>15924</v>
+            <v>55109</v>
           </cell>
           <cell r="I49">
-            <v>6166</v>
+            <v>27440</v>
           </cell>
           <cell r="K49">
-            <v>45</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Череда трава 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C50">
-            <v>300</v>
+            <v>272</v>
           </cell>
           <cell r="D50">
-            <v>84</v>
+            <v>91</v>
           </cell>
           <cell r="H50">
-            <v>19001</v>
+            <v>21278</v>
           </cell>
           <cell r="I50">
-            <v>8700</v>
+            <v>10470</v>
           </cell>
           <cell r="K50">
             <v>47</v>
@@ -3975,42 +3975,42 @@
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C51">
-            <v>332</v>
+            <v>262</v>
           </cell>
           <cell r="D51">
-            <v>91</v>
+            <v>106</v>
           </cell>
           <cell r="H51">
-            <v>25155</v>
+            <v>12529</v>
           </cell>
           <cell r="I51">
-            <v>9480</v>
+            <v>1427</v>
           </cell>
           <cell r="K51">
-            <v>50</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C52">
-            <v>260</v>
+            <v>326</v>
           </cell>
           <cell r="D52">
-            <v>105</v>
+            <v>89</v>
           </cell>
           <cell r="H52">
-            <v>13033</v>
+            <v>24777</v>
           </cell>
           <cell r="I52">
-            <v>1931</v>
+            <v>9102</v>
           </cell>
           <cell r="K52">
-            <v>50</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="53">
@@ -4021,7 +4021,7 @@
             <v>143</v>
           </cell>
           <cell r="D53">
-            <v>88</v>
+            <v>87</v>
           </cell>
           <cell r="H53">
             <v>9379</v>
@@ -4030,7 +4030,7 @@
             <v>9379</v>
           </cell>
           <cell r="K53">
-            <v>50</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="54">
@@ -4038,19 +4038,19 @@
             <v>Крапива листья 50г</v>
           </cell>
           <cell r="C54">
-            <v>272</v>
+            <v>292</v>
           </cell>
           <cell r="D54">
-            <v>87</v>
+            <v>93</v>
           </cell>
           <cell r="H54">
-            <v>28131</v>
+            <v>26045</v>
           </cell>
           <cell r="I54">
-            <v>8760</v>
+            <v>26045</v>
           </cell>
           <cell r="K54">
-            <v>59</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="55">
@@ -4061,13 +4061,16 @@
             <v>173</v>
           </cell>
           <cell r="D55">
-            <v>80</v>
+            <v>79</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>↓</v>
           </cell>
           <cell r="F55">
             <v>280</v>
           </cell>
           <cell r="G55">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="H55">
             <v>12902</v>
@@ -4076,7 +4079,7 @@
             <v>3864</v>
           </cell>
           <cell r="K55">
-            <v>60</v>
+            <v>61</v>
           </cell>
         </row>
         <row r="56">
@@ -4094,7 +4097,7 @@
             <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C58">
-            <v>431</v>
+            <v>430</v>
           </cell>
           <cell r="D58">
             <v>77</v>
@@ -4103,13 +4106,13 @@
             <v>↓</v>
           </cell>
           <cell r="H58">
-            <v>14289</v>
+            <v>13549</v>
           </cell>
           <cell r="I58">
-            <v>14289</v>
+            <v>13549</v>
           </cell>
           <cell r="K58">
-            <v>25</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="59">
@@ -4117,19 +4120,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>76</v>
+            <v>78</v>
           </cell>
           <cell r="D59">
-            <v>99</v>
+            <v>102</v>
           </cell>
           <cell r="H59">
-            <v>2948</v>
+            <v>2738</v>
           </cell>
           <cell r="I59">
-            <v>2948</v>
+            <v>2738</v>
           </cell>
           <cell r="K59">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="60">
@@ -4137,19 +4140,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>104</v>
+            <v>106</v>
           </cell>
           <cell r="D60">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="H60">
-            <v>4641</v>
+            <v>4481</v>
           </cell>
           <cell r="I60">
-            <v>2241</v>
+            <v>2081</v>
           </cell>
           <cell r="K60">
-            <v>35</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="61">
@@ -4157,7 +4160,7 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>40</v>
+            <v>41</v>
           </cell>
           <cell r="D61">
             <v>49</v>
@@ -4166,13 +4169,13 @@
             <v>↓</v>
           </cell>
           <cell r="H61">
-            <v>4790</v>
+            <v>4700</v>
           </cell>
           <cell r="I61">
-            <v>4790</v>
+            <v>4700</v>
           </cell>
           <cell r="K61">
-            <v>36</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="62">
@@ -4180,19 +4183,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>114</v>
+            <v>116</v>
           </cell>
           <cell r="D62">
-            <v>89</v>
+            <v>91</v>
           </cell>
           <cell r="H62">
-            <v>7868</v>
+            <v>7638</v>
           </cell>
           <cell r="I62">
-            <v>2898</v>
+            <v>2668</v>
           </cell>
           <cell r="K62">
-            <v>54</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="63">
@@ -4209,13 +4212,13 @@
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>8280</v>
+            <v>8260</v>
           </cell>
           <cell r="I63">
-            <v>8280</v>
+            <v>8260</v>
           </cell>
           <cell r="K63">
-            <v>147</v>
+            <v>146</v>
           </cell>
         </row>
         <row r="64">
@@ -4223,10 +4226,10 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="C64">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="D64">
-            <v>63</v>
+            <v>61</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
@@ -4238,7 +4241,7 @@
             <v>9750</v>
           </cell>
           <cell r="K64">
-            <v>205</v>
+            <v>204</v>
           </cell>
         </row>
         <row r="65">
@@ -4248,12 +4251,18 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C66">
-            <v>54</v>
+            <v>199</v>
           </cell>
           <cell r="D66">
+            <v>111</v>
+          </cell>
+          <cell r="H66">
+            <v>90</v>
+          </cell>
+          <cell r="I66">
             <v>90</v>
           </cell>
           <cell r="J66" t="str">
@@ -4262,25 +4271,16 @@
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>199</v>
+            <v>54</v>
           </cell>
           <cell r="D67">
-            <v>111</v>
-          </cell>
-          <cell r="H67">
-            <v>414</v>
-          </cell>
-          <cell r="I67">
-            <v>414</v>
+            <v>91</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
-          </cell>
-          <cell r="K67">
-            <v>2</v>
           </cell>
         </row>
         <row r="68">
@@ -4288,19 +4288,19 @@
             <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="C68">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D68">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="E68" t="str">
             <v>↓</v>
           </cell>
           <cell r="H68">
-            <v>1188</v>
+            <v>1170</v>
           </cell>
           <cell r="I68">
-            <v>1188</v>
+            <v>1170</v>
           </cell>
           <cell r="J68" t="str">
             <v>!!!</v>
@@ -4323,10 +4323,10 @@
             <v>↓</v>
           </cell>
           <cell r="H69">
-            <v>1530</v>
+            <v>1512</v>
           </cell>
           <cell r="I69">
-            <v>1530</v>
+            <v>1512</v>
           </cell>
           <cell r="J69" t="str">
             <v>!!!</v>
@@ -4340,10 +4340,10 @@
             <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="C70">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D70">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
@@ -4355,10 +4355,10 @@
             <v>1</v>
           </cell>
           <cell r="H70">
-            <v>1152</v>
+            <v>1134</v>
           </cell>
           <cell r="I70">
-            <v>1152</v>
+            <v>1134</v>
           </cell>
           <cell r="J70" t="str">
             <v>!!!</v>
@@ -4372,120 +4372,117 @@
             <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
           </cell>
           <cell r="C71">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="D71">
-            <v>27</v>
+            <v>38</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
           <cell r="H71">
-            <v>3222</v>
+            <v>2592</v>
           </cell>
           <cell r="I71">
-            <v>3222</v>
+            <v>2592</v>
+          </cell>
+          <cell r="J71" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K71">
-            <v>23</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C72">
-            <v>283</v>
+            <v>2625</v>
           </cell>
           <cell r="D72">
-            <v>87</v>
+            <v>85</v>
+          </cell>
+          <cell r="F72">
+            <v>8946</v>
+          </cell>
+          <cell r="G72">
+            <v>3</v>
           </cell>
           <cell r="H72">
-            <v>11261</v>
+            <v>113244</v>
           </cell>
           <cell r="I72">
-            <v>11261</v>
+            <v>113244</v>
           </cell>
           <cell r="K72">
-            <v>23</v>
-          </cell>
-          <cell r="L72">
-            <v>17</v>
-          </cell>
-          <cell r="M72">
-            <v>10465</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C73">
-            <v>57</v>
+            <v>814</v>
           </cell>
           <cell r="D73">
-            <v>94</v>
+            <v>113</v>
           </cell>
           <cell r="H73">
-            <v>2461</v>
+            <v>28965</v>
           </cell>
           <cell r="I73">
-            <v>2461</v>
+            <v>28965</v>
           </cell>
           <cell r="K73">
-            <v>24</v>
+            <v>31</v>
           </cell>
           <cell r="L73">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M73">
-            <v>4924</v>
+            <v>19995</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C74">
-            <v>831</v>
+            <v>5</v>
           </cell>
           <cell r="D74">
-            <v>116</v>
+            <v>222</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H74">
-            <v>29703</v>
+            <v>1098</v>
           </cell>
           <cell r="I74">
-            <v>29703</v>
+            <v>1098</v>
           </cell>
           <cell r="K74">
             <v>32</v>
           </cell>
-          <cell r="L74">
-            <v>16</v>
-          </cell>
-          <cell r="M74">
-            <v>19995</v>
-          </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C75">
-            <v>5</v>
+            <v>14108</v>
           </cell>
           <cell r="D75">
-            <v>223</v>
-          </cell>
-          <cell r="E75" t="str">
-            <v>↑</v>
+            <v>88</v>
           </cell>
           <cell r="H75">
-            <v>1098</v>
+            <v>566985</v>
           </cell>
           <cell r="I75">
-            <v>1098</v>
+            <v>566985</v>
           </cell>
           <cell r="K75">
             <v>33</v>
@@ -4493,373 +4490,370 @@
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>2498</v>
+            <v>1381</v>
           </cell>
           <cell r="D76">
-            <v>82</v>
-          </cell>
-          <cell r="F76">
-            <v>8946</v>
-          </cell>
-          <cell r="G76">
-            <v>3</v>
+            <v>91</v>
           </cell>
           <cell r="H76">
-            <v>124548</v>
+            <v>62519</v>
           </cell>
           <cell r="I76">
-            <v>79911</v>
+            <v>62519</v>
           </cell>
           <cell r="K76">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C77">
-            <v>13896</v>
+            <v>933</v>
           </cell>
           <cell r="D77">
-            <v>87</v>
+            <v>102</v>
+          </cell>
+          <cell r="F77">
+            <v>630</v>
+          </cell>
+          <cell r="G77">
+            <v>1</v>
           </cell>
           <cell r="H77">
-            <v>594435</v>
+            <v>45657</v>
           </cell>
           <cell r="I77">
-            <v>594435</v>
+            <v>45657</v>
           </cell>
           <cell r="K77">
-            <v>35</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C78">
-            <v>1375</v>
+            <v>819</v>
           </cell>
           <cell r="D78">
-            <v>91</v>
+            <v>78</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H78">
-            <v>66785</v>
+            <v>53453</v>
           </cell>
           <cell r="I78">
-            <v>66785</v>
+            <v>53453</v>
           </cell>
           <cell r="K78">
-            <v>36</v>
+            <v>37</v>
+          </cell>
+          <cell r="L78">
+            <v>15</v>
+          </cell>
+          <cell r="M78">
+            <v>31286</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C79">
-            <v>914</v>
+            <v>355</v>
           </cell>
           <cell r="D79">
-            <v>100</v>
-          </cell>
-          <cell r="F79">
-            <v>630</v>
-          </cell>
-          <cell r="G79">
-            <v>1</v>
+            <v>81</v>
           </cell>
           <cell r="H79">
-            <v>48249</v>
+            <v>26425</v>
           </cell>
           <cell r="I79">
-            <v>48249</v>
+            <v>26425</v>
           </cell>
           <cell r="K79">
             <v>39</v>
           </cell>
+          <cell r="L79">
+            <v>16</v>
+          </cell>
+          <cell r="M79">
+            <v>10095</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C80">
-            <v>493</v>
+            <v>3844</v>
           </cell>
           <cell r="D80">
-            <v>98</v>
+            <v>90</v>
           </cell>
           <cell r="H80">
-            <v>26610</v>
+            <v>177231</v>
           </cell>
           <cell r="I80">
-            <v>26610</v>
+            <v>126759</v>
           </cell>
           <cell r="K80">
-            <v>39</v>
-          </cell>
-          <cell r="L80">
-            <v>15</v>
-          </cell>
-          <cell r="M80">
-            <v>15101</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>790</v>
+            <v>1057</v>
           </cell>
           <cell r="D81">
-            <v>76</v>
-          </cell>
-          <cell r="E81" t="str">
-            <v>↓</v>
+            <v>94</v>
           </cell>
           <cell r="H81">
-            <v>57107</v>
+            <v>56215</v>
           </cell>
           <cell r="I81">
-            <v>57107</v>
+            <v>56215</v>
           </cell>
           <cell r="K81">
-            <v>40</v>
+            <v>42</v>
           </cell>
           <cell r="L81">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M81">
-            <v>31286</v>
+            <v>34471</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C82">
-            <v>343</v>
+            <v>281</v>
           </cell>
           <cell r="D82">
-            <v>79</v>
-          </cell>
-          <cell r="E82" t="str">
-            <v>↓</v>
+            <v>86</v>
           </cell>
           <cell r="H82">
-            <v>27739</v>
+            <v>21304</v>
           </cell>
           <cell r="I82">
-            <v>27739</v>
+            <v>10829</v>
           </cell>
           <cell r="K82">
-            <v>41</v>
-          </cell>
-          <cell r="L82">
-            <v>17</v>
-          </cell>
-          <cell r="M82">
-            <v>10095</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C83">
-            <v>3795</v>
+            <v>1065</v>
           </cell>
           <cell r="D83">
-            <v>89</v>
+            <v>85</v>
           </cell>
           <cell r="H83">
-            <v>189381</v>
+            <v>65698</v>
           </cell>
           <cell r="I83">
-            <v>89085</v>
+            <v>65698</v>
           </cell>
           <cell r="K83">
-            <v>42</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C84">
-            <v>1018</v>
+            <v>307</v>
           </cell>
           <cell r="D84">
-            <v>91</v>
+            <v>90</v>
           </cell>
           <cell r="H84">
-            <v>59995</v>
+            <v>23745</v>
           </cell>
           <cell r="I84">
-            <v>59995</v>
+            <v>23745</v>
           </cell>
           <cell r="K84">
             <v>44</v>
           </cell>
           <cell r="L84">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="M84">
-            <v>34471</v>
+            <v>10096</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C85">
-            <v>1065</v>
+            <v>720</v>
           </cell>
           <cell r="D85">
-            <v>86</v>
+            <v>96</v>
           </cell>
           <cell r="H85">
-            <v>66634</v>
+            <v>32922</v>
           </cell>
           <cell r="I85">
-            <v>66634</v>
+            <v>32922</v>
           </cell>
           <cell r="K85">
-            <v>45</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C86">
-            <v>714</v>
+            <v>3645</v>
           </cell>
           <cell r="D86">
-            <v>96</v>
+            <v>87</v>
           </cell>
           <cell r="H86">
-            <v>34560</v>
+            <v>173371</v>
           </cell>
           <cell r="I86">
-            <v>34560</v>
+            <v>136147</v>
           </cell>
           <cell r="K86">
-            <v>46</v>
+            <v>45</v>
+          </cell>
+          <cell r="L86">
+            <v>16</v>
+          </cell>
+          <cell r="M86">
+            <v>65254</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C87">
-            <v>299</v>
+            <v>66</v>
           </cell>
           <cell r="D87">
             <v>89</v>
           </cell>
           <cell r="H87">
-            <v>24933</v>
+            <v>3820</v>
           </cell>
           <cell r="I87">
-            <v>24933</v>
+            <v>3820</v>
           </cell>
           <cell r="K87">
-            <v>46</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C88">
-            <v>66</v>
+            <v>1017</v>
           </cell>
           <cell r="D88">
-            <v>89</v>
+            <v>86</v>
           </cell>
           <cell r="H88">
-            <v>3838</v>
+            <v>76029</v>
           </cell>
           <cell r="I88">
-            <v>3838</v>
+            <v>76029</v>
           </cell>
           <cell r="K88">
-            <v>47</v>
+            <v>48</v>
+          </cell>
+          <cell r="L88">
+            <v>16</v>
+          </cell>
+          <cell r="M88">
+            <v>19698</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C89">
-            <v>3541</v>
+            <v>29713</v>
           </cell>
           <cell r="D89">
-            <v>85</v>
+            <v>94</v>
           </cell>
           <cell r="H89">
-            <v>184531</v>
+            <v>1427339</v>
           </cell>
           <cell r="I89">
-            <v>147307</v>
+            <v>1427339</v>
           </cell>
           <cell r="K89">
             <v>48</v>
           </cell>
           <cell r="L89">
-            <v>17</v>
+            <v>26</v>
           </cell>
           <cell r="M89">
-            <v>65254</v>
+            <v>227708</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C90">
-            <v>1010</v>
+            <v>563</v>
           </cell>
           <cell r="D90">
-            <v>87</v>
+            <v>106</v>
           </cell>
           <cell r="H90">
-            <v>77253</v>
+            <v>40843</v>
           </cell>
           <cell r="I90">
-            <v>51351</v>
+            <v>24157</v>
           </cell>
           <cell r="K90">
             <v>49</v>
           </cell>
-          <cell r="L90">
-            <v>17</v>
-          </cell>
-          <cell r="M90">
-            <v>19698</v>
-          </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C91">
-            <v>29426</v>
+            <v>1310</v>
           </cell>
           <cell r="D91">
-            <v>93</v>
+            <v>92</v>
           </cell>
           <cell r="H91">
-            <v>1463303</v>
+            <v>83511</v>
           </cell>
           <cell r="I91">
-            <v>1463303</v>
+            <v>42696</v>
           </cell>
           <cell r="K91">
             <v>49</v>
@@ -4870,19 +4864,19 @@
             <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C92">
-            <v>716</v>
+            <v>726</v>
           </cell>
           <cell r="D92">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H92">
-            <v>45482</v>
+            <v>44384</v>
           </cell>
           <cell r="I92">
-            <v>35564</v>
+            <v>34466</v>
           </cell>
           <cell r="K92">
-            <v>50</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="93">
@@ -4890,22 +4884,22 @@
             <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C93">
-            <v>876</v>
+            <v>872</v>
           </cell>
           <cell r="D93">
             <v>82</v>
           </cell>
           <cell r="H93">
-            <v>51156</v>
+            <v>50130</v>
           </cell>
           <cell r="I93">
-            <v>51156</v>
+            <v>50130</v>
           </cell>
           <cell r="K93">
-            <v>51</v>
+            <v>50</v>
           </cell>
           <cell r="L93">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="M93">
             <v>16414</v>
@@ -4916,59 +4910,59 @@
             <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C94">
-            <v>161</v>
+            <v>160</v>
           </cell>
           <cell r="D94">
-            <v>78</v>
+            <v>77</v>
           </cell>
           <cell r="E94" t="str">
             <v>↓</v>
           </cell>
           <cell r="H94">
-            <v>19376</v>
+            <v>19196</v>
           </cell>
           <cell r="I94">
-            <v>19376</v>
+            <v>19196</v>
           </cell>
           <cell r="K94">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C95">
-            <v>1263</v>
+            <v>1235</v>
           </cell>
           <cell r="D95">
-            <v>89</v>
+            <v>88</v>
           </cell>
           <cell r="H95">
-            <v>88983</v>
+            <v>75300</v>
           </cell>
           <cell r="I95">
-            <v>48168</v>
+            <v>75300</v>
           </cell>
           <cell r="K95">
-            <v>52</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C96">
-            <v>539</v>
+            <v>1323</v>
           </cell>
           <cell r="D96">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="H96">
-            <v>43579</v>
+            <v>95397</v>
           </cell>
           <cell r="I96">
-            <v>26893</v>
+            <v>95397</v>
           </cell>
           <cell r="K96">
             <v>52</v>
@@ -4976,39 +4970,42 @@
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C97">
-            <v>1229</v>
+            <v>794</v>
           </cell>
           <cell r="D97">
             <v>87</v>
           </cell>
           <cell r="H97">
-            <v>77946</v>
+            <v>60887</v>
           </cell>
           <cell r="I97">
-            <v>77946</v>
+            <v>45497</v>
           </cell>
           <cell r="K97">
-            <v>53</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C98">
-            <v>1321</v>
+            <v>111</v>
           </cell>
           <cell r="D98">
-            <v>102</v>
+            <v>76</v>
+          </cell>
+          <cell r="E98" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H98">
-            <v>97125</v>
+            <v>9270</v>
           </cell>
           <cell r="I98">
-            <v>52812</v>
+            <v>5490</v>
           </cell>
           <cell r="K98">
             <v>53</v>
@@ -5016,25 +5013,25 @@
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C99">
-            <v>111</v>
+            <v>40</v>
           </cell>
           <cell r="D99">
-            <v>77</v>
+            <v>67</v>
           </cell>
           <cell r="E99" t="str">
             <v>↓</v>
           </cell>
           <cell r="H99">
-            <v>9270</v>
+            <v>5814</v>
           </cell>
           <cell r="I99">
-            <v>5490</v>
+            <v>5814</v>
           </cell>
           <cell r="K99">
-            <v>54</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="100">
@@ -5042,16 +5039,16 @@
             <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C100">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="D100">
-            <v>107</v>
+            <v>106</v>
           </cell>
           <cell r="H100">
-            <v>6906</v>
+            <v>6888</v>
           </cell>
           <cell r="I100">
-            <v>6906</v>
+            <v>6888</v>
           </cell>
           <cell r="K100">
             <v>54</v>
@@ -5059,22 +5056,22 @@
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C101">
-            <v>40</v>
+            <v>4</v>
           </cell>
           <cell r="D101">
-            <v>68</v>
+            <v>139</v>
           </cell>
           <cell r="E101" t="str">
-            <v>↓</v>
+            <v>↑</v>
           </cell>
           <cell r="H101">
-            <v>5814</v>
+            <v>1854</v>
           </cell>
           <cell r="I101">
-            <v>5814</v>
+            <v>1854</v>
           </cell>
           <cell r="K101">
             <v>54</v>
@@ -5082,19 +5079,19 @@
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C102">
-            <v>790</v>
+            <v>761</v>
           </cell>
           <cell r="D102">
-            <v>87</v>
+            <v>92</v>
           </cell>
           <cell r="H102">
-            <v>62309</v>
+            <v>65689</v>
           </cell>
           <cell r="I102">
-            <v>46919</v>
+            <v>35379</v>
           </cell>
           <cell r="K102">
             <v>54</v>
@@ -5102,25 +5099,22 @@
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C103">
-            <v>4</v>
+            <v>1276</v>
           </cell>
           <cell r="D103">
-            <v>140</v>
-          </cell>
-          <cell r="E103" t="str">
-            <v>↑</v>
+            <v>85</v>
           </cell>
           <cell r="H103">
-            <v>1872</v>
+            <v>94139</v>
           </cell>
           <cell r="I103">
-            <v>1872</v>
+            <v>94139</v>
           </cell>
           <cell r="K103">
-            <v>56</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="104">
@@ -5128,119 +5122,119 @@
             <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C104">
-            <v>598</v>
+            <v>606</v>
           </cell>
           <cell r="D104">
-            <v>90</v>
+            <v>91</v>
           </cell>
           <cell r="H104">
-            <v>54339</v>
+            <v>53367</v>
           </cell>
           <cell r="I104">
-            <v>54339</v>
+            <v>53367</v>
           </cell>
           <cell r="K104">
-            <v>58</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C105">
-            <v>737</v>
+            <v>513</v>
           </cell>
           <cell r="D105">
-            <v>89</v>
+            <v>101</v>
           </cell>
           <cell r="H105">
-            <v>68695</v>
+            <v>39516</v>
           </cell>
           <cell r="I105">
-            <v>38385</v>
+            <v>24288</v>
           </cell>
           <cell r="K105">
-            <v>58</v>
+            <v>59</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C106">
-            <v>1254</v>
+            <v>5</v>
           </cell>
           <cell r="D106">
-            <v>83</v>
+            <v>221</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H106">
-            <v>96857</v>
+            <v>1890</v>
           </cell>
           <cell r="I106">
-            <v>96857</v>
+            <v>1890</v>
           </cell>
           <cell r="K106">
-            <v>59</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C107">
-            <v>5</v>
+            <v>387</v>
           </cell>
           <cell r="D107">
-            <v>224</v>
-          </cell>
-          <cell r="E107" t="str">
-            <v>↑</v>
+            <v>87</v>
           </cell>
           <cell r="H107">
-            <v>1908</v>
+            <v>39222</v>
           </cell>
           <cell r="I107">
-            <v>1908</v>
+            <v>19692</v>
           </cell>
           <cell r="K107">
-            <v>64</v>
+            <v>68</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C108">
-            <v>379</v>
+            <v>94</v>
           </cell>
           <cell r="D108">
-            <v>86</v>
+            <v>96</v>
           </cell>
           <cell r="H108">
-            <v>40518</v>
+            <v>7432</v>
           </cell>
           <cell r="I108">
-            <v>20988</v>
+            <v>3536</v>
           </cell>
           <cell r="K108">
-            <v>71</v>
+            <v>77</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>94</v>
+            <v>430</v>
           </cell>
           <cell r="D109">
-            <v>96</v>
+            <v>89</v>
           </cell>
           <cell r="H109">
-            <v>7432</v>
+            <v>41920</v>
           </cell>
           <cell r="I109">
-            <v>3536</v>
+            <v>20842</v>
           </cell>
           <cell r="K109">
             <v>77</v>
@@ -5248,22 +5242,22 @@
         </row>
         <row r="110">
           <cell r="B110" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C110">
-            <v>430</v>
+            <v>57</v>
           </cell>
           <cell r="D110">
-            <v>89</v>
+            <v>93</v>
           </cell>
           <cell r="H110">
-            <v>42784</v>
+            <v>7240</v>
           </cell>
           <cell r="I110">
-            <v>21706</v>
+            <v>2425</v>
           </cell>
           <cell r="K110">
-            <v>78</v>
+            <v>85</v>
           </cell>
         </row>
         <row r="111">
@@ -5271,19 +5265,19 @@
             <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>59</v>
+            <v>58</v>
           </cell>
           <cell r="D111">
-            <v>113</v>
+            <v>111</v>
           </cell>
           <cell r="H111">
-            <v>7279</v>
+            <v>7099</v>
           </cell>
           <cell r="I111">
-            <v>7279</v>
+            <v>7099</v>
           </cell>
           <cell r="K111">
-            <v>100</v>
+            <v>98</v>
           </cell>
         </row>
         <row r="112">
@@ -5291,10 +5285,10 @@
             <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C112">
-            <v>56</v>
+            <v>55</v>
           </cell>
           <cell r="D112">
-            <v>103</v>
+            <v>101</v>
           </cell>
           <cell r="H112">
             <v>6664</v>
@@ -5314,7 +5308,7 @@
             <v>50</v>
           </cell>
           <cell r="D113">
-            <v>102</v>
+            <v>101</v>
           </cell>
           <cell r="H113">
             <v>6577</v>
@@ -5336,25 +5330,25 @@
             <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C115">
-            <v>1356</v>
+            <v>1385</v>
           </cell>
           <cell r="D115">
-            <v>94</v>
+            <v>96</v>
           </cell>
           <cell r="H115">
-            <v>25932</v>
+            <v>21720</v>
           </cell>
           <cell r="I115">
-            <v>25932</v>
+            <v>21720</v>
           </cell>
           <cell r="J115" t="str">
             <v>!</v>
           </cell>
           <cell r="K115">
+            <v>13</v>
+          </cell>
+          <cell r="L115">
             <v>16</v>
-          </cell>
-          <cell r="L115">
-            <v>17</v>
           </cell>
           <cell r="M115">
             <v>28980</v>
@@ -5365,19 +5359,28 @@
             <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>263</v>
+            <v>270</v>
           </cell>
           <cell r="D116">
-            <v>96</v>
+            <v>99</v>
           </cell>
           <cell r="H116">
-            <v>5416</v>
+            <v>4390</v>
           </cell>
           <cell r="I116">
-            <v>5416</v>
+            <v>4390</v>
+          </cell>
+          <cell r="J116" t="str">
+            <v>!</v>
           </cell>
           <cell r="K116">
-            <v>20</v>
+            <v>16</v>
+          </cell>
+          <cell r="L116">
+            <v>22</v>
+          </cell>
+          <cell r="M116">
+            <v>10050</v>
           </cell>
         </row>
         <row r="117">
@@ -5385,22 +5388,22 @@
             <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C117">
-            <v>1478</v>
+            <v>1516</v>
           </cell>
           <cell r="D117">
-            <v>76</v>
+            <v>77</v>
           </cell>
           <cell r="E117" t="str">
             <v>↓</v>
           </cell>
           <cell r="H117">
-            <v>59514</v>
+            <v>54222</v>
           </cell>
           <cell r="I117">
-            <v>40094</v>
+            <v>34802</v>
           </cell>
           <cell r="K117">
-            <v>22</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="118">
@@ -5408,36 +5411,36 @@
             <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>469</v>
+            <v>479</v>
           </cell>
           <cell r="D118">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="H118">
-            <v>20823</v>
+            <v>19455</v>
           </cell>
           <cell r="I118">
-            <v>20823</v>
+            <v>19455</v>
           </cell>
           <cell r="K118">
-            <v>24</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C119">
-            <v>100</v>
+            <v>349</v>
           </cell>
           <cell r="D119">
             <v>80</v>
           </cell>
           <cell r="H119">
-            <v>4240</v>
+            <v>15882</v>
           </cell>
           <cell r="I119">
-            <v>4240</v>
+            <v>15882</v>
           </cell>
           <cell r="K119">
             <v>25</v>
@@ -5445,22 +5448,25 @@
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C120">
-            <v>343</v>
+            <v>99</v>
           </cell>
           <cell r="D120">
-            <v>80</v>
+            <v>79</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H120">
-            <v>16674</v>
+            <v>4240</v>
           </cell>
           <cell r="I120">
-            <v>16674</v>
+            <v>4240</v>
           </cell>
           <cell r="K120">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="121">
@@ -5468,19 +5474,19 @@
             <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>569</v>
+            <v>571</v>
           </cell>
           <cell r="D121">
             <v>97</v>
           </cell>
           <cell r="H121">
-            <v>24406</v>
+            <v>23758</v>
           </cell>
           <cell r="I121">
-            <v>4516</v>
+            <v>3868</v>
           </cell>
           <cell r="K121">
-            <v>29</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="122">
@@ -5488,19 +5494,19 @@
             <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>295</v>
+            <v>296</v>
           </cell>
           <cell r="D122">
             <v>97</v>
           </cell>
           <cell r="H122">
-            <v>14103</v>
+            <v>13635</v>
           </cell>
           <cell r="I122">
-            <v>14103</v>
+            <v>13635</v>
           </cell>
           <cell r="K122">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="123">
@@ -5528,25 +5534,25 @@
             <v>ИТОГО:</v>
           </cell>
           <cell r="C124">
-            <v>105291</v>
+            <v>107116</v>
           </cell>
           <cell r="D124">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="F124">
             <v>14190</v>
           </cell>
           <cell r="H124">
-            <v>5500053</v>
+            <v>5312372</v>
           </cell>
           <cell r="I124">
-            <v>4872814</v>
+            <v>4856205</v>
           </cell>
           <cell r="K124">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="M124">
-            <v>372676</v>
+            <v>593255</v>
           </cell>
         </row>
       </sheetData>
@@ -5846,8 +5852,8 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,7 +5902,7 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -5926,11 +5932,11 @@
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20076</v>
+        <v>17570</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5952,44 +5958,44 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11660</v>
-      </c>
-      <c r="D6" s="8" t="str">
+        <v>3181</v>
+      </c>
+      <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>37</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-11-24</v>
       </c>
       <c r="G6" s="33" t="str">
-        <f t="shared" ref="G6:G69" si="0">IF(H6&gt;0,"•","")</f>
+        <f>IF(H6&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H6" s="34">
         <f>VLOOKUP(A6,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10834</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3307</v>
+        <v>13635</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6000,17 +6006,17 @@
         <v>2022-11-24</v>
       </c>
       <c r="G7" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>•</v>
+        <f>IF(H7&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>3827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6018,57 +6024,57 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15483</v>
+        <v>11335</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G8" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(H8&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H8" s="34">
         <f>VLOOKUP(A8,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30226</v>
+        <v>64575</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-11-28</v>
       </c>
       <c r="G9" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>•</v>
+        <f>IF(H9&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H9" s="34">
         <f>VLOOKUP(A9,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>27563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6076,76 +6082,79 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11979</v>
+        <v>36512</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-11-29</v>
       </c>
       <c r="G10" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>•</v>
+        <f>IF(H10&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>70399</v>
+        <v>17849</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-11-29</v>
       </c>
       <c r="G11" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(H11&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>21828</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2674</v>
+        <v>25485</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-11-30</v>
       </c>
       <c r="G12" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H12&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H12" s="34">
@@ -6155,55 +6164,55 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>41692</v>
+        <v>22948</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G13" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(H13&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H13" s="34">
         <f>VLOOKUP(A13,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>13875</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29433</v>
+        <v>2674</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-01</v>
       </c>
       <c r="G14" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H14&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H14" s="34">
@@ -6213,58 +6222,55 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20187</v>
+        <v>16489</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-01</v>
       </c>
       <c r="G15" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H15&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H15" s="34">
         <f>VLOOKUP(A15,[2]остатки!$B$8:$M$124,12,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J15" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24614</v>
+        <v>16163</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-01</v>
       </c>
       <c r="G16" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H16&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H16" s="34">
@@ -6274,26 +6280,26 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17679</v>
+        <v>16792</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-02</v>
       </c>
       <c r="G17" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H17&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H17" s="34">
@@ -6319,15 +6325,15 @@
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G18" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(H18&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H18" s="34">
         <f>VLOOKUP(A18,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6336,11 +6342,11 @@
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15979</v>
+        <v>15489</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6351,7 +6357,7 @@
         <v>2022-12-05</v>
       </c>
       <c r="G19" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H19&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H19" s="34">
@@ -6361,26 +6367,26 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18444</v>
+        <v>10179</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-05</v>
       </c>
       <c r="G20" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H20&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H20" s="34">
@@ -6390,26 +6396,26 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10949</v>
+        <v>77829</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-05</v>
       </c>
       <c r="G21" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H21&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H21" s="34">
@@ -6419,26 +6425,26 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18963</v>
+        <v>73724</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G22" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H22&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H22" s="34">
@@ -6448,26 +6454,26 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>84507</v>
+        <v>13916</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-06</v>
       </c>
       <c r="G23" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H23&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H23" s="34">
@@ -6477,26 +6483,26 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>82474</v>
+        <v>10447</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G24" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H24&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H24" s="34">
@@ -6506,26 +6512,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>39994</v>
+        <v>25370</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G25" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H25&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H25" s="34">
@@ -6535,26 +6541,26 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15344</v>
+        <v>38216</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-07</v>
       </c>
       <c r="G26" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H26&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H26" s="34">
@@ -6568,11 +6574,11 @@
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32274</v>
+        <v>31238</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6583,7 +6589,7 @@
         <v>2022-12-07</v>
       </c>
       <c r="G27" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H27&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H27" s="34">
@@ -6593,26 +6599,26 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11539</v>
+        <v>24022</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-07</v>
       </c>
       <c r="G28" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H28&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H28" s="34">
@@ -6622,26 +6628,26 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28170</v>
+        <v>16336</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-07</v>
       </c>
       <c r="G29" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H29&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H29" s="34">
@@ -6651,7 +6657,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6659,18 +6665,18 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25394</v>
+        <v>44640</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G30" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H30&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H30" s="34">
@@ -6680,26 +6686,26 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>46348</v>
+        <v>26268</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-08</v>
       </c>
       <c r="G31" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H31&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H31" s="34">
@@ -6709,26 +6715,26 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27346</v>
+        <v>11424</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-08</v>
       </c>
       <c r="G32" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H32&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H32" s="34">
@@ -6738,26 +6744,26 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11662</v>
+        <v>24537</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-08</v>
       </c>
       <c r="G33" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H33&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H33" s="34">
@@ -6767,7 +6773,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6775,18 +6781,18 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18128</v>
+        <v>27907</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G34" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H34&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H34" s="34">
@@ -6796,26 +6802,26 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29559</v>
+        <v>21163</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-09</v>
       </c>
       <c r="G35" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H35&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H35" s="34">
@@ -6825,15 +6831,15 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22143</v>
+        <v>106743</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6844,7 +6850,7 @@
         <v>2022-12-09</v>
       </c>
       <c r="G36" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H36&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H36" s="34">
@@ -6854,7 +6860,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6862,7 +6868,7 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27351</v>
+        <v>27215</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6870,10 +6876,10 @@
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G37" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H37&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H37" s="34">
@@ -6883,26 +6889,26 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28069</v>
+        <v>12529</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-12</v>
       </c>
       <c r="G38" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H38&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H38" s="34">
@@ -6912,7 +6918,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6920,18 +6926,18 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>115269</v>
+        <v>24165</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G39" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H39&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H39" s="34">
@@ -6941,7 +6947,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6949,18 +6955,18 @@
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13033</v>
+        <v>15042</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G40" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H40&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H40" s="34">
@@ -6970,26 +6976,26 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15924</v>
+        <v>34499</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-15</v>
       </c>
       <c r="G41" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H41&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H41" s="34">
@@ -6999,15 +7005,15 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27175</v>
+        <v>21259</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7015,10 +7021,10 @@
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G42" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H42&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H42" s="34">
@@ -7028,26 +7034,26 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>36585</v>
-      </c>
-      <c r="D43" s="8">
+        <v>21278</v>
+      </c>
+      <c r="D43" s="8" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>inf</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-16</v>
       </c>
       <c r="G43" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H43&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H43" s="34">
@@ -7057,7 +7063,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7065,18 +7071,18 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22505</v>
+        <v>26045</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G44" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H44&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H44" s="34">
@@ -7086,7 +7092,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7094,18 +7100,18 @@
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28131</v>
+        <v>55109</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G45" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H45&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H45" s="34">
@@ -7123,7 +7129,7 @@
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25155</v>
+        <v>24777</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7131,10 +7137,10 @@
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G46" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H46&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H46" s="34">
@@ -7144,7 +7150,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7152,18 +7158,18 @@
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12902</v>
+        <v>21094</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G47" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H47&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H47" s="34">
@@ -7173,26 +7179,26 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19001</v>
+        <v>12902</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G48" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H48&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H48" s="34">
@@ -7202,26 +7208,26 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22732</v>
+        <v>17517</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-03</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G49" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H49&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H49" s="34">
@@ -7247,10 +7253,10 @@
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-06</v>
       </c>
       <c r="G50" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H50&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H50" s="34">
@@ -7274,11 +7280,11 @@
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2948</v>
+        <v>2738</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7289,7 +7295,7 @@
         <v>2022-11-21</v>
       </c>
       <c r="G52" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H52&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H52" s="34">
@@ -7303,11 +7309,11 @@
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14289</v>
+        <v>13549</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7318,7 +7324,7 @@
         <v>2022-11-25</v>
       </c>
       <c r="G53" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H53&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H53" s="34">
@@ -7332,11 +7338,11 @@
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4641</v>
+        <v>4481</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7347,7 +7353,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G54" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H54&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H54" s="34">
@@ -7361,11 +7367,11 @@
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7868</v>
+        <v>7638</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7376,7 +7382,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G55" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H55&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H55" s="34">
@@ -7390,11 +7396,11 @@
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4790</v>
+        <v>4700</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7405,7 +7411,7 @@
         <v>2023-01-25</v>
       </c>
       <c r="G56" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H56&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H56" s="34">
@@ -7419,7 +7425,7 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7434,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H57&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H57" s="34">
@@ -7448,11 +7454,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8280</v>
+        <v>8260</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H58&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H58" s="34">
@@ -7487,11 +7493,11 @@
       </c>
       <c r="B60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3222</v>
+        <v>2592</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7499,10 +7505,10 @@
       </c>
       <c r="E60" s="29" t="str">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-10-30</v>
+        <v>2023-10-27</v>
       </c>
       <c r="G60" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H60&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H60" s="34">
@@ -7512,55 +7518,55 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2461</v>
+        <v>1890</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E61" s="29" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-11-25</v>
       </c>
       <c r="G61" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>•</v>
+        <f>IF(H61&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H61" s="34">
         <f>VLOOKUP(A61,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>4924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1908</v>
+        <v>1098</v>
       </c>
       <c r="D62" s="8">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="E62" s="29" t="str">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-11-25</v>
       </c>
       <c r="G62" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H62&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H62" s="34">
@@ -7570,26 +7576,26 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1098</v>
+        <v>3820</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G63" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H63&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H63" s="34">
@@ -7599,36 +7605,36 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11261</v>
+        <v>28965</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G64" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H64&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10465</v>
+        <v>19995</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7636,18 +7642,18 @@
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3838</v>
+        <v>62519</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E65" s="29" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G65" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H65&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H65" s="34">
@@ -7657,55 +7663,55 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29703</v>
+        <v>113244</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G66" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>•</v>
+        <f>IF(H66&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>66785</v>
+        <v>177231</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G67" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H67&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H67" s="34">
@@ -7715,26 +7721,26 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>189381</v>
+        <v>566985</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-09</v>
       </c>
       <c r="G68" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H68&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H68" s="34">
@@ -7744,26 +7750,26 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>594435</v>
+        <v>45657</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-09</v>
       </c>
       <c r="G69" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H69&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H69" s="34">
@@ -7773,7 +7779,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7781,47 +7787,47 @@
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>124548</v>
+        <v>56215</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G70" s="33" t="str">
-        <f t="shared" ref="G70:G103" si="1">IF(H70&gt;0,"•","")</f>
-        <v/>
+        <f>IF(H70&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>34471</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>48249</v>
+        <v>6888</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G71" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H71&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H71" s="34">
@@ -7831,36 +7837,36 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59995</v>
+        <v>173371</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G72" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H72&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>34471</v>
+        <v>65254</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7868,86 +7874,86 @@
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6906</v>
+        <v>26425</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G73" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(H73&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H73" s="34">
         <f>VLOOKUP(A73,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>184531</v>
+        <v>32922</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G74" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>•</v>
+        <f>IF(H74&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H74" s="34">
         <f>VLOOKUP(A74,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>65254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27739</v>
+        <v>53453</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-15</v>
       </c>
       <c r="G75" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H75&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H75" s="34">
         <f>VLOOKUP(A75,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10095</v>
+        <v>31286</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7955,76 +7961,76 @@
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34560</v>
+        <v>23745</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G76" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(H76&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H76" s="34">
         <f>VLOOKUP(A76,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>57107</v>
+        <v>40843</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-16</v>
       </c>
       <c r="G77" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>•</v>
+        <f>IF(H77&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H77" s="34">
         <f>VLOOKUP(A77,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>31286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24933</v>
+        <v>21304</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-19</v>
       </c>
       <c r="G78" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H78&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H78" s="34">
@@ -8034,7 +8040,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8042,28 +8048,28 @@
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26610</v>
+        <v>75300</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G79" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>•</v>
+        <f>IF(H79&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H79" s="34">
         <f>VLOOKUP(A79,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8071,18 +8077,18 @@
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43579</v>
+        <v>95397</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G80" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H80&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H80" s="34">
@@ -8092,26 +8098,26 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>77946</v>
+        <v>60887</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G81" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H81&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H81" s="34">
@@ -8121,26 +8127,26 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>97125</v>
+        <v>65698</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G82" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H82&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H82" s="34">
@@ -8150,55 +8156,55 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>62309</v>
+        <v>1427339</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G83" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(H83&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H83" s="34">
         <f>VLOOKUP(A83,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>227708</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>66634</v>
+        <v>94139</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G84" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H84&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H84" s="34">
@@ -8208,26 +8214,26 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1463303</v>
+        <v>83511</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2022-12-27</v>
       </c>
       <c r="G85" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H85&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H85" s="34">
@@ -8245,7 +8251,7 @@
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>54339</v>
+        <v>53367</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8253,10 +8259,10 @@
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G86" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H86&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H86" s="34">
@@ -8266,26 +8272,26 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>96857</v>
+        <v>44384</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G87" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H87&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H87" s="34">
@@ -8295,26 +8301,26 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>45482</v>
+        <v>7432</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-03</v>
       </c>
       <c r="G88" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H88&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H88" s="34">
@@ -8324,55 +8330,55 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>88983</v>
+        <v>76029</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G89" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(H89&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H89" s="34">
         <f>VLOOKUP(A89,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19698</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7432</v>
+        <v>65689</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-30</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G90" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H90&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H90" s="34">
@@ -8382,55 +8388,55 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>77253</v>
+        <v>39516</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-03</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G91" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>•</v>
+        <f>IF(H91&gt;0,"•","")</f>
+        <v/>
       </c>
       <c r="H91" s="34">
         <f>VLOOKUP(A91,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>68695</v>
+        <v>41920</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G92" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H92&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H92" s="34">
@@ -8440,26 +8446,26 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42784</v>
+        <v>7099</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
         <v>2023-01-16</v>
       </c>
       <c r="G93" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H93&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H93" s="34">
@@ -8477,7 +8483,7 @@
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19376</v>
+        <v>19196</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8485,10 +8491,10 @@
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G94" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H94&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H94" s="34">
@@ -8498,26 +8504,26 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7279</v>
+        <v>39222</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-17</v>
+        <v>2023-01-24</v>
       </c>
       <c r="G95" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H95&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H95" s="34">
@@ -8527,7 +8533,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8535,18 +8541,18 @@
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40518</v>
+        <v>7240</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G96" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H96&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H96" s="34">
@@ -8560,11 +8566,11 @@
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>51156</v>
+        <v>50130</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8575,7 +8581,7 @@
         <v>2023-01-27</v>
       </c>
       <c r="G97" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H97&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H97" s="34">
@@ -8601,10 +8607,10 @@
       </c>
       <c r="E98" s="29" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-10</v>
+        <v>2023-02-13</v>
       </c>
       <c r="G98" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H98&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H98" s="34">
@@ -8618,11 +8624,11 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1872</v>
+        <v>1854</v>
       </c>
       <c r="D99" s="8">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8633,7 +8639,7 @@
         <v>2023-02-27</v>
       </c>
       <c r="G99" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H99&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H99" s="34">
@@ -8647,7 +8653,7 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8659,10 +8665,10 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-17</v>
+        <v>2023-07-20</v>
       </c>
       <c r="G100" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H100&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H100" s="34">
@@ -8676,11 +8682,11 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="D101" s="8">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8688,10 +8694,10 @@
       </c>
       <c r="E101" s="29" t="str">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-15</v>
+        <v>2023-08-14</v>
       </c>
       <c r="G101" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H101&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H101" s="34">
@@ -8705,11 +8711,11 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="D102" s="8">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8720,7 +8726,7 @@
         <v>2023-08-15</v>
       </c>
       <c r="G102" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H102&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H102" s="34">
@@ -8734,11 +8740,11 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1530</v>
+        <v>1512</v>
       </c>
       <c r="D103" s="8">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8749,7 +8755,7 @@
         <v>2023-08-24</v>
       </c>
       <c r="G103" s="33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H103&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H103" s="34">
@@ -8773,11 +8779,11 @@
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25932</v>
+        <v>21720</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8785,10 +8791,10 @@
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-17</v>
+        <v>2022-11-16</v>
       </c>
       <c r="G105" s="33" t="str">
-        <f t="shared" ref="G105:G113" si="2">IF(H105&gt;0,"•","")</f>
+        <f>IF(H105&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H105" s="34">
@@ -8802,11 +8808,11 @@
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5416</v>
+        <v>4390</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8814,15 +8820,15 @@
       </c>
       <c r="E106" s="29" t="str">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-11-21</v>
       </c>
       <c r="G106" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(H106&gt;0,"•","")</f>
+        <v>•</v>
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -8831,11 +8837,11 @@
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59514</v>
+        <v>54222</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8843,10 +8849,10 @@
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-23</v>
       </c>
       <c r="G107" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H107&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H107" s="34">
@@ -8860,11 +8866,11 @@
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20823</v>
+        <v>19455</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8875,7 +8881,7 @@
         <v>2022-11-30</v>
       </c>
       <c r="G108" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H108&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H108" s="34">
@@ -8901,10 +8907,10 @@
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G109" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H109&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H109" s="34">
@@ -8918,11 +8924,11 @@
       </c>
       <c r="B110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16674</v>
+        <v>15882</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8933,7 +8939,7 @@
         <v>2022-12-01</v>
       </c>
       <c r="G110" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H110&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H110" s="34">
@@ -8947,11 +8953,11 @@
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24406</v>
+        <v>23758</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8962,7 +8968,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G111" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H111&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H111" s="34">
@@ -8976,11 +8982,11 @@
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14103</v>
+        <v>13635</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8991,7 +8997,7 @@
         <v>2022-12-06</v>
       </c>
       <c r="G112" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H112&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H112" s="34">
@@ -9005,7 +9011,7 @@
       </c>
       <c r="B113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -9020,7 +9026,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G113" s="33" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H113&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H113" s="34">
@@ -9035,7 +9041,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5484555</v>
+        <v>5297198</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -9072,7 +9078,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <sortState ref="A105:E113">
+  <sortState ref="A105:J113">
     <sortCondition ref="B105:B113"/>
   </sortState>
   <conditionalFormatting sqref="B3">

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Запасы (дней)</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>Выпустить до:</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -5849,11 +5846,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,7 +5866,7 @@
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
@@ -5887,7 +5884,7 @@
       </c>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5893,7 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -5917,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -5926,7 +5923,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -5947,7 +5944,7 @@
         <v>2022-11-15</v>
       </c>
       <c r="G5" s="33" t="str">
-        <f>IF(H5&gt;0,"•","")</f>
+        <f t="shared" ref="G5:G50" si="0">IF(H5&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H5" s="34">
@@ -5956,7 +5953,7 @@
       </c>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>2022-11-24</v>
       </c>
       <c r="G6" s="33" t="str">
-        <f>IF(H6&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v>•</v>
       </c>
       <c r="H6" s="34">
@@ -5985,7 +5982,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6003,7 @@
         <v>2022-11-24</v>
       </c>
       <c r="G7" s="33" t="str">
-        <f>IF(H7&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="34">
@@ -6014,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>2022-11-28</v>
       </c>
       <c r="G8" s="33" t="str">
-        <f>IF(H8&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v>•</v>
       </c>
       <c r="H8" s="34">
@@ -6043,7 +6040,7 @@
         <v>15267</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
@@ -6064,7 +6061,7 @@
         <v>2022-11-28</v>
       </c>
       <c r="G9" s="33" t="str">
-        <f>IF(H9&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" s="34">
@@ -6072,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
@@ -6093,7 +6090,7 @@
         <v>2022-11-29</v>
       </c>
       <c r="G10" s="33" t="str">
-        <f>IF(H10&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" s="34">
@@ -6101,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
@@ -6122,18 +6119,15 @@
         <v>2022-11-29</v>
       </c>
       <c r="G11" s="33" t="str">
-        <f>IF(H11&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v>•</v>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
         <v>21828</v>
       </c>
-      <c r="J11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
@@ -6154,7 +6148,7 @@
         <v>2022-11-30</v>
       </c>
       <c r="G12" s="33" t="str">
-        <f>IF(H12&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H12" s="34">
@@ -6162,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>7</v>
       </c>
@@ -6183,7 +6177,7 @@
         <v>2022-11-30</v>
       </c>
       <c r="G13" s="33" t="str">
-        <f>IF(H13&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v>•</v>
       </c>
       <c r="H13" s="34">
@@ -6191,7 +6185,7 @@
         <v>13875</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
@@ -6212,7 +6206,7 @@
         <v>2022-12-01</v>
       </c>
       <c r="G14" s="33" t="str">
-        <f>IF(H14&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H14" s="34">
@@ -6220,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>13</v>
       </c>
@@ -6241,7 +6235,7 @@
         <v>2022-12-01</v>
       </c>
       <c r="G15" s="33" t="str">
-        <f>IF(H15&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H15" s="34">
@@ -6249,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
@@ -6270,7 +6264,7 @@
         <v>2022-12-01</v>
       </c>
       <c r="G16" s="33" t="str">
-        <f>IF(H16&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H16" s="34">
@@ -6299,7 +6293,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G17" s="33" t="str">
-        <f>IF(H17&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H17" s="34">
@@ -6328,7 +6322,7 @@
         <v>2022-12-05</v>
       </c>
       <c r="G18" s="33" t="str">
-        <f>IF(H18&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v>•</v>
       </c>
       <c r="H18" s="34">
@@ -6357,7 +6351,7 @@
         <v>2022-12-05</v>
       </c>
       <c r="G19" s="33" t="str">
-        <f>IF(H19&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H19" s="34">
@@ -6386,7 +6380,7 @@
         <v>2022-12-05</v>
       </c>
       <c r="G20" s="33" t="str">
-        <f>IF(H20&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H20" s="34">
@@ -6415,7 +6409,7 @@
         <v>2022-12-05</v>
       </c>
       <c r="G21" s="33" t="str">
-        <f>IF(H21&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H21" s="34">
@@ -6444,7 +6438,7 @@
         <v>2022-12-05</v>
       </c>
       <c r="G22" s="33" t="str">
-        <f>IF(H22&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H22" s="34">
@@ -6473,7 +6467,7 @@
         <v>2022-12-06</v>
       </c>
       <c r="G23" s="33" t="str">
-        <f>IF(H23&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H23" s="34">
@@ -6502,7 +6496,7 @@
         <v>2022-12-06</v>
       </c>
       <c r="G24" s="33" t="str">
-        <f>IF(H24&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H24" s="34">
@@ -6531,7 +6525,7 @@
         <v>2022-12-06</v>
       </c>
       <c r="G25" s="33" t="str">
-        <f>IF(H25&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H25" s="34">
@@ -6560,7 +6554,7 @@
         <v>2022-12-07</v>
       </c>
       <c r="G26" s="33" t="str">
-        <f>IF(H26&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H26" s="34">
@@ -6589,7 +6583,7 @@
         <v>2022-12-07</v>
       </c>
       <c r="G27" s="33" t="str">
-        <f>IF(H27&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v>•</v>
       </c>
       <c r="H27" s="34">
@@ -6618,7 +6612,7 @@
         <v>2022-12-07</v>
       </c>
       <c r="G28" s="33" t="str">
-        <f>IF(H28&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H28" s="34">
@@ -6647,7 +6641,7 @@
         <v>2022-12-07</v>
       </c>
       <c r="G29" s="33" t="str">
-        <f>IF(H29&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H29" s="34">
@@ -6676,7 +6670,7 @@
         <v>2022-12-08</v>
       </c>
       <c r="G30" s="33" t="str">
-        <f>IF(H30&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H30" s="34">
@@ -6705,7 +6699,7 @@
         <v>2022-12-08</v>
       </c>
       <c r="G31" s="33" t="str">
-        <f>IF(H31&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H31" s="34">
@@ -6734,7 +6728,7 @@
         <v>2022-12-08</v>
       </c>
       <c r="G32" s="33" t="str">
-        <f>IF(H32&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H32" s="34">
@@ -6763,7 +6757,7 @@
         <v>2022-12-08</v>
       </c>
       <c r="G33" s="33" t="str">
-        <f>IF(H33&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H33" s="34">
@@ -6792,7 +6786,7 @@
         <v>2022-12-09</v>
       </c>
       <c r="G34" s="33" t="str">
-        <f>IF(H34&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H34" s="34">
@@ -6821,7 +6815,7 @@
         <v>2022-12-09</v>
       </c>
       <c r="G35" s="33" t="str">
-        <f>IF(H35&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H35" s="34">
@@ -6850,7 +6844,7 @@
         <v>2022-12-09</v>
       </c>
       <c r="G36" s="33" t="str">
-        <f>IF(H36&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H36" s="34">
@@ -6879,7 +6873,7 @@
         <v>2022-12-12</v>
       </c>
       <c r="G37" s="33" t="str">
-        <f>IF(H37&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H37" s="34">
@@ -6908,7 +6902,7 @@
         <v>2022-12-12</v>
       </c>
       <c r="G38" s="33" t="str">
-        <f>IF(H38&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H38" s="34">
@@ -6937,7 +6931,7 @@
         <v>2022-12-13</v>
       </c>
       <c r="G39" s="33" t="str">
-        <f>IF(H39&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H39" s="34">
@@ -6966,7 +6960,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G40" s="33" t="str">
-        <f>IF(H40&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H40" s="34">
@@ -6995,7 +6989,7 @@
         <v>2022-12-15</v>
       </c>
       <c r="G41" s="33" t="str">
-        <f>IF(H41&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H41" s="34">
@@ -7024,7 +7018,7 @@
         <v>2022-12-15</v>
       </c>
       <c r="G42" s="33" t="str">
-        <f>IF(H42&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H42" s="34">
@@ -7053,7 +7047,7 @@
         <v>2022-12-16</v>
       </c>
       <c r="G43" s="33" t="str">
-        <f>IF(H43&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H43" s="34">
@@ -7082,7 +7076,7 @@
         <v>2022-12-19</v>
       </c>
       <c r="G44" s="33" t="str">
-        <f>IF(H44&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H44" s="34">
@@ -7111,7 +7105,7 @@
         <v>2022-12-21</v>
       </c>
       <c r="G45" s="33" t="str">
-        <f>IF(H45&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H45" s="34">
@@ -7140,7 +7134,7 @@
         <v>2022-12-21</v>
       </c>
       <c r="G46" s="33" t="str">
-        <f>IF(H46&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H46" s="34">
@@ -7169,7 +7163,7 @@
         <v>2022-12-23</v>
       </c>
       <c r="G47" s="33" t="str">
-        <f>IF(H47&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H47" s="34">
@@ -7198,7 +7192,7 @@
         <v>2022-12-26</v>
       </c>
       <c r="G48" s="33" t="str">
-        <f>IF(H48&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H48" s="34">
@@ -7227,7 +7221,7 @@
         <v>2022-12-26</v>
       </c>
       <c r="G49" s="33" t="str">
-        <f>IF(H49&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H49" s="34">
@@ -7256,7 +7250,7 @@
         <v>2023-01-06</v>
       </c>
       <c r="G50" s="33" t="str">
-        <f>IF(H50&gt;0,"•","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H50" s="34">
@@ -7295,7 +7289,7 @@
         <v>2022-11-21</v>
       </c>
       <c r="G52" s="33" t="str">
-        <f>IF(H52&gt;0,"•","")</f>
+        <f t="shared" ref="G52:G58" si="1">IF(H52&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H52" s="34">
@@ -7324,7 +7318,7 @@
         <v>2022-11-25</v>
       </c>
       <c r="G53" s="33" t="str">
-        <f>IF(H53&gt;0,"•","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H53" s="34">
@@ -7353,7 +7347,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G54" s="33" t="str">
-        <f>IF(H54&gt;0,"•","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H54" s="34">
@@ -7382,7 +7376,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G55" s="33" t="str">
-        <f>IF(H55&gt;0,"•","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H55" s="34">
@@ -7411,7 +7405,7 @@
         <v>2023-01-25</v>
       </c>
       <c r="G56" s="33" t="str">
-        <f>IF(H56&gt;0,"•","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H56" s="34">
@@ -7440,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="33" t="str">
-        <f>IF(H57&gt;0,"•","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H57" s="34">
@@ -7469,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="33" t="str">
-        <f>IF(H58&gt;0,"•","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H58" s="34">
@@ -7508,7 +7502,7 @@
         <v>2023-10-27</v>
       </c>
       <c r="G60" s="33" t="str">
-        <f>IF(H60&gt;0,"•","")</f>
+        <f t="shared" ref="G60:G103" si="2">IF(H60&gt;0,"•","")</f>
         <v/>
       </c>
       <c r="H60" s="34">
@@ -7537,7 +7531,7 @@
         <v>2022-11-25</v>
       </c>
       <c r="G61" s="33" t="str">
-        <f>IF(H61&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H61" s="34">
@@ -7566,7 +7560,7 @@
         <v>2022-11-25</v>
       </c>
       <c r="G62" s="33" t="str">
-        <f>IF(H62&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H62" s="34">
@@ -7595,7 +7589,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G63" s="33" t="str">
-        <f>IF(H63&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H63" s="34">
@@ -7624,7 +7618,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G64" s="33" t="str">
-        <f>IF(H64&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H64" s="34">
@@ -7653,7 +7647,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G65" s="33" t="str">
-        <f>IF(H65&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H65" s="34">
@@ -7682,7 +7676,7 @@
         <v>2022-12-07</v>
       </c>
       <c r="G66" s="33" t="str">
-        <f>IF(H66&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H66" s="34">
@@ -7711,7 +7705,7 @@
         <v>2022-12-08</v>
       </c>
       <c r="G67" s="33" t="str">
-        <f>IF(H67&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H67" s="34">
@@ -7740,7 +7734,7 @@
         <v>2022-12-09</v>
       </c>
       <c r="G68" s="33" t="str">
-        <f>IF(H68&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H68" s="34">
@@ -7769,7 +7763,7 @@
         <v>2022-12-09</v>
       </c>
       <c r="G69" s="33" t="str">
-        <f>IF(H69&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H69" s="34">
@@ -7798,7 +7792,7 @@
         <v>2022-12-12</v>
       </c>
       <c r="G70" s="33" t="str">
-        <f>IF(H70&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H70" s="34">
@@ -7827,7 +7821,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G71" s="33" t="str">
-        <f>IF(H71&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H71" s="34">
@@ -7856,7 +7850,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G72" s="33" t="str">
-        <f>IF(H72&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H72" s="34">
@@ -7885,7 +7879,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G73" s="33" t="str">
-        <f>IF(H73&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H73" s="34">
@@ -7914,7 +7908,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G74" s="33" t="str">
-        <f>IF(H74&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H74" s="34">
@@ -7943,7 +7937,7 @@
         <v>2022-12-15</v>
       </c>
       <c r="G75" s="33" t="str">
-        <f>IF(H75&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H75" s="34">
@@ -7972,7 +7966,7 @@
         <v>2022-12-16</v>
       </c>
       <c r="G76" s="33" t="str">
-        <f>IF(H76&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H76" s="34">
@@ -8001,7 +7995,7 @@
         <v>2022-12-16</v>
       </c>
       <c r="G77" s="33" t="str">
-        <f>IF(H77&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H77" s="34">
@@ -8030,7 +8024,7 @@
         <v>2022-12-19</v>
       </c>
       <c r="G78" s="33" t="str">
-        <f>IF(H78&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H78" s="34">
@@ -8059,7 +8053,7 @@
         <v>2022-12-20</v>
       </c>
       <c r="G79" s="33" t="str">
-        <f>IF(H79&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H79" s="34">
@@ -8088,7 +8082,7 @@
         <v>2022-12-21</v>
       </c>
       <c r="G80" s="33" t="str">
-        <f>IF(H80&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H80" s="34">
@@ -8117,7 +8111,7 @@
         <v>2022-12-23</v>
       </c>
       <c r="G81" s="33" t="str">
-        <f>IF(H81&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H81" s="34">
@@ -8146,7 +8140,7 @@
         <v>2022-12-23</v>
       </c>
       <c r="G82" s="33" t="str">
-        <f>IF(H82&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H82" s="34">
@@ -8175,7 +8169,7 @@
         <v>2022-12-27</v>
       </c>
       <c r="G83" s="33" t="str">
-        <f>IF(H83&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H83" s="34">
@@ -8204,7 +8198,7 @@
         <v>2022-12-27</v>
       </c>
       <c r="G84" s="33" t="str">
-        <f>IF(H84&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H84" s="34">
@@ -8233,7 +8227,7 @@
         <v>2022-12-27</v>
       </c>
       <c r="G85" s="33" t="str">
-        <f>IF(H85&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H85" s="34">
@@ -8262,7 +8256,7 @@
         <v>2022-12-28</v>
       </c>
       <c r="G86" s="33" t="str">
-        <f>IF(H86&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H86" s="34">
@@ -8291,7 +8285,7 @@
         <v>2022-12-29</v>
       </c>
       <c r="G87" s="33" t="str">
-        <f>IF(H87&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H87" s="34">
@@ -8320,7 +8314,7 @@
         <v>2023-01-03</v>
       </c>
       <c r="G88" s="33" t="str">
-        <f>IF(H88&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H88" s="34">
@@ -8349,7 +8343,7 @@
         <v>2023-01-04</v>
       </c>
       <c r="G89" s="33" t="str">
-        <f>IF(H89&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H89" s="34">
@@ -8378,7 +8372,7 @@
         <v>2023-01-10</v>
       </c>
       <c r="G90" s="33" t="str">
-        <f>IF(H90&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H90" s="34">
@@ -8407,7 +8401,7 @@
         <v>2023-01-16</v>
       </c>
       <c r="G91" s="33" t="str">
-        <f>IF(H91&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H91" s="34">
@@ -8436,7 +8430,7 @@
         <v>2023-01-16</v>
       </c>
       <c r="G92" s="33" t="str">
-        <f>IF(H92&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H92" s="34">
@@ -8465,7 +8459,7 @@
         <v>2023-01-16</v>
       </c>
       <c r="G93" s="33" t="str">
-        <f>IF(H93&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H93" s="34">
@@ -8494,7 +8488,7 @@
         <v>2023-01-17</v>
       </c>
       <c r="G94" s="33" t="str">
-        <f>IF(H94&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H94" s="34">
@@ -8523,7 +8517,7 @@
         <v>2023-01-24</v>
       </c>
       <c r="G95" s="33" t="str">
-        <f>IF(H95&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H95" s="34">
@@ -8552,7 +8546,7 @@
         <v>2023-01-26</v>
       </c>
       <c r="G96" s="33" t="str">
-        <f>IF(H96&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H96" s="34">
@@ -8581,7 +8575,7 @@
         <v>2023-01-27</v>
       </c>
       <c r="G97" s="33" t="str">
-        <f>IF(H97&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v>•</v>
       </c>
       <c r="H97" s="34">
@@ -8610,7 +8604,7 @@
         <v>2023-02-13</v>
       </c>
       <c r="G98" s="33" t="str">
-        <f>IF(H98&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H98" s="34">
@@ -8639,7 +8633,7 @@
         <v>2023-02-27</v>
       </c>
       <c r="G99" s="33" t="str">
-        <f>IF(H99&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H99" s="34">
@@ -8668,7 +8662,7 @@
         <v>2023-07-20</v>
       </c>
       <c r="G100" s="33" t="str">
-        <f>IF(H100&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H100" s="34">
@@ -8697,7 +8691,7 @@
         <v>2023-08-14</v>
       </c>
       <c r="G101" s="33" t="str">
-        <f>IF(H101&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H101" s="34">
@@ -8726,7 +8720,7 @@
         <v>2023-08-15</v>
       </c>
       <c r="G102" s="33" t="str">
-        <f>IF(H102&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H102" s="34">
@@ -8755,7 +8749,7 @@
         <v>2023-08-24</v>
       </c>
       <c r="G103" s="33" t="str">
-        <f>IF(H103&gt;0,"•","")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H103" s="34">
@@ -8794,7 +8788,7 @@
         <v>2022-11-16</v>
       </c>
       <c r="G105" s="33" t="str">
-        <f>IF(H105&gt;0,"•","")</f>
+        <f t="shared" ref="G105:G113" si="3">IF(H105&gt;0,"•","")</f>
         <v>•</v>
       </c>
       <c r="H105" s="34">
@@ -8823,7 +8817,7 @@
         <v>2022-11-21</v>
       </c>
       <c r="G106" s="33" t="str">
-        <f>IF(H106&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v>•</v>
       </c>
       <c r="H106" s="34">
@@ -8852,7 +8846,7 @@
         <v>2022-11-23</v>
       </c>
       <c r="G107" s="33" t="str">
-        <f>IF(H107&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H107" s="34">
@@ -8881,7 +8875,7 @@
         <v>2022-11-30</v>
       </c>
       <c r="G108" s="33" t="str">
-        <f>IF(H108&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H108" s="34">
@@ -8910,7 +8904,7 @@
         <v>2022-12-01</v>
       </c>
       <c r="G109" s="33" t="str">
-        <f>IF(H109&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H109" s="34">
@@ -8939,7 +8933,7 @@
         <v>2022-12-01</v>
       </c>
       <c r="G110" s="33" t="str">
-        <f>IF(H110&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H110" s="34">
@@ -8968,7 +8962,7 @@
         <v>2022-12-02</v>
       </c>
       <c r="G111" s="33" t="str">
-        <f>IF(H111&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H111" s="34">
@@ -8997,7 +8991,7 @@
         <v>2022-12-06</v>
       </c>
       <c r="G112" s="33" t="str">
-        <f>IF(H112&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H112" s="34">
@@ -9026,7 +9020,7 @@
         <v>2022-12-14</v>
       </c>
       <c r="G113" s="33" t="str">
-        <f>IF(H113&gt;0,"•","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H113" s="34">
@@ -9078,8 +9072,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <sortState ref="A105:J113">
-    <sortCondition ref="B105:B113"/>
+  <sortState ref="A60:E103">
+    <sortCondition ref="B60:B103"/>
   </sortState>
   <conditionalFormatting sqref="B3">
     <cfRule type="iconSet" priority="31">

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -671,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,6 +771,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -904,16 +907,16 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>254</v>
+            <v>134</v>
           </cell>
           <cell r="D2">
             <v>81632</v>
           </cell>
           <cell r="E2">
-            <v>74</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
+            <v>199</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>2023-05-09</v>
           </cell>
         </row>
         <row r="3">
@@ -1970,7 +1973,7 @@
             <v>9750</v>
           </cell>
           <cell r="E55">
-            <v>104</v>
+            <v>1365</v>
           </cell>
           <cell r="F55">
             <v>0</v>
@@ -5850,7 +5853,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,7 +5894,7 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5899,7 +5902,7 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -5907,11 +5910,11 @@
       </c>
       <c r="D3" s="3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>74</v>
-      </c>
-      <c r="E3" s="29">
+        <v>199</v>
+      </c>
+      <c r="E3" s="29" t="str">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>0</v>
+        <v>2023-05-09</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -7427,7 +7430,7 @@
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>104</v>
+        <v>1365</v>
       </c>
       <c r="E57" s="29">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,7 +907,7 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>134</v>
+            <v>133</v>
           </cell>
           <cell r="D2">
             <v>81632</v>
@@ -927,10 +927,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>9</v>
+            <v>8</v>
           </cell>
           <cell r="D3">
-            <v>17570</v>
+            <v>15792</v>
           </cell>
           <cell r="E3">
             <v>45</v>
@@ -941,16 +941,16 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B4" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="D4">
-            <v>3181</v>
+            <v>13005</v>
           </cell>
           <cell r="E4">
             <v>37</v>
@@ -961,22 +961,22 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C5">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="D5">
-            <v>13635</v>
+            <v>10789</v>
           </cell>
           <cell r="E5">
-            <v>37</v>
+            <v>32</v>
           </cell>
           <cell r="F5" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="6">
@@ -990,18 +990,18 @@
             <v>18</v>
           </cell>
           <cell r="D6">
-            <v>64575</v>
+            <v>62559</v>
           </cell>
           <cell r="E6">
             <v>30</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-11-28</v>
+            <v>2022-11-29</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
@@ -1010,30 +1010,30 @@
             <v>18</v>
           </cell>
           <cell r="D7">
-            <v>11335</v>
+            <v>33866</v>
           </cell>
           <cell r="E7">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="F7" t="str">
-            <v>2022-11-28</v>
+            <v>2022-11-29</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C8">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D8">
-            <v>36512</v>
+            <v>16799</v>
           </cell>
           <cell r="E8">
-            <v>29</v>
+            <v>33</v>
           </cell>
           <cell r="F8" t="str">
             <v>2022-11-29</v>
@@ -1041,7 +1041,7 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
@@ -1050,13 +1050,13 @@
             <v>19</v>
           </cell>
           <cell r="D9">
-            <v>17849</v>
+            <v>15033</v>
           </cell>
           <cell r="E9">
-            <v>33</v>
+            <v>31</v>
           </cell>
           <cell r="F9" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="10">
@@ -1067,10 +1067,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C10">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D10">
-            <v>22948</v>
+            <v>21800</v>
           </cell>
           <cell r="E10">
             <v>44</v>
@@ -1081,19 +1081,19 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D11">
-            <v>25485</v>
+            <v>14819</v>
           </cell>
           <cell r="E11">
-            <v>92</v>
+            <v>31</v>
           </cell>
           <cell r="F11" t="str">
             <v>2022-11-30</v>
@@ -1101,27 +1101,27 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C12">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D12">
-            <v>16489</v>
+            <v>24211</v>
           </cell>
           <cell r="E12">
-            <v>31</v>
+            <v>92</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2022-12-01</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
@@ -1130,18 +1130,18 @@
             <v>21</v>
           </cell>
           <cell r="D13">
-            <v>16163</v>
+            <v>9339</v>
           </cell>
           <cell r="E13">
-            <v>31</v>
+            <v>35</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
@@ -1150,13 +1150,13 @@
             <v>21</v>
           </cell>
           <cell r="D14">
-            <v>2674</v>
+            <v>4826</v>
           </cell>
           <cell r="E14">
-            <v>51</v>
+            <v>59</v>
           </cell>
           <cell r="F14" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="15">
@@ -1167,10 +1167,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D15">
-            <v>16792</v>
+            <v>16008</v>
           </cell>
           <cell r="E15">
             <v>48</v>
@@ -1181,59 +1181,59 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C16">
-            <v>23</v>
+            <v>21</v>
           </cell>
           <cell r="D16">
-            <v>10179</v>
+            <v>2660</v>
           </cell>
           <cell r="E16">
-            <v>35</v>
+            <v>51</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C17">
-            <v>23</v>
+            <v>21</v>
           </cell>
           <cell r="D17">
-            <v>5204</v>
+            <v>8991</v>
           </cell>
           <cell r="E17">
-            <v>59</v>
+            <v>32</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B18" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C18">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D18">
-            <v>15489</v>
+            <v>23942</v>
           </cell>
           <cell r="E18">
-            <v>43</v>
+            <v>30</v>
           </cell>
           <cell r="F18" t="str">
             <v>2022-12-05</v>
@@ -1241,19 +1241,19 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Лен семена 100г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D19">
-            <v>77829</v>
+            <v>69482</v>
           </cell>
           <cell r="E19">
-            <v>39</v>
+            <v>30</v>
           </cell>
           <cell r="F19" t="str">
             <v>2022-12-05</v>
@@ -1261,7 +1261,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
@@ -1270,30 +1270,30 @@
             <v>23</v>
           </cell>
           <cell r="D20">
-            <v>73724</v>
+            <v>15083</v>
           </cell>
           <cell r="E20">
-            <v>30</v>
+            <v>43</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C21">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D21">
-            <v>25370</v>
+            <v>22734</v>
           </cell>
           <cell r="E21">
-            <v>30</v>
+            <v>35</v>
           </cell>
           <cell r="F21" t="str">
             <v>2022-12-06</v>
@@ -1301,19 +1301,19 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C22">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D22">
-            <v>13916</v>
+            <v>75169</v>
           </cell>
           <cell r="E22">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="F22" t="str">
             <v>2022-12-06</v>
@@ -1321,19 +1321,19 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C23">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D23">
-            <v>10447</v>
+            <v>13384</v>
           </cell>
           <cell r="E23">
-            <v>32</v>
+            <v>40</v>
           </cell>
           <cell r="F23" t="str">
             <v>2022-12-06</v>
@@ -1341,59 +1341,59 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C24">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D24">
-            <v>24022</v>
+            <v>28830</v>
           </cell>
           <cell r="E24">
-            <v>35</v>
+            <v>40</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D25">
-            <v>38216</v>
+            <v>15230</v>
           </cell>
           <cell r="E25">
-            <v>112</v>
+            <v>31</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C26">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D26">
-            <v>31238</v>
+            <v>25218</v>
           </cell>
           <cell r="E26">
-            <v>40</v>
+            <v>33</v>
           </cell>
           <cell r="F26" t="str">
             <v>2022-12-07</v>
@@ -1401,19 +1401,19 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C27">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D27">
-            <v>16336</v>
+            <v>23025</v>
           </cell>
           <cell r="E27">
-            <v>31</v>
+            <v>43</v>
           </cell>
           <cell r="F27" t="str">
             <v>2022-12-07</v>
@@ -1421,39 +1421,39 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C28">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D28">
-            <v>26268</v>
+            <v>37026</v>
           </cell>
           <cell r="E28">
-            <v>33</v>
+            <v>112</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D29">
-            <v>24537</v>
+            <v>11116</v>
           </cell>
           <cell r="E29">
-            <v>43</v>
+            <v>51</v>
           </cell>
           <cell r="F29" t="str">
             <v>2022-12-08</v>
@@ -1461,19 +1461,19 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D30">
-            <v>11424</v>
+            <v>98343</v>
           </cell>
           <cell r="E30">
-            <v>51</v>
+            <v>32</v>
           </cell>
           <cell r="F30" t="str">
             <v>2022-12-08</v>
@@ -1487,10 +1487,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D31">
-            <v>44640</v>
+            <v>43534</v>
           </cell>
           <cell r="E31">
             <v>37</v>
@@ -1507,10 +1507,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C32">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D32">
-            <v>21163</v>
+            <v>20211</v>
           </cell>
           <cell r="E32">
             <v>32</v>
@@ -1521,19 +1521,19 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C33">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D33">
-            <v>106743</v>
+            <v>26353</v>
           </cell>
           <cell r="E33">
-            <v>32</v>
+            <v>46</v>
           </cell>
           <cell r="F33" t="str">
             <v>2022-12-09</v>
@@ -1541,7 +1541,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
@@ -1550,18 +1550,18 @@
             <v>27</v>
           </cell>
           <cell r="D34">
-            <v>27907</v>
+            <v>25955</v>
           </cell>
           <cell r="E34">
-            <v>46</v>
+            <v>43</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
@@ -1570,13 +1570,13 @@
             <v>28</v>
           </cell>
           <cell r="D35">
-            <v>27215</v>
+            <v>6511</v>
           </cell>
           <cell r="E35">
-            <v>43</v>
+            <v>37</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="36">
@@ -1590,13 +1590,13 @@
             <v>28</v>
           </cell>
           <cell r="D36">
-            <v>12529</v>
+            <v>12207</v>
           </cell>
           <cell r="E36">
             <v>30</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="37">
@@ -1607,10 +1607,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C37">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="D37">
-            <v>24165</v>
+            <v>23367</v>
           </cell>
           <cell r="E37">
             <v>43</v>
@@ -1621,19 +1621,19 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C38">
-            <v>30</v>
+            <v>29</v>
           </cell>
           <cell r="D38">
-            <v>15042</v>
+            <v>19859</v>
           </cell>
           <cell r="E38">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F38" t="str">
             <v>2022-12-14</v>
@@ -1641,42 +1641,42 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Береза почки 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C39">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="D39">
-            <v>21259</v>
+            <v>32721</v>
           </cell>
           <cell r="E39">
-            <v>43</v>
+            <v>39</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="D40">
-            <v>34499</v>
+            <v>14300</v>
           </cell>
           <cell r="E40">
-            <v>39</v>
+            <v>35</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="41">
@@ -1687,16 +1687,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C41">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="D41">
-            <v>21278</v>
+            <v>20382</v>
           </cell>
           <cell r="E41" t="str">
             <v>inf</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="42">
@@ -1707,16 +1707,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C42">
-            <v>33</v>
+            <v>31</v>
           </cell>
           <cell r="D42">
-            <v>26045</v>
+            <v>25093</v>
           </cell>
           <cell r="E42">
             <v>38</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="43">
@@ -1727,10 +1727,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
-            <v>35</v>
+            <v>34</v>
           </cell>
           <cell r="D43">
-            <v>55109</v>
+            <v>53513</v>
           </cell>
           <cell r="E43">
             <v>31</v>
@@ -1747,10 +1747,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
-            <v>35</v>
+            <v>34</v>
           </cell>
           <cell r="D44">
-            <v>24777</v>
+            <v>23783</v>
           </cell>
           <cell r="E44">
             <v>35</v>
@@ -1767,41 +1767,41 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>37</v>
+            <v>35</v>
           </cell>
           <cell r="D45">
-            <v>21094</v>
+            <v>19918</v>
           </cell>
           <cell r="E45">
             <v>41</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>38</v>
+            <v>35</v>
           </cell>
           <cell r="D46">
-            <v>12902</v>
+            <v>16019</v>
           </cell>
           <cell r="E46">
-            <v>76</v>
+            <v>33</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Череда трава 50г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="B47" t="str">
             <v>Линия ББЛ</v>
@@ -1810,13 +1810,13 @@
             <v>38</v>
           </cell>
           <cell r="D47">
-            <v>17517</v>
+            <v>12720</v>
           </cell>
           <cell r="E47">
-            <v>33</v>
+            <v>76</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="48">
@@ -1830,13 +1830,13 @@
             <v>47</v>
           </cell>
           <cell r="D48">
-            <v>9379</v>
+            <v>9281</v>
           </cell>
           <cell r="E48">
             <v>72</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-06</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="49">
@@ -1847,10 +1847,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="D49">
-            <v>2738</v>
+            <v>2538</v>
           </cell>
           <cell r="E49">
             <v>115</v>
@@ -1870,13 +1870,13 @@
             <v>17</v>
           </cell>
           <cell r="D50">
-            <v>13549</v>
+            <v>13229</v>
           </cell>
           <cell r="E50">
             <v>41</v>
           </cell>
           <cell r="F50" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="51">
@@ -1887,10 +1887,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D51">
-            <v>4481</v>
+            <v>4331</v>
           </cell>
           <cell r="E51">
             <v>110</v>
@@ -1910,13 +1910,13 @@
             <v>30</v>
           </cell>
           <cell r="D52">
-            <v>7638</v>
+            <v>7408</v>
           </cell>
           <cell r="E52">
             <v>84</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="53">
@@ -1927,10 +1927,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>60</v>
+            <v>59</v>
           </cell>
           <cell r="D53">
-            <v>4700</v>
+            <v>4610</v>
           </cell>
           <cell r="E53">
             <v>102</v>
@@ -1947,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>254</v>
+            <v>253</v>
           </cell>
           <cell r="D54">
-            <v>8260</v>
+            <v>8250</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1967,10 +1967,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>254</v>
+            <v>253</v>
           </cell>
           <cell r="D55">
-            <v>9750</v>
+            <v>9720</v>
           </cell>
           <cell r="E55">
             <v>1365</v>
@@ -1990,7 +1990,7 @@
             <v>3</v>
           </cell>
           <cell r="D56">
-            <v>2592</v>
+            <v>2502</v>
           </cell>
           <cell r="E56">
             <v>257</v>
@@ -2007,10 +2007,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D57">
-            <v>1098</v>
+            <v>1062</v>
           </cell>
           <cell r="E57">
             <v>286</v>
@@ -2027,10 +2027,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D58">
-            <v>1890</v>
+            <v>1854</v>
           </cell>
           <cell r="E58">
             <v>50</v>
@@ -2041,19 +2041,19 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B59" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D59">
-            <v>3820</v>
+            <v>58559</v>
           </cell>
           <cell r="E59">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F59" t="str">
             <v>2022-12-02</v>
@@ -2061,7 +2061,7 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
@@ -2070,33 +2070,33 @@
             <v>22</v>
           </cell>
           <cell r="D60">
-            <v>28965</v>
+            <v>3784</v>
           </cell>
           <cell r="E60">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F60" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>22</v>
+            <v>25</v>
           </cell>
           <cell r="D61">
-            <v>62519</v>
+            <v>172263</v>
           </cell>
           <cell r="E61">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F61" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="62">
@@ -2110,18 +2110,18 @@
             <v>25</v>
           </cell>
           <cell r="D62">
-            <v>113244</v>
+            <v>112794</v>
           </cell>
           <cell r="E62">
             <v>52</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
@@ -2130,13 +2130,13 @@
             <v>26</v>
           </cell>
           <cell r="D63">
-            <v>177231</v>
+            <v>44649</v>
           </cell>
           <cell r="E63">
-            <v>28</v>
+            <v>30</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="64">
@@ -2156,52 +2156,52 @@
             <v>96</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>27</v>
+            <v>28</v>
           </cell>
           <cell r="D65">
-            <v>45657</v>
+            <v>6402</v>
           </cell>
           <cell r="E65">
-            <v>30</v>
+            <v>34</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>28</v>
+            <v>29</v>
           </cell>
           <cell r="D66">
-            <v>56215</v>
+            <v>171139</v>
           </cell>
           <cell r="E66">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
@@ -2210,238 +2210,238 @@
             <v>30</v>
           </cell>
           <cell r="D67">
-            <v>6888</v>
+            <v>32328</v>
           </cell>
           <cell r="E67">
-            <v>34</v>
+            <v>25</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
+            <v>31</v>
+          </cell>
+          <cell r="D68">
+            <v>38989</v>
+          </cell>
+          <cell r="E68">
             <v>30</v>
           </cell>
-          <cell r="D68">
-            <v>26425</v>
-          </cell>
-          <cell r="E68">
-            <v>37</v>
-          </cell>
           <cell r="F68" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="D69">
-            <v>173371</v>
+            <v>23043</v>
           </cell>
           <cell r="E69">
             <v>32</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="D70">
-            <v>32922</v>
+            <v>20620</v>
           </cell>
           <cell r="E70">
-            <v>25</v>
+            <v>28</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>31</v>
+            <v>33</v>
           </cell>
           <cell r="D71">
-            <v>53453</v>
+            <v>72654</v>
           </cell>
           <cell r="E71">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
+            <v>34</v>
+          </cell>
+          <cell r="D72">
+            <v>48311</v>
+          </cell>
+          <cell r="E72">
             <v>32</v>
           </cell>
-          <cell r="D72">
-            <v>40843</v>
-          </cell>
-          <cell r="E72">
-            <v>30</v>
-          </cell>
           <cell r="F72" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>32</v>
+            <v>34</v>
           </cell>
           <cell r="D73">
-            <v>23745</v>
+            <v>92049</v>
           </cell>
           <cell r="E73">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>33</v>
+            <v>37</v>
           </cell>
           <cell r="D74">
-            <v>21304</v>
+            <v>65032</v>
           </cell>
           <cell r="E74">
-            <v>28</v>
+            <v>61</v>
           </cell>
           <cell r="F74" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>34</v>
+            <v>37</v>
           </cell>
           <cell r="D75">
-            <v>75300</v>
+            <v>79425</v>
           </cell>
           <cell r="E75">
-            <v>28</v>
+            <v>32</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="B76" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C76">
-            <v>35</v>
+            <v>37</v>
           </cell>
           <cell r="D76">
-            <v>95397</v>
+            <v>59609</v>
           </cell>
           <cell r="E76">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B77" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>37</v>
+            <v>38</v>
           </cell>
           <cell r="D77">
-            <v>65698</v>
+            <v>91259</v>
           </cell>
           <cell r="E77">
-            <v>61</v>
+            <v>29</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>37</v>
+            <v>38</v>
           </cell>
           <cell r="D78">
-            <v>60887</v>
+            <v>1412417</v>
           </cell>
           <cell r="E78">
-            <v>43</v>
+            <v>31</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
@@ -2450,153 +2450,153 @@
             <v>39</v>
           </cell>
           <cell r="D79">
-            <v>94139</v>
+            <v>51837</v>
           </cell>
           <cell r="E79">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>39</v>
+            <v>41</v>
           </cell>
           <cell r="D80">
-            <v>1427339</v>
+            <v>43574</v>
           </cell>
           <cell r="E80">
-            <v>31</v>
+            <v>53</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>39</v>
+            <v>44</v>
           </cell>
           <cell r="D81">
-            <v>83511</v>
+            <v>7378</v>
           </cell>
           <cell r="E81">
-            <v>32</v>
+            <v>38</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2022-12-27</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B82" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>40</v>
+            <v>46</v>
           </cell>
           <cell r="D82">
-            <v>53367</v>
+            <v>35425</v>
           </cell>
           <cell r="E82">
-            <v>32</v>
+            <v>37</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2022-12-28</v>
+            <v>2023-01-06</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>41</v>
+            <v>48</v>
           </cell>
           <cell r="D83">
-            <v>44384</v>
+            <v>64537</v>
           </cell>
           <cell r="E83">
-            <v>53</v>
+            <v>30</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>44</v>
+            <v>49</v>
           </cell>
           <cell r="D84">
-            <v>7432</v>
+            <v>89152</v>
           </cell>
           <cell r="E84">
-            <v>38</v>
+            <v>29</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2023-01-03</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>45</v>
+            <v>50</v>
           </cell>
           <cell r="D85">
-            <v>76029</v>
+            <v>37878</v>
           </cell>
           <cell r="E85">
-            <v>44</v>
+            <v>29</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2023-01-04</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>49</v>
+            <v>51</v>
           </cell>
           <cell r="D86">
-            <v>65689</v>
+            <v>18260</v>
           </cell>
           <cell r="E86">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="87">
@@ -2607,16 +2607,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>53</v>
+            <v>51</v>
           </cell>
           <cell r="D87">
-            <v>7099</v>
+            <v>6901</v>
           </cell>
           <cell r="E87">
             <v>39</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="88">
@@ -2627,21 +2627,21 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>53</v>
+            <v>51</v>
           </cell>
           <cell r="D88">
-            <v>41920</v>
+            <v>40786</v>
           </cell>
           <cell r="E88">
             <v>26</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
@@ -2650,38 +2650,38 @@
             <v>53</v>
           </cell>
           <cell r="D89">
-            <v>39516</v>
+            <v>81928</v>
           </cell>
           <cell r="E89">
             <v>29</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="B90" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>54</v>
+            <v>57</v>
           </cell>
           <cell r="D90">
-            <v>19196</v>
+            <v>37962</v>
           </cell>
           <cell r="E90">
-            <v>37</v>
+            <v>36</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-17</v>
+            <v>2023-01-23</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
@@ -2690,13 +2690,13 @@
             <v>59</v>
           </cell>
           <cell r="D91">
-            <v>39222</v>
+            <v>47682</v>
           </cell>
           <cell r="E91">
-            <v>36</v>
+            <v>28</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-24</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="92">
@@ -2707,10 +2707,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C92">
-            <v>61</v>
+            <v>60</v>
           </cell>
           <cell r="D92">
-            <v>7240</v>
+            <v>7006</v>
           </cell>
           <cell r="E92">
             <v>37</v>
@@ -2721,22 +2721,22 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B93" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>62</v>
+            <v>60</v>
           </cell>
           <cell r="D93">
-            <v>50130</v>
+            <v>94227</v>
           </cell>
           <cell r="E93">
-            <v>28</v>
+            <v>44</v>
           </cell>
           <cell r="F93" t="str">
-            <v>2023-01-27</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="94">
@@ -2747,10 +2747,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>73</v>
+            <v>72</v>
           </cell>
           <cell r="D94">
-            <v>6664</v>
+            <v>6520</v>
           </cell>
           <cell r="E94">
             <v>48</v>
@@ -2767,16 +2767,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>83</v>
+            <v>81</v>
           </cell>
           <cell r="D95">
-            <v>1854</v>
+            <v>1818</v>
           </cell>
           <cell r="E95">
             <v>38</v>
           </cell>
           <cell r="F95" t="str">
-            <v>2023-02-27</v>
+            <v>2023-02-24</v>
           </cell>
         </row>
         <row r="96">
@@ -2787,10 +2787,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>186</v>
+            <v>185</v>
           </cell>
           <cell r="D96">
-            <v>6577</v>
+            <v>6523</v>
           </cell>
           <cell r="E96" t="str">
             <v>inf</v>
@@ -2801,13 +2801,13 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="B97" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="D97">
             <v>1134</v>
@@ -2821,22 +2821,22 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="B98" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>204</v>
+            <v>202</v>
           </cell>
           <cell r="D98">
-            <v>1170</v>
+            <v>1098</v>
           </cell>
           <cell r="E98">
             <v>100</v>
           </cell>
           <cell r="F98" t="str">
-            <v>2023-08-15</v>
+            <v>2023-08-14</v>
           </cell>
         </row>
         <row r="99">
@@ -2847,16 +2847,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>211</v>
+            <v>209</v>
           </cell>
           <cell r="D99">
-            <v>1512</v>
+            <v>1476</v>
           </cell>
           <cell r="E99">
             <v>100</v>
           </cell>
           <cell r="F99" t="str">
-            <v>2023-08-24</v>
+            <v>2023-08-23</v>
           </cell>
         </row>
         <row r="100">
@@ -2867,10 +2867,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="D100">
-            <v>21720</v>
+            <v>19632</v>
           </cell>
           <cell r="E100">
             <v>37</v>
@@ -2887,10 +2887,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="D101">
-            <v>4390</v>
+            <v>4084</v>
           </cell>
           <cell r="E101">
             <v>30</v>
@@ -2907,10 +2907,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="D102">
-            <v>54222</v>
+            <v>51288</v>
           </cell>
           <cell r="E102">
             <v>31</v>
@@ -2927,10 +2927,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C103">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D103">
-            <v>19455</v>
+            <v>17979</v>
           </cell>
           <cell r="E103">
             <v>30</v>
@@ -2941,27 +2941,27 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C104">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D104">
-            <v>15882</v>
+            <v>3718</v>
           </cell>
           <cell r="E104">
-            <v>41</v>
+            <v>34</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-12-01</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B105" t="str">
             <v>Линия Консумаш</v>
@@ -2970,13 +2970,13 @@
             <v>21</v>
           </cell>
           <cell r="D105">
-            <v>4240</v>
+            <v>15090</v>
           </cell>
           <cell r="E105">
-            <v>34</v>
+            <v>41</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="106">
@@ -2987,10 +2987,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D106">
-            <v>23758</v>
+            <v>22156</v>
           </cell>
           <cell r="E106">
             <v>30</v>
@@ -3007,10 +3007,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D107">
-            <v>13635</v>
+            <v>12969</v>
           </cell>
           <cell r="E107">
             <v>32</v>
@@ -3030,13 +3030,13 @@
             <v>30</v>
           </cell>
           <cell r="D108">
-            <v>2905</v>
+            <v>2869</v>
           </cell>
           <cell r="E108">
             <v>51</v>
           </cell>
           <cell r="F108" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
       </sheetData>
@@ -3061,7 +3061,7 @@
             <v>13</v>
           </cell>
           <cell r="D8">
-            <v>74</v>
+            <v>73</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
@@ -3073,7 +3073,7 @@
             <v>81632</v>
           </cell>
           <cell r="K8">
-            <v>204</v>
+            <v>203</v>
           </cell>
         </row>
         <row r="9">
@@ -3086,22 +3086,22 @@
             <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C10">
-            <v>853</v>
+            <v>879</v>
           </cell>
           <cell r="D10">
-            <v>114</v>
+            <v>116</v>
           </cell>
           <cell r="H10">
-            <v>17570</v>
+            <v>15792</v>
           </cell>
           <cell r="I10">
-            <v>17570</v>
+            <v>15792</v>
           </cell>
           <cell r="K10">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="L10">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M10">
             <v>33057</v>
@@ -3112,22 +3112,22 @@
             <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C11">
-            <v>298</v>
+            <v>302</v>
           </cell>
           <cell r="D11">
             <v>93</v>
           </cell>
           <cell r="H11">
-            <v>11335</v>
+            <v>10789</v>
           </cell>
           <cell r="I11">
-            <v>11335</v>
+            <v>10789</v>
           </cell>
           <cell r="K11">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="L11">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="M11">
             <v>15267</v>
@@ -3135,247 +3135,241 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="C12">
-            <v>116</v>
+            <v>706</v>
           </cell>
           <cell r="D12">
-            <v>91</v>
+            <v>70</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H12">
-            <v>3181</v>
+            <v>28830</v>
           </cell>
           <cell r="I12">
-            <v>3181</v>
+            <v>28830</v>
           </cell>
           <cell r="K12">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="L12">
-            <v>20</v>
+            <v>13</v>
           </cell>
           <cell r="M12">
-            <v>3827</v>
+            <v>25445</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C13">
-            <v>665</v>
+            <v>457</v>
           </cell>
           <cell r="D13">
-            <v>66</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>↓</v>
+            <v>98</v>
           </cell>
           <cell r="H13">
-            <v>31238</v>
+            <v>14819</v>
           </cell>
           <cell r="I13">
-            <v>31238</v>
+            <v>14819</v>
           </cell>
           <cell r="K13">
-            <v>23</v>
-          </cell>
-          <cell r="L13">
-            <v>14</v>
-          </cell>
-          <cell r="M13">
-            <v>25445</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C14">
-            <v>424</v>
+            <v>1263</v>
           </cell>
           <cell r="D14">
-            <v>94</v>
+            <v>91</v>
           </cell>
           <cell r="H14">
-            <v>13635</v>
+            <v>33866</v>
           </cell>
           <cell r="I14">
-            <v>13635</v>
+            <v>33866</v>
           </cell>
           <cell r="K14">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C15">
-            <v>609</v>
+            <v>662</v>
           </cell>
           <cell r="D15">
-            <v>95</v>
+            <v>90</v>
           </cell>
           <cell r="H15">
-            <v>17849</v>
+            <v>21800</v>
           </cell>
           <cell r="I15">
-            <v>17849</v>
+            <v>21800</v>
           </cell>
           <cell r="K15">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="L15">
-            <v>20</v>
+            <v>13</v>
           </cell>
           <cell r="M15">
-            <v>21828</v>
+            <v>13875</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C16">
-            <v>646</v>
+            <v>428</v>
           </cell>
           <cell r="D16">
-            <v>89</v>
+            <v>95</v>
           </cell>
           <cell r="H16">
-            <v>22948</v>
+            <v>13005</v>
           </cell>
           <cell r="I16">
-            <v>22948</v>
+            <v>13005</v>
           </cell>
           <cell r="K16">
-            <v>23</v>
-          </cell>
-          <cell r="L16">
-            <v>14</v>
-          </cell>
-          <cell r="M16">
-            <v>13875</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C17">
-            <v>630</v>
+            <v>617</v>
           </cell>
           <cell r="D17">
-            <v>84</v>
+            <v>96</v>
           </cell>
           <cell r="H17">
-            <v>25485</v>
+            <v>16799</v>
           </cell>
           <cell r="I17">
-            <v>25485</v>
+            <v>16799</v>
           </cell>
           <cell r="K17">
-            <v>24</v>
+            <v>22</v>
+          </cell>
+          <cell r="L17">
+            <v>19</v>
+          </cell>
+          <cell r="M17">
+            <v>21828</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C18">
-            <v>449</v>
+            <v>79</v>
           </cell>
           <cell r="D18">
-            <v>97</v>
+            <v>61</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H18">
-            <v>16163</v>
+            <v>4826</v>
           </cell>
           <cell r="I18">
-            <v>16163</v>
+            <v>4826</v>
           </cell>
           <cell r="K18">
-            <v>24</v>
+            <v>23</v>
+          </cell>
+          <cell r="L18">
+            <v>20</v>
+          </cell>
+          <cell r="M18">
+            <v>5909</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C19">
-            <v>1253</v>
+            <v>641</v>
           </cell>
           <cell r="D19">
-            <v>91</v>
+            <v>84</v>
           </cell>
           <cell r="H19">
-            <v>36512</v>
+            <v>24211</v>
           </cell>
           <cell r="I19">
-            <v>36512</v>
+            <v>24211</v>
           </cell>
           <cell r="K19">
-            <v>24</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C20">
-            <v>75</v>
+            <v>415</v>
           </cell>
           <cell r="D20">
-            <v>59</v>
+            <v>79</v>
           </cell>
           <cell r="E20" t="str">
             <v>↓</v>
           </cell>
+          <cell r="F20">
+            <v>938</v>
+          </cell>
+          <cell r="G20">
+            <v>2</v>
+          </cell>
           <cell r="H20">
-            <v>5204</v>
+            <v>16008</v>
           </cell>
           <cell r="I20">
-            <v>5204</v>
+            <v>16008</v>
           </cell>
           <cell r="K20">
-            <v>25</v>
-          </cell>
-          <cell r="L20">
-            <v>21</v>
-          </cell>
-          <cell r="M20">
-            <v>5909</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C21">
-            <v>405</v>
+            <v>355</v>
           </cell>
           <cell r="D21">
-            <v>77</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="F21">
-            <v>938</v>
-          </cell>
-          <cell r="G21">
-            <v>2</v>
+            <v>95</v>
           </cell>
           <cell r="H21">
-            <v>16792</v>
+            <v>15033</v>
           </cell>
           <cell r="I21">
-            <v>16792</v>
+            <v>15033</v>
           </cell>
           <cell r="K21">
-            <v>25</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="22">
@@ -3383,19 +3377,19 @@
             <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C22">
-            <v>550</v>
+            <v>574</v>
           </cell>
           <cell r="D22">
-            <v>89</v>
+            <v>92</v>
           </cell>
           <cell r="H22">
-            <v>25370</v>
+            <v>23942</v>
           </cell>
           <cell r="I22">
-            <v>25370</v>
+            <v>23942</v>
           </cell>
           <cell r="K22">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="23">
@@ -3403,10 +3397,10 @@
             <v>Дуба кора 75г</v>
           </cell>
           <cell r="C23">
-            <v>2281</v>
+            <v>2305</v>
           </cell>
           <cell r="D23">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="F23">
             <v>3360</v>
@@ -3415,156 +3409,153 @@
             <v>2</v>
           </cell>
           <cell r="H23">
-            <v>64575</v>
+            <v>62559</v>
           </cell>
           <cell r="I23">
-            <v>64575</v>
+            <v>62559</v>
           </cell>
           <cell r="K23">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C24">
-            <v>937</v>
+            <v>476</v>
           </cell>
           <cell r="D24">
-            <v>80</v>
+            <v>100</v>
           </cell>
           <cell r="H24">
-            <v>38216</v>
+            <v>23025</v>
           </cell>
           <cell r="I24">
-            <v>38216</v>
+            <v>23025</v>
           </cell>
           <cell r="K24">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C25">
-            <v>458</v>
+            <v>626</v>
           </cell>
           <cell r="D25">
-            <v>97</v>
+            <v>80</v>
           </cell>
           <cell r="H25">
-            <v>24537</v>
+            <v>26353</v>
           </cell>
           <cell r="I25">
-            <v>24537</v>
+            <v>26353</v>
           </cell>
           <cell r="K25">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C26">
-            <v>345</v>
+            <v>959</v>
           </cell>
           <cell r="D26">
-            <v>93</v>
+            <v>81</v>
           </cell>
           <cell r="H26">
-            <v>16489</v>
+            <v>37026</v>
           </cell>
           <cell r="I26">
-            <v>16489</v>
+            <v>37026</v>
           </cell>
           <cell r="K26">
-            <v>29</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C27">
-            <v>608</v>
+            <v>571</v>
           </cell>
           <cell r="D27">
-            <v>78</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>↓</v>
+            <v>87</v>
           </cell>
           <cell r="H27">
-            <v>27907</v>
+            <v>25955</v>
           </cell>
           <cell r="I27">
-            <v>27907</v>
+            <v>25955</v>
           </cell>
           <cell r="K27">
-            <v>29</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C28">
-            <v>406</v>
+            <v>3186</v>
           </cell>
           <cell r="D28">
-            <v>93</v>
+            <v>79</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H28">
-            <v>15489</v>
+            <v>98343</v>
           </cell>
           <cell r="I28">
-            <v>15489</v>
+            <v>98343</v>
           </cell>
           <cell r="K28">
-            <v>30</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C29">
-            <v>560</v>
+            <v>409</v>
           </cell>
           <cell r="D29">
-            <v>86</v>
+            <v>93</v>
           </cell>
           <cell r="H29">
-            <v>27215</v>
+            <v>15083</v>
           </cell>
           <cell r="I29">
-            <v>27215</v>
+            <v>15083</v>
           </cell>
           <cell r="K29">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C30">
-            <v>3142</v>
+            <v>263</v>
           </cell>
           <cell r="D30">
-            <v>78</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>↓</v>
+            <v>110</v>
           </cell>
           <cell r="H30">
-            <v>106743</v>
+            <v>8991</v>
           </cell>
           <cell r="I30">
-            <v>106743</v>
+            <v>8991</v>
           </cell>
           <cell r="K30">
             <v>30</v>
@@ -3572,85 +3563,82 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Береза почки 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C31">
-            <v>278</v>
+            <v>2060</v>
           </cell>
           <cell r="D31">
-            <v>79</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>↓</v>
+            <v>106</v>
           </cell>
           <cell r="H31">
-            <v>21259</v>
+            <v>69482</v>
           </cell>
           <cell r="I31">
-            <v>21259</v>
+            <v>30372</v>
           </cell>
           <cell r="K31">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C32">
-            <v>2022</v>
+            <v>412</v>
           </cell>
           <cell r="D32">
-            <v>104</v>
+            <v>83</v>
           </cell>
           <cell r="H32">
-            <v>73724</v>
+            <v>20211</v>
           </cell>
           <cell r="I32">
-            <v>34614</v>
+            <v>20211</v>
           </cell>
           <cell r="K32">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C33">
-            <v>478</v>
+            <v>292</v>
           </cell>
           <cell r="D33">
-            <v>86</v>
+            <v>81</v>
           </cell>
           <cell r="H33">
-            <v>24165</v>
+            <v>19859</v>
           </cell>
           <cell r="I33">
-            <v>24165</v>
+            <v>19859</v>
           </cell>
           <cell r="K33">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C34">
-            <v>409</v>
+            <v>489</v>
           </cell>
           <cell r="D34">
-            <v>83</v>
+            <v>87</v>
           </cell>
           <cell r="H34">
-            <v>21163</v>
+            <v>23367</v>
           </cell>
           <cell r="I34">
-            <v>21163</v>
+            <v>23367</v>
           </cell>
           <cell r="K34">
-            <v>32</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="35">
@@ -3658,59 +3646,59 @@
             <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C35">
-            <v>398</v>
+            <v>412</v>
           </cell>
           <cell r="D35">
-            <v>102</v>
+            <v>105</v>
           </cell>
           <cell r="H35">
-            <v>16336</v>
+            <v>15230</v>
           </cell>
           <cell r="I35">
-            <v>16336</v>
+            <v>15230</v>
           </cell>
           <cell r="K35">
-            <v>33</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C36">
-            <v>274</v>
+            <v>373</v>
           </cell>
           <cell r="D36">
-            <v>90</v>
+            <v>94</v>
           </cell>
           <cell r="H36">
-            <v>13916</v>
+            <v>22734</v>
           </cell>
           <cell r="I36">
-            <v>13916</v>
+            <v>22734</v>
           </cell>
           <cell r="K36">
-            <v>33</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C37">
-            <v>356</v>
+            <v>281</v>
           </cell>
           <cell r="D37">
             <v>92</v>
           </cell>
           <cell r="H37">
-            <v>24022</v>
+            <v>13384</v>
           </cell>
           <cell r="I37">
-            <v>24022</v>
+            <v>13384</v>
           </cell>
           <cell r="K37">
-            <v>33</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="38">
@@ -3718,39 +3706,39 @@
             <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C38">
-            <v>433</v>
+            <v>430</v>
           </cell>
           <cell r="D38">
-            <v>95</v>
+            <v>94</v>
           </cell>
           <cell r="H38">
-            <v>26268</v>
+            <v>25218</v>
           </cell>
           <cell r="I38">
-            <v>26268</v>
+            <v>25218</v>
           </cell>
           <cell r="K38">
-            <v>33</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C39">
-            <v>245</v>
+            <v>535</v>
           </cell>
           <cell r="D39">
-            <v>102</v>
+            <v>89</v>
           </cell>
           <cell r="H39">
-            <v>10447</v>
+            <v>32721</v>
           </cell>
           <cell r="I39">
-            <v>10447</v>
+            <v>32721</v>
           </cell>
           <cell r="K39">
-            <v>34</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="40">
@@ -3758,19 +3746,19 @@
             <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C40">
-            <v>183</v>
+            <v>189</v>
           </cell>
           <cell r="D40">
-            <v>84</v>
+            <v>86</v>
           </cell>
           <cell r="H40">
-            <v>11424</v>
+            <v>11116</v>
           </cell>
           <cell r="I40">
-            <v>11424</v>
+            <v>11116</v>
           </cell>
           <cell r="K40">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="41">
@@ -3778,39 +3766,39 @@
             <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C41">
-            <v>947</v>
+            <v>966</v>
           </cell>
           <cell r="D41">
-            <v>80</v>
+            <v>81</v>
           </cell>
           <cell r="H41">
-            <v>44640</v>
+            <v>43534</v>
           </cell>
           <cell r="I41">
-            <v>44640</v>
+            <v>43534</v>
           </cell>
           <cell r="K41">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C42">
-            <v>513</v>
+            <v>228</v>
           </cell>
           <cell r="D42">
-            <v>86</v>
+            <v>104</v>
           </cell>
           <cell r="H42">
-            <v>34499</v>
+            <v>9339</v>
           </cell>
           <cell r="I42">
-            <v>34499</v>
+            <v>9339</v>
           </cell>
           <cell r="K42">
-            <v>34</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="43">
@@ -3818,36 +3806,36 @@
             <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C43">
-            <v>292</v>
+            <v>303</v>
           </cell>
           <cell r="D43">
-            <v>82</v>
+            <v>84</v>
           </cell>
           <cell r="H43">
-            <v>21094</v>
+            <v>19918</v>
           </cell>
           <cell r="I43">
-            <v>21094</v>
+            <v>19918</v>
           </cell>
           <cell r="K43">
-            <v>38</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C44">
-            <v>217</v>
+            <v>1098</v>
           </cell>
           <cell r="D44">
-            <v>100</v>
+            <v>83</v>
           </cell>
           <cell r="H44">
-            <v>10179</v>
+            <v>75169</v>
           </cell>
           <cell r="I44">
-            <v>10179</v>
+            <v>75169</v>
           </cell>
           <cell r="K44">
             <v>39</v>
@@ -3855,39 +3843,39 @@
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Лен семена 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C45">
-            <v>1084</v>
+            <v>330</v>
           </cell>
           <cell r="D45">
-            <v>83</v>
+            <v>93</v>
           </cell>
           <cell r="H45">
-            <v>77829</v>
+            <v>16019</v>
           </cell>
           <cell r="I45">
-            <v>77829</v>
+            <v>5718</v>
           </cell>
           <cell r="K45">
-            <v>41</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C46">
-            <v>36</v>
+            <v>222</v>
           </cell>
           <cell r="D46">
-            <v>83</v>
+            <v>104</v>
           </cell>
           <cell r="H46">
-            <v>2674</v>
+            <v>14300</v>
           </cell>
           <cell r="I46">
-            <v>2674</v>
+            <v>14300</v>
           </cell>
           <cell r="K46">
             <v>41</v>
@@ -3895,62 +3883,62 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C47">
-            <v>212</v>
+            <v>36</v>
           </cell>
           <cell r="D47">
-            <v>100</v>
+            <v>82</v>
           </cell>
           <cell r="H47">
-            <v>15042</v>
+            <v>2660</v>
           </cell>
           <cell r="I47">
-            <v>15042</v>
+            <v>2660</v>
           </cell>
           <cell r="K47">
-            <v>43</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Череда трава 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C48">
-            <v>311</v>
+            <v>122</v>
           </cell>
           <cell r="D48">
-            <v>88</v>
+            <v>96</v>
           </cell>
           <cell r="H48">
-            <v>17517</v>
+            <v>6511</v>
           </cell>
           <cell r="I48">
-            <v>7216</v>
+            <v>2719</v>
           </cell>
           <cell r="K48">
-            <v>44</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C49">
-            <v>776</v>
+            <v>266</v>
           </cell>
           <cell r="D49">
-            <v>90</v>
+            <v>107</v>
           </cell>
           <cell r="H49">
-            <v>55109</v>
+            <v>12207</v>
           </cell>
           <cell r="I49">
-            <v>27440</v>
+            <v>1105</v>
           </cell>
           <cell r="K49">
-            <v>47</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="50">
@@ -3958,39 +3946,39 @@
             <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C50">
-            <v>272</v>
+            <v>283</v>
           </cell>
           <cell r="D50">
-            <v>91</v>
+            <v>94</v>
           </cell>
           <cell r="H50">
-            <v>21278</v>
+            <v>20382</v>
           </cell>
           <cell r="I50">
-            <v>10470</v>
+            <v>9574</v>
           </cell>
           <cell r="K50">
-            <v>47</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C51">
-            <v>262</v>
+            <v>799</v>
           </cell>
           <cell r="D51">
-            <v>106</v>
+            <v>92</v>
           </cell>
           <cell r="H51">
-            <v>12529</v>
+            <v>53513</v>
           </cell>
           <cell r="I51">
-            <v>1427</v>
+            <v>25844</v>
           </cell>
           <cell r="K51">
-            <v>47</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="52">
@@ -3998,19 +3986,19 @@
             <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C52">
-            <v>326</v>
+            <v>342</v>
           </cell>
           <cell r="D52">
-            <v>89</v>
+            <v>94</v>
           </cell>
           <cell r="H52">
-            <v>24777</v>
+            <v>23783</v>
           </cell>
           <cell r="I52">
-            <v>9102</v>
+            <v>8108</v>
           </cell>
           <cell r="K52">
-            <v>49</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="53">
@@ -4018,19 +4006,19 @@
             <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C53">
-            <v>143</v>
+            <v>144</v>
           </cell>
           <cell r="D53">
             <v>87</v>
           </cell>
           <cell r="H53">
-            <v>9379</v>
+            <v>9281</v>
           </cell>
           <cell r="I53">
-            <v>9379</v>
+            <v>9281</v>
           </cell>
           <cell r="K53">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="54">
@@ -4038,19 +4026,19 @@
             <v>Крапива листья 50г</v>
           </cell>
           <cell r="C54">
-            <v>292</v>
+            <v>306</v>
           </cell>
           <cell r="D54">
-            <v>93</v>
+            <v>97</v>
           </cell>
           <cell r="H54">
-            <v>26045</v>
+            <v>25093</v>
           </cell>
           <cell r="I54">
-            <v>26045</v>
+            <v>25093</v>
           </cell>
           <cell r="K54">
-            <v>53</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="55">
@@ -4058,7 +4046,7 @@
             <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>173</v>
+            <v>176</v>
           </cell>
           <cell r="D55">
             <v>79</v>
@@ -4073,13 +4061,13 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>12902</v>
+            <v>12720</v>
           </cell>
           <cell r="I55">
-            <v>3864</v>
+            <v>12720</v>
           </cell>
           <cell r="K55">
-            <v>61</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="56">
@@ -4097,19 +4085,19 @@
             <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C58">
-            <v>430</v>
+            <v>423</v>
           </cell>
           <cell r="D58">
-            <v>77</v>
+            <v>75</v>
           </cell>
           <cell r="E58" t="str">
             <v>↓</v>
           </cell>
           <cell r="H58">
-            <v>13549</v>
+            <v>13229</v>
           </cell>
           <cell r="I58">
-            <v>13549</v>
+            <v>13229</v>
           </cell>
           <cell r="K58">
             <v>23</v>
@@ -4120,19 +4108,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>78</v>
+            <v>80</v>
           </cell>
           <cell r="D59">
-            <v>102</v>
+            <v>103</v>
           </cell>
           <cell r="H59">
-            <v>2738</v>
+            <v>2538</v>
           </cell>
           <cell r="I59">
-            <v>2738</v>
+            <v>2538</v>
           </cell>
           <cell r="K59">
-            <v>27</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="60">
@@ -4140,19 +4128,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>106</v>
+            <v>107</v>
           </cell>
           <cell r="D60">
             <v>99</v>
           </cell>
           <cell r="H60">
-            <v>4481</v>
+            <v>4331</v>
           </cell>
           <cell r="I60">
-            <v>2081</v>
+            <v>4331</v>
           </cell>
           <cell r="K60">
-            <v>34</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="61">
@@ -4169,10 +4157,10 @@
             <v>↓</v>
           </cell>
           <cell r="H61">
-            <v>4700</v>
+            <v>4610</v>
           </cell>
           <cell r="I61">
-            <v>4700</v>
+            <v>4610</v>
           </cell>
           <cell r="K61">
             <v>35</v>
@@ -4183,19 +4171,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>116</v>
+            <v>119</v>
           </cell>
           <cell r="D62">
-            <v>91</v>
+            <v>93</v>
           </cell>
           <cell r="H62">
-            <v>7638</v>
+            <v>7408</v>
           </cell>
           <cell r="I62">
-            <v>2668</v>
+            <v>7408</v>
           </cell>
           <cell r="K62">
-            <v>53</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="63">
@@ -4206,19 +4194,19 @@
             <v>17</v>
           </cell>
           <cell r="D63">
-            <v>71</v>
+            <v>69</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>8260</v>
+            <v>8250</v>
           </cell>
           <cell r="I63">
-            <v>8260</v>
+            <v>8250</v>
           </cell>
           <cell r="K63">
-            <v>146</v>
+            <v>145</v>
           </cell>
         </row>
         <row r="64">
@@ -4226,22 +4214,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="C64">
-            <v>9</v>
+            <v>10</v>
           </cell>
           <cell r="D64">
-            <v>61</v>
+            <v>62</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9750</v>
+            <v>9720</v>
           </cell>
           <cell r="I64">
-            <v>9750</v>
+            <v>9720</v>
           </cell>
           <cell r="K64">
-            <v>204</v>
+            <v>203</v>
           </cell>
         </row>
         <row r="65">
@@ -4254,10 +4242,10 @@
             <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C66">
-            <v>199</v>
+            <v>203</v>
           </cell>
           <cell r="D66">
-            <v>111</v>
+            <v>114</v>
           </cell>
           <cell r="H66">
             <v>90</v>
@@ -4277,7 +4265,7 @@
             <v>54</v>
           </cell>
           <cell r="D67">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
@@ -4288,7 +4276,7 @@
             <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="C68">
-            <v>27</v>
+            <v>28</v>
           </cell>
           <cell r="D68">
             <v>41</v>
@@ -4297,16 +4285,16 @@
             <v>↓</v>
           </cell>
           <cell r="H68">
-            <v>1170</v>
+            <v>1134</v>
           </cell>
           <cell r="I68">
-            <v>1170</v>
+            <v>1134</v>
           </cell>
           <cell r="J68" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K68">
-            <v>8</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="69">
@@ -4314,7 +4302,7 @@
             <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
           </cell>
           <cell r="C69">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="D69">
             <v>30</v>
@@ -4323,10 +4311,10 @@
             <v>↓</v>
           </cell>
           <cell r="H69">
-            <v>1512</v>
+            <v>1476</v>
           </cell>
           <cell r="I69">
-            <v>1512</v>
+            <v>1476</v>
           </cell>
           <cell r="J69" t="str">
             <v>!!!</v>
@@ -4340,7 +4328,7 @@
             <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="C70">
-            <v>25</v>
+            <v>26</v>
           </cell>
           <cell r="D70">
             <v>42</v>
@@ -4355,16 +4343,16 @@
             <v>1</v>
           </cell>
           <cell r="H70">
-            <v>1134</v>
+            <v>1098</v>
           </cell>
           <cell r="I70">
-            <v>1134</v>
+            <v>1098</v>
           </cell>
           <cell r="J70" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K70">
-            <v>11</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="71">
@@ -4372,25 +4360,25 @@
             <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
           </cell>
           <cell r="C71">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="D71">
-            <v>38</v>
+            <v>39</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
           <cell r="H71">
-            <v>2592</v>
+            <v>2502</v>
           </cell>
           <cell r="I71">
-            <v>2592</v>
+            <v>2502</v>
           </cell>
           <cell r="J71" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K71">
-            <v>18</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="72">
@@ -4398,10 +4386,10 @@
             <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C72">
-            <v>2625</v>
+            <v>2601</v>
           </cell>
           <cell r="D72">
-            <v>85</v>
+            <v>84</v>
           </cell>
           <cell r="F72">
             <v>8946</v>
@@ -4410,62 +4398,62 @@
             <v>3</v>
           </cell>
           <cell r="H72">
-            <v>113244</v>
+            <v>112794</v>
           </cell>
           <cell r="I72">
-            <v>113244</v>
+            <v>112794</v>
           </cell>
           <cell r="K72">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C73">
-            <v>814</v>
+            <v>6</v>
           </cell>
           <cell r="D73">
-            <v>113</v>
+            <v>238</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H73">
-            <v>28965</v>
+            <v>1062</v>
           </cell>
           <cell r="I73">
-            <v>28965</v>
+            <v>1062</v>
           </cell>
           <cell r="K73">
             <v>31</v>
           </cell>
-          <cell r="L73">
-            <v>15</v>
-          </cell>
-          <cell r="M73">
-            <v>19995</v>
-          </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C74">
-            <v>5</v>
+            <v>1429</v>
           </cell>
           <cell r="D74">
-            <v>222</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>↑</v>
+            <v>94</v>
           </cell>
           <cell r="H74">
-            <v>1098</v>
+            <v>58559</v>
           </cell>
           <cell r="I74">
-            <v>1098</v>
+            <v>58559</v>
           </cell>
           <cell r="K74">
             <v>32</v>
+          </cell>
+          <cell r="L74">
+            <v>18</v>
+          </cell>
+          <cell r="M74">
+            <v>40112</v>
           </cell>
         </row>
         <row r="75">
@@ -4473,10 +4461,10 @@
             <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C75">
-            <v>14108</v>
+            <v>13970</v>
           </cell>
           <cell r="D75">
-            <v>88</v>
+            <v>86</v>
           </cell>
           <cell r="H75">
             <v>566985</v>
@@ -4490,350 +4478,335 @@
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>1381</v>
+            <v>947</v>
           </cell>
           <cell r="D76">
-            <v>91</v>
+            <v>102</v>
+          </cell>
+          <cell r="F76">
+            <v>630</v>
+          </cell>
+          <cell r="G76">
+            <v>1</v>
           </cell>
           <cell r="H76">
-            <v>62519</v>
+            <v>44649</v>
           </cell>
           <cell r="I76">
-            <v>62519</v>
+            <v>44649</v>
           </cell>
           <cell r="K76">
-            <v>34</v>
+            <v>36</v>
+          </cell>
+          <cell r="L76">
+            <v>19</v>
+          </cell>
+          <cell r="M76">
+            <v>29426</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C77">
-            <v>933</v>
+            <v>3847</v>
           </cell>
           <cell r="D77">
-            <v>102</v>
-          </cell>
-          <cell r="F77">
-            <v>630</v>
-          </cell>
-          <cell r="G77">
-            <v>1</v>
+            <v>90</v>
           </cell>
           <cell r="H77">
-            <v>45657</v>
+            <v>172263</v>
           </cell>
           <cell r="I77">
-            <v>45657</v>
+            <v>121791</v>
           </cell>
           <cell r="K77">
-            <v>37</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C78">
-            <v>819</v>
+            <v>294</v>
           </cell>
           <cell r="D78">
-            <v>78</v>
-          </cell>
-          <cell r="E78" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H78">
-            <v>53453</v>
+            <v>20620</v>
           </cell>
           <cell r="I78">
-            <v>53453</v>
+            <v>10145</v>
           </cell>
           <cell r="K78">
-            <v>37</v>
-          </cell>
-          <cell r="L78">
-            <v>15</v>
-          </cell>
-          <cell r="M78">
-            <v>31286</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C79">
-            <v>355</v>
+            <v>318</v>
           </cell>
           <cell r="D79">
-            <v>81</v>
+            <v>92</v>
           </cell>
           <cell r="H79">
-            <v>26425</v>
+            <v>23043</v>
           </cell>
           <cell r="I79">
-            <v>26425</v>
+            <v>23043</v>
           </cell>
           <cell r="K79">
-            <v>39</v>
+            <v>42</v>
           </cell>
           <cell r="L79">
-            <v>16</v>
+            <v>18</v>
           </cell>
           <cell r="M79">
-            <v>10095</v>
+            <v>10096</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C80">
-            <v>3844</v>
+            <v>733</v>
           </cell>
           <cell r="D80">
-            <v>90</v>
+            <v>98</v>
           </cell>
           <cell r="H80">
-            <v>177231</v>
+            <v>32328</v>
           </cell>
           <cell r="I80">
-            <v>126759</v>
+            <v>32328</v>
           </cell>
           <cell r="K80">
-            <v>40</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>1057</v>
+            <v>1073</v>
           </cell>
           <cell r="D81">
-            <v>94</v>
+            <v>85</v>
           </cell>
           <cell r="H81">
-            <v>56215</v>
+            <v>65032</v>
           </cell>
           <cell r="I81">
-            <v>56215</v>
+            <v>65032</v>
           </cell>
           <cell r="K81">
-            <v>42</v>
-          </cell>
-          <cell r="L81">
-            <v>15</v>
-          </cell>
-          <cell r="M81">
-            <v>34471</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C82">
-            <v>281</v>
+            <v>3565</v>
           </cell>
           <cell r="D82">
             <v>86</v>
           </cell>
           <cell r="H82">
-            <v>21304</v>
+            <v>171139</v>
           </cell>
           <cell r="I82">
-            <v>10829</v>
+            <v>133915</v>
           </cell>
           <cell r="K82">
-            <v>42</v>
+            <v>45</v>
+          </cell>
+          <cell r="L82">
+            <v>15</v>
+          </cell>
+          <cell r="M82">
+            <v>65254</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C83">
-            <v>1065</v>
+            <v>1353</v>
           </cell>
           <cell r="D83">
-            <v>85</v>
+            <v>95</v>
           </cell>
           <cell r="H83">
-            <v>65698</v>
+            <v>79425</v>
           </cell>
           <cell r="I83">
-            <v>65698</v>
+            <v>79425</v>
           </cell>
           <cell r="K83">
-            <v>44</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C84">
-            <v>307</v>
+            <v>66</v>
           </cell>
           <cell r="D84">
             <v>90</v>
           </cell>
           <cell r="H84">
-            <v>23745</v>
+            <v>3784</v>
           </cell>
           <cell r="I84">
-            <v>23745</v>
+            <v>3784</v>
           </cell>
           <cell r="K84">
-            <v>44</v>
-          </cell>
-          <cell r="L84">
-            <v>19</v>
-          </cell>
-          <cell r="M84">
-            <v>10096</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C85">
-            <v>720</v>
+            <v>582</v>
           </cell>
           <cell r="D85">
-            <v>96</v>
+            <v>109</v>
           </cell>
           <cell r="H85">
-            <v>32922</v>
+            <v>38989</v>
           </cell>
           <cell r="I85">
-            <v>32922</v>
+            <v>22303</v>
           </cell>
           <cell r="K85">
-            <v>44</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C86">
-            <v>3645</v>
+            <v>29566</v>
           </cell>
           <cell r="D86">
-            <v>87</v>
+            <v>93</v>
           </cell>
           <cell r="H86">
-            <v>173371</v>
+            <v>1412417</v>
           </cell>
           <cell r="I86">
-            <v>136147</v>
+            <v>1412417</v>
           </cell>
           <cell r="K86">
-            <v>45</v>
+            <v>47</v>
           </cell>
           <cell r="L86">
-            <v>16</v>
+            <v>25</v>
           </cell>
           <cell r="M86">
-            <v>65254</v>
+            <v>227708</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C87">
-            <v>66</v>
+            <v>173</v>
           </cell>
           <cell r="D87">
-            <v>89</v>
+            <v>82</v>
           </cell>
           <cell r="H87">
-            <v>3820</v>
+            <v>18260</v>
           </cell>
           <cell r="I87">
-            <v>3820</v>
+            <v>18260</v>
           </cell>
           <cell r="K87">
-            <v>47</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C88">
-            <v>1017</v>
+            <v>897</v>
           </cell>
           <cell r="D88">
-            <v>86</v>
+            <v>84</v>
           </cell>
           <cell r="H88">
-            <v>76029</v>
+            <v>47682</v>
           </cell>
           <cell r="I88">
-            <v>76029</v>
+            <v>47682</v>
           </cell>
           <cell r="K88">
             <v>48</v>
           </cell>
           <cell r="L88">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M88">
-            <v>19698</v>
+            <v>16414</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C89">
-            <v>29713</v>
+            <v>734</v>
           </cell>
           <cell r="D89">
             <v>94</v>
           </cell>
           <cell r="H89">
-            <v>1427339</v>
+            <v>43574</v>
           </cell>
           <cell r="I89">
-            <v>1427339</v>
+            <v>33656</v>
           </cell>
           <cell r="K89">
             <v>48</v>
           </cell>
-          <cell r="L89">
-            <v>26</v>
-          </cell>
-          <cell r="M89">
-            <v>227708</v>
-          </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C90">
-            <v>563</v>
+            <v>1253</v>
           </cell>
           <cell r="D90">
-            <v>106</v>
+            <v>89</v>
           </cell>
           <cell r="H90">
-            <v>40843</v>
+            <v>72654</v>
           </cell>
           <cell r="I90">
-            <v>24157</v>
+            <v>72654</v>
           </cell>
           <cell r="K90">
             <v>49</v>
@@ -4841,277 +4814,268 @@
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C91">
-            <v>1310</v>
+            <v>117</v>
           </cell>
           <cell r="D91">
-            <v>92</v>
+            <v>111</v>
           </cell>
           <cell r="H91">
-            <v>83511</v>
+            <v>6402</v>
           </cell>
           <cell r="I91">
-            <v>42696</v>
+            <v>6402</v>
           </cell>
           <cell r="K91">
-            <v>49</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C92">
-            <v>726</v>
+            <v>1358</v>
           </cell>
           <cell r="D92">
-            <v>94</v>
+            <v>103</v>
           </cell>
           <cell r="H92">
-            <v>44384</v>
+            <v>92049</v>
           </cell>
           <cell r="I92">
-            <v>34466</v>
+            <v>92049</v>
           </cell>
           <cell r="K92">
-            <v>49</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C93">
-            <v>872</v>
+            <v>816</v>
           </cell>
           <cell r="D93">
-            <v>82</v>
+            <v>88</v>
           </cell>
           <cell r="H93">
-            <v>50130</v>
+            <v>59609</v>
           </cell>
           <cell r="I93">
-            <v>50130</v>
+            <v>44219</v>
           </cell>
           <cell r="K93">
-            <v>50</v>
-          </cell>
-          <cell r="L93">
-            <v>16</v>
-          </cell>
-          <cell r="M93">
-            <v>16414</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C94">
-            <v>160</v>
+            <v>111</v>
           </cell>
           <cell r="D94">
-            <v>77</v>
+            <v>76</v>
           </cell>
           <cell r="E94" t="str">
             <v>↓</v>
           </cell>
           <cell r="H94">
-            <v>19196</v>
+            <v>9270</v>
           </cell>
           <cell r="I94">
-            <v>19196</v>
+            <v>9270</v>
           </cell>
           <cell r="K94">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C95">
-            <v>1235</v>
+            <v>40</v>
           </cell>
           <cell r="D95">
-            <v>88</v>
+            <v>66</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H95">
-            <v>75300</v>
+            <v>5814</v>
           </cell>
           <cell r="I95">
-            <v>75300</v>
+            <v>5814</v>
           </cell>
           <cell r="K95">
-            <v>51</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C96">
-            <v>1323</v>
+            <v>763</v>
           </cell>
           <cell r="D96">
-            <v>101</v>
+            <v>91</v>
           </cell>
           <cell r="H96">
-            <v>95397</v>
+            <v>64537</v>
           </cell>
           <cell r="I96">
-            <v>95397</v>
+            <v>64537</v>
           </cell>
           <cell r="K96">
-            <v>52</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C97">
-            <v>794</v>
+            <v>4</v>
           </cell>
           <cell r="D97">
-            <v>87</v>
+            <v>162</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H97">
-            <v>60887</v>
+            <v>1818</v>
           </cell>
           <cell r="I97">
-            <v>45497</v>
+            <v>1818</v>
           </cell>
           <cell r="K97">
-            <v>52</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C98">
-            <v>111</v>
+            <v>353</v>
           </cell>
           <cell r="D98">
-            <v>76</v>
-          </cell>
-          <cell r="E98" t="str">
-            <v>↓</v>
+            <v>80</v>
           </cell>
           <cell r="H98">
-            <v>9270</v>
+            <v>35425</v>
           </cell>
           <cell r="I98">
-            <v>5490</v>
+            <v>25417</v>
           </cell>
           <cell r="K98">
-            <v>53</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C99">
-            <v>40</v>
+            <v>831</v>
           </cell>
           <cell r="D99">
-            <v>67</v>
-          </cell>
-          <cell r="E99" t="str">
-            <v>↓</v>
+            <v>115</v>
           </cell>
           <cell r="H99">
-            <v>5814</v>
+            <v>48311</v>
           </cell>
           <cell r="I99">
-            <v>5814</v>
+            <v>28281</v>
           </cell>
           <cell r="K99">
-            <v>53</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C100">
-            <v>111</v>
+            <v>1301</v>
           </cell>
           <cell r="D100">
-            <v>106</v>
+            <v>86</v>
           </cell>
           <cell r="H100">
-            <v>6888</v>
+            <v>91259</v>
           </cell>
           <cell r="I100">
-            <v>6888</v>
+            <v>91259</v>
           </cell>
           <cell r="K100">
-            <v>54</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C101">
-            <v>4</v>
+            <v>623</v>
           </cell>
           <cell r="D101">
-            <v>139</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>↑</v>
+            <v>92</v>
           </cell>
           <cell r="H101">
-            <v>1854</v>
+            <v>51837</v>
           </cell>
           <cell r="I101">
-            <v>1854</v>
+            <v>51837</v>
           </cell>
           <cell r="K101">
-            <v>54</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C102">
-            <v>761</v>
+            <v>848</v>
           </cell>
           <cell r="D102">
-            <v>92</v>
+            <v>80</v>
           </cell>
           <cell r="H102">
-            <v>65689</v>
+            <v>81928</v>
           </cell>
           <cell r="I102">
-            <v>35379</v>
+            <v>50825</v>
           </cell>
           <cell r="K102">
-            <v>54</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C103">
-            <v>1276</v>
+            <v>533</v>
           </cell>
           <cell r="D103">
-            <v>85</v>
+            <v>105</v>
           </cell>
           <cell r="H103">
-            <v>94139</v>
+            <v>37878</v>
           </cell>
           <cell r="I103">
-            <v>94139</v>
+            <v>22650</v>
           </cell>
           <cell r="K103">
             <v>57</v>
@@ -5119,122 +5083,122 @@
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C104">
-            <v>606</v>
+            <v>6</v>
           </cell>
           <cell r="D104">
-            <v>91</v>
+            <v>243</v>
+          </cell>
+          <cell r="E104" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H104">
-            <v>53367</v>
+            <v>1854</v>
           </cell>
           <cell r="I104">
-            <v>53367</v>
+            <v>1854</v>
           </cell>
           <cell r="K104">
-            <v>57</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C105">
-            <v>513</v>
+            <v>1025</v>
           </cell>
           <cell r="D105">
-            <v>101</v>
+            <v>86</v>
           </cell>
           <cell r="H105">
-            <v>39516</v>
+            <v>94227</v>
           </cell>
           <cell r="I105">
-            <v>24288</v>
+            <v>74733</v>
           </cell>
           <cell r="K105">
-            <v>59</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C106">
-            <v>5</v>
+            <v>403</v>
           </cell>
           <cell r="D106">
-            <v>221</v>
-          </cell>
-          <cell r="E106" t="str">
-            <v>↑</v>
+            <v>90</v>
           </cell>
           <cell r="H106">
-            <v>1890</v>
+            <v>37962</v>
           </cell>
           <cell r="I106">
-            <v>1890</v>
+            <v>37962</v>
           </cell>
           <cell r="K106">
-            <v>62</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C107">
-            <v>387</v>
+            <v>1075</v>
           </cell>
           <cell r="D107">
-            <v>87</v>
+            <v>95</v>
           </cell>
           <cell r="H107">
-            <v>39222</v>
+            <v>89152</v>
           </cell>
           <cell r="I107">
-            <v>19692</v>
+            <v>54289</v>
           </cell>
           <cell r="K107">
-            <v>68</v>
+            <v>69</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C108">
-            <v>94</v>
+            <v>446</v>
           </cell>
           <cell r="D108">
-            <v>96</v>
+            <v>92</v>
           </cell>
           <cell r="H108">
-            <v>7432</v>
+            <v>40786</v>
           </cell>
           <cell r="I108">
-            <v>3536</v>
+            <v>19708</v>
           </cell>
           <cell r="K108">
-            <v>77</v>
+            <v>74</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>430</v>
+            <v>94</v>
           </cell>
           <cell r="D109">
-            <v>89</v>
+            <v>96</v>
           </cell>
           <cell r="H109">
-            <v>41920</v>
+            <v>7378</v>
           </cell>
           <cell r="I109">
-            <v>20842</v>
+            <v>3482</v>
           </cell>
           <cell r="K109">
             <v>77</v>
@@ -5245,19 +5209,19 @@
             <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C110">
-            <v>57</v>
+            <v>60</v>
           </cell>
           <cell r="D110">
-            <v>93</v>
+            <v>97</v>
           </cell>
           <cell r="H110">
-            <v>7240</v>
+            <v>7006</v>
           </cell>
           <cell r="I110">
-            <v>2425</v>
+            <v>2191</v>
           </cell>
           <cell r="K110">
-            <v>85</v>
+            <v>82</v>
           </cell>
         </row>
         <row r="111">
@@ -5265,19 +5229,19 @@
             <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>58</v>
+            <v>62</v>
           </cell>
           <cell r="D111">
-            <v>111</v>
+            <v>118</v>
           </cell>
           <cell r="H111">
-            <v>7099</v>
+            <v>6901</v>
           </cell>
           <cell r="I111">
-            <v>7099</v>
+            <v>6901</v>
           </cell>
           <cell r="K111">
-            <v>98</v>
+            <v>96</v>
           </cell>
         </row>
         <row r="112">
@@ -5285,19 +5249,19 @@
             <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C112">
-            <v>55</v>
+            <v>57</v>
           </cell>
           <cell r="D112">
-            <v>101</v>
+            <v>103</v>
           </cell>
           <cell r="H112">
-            <v>6664</v>
+            <v>6520</v>
           </cell>
           <cell r="I112">
-            <v>6664</v>
+            <v>6520</v>
           </cell>
           <cell r="K112">
-            <v>106</v>
+            <v>104</v>
           </cell>
         </row>
         <row r="113">
@@ -5308,16 +5272,16 @@
             <v>50</v>
           </cell>
           <cell r="D113">
-            <v>101</v>
+            <v>103</v>
           </cell>
           <cell r="H113">
-            <v>6577</v>
+            <v>6523</v>
           </cell>
           <cell r="I113">
-            <v>410</v>
+            <v>356</v>
           </cell>
           <cell r="K113">
-            <v>131</v>
+            <v>130</v>
           </cell>
         </row>
         <row r="114">
@@ -5330,25 +5294,25 @@
             <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C115">
-            <v>1385</v>
+            <v>1399</v>
           </cell>
           <cell r="D115">
             <v>96</v>
           </cell>
           <cell r="H115">
-            <v>21720</v>
+            <v>19632</v>
           </cell>
           <cell r="I115">
-            <v>21720</v>
+            <v>19632</v>
           </cell>
           <cell r="J115" t="str">
             <v>!</v>
           </cell>
           <cell r="K115">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="L115">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M115">
             <v>28980</v>
@@ -5365,19 +5329,19 @@
             <v>99</v>
           </cell>
           <cell r="H116">
-            <v>4390</v>
+            <v>4084</v>
           </cell>
           <cell r="I116">
-            <v>4390</v>
+            <v>4084</v>
           </cell>
           <cell r="J116" t="str">
             <v>!</v>
           </cell>
           <cell r="K116">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="L116">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="M116">
             <v>10050</v>
@@ -5388,22 +5352,25 @@
             <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C117">
-            <v>1516</v>
+            <v>1545</v>
           </cell>
           <cell r="D117">
-            <v>77</v>
+            <v>78</v>
           </cell>
           <cell r="E117" t="str">
             <v>↓</v>
           </cell>
           <cell r="H117">
-            <v>54222</v>
+            <v>51288</v>
           </cell>
           <cell r="I117">
-            <v>34802</v>
+            <v>31868</v>
+          </cell>
+          <cell r="J117" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K117">
-            <v>20</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="118">
@@ -5411,62 +5378,59 @@
             <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>479</v>
+            <v>497</v>
           </cell>
           <cell r="D118">
-            <v>90</v>
+            <v>93</v>
           </cell>
           <cell r="H118">
-            <v>19455</v>
+            <v>17979</v>
           </cell>
           <cell r="I118">
-            <v>19455</v>
+            <v>17979</v>
           </cell>
           <cell r="K118">
-            <v>23</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C119">
-            <v>349</v>
+            <v>105</v>
           </cell>
           <cell r="D119">
-            <v>80</v>
+            <v>83</v>
           </cell>
           <cell r="H119">
-            <v>15882</v>
+            <v>3718</v>
           </cell>
           <cell r="I119">
-            <v>15882</v>
+            <v>3718</v>
           </cell>
           <cell r="K119">
-            <v>25</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C120">
-            <v>99</v>
+            <v>355</v>
           </cell>
           <cell r="D120">
-            <v>79</v>
-          </cell>
-          <cell r="E120" t="str">
-            <v>↓</v>
+            <v>80</v>
           </cell>
           <cell r="H120">
-            <v>4240</v>
+            <v>15090</v>
           </cell>
           <cell r="I120">
-            <v>4240</v>
+            <v>15090</v>
           </cell>
           <cell r="K120">
-            <v>25</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="121">
@@ -5474,19 +5438,19 @@
             <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>571</v>
+            <v>588</v>
           </cell>
           <cell r="D121">
-            <v>97</v>
+            <v>99</v>
           </cell>
           <cell r="H121">
-            <v>23758</v>
+            <v>22156</v>
           </cell>
           <cell r="I121">
-            <v>3868</v>
+            <v>22156</v>
           </cell>
           <cell r="K121">
-            <v>28</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="122">
@@ -5494,19 +5458,19 @@
             <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>296</v>
+            <v>304</v>
           </cell>
           <cell r="D122">
-            <v>97</v>
+            <v>99</v>
           </cell>
           <cell r="H122">
-            <v>13635</v>
+            <v>12969</v>
           </cell>
           <cell r="I122">
-            <v>13635</v>
+            <v>12969</v>
           </cell>
           <cell r="K122">
-            <v>33</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="123">
@@ -5517,16 +5481,16 @@
             <v>50</v>
           </cell>
           <cell r="D123">
-            <v>101</v>
+            <v>103</v>
           </cell>
           <cell r="H123">
-            <v>2905</v>
+            <v>2869</v>
           </cell>
           <cell r="I123">
-            <v>2905</v>
+            <v>2869</v>
           </cell>
           <cell r="K123">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="124">
@@ -5534,7 +5498,7 @@
             <v>ИТОГО:</v>
           </cell>
           <cell r="C124">
-            <v>107116</v>
+            <v>107934</v>
           </cell>
           <cell r="D124">
             <v>90</v>
@@ -5543,16 +5507,16 @@
             <v>14190</v>
           </cell>
           <cell r="H124">
-            <v>5312372</v>
+            <v>5292314</v>
           </cell>
           <cell r="I124">
-            <v>4856205</v>
+            <v>4847590</v>
           </cell>
           <cell r="K124">
             <v>43</v>
           </cell>
           <cell r="M124">
-            <v>593255</v>
+            <v>543421</v>
           </cell>
         </row>
       </sheetData>
@@ -5852,8 +5816,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5902,7 +5866,7 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -5932,11 +5896,11 @@
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17570</v>
+        <v>15792</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5958,15 +5922,15 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3181</v>
+        <v>13005</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5978,45 +5942,45 @@
       </c>
       <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H6" s="34">
         <f>VLOOKUP(A6,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>3827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13635</v>
+        <v>10789</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15267</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6024,28 +5988,28 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11335</v>
+        <v>62559</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-11-29</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H8" s="34">
         <f>VLOOKUP(A8,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6053,15 +6017,15 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>64575</v>
+        <v>33866</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-11-29</v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6074,19 +6038,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>36512</v>
+        <v>16799</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6094,16 +6058,16 @@
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>21828</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6111,40 +6075,40 @@
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17849</v>
+        <v>24211</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>21828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25485</v>
+        <v>21800</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6152,28 +6116,28 @@
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H12" s="34">
         <f>VLOOKUP(A12,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>13875</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22948</v>
+        <v>15033</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6181,32 +6145,32 @@
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H13" s="34">
         <f>VLOOKUP(A13,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>13875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2674</v>
+        <v>14819</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6219,7 +6183,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6227,15 +6191,15 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16489</v>
+        <v>2660</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6248,7 +6212,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6256,15 +6220,15 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16163</v>
+        <v>16008</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6277,19 +6241,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16792</v>
+        <v>4826</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6297,61 +6261,61 @@
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H17" s="34">
         <f>VLOOKUP(A17,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5204</v>
+        <v>9339</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H18" s="34">
         <f>VLOOKUP(A18,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>5909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15489</v>
+        <v>8991</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6364,19 +6328,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10179</v>
+        <v>69482</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6393,19 +6357,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>77829</v>
+        <v>23942</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6422,7 +6386,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6430,15 +6394,15 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>73724</v>
+        <v>15083</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6451,19 +6415,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13916</v>
+        <v>75169</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6480,19 +6444,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10447</v>
+        <v>13384</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6509,19 +6473,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25370</v>
+        <v>28830</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6529,32 +6493,32 @@
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H25" s="34">
         <f>VLOOKUP(A25,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>25445</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>38216</v>
+        <v>22734</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6567,48 +6531,48 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31238</v>
+        <v>15230</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H27" s="34">
         <f>VLOOKUP(A27,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>25445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24022</v>
+        <v>37026</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6625,19 +6589,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16336</v>
+        <v>25218</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6654,23 +6618,23 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44640</v>
+        <v>23025</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6683,19 +6647,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26268</v>
+        <v>43534</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6716,11 +6680,11 @@
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11424</v>
+        <v>11116</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6741,19 +6705,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24537</v>
+        <v>98343</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6774,11 +6738,11 @@
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27907</v>
+        <v>26353</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6803,11 +6767,11 @@
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21163</v>
+        <v>20211</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6828,7 +6792,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6836,15 +6800,15 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>106743</v>
+        <v>25955</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6857,7 +6821,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6865,15 +6829,15 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27215</v>
+        <v>6511</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6894,7 +6858,7 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12529</v>
+        <v>12207</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6902,7 +6866,7 @@
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6919,11 +6883,11 @@
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24165</v>
+        <v>23367</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6948,11 +6912,11 @@
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15042</v>
+        <v>14300</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6977,11 +6941,11 @@
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34499</v>
+        <v>32721</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6989,7 +6953,7 @@
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7006,11 +6970,11 @@
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21259</v>
+        <v>19859</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7018,7 +6982,7 @@
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7035,11 +6999,11 @@
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21278</v>
+        <v>20382</v>
       </c>
       <c r="D43" s="8" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7047,7 +7011,7 @@
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7064,11 +7028,11 @@
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26045</v>
+        <v>25093</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7076,7 +7040,7 @@
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7093,11 +7057,11 @@
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>55109</v>
+        <v>53513</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7122,11 +7086,11 @@
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24777</v>
+        <v>23783</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7151,11 +7115,11 @@
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21094</v>
+        <v>19918</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7163,7 +7127,7 @@
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7176,23 +7140,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12902</v>
+        <v>16019</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7205,7 +7169,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7213,15 +7177,15 @@
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17517</v>
+        <v>12720</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7242,7 +7206,7 @@
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9379</v>
+        <v>9281</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7250,7 +7214,7 @@
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-06</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7277,11 +7241,11 @@
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2738</v>
+        <v>2538</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7310,7 +7274,7 @@
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13549</v>
+        <v>13229</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7318,7 +7282,7 @@
       </c>
       <c r="E53" s="29" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G53" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7335,11 +7299,11 @@
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4481</v>
+        <v>4331</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7368,7 +7332,7 @@
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7638</v>
+        <v>7408</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7376,7 +7340,7 @@
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7393,11 +7357,11 @@
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4700</v>
+        <v>4610</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7422,11 +7386,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7451,11 +7415,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8260</v>
+        <v>8250</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7494,7 +7458,7 @@
       </c>
       <c r="C60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2592</v>
+        <v>2502</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7519,11 +7483,11 @@
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1890</v>
+        <v>1854</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7548,11 +7512,11 @@
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="D62" s="8">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7573,19 +7537,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3820</v>
+        <v>58559</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7593,16 +7557,16 @@
       </c>
       <c r="G63" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H63" s="34">
         <f>VLOOKUP(A63,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>40112</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7610,44 +7574,44 @@
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28965</v>
+        <v>3784</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G64" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>62519</v>
+        <v>112794</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E65" s="29" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G65" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7660,7 +7624,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7668,15 +7632,15 @@
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>113244</v>
+        <v>172263</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7689,7 +7653,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7697,23 +7661,23 @@
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>177231</v>
+        <v>44649</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G67" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H67" s="34">
         <f>VLOOKUP(A67,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>29426</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -7734,7 +7698,7 @@
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7747,23 +7711,23 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>45657</v>
+        <v>6402</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7776,23 +7740,23 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>56215</v>
+        <v>171139</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7800,12 +7764,12 @@
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>34471</v>
+        <v>65254</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7813,15 +7777,15 @@
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6888</v>
+        <v>32328</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7834,15 +7798,15 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>173371</v>
+        <v>23043</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7850,7 +7814,7 @@
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7858,57 +7822,57 @@
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>65254</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26425</v>
+        <v>38989</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H73" s="34">
         <f>VLOOKUP(A73,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32922</v>
+        <v>20620</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G74" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7921,44 +7885,44 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>53453</v>
+        <v>72654</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H75" s="34">
         <f>VLOOKUP(A75,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>31286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23745</v>
+        <v>48311</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7966,36 +7930,36 @@
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H76" s="34">
         <f>VLOOKUP(A76,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40843</v>
+        <v>92049</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8008,23 +7972,23 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21304</v>
+        <v>59609</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8037,23 +8001,23 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>75300</v>
+        <v>65032</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8066,23 +8030,23 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>95397</v>
+        <v>79425</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8095,52 +8059,52 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>60887</v>
+        <v>1412417</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H81" s="34">
         <f>VLOOKUP(A81,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>227708</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>65698</v>
+        <v>91259</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8153,7 +8117,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8161,44 +8125,44 @@
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1427339</v>
+        <v>51837</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H83" s="34">
         <f>VLOOKUP(A83,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>227708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>94139</v>
+        <v>43574</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8211,23 +8175,23 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>83511</v>
+        <v>7378</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8240,23 +8204,23 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>53367</v>
+        <v>35425</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2023-01-06</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8269,23 +8233,23 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44384</v>
+        <v>64537</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8298,23 +8262,23 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7432</v>
+        <v>89152</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-03</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8327,52 +8291,52 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>76029</v>
+        <v>37878</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-04</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H89" s="34">
         <f>VLOOKUP(A89,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>65689</v>
+        <v>40786</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8385,23 +8349,23 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>39516</v>
+        <v>6901</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8414,23 +8378,23 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>41920</v>
+        <v>18260</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8443,7 +8407,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8451,15 +8415,15 @@
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7099</v>
+        <v>81928</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8472,23 +8436,23 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19196</v>
+        <v>37962</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-17</v>
+        <v>2023-01-23</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8501,7 +8465,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8509,40 +8473,40 @@
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>39222</v>
+        <v>47682</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-24</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H95" s="34">
         <f>VLOOKUP(A95,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>16414</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7240</v>
+        <v>94227</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8559,31 +8523,31 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>50130</v>
+        <v>7006</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-27</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G97" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H97" s="34">
         <f>VLOOKUP(A97,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>16414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -8592,11 +8556,11 @@
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6664</v>
+        <v>6520</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8621,11 +8585,11 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1854</v>
+        <v>1818</v>
       </c>
       <c r="D99" s="8">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8633,7 +8597,7 @@
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-27</v>
+        <v>2023-02-24</v>
       </c>
       <c r="G99" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8650,11 +8614,11 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6577</v>
+        <v>6523</v>
       </c>
       <c r="D100" s="8" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8679,11 +8643,11 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1134</v>
+        <v>1098</v>
       </c>
       <c r="D101" s="8">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8708,11 +8672,11 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1170</v>
+        <v>1134</v>
       </c>
       <c r="D102" s="8">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8720,7 +8684,7 @@
       </c>
       <c r="E102" s="29" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-15</v>
+        <v>2023-08-14</v>
       </c>
       <c r="G102" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8737,11 +8701,11 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1512</v>
+        <v>1476</v>
       </c>
       <c r="D103" s="8">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8749,7 +8713,7 @@
       </c>
       <c r="E103" s="29" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-24</v>
+        <v>2023-08-23</v>
       </c>
       <c r="G103" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8776,11 +8740,11 @@
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21720</v>
+        <v>19632</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8805,11 +8769,11 @@
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4390</v>
+        <v>4084</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8834,11 +8798,11 @@
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>54222</v>
+        <v>51288</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8863,11 +8827,11 @@
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19455</v>
+        <v>17979</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8892,11 +8856,11 @@
       </c>
       <c r="B109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4240</v>
+        <v>3718</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8904,7 +8868,7 @@
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G109" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8925,7 +8889,7 @@
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15882</v>
+        <v>15090</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8933,7 +8897,7 @@
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G110" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8950,11 +8914,11 @@
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23758</v>
+        <v>22156</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8979,11 +8943,11 @@
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13635</v>
+        <v>12969</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -9012,7 +8976,7 @@
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2905</v>
+        <v>2869</v>
       </c>
       <c r="D113" s="10">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -9020,7 +8984,7 @@
       </c>
       <c r="E113" s="29" t="str">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G113" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9038,7 +9002,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5297198</v>
+        <v>5277140</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -9075,8 +9039,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <sortState ref="A60:E103">
-    <sortCondition ref="B60:B103"/>
+  <sortState ref="A105:E113">
+    <sortCondition ref="B105:B113"/>
   </sortState>
   <conditionalFormatting sqref="B3">
     <cfRule type="iconSet" priority="31">

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,10 +907,10 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>133</v>
+            <v>131</v>
           </cell>
           <cell r="D2">
-            <v>81632</v>
+            <v>81536</v>
           </cell>
           <cell r="E2">
             <v>199</v>
@@ -921,39 +921,39 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B3" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>8</v>
+            <v>12</v>
           </cell>
           <cell r="D3">
-            <v>15792</v>
+            <v>10513</v>
           </cell>
           <cell r="E3">
-            <v>45</v>
+            <v>37</v>
           </cell>
           <cell r="F3" t="str">
-            <v>2022-11-15</v>
+            <v>2022-11-23</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B4" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="D4">
-            <v>13005</v>
+            <v>26124</v>
           </cell>
           <cell r="E4">
-            <v>37</v>
+            <v>29</v>
           </cell>
           <cell r="F4" t="str">
             <v>2022-11-24</v>
@@ -961,19 +961,19 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C5">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D5">
-            <v>10789</v>
+            <v>11501</v>
           </cell>
           <cell r="E5">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="F5" t="str">
             <v>2022-11-28</v>
@@ -987,10 +987,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C6">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="D6">
-            <v>62559</v>
+            <v>56245</v>
           </cell>
           <cell r="E6">
             <v>30</v>
@@ -1001,19 +1001,19 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="D7">
-            <v>33866</v>
+            <v>14489</v>
           </cell>
           <cell r="E7">
-            <v>29</v>
+            <v>33</v>
           </cell>
           <cell r="F7" t="str">
             <v>2022-11-29</v>
@@ -1021,22 +1021,22 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C8">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D8">
-            <v>16799</v>
+            <v>3888</v>
           </cell>
           <cell r="E8">
-            <v>33</v>
+            <v>59</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-11-29</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="9">
@@ -1047,10 +1047,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D9">
-            <v>15033</v>
+            <v>13185</v>
           </cell>
           <cell r="E9">
             <v>31</v>
@@ -1061,19 +1061,19 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C10">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D10">
-            <v>21800</v>
+            <v>2156</v>
           </cell>
           <cell r="E10">
-            <v>44</v>
+            <v>51</v>
           </cell>
           <cell r="F10" t="str">
             <v>2022-11-30</v>
@@ -1081,19 +1081,19 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D11">
-            <v>14819</v>
+            <v>7521</v>
           </cell>
           <cell r="E11">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F11" t="str">
             <v>2022-11-30</v>
@@ -1101,19 +1101,19 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C12">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D12">
-            <v>24211</v>
+            <v>54488</v>
           </cell>
           <cell r="E12">
-            <v>92</v>
+            <v>30</v>
           </cell>
           <cell r="F12" t="str">
             <v>2022-11-30</v>
@@ -1121,39 +1121,39 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C13">
-            <v>21</v>
+            <v>17</v>
           </cell>
           <cell r="D13">
-            <v>9339</v>
+            <v>22321</v>
           </cell>
           <cell r="E13">
-            <v>35</v>
+            <v>92</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-12-02</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C14">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D14">
-            <v>4826</v>
+            <v>8569</v>
           </cell>
           <cell r="E14">
-            <v>59</v>
+            <v>35</v>
           </cell>
           <cell r="F14" t="str">
             <v>2022-12-02</v>
@@ -1167,10 +1167,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D15">
-            <v>16008</v>
+            <v>14594</v>
           </cell>
           <cell r="E15">
             <v>48</v>
@@ -1181,19 +1181,19 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C16">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D16">
-            <v>2660</v>
+            <v>12668</v>
           </cell>
           <cell r="E16">
-            <v>51</v>
+            <v>31</v>
           </cell>
           <cell r="F16" t="str">
             <v>2022-12-02</v>
@@ -1201,22 +1201,22 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C17">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D17">
-            <v>8991</v>
+            <v>13305</v>
           </cell>
           <cell r="E17">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="18">
@@ -1227,10 +1227,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C18">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="D18">
-            <v>23942</v>
+            <v>20974</v>
           </cell>
           <cell r="E18">
             <v>30</v>
@@ -1241,19 +1241,19 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="D19">
-            <v>69482</v>
+            <v>68099</v>
           </cell>
           <cell r="E19">
-            <v>30</v>
+            <v>39</v>
           </cell>
           <cell r="F19" t="str">
             <v>2022-12-05</v>
@@ -1261,19 +1261,19 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C20">
-            <v>23</v>
+            <v>21</v>
           </cell>
           <cell r="D20">
-            <v>15083</v>
+            <v>12278</v>
           </cell>
           <cell r="E20">
-            <v>43</v>
+            <v>40</v>
           </cell>
           <cell r="F20" t="str">
             <v>2022-12-06</v>
@@ -1281,19 +1281,19 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C21">
-            <v>23</v>
+            <v>21</v>
           </cell>
           <cell r="D21">
-            <v>22734</v>
+            <v>47698</v>
           </cell>
           <cell r="E21">
-            <v>35</v>
+            <v>45</v>
           </cell>
           <cell r="F21" t="str">
             <v>2022-12-06</v>
@@ -1301,159 +1301,159 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Лен семена 100г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C22">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D22">
-            <v>75169</v>
+            <v>23160</v>
           </cell>
           <cell r="E22">
-            <v>39</v>
+            <v>33</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C23">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D23">
-            <v>13384</v>
+            <v>21306</v>
           </cell>
           <cell r="E23">
-            <v>40</v>
+            <v>35</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C24">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D24">
-            <v>28830</v>
+            <v>21023</v>
           </cell>
           <cell r="E24">
-            <v>40</v>
+            <v>43</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D25">
-            <v>15230</v>
+            <v>5027</v>
           </cell>
           <cell r="E25">
-            <v>31</v>
+            <v>37</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C26">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D26">
-            <v>25218</v>
+            <v>10178</v>
           </cell>
           <cell r="E26">
-            <v>33</v>
+            <v>51</v>
           </cell>
           <cell r="F26" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C27">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D27">
-            <v>23025</v>
+            <v>91497</v>
           </cell>
           <cell r="E27">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F27" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C28">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D28">
-            <v>37026</v>
+            <v>40146</v>
           </cell>
           <cell r="E28">
-            <v>112</v>
+            <v>37</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D29">
-            <v>11116</v>
+            <v>23651</v>
           </cell>
           <cell r="E29">
-            <v>51</v>
+            <v>46</v>
           </cell>
           <cell r="F29" t="str">
             <v>2022-12-08</v>
@@ -1461,59 +1461,59 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D30">
-            <v>98343</v>
+            <v>18671</v>
           </cell>
           <cell r="E30">
             <v>32</v>
           </cell>
           <cell r="F30" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B31" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D31">
-            <v>43534</v>
+            <v>23015</v>
           </cell>
           <cell r="E31">
-            <v>37</v>
+            <v>43</v>
           </cell>
           <cell r="F31" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C32">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D32">
-            <v>20211</v>
+            <v>35220</v>
           </cell>
           <cell r="E32">
-            <v>32</v>
+            <v>112</v>
           </cell>
           <cell r="F32" t="str">
             <v>2022-12-09</v>
@@ -1521,87 +1521,87 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C33">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D33">
-            <v>26353</v>
+            <v>12676</v>
           </cell>
           <cell r="E33">
-            <v>46</v>
+            <v>35</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C34">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D34">
-            <v>25955</v>
+            <v>11409</v>
           </cell>
           <cell r="E34">
-            <v>43</v>
+            <v>30</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C35">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D35">
-            <v>6511</v>
+            <v>30775</v>
           </cell>
           <cell r="E35">
-            <v>37</v>
+            <v>39</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C36">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D36">
-            <v>12207</v>
+            <v>22009</v>
           </cell>
           <cell r="E36">
-            <v>30</v>
+            <v>43</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
@@ -1610,98 +1610,98 @@
             <v>28</v>
           </cell>
           <cell r="D37">
-            <v>23367</v>
+            <v>18963</v>
           </cell>
           <cell r="E37">
             <v>43</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Береза почки 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C38">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="D38">
-            <v>19859</v>
-          </cell>
-          <cell r="E38">
-            <v>43</v>
+            <v>18772</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C39">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="D39">
-            <v>32721</v>
+            <v>32930</v>
           </cell>
           <cell r="E39">
-            <v>39</v>
+            <v>44</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
-            <v>29</v>
+            <v>31</v>
           </cell>
           <cell r="D40">
-            <v>14300</v>
+            <v>47815</v>
           </cell>
           <cell r="E40">
-            <v>35</v>
+            <v>31</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C41">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="D41">
-            <v>20382</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v>inf</v>
+            <v>24295</v>
+          </cell>
+          <cell r="E41">
+            <v>38</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B42" t="str">
             <v>Линия ББЛ</v>
@@ -1710,70 +1710,70 @@
             <v>31</v>
           </cell>
           <cell r="D42">
-            <v>25093</v>
+            <v>21641</v>
           </cell>
           <cell r="E42">
-            <v>38</v>
+            <v>35</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
-            <v>34</v>
+            <v>33</v>
           </cell>
           <cell r="D43">
-            <v>53513</v>
+            <v>19008</v>
           </cell>
           <cell r="E43">
-            <v>31</v>
+            <v>41</v>
           </cell>
           <cell r="F43" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="B44" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
-            <v>34</v>
+            <v>33</v>
           </cell>
           <cell r="D44">
-            <v>23783</v>
+            <v>11334</v>
           </cell>
           <cell r="E44">
-            <v>35</v>
+            <v>76</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="D45">
-            <v>19918</v>
+            <v>14983</v>
           </cell>
           <cell r="E45">
-            <v>41</v>
+            <v>33</v>
           </cell>
           <cell r="F45" t="str">
             <v>2022-12-22</v>
@@ -1781,62 +1781,62 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Череда трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>35</v>
+            <v>41</v>
           </cell>
           <cell r="D46">
-            <v>16019</v>
+            <v>23725</v>
           </cell>
           <cell r="E46">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2022-12-22</v>
+            <v>2023-01-03</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="B47" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C47">
-            <v>38</v>
+            <v>45</v>
           </cell>
           <cell r="D47">
-            <v>12720</v>
+            <v>8693</v>
           </cell>
           <cell r="E47">
-            <v>76</v>
+            <v>72</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2022-12-27</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="B48" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C48">
-            <v>47</v>
+            <v>56</v>
           </cell>
           <cell r="D48">
-            <v>9281</v>
+            <v>52318</v>
           </cell>
           <cell r="E48">
-            <v>72</v>
+            <v>40</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-24</v>
           </cell>
         </row>
         <row r="49">
@@ -1847,16 +1847,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="D49">
-            <v>2538</v>
+            <v>1598</v>
           </cell>
           <cell r="E49">
             <v>115</v>
           </cell>
           <cell r="F49" t="str">
-            <v>2022-11-21</v>
+            <v>2022-11-17</v>
           </cell>
         </row>
         <row r="50">
@@ -1867,10 +1867,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C50">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D50">
-            <v>13229</v>
+            <v>11129</v>
           </cell>
           <cell r="E50">
             <v>41</v>
@@ -1887,10 +1887,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D51">
-            <v>4331</v>
+            <v>3741</v>
           </cell>
           <cell r="E51">
             <v>110</v>
@@ -1907,16 +1907,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>30</v>
+            <v>26</v>
           </cell>
           <cell r="D52">
-            <v>7408</v>
+            <v>6398</v>
           </cell>
           <cell r="E52">
             <v>84</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="53">
@@ -1927,16 +1927,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>59</v>
+            <v>52</v>
           </cell>
           <cell r="D53">
-            <v>4610</v>
+            <v>4070</v>
           </cell>
           <cell r="E53">
             <v>102</v>
           </cell>
           <cell r="F53" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="54">
@@ -1947,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>253</v>
+            <v>251</v>
           </cell>
           <cell r="D54">
-            <v>8250</v>
+            <v>8110</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1967,10 +1967,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>253</v>
+            <v>251</v>
           </cell>
           <cell r="D55">
-            <v>9720</v>
+            <v>9670</v>
           </cell>
           <cell r="E55">
             <v>1365</v>
@@ -1990,7 +1990,7 @@
             <v>3</v>
           </cell>
           <cell r="D56">
-            <v>2502</v>
+            <v>1998</v>
           </cell>
           <cell r="E56">
             <v>257</v>
@@ -2007,7 +2007,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="D57">
             <v>1062</v>
@@ -2027,7 +2027,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="D58">
             <v>1854</v>
@@ -2036,7 +2036,7 @@
             <v>50</v>
           </cell>
           <cell r="F58" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="59">
@@ -2047,16 +2047,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>21</v>
+            <v>18</v>
           </cell>
           <cell r="D59">
-            <v>58559</v>
+            <v>49883</v>
           </cell>
           <cell r="E59">
             <v>32</v>
           </cell>
           <cell r="F59" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="60">
@@ -2067,10 +2067,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="D60">
-            <v>3784</v>
+            <v>3460</v>
           </cell>
           <cell r="E60">
             <v>43</v>
@@ -2087,10 +2087,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D61">
-            <v>172263</v>
+            <v>155217</v>
           </cell>
           <cell r="E61">
             <v>28</v>
@@ -2107,10 +2107,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C62">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D62">
-            <v>112794</v>
+            <v>101778</v>
           </cell>
           <cell r="E62">
             <v>52</v>
@@ -2127,10 +2127,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D63">
-            <v>44649</v>
+            <v>40041</v>
           </cell>
           <cell r="E63">
             <v>30</v>
@@ -2141,22 +2141,22 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D64">
-            <v>566985</v>
+            <v>28674</v>
           </cell>
           <cell r="E64">
-            <v>96</v>
+            <v>25</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="65">
@@ -2167,53 +2167,53 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D65">
-            <v>6402</v>
+            <v>6006</v>
           </cell>
           <cell r="E65">
             <v>34</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="D66">
-            <v>171139</v>
+            <v>561621</v>
           </cell>
           <cell r="E66">
-            <v>32</v>
+            <v>96</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="D67">
-            <v>32328</v>
+            <v>18262</v>
           </cell>
           <cell r="E67">
-            <v>25</v>
+            <v>28</v>
           </cell>
           <cell r="F67" t="str">
             <v>2022-12-15</v>
@@ -2227,10 +2227,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="D68">
-            <v>38989</v>
+            <v>36937</v>
           </cell>
           <cell r="E68">
             <v>30</v>
@@ -2241,67 +2241,67 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="D69">
-            <v>23043</v>
+            <v>66606</v>
           </cell>
           <cell r="E69">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="D70">
-            <v>20620</v>
+            <v>85659</v>
           </cell>
           <cell r="E70">
-            <v>28</v>
+            <v>35</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="D71">
-            <v>72654</v>
+            <v>45377</v>
           </cell>
           <cell r="E71">
-            <v>28</v>
+            <v>32</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
@@ -2310,38 +2310,38 @@
             <v>34</v>
           </cell>
           <cell r="D72">
-            <v>48311</v>
+            <v>73431</v>
           </cell>
           <cell r="E72">
             <v>32</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>34</v>
+            <v>37</v>
           </cell>
           <cell r="D73">
-            <v>92049</v>
+            <v>64024</v>
           </cell>
           <cell r="E73">
-            <v>35</v>
+            <v>61</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
@@ -2350,18 +2350,18 @@
             <v>37</v>
           </cell>
           <cell r="D74">
-            <v>65032</v>
+            <v>49389</v>
           </cell>
           <cell r="E74">
-            <v>61</v>
+            <v>32</v>
           </cell>
           <cell r="F74" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
@@ -2370,13 +2370,13 @@
             <v>37</v>
           </cell>
           <cell r="D75">
-            <v>79425</v>
+            <v>1365725</v>
           </cell>
           <cell r="E75">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="76">
@@ -2390,13 +2390,13 @@
             <v>37</v>
           </cell>
           <cell r="D76">
-            <v>59609</v>
+            <v>57809</v>
           </cell>
           <cell r="E76">
             <v>43</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-26</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="77">
@@ -2410,130 +2410,130 @@
             <v>38</v>
           </cell>
           <cell r="D77">
-            <v>91259</v>
+            <v>89135</v>
           </cell>
           <cell r="E77">
             <v>29</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
+            <v>41</v>
+          </cell>
+          <cell r="D78">
+            <v>6928</v>
+          </cell>
+          <cell r="E78">
             <v>38</v>
           </cell>
-          <cell r="D78">
-            <v>1412417</v>
-          </cell>
-          <cell r="E78">
-            <v>31</v>
-          </cell>
           <cell r="F78" t="str">
-            <v>2022-12-27</v>
+            <v>2023-01-03</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>39</v>
+            <v>41</v>
           </cell>
           <cell r="D79">
-            <v>51837</v>
+            <v>42512</v>
           </cell>
           <cell r="E79">
-            <v>32</v>
+            <v>53</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2022-12-28</v>
+            <v>2023-01-03</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>41</v>
+            <v>42</v>
           </cell>
           <cell r="D80">
-            <v>43574</v>
+            <v>229603</v>
           </cell>
           <cell r="E80">
-            <v>53</v>
+            <v>32</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2022-12-30</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="D81">
-            <v>7378</v>
+            <v>33337</v>
           </cell>
           <cell r="E81">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2023-01-04</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B82" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="D82">
-            <v>35425</v>
+            <v>34962</v>
           </cell>
           <cell r="E82">
-            <v>37</v>
+            <v>29</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2023-01-06</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>48</v>
+            <v>46</v>
           </cell>
           <cell r="D83">
-            <v>64537</v>
+            <v>16352</v>
           </cell>
           <cell r="E83">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F83" t="str">
             <v>2023-01-10</v>
@@ -2541,79 +2541,79 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>49</v>
+            <v>46</v>
           </cell>
           <cell r="D84">
-            <v>89152</v>
+            <v>37186</v>
           </cell>
           <cell r="E84">
-            <v>29</v>
+            <v>26</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>50</v>
+            <v>47</v>
           </cell>
           <cell r="D85">
-            <v>37878</v>
+            <v>61909</v>
           </cell>
           <cell r="E85">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2023-01-12</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>51</v>
+            <v>48</v>
           </cell>
           <cell r="D86">
-            <v>18260</v>
+            <v>31917</v>
           </cell>
           <cell r="E86">
-            <v>37</v>
+            <v>32</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>51</v>
+            <v>49</v>
           </cell>
           <cell r="D87">
-            <v>6901</v>
+            <v>88216</v>
           </cell>
           <cell r="E87">
-            <v>39</v>
+            <v>29</v>
           </cell>
           <cell r="F87" t="str">
             <v>2023-01-13</v>
@@ -2621,22 +2621,22 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>51</v>
+            <v>50</v>
           </cell>
           <cell r="D88">
-            <v>40786</v>
+            <v>6685</v>
           </cell>
           <cell r="E88">
-            <v>26</v>
+            <v>39</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="89">
@@ -2647,16 +2647,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>53</v>
+            <v>50</v>
           </cell>
           <cell r="D89">
-            <v>81928</v>
+            <v>77626</v>
           </cell>
           <cell r="E89">
             <v>29</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-17</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="90">
@@ -2667,10 +2667,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>57</v>
+            <v>55</v>
           </cell>
           <cell r="D90">
-            <v>37962</v>
+            <v>36234</v>
           </cell>
           <cell r="E90">
             <v>36</v>
@@ -2681,39 +2681,39 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C91">
-            <v>59</v>
+            <v>58</v>
           </cell>
           <cell r="D91">
-            <v>47682</v>
+            <v>6664</v>
           </cell>
           <cell r="E91">
-            <v>28</v>
+            <v>37</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B92" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C92">
-            <v>60</v>
+            <v>58</v>
           </cell>
           <cell r="D92">
-            <v>7006</v>
+            <v>89835</v>
           </cell>
           <cell r="E92">
-            <v>37</v>
+            <v>44</v>
           </cell>
           <cell r="F92" t="str">
             <v>2023-01-26</v>
@@ -2721,27 +2721,27 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="B93" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>60</v>
+            <v>71</v>
           </cell>
           <cell r="D93">
-            <v>94227</v>
+            <v>6286</v>
           </cell>
           <cell r="E93">
-            <v>44</v>
+            <v>48</v>
           </cell>
           <cell r="F93" t="str">
-            <v>2023-01-26</v>
+            <v>2023-02-14</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="B94" t="str">
             <v>Линия ИМА С 50</v>
@@ -2750,13 +2750,13 @@
             <v>72</v>
           </cell>
           <cell r="D94">
-            <v>6520</v>
+            <v>60192</v>
           </cell>
           <cell r="E94">
-            <v>48</v>
+            <v>28</v>
           </cell>
           <cell r="F94" t="str">
-            <v>2023-02-13</v>
+            <v>2023-02-15</v>
           </cell>
         </row>
         <row r="95">
@@ -2767,7 +2767,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="D95">
             <v>1818</v>
@@ -2776,7 +2776,7 @@
             <v>38</v>
           </cell>
           <cell r="F95" t="str">
-            <v>2023-02-24</v>
+            <v>2023-02-27</v>
           </cell>
         </row>
         <row r="96">
@@ -2787,16 +2787,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>185</v>
+            <v>176</v>
           </cell>
           <cell r="D96">
-            <v>6523</v>
+            <v>6181</v>
           </cell>
           <cell r="E96" t="str">
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-20</v>
+            <v>2023-07-11</v>
           </cell>
         </row>
         <row r="97">
@@ -2807,16 +2807,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>202</v>
+            <v>198</v>
           </cell>
           <cell r="D97">
-            <v>1134</v>
+            <v>1008</v>
           </cell>
           <cell r="E97">
             <v>100</v>
           </cell>
           <cell r="F97" t="str">
-            <v>2023-08-14</v>
+            <v>2023-08-10</v>
           </cell>
         </row>
         <row r="98">
@@ -2827,16 +2827,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>202</v>
+            <v>198</v>
           </cell>
           <cell r="D98">
-            <v>1098</v>
+            <v>1026</v>
           </cell>
           <cell r="E98">
             <v>100</v>
           </cell>
           <cell r="F98" t="str">
-            <v>2023-08-14</v>
+            <v>2023-08-10</v>
           </cell>
         </row>
         <row r="99">
@@ -2847,7 +2847,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>209</v>
+            <v>207</v>
           </cell>
           <cell r="D99">
             <v>1476</v>
@@ -2861,82 +2861,82 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="B100" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>9</v>
+            <v>13</v>
           </cell>
           <cell r="D100">
-            <v>19632</v>
+            <v>47022</v>
           </cell>
           <cell r="E100">
-            <v>37</v>
+            <v>31</v>
           </cell>
           <cell r="F100" t="str">
-            <v>2022-11-16</v>
+            <v>2022-11-24</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="B101" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>12</v>
+            <v>17</v>
           </cell>
           <cell r="D101">
-            <v>4084</v>
+            <v>9711</v>
           </cell>
           <cell r="E101">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-11-21</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="B102" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>14</v>
+            <v>18</v>
           </cell>
           <cell r="D102">
-            <v>51288</v>
+            <v>16971</v>
           </cell>
           <cell r="E102">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="F102" t="str">
-            <v>2022-11-23</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="B103" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C103">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D103">
-            <v>17979</v>
+            <v>18772</v>
           </cell>
           <cell r="E103">
             <v>30</v>
           </cell>
           <cell r="F103" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="104">
@@ -2950,13 +2950,13 @@
             <v>19</v>
           </cell>
           <cell r="D104">
-            <v>3718</v>
+            <v>3646</v>
           </cell>
           <cell r="E104">
             <v>34</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="105">
@@ -2967,76 +2967,76 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D105">
-            <v>15090</v>
+            <v>14154</v>
           </cell>
           <cell r="E105">
             <v>41</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="B106" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>21</v>
+            <v>23</v>
           </cell>
           <cell r="D106">
-            <v>22156</v>
+            <v>46164</v>
           </cell>
           <cell r="E106">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F106" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="B107" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D107">
-            <v>12969</v>
+            <v>2311</v>
           </cell>
           <cell r="E107">
-            <v>32</v>
+            <v>51</v>
           </cell>
           <cell r="F107" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="B108" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
+            <v>43</v>
+          </cell>
+          <cell r="D108">
+            <v>12454</v>
+          </cell>
+          <cell r="E108">
             <v>30</v>
           </cell>
-          <cell r="D108">
-            <v>2869</v>
-          </cell>
-          <cell r="E108">
-            <v>51</v>
-          </cell>
           <cell r="F108" t="str">
-            <v>2022-12-15</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
       </sheetData>
@@ -3058,22 +3058,22 @@
             <v>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</v>
           </cell>
           <cell r="C8">
-            <v>13</v>
+            <v>14</v>
           </cell>
           <cell r="D8">
-            <v>73</v>
+            <v>76</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
           </cell>
           <cell r="H8">
-            <v>81632</v>
+            <v>81536</v>
           </cell>
           <cell r="I8">
-            <v>81632</v>
+            <v>81536</v>
           </cell>
           <cell r="K8">
-            <v>203</v>
+            <v>199</v>
           </cell>
         </row>
         <row r="9">
@@ -3083,241 +3083,271 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C10">
-            <v>879</v>
+            <v>481</v>
           </cell>
           <cell r="D10">
-            <v>116</v>
+            <v>100</v>
           </cell>
           <cell r="H10">
-            <v>15792</v>
+            <v>11501</v>
           </cell>
           <cell r="I10">
-            <v>15792</v>
+            <v>11501</v>
           </cell>
           <cell r="K10">
             <v>16</v>
           </cell>
           <cell r="L10">
-            <v>15</v>
+            <v>16</v>
           </cell>
           <cell r="M10">
-            <v>33057</v>
+            <v>9193</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C11">
-            <v>302</v>
+            <v>1320</v>
           </cell>
           <cell r="D11">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H11">
-            <v>10789</v>
+            <v>26124</v>
           </cell>
           <cell r="I11">
-            <v>10789</v>
+            <v>26124</v>
           </cell>
           <cell r="K11">
-            <v>21</v>
+            <v>17</v>
           </cell>
           <cell r="L11">
-            <v>14</v>
+            <v>17</v>
           </cell>
           <cell r="M11">
-            <v>15267</v>
+            <v>30850</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C12">
-            <v>706</v>
+            <v>90</v>
           </cell>
           <cell r="D12">
-            <v>70</v>
+            <v>67</v>
           </cell>
           <cell r="E12" t="str">
             <v>↓</v>
           </cell>
           <cell r="H12">
-            <v>28830</v>
+            <v>3888</v>
           </cell>
           <cell r="I12">
-            <v>28830</v>
+            <v>3888</v>
           </cell>
           <cell r="K12">
-            <v>21</v>
+            <v>18</v>
           </cell>
           <cell r="L12">
-            <v>13</v>
+            <v>16</v>
           </cell>
           <cell r="M12">
-            <v>25445</v>
+            <v>5909</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C13">
-            <v>457</v>
+            <v>445</v>
           </cell>
           <cell r="D13">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="H13">
-            <v>14819</v>
+            <v>10513</v>
           </cell>
           <cell r="I13">
-            <v>14819</v>
+            <v>10513</v>
           </cell>
           <cell r="K13">
-            <v>21</v>
+            <v>18</v>
+          </cell>
+          <cell r="L13">
+            <v>16</v>
+          </cell>
+          <cell r="M13">
+            <v>20094</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C14">
-            <v>1263</v>
+            <v>628</v>
           </cell>
           <cell r="D14">
-            <v>91</v>
+            <v>98</v>
           </cell>
           <cell r="H14">
-            <v>33866</v>
+            <v>14489</v>
           </cell>
           <cell r="I14">
-            <v>33866</v>
+            <v>14489</v>
           </cell>
           <cell r="K14">
-            <v>22</v>
+            <v>19</v>
+          </cell>
+          <cell r="L14">
+            <v>15</v>
+          </cell>
+          <cell r="M14">
+            <v>21828</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C15">
-            <v>662</v>
+            <v>653</v>
           </cell>
           <cell r="D15">
-            <v>90</v>
+            <v>83</v>
           </cell>
           <cell r="H15">
-            <v>21800</v>
+            <v>22321</v>
           </cell>
           <cell r="I15">
-            <v>21800</v>
+            <v>22321</v>
           </cell>
           <cell r="K15">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="L15">
-            <v>13</v>
+            <v>17</v>
           </cell>
           <cell r="M15">
-            <v>13875</v>
+            <v>22517</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C16">
-            <v>428</v>
+            <v>431</v>
           </cell>
           <cell r="D16">
-            <v>95</v>
+            <v>79</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>↓</v>
+          </cell>
+          <cell r="F16">
+            <v>938</v>
+          </cell>
+          <cell r="G16">
+            <v>2</v>
           </cell>
           <cell r="H16">
-            <v>13005</v>
+            <v>14594</v>
           </cell>
           <cell r="I16">
-            <v>13005</v>
+            <v>14594</v>
           </cell>
           <cell r="K16">
-            <v>22</v>
+            <v>21</v>
+          </cell>
+          <cell r="L16">
+            <v>21</v>
+          </cell>
+          <cell r="M16">
+            <v>14902</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C17">
-            <v>617</v>
+            <v>598</v>
           </cell>
           <cell r="D17">
-            <v>96</v>
+            <v>93</v>
           </cell>
           <cell r="H17">
-            <v>16799</v>
+            <v>20974</v>
           </cell>
           <cell r="I17">
-            <v>16799</v>
+            <v>20974</v>
           </cell>
           <cell r="K17">
             <v>22</v>
           </cell>
           <cell r="L17">
-            <v>19</v>
+            <v>21</v>
           </cell>
           <cell r="M17">
-            <v>21828</v>
+            <v>19887</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C18">
-            <v>79</v>
+            <v>363</v>
           </cell>
           <cell r="D18">
-            <v>61</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>↓</v>
+            <v>94</v>
           </cell>
           <cell r="H18">
-            <v>4826</v>
+            <v>13185</v>
           </cell>
           <cell r="I18">
-            <v>4826</v>
+            <v>13185</v>
           </cell>
           <cell r="K18">
             <v>23</v>
           </cell>
           <cell r="L18">
-            <v>20</v>
+            <v>21</v>
           </cell>
           <cell r="M18">
-            <v>5909</v>
+            <v>14671</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C19">
-            <v>641</v>
+            <v>2312</v>
           </cell>
           <cell r="D19">
-            <v>84</v>
+            <v>92</v>
+          </cell>
+          <cell r="F19">
+            <v>3360</v>
+          </cell>
+          <cell r="G19">
+            <v>2</v>
           </cell>
           <cell r="H19">
-            <v>24211</v>
+            <v>56245</v>
           </cell>
           <cell r="I19">
-            <v>24211</v>
+            <v>56245</v>
           </cell>
           <cell r="K19">
             <v>23</v>
@@ -3325,10 +3355,10 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C20">
-            <v>415</v>
+            <v>648</v>
           </cell>
           <cell r="D20">
             <v>79</v>
@@ -3336,174 +3366,168 @@
           <cell r="E20" t="str">
             <v>↓</v>
           </cell>
-          <cell r="F20">
-            <v>938</v>
-          </cell>
-          <cell r="G20">
-            <v>2</v>
-          </cell>
           <cell r="H20">
-            <v>16008</v>
+            <v>23651</v>
           </cell>
           <cell r="I20">
-            <v>16008</v>
+            <v>23651</v>
           </cell>
           <cell r="K20">
-            <v>23</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C21">
-            <v>355</v>
+            <v>485</v>
           </cell>
           <cell r="D21">
-            <v>95</v>
+            <v>96</v>
           </cell>
           <cell r="H21">
-            <v>15033</v>
+            <v>21023</v>
           </cell>
           <cell r="I21">
-            <v>15033</v>
+            <v>21023</v>
           </cell>
           <cell r="K21">
-            <v>26</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C22">
-            <v>574</v>
+            <v>2138</v>
           </cell>
           <cell r="D22">
-            <v>92</v>
+            <v>110</v>
           </cell>
           <cell r="H22">
-            <v>23942</v>
+            <v>54488</v>
           </cell>
           <cell r="I22">
-            <v>23942</v>
+            <v>15378</v>
           </cell>
           <cell r="K22">
-            <v>26</v>
+            <v>24</v>
+          </cell>
+          <cell r="L22">
+            <v>21</v>
+          </cell>
+          <cell r="M22">
+            <v>39400</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C23">
-            <v>2305</v>
+            <v>265</v>
           </cell>
           <cell r="D23">
-            <v>92</v>
-          </cell>
-          <cell r="F23">
-            <v>3360</v>
-          </cell>
-          <cell r="G23">
-            <v>2</v>
+            <v>110</v>
           </cell>
           <cell r="H23">
-            <v>62559</v>
+            <v>7521</v>
           </cell>
           <cell r="I23">
-            <v>62559</v>
+            <v>7521</v>
           </cell>
           <cell r="K23">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C24">
-            <v>476</v>
+            <v>587</v>
           </cell>
           <cell r="D24">
-            <v>100</v>
+            <v>86</v>
           </cell>
           <cell r="H24">
-            <v>23025</v>
+            <v>23015</v>
           </cell>
           <cell r="I24">
-            <v>23025</v>
+            <v>23015</v>
           </cell>
           <cell r="K24">
-            <v>27</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C25">
-            <v>626</v>
+            <v>428</v>
           </cell>
           <cell r="D25">
-            <v>80</v>
+            <v>94</v>
           </cell>
           <cell r="H25">
-            <v>26353</v>
+            <v>13305</v>
           </cell>
           <cell r="I25">
-            <v>26353</v>
+            <v>13305</v>
           </cell>
           <cell r="K25">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C26">
-            <v>959</v>
+            <v>424</v>
           </cell>
           <cell r="D26">
-            <v>81</v>
+            <v>108</v>
           </cell>
           <cell r="H26">
-            <v>37026</v>
+            <v>12668</v>
           </cell>
           <cell r="I26">
-            <v>37026</v>
+            <v>12668</v>
           </cell>
           <cell r="K26">
-            <v>28</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C27">
-            <v>571</v>
+            <v>3234</v>
           </cell>
           <cell r="D27">
-            <v>87</v>
+            <v>80</v>
           </cell>
           <cell r="H27">
-            <v>25955</v>
+            <v>91497</v>
           </cell>
           <cell r="I27">
-            <v>25955</v>
+            <v>91497</v>
           </cell>
           <cell r="K27">
-            <v>28</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C28">
-            <v>3186</v>
+            <v>978</v>
           </cell>
           <cell r="D28">
             <v>79</v>
@@ -3512,110 +3536,113 @@
             <v>↓</v>
           </cell>
           <cell r="H28">
-            <v>98343</v>
+            <v>35220</v>
           </cell>
           <cell r="I28">
-            <v>98343</v>
+            <v>35220</v>
           </cell>
           <cell r="K28">
-            <v>28</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C29">
-            <v>409</v>
+            <v>418</v>
           </cell>
           <cell r="D29">
-            <v>93</v>
+            <v>82</v>
           </cell>
           <cell r="H29">
-            <v>15083</v>
+            <v>18671</v>
           </cell>
           <cell r="I29">
-            <v>15083</v>
+            <v>18671</v>
           </cell>
           <cell r="K29">
-            <v>29</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C30">
-            <v>263</v>
+            <v>385</v>
           </cell>
           <cell r="D30">
-            <v>110</v>
+            <v>92</v>
           </cell>
           <cell r="H30">
-            <v>8991</v>
+            <v>21306</v>
           </cell>
           <cell r="I30">
-            <v>8991</v>
+            <v>21306</v>
           </cell>
           <cell r="K30">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C31">
-            <v>2060</v>
+            <v>299</v>
           </cell>
           <cell r="D31">
-            <v>106</v>
+            <v>78</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H31">
-            <v>69482</v>
+            <v>18963</v>
           </cell>
           <cell r="I31">
-            <v>30372</v>
+            <v>18963</v>
           </cell>
           <cell r="K31">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C32">
-            <v>412</v>
+            <v>281</v>
           </cell>
           <cell r="D32">
-            <v>83</v>
+            <v>90</v>
           </cell>
           <cell r="H32">
-            <v>20211</v>
+            <v>12278</v>
           </cell>
           <cell r="I32">
-            <v>20211</v>
+            <v>12278</v>
           </cell>
           <cell r="K32">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Береза почки 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C33">
-            <v>292</v>
+            <v>445</v>
           </cell>
           <cell r="D33">
-            <v>81</v>
+            <v>93</v>
           </cell>
           <cell r="H33">
-            <v>19859</v>
+            <v>23160</v>
           </cell>
           <cell r="I33">
-            <v>19859</v>
+            <v>23160</v>
           </cell>
           <cell r="K33">
             <v>30</v>
@@ -3623,139 +3650,139 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C34">
-            <v>489</v>
+            <v>542</v>
           </cell>
           <cell r="D34">
-            <v>87</v>
+            <v>86</v>
           </cell>
           <cell r="H34">
-            <v>23367</v>
+            <v>30775</v>
           </cell>
           <cell r="I34">
-            <v>23367</v>
+            <v>30775</v>
           </cell>
           <cell r="K34">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C35">
-            <v>412</v>
+            <v>498</v>
           </cell>
           <cell r="D35">
-            <v>105</v>
+            <v>86</v>
           </cell>
           <cell r="H35">
-            <v>15230</v>
+            <v>22009</v>
           </cell>
           <cell r="I35">
-            <v>15230</v>
+            <v>22009</v>
           </cell>
           <cell r="K35">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C36">
-            <v>373</v>
+            <v>194</v>
           </cell>
           <cell r="D36">
-            <v>94</v>
+            <v>84</v>
           </cell>
           <cell r="H36">
-            <v>22734</v>
+            <v>10178</v>
           </cell>
           <cell r="I36">
-            <v>22734</v>
+            <v>10178</v>
           </cell>
           <cell r="K36">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C37">
-            <v>281</v>
+            <v>983</v>
           </cell>
           <cell r="D37">
-            <v>92</v>
+            <v>81</v>
           </cell>
           <cell r="H37">
-            <v>13384</v>
+            <v>40146</v>
           </cell>
           <cell r="I37">
-            <v>13384</v>
+            <v>40146</v>
           </cell>
           <cell r="K37">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C38">
-            <v>430</v>
+            <v>139</v>
           </cell>
           <cell r="D38">
-            <v>94</v>
+            <v>110</v>
           </cell>
           <cell r="H38">
-            <v>25218</v>
+            <v>5027</v>
           </cell>
           <cell r="I38">
-            <v>25218</v>
+            <v>1235</v>
           </cell>
           <cell r="K38">
-            <v>32</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C39">
-            <v>535</v>
+            <v>226</v>
           </cell>
           <cell r="D39">
-            <v>89</v>
+            <v>103</v>
           </cell>
           <cell r="H39">
-            <v>32721</v>
+            <v>8569</v>
           </cell>
           <cell r="I39">
-            <v>32721</v>
+            <v>8569</v>
           </cell>
           <cell r="K39">
-            <v>32</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C40">
-            <v>189</v>
+            <v>687</v>
           </cell>
           <cell r="D40">
-            <v>86</v>
+            <v>90</v>
           </cell>
           <cell r="H40">
-            <v>11116</v>
+            <v>32930</v>
           </cell>
           <cell r="I40">
-            <v>11116</v>
+            <v>19014</v>
           </cell>
           <cell r="K40">
             <v>33</v>
@@ -3763,19 +3790,19 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C41">
-            <v>966</v>
+            <v>41</v>
           </cell>
           <cell r="D41">
-            <v>81</v>
+            <v>89</v>
           </cell>
           <cell r="H41">
-            <v>43534</v>
+            <v>2156</v>
           </cell>
           <cell r="I41">
-            <v>43534</v>
+            <v>2156</v>
           </cell>
           <cell r="K41">
             <v>33</v>
@@ -3783,62 +3810,62 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C42">
-            <v>228</v>
+            <v>310</v>
           </cell>
           <cell r="D42">
-            <v>104</v>
+            <v>83</v>
           </cell>
           <cell r="H42">
-            <v>9339</v>
+            <v>19008</v>
           </cell>
           <cell r="I42">
-            <v>9339</v>
+            <v>19008</v>
           </cell>
           <cell r="K42">
-            <v>35</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C43">
-            <v>303</v>
+            <v>1137</v>
           </cell>
           <cell r="D43">
-            <v>84</v>
+            <v>85</v>
           </cell>
           <cell r="H43">
-            <v>19918</v>
+            <v>68099</v>
           </cell>
           <cell r="I43">
-            <v>19918</v>
+            <v>68099</v>
           </cell>
           <cell r="K43">
-            <v>36</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Лен семена 100г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C44">
-            <v>1098</v>
+            <v>219</v>
           </cell>
           <cell r="D44">
-            <v>83</v>
+            <v>100</v>
           </cell>
           <cell r="H44">
-            <v>75169</v>
+            <v>12676</v>
           </cell>
           <cell r="I44">
-            <v>75169</v>
+            <v>12676</v>
           </cell>
           <cell r="K44">
-            <v>39</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="45">
@@ -3846,36 +3873,36 @@
             <v>Череда трава 50г</v>
           </cell>
           <cell r="C45">
-            <v>330</v>
+            <v>328</v>
           </cell>
           <cell r="D45">
-            <v>93</v>
+            <v>92</v>
           </cell>
           <cell r="H45">
-            <v>16019</v>
+            <v>14983</v>
           </cell>
           <cell r="I45">
-            <v>5718</v>
+            <v>14983</v>
           </cell>
           <cell r="K45">
-            <v>40</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C46">
-            <v>222</v>
+            <v>844</v>
           </cell>
           <cell r="D46">
-            <v>104</v>
+            <v>94</v>
           </cell>
           <cell r="H46">
-            <v>14300</v>
+            <v>47815</v>
           </cell>
           <cell r="I46">
-            <v>14300</v>
+            <v>47815</v>
           </cell>
           <cell r="K46">
             <v>41</v>
@@ -3883,19 +3910,22 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="C47">
-            <v>36</v>
+            <v>726</v>
           </cell>
           <cell r="D47">
-            <v>82</v>
+            <v>69</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H47">
-            <v>2660</v>
+            <v>52318</v>
           </cell>
           <cell r="I47">
-            <v>2660</v>
+            <v>26646</v>
           </cell>
           <cell r="K47">
             <v>41</v>
@@ -3903,122 +3933,122 @@
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C48">
-            <v>122</v>
+            <v>340</v>
           </cell>
           <cell r="D48">
-            <v>96</v>
+            <v>92</v>
           </cell>
           <cell r="H48">
-            <v>6511</v>
+            <v>21641</v>
           </cell>
           <cell r="I48">
-            <v>2719</v>
+            <v>21641</v>
           </cell>
           <cell r="K48">
-            <v>43</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C49">
-            <v>266</v>
+            <v>291</v>
           </cell>
           <cell r="D49">
-            <v>107</v>
+            <v>94</v>
           </cell>
           <cell r="H49">
-            <v>12207</v>
+            <v>18772</v>
           </cell>
           <cell r="I49">
-            <v>1105</v>
+            <v>18772</v>
           </cell>
           <cell r="K49">
-            <v>45</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C50">
-            <v>283</v>
+            <v>266</v>
           </cell>
           <cell r="D50">
-            <v>94</v>
+            <v>107</v>
           </cell>
           <cell r="H50">
-            <v>20382</v>
+            <v>11409</v>
           </cell>
           <cell r="I50">
-            <v>9574</v>
+            <v>307</v>
           </cell>
           <cell r="K50">
-            <v>45</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C51">
-            <v>799</v>
+            <v>151</v>
           </cell>
           <cell r="D51">
-            <v>92</v>
+            <v>87</v>
           </cell>
           <cell r="H51">
-            <v>53513</v>
+            <v>8693</v>
           </cell>
           <cell r="I51">
-            <v>25844</v>
+            <v>8693</v>
           </cell>
           <cell r="K51">
-            <v>46</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C52">
-            <v>342</v>
+            <v>318</v>
           </cell>
           <cell r="D52">
-            <v>94</v>
+            <v>95</v>
           </cell>
           <cell r="H52">
-            <v>23783</v>
+            <v>23725</v>
           </cell>
           <cell r="I52">
-            <v>8108</v>
+            <v>8521</v>
           </cell>
           <cell r="K52">
-            <v>47</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C53">
-            <v>144</v>
+            <v>887</v>
           </cell>
           <cell r="D53">
-            <v>87</v>
+            <v>114</v>
           </cell>
           <cell r="H53">
-            <v>9281</v>
+            <v>47698</v>
           </cell>
           <cell r="I53">
-            <v>9281</v>
+            <v>14448</v>
           </cell>
           <cell r="K53">
-            <v>50</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="54">
@@ -4026,16 +4056,16 @@
             <v>Крапива листья 50г</v>
           </cell>
           <cell r="C54">
-            <v>306</v>
+            <v>301</v>
           </cell>
           <cell r="D54">
-            <v>97</v>
+            <v>92</v>
           </cell>
           <cell r="H54">
-            <v>25093</v>
+            <v>24295</v>
           </cell>
           <cell r="I54">
-            <v>25093</v>
+            <v>24295</v>
           </cell>
           <cell r="K54">
             <v>51</v>
@@ -4046,13 +4076,10 @@
             <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>176</v>
+            <v>192</v>
           </cell>
           <cell r="D55">
-            <v>79</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>↓</v>
+            <v>83</v>
           </cell>
           <cell r="F55">
             <v>280</v>
@@ -4061,13 +4088,13 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>12720</v>
+            <v>11334</v>
           </cell>
           <cell r="I55">
-            <v>12720</v>
+            <v>11334</v>
           </cell>
           <cell r="K55">
-            <v>60</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="56">
@@ -4082,45 +4109,51 @@
         </row>
         <row r="58">
           <cell r="B58" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C58">
-            <v>423</v>
+            <v>90</v>
           </cell>
           <cell r="D58">
-            <v>75</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>↓</v>
+            <v>113</v>
           </cell>
           <cell r="H58">
-            <v>13229</v>
+            <v>1598</v>
           </cell>
           <cell r="I58">
-            <v>13229</v>
+            <v>1598</v>
+          </cell>
+          <cell r="J58" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K58">
-            <v>23</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>80</v>
+            <v>433</v>
           </cell>
           <cell r="D59">
-            <v>103</v>
+            <v>77</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H59">
-            <v>2538</v>
+            <v>11129</v>
           </cell>
           <cell r="I59">
-            <v>2538</v>
+            <v>11129</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K59">
-            <v>25</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="60">
@@ -4128,19 +4161,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>107</v>
+            <v>113</v>
           </cell>
           <cell r="D60">
-            <v>99</v>
+            <v>101</v>
           </cell>
           <cell r="H60">
-            <v>4331</v>
+            <v>3741</v>
           </cell>
           <cell r="I60">
-            <v>4331</v>
+            <v>3741</v>
           </cell>
           <cell r="K60">
-            <v>32</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="61">
@@ -4148,22 +4181,22 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>41</v>
+            <v>46</v>
           </cell>
           <cell r="D61">
-            <v>49</v>
+            <v>53</v>
           </cell>
           <cell r="E61" t="str">
             <v>↓</v>
           </cell>
           <cell r="H61">
-            <v>4610</v>
+            <v>4070</v>
           </cell>
           <cell r="I61">
-            <v>4610</v>
+            <v>4070</v>
           </cell>
           <cell r="K61">
-            <v>35</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="62">
@@ -4171,19 +4204,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>119</v>
+            <v>128</v>
           </cell>
           <cell r="D62">
-            <v>93</v>
+            <v>99</v>
           </cell>
           <cell r="H62">
-            <v>7408</v>
+            <v>6398</v>
           </cell>
           <cell r="I62">
-            <v>7408</v>
+            <v>6398</v>
           </cell>
           <cell r="K62">
-            <v>51</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="63">
@@ -4191,22 +4224,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>17</v>
+            <v>18</v>
           </cell>
           <cell r="D63">
-            <v>69</v>
+            <v>73</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>8250</v>
+            <v>8110</v>
           </cell>
           <cell r="I63">
-            <v>8250</v>
+            <v>8110</v>
           </cell>
           <cell r="K63">
-            <v>145</v>
+            <v>142</v>
           </cell>
         </row>
         <row r="64">
@@ -4217,19 +4250,19 @@
             <v>10</v>
           </cell>
           <cell r="D64">
-            <v>62</v>
+            <v>63</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9720</v>
+            <v>9670</v>
           </cell>
           <cell r="I64">
-            <v>9720</v>
+            <v>9670</v>
           </cell>
           <cell r="K64">
-            <v>203</v>
+            <v>199</v>
           </cell>
         </row>
         <row r="65">
@@ -4242,16 +4275,10 @@
             <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C66">
-            <v>203</v>
+            <v>193</v>
           </cell>
           <cell r="D66">
-            <v>114</v>
-          </cell>
-          <cell r="H66">
-            <v>90</v>
-          </cell>
-          <cell r="I66">
-            <v>90</v>
+            <v>112</v>
           </cell>
           <cell r="J66" t="str">
             <v>!!!</v>
@@ -4262,10 +4289,10 @@
             <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>54</v>
+            <v>51</v>
           </cell>
           <cell r="D67">
-            <v>92</v>
+            <v>91</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
@@ -4276,77 +4303,77 @@
             <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="C68">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D68">
-            <v>41</v>
+            <v>37</v>
           </cell>
           <cell r="E68" t="str">
             <v>↓</v>
           </cell>
           <cell r="H68">
-            <v>1134</v>
+            <v>1008</v>
           </cell>
           <cell r="I68">
-            <v>1134</v>
+            <v>1008</v>
           </cell>
           <cell r="J68" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K68">
-            <v>7</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69" t="str">
-            <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="C69">
             <v>25</v>
           </cell>
           <cell r="D69">
-            <v>30</v>
+            <v>38</v>
           </cell>
           <cell r="E69" t="str">
             <v>↓</v>
           </cell>
+          <cell r="F69">
+            <v>36</v>
+          </cell>
+          <cell r="G69">
+            <v>1</v>
+          </cell>
           <cell r="H69">
-            <v>1476</v>
+            <v>1026</v>
           </cell>
           <cell r="I69">
-            <v>1476</v>
+            <v>1026</v>
           </cell>
           <cell r="J69" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K69">
-            <v>10</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70" t="str">
-            <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
           </cell>
           <cell r="C70">
+            <v>23</v>
+          </cell>
+          <cell r="D70">
             <v>26</v>
-          </cell>
-          <cell r="D70">
-            <v>42</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
           </cell>
-          <cell r="F70">
-            <v>36</v>
-          </cell>
-          <cell r="G70">
-            <v>1</v>
-          </cell>
           <cell r="H70">
-            <v>1098</v>
+            <v>1476</v>
           </cell>
           <cell r="I70">
-            <v>1098</v>
+            <v>1476</v>
           </cell>
           <cell r="J70" t="str">
             <v>!!!</v>
@@ -4360,25 +4387,25 @@
             <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
           </cell>
           <cell r="C71">
-            <v>25</v>
+            <v>31</v>
           </cell>
           <cell r="D71">
-            <v>39</v>
+            <v>44</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
           <cell r="H71">
-            <v>2502</v>
+            <v>1998</v>
           </cell>
           <cell r="I71">
-            <v>2502</v>
+            <v>1998</v>
           </cell>
           <cell r="J71" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K71">
-            <v>17</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="72">
@@ -4386,7 +4413,7 @@
             <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C72">
-            <v>2601</v>
+            <v>2700</v>
           </cell>
           <cell r="D72">
             <v>84</v>
@@ -4398,114 +4425,114 @@
             <v>3</v>
           </cell>
           <cell r="H72">
-            <v>112794</v>
+            <v>101778</v>
           </cell>
           <cell r="I72">
-            <v>112794</v>
+            <v>101778</v>
           </cell>
           <cell r="K72">
-            <v>29</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C73">
-            <v>6</v>
+            <v>1497</v>
           </cell>
           <cell r="D73">
-            <v>238</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>↑</v>
+            <v>98</v>
           </cell>
           <cell r="H73">
-            <v>1062</v>
+            <v>49883</v>
           </cell>
           <cell r="I73">
-            <v>1062</v>
+            <v>49883</v>
           </cell>
           <cell r="K73">
-            <v>31</v>
+            <v>27</v>
+          </cell>
+          <cell r="L73">
+            <v>14</v>
+          </cell>
+          <cell r="M73">
+            <v>40112</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C74">
-            <v>1429</v>
+            <v>6</v>
           </cell>
           <cell r="D74">
-            <v>94</v>
+            <v>234</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H74">
-            <v>58559</v>
+            <v>1062</v>
           </cell>
           <cell r="I74">
-            <v>58559</v>
+            <v>1062</v>
           </cell>
           <cell r="K74">
-            <v>32</v>
-          </cell>
-          <cell r="L74">
-            <v>18</v>
-          </cell>
-          <cell r="M74">
-            <v>40112</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C75">
-            <v>13970</v>
+            <v>989</v>
           </cell>
           <cell r="D75">
-            <v>86</v>
+            <v>104</v>
+          </cell>
+          <cell r="F75">
+            <v>630</v>
+          </cell>
+          <cell r="G75">
+            <v>1</v>
           </cell>
           <cell r="H75">
-            <v>566985</v>
+            <v>40041</v>
           </cell>
           <cell r="I75">
-            <v>566985</v>
+            <v>40041</v>
           </cell>
           <cell r="K75">
-            <v>33</v>
+            <v>32</v>
+          </cell>
+          <cell r="L75">
+            <v>15</v>
+          </cell>
+          <cell r="M75">
+            <v>29426</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>947</v>
+            <v>14033</v>
           </cell>
           <cell r="D76">
-            <v>102</v>
-          </cell>
-          <cell r="F76">
-            <v>630</v>
-          </cell>
-          <cell r="G76">
-            <v>1</v>
+            <v>83</v>
           </cell>
           <cell r="H76">
-            <v>44649</v>
+            <v>561621</v>
           </cell>
           <cell r="I76">
-            <v>44649</v>
+            <v>561621</v>
           </cell>
           <cell r="K76">
-            <v>36</v>
-          </cell>
-          <cell r="L76">
-            <v>19</v>
-          </cell>
-          <cell r="M76">
-            <v>29426</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="77">
@@ -4513,19 +4540,25 @@
             <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C77">
-            <v>3847</v>
+            <v>4000</v>
           </cell>
           <cell r="D77">
-            <v>90</v>
+            <v>93</v>
           </cell>
           <cell r="H77">
-            <v>172263</v>
+            <v>155217</v>
           </cell>
           <cell r="I77">
-            <v>121791</v>
+            <v>155217</v>
           </cell>
           <cell r="K77">
-            <v>38</v>
+            <v>34</v>
+          </cell>
+          <cell r="L77">
+            <v>16</v>
+          </cell>
+          <cell r="M77">
+            <v>49249</v>
           </cell>
         </row>
         <row r="78">
@@ -4533,65 +4566,71 @@
             <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C78">
-            <v>294</v>
+            <v>317</v>
           </cell>
           <cell r="D78">
-            <v>89</v>
+            <v>94</v>
           </cell>
           <cell r="H78">
-            <v>20620</v>
+            <v>18262</v>
           </cell>
           <cell r="I78">
-            <v>10145</v>
+            <v>18262</v>
           </cell>
           <cell r="K78">
-            <v>41</v>
+            <v>36</v>
+          </cell>
+          <cell r="L78">
+            <v>17</v>
+          </cell>
+          <cell r="M78">
+            <v>9825</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C79">
-            <v>318</v>
+            <v>749</v>
           </cell>
           <cell r="D79">
-            <v>92</v>
+            <v>99</v>
           </cell>
           <cell r="H79">
-            <v>23043</v>
+            <v>28674</v>
           </cell>
           <cell r="I79">
-            <v>23043</v>
+            <v>28674</v>
           </cell>
           <cell r="K79">
-            <v>42</v>
-          </cell>
-          <cell r="L79">
-            <v>18</v>
-          </cell>
-          <cell r="M79">
-            <v>10096</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C80">
-            <v>733</v>
+            <v>1397</v>
           </cell>
           <cell r="D80">
-            <v>98</v>
+            <v>97</v>
           </cell>
           <cell r="H80">
-            <v>32328</v>
+            <v>73431</v>
           </cell>
           <cell r="I80">
-            <v>32328</v>
+            <v>73431</v>
           </cell>
           <cell r="K80">
-            <v>43</v>
+            <v>42</v>
+          </cell>
+          <cell r="L80">
+            <v>17</v>
+          </cell>
+          <cell r="M80">
+            <v>40138</v>
           </cell>
         </row>
         <row r="81">
@@ -4599,105 +4638,105 @@
             <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>1073</v>
+            <v>1085</v>
           </cell>
           <cell r="D81">
-            <v>85</v>
+            <v>84</v>
           </cell>
           <cell r="H81">
-            <v>65032</v>
+            <v>64024</v>
           </cell>
           <cell r="I81">
-            <v>65032</v>
+            <v>64024</v>
           </cell>
           <cell r="K81">
-            <v>44</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C82">
-            <v>3565</v>
+            <v>190</v>
           </cell>
           <cell r="D82">
             <v>86</v>
           </cell>
           <cell r="H82">
-            <v>171139</v>
+            <v>16352</v>
           </cell>
           <cell r="I82">
-            <v>133915</v>
+            <v>16352</v>
           </cell>
           <cell r="K82">
-            <v>45</v>
-          </cell>
-          <cell r="L82">
-            <v>15</v>
-          </cell>
-          <cell r="M82">
-            <v>65254</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C83">
-            <v>1353</v>
+            <v>68</v>
           </cell>
           <cell r="D83">
-            <v>95</v>
+            <v>93</v>
           </cell>
           <cell r="H83">
-            <v>79425</v>
+            <v>3460</v>
           </cell>
           <cell r="I83">
-            <v>79425</v>
+            <v>3460</v>
           </cell>
           <cell r="K83">
-            <v>46</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C84">
-            <v>66</v>
+            <v>594</v>
           </cell>
           <cell r="D84">
-            <v>90</v>
+            <v>107</v>
           </cell>
           <cell r="H84">
-            <v>3784</v>
+            <v>36937</v>
           </cell>
           <cell r="I84">
-            <v>3784</v>
+            <v>36937</v>
           </cell>
           <cell r="K84">
-            <v>47</v>
+            <v>44</v>
+          </cell>
+          <cell r="L84">
+            <v>17</v>
+          </cell>
+          <cell r="M84">
+            <v>9849</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C85">
-            <v>582</v>
+            <v>1287</v>
           </cell>
           <cell r="D85">
-            <v>109</v>
+            <v>91</v>
           </cell>
           <cell r="H85">
-            <v>38989</v>
+            <v>66606</v>
           </cell>
           <cell r="I85">
-            <v>22303</v>
+            <v>66606</v>
           </cell>
           <cell r="K85">
-            <v>47</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="86">
@@ -4705,22 +4744,22 @@
             <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C86">
-            <v>29566</v>
+            <v>30083</v>
           </cell>
           <cell r="D86">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H86">
-            <v>1412417</v>
+            <v>1365725</v>
           </cell>
           <cell r="I86">
-            <v>1412417</v>
+            <v>1365725</v>
           </cell>
           <cell r="K86">
-            <v>47</v>
+            <v>45</v>
           </cell>
           <cell r="L86">
-            <v>25</v>
+            <v>21</v>
           </cell>
           <cell r="M86">
             <v>227708</v>
@@ -4728,145 +4767,145 @@
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C87">
-            <v>173</v>
+            <v>744</v>
           </cell>
           <cell r="D87">
-            <v>82</v>
+            <v>92</v>
           </cell>
           <cell r="H87">
-            <v>18260</v>
+            <v>42512</v>
           </cell>
           <cell r="I87">
-            <v>18260</v>
+            <v>42512</v>
           </cell>
           <cell r="K87">
-            <v>48</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C88">
-            <v>897</v>
+            <v>1411</v>
           </cell>
           <cell r="D88">
-            <v>84</v>
+            <v>105</v>
           </cell>
           <cell r="H88">
-            <v>47682</v>
+            <v>85659</v>
           </cell>
           <cell r="I88">
-            <v>47682</v>
+            <v>85659</v>
           </cell>
           <cell r="K88">
-            <v>48</v>
-          </cell>
-          <cell r="L88">
-            <v>15</v>
-          </cell>
-          <cell r="M88">
-            <v>16414</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C89">
-            <v>734</v>
+            <v>118</v>
           </cell>
           <cell r="D89">
-            <v>94</v>
+            <v>110</v>
           </cell>
           <cell r="H89">
-            <v>43574</v>
+            <v>6006</v>
           </cell>
           <cell r="I89">
-            <v>33656</v>
+            <v>6006</v>
           </cell>
           <cell r="K89">
-            <v>48</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C90">
-            <v>1253</v>
+            <v>129</v>
           </cell>
           <cell r="D90">
-            <v>89</v>
+            <v>86</v>
           </cell>
           <cell r="H90">
-            <v>72654</v>
+            <v>7632</v>
           </cell>
           <cell r="I90">
-            <v>72654</v>
+            <v>7632</v>
           </cell>
           <cell r="K90">
-            <v>49</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C91">
-            <v>117</v>
+            <v>47</v>
           </cell>
           <cell r="D91">
-            <v>111</v>
+            <v>75</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H91">
-            <v>6402</v>
+            <v>5130</v>
           </cell>
           <cell r="I91">
-            <v>6402</v>
+            <v>5130</v>
           </cell>
           <cell r="K91">
-            <v>50</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C92">
-            <v>1358</v>
+            <v>4</v>
           </cell>
           <cell r="D92">
-            <v>103</v>
+            <v>155</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H92">
-            <v>92049</v>
+            <v>1818</v>
           </cell>
           <cell r="I92">
-            <v>92049</v>
+            <v>1818</v>
           </cell>
           <cell r="K92">
-            <v>50</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C93">
-            <v>816</v>
+            <v>821</v>
           </cell>
           <cell r="D93">
-            <v>88</v>
+            <v>111</v>
           </cell>
           <cell r="H93">
-            <v>59609</v>
+            <v>45377</v>
           </cell>
           <cell r="I93">
-            <v>44219</v>
+            <v>25347</v>
           </cell>
           <cell r="K93">
             <v>51</v>
@@ -4874,88 +4913,79 @@
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C94">
-            <v>111</v>
+            <v>376</v>
           </cell>
           <cell r="D94">
-            <v>76</v>
-          </cell>
-          <cell r="E94" t="str">
-            <v>↓</v>
+            <v>81</v>
           </cell>
           <cell r="H94">
-            <v>9270</v>
+            <v>33337</v>
           </cell>
           <cell r="I94">
-            <v>9270</v>
+            <v>33337</v>
           </cell>
           <cell r="K94">
-            <v>52</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C95">
-            <v>40</v>
+            <v>829</v>
           </cell>
           <cell r="D95">
-            <v>66</v>
-          </cell>
-          <cell r="E95" t="str">
-            <v>↓</v>
+            <v>86</v>
           </cell>
           <cell r="H95">
-            <v>5814</v>
+            <v>57809</v>
           </cell>
           <cell r="I95">
-            <v>5814</v>
+            <v>57809</v>
           </cell>
           <cell r="K95">
-            <v>52</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C96">
-            <v>763</v>
+            <v>541</v>
           </cell>
           <cell r="D96">
-            <v>91</v>
+            <v>105</v>
           </cell>
           <cell r="H96">
-            <v>64537</v>
+            <v>34962</v>
           </cell>
           <cell r="I96">
-            <v>64537</v>
+            <v>34962</v>
           </cell>
           <cell r="K96">
-            <v>53</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C97">
-            <v>4</v>
+            <v>764</v>
           </cell>
           <cell r="D97">
-            <v>162</v>
-          </cell>
-          <cell r="E97" t="str">
-            <v>↑</v>
+            <v>89</v>
           </cell>
           <cell r="H97">
-            <v>1818</v>
+            <v>61909</v>
           </cell>
           <cell r="I97">
-            <v>1818</v>
+            <v>61909</v>
           </cell>
           <cell r="K97">
             <v>53</v>
@@ -4963,19 +4993,19 @@
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C98">
-            <v>353</v>
+            <v>878</v>
           </cell>
           <cell r="D98">
-            <v>80</v>
+            <v>81</v>
           </cell>
           <cell r="H98">
-            <v>35425</v>
+            <v>77626</v>
           </cell>
           <cell r="I98">
-            <v>25417</v>
+            <v>46523</v>
           </cell>
           <cell r="K98">
             <v>54</v>
@@ -4983,19 +5013,19 @@
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C99">
-            <v>831</v>
+            <v>1291</v>
           </cell>
           <cell r="D99">
-            <v>115</v>
+            <v>84</v>
           </cell>
           <cell r="H99">
-            <v>48311</v>
+            <v>89135</v>
           </cell>
           <cell r="I99">
-            <v>28281</v>
+            <v>89135</v>
           </cell>
           <cell r="K99">
             <v>54</v>
@@ -5003,105 +5033,105 @@
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C100">
-            <v>1301</v>
+            <v>623</v>
           </cell>
           <cell r="D100">
-            <v>86</v>
+            <v>89</v>
           </cell>
           <cell r="H100">
-            <v>91259</v>
+            <v>49389</v>
           </cell>
           <cell r="I100">
-            <v>91259</v>
+            <v>49389</v>
           </cell>
           <cell r="K100">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C101">
-            <v>623</v>
+            <v>6</v>
           </cell>
           <cell r="D101">
-            <v>92</v>
+            <v>228</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H101">
-            <v>51837</v>
+            <v>1854</v>
           </cell>
           <cell r="I101">
-            <v>51837</v>
+            <v>1854</v>
           </cell>
           <cell r="K101">
-            <v>55</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C102">
-            <v>848</v>
+            <v>904</v>
           </cell>
           <cell r="D102">
-            <v>80</v>
+            <v>87</v>
           </cell>
           <cell r="H102">
-            <v>81928</v>
+            <v>60192</v>
           </cell>
           <cell r="I102">
-            <v>50825</v>
+            <v>43794</v>
           </cell>
           <cell r="K102">
-            <v>57</v>
+            <v>61</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C103">
-            <v>533</v>
+            <v>3612</v>
           </cell>
           <cell r="D103">
-            <v>105</v>
+            <v>87</v>
           </cell>
           <cell r="H103">
-            <v>37878</v>
+            <v>229603</v>
           </cell>
           <cell r="I103">
-            <v>22650</v>
+            <v>163399</v>
           </cell>
           <cell r="K103">
-            <v>57</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C104">
-            <v>6</v>
+            <v>411</v>
           </cell>
           <cell r="D104">
-            <v>243</v>
-          </cell>
-          <cell r="E104" t="str">
-            <v>↑</v>
+            <v>89</v>
           </cell>
           <cell r="H104">
-            <v>1854</v>
+            <v>36234</v>
           </cell>
           <cell r="I104">
-            <v>1854</v>
+            <v>36234</v>
           </cell>
           <cell r="K104">
-            <v>60</v>
+            <v>63</v>
           </cell>
         </row>
         <row r="105">
@@ -5109,79 +5139,79 @@
             <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C105">
-            <v>1025</v>
+            <v>1068</v>
           </cell>
           <cell r="D105">
-            <v>86</v>
+            <v>87</v>
           </cell>
           <cell r="H105">
-            <v>94227</v>
+            <v>89835</v>
           </cell>
           <cell r="I105">
-            <v>74733</v>
+            <v>70341</v>
           </cell>
           <cell r="K105">
-            <v>66</v>
+            <v>64</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C106">
-            <v>403</v>
+            <v>321</v>
           </cell>
           <cell r="D106">
-            <v>90</v>
+            <v>89</v>
           </cell>
           <cell r="H106">
-            <v>37962</v>
+            <v>31917</v>
           </cell>
           <cell r="I106">
-            <v>37962</v>
+            <v>21765</v>
           </cell>
           <cell r="K106">
-            <v>66</v>
+            <v>68</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C107">
-            <v>1075</v>
+            <v>459</v>
           </cell>
           <cell r="D107">
-            <v>95</v>
+            <v>94</v>
           </cell>
           <cell r="H107">
-            <v>89152</v>
+            <v>37186</v>
           </cell>
           <cell r="I107">
-            <v>54289</v>
+            <v>37186</v>
           </cell>
           <cell r="K107">
-            <v>69</v>
+            <v>68</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C108">
-            <v>446</v>
+            <v>1055</v>
           </cell>
           <cell r="D108">
             <v>92</v>
           </cell>
           <cell r="H108">
-            <v>40786</v>
+            <v>88216</v>
           </cell>
           <cell r="I108">
-            <v>19708</v>
+            <v>88216</v>
           </cell>
           <cell r="K108">
-            <v>74</v>
+            <v>69</v>
           </cell>
         </row>
         <row r="109">
@@ -5189,19 +5219,19 @@
             <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>94</v>
+            <v>96</v>
           </cell>
           <cell r="D109">
-            <v>96</v>
+            <v>98</v>
           </cell>
           <cell r="H109">
-            <v>7378</v>
+            <v>6928</v>
           </cell>
           <cell r="I109">
-            <v>3482</v>
+            <v>6928</v>
           </cell>
           <cell r="K109">
-            <v>77</v>
+            <v>72</v>
           </cell>
         </row>
         <row r="110">
@@ -5209,19 +5239,19 @@
             <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C110">
-            <v>60</v>
+            <v>62</v>
           </cell>
           <cell r="D110">
-            <v>97</v>
+            <v>96</v>
           </cell>
           <cell r="H110">
-            <v>7006</v>
+            <v>6664</v>
           </cell>
           <cell r="I110">
-            <v>2191</v>
+            <v>6664</v>
           </cell>
           <cell r="K110">
-            <v>82</v>
+            <v>79</v>
           </cell>
         </row>
         <row r="111">
@@ -5229,19 +5259,19 @@
             <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>62</v>
+            <v>60</v>
           </cell>
           <cell r="D111">
-            <v>118</v>
+            <v>111</v>
           </cell>
           <cell r="H111">
-            <v>6901</v>
+            <v>6685</v>
           </cell>
           <cell r="I111">
-            <v>6901</v>
+            <v>6685</v>
           </cell>
           <cell r="K111">
-            <v>96</v>
+            <v>93</v>
           </cell>
         </row>
         <row r="112">
@@ -5249,19 +5279,19 @@
             <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C112">
-            <v>57</v>
+            <v>59</v>
           </cell>
           <cell r="D112">
-            <v>103</v>
+            <v>102</v>
           </cell>
           <cell r="H112">
-            <v>6520</v>
+            <v>6286</v>
           </cell>
           <cell r="I112">
-            <v>6520</v>
+            <v>6286</v>
           </cell>
           <cell r="K112">
-            <v>104</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="113">
@@ -5269,19 +5299,25 @@
             <v>Фп Ольха соплодия 20х1,5г</v>
           </cell>
           <cell r="C113">
-            <v>50</v>
+            <v>54</v>
           </cell>
           <cell r="D113">
-            <v>103</v>
+            <v>110</v>
+          </cell>
+          <cell r="F113">
+            <v>36</v>
+          </cell>
+          <cell r="G113">
+            <v>1</v>
           </cell>
           <cell r="H113">
-            <v>6523</v>
+            <v>6181</v>
           </cell>
           <cell r="I113">
-            <v>356</v>
+            <v>6181</v>
           </cell>
           <cell r="K113">
-            <v>130</v>
+            <v>112</v>
           </cell>
         </row>
         <row r="114">
@@ -5291,126 +5327,120 @@
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C115">
-            <v>1399</v>
+            <v>1553</v>
           </cell>
           <cell r="D115">
-            <v>96</v>
+            <v>77</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H115">
-            <v>19632</v>
+            <v>47022</v>
           </cell>
           <cell r="I115">
-            <v>19632</v>
+            <v>47022</v>
           </cell>
           <cell r="J115" t="str">
             <v>!</v>
           </cell>
           <cell r="K115">
-            <v>12</v>
+            <v>17</v>
           </cell>
           <cell r="L115">
-            <v>15</v>
+            <v>18</v>
           </cell>
           <cell r="M115">
-            <v>28980</v>
+            <v>50145</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>270</v>
+            <v>498</v>
           </cell>
           <cell r="D116">
-            <v>99</v>
+            <v>89</v>
           </cell>
           <cell r="H116">
-            <v>4084</v>
+            <v>16971</v>
           </cell>
           <cell r="I116">
-            <v>4084</v>
-          </cell>
-          <cell r="J116" t="str">
-            <v>!</v>
+            <v>16971</v>
           </cell>
           <cell r="K116">
-            <v>15</v>
+            <v>20</v>
           </cell>
           <cell r="L116">
             <v>21</v>
           </cell>
           <cell r="M116">
-            <v>10050</v>
+            <v>19987</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C117">
-            <v>1545</v>
+            <v>105</v>
           </cell>
           <cell r="D117">
-            <v>78</v>
-          </cell>
-          <cell r="E117" t="str">
-            <v>↓</v>
+            <v>81</v>
           </cell>
           <cell r="H117">
-            <v>51288</v>
+            <v>3646</v>
           </cell>
           <cell r="I117">
-            <v>31868</v>
-          </cell>
-          <cell r="J117" t="str">
-            <v>!!!</v>
+            <v>3646</v>
           </cell>
           <cell r="K117">
-            <v>19</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>497</v>
+            <v>607</v>
           </cell>
           <cell r="D118">
-            <v>93</v>
+            <v>99</v>
           </cell>
           <cell r="H118">
-            <v>17979</v>
+            <v>18772</v>
           </cell>
           <cell r="I118">
-            <v>17979</v>
+            <v>18772</v>
           </cell>
           <cell r="K118">
-            <v>21</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C119">
-            <v>105</v>
+            <v>332</v>
           </cell>
           <cell r="D119">
-            <v>83</v>
+            <v>106</v>
           </cell>
           <cell r="H119">
-            <v>3718</v>
+            <v>9711</v>
           </cell>
           <cell r="I119">
-            <v>3718</v>
+            <v>9711</v>
           </cell>
           <cell r="K119">
-            <v>22</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="120">
@@ -5418,16 +5448,19 @@
             <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C120">
-            <v>355</v>
+            <v>364</v>
           </cell>
           <cell r="D120">
-            <v>80</v>
+            <v>78</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H120">
-            <v>15090</v>
+            <v>14154</v>
           </cell>
           <cell r="I120">
-            <v>15090</v>
+            <v>14154</v>
           </cell>
           <cell r="K120">
             <v>23</v>
@@ -5435,62 +5468,62 @@
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>588</v>
+            <v>1410</v>
           </cell>
           <cell r="D121">
-            <v>99</v>
+            <v>95</v>
           </cell>
           <cell r="H121">
-            <v>22156</v>
+            <v>46164</v>
           </cell>
           <cell r="I121">
-            <v>22156</v>
+            <v>17076</v>
           </cell>
           <cell r="K121">
-            <v>26</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>304</v>
+            <v>56</v>
           </cell>
           <cell r="D122">
-            <v>99</v>
+            <v>116</v>
           </cell>
           <cell r="H122">
-            <v>12969</v>
+            <v>2311</v>
           </cell>
           <cell r="I122">
-            <v>12969</v>
+            <v>2311</v>
           </cell>
           <cell r="K122">
-            <v>31</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>50</v>
+            <v>273</v>
           </cell>
           <cell r="D123">
-            <v>103</v>
+            <v>101</v>
           </cell>
           <cell r="H123">
-            <v>2869</v>
+            <v>12454</v>
           </cell>
           <cell r="I123">
-            <v>2869</v>
+            <v>2554</v>
           </cell>
           <cell r="K123">
-            <v>50</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="124">
@@ -5498,25 +5531,25 @@
             <v>ИТОГО:</v>
           </cell>
           <cell r="C124">
-            <v>107934</v>
+            <v>110094</v>
           </cell>
           <cell r="D124">
             <v>90</v>
           </cell>
           <cell r="F124">
-            <v>14190</v>
+            <v>14226</v>
           </cell>
           <cell r="H124">
-            <v>5292314</v>
+            <v>5196976</v>
           </cell>
           <cell r="I124">
-            <v>4847590</v>
+            <v>4852561</v>
           </cell>
           <cell r="K124">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="M124">
-            <v>543421</v>
+            <v>675690</v>
           </cell>
         </row>
       </sheetData>
@@ -5816,8 +5849,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:I74"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5866,11 +5899,11 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81632</v>
+        <v>81536</v>
       </c>
       <c r="D3" s="3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5892,23 +5925,23 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15792</v>
+        <v>10513</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E5" s="28" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-15</v>
+        <v>2022-11-23</v>
       </c>
       <c r="G5" s="33" t="str">
         <f t="shared" ref="G5:G50" si="0">IF(H5&gt;0,"•","")</f>
@@ -5916,25 +5949,25 @@
       </c>
       <c r="H5" s="34">
         <f>VLOOKUP(A5,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>33057</v>
+        <v>20094</v>
       </c>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13005</v>
+        <v>26124</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -5942,28 +5975,28 @@
       </c>
       <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H6" s="34">
         <f>VLOOKUP(A6,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>30850</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10789</v>
+        <v>11501</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -5975,7 +6008,7 @@
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15267</v>
+        <v>9193</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5984,11 +6017,11 @@
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>62559</v>
+        <v>56245</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6009,19 +6042,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33866</v>
+        <v>14489</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6029,32 +6062,32 @@
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H9" s="34">
         <f>VLOOKUP(A9,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>21828</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16799</v>
+        <v>22321</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6062,24 +6095,24 @@
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>21828</v>
+        <v>22517</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24211</v>
+        <v>13185</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6087,28 +6120,28 @@
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>14671</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21800</v>
+        <v>2156</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6116,28 +6149,28 @@
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H12" s="34">
         <f>VLOOKUP(A12,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>13875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15033</v>
+        <v>3888</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6145,28 +6178,28 @@
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H13" s="34">
         <f>VLOOKUP(A13,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14819</v>
+        <v>7521</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6183,31 +6216,31 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2660</v>
+        <v>54488</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H15" s="34">
         <f>VLOOKUP(A15,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6216,11 +6249,11 @@
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16008</v>
+        <v>14594</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6232,28 +6265,28 @@
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H16" s="34">
         <f>VLOOKUP(A16,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4826</v>
+        <v>8569</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6261,28 +6294,28 @@
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H17" s="34">
         <f>VLOOKUP(A17,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>5909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9339</v>
+        <v>12668</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6299,48 +6332,48 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8991</v>
+        <v>20974</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H19" s="34">
         <f>VLOOKUP(A19,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19887</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>69482</v>
+        <v>13305</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6357,19 +6390,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23942</v>
+        <v>68099</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6386,19 +6419,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15083</v>
+        <v>47698</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6415,19 +6448,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>75169</v>
+        <v>12278</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6444,23 +6477,23 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13384</v>
+        <v>21306</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6473,52 +6506,52 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28830</v>
+        <v>23160</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H25" s="34">
         <f>VLOOKUP(A25,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>25445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22734</v>
+        <v>21023</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6531,23 +6564,23 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15230</v>
+        <v>5027</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6560,23 +6593,23 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37026</v>
+        <v>40146</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6589,23 +6622,23 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25218</v>
+        <v>10178</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6618,23 +6651,23 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23025</v>
+        <v>91497</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6647,19 +6680,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43534</v>
+        <v>23651</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6676,23 +6709,23 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11116</v>
+        <v>35220</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6705,15 +6738,15 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>98343</v>
+        <v>18671</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6721,7 +6754,7 @@
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6734,19 +6767,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26353</v>
+        <v>23015</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6763,23 +6796,23 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20211</v>
+        <v>12676</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6792,23 +6825,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25955</v>
+        <v>11409</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6821,23 +6854,23 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6511</v>
+        <v>22009</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6850,23 +6883,23 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12207</v>
+        <v>30775</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6879,7 +6912,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6887,7 +6920,7 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23367</v>
+        <v>18963</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6895,7 +6928,7 @@
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6908,23 +6941,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14300</v>
-      </c>
-      <c r="D40" s="8">
+        <v>18772</v>
+      </c>
+      <c r="D40" s="8" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>inf</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6937,23 +6970,23 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32721</v>
+        <v>32930</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6966,23 +6999,23 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19859</v>
+        <v>24295</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6995,23 +7028,23 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20382</v>
-      </c>
-      <c r="D43" s="8" t="str">
+        <v>47815</v>
+      </c>
+      <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>31</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7024,7 +7057,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7032,15 +7065,15 @@
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25093</v>
+        <v>21641</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7053,23 +7086,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>53513</v>
+        <v>19008</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7082,23 +7115,23 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23783</v>
+        <v>14983</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7111,19 +7144,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19918</v>
+        <v>11334</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7140,23 +7173,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16019</v>
+        <v>23725</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2023-01-03</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7169,23 +7202,23 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12720</v>
+        <v>8693</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7198,23 +7231,23 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9281</v>
+        <v>52318</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-24</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7241,11 +7274,11 @@
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2538</v>
+        <v>1598</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7253,7 +7286,7 @@
       </c>
       <c r="E52" s="29" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-21</v>
+        <v>2022-11-17</v>
       </c>
       <c r="G52" s="33" t="str">
         <f t="shared" ref="G52:G58" si="1">IF(H52&gt;0,"•","")</f>
@@ -7270,11 +7303,11 @@
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13229</v>
+        <v>11129</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7299,11 +7332,11 @@
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4331</v>
+        <v>3741</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7328,11 +7361,11 @@
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7408</v>
+        <v>6398</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7340,7 +7373,7 @@
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7357,11 +7390,11 @@
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4610</v>
+        <v>4070</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7369,7 +7402,7 @@
       </c>
       <c r="E56" s="29" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G56" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7386,11 +7419,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9720</v>
+        <v>9670</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7415,11 +7448,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8250</v>
+        <v>8110</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7458,7 +7491,7 @@
       </c>
       <c r="C60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2502</v>
+        <v>1998</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7479,19 +7512,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1854</v>
+        <v>1062</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="E61" s="29" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7508,23 +7541,23 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1062</v>
+        <v>1854</v>
       </c>
       <c r="D62" s="8">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="E62" s="29" t="str">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G62" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7541,11 +7574,11 @@
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>58559</v>
+        <v>49883</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7553,7 +7586,7 @@
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G63" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7570,11 +7603,11 @@
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3784</v>
+        <v>3460</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7599,11 +7632,11 @@
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>112794</v>
+        <v>101778</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7628,11 +7661,11 @@
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>172263</v>
+        <v>155217</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7644,11 +7677,11 @@
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>49249</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -7657,11 +7690,11 @@
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44649</v>
+        <v>40041</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7682,23 +7715,23 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>566985</v>
+        <v>28674</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7715,11 +7748,11 @@
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6402</v>
+        <v>6006</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7727,7 +7760,7 @@
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7740,48 +7773,48 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>171139</v>
+        <v>561621</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>65254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32328</v>
+        <v>18262</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7789,28 +7822,28 @@
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H71" s="34">
         <f>VLOOKUP(A71,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23043</v>
+        <v>36937</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7822,28 +7855,28 @@
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10096</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>38989</v>
+        <v>66606</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7856,23 +7889,23 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20620</v>
+        <v>85659</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G74" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7885,23 +7918,23 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>72654</v>
+        <v>45377</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7914,7 +7947,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7922,7 +7955,7 @@
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>48311</v>
+        <v>73431</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7930,36 +7963,36 @@
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H76" s="34">
         <f>VLOOKUP(A76,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>40138</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>92049</v>
+        <v>57809</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7972,7 +8005,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7980,15 +8013,15 @@
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59609</v>
+        <v>64024</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8001,7 +8034,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8009,28 +8042,28 @@
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>65032</v>
+        <v>1365725</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H79" s="34">
         <f>VLOOKUP(A79,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>227708</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8038,7 +8071,7 @@
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>79425</v>
+        <v>49389</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8046,7 +8079,7 @@
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-26</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8059,7 +8092,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8067,44 +8100,44 @@
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1412417</v>
+        <v>89135</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H81" s="34">
         <f>VLOOKUP(A81,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>227708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>91259</v>
+        <v>42512</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2023-01-03</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8117,23 +8150,23 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>51837</v>
+        <v>6928</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2023-01-03</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8146,23 +8179,23 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43574</v>
+        <v>229603</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-30</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8175,23 +8208,23 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7378</v>
+        <v>33337</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-04</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8204,23 +8237,23 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35425</v>
+        <v>34962</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-06</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8233,19 +8266,19 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>64537</v>
+        <v>37186</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8262,23 +8295,23 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>89152</v>
+        <v>16352</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8291,23 +8324,23 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37878</v>
+        <v>61909</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-12</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8320,23 +8353,23 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40786</v>
+        <v>31917</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8349,19 +8382,19 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6901</v>
+        <v>88216</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8378,23 +8411,23 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18260</v>
+        <v>6685</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8411,11 +8444,11 @@
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81928</v>
+        <v>77626</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8423,7 +8456,7 @@
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-17</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8440,11 +8473,11 @@
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37962</v>
+        <v>36234</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8465,48 +8498,48 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47682</v>
+        <v>89835</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H95" s="34">
         <f>VLOOKUP(A95,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>16414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>94227</v>
+        <v>6664</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8523,23 +8556,23 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7006</v>
+        <v>6286</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-26</v>
+        <v>2023-02-14</v>
       </c>
       <c r="G97" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8552,7 +8585,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8560,15 +8593,15 @@
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6520</v>
+        <v>60192</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E98" s="29" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-13</v>
+        <v>2023-02-15</v>
       </c>
       <c r="G98" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8585,7 +8618,7 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8597,7 +8630,7 @@
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-24</v>
+        <v>2023-02-27</v>
       </c>
       <c r="G99" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8614,11 +8647,11 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6523</v>
+        <v>6181</v>
       </c>
       <c r="D100" s="8" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8626,7 +8659,7 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-20</v>
+        <v>2023-07-11</v>
       </c>
       <c r="G100" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8643,11 +8676,11 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1098</v>
+        <v>1026</v>
       </c>
       <c r="D101" s="8">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8655,7 +8688,7 @@
       </c>
       <c r="E101" s="29" t="str">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-14</v>
+        <v>2023-08-10</v>
       </c>
       <c r="G101" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8672,11 +8705,11 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1134</v>
+        <v>1008</v>
       </c>
       <c r="D102" s="8">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8684,7 +8717,7 @@
       </c>
       <c r="E102" s="29" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-14</v>
+        <v>2023-08-10</v>
       </c>
       <c r="G102" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8701,7 +8734,7 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8736,23 +8769,23 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19632</v>
+        <v>47022</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-16</v>
+        <v>2022-11-24</v>
       </c>
       <c r="G105" s="33" t="str">
         <f t="shared" ref="G105:G113" si="3">IF(H105&gt;0,"•","")</f>
@@ -8760,78 +8793,78 @@
       </c>
       <c r="H105" s="34">
         <f>VLOOKUP(A105,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>28980</v>
+        <v>50145</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4084</v>
+        <v>9711</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E106" s="29" t="str">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-21</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G106" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>10050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>51288</v>
+        <v>16971</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G107" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H107" s="34">
         <f>VLOOKUP(A107,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19987</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17979</v>
+        <v>18772</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8839,7 +8872,7 @@
       </c>
       <c r="E108" s="29" t="str">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G108" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8860,7 +8893,7 @@
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3718</v>
+        <v>3646</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8868,7 +8901,7 @@
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G109" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8885,11 +8918,11 @@
       </c>
       <c r="B110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15090</v>
+        <v>14154</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8897,7 +8930,7 @@
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G110" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8910,23 +8943,23 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22156</v>
+        <v>46164</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E111" s="29" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G111" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8939,23 +8972,23 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12969</v>
+        <v>2311</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E112" s="29" t="str">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G112" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8968,23 +9001,23 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2869</v>
+        <v>12454</v>
       </c>
       <c r="D113" s="10">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E113" s="29" t="str">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G113" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9002,7 +9035,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5277140</v>
+        <v>5184214</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,10 +907,10 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>131</v>
+            <v>129</v>
           </cell>
           <cell r="D2">
-            <v>81536</v>
+            <v>81472</v>
           </cell>
           <cell r="E2">
             <v>199</v>
@@ -921,47 +921,47 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B3" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>12</v>
+            <v>13</v>
           </cell>
           <cell r="D3">
-            <v>10513</v>
+            <v>24836</v>
           </cell>
           <cell r="E3">
-            <v>37</v>
+            <v>29</v>
           </cell>
           <cell r="F3" t="str">
-            <v>2022-11-23</v>
+            <v>2022-11-28</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="B4" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>13</v>
+            <v>15</v>
           </cell>
           <cell r="D4">
-            <v>26124</v>
+            <v>52997</v>
           </cell>
           <cell r="E4">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F4" t="str">
-            <v>2022-11-24</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
@@ -970,18 +970,18 @@
             <v>15</v>
           </cell>
           <cell r="D5">
-            <v>11501</v>
+            <v>6317</v>
           </cell>
           <cell r="E5">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F5" t="str">
-            <v>2022-11-28</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
@@ -990,18 +990,18 @@
             <v>16</v>
           </cell>
           <cell r="D6">
-            <v>56245</v>
+            <v>12359</v>
           </cell>
           <cell r="E6">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-11-29</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
@@ -1010,58 +1010,58 @@
             <v>16</v>
           </cell>
           <cell r="D7">
-            <v>14489</v>
+            <v>2128</v>
           </cell>
           <cell r="E7">
-            <v>33</v>
+            <v>51</v>
           </cell>
           <cell r="F7" t="str">
-            <v>2022-11-29</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C8">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D8">
-            <v>3888</v>
+            <v>48692</v>
           </cell>
           <cell r="E8">
-            <v>59</v>
+            <v>30</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D9">
-            <v>13185</v>
+            <v>21285</v>
           </cell>
           <cell r="E9">
-            <v>31</v>
+            <v>92</v>
           </cell>
           <cell r="F9" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
@@ -1070,138 +1070,138 @@
             <v>17</v>
           </cell>
           <cell r="D10">
-            <v>2156</v>
+            <v>14118</v>
           </cell>
           <cell r="E10">
-            <v>51</v>
+            <v>48</v>
           </cell>
           <cell r="F10" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>17</v>
+            <v>18</v>
           </cell>
           <cell r="D11">
-            <v>7521</v>
+            <v>8303</v>
           </cell>
           <cell r="E11">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C12">
-            <v>17</v>
+            <v>18</v>
           </cell>
           <cell r="D12">
-            <v>54488</v>
+            <v>19252</v>
           </cell>
           <cell r="E12">
             <v>30</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C13">
-            <v>17</v>
+            <v>19</v>
           </cell>
           <cell r="D13">
-            <v>22321</v>
+            <v>12388</v>
           </cell>
           <cell r="E13">
-            <v>92</v>
+            <v>31</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C14">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="D14">
-            <v>8569</v>
+            <v>21256</v>
           </cell>
           <cell r="E14">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="F14" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="D15">
-            <v>14594</v>
+            <v>65726</v>
           </cell>
           <cell r="E15">
-            <v>48</v>
+            <v>39</v>
           </cell>
           <cell r="F15" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C16">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="D16">
-            <v>12668</v>
+            <v>19567</v>
           </cell>
           <cell r="E16">
-            <v>31</v>
+            <v>43</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
@@ -1210,18 +1210,18 @@
             <v>20</v>
           </cell>
           <cell r="D17">
-            <v>13305</v>
+            <v>12068</v>
           </cell>
           <cell r="E17">
-            <v>43</v>
+            <v>40</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="B18" t="str">
             <v>Линия ББЛ</v>
@@ -1230,38 +1230,38 @@
             <v>20</v>
           </cell>
           <cell r="D18">
-            <v>20974</v>
+            <v>45668</v>
           </cell>
           <cell r="E18">
-            <v>30</v>
+            <v>45</v>
           </cell>
           <cell r="F18" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Лен семена 100г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>20</v>
+            <v>21</v>
           </cell>
           <cell r="D19">
-            <v>68099</v>
+            <v>13277</v>
           </cell>
           <cell r="E19">
-            <v>39</v>
+            <v>43</v>
           </cell>
           <cell r="F19" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
@@ -1270,18 +1270,18 @@
             <v>21</v>
           </cell>
           <cell r="D20">
-            <v>12278</v>
+            <v>20158</v>
           </cell>
           <cell r="E20">
-            <v>40</v>
+            <v>35</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
@@ -1290,38 +1290,38 @@
             <v>21</v>
           </cell>
           <cell r="D21">
-            <v>47698</v>
+            <v>84567</v>
           </cell>
           <cell r="E21">
-            <v>45</v>
+            <v>32</v>
           </cell>
           <cell r="F21" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C22">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D22">
-            <v>23160</v>
+            <v>4943</v>
           </cell>
           <cell r="E22">
-            <v>33</v>
+            <v>37</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
@@ -1330,18 +1330,18 @@
             <v>22</v>
           </cell>
           <cell r="D23">
-            <v>21306</v>
+            <v>21531</v>
           </cell>
           <cell r="E23">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
@@ -1350,18 +1350,18 @@
             <v>22</v>
           </cell>
           <cell r="D24">
-            <v>21023</v>
+            <v>37990</v>
           </cell>
           <cell r="E24">
-            <v>43</v>
+            <v>37</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
@@ -1370,18 +1370,18 @@
             <v>22</v>
           </cell>
           <cell r="D25">
-            <v>5027</v>
+            <v>21733</v>
           </cell>
           <cell r="E25">
-            <v>37</v>
+            <v>46</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
@@ -1390,18 +1390,18 @@
             <v>23</v>
           </cell>
           <cell r="D26">
-            <v>10178</v>
+            <v>18419</v>
           </cell>
           <cell r="E26">
-            <v>51</v>
+            <v>32</v>
           </cell>
           <cell r="F26" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
@@ -1410,18 +1410,18 @@
             <v>23</v>
           </cell>
           <cell r="D27">
-            <v>91497</v>
+            <v>10010</v>
           </cell>
           <cell r="E27">
-            <v>32</v>
+            <v>51</v>
           </cell>
           <cell r="F27" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
@@ -1430,98 +1430,98 @@
             <v>23</v>
           </cell>
           <cell r="D28">
-            <v>40146</v>
+            <v>33470</v>
           </cell>
           <cell r="E28">
-            <v>37</v>
+            <v>112</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>23</v>
+            <v>25</v>
           </cell>
           <cell r="D29">
-            <v>23651</v>
+            <v>17031</v>
           </cell>
           <cell r="E29">
-            <v>46</v>
+            <v>43</v>
           </cell>
           <cell r="F29" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="D30">
-            <v>18671</v>
+            <v>29235</v>
           </cell>
           <cell r="E30">
-            <v>32</v>
+            <v>39</v>
           </cell>
           <cell r="F30" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B31" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="D31">
-            <v>23015</v>
+            <v>12536</v>
           </cell>
           <cell r="E31">
-            <v>43</v>
+            <v>35</v>
           </cell>
           <cell r="F31" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C32">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="D32">
-            <v>35220</v>
+            <v>11227</v>
           </cell>
           <cell r="E32">
-            <v>112</v>
+            <v>30</v>
           </cell>
           <cell r="F32" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
@@ -1530,118 +1530,118 @@
             <v>25</v>
           </cell>
           <cell r="D33">
-            <v>12676</v>
+            <v>20329</v>
           </cell>
           <cell r="E33">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C34">
-            <v>26</v>
+            <v>27</v>
           </cell>
           <cell r="D34">
-            <v>11409</v>
-          </cell>
-          <cell r="E34">
-            <v>30</v>
+            <v>18380</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C35">
-            <v>27</v>
+            <v>29</v>
           </cell>
           <cell r="D35">
-            <v>30775</v>
+            <v>23133</v>
           </cell>
           <cell r="E35">
-            <v>39</v>
+            <v>38</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C36">
-            <v>27</v>
+            <v>29</v>
           </cell>
           <cell r="D36">
-            <v>22009</v>
+            <v>31754</v>
           </cell>
           <cell r="E36">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Береза почки 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C37">
-            <v>28</v>
+            <v>29</v>
           </cell>
           <cell r="D37">
-            <v>18963</v>
+            <v>20097</v>
           </cell>
           <cell r="E37">
-            <v>43</v>
+            <v>31</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C38">
-            <v>28</v>
+            <v>30</v>
           </cell>
           <cell r="D38">
-            <v>18772</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>inf</v>
+            <v>46695</v>
+          </cell>
+          <cell r="E38">
+            <v>31</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
@@ -1650,18 +1650,18 @@
             <v>30</v>
           </cell>
           <cell r="D39">
-            <v>32930</v>
+            <v>20815</v>
           </cell>
           <cell r="E39">
-            <v>44</v>
+            <v>35</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
@@ -1670,18 +1670,18 @@
             <v>31</v>
           </cell>
           <cell r="D40">
-            <v>47815</v>
+            <v>17944</v>
           </cell>
           <cell r="E40">
-            <v>31</v>
+            <v>41</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
@@ -1690,133 +1690,133 @@
             <v>31</v>
           </cell>
           <cell r="D41">
-            <v>24295</v>
+            <v>14311</v>
           </cell>
           <cell r="E41">
-            <v>38</v>
+            <v>33</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B42" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C42">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="D42">
-            <v>21641</v>
+            <v>29771</v>
           </cell>
           <cell r="E42">
-            <v>35</v>
+            <v>37</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
-            <v>33</v>
+            <v>35</v>
           </cell>
           <cell r="D43">
-            <v>19008</v>
+            <v>11292</v>
           </cell>
           <cell r="E43">
-            <v>41</v>
+            <v>76</v>
           </cell>
           <cell r="F43" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B44" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
+            <v>36</v>
+          </cell>
+          <cell r="D44">
+            <v>34733</v>
+          </cell>
+          <cell r="E44">
             <v>33</v>
           </cell>
-          <cell r="D44">
-            <v>11334</v>
-          </cell>
-          <cell r="E44">
-            <v>76</v>
-          </cell>
           <cell r="F44" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Череда трава 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>33</v>
+            <v>40</v>
           </cell>
           <cell r="D45">
-            <v>14983</v>
+            <v>22647</v>
           </cell>
           <cell r="E45">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2022-12-22</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>41</v>
+            <v>45</v>
           </cell>
           <cell r="D46">
-            <v>23725</v>
+            <v>8539</v>
           </cell>
           <cell r="E46">
-            <v>32</v>
+            <v>72</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2023-01-03</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="B47" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C47">
-            <v>45</v>
+            <v>50</v>
           </cell>
           <cell r="D47">
-            <v>8693</v>
+            <v>9737</v>
           </cell>
           <cell r="E47">
-            <v>72</v>
+            <v>59</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="48">
@@ -1827,16 +1827,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C48">
-            <v>56</v>
+            <v>55</v>
           </cell>
           <cell r="D48">
-            <v>52318</v>
+            <v>51436</v>
           </cell>
           <cell r="E48">
             <v>40</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-24</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="49">
@@ -1847,10 +1847,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>8</v>
+            <v>6</v>
           </cell>
           <cell r="D49">
-            <v>1598</v>
+            <v>1208</v>
           </cell>
           <cell r="E49">
             <v>115</v>
@@ -1870,13 +1870,13 @@
             <v>15</v>
           </cell>
           <cell r="D50">
-            <v>11129</v>
+            <v>10529</v>
           </cell>
           <cell r="E50">
             <v>41</v>
           </cell>
           <cell r="F50" t="str">
-            <v>2022-11-28</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="51">
@@ -1887,16 +1887,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>19</v>
+            <v>16</v>
           </cell>
           <cell r="D51">
-            <v>3741</v>
+            <v>3271</v>
           </cell>
           <cell r="E51">
             <v>110</v>
           </cell>
           <cell r="F51" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="52">
@@ -1907,16 +1907,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D52">
-            <v>6398</v>
+            <v>5888</v>
           </cell>
           <cell r="E52">
             <v>84</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="53">
@@ -1927,16 +1927,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>52</v>
+            <v>51</v>
           </cell>
           <cell r="D53">
-            <v>4070</v>
+            <v>3900</v>
           </cell>
           <cell r="E53">
             <v>102</v>
           </cell>
           <cell r="F53" t="str">
-            <v>2023-01-18</v>
+            <v>2023-01-19</v>
           </cell>
         </row>
         <row r="54">
@@ -1947,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>251</v>
+            <v>249</v>
           </cell>
           <cell r="D54">
-            <v>8110</v>
+            <v>7990</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1967,10 +1967,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>251</v>
+            <v>249</v>
           </cell>
           <cell r="D55">
-            <v>9670</v>
+            <v>9400</v>
           </cell>
           <cell r="E55">
             <v>1365</v>
@@ -1990,7 +1990,7 @@
             <v>3</v>
           </cell>
           <cell r="D56">
-            <v>1998</v>
+            <v>1962</v>
           </cell>
           <cell r="E56">
             <v>257</v>
@@ -2007,7 +2007,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>14</v>
+            <v>12</v>
           </cell>
           <cell r="D57">
             <v>1062</v>
@@ -2027,7 +2027,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="D58">
             <v>1854</v>
@@ -2041,27 +2041,27 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B59" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>18</v>
+            <v>20</v>
           </cell>
           <cell r="D59">
-            <v>49883</v>
+            <v>3406</v>
           </cell>
           <cell r="E59">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F59" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
@@ -2070,33 +2070,33 @@
             <v>20</v>
           </cell>
           <cell r="D60">
-            <v>3460</v>
+            <v>139827</v>
           </cell>
           <cell r="E60">
-            <v>43</v>
+            <v>28</v>
           </cell>
           <cell r="F60" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D61">
-            <v>155217</v>
+            <v>37305</v>
           </cell>
           <cell r="E61">
-            <v>28</v>
+            <v>30</v>
           </cell>
           <cell r="F61" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="62">
@@ -2107,21 +2107,21 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C62">
-            <v>23</v>
+            <v>22</v>
           </cell>
           <cell r="D62">
-            <v>101778</v>
+            <v>96810</v>
           </cell>
           <cell r="E62">
             <v>52</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
@@ -2130,113 +2130,113 @@
             <v>24</v>
           </cell>
           <cell r="D63">
-            <v>40041</v>
+            <v>26766</v>
           </cell>
           <cell r="E63">
-            <v>30</v>
+            <v>25</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="D64">
-            <v>28674</v>
+            <v>5664</v>
           </cell>
           <cell r="E64">
-            <v>25</v>
+            <v>34</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D65">
-            <v>6006</v>
+            <v>17380</v>
           </cell>
           <cell r="E65">
-            <v>34</v>
+            <v>28</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D66">
-            <v>561621</v>
+            <v>34399</v>
           </cell>
           <cell r="E66">
-            <v>96</v>
+            <v>30</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D67">
-            <v>18262</v>
+            <v>548697</v>
           </cell>
           <cell r="E67">
-            <v>28</v>
+            <v>96</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="D68">
-            <v>36937</v>
+            <v>84274</v>
           </cell>
           <cell r="E68">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F68" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="69">
@@ -2247,10 +2247,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="D69">
-            <v>66606</v>
+            <v>60940</v>
           </cell>
           <cell r="E69">
             <v>28</v>
@@ -2261,19 +2261,19 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="D70">
-            <v>85659</v>
+            <v>42641</v>
           </cell>
           <cell r="E70">
-            <v>35</v>
+            <v>32</v>
           </cell>
           <cell r="F70" t="str">
             <v>2022-12-20</v>
@@ -2281,22 +2281,22 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="D71">
-            <v>45377</v>
+            <v>80763</v>
           </cell>
           <cell r="E71">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="72">
@@ -2307,33 +2307,33 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
-            <v>34</v>
+            <v>31</v>
           </cell>
           <cell r="D72">
-            <v>73431</v>
+            <v>67275</v>
           </cell>
           <cell r="E72">
             <v>32</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>37</v>
+            <v>35</v>
           </cell>
           <cell r="D73">
-            <v>64024</v>
+            <v>46365</v>
           </cell>
           <cell r="E73">
-            <v>61</v>
+            <v>32</v>
           </cell>
           <cell r="F73" t="str">
             <v>2022-12-28</v>
@@ -2341,22 +2341,22 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>37</v>
+            <v>36</v>
           </cell>
           <cell r="D74">
-            <v>49389</v>
+            <v>62296</v>
           </cell>
           <cell r="E74">
-            <v>32</v>
+            <v>61</v>
           </cell>
           <cell r="F74" t="str">
-            <v>2022-12-28</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="75">
@@ -2367,16 +2367,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>37</v>
+            <v>36</v>
           </cell>
           <cell r="D75">
-            <v>1365725</v>
+            <v>1311041</v>
           </cell>
           <cell r="E75">
             <v>31</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-28</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="76">
@@ -2387,16 +2387,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C76">
-            <v>37</v>
+            <v>36</v>
           </cell>
           <cell r="D76">
-            <v>57809</v>
+            <v>55991</v>
           </cell>
           <cell r="E76">
             <v>43</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-28</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="77">
@@ -2407,16 +2407,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="D77">
-            <v>89135</v>
+            <v>85913</v>
           </cell>
           <cell r="E77">
             <v>29</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-29</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="78">
@@ -2427,21 +2427,21 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>41</v>
+            <v>40</v>
           </cell>
           <cell r="D78">
-            <v>6928</v>
+            <v>6640</v>
           </cell>
           <cell r="E78">
             <v>38</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2023-01-03</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
@@ -2450,38 +2450,38 @@
             <v>41</v>
           </cell>
           <cell r="D79">
-            <v>42512</v>
+            <v>220855</v>
           </cell>
           <cell r="E79">
-            <v>53</v>
+            <v>32</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2023-01-03</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="D80">
-            <v>229603</v>
+            <v>41666</v>
           </cell>
           <cell r="E80">
-            <v>32</v>
+            <v>53</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2023-01-04</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
@@ -2490,33 +2490,33 @@
             <v>43</v>
           </cell>
           <cell r="D81">
-            <v>33337</v>
+            <v>33486</v>
           </cell>
           <cell r="E81">
-            <v>37</v>
+            <v>29</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B82" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="D82">
-            <v>34962</v>
+            <v>32545</v>
           </cell>
           <cell r="E82">
-            <v>29</v>
+            <v>37</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="83">
@@ -2527,16 +2527,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="D83">
-            <v>16352</v>
+            <v>15956</v>
           </cell>
           <cell r="E83">
             <v>37</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="84">
@@ -2550,18 +2550,18 @@
             <v>46</v>
           </cell>
           <cell r="D84">
-            <v>37186</v>
+            <v>36754</v>
           </cell>
           <cell r="E84">
             <v>26</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
@@ -2570,18 +2570,18 @@
             <v>47</v>
           </cell>
           <cell r="D85">
-            <v>61909</v>
+            <v>73126</v>
           </cell>
           <cell r="E85">
-            <v>30</v>
+            <v>29</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
@@ -2590,13 +2590,13 @@
             <v>48</v>
           </cell>
           <cell r="D86">
-            <v>31917</v>
+            <v>61495</v>
           </cell>
           <cell r="E86">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2023-01-12</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="87">
@@ -2607,33 +2607,33 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>49</v>
+            <v>48</v>
           </cell>
           <cell r="D87">
-            <v>88216</v>
+            <v>84526</v>
           </cell>
           <cell r="E87">
             <v>29</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>50</v>
+            <v>48</v>
           </cell>
           <cell r="D88">
-            <v>6685</v>
+            <v>31431</v>
           </cell>
           <cell r="E88">
-            <v>39</v>
+            <v>32</v>
           </cell>
           <cell r="F88" t="str">
             <v>2023-01-16</v>
@@ -2641,22 +2641,22 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>50</v>
+            <v>49</v>
           </cell>
           <cell r="D89">
-            <v>77626</v>
+            <v>6433</v>
           </cell>
           <cell r="E89">
-            <v>29</v>
+            <v>39</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="90">
@@ -2667,41 +2667,41 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>55</v>
+            <v>54</v>
           </cell>
           <cell r="D90">
-            <v>36234</v>
+            <v>35946</v>
           </cell>
           <cell r="E90">
             <v>36</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-23</v>
+            <v>2023-01-24</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C91">
-            <v>58</v>
+            <v>57</v>
           </cell>
           <cell r="D91">
-            <v>6664</v>
+            <v>87279</v>
           </cell>
           <cell r="E91">
-            <v>37</v>
+            <v>44</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-26</v>
+            <v>2023-01-27</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="B92" t="str">
             <v>Линия ИМА С 50</v>
@@ -2710,13 +2710,13 @@
             <v>58</v>
           </cell>
           <cell r="D92">
-            <v>89835</v>
+            <v>6610</v>
           </cell>
           <cell r="E92">
-            <v>44</v>
+            <v>37</v>
           </cell>
           <cell r="F92" t="str">
-            <v>2023-01-26</v>
+            <v>2023-01-30</v>
           </cell>
         </row>
         <row r="93">
@@ -2727,10 +2727,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>71</v>
+            <v>69</v>
           </cell>
           <cell r="D93">
-            <v>6286</v>
+            <v>6088</v>
           </cell>
           <cell r="E93">
             <v>48</v>
@@ -2747,16 +2747,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>72</v>
+            <v>69</v>
           </cell>
           <cell r="D94">
-            <v>60192</v>
+            <v>57564</v>
           </cell>
           <cell r="E94">
             <v>28</v>
           </cell>
           <cell r="F94" t="str">
-            <v>2023-02-15</v>
+            <v>2023-02-14</v>
           </cell>
         </row>
         <row r="95">
@@ -2767,10 +2767,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>80</v>
+            <v>78</v>
           </cell>
           <cell r="D95">
-            <v>1818</v>
+            <v>1800</v>
           </cell>
           <cell r="E95">
             <v>38</v>
@@ -2787,7 +2787,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>176</v>
+            <v>178</v>
           </cell>
           <cell r="D96">
             <v>6181</v>
@@ -2796,7 +2796,7 @@
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-11</v>
+            <v>2023-07-17</v>
           </cell>
         </row>
         <row r="97">
@@ -2807,7 +2807,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>198</v>
+            <v>196</v>
           </cell>
           <cell r="D97">
             <v>1008</v>
@@ -2827,7 +2827,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>198</v>
+            <v>196</v>
           </cell>
           <cell r="D98">
             <v>1026</v>
@@ -2847,7 +2847,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>207</v>
+            <v>205</v>
           </cell>
           <cell r="D99">
             <v>1476</v>
@@ -2861,67 +2861,67 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="B100" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>13</v>
+            <v>16</v>
           </cell>
           <cell r="D100">
-            <v>47022</v>
+            <v>15279</v>
           </cell>
           <cell r="E100">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="F100" t="str">
-            <v>2022-11-24</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="B101" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D101">
-            <v>9711</v>
+            <v>16684</v>
           </cell>
           <cell r="E101">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="B102" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D102">
-            <v>16971</v>
+            <v>9513</v>
           </cell>
           <cell r="E102">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F102" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="B103" t="str">
             <v>Линия Консумаш</v>
@@ -2930,70 +2930,70 @@
             <v>18</v>
           </cell>
           <cell r="D103">
-            <v>18772</v>
+            <v>3466</v>
           </cell>
           <cell r="E103">
-            <v>30</v>
+            <v>34</v>
           </cell>
           <cell r="F103" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C104">
-            <v>19</v>
+            <v>20</v>
           </cell>
           <cell r="D104">
-            <v>3646</v>
+            <v>13614</v>
           </cell>
           <cell r="E104">
-            <v>34</v>
+            <v>41</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="B105" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>20</v>
+            <v>21</v>
           </cell>
           <cell r="D105">
-            <v>14154</v>
+            <v>2041</v>
           </cell>
           <cell r="E105">
-            <v>41</v>
+            <v>51</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="B106" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>23</v>
+            <v>21</v>
           </cell>
           <cell r="D106">
-            <v>46164</v>
+            <v>73644</v>
           </cell>
           <cell r="E106">
-            <v>37</v>
+            <v>31</v>
           </cell>
           <cell r="F106" t="str">
             <v>2022-12-08</v>
@@ -3001,19 +3001,19 @@
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="B107" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>24</v>
+            <v>22</v>
           </cell>
           <cell r="D107">
-            <v>2311</v>
+            <v>43788</v>
           </cell>
           <cell r="E107">
-            <v>51</v>
+            <v>37</v>
           </cell>
           <cell r="F107" t="str">
             <v>2022-12-09</v>
@@ -3027,7 +3027,7 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="D108">
             <v>12454</v>
@@ -3036,7 +3036,7 @@
             <v>30</v>
           </cell>
           <cell r="F108" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
       </sheetData>
@@ -3058,22 +3058,22 @@
             <v>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</v>
           </cell>
           <cell r="C8">
-            <v>14</v>
+            <v>15</v>
           </cell>
           <cell r="D8">
-            <v>76</v>
+            <v>78</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
           </cell>
           <cell r="H8">
-            <v>81536</v>
+            <v>81472</v>
           </cell>
           <cell r="I8">
-            <v>81536</v>
+            <v>81472</v>
           </cell>
           <cell r="K8">
-            <v>199</v>
+            <v>197</v>
           </cell>
         </row>
         <row r="9">
@@ -3083,271 +3083,256 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C10">
-            <v>481</v>
+            <v>1296</v>
           </cell>
           <cell r="D10">
-            <v>100</v>
+            <v>92</v>
           </cell>
           <cell r="H10">
-            <v>11501</v>
+            <v>24836</v>
           </cell>
           <cell r="I10">
-            <v>11501</v>
+            <v>24836</v>
           </cell>
           <cell r="K10">
             <v>16</v>
           </cell>
           <cell r="L10">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M10">
-            <v>9193</v>
+            <v>30850</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C11">
-            <v>1320</v>
+            <v>651</v>
           </cell>
           <cell r="D11">
-            <v>94</v>
+            <v>81</v>
           </cell>
           <cell r="H11">
-            <v>26124</v>
+            <v>21285</v>
           </cell>
           <cell r="I11">
-            <v>26124</v>
+            <v>21285</v>
           </cell>
           <cell r="K11">
-            <v>17</v>
+            <v>19</v>
           </cell>
           <cell r="L11">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="M11">
-            <v>30850</v>
+            <v>22517</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C12">
-            <v>90</v>
+            <v>425</v>
           </cell>
           <cell r="D12">
-            <v>67</v>
+            <v>76</v>
           </cell>
           <cell r="E12" t="str">
             <v>↓</v>
           </cell>
+          <cell r="F12">
+            <v>938</v>
+          </cell>
+          <cell r="G12">
+            <v>2</v>
+          </cell>
           <cell r="H12">
-            <v>3888</v>
+            <v>14118</v>
           </cell>
           <cell r="I12">
-            <v>3888</v>
+            <v>14118</v>
           </cell>
           <cell r="K12">
-            <v>18</v>
+            <v>20</v>
           </cell>
           <cell r="L12">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="M12">
-            <v>5909</v>
+            <v>14902</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C13">
-            <v>445</v>
+            <v>595</v>
           </cell>
           <cell r="D13">
-            <v>99</v>
+            <v>92</v>
           </cell>
           <cell r="H13">
-            <v>10513</v>
+            <v>19252</v>
           </cell>
           <cell r="I13">
-            <v>10513</v>
+            <v>19252</v>
           </cell>
           <cell r="K13">
-            <v>18</v>
+            <v>20</v>
           </cell>
           <cell r="L13">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="M13">
-            <v>20094</v>
+            <v>19887</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C14">
-            <v>628</v>
+            <v>269</v>
           </cell>
           <cell r="D14">
-            <v>98</v>
+            <v>112</v>
           </cell>
           <cell r="H14">
-            <v>14489</v>
+            <v>6317</v>
           </cell>
           <cell r="I14">
-            <v>14489</v>
+            <v>6317</v>
           </cell>
           <cell r="K14">
-            <v>19</v>
-          </cell>
-          <cell r="L14">
-            <v>15</v>
-          </cell>
-          <cell r="M14">
-            <v>21828</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C15">
-            <v>653</v>
+            <v>2138</v>
           </cell>
           <cell r="D15">
-            <v>83</v>
+            <v>110</v>
           </cell>
           <cell r="H15">
-            <v>22321</v>
+            <v>48692</v>
           </cell>
           <cell r="I15">
-            <v>22321</v>
+            <v>9582</v>
           </cell>
           <cell r="K15">
             <v>21</v>
           </cell>
           <cell r="L15">
-            <v>17</v>
+            <v>19</v>
           </cell>
           <cell r="M15">
-            <v>22517</v>
+            <v>39400</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C16">
-            <v>431</v>
+            <v>361</v>
           </cell>
           <cell r="D16">
-            <v>79</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="F16">
-            <v>938</v>
-          </cell>
-          <cell r="G16">
-            <v>2</v>
+            <v>92</v>
           </cell>
           <cell r="H16">
-            <v>14594</v>
+            <v>12359</v>
           </cell>
           <cell r="I16">
-            <v>14594</v>
+            <v>12359</v>
           </cell>
           <cell r="K16">
-            <v>21</v>
+            <v>22</v>
           </cell>
           <cell r="L16">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="M16">
-            <v>14902</v>
+            <v>8209</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C17">
-            <v>598</v>
+            <v>657</v>
           </cell>
           <cell r="D17">
-            <v>93</v>
+            <v>79</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H17">
-            <v>20974</v>
+            <v>21733</v>
           </cell>
           <cell r="I17">
-            <v>20974</v>
+            <v>21733</v>
           </cell>
           <cell r="K17">
             <v>22</v>
           </cell>
-          <cell r="L17">
-            <v>21</v>
-          </cell>
-          <cell r="M17">
-            <v>19887</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C18">
-            <v>363</v>
+            <v>2326</v>
           </cell>
           <cell r="D18">
-            <v>94</v>
+            <v>93</v>
+          </cell>
+          <cell r="F18">
+            <v>3360</v>
+          </cell>
+          <cell r="G18">
+            <v>2</v>
           </cell>
           <cell r="H18">
-            <v>13185</v>
+            <v>52997</v>
           </cell>
           <cell r="I18">
-            <v>13185</v>
+            <v>52997</v>
           </cell>
           <cell r="K18">
-            <v>23</v>
-          </cell>
-          <cell r="L18">
-            <v>21</v>
-          </cell>
-          <cell r="M18">
-            <v>14671</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C19">
-            <v>2312</v>
+            <v>3064</v>
           </cell>
           <cell r="D19">
-            <v>92</v>
-          </cell>
-          <cell r="F19">
-            <v>3360</v>
-          </cell>
-          <cell r="G19">
-            <v>2</v>
+            <v>75</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H19">
-            <v>56245</v>
+            <v>84567</v>
           </cell>
           <cell r="I19">
-            <v>56245</v>
+            <v>84567</v>
           </cell>
           <cell r="K19">
             <v>23</v>
@@ -3355,42 +3340,39 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C20">
-            <v>648</v>
+            <v>493</v>
           </cell>
           <cell r="D20">
-            <v>79</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>↓</v>
+            <v>95</v>
           </cell>
           <cell r="H20">
-            <v>23651</v>
+            <v>19567</v>
           </cell>
           <cell r="I20">
-            <v>23651</v>
+            <v>19567</v>
           </cell>
           <cell r="K20">
-            <v>24</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C21">
-            <v>485</v>
+            <v>588</v>
           </cell>
           <cell r="D21">
-            <v>96</v>
+            <v>85</v>
           </cell>
           <cell r="H21">
-            <v>21023</v>
+            <v>21531</v>
           </cell>
           <cell r="I21">
-            <v>21023</v>
+            <v>21531</v>
           </cell>
           <cell r="K21">
             <v>24</v>
@@ -3398,68 +3380,65 @@
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C22">
-            <v>2138</v>
+            <v>418</v>
           </cell>
           <cell r="D22">
-            <v>110</v>
+            <v>106</v>
           </cell>
           <cell r="H22">
-            <v>54488</v>
+            <v>12388</v>
           </cell>
           <cell r="I22">
-            <v>15378</v>
+            <v>12388</v>
           </cell>
           <cell r="K22">
-            <v>24</v>
-          </cell>
-          <cell r="L22">
-            <v>21</v>
-          </cell>
-          <cell r="M22">
-            <v>39400</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C23">
-            <v>265</v>
+            <v>318</v>
           </cell>
           <cell r="D23">
-            <v>110</v>
+            <v>81</v>
           </cell>
           <cell r="H23">
-            <v>7521</v>
+            <v>17031</v>
           </cell>
           <cell r="I23">
-            <v>7521</v>
+            <v>17031</v>
           </cell>
           <cell r="K23">
-            <v>25</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C24">
-            <v>587</v>
+            <v>988</v>
           </cell>
           <cell r="D24">
-            <v>86</v>
+            <v>78</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H24">
-            <v>23015</v>
+            <v>33470</v>
           </cell>
           <cell r="I24">
-            <v>23015</v>
+            <v>33470</v>
           </cell>
           <cell r="K24">
-            <v>25</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="25">
@@ -3467,82 +3446,79 @@
             <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C25">
-            <v>428</v>
+            <v>421</v>
           </cell>
           <cell r="D25">
-            <v>94</v>
+            <v>90</v>
           </cell>
           <cell r="H25">
-            <v>13305</v>
+            <v>13277</v>
           </cell>
           <cell r="I25">
-            <v>13305</v>
+            <v>13277</v>
           </cell>
           <cell r="K25">
-            <v>26</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C26">
-            <v>424</v>
+            <v>492</v>
           </cell>
           <cell r="D26">
-            <v>108</v>
+            <v>84</v>
           </cell>
           <cell r="H26">
-            <v>12668</v>
+            <v>20329</v>
           </cell>
           <cell r="I26">
-            <v>12668</v>
+            <v>20329</v>
           </cell>
           <cell r="K26">
-            <v>26</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C27">
-            <v>3234</v>
+            <v>453</v>
           </cell>
           <cell r="D27">
-            <v>80</v>
+            <v>92</v>
           </cell>
           <cell r="H27">
-            <v>91497</v>
+            <v>21256</v>
           </cell>
           <cell r="I27">
-            <v>91497</v>
+            <v>21256</v>
           </cell>
           <cell r="K27">
-            <v>26</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C28">
-            <v>978</v>
+            <v>393</v>
           </cell>
           <cell r="D28">
-            <v>79</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>↓</v>
+            <v>91</v>
           </cell>
           <cell r="H28">
-            <v>35220</v>
+            <v>20158</v>
           </cell>
           <cell r="I28">
-            <v>35220</v>
+            <v>20158</v>
           </cell>
           <cell r="K28">
-            <v>27</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="29">
@@ -3550,16 +3526,19 @@
             <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C29">
-            <v>418</v>
+            <v>410</v>
           </cell>
           <cell r="D29">
-            <v>82</v>
+            <v>79</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H29">
-            <v>18671</v>
+            <v>18419</v>
           </cell>
           <cell r="I29">
-            <v>18671</v>
+            <v>18419</v>
           </cell>
           <cell r="K29">
             <v>28</v>
@@ -3567,19 +3546,19 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C30">
-            <v>385</v>
+            <v>276</v>
           </cell>
           <cell r="D30">
-            <v>92</v>
+            <v>88</v>
           </cell>
           <cell r="H30">
-            <v>21306</v>
+            <v>12068</v>
           </cell>
           <cell r="I30">
-            <v>21306</v>
+            <v>12068</v>
           </cell>
           <cell r="K30">
             <v>29</v>
@@ -3587,22 +3566,19 @@
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Береза почки 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C31">
-            <v>299</v>
+            <v>544</v>
           </cell>
           <cell r="D31">
-            <v>78</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>↓</v>
+            <v>84</v>
           </cell>
           <cell r="H31">
-            <v>18963</v>
+            <v>29235</v>
           </cell>
           <cell r="I31">
-            <v>18963</v>
+            <v>29235</v>
           </cell>
           <cell r="K31">
             <v>29</v>
@@ -3610,19 +3586,19 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C32">
-            <v>281</v>
+            <v>988</v>
           </cell>
           <cell r="D32">
-            <v>90</v>
+            <v>80</v>
           </cell>
           <cell r="H32">
-            <v>12278</v>
+            <v>37990</v>
           </cell>
           <cell r="I32">
-            <v>12278</v>
+            <v>37990</v>
           </cell>
           <cell r="K32">
             <v>29</v>
@@ -3630,19 +3606,19 @@
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C33">
-            <v>445</v>
+            <v>191</v>
           </cell>
           <cell r="D33">
-            <v>93</v>
+            <v>81</v>
           </cell>
           <cell r="H33">
-            <v>23160</v>
+            <v>10010</v>
           </cell>
           <cell r="I33">
-            <v>23160</v>
+            <v>10010</v>
           </cell>
           <cell r="K33">
             <v>30</v>
@@ -3650,99 +3626,99 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C34">
-            <v>542</v>
+            <v>313</v>
           </cell>
           <cell r="D34">
-            <v>86</v>
+            <v>82</v>
           </cell>
           <cell r="H34">
-            <v>30775</v>
+            <v>17944</v>
           </cell>
           <cell r="I34">
-            <v>30775</v>
+            <v>17944</v>
           </cell>
           <cell r="K34">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C35">
-            <v>498</v>
+            <v>136</v>
           </cell>
           <cell r="D35">
-            <v>86</v>
+            <v>108</v>
           </cell>
           <cell r="H35">
-            <v>22009</v>
+            <v>4943</v>
           </cell>
           <cell r="I35">
-            <v>22009</v>
+            <v>4943</v>
           </cell>
           <cell r="K35">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C36">
-            <v>194</v>
+            <v>683</v>
           </cell>
           <cell r="D36">
-            <v>84</v>
+            <v>87</v>
           </cell>
           <cell r="H36">
-            <v>10178</v>
+            <v>31754</v>
           </cell>
           <cell r="I36">
-            <v>10178</v>
+            <v>17838</v>
           </cell>
           <cell r="K36">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C37">
-            <v>983</v>
+            <v>220</v>
           </cell>
           <cell r="D37">
-            <v>81</v>
+            <v>99</v>
           </cell>
           <cell r="H37">
-            <v>40146</v>
+            <v>8303</v>
           </cell>
           <cell r="I37">
-            <v>40146</v>
+            <v>8303</v>
           </cell>
           <cell r="K37">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C38">
-            <v>139</v>
+            <v>469</v>
           </cell>
           <cell r="D38">
-            <v>110</v>
+            <v>96</v>
           </cell>
           <cell r="H38">
-            <v>5027</v>
+            <v>20097</v>
           </cell>
           <cell r="I38">
-            <v>1235</v>
+            <v>10815</v>
           </cell>
           <cell r="K38">
             <v>33</v>
@@ -3750,19 +3726,19 @@
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C39">
-            <v>226</v>
+            <v>1134</v>
           </cell>
           <cell r="D39">
-            <v>103</v>
+            <v>84</v>
           </cell>
           <cell r="H39">
-            <v>8569</v>
+            <v>65726</v>
           </cell>
           <cell r="I39">
-            <v>8569</v>
+            <v>65726</v>
           </cell>
           <cell r="K39">
             <v>33</v>
@@ -3770,19 +3746,19 @@
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C40">
-            <v>687</v>
+            <v>42</v>
           </cell>
           <cell r="D40">
-            <v>90</v>
+            <v>88</v>
           </cell>
           <cell r="H40">
-            <v>32930</v>
+            <v>2128</v>
           </cell>
           <cell r="I40">
-            <v>19014</v>
+            <v>2128</v>
           </cell>
           <cell r="K40">
             <v>33</v>
@@ -3790,119 +3766,122 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C41">
-            <v>41</v>
+            <v>327</v>
           </cell>
           <cell r="D41">
-            <v>89</v>
+            <v>92</v>
           </cell>
           <cell r="H41">
-            <v>2156</v>
+            <v>14311</v>
           </cell>
           <cell r="I41">
-            <v>2156</v>
+            <v>14311</v>
           </cell>
           <cell r="K41">
-            <v>33</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C42">
-            <v>310</v>
+            <v>220</v>
           </cell>
           <cell r="D42">
-            <v>83</v>
+            <v>100</v>
           </cell>
           <cell r="H42">
-            <v>19008</v>
+            <v>12536</v>
           </cell>
           <cell r="I42">
-            <v>19008</v>
+            <v>12536</v>
           </cell>
           <cell r="K42">
-            <v>34</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>Лен семена 100г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C43">
-            <v>1137</v>
+            <v>851</v>
           </cell>
           <cell r="D43">
-            <v>85</v>
+            <v>93</v>
           </cell>
           <cell r="H43">
-            <v>68099</v>
+            <v>46695</v>
           </cell>
           <cell r="I43">
-            <v>68099</v>
+            <v>46695</v>
           </cell>
           <cell r="K43">
-            <v>35</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C44">
-            <v>219</v>
+            <v>292</v>
           </cell>
           <cell r="D44">
-            <v>100</v>
+            <v>93</v>
           </cell>
           <cell r="H44">
-            <v>12676</v>
+            <v>18380</v>
           </cell>
           <cell r="I44">
-            <v>12676</v>
+            <v>18380</v>
           </cell>
           <cell r="K44">
-            <v>36</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Череда трава 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C45">
-            <v>328</v>
+            <v>344</v>
           </cell>
           <cell r="D45">
             <v>92</v>
           </cell>
           <cell r="H45">
-            <v>14983</v>
+            <v>20815</v>
           </cell>
           <cell r="I45">
-            <v>14983</v>
+            <v>20815</v>
           </cell>
           <cell r="K45">
-            <v>37</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="C46">
-            <v>844</v>
+            <v>715</v>
           </cell>
           <cell r="D46">
-            <v>94</v>
+            <v>67</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H46">
-            <v>47815</v>
+            <v>51436</v>
           </cell>
           <cell r="I46">
-            <v>47815</v>
+            <v>51436</v>
           </cell>
           <cell r="K46">
             <v>41</v>
@@ -3910,162 +3889,165 @@
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C47">
-            <v>726</v>
+            <v>261</v>
           </cell>
           <cell r="D47">
-            <v>69</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>↓</v>
+            <v>104</v>
+          </cell>
+          <cell r="F47">
+            <v>70</v>
           </cell>
           <cell r="H47">
-            <v>52318</v>
+            <v>11227</v>
           </cell>
           <cell r="I47">
-            <v>26646</v>
+            <v>125</v>
           </cell>
           <cell r="K47">
-            <v>41</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C48">
-            <v>340</v>
+            <v>622</v>
           </cell>
           <cell r="D48">
-            <v>92</v>
+            <v>97</v>
           </cell>
           <cell r="H48">
-            <v>21641</v>
+            <v>34733</v>
           </cell>
           <cell r="I48">
-            <v>21641</v>
+            <v>13019</v>
           </cell>
           <cell r="K48">
-            <v>42</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C49">
-            <v>291</v>
+            <v>151</v>
           </cell>
           <cell r="D49">
-            <v>94</v>
+            <v>85</v>
           </cell>
           <cell r="H49">
-            <v>18772</v>
+            <v>8539</v>
           </cell>
           <cell r="I49">
-            <v>18772</v>
+            <v>8539</v>
           </cell>
           <cell r="K49">
-            <v>42</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C50">
-            <v>266</v>
+            <v>325</v>
           </cell>
           <cell r="D50">
-            <v>107</v>
+            <v>96</v>
           </cell>
           <cell r="H50">
-            <v>11409</v>
+            <v>22647</v>
           </cell>
           <cell r="I50">
-            <v>307</v>
+            <v>7443</v>
           </cell>
           <cell r="K50">
-            <v>42</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C51">
-            <v>151</v>
+            <v>90</v>
           </cell>
           <cell r="D51">
-            <v>87</v>
+            <v>65</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H51">
-            <v>8693</v>
+            <v>9737</v>
           </cell>
           <cell r="I51">
-            <v>8693</v>
+            <v>3790</v>
           </cell>
           <cell r="K51">
-            <v>47</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C52">
-            <v>318</v>
+            <v>904</v>
           </cell>
           <cell r="D52">
-            <v>95</v>
+            <v>114</v>
           </cell>
           <cell r="H52">
-            <v>23725</v>
+            <v>45668</v>
           </cell>
           <cell r="I52">
-            <v>8521</v>
+            <v>12418</v>
           </cell>
           <cell r="K52">
-            <v>50</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="C53">
-            <v>887</v>
+            <v>311</v>
           </cell>
           <cell r="D53">
-            <v>114</v>
+            <v>94</v>
           </cell>
           <cell r="H53">
-            <v>47698</v>
+            <v>23133</v>
           </cell>
           <cell r="I53">
-            <v>14448</v>
+            <v>23133</v>
           </cell>
           <cell r="K53">
-            <v>51</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C54">
-            <v>301</v>
+            <v>445</v>
           </cell>
           <cell r="D54">
-            <v>92</v>
+            <v>98</v>
           </cell>
           <cell r="H54">
-            <v>24295</v>
+            <v>29771</v>
           </cell>
           <cell r="I54">
-            <v>24295</v>
+            <v>9631</v>
           </cell>
           <cell r="K54">
             <v>51</v>
@@ -4076,10 +4058,10 @@
             <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>192</v>
+            <v>191</v>
           </cell>
           <cell r="D55">
-            <v>83</v>
+            <v>81</v>
           </cell>
           <cell r="F55">
             <v>280</v>
@@ -4088,13 +4070,13 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>11334</v>
+            <v>11292</v>
           </cell>
           <cell r="I55">
-            <v>11334</v>
+            <v>11292</v>
           </cell>
           <cell r="K55">
-            <v>53</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="56">
@@ -4112,22 +4094,22 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C58">
-            <v>90</v>
+            <v>94</v>
           </cell>
           <cell r="D58">
-            <v>113</v>
+            <v>116</v>
           </cell>
           <cell r="H58">
-            <v>1598</v>
+            <v>1208</v>
           </cell>
           <cell r="I58">
-            <v>1598</v>
+            <v>1208</v>
           </cell>
           <cell r="J58" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K58">
-            <v>15</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="59">
@@ -4135,7 +4117,7 @@
             <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>433</v>
+            <v>434</v>
           </cell>
           <cell r="D59">
             <v>77</v>
@@ -4144,16 +4126,22 @@
             <v>↓</v>
           </cell>
           <cell r="H59">
-            <v>11129</v>
+            <v>10529</v>
           </cell>
           <cell r="I59">
-            <v>11129</v>
+            <v>10529</v>
           </cell>
           <cell r="J59" t="str">
-            <v>!!!</v>
+            <v>!</v>
           </cell>
           <cell r="K59">
+            <v>18</v>
+          </cell>
+          <cell r="L59">
             <v>19</v>
+          </cell>
+          <cell r="M59">
+            <v>4062</v>
           </cell>
         </row>
         <row r="60">
@@ -4161,19 +4149,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>113</v>
+            <v>116</v>
           </cell>
           <cell r="D60">
-            <v>101</v>
+            <v>102</v>
           </cell>
           <cell r="H60">
-            <v>3741</v>
+            <v>3271</v>
           </cell>
           <cell r="I60">
-            <v>3741</v>
+            <v>3271</v>
           </cell>
           <cell r="K60">
-            <v>28</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="61">
@@ -4181,22 +4169,22 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>46</v>
+            <v>48</v>
           </cell>
           <cell r="D61">
-            <v>53</v>
+            <v>54</v>
           </cell>
           <cell r="E61" t="str">
             <v>↓</v>
           </cell>
           <cell r="H61">
-            <v>4070</v>
+            <v>3900</v>
           </cell>
           <cell r="I61">
-            <v>4070</v>
+            <v>3900</v>
           </cell>
           <cell r="K61">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="62">
@@ -4204,19 +4192,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>128</v>
+            <v>129</v>
           </cell>
           <cell r="D62">
-            <v>99</v>
+            <v>100</v>
           </cell>
           <cell r="H62">
-            <v>6398</v>
+            <v>5888</v>
           </cell>
           <cell r="I62">
-            <v>6398</v>
+            <v>5888</v>
           </cell>
           <cell r="K62">
-            <v>44</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="63">
@@ -4224,22 +4212,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>18</v>
+            <v>19</v>
           </cell>
           <cell r="D63">
-            <v>73</v>
+            <v>76</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>8110</v>
+            <v>7990</v>
           </cell>
           <cell r="I63">
-            <v>8110</v>
+            <v>7990</v>
           </cell>
           <cell r="K63">
-            <v>142</v>
+            <v>139</v>
           </cell>
         </row>
         <row r="64">
@@ -4247,22 +4235,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="C64">
-            <v>10</v>
+            <v>13</v>
           </cell>
           <cell r="D64">
-            <v>63</v>
+            <v>77</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9670</v>
+            <v>9400</v>
           </cell>
           <cell r="I64">
-            <v>9670</v>
+            <v>9400</v>
           </cell>
           <cell r="K64">
-            <v>199</v>
+            <v>197</v>
           </cell>
         </row>
         <row r="65">
@@ -4272,13 +4260,13 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C66">
-            <v>193</v>
+            <v>51</v>
           </cell>
           <cell r="D66">
-            <v>112</v>
+            <v>93</v>
           </cell>
           <cell r="J66" t="str">
             <v>!!!</v>
@@ -4286,13 +4274,13 @@
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>51</v>
+            <v>192</v>
           </cell>
           <cell r="D67">
-            <v>91</v>
+            <v>113</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
@@ -4306,7 +4294,7 @@
             <v>27</v>
           </cell>
           <cell r="D68">
-            <v>37</v>
+            <v>36</v>
           </cell>
           <cell r="E68" t="str">
             <v>↓</v>
@@ -4332,7 +4320,7 @@
             <v>25</v>
           </cell>
           <cell r="D69">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="E69" t="str">
             <v>↓</v>
@@ -4364,7 +4352,7 @@
             <v>23</v>
           </cell>
           <cell r="D70">
-            <v>26</v>
+            <v>25</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
@@ -4390,16 +4378,16 @@
             <v>31</v>
           </cell>
           <cell r="D71">
-            <v>44</v>
+            <v>42</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
           <cell r="H71">
-            <v>1998</v>
+            <v>1962</v>
           </cell>
           <cell r="I71">
-            <v>1998</v>
+            <v>1962</v>
           </cell>
           <cell r="J71" t="str">
             <v>!!!</v>
@@ -4413,7 +4401,7 @@
             <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C72">
-            <v>2700</v>
+            <v>2728</v>
           </cell>
           <cell r="D72">
             <v>84</v>
@@ -4425,94 +4413,94 @@
             <v>3</v>
           </cell>
           <cell r="H72">
-            <v>101778</v>
+            <v>96810</v>
           </cell>
           <cell r="I72">
-            <v>101778</v>
+            <v>96810</v>
           </cell>
           <cell r="K72">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C73">
-            <v>1497</v>
+            <v>6</v>
           </cell>
           <cell r="D73">
-            <v>98</v>
+            <v>231</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H73">
-            <v>49883</v>
+            <v>1062</v>
           </cell>
           <cell r="I73">
-            <v>49883</v>
+            <v>1062</v>
           </cell>
           <cell r="K73">
-            <v>27</v>
-          </cell>
-          <cell r="L73">
-            <v>14</v>
-          </cell>
-          <cell r="M73">
-            <v>40112</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C74">
-            <v>6</v>
+            <v>1010</v>
           </cell>
           <cell r="D74">
-            <v>234</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>↑</v>
+            <v>104</v>
+          </cell>
+          <cell r="F74">
+            <v>630</v>
+          </cell>
+          <cell r="G74">
+            <v>1</v>
           </cell>
           <cell r="H74">
-            <v>1062</v>
+            <v>37305</v>
           </cell>
           <cell r="I74">
-            <v>1062</v>
+            <v>37305</v>
           </cell>
           <cell r="K74">
-            <v>27</v>
+            <v>30</v>
+          </cell>
+          <cell r="L74">
+            <v>13</v>
+          </cell>
+          <cell r="M74">
+            <v>29426</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C75">
-            <v>989</v>
+            <v>3898</v>
           </cell>
           <cell r="D75">
-            <v>104</v>
-          </cell>
-          <cell r="F75">
-            <v>630</v>
-          </cell>
-          <cell r="G75">
-            <v>1</v>
+            <v>91</v>
           </cell>
           <cell r="H75">
-            <v>40041</v>
+            <v>139827</v>
           </cell>
           <cell r="I75">
-            <v>40041</v>
+            <v>139827</v>
           </cell>
           <cell r="K75">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="L75">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="M75">
-            <v>29426</v>
+            <v>49249</v>
           </cell>
         </row>
         <row r="76">
@@ -4520,157 +4508,163 @@
             <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>14033</v>
+            <v>13975</v>
           </cell>
           <cell r="D76">
-            <v>83</v>
+            <v>81</v>
           </cell>
           <cell r="H76">
-            <v>561621</v>
+            <v>548697</v>
           </cell>
           <cell r="I76">
-            <v>561621</v>
+            <v>548697</v>
           </cell>
           <cell r="K76">
-            <v>32</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C77">
-            <v>4000</v>
+            <v>321</v>
           </cell>
           <cell r="D77">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H77">
-            <v>155217</v>
+            <v>17380</v>
           </cell>
           <cell r="I77">
-            <v>155217</v>
+            <v>17380</v>
           </cell>
           <cell r="K77">
             <v>34</v>
           </cell>
           <cell r="L77">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M77">
-            <v>49249</v>
+            <v>9825</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C78">
-            <v>317</v>
+            <v>763</v>
           </cell>
           <cell r="D78">
-            <v>94</v>
+            <v>100</v>
           </cell>
           <cell r="H78">
-            <v>18262</v>
+            <v>26766</v>
           </cell>
           <cell r="I78">
-            <v>18262</v>
+            <v>26766</v>
           </cell>
           <cell r="K78">
-            <v>36</v>
+            <v>35</v>
           </cell>
           <cell r="L78">
-            <v>17</v>
+            <v>14</v>
           </cell>
           <cell r="M78">
-            <v>9825</v>
+            <v>24261</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C79">
-            <v>749</v>
+            <v>1451</v>
           </cell>
           <cell r="D79">
-            <v>99</v>
+            <v>100</v>
           </cell>
           <cell r="H79">
-            <v>28674</v>
+            <v>67275</v>
           </cell>
           <cell r="I79">
-            <v>28674</v>
+            <v>67275</v>
           </cell>
           <cell r="K79">
-            <v>38</v>
+            <v>39</v>
+          </cell>
+          <cell r="L79">
+            <v>15</v>
+          </cell>
+          <cell r="M79">
+            <v>40138</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C80">
-            <v>1397</v>
+            <v>615</v>
           </cell>
           <cell r="D80">
-            <v>97</v>
+            <v>109</v>
           </cell>
           <cell r="H80">
-            <v>73431</v>
+            <v>34399</v>
           </cell>
           <cell r="I80">
-            <v>73431</v>
+            <v>34399</v>
           </cell>
           <cell r="K80">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="L80">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="M80">
-            <v>40138</v>
+            <v>9849</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>1085</v>
+            <v>1327</v>
           </cell>
           <cell r="D81">
-            <v>84</v>
+            <v>94</v>
           </cell>
           <cell r="H81">
-            <v>64024</v>
+            <v>60940</v>
           </cell>
           <cell r="I81">
-            <v>64024</v>
+            <v>60940</v>
           </cell>
           <cell r="K81">
-            <v>42</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C82">
-            <v>190</v>
+            <v>1061</v>
           </cell>
           <cell r="D82">
-            <v>86</v>
+            <v>81</v>
           </cell>
           <cell r="H82">
-            <v>16352</v>
+            <v>62296</v>
           </cell>
           <cell r="I82">
-            <v>16352</v>
+            <v>62296</v>
           </cell>
           <cell r="K82">
-            <v>43</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="83">
@@ -4681,191 +4675,191 @@
             <v>68</v>
           </cell>
           <cell r="D83">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H83">
-            <v>3460</v>
+            <v>3406</v>
           </cell>
           <cell r="I83">
-            <v>3460</v>
+            <v>3406</v>
           </cell>
           <cell r="K83">
-            <v>43</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C84">
-            <v>594</v>
+            <v>193</v>
           </cell>
           <cell r="D84">
-            <v>107</v>
+            <v>86</v>
           </cell>
           <cell r="H84">
-            <v>36937</v>
+            <v>15956</v>
           </cell>
           <cell r="I84">
-            <v>36937</v>
+            <v>15956</v>
           </cell>
           <cell r="K84">
-            <v>44</v>
+            <v>42</v>
           </cell>
           <cell r="L84">
-            <v>17</v>
+            <v>20</v>
           </cell>
           <cell r="M84">
-            <v>9849</v>
+            <v>11416</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C85">
-            <v>1287</v>
+            <v>1412</v>
           </cell>
           <cell r="D85">
-            <v>91</v>
+            <v>104</v>
           </cell>
           <cell r="H85">
-            <v>66606</v>
+            <v>80763</v>
           </cell>
           <cell r="I85">
-            <v>66606</v>
+            <v>80763</v>
           </cell>
           <cell r="K85">
-            <v>45</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C86">
-            <v>30083</v>
+            <v>120</v>
           </cell>
           <cell r="D86">
-            <v>94</v>
+            <v>111</v>
           </cell>
           <cell r="H86">
-            <v>1365725</v>
+            <v>5664</v>
           </cell>
           <cell r="I86">
-            <v>1365725</v>
+            <v>5664</v>
           </cell>
           <cell r="K86">
-            <v>45</v>
-          </cell>
-          <cell r="L86">
-            <v>21</v>
-          </cell>
-          <cell r="M86">
-            <v>227708</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C87">
-            <v>744</v>
+            <v>1531</v>
           </cell>
           <cell r="D87">
-            <v>92</v>
+            <v>100</v>
           </cell>
           <cell r="H87">
-            <v>42512</v>
+            <v>84274</v>
           </cell>
           <cell r="I87">
-            <v>42512</v>
+            <v>43673</v>
           </cell>
           <cell r="K87">
-            <v>46</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C88">
-            <v>1411</v>
+            <v>739</v>
           </cell>
           <cell r="D88">
-            <v>105</v>
+            <v>90</v>
           </cell>
           <cell r="H88">
-            <v>85659</v>
+            <v>41666</v>
           </cell>
           <cell r="I88">
-            <v>85659</v>
+            <v>41666</v>
           </cell>
           <cell r="K88">
-            <v>46</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C89">
-            <v>118</v>
+            <v>134</v>
           </cell>
           <cell r="D89">
-            <v>110</v>
+            <v>88</v>
           </cell>
           <cell r="H89">
-            <v>6006</v>
+            <v>7200</v>
           </cell>
           <cell r="I89">
-            <v>6006</v>
+            <v>7200</v>
           </cell>
           <cell r="K89">
-            <v>47</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C90">
-            <v>129</v>
+            <v>48</v>
           </cell>
           <cell r="D90">
-            <v>86</v>
+            <v>76</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H90">
-            <v>7632</v>
+            <v>4932</v>
           </cell>
           <cell r="I90">
-            <v>7632</v>
+            <v>4932</v>
           </cell>
           <cell r="K90">
-            <v>48</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C91">
-            <v>47</v>
+            <v>28469</v>
           </cell>
           <cell r="D91">
-            <v>75</v>
-          </cell>
-          <cell r="E91" t="str">
-            <v>↓</v>
+            <v>88</v>
           </cell>
           <cell r="H91">
-            <v>5130</v>
+            <v>1311041</v>
           </cell>
           <cell r="I91">
-            <v>5130</v>
+            <v>1311041</v>
           </cell>
           <cell r="K91">
-            <v>48</v>
+            <v>46</v>
+          </cell>
+          <cell r="L91">
+            <v>19</v>
+          </cell>
+          <cell r="M91">
+            <v>227708</v>
           </cell>
         </row>
         <row r="92">
@@ -4876,19 +4870,19 @@
             <v>4</v>
           </cell>
           <cell r="D92">
-            <v>155</v>
+            <v>161</v>
           </cell>
           <cell r="E92" t="str">
             <v>↑</v>
           </cell>
           <cell r="H92">
-            <v>1818</v>
+            <v>1800</v>
           </cell>
           <cell r="I92">
-            <v>1818</v>
+            <v>1800</v>
           </cell>
           <cell r="K92">
-            <v>49</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="93">
@@ -4896,119 +4890,119 @@
             <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C93">
-            <v>821</v>
+            <v>844</v>
           </cell>
           <cell r="D93">
-            <v>111</v>
+            <v>113</v>
           </cell>
           <cell r="H93">
-            <v>45377</v>
+            <v>42641</v>
           </cell>
           <cell r="I93">
-            <v>25347</v>
+            <v>42641</v>
           </cell>
           <cell r="K93">
-            <v>51</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C94">
-            <v>376</v>
+            <v>888</v>
           </cell>
           <cell r="D94">
             <v>81</v>
           </cell>
           <cell r="H94">
-            <v>33337</v>
+            <v>73126</v>
           </cell>
           <cell r="I94">
-            <v>33337</v>
+            <v>73126</v>
           </cell>
           <cell r="K94">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C95">
-            <v>829</v>
+            <v>540</v>
           </cell>
           <cell r="D95">
-            <v>86</v>
+            <v>105</v>
           </cell>
           <cell r="H95">
-            <v>57809</v>
+            <v>33486</v>
           </cell>
           <cell r="I95">
-            <v>57809</v>
+            <v>33486</v>
           </cell>
           <cell r="K95">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C96">
-            <v>541</v>
+            <v>840</v>
           </cell>
           <cell r="D96">
-            <v>105</v>
+            <v>85</v>
           </cell>
           <cell r="H96">
-            <v>34962</v>
+            <v>55991</v>
           </cell>
           <cell r="I96">
-            <v>34962</v>
+            <v>55991</v>
           </cell>
           <cell r="K96">
-            <v>52</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C97">
-            <v>764</v>
+            <v>650</v>
           </cell>
           <cell r="D97">
-            <v>89</v>
+            <v>91</v>
           </cell>
           <cell r="H97">
-            <v>61909</v>
+            <v>46365</v>
           </cell>
           <cell r="I97">
-            <v>61909</v>
+            <v>46365</v>
           </cell>
           <cell r="K97">
-            <v>53</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C98">
-            <v>878</v>
+            <v>379</v>
           </cell>
           <cell r="D98">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="H98">
-            <v>77626</v>
+            <v>32545</v>
           </cell>
           <cell r="I98">
-            <v>46523</v>
+            <v>32545</v>
           </cell>
           <cell r="K98">
-            <v>54</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="99">
@@ -5016,36 +5010,36 @@
             <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C99">
-            <v>1291</v>
+            <v>1293</v>
           </cell>
           <cell r="D99">
             <v>84</v>
           </cell>
           <cell r="H99">
-            <v>89135</v>
+            <v>85913</v>
           </cell>
           <cell r="I99">
-            <v>89135</v>
+            <v>85913</v>
           </cell>
           <cell r="K99">
-            <v>54</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C100">
-            <v>623</v>
+            <v>755</v>
           </cell>
           <cell r="D100">
-            <v>89</v>
+            <v>86</v>
           </cell>
           <cell r="H100">
-            <v>49389</v>
+            <v>61495</v>
           </cell>
           <cell r="I100">
-            <v>49389</v>
+            <v>61495</v>
           </cell>
           <cell r="K100">
             <v>54</v>
@@ -5059,7 +5053,7 @@
             <v>6</v>
           </cell>
           <cell r="D101">
-            <v>228</v>
+            <v>222</v>
           </cell>
           <cell r="E101" t="str">
             <v>↑</v>
@@ -5071,7 +5065,7 @@
             <v>1854</v>
           </cell>
           <cell r="K101">
-            <v>57</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="102">
@@ -5079,19 +5073,19 @@
             <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C102">
-            <v>904</v>
+            <v>894</v>
           </cell>
           <cell r="D102">
             <v>87</v>
           </cell>
           <cell r="H102">
-            <v>60192</v>
+            <v>57564</v>
           </cell>
           <cell r="I102">
-            <v>43794</v>
+            <v>41166</v>
           </cell>
           <cell r="K102">
-            <v>61</v>
+            <v>58</v>
           </cell>
         </row>
         <row r="103">
@@ -5099,36 +5093,36 @@
             <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C103">
-            <v>3612</v>
+            <v>3497</v>
           </cell>
           <cell r="D103">
-            <v>87</v>
+            <v>85</v>
           </cell>
           <cell r="H103">
-            <v>229603</v>
+            <v>220855</v>
           </cell>
           <cell r="I103">
-            <v>163399</v>
+            <v>154651</v>
           </cell>
           <cell r="K103">
-            <v>62</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C104">
-            <v>411</v>
+            <v>1062</v>
           </cell>
           <cell r="D104">
-            <v>89</v>
+            <v>85</v>
           </cell>
           <cell r="H104">
-            <v>36234</v>
+            <v>87279</v>
           </cell>
           <cell r="I104">
-            <v>36234</v>
+            <v>87279</v>
           </cell>
           <cell r="K104">
             <v>63</v>
@@ -5136,19 +5130,19 @@
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C105">
-            <v>1068</v>
+            <v>405</v>
           </cell>
           <cell r="D105">
             <v>87</v>
           </cell>
           <cell r="H105">
-            <v>89835</v>
+            <v>35946</v>
           </cell>
           <cell r="I105">
-            <v>70341</v>
+            <v>35946</v>
           </cell>
           <cell r="K105">
             <v>64</v>
@@ -5156,82 +5150,82 @@
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C106">
-            <v>321</v>
+            <v>1076</v>
           </cell>
           <cell r="D106">
-            <v>89</v>
+            <v>93</v>
           </cell>
           <cell r="H106">
-            <v>31917</v>
+            <v>84526</v>
           </cell>
           <cell r="I106">
-            <v>21765</v>
+            <v>84526</v>
           </cell>
           <cell r="K106">
-            <v>68</v>
+            <v>66</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C107">
-            <v>459</v>
+            <v>98</v>
           </cell>
           <cell r="D107">
-            <v>94</v>
+            <v>100</v>
           </cell>
           <cell r="H107">
-            <v>37186</v>
+            <v>6640</v>
           </cell>
           <cell r="I107">
-            <v>37186</v>
+            <v>6640</v>
           </cell>
           <cell r="K107">
-            <v>68</v>
+            <v>67</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C108">
-            <v>1055</v>
+            <v>460</v>
           </cell>
           <cell r="D108">
-            <v>92</v>
+            <v>93</v>
           </cell>
           <cell r="H108">
-            <v>88216</v>
+            <v>36754</v>
           </cell>
           <cell r="I108">
-            <v>88216</v>
+            <v>36754</v>
           </cell>
           <cell r="K108">
-            <v>69</v>
+            <v>67</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C109">
-            <v>96</v>
+            <v>323</v>
           </cell>
           <cell r="D109">
-            <v>98</v>
+            <v>87</v>
           </cell>
           <cell r="H109">
-            <v>6928</v>
+            <v>31431</v>
           </cell>
           <cell r="I109">
-            <v>6928</v>
+            <v>21279</v>
           </cell>
           <cell r="K109">
-            <v>72</v>
+            <v>68</v>
           </cell>
         </row>
         <row r="110">
@@ -5239,16 +5233,16 @@
             <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C110">
-            <v>62</v>
+            <v>61</v>
           </cell>
           <cell r="D110">
-            <v>96</v>
+            <v>91</v>
           </cell>
           <cell r="H110">
-            <v>6664</v>
+            <v>6610</v>
           </cell>
           <cell r="I110">
-            <v>6664</v>
+            <v>6610</v>
           </cell>
           <cell r="K110">
             <v>79</v>
@@ -5259,19 +5253,19 @@
             <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>60</v>
+            <v>63</v>
           </cell>
           <cell r="D111">
-            <v>111</v>
+            <v>114</v>
           </cell>
           <cell r="H111">
-            <v>6685</v>
+            <v>6433</v>
           </cell>
           <cell r="I111">
-            <v>6685</v>
+            <v>6433</v>
           </cell>
           <cell r="K111">
-            <v>93</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="112">
@@ -5279,19 +5273,19 @@
             <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C112">
-            <v>59</v>
+            <v>61</v>
           </cell>
           <cell r="D112">
-            <v>102</v>
+            <v>103</v>
           </cell>
           <cell r="H112">
-            <v>6286</v>
+            <v>6088</v>
           </cell>
           <cell r="I112">
-            <v>6286</v>
+            <v>6088</v>
           </cell>
           <cell r="K112">
-            <v>100</v>
+            <v>98</v>
           </cell>
         </row>
         <row r="113">
@@ -5302,7 +5296,7 @@
             <v>54</v>
           </cell>
           <cell r="D113">
-            <v>110</v>
+            <v>109</v>
           </cell>
           <cell r="F113">
             <v>36</v>
@@ -5317,7 +5311,7 @@
             <v>6181</v>
           </cell>
           <cell r="K113">
-            <v>112</v>
+            <v>114</v>
           </cell>
         </row>
         <row r="114">
@@ -5327,51 +5321,48 @@
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C115">
-            <v>1553</v>
+            <v>511</v>
           </cell>
           <cell r="D115">
-            <v>77</v>
-          </cell>
-          <cell r="E115" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H115">
-            <v>47022</v>
+            <v>15279</v>
           </cell>
           <cell r="I115">
-            <v>47022</v>
+            <v>15279</v>
           </cell>
           <cell r="J115" t="str">
             <v>!</v>
           </cell>
           <cell r="K115">
-            <v>17</v>
+            <v>18</v>
           </cell>
           <cell r="L115">
-            <v>18</v>
+            <v>19</v>
           </cell>
           <cell r="M115">
-            <v>50145</v>
+            <v>19987</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>498</v>
+            <v>605</v>
           </cell>
           <cell r="D116">
-            <v>89</v>
+            <v>98</v>
           </cell>
           <cell r="H116">
-            <v>16971</v>
+            <v>16684</v>
           </cell>
           <cell r="I116">
-            <v>16971</v>
+            <v>16684</v>
           </cell>
           <cell r="K116">
             <v>20</v>
@@ -5380,7 +5371,7 @@
             <v>21</v>
           </cell>
           <cell r="M116">
-            <v>19987</v>
+            <v>19813</v>
           </cell>
         </row>
         <row r="117">
@@ -5391,33 +5382,39 @@
             <v>105</v>
           </cell>
           <cell r="D117">
-            <v>81</v>
+            <v>79</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H117">
-            <v>3646</v>
+            <v>3466</v>
           </cell>
           <cell r="I117">
-            <v>3646</v>
+            <v>3466</v>
           </cell>
           <cell r="K117">
-            <v>22</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C118">
-            <v>607</v>
+            <v>365</v>
           </cell>
           <cell r="D118">
-            <v>99</v>
+            <v>77</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H118">
-            <v>18772</v>
+            <v>13614</v>
           </cell>
           <cell r="I118">
-            <v>18772</v>
+            <v>13614</v>
           </cell>
           <cell r="K118">
             <v>22</v>
@@ -5428,16 +5425,16 @@
             <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C119">
-            <v>332</v>
+            <v>326</v>
           </cell>
           <cell r="D119">
-            <v>106</v>
+            <v>103</v>
           </cell>
           <cell r="H119">
-            <v>9711</v>
+            <v>9513</v>
           </cell>
           <cell r="I119">
-            <v>9711</v>
+            <v>9513</v>
           </cell>
           <cell r="K119">
             <v>23</v>
@@ -5445,45 +5442,51 @@
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C120">
-            <v>364</v>
+            <v>1366</v>
           </cell>
           <cell r="D120">
-            <v>78</v>
-          </cell>
-          <cell r="E120" t="str">
-            <v>↓</v>
+            <v>91</v>
           </cell>
           <cell r="H120">
-            <v>14154</v>
+            <v>43788</v>
           </cell>
           <cell r="I120">
-            <v>14154</v>
+            <v>14700</v>
           </cell>
           <cell r="K120">
-            <v>23</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>1410</v>
+            <v>1485</v>
           </cell>
           <cell r="D121">
-            <v>95</v>
+            <v>72</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H121">
-            <v>46164</v>
+            <v>73644</v>
           </cell>
           <cell r="I121">
-            <v>17076</v>
+            <v>43602</v>
           </cell>
           <cell r="K121">
             <v>28</v>
+          </cell>
+          <cell r="L121">
+            <v>16</v>
+          </cell>
+          <cell r="M121">
+            <v>95688</v>
           </cell>
         </row>
         <row r="122">
@@ -5491,19 +5494,22 @@
             <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>56</v>
+            <v>58</v>
           </cell>
           <cell r="D122">
-            <v>116</v>
+            <v>123</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H122">
-            <v>2311</v>
+            <v>2041</v>
           </cell>
           <cell r="I122">
-            <v>2311</v>
+            <v>2041</v>
           </cell>
           <cell r="K122">
-            <v>40</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="123">
@@ -5511,10 +5517,10 @@
             <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>273</v>
+            <v>266</v>
           </cell>
           <cell r="D123">
-            <v>101</v>
+            <v>99</v>
           </cell>
           <cell r="H123">
             <v>12454</v>
@@ -5523,7 +5529,7 @@
             <v>2554</v>
           </cell>
           <cell r="K123">
-            <v>45</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="124">
@@ -5531,25 +5537,25 @@
             <v>ИТОГО:</v>
           </cell>
           <cell r="C124">
-            <v>110094</v>
+            <v>108227</v>
           </cell>
           <cell r="D124">
-            <v>90</v>
+            <v>88</v>
           </cell>
           <cell r="F124">
-            <v>14226</v>
+            <v>14296</v>
           </cell>
           <cell r="H124">
-            <v>5196976</v>
+            <v>5093495</v>
           </cell>
           <cell r="I124">
-            <v>4852561</v>
+            <v>4721445</v>
           </cell>
           <cell r="K124">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="M124">
-            <v>675690</v>
+            <v>677187</v>
           </cell>
         </row>
       </sheetData>
@@ -5849,8 +5855,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,11 +5905,11 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81536</v>
+        <v>81472</v>
       </c>
       <c r="D3" s="3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5925,23 +5931,23 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10513</v>
+        <v>24836</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E5" s="28" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-23</v>
+        <v>2022-11-28</v>
       </c>
       <c r="G5" s="33" t="str">
         <f t="shared" ref="G5:G50" si="0">IF(H5&gt;0,"•","")</f>
@@ -5949,42 +5955,42 @@
       </c>
       <c r="H5" s="34">
         <f>VLOOKUP(A5,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>20094</v>
+        <v>30850</v>
       </c>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26124</v>
+        <v>52997</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H6" s="34">
         <f>VLOOKUP(A6,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>30850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -5992,28 +5998,28 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11501</v>
+        <v>6317</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6021,28 +6027,28 @@
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>56245</v>
+        <v>21285</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H8" s="34">
         <f>VLOOKUP(A8,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>22517</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6050,15 +6056,15 @@
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14489</v>
+        <v>12359</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6066,57 +6072,57 @@
       </c>
       <c r="H9" s="34">
         <f>VLOOKUP(A9,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>21828</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22321</v>
+        <v>2128</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>22517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13185</v>
+        <v>48692</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6124,12 +6130,12 @@
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>14671</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6137,160 +6143,160 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2156</v>
+        <v>14118</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H12" s="34">
         <f>VLOOKUP(A12,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3888</v>
+        <v>8303</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H13" s="34">
         <f>VLOOKUP(A13,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>5909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7521</v>
+        <v>19252</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H14" s="34">
         <f>VLOOKUP(A14,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19887</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>54488</v>
+        <v>12388</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H15" s="34">
         <f>VLOOKUP(A15,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>39400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14594</v>
+        <v>65726</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H16" s="34">
         <f>VLOOKUP(A16,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>14902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8569</v>
+        <v>45668</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6303,23 +6309,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12668</v>
+        <v>12068</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6332,7 +6338,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6340,28 +6346,28 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20974</v>
+        <v>21256</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H19" s="34">
         <f>VLOOKUP(A19,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6369,7 +6375,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13305</v>
+        <v>19567</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6377,7 +6383,7 @@
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6390,23 +6396,23 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>68099</v>
+        <v>13277</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6419,7 +6425,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6427,15 +6433,15 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47698</v>
+        <v>20158</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6448,7 +6454,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6456,15 +6462,15 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12278</v>
+        <v>4943</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6477,23 +6483,23 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21306</v>
+        <v>84567</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6506,7 +6512,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6514,15 +6520,15 @@
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23160</v>
+        <v>37990</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6535,7 +6541,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6543,15 +6549,15 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21023</v>
+        <v>21733</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6564,7 +6570,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6572,15 +6578,15 @@
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5027</v>
+        <v>21531</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6601,15 +6607,15 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40146</v>
+        <v>10010</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6622,7 +6628,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6630,15 +6636,15 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10178</v>
+        <v>33470</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6651,7 +6657,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6659,7 +6665,7 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>91497</v>
+        <v>18419</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6667,7 +6673,7 @@
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6680,23 +6686,23 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23651</v>
+        <v>12536</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6709,23 +6715,23 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35220</v>
+        <v>11227</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6738,23 +6744,23 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18671</v>
+        <v>20329</v>
       </c>
       <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6767,23 +6773,23 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23015</v>
+        <v>29235</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6796,7 +6802,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6804,15 +6810,15 @@
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12676</v>
+        <v>17031</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6825,23 +6831,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11409</v>
-      </c>
-      <c r="D36" s="8">
+        <v>18380</v>
+      </c>
+      <c r="D36" s="8" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>inf</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6854,23 +6860,23 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22009</v>
+        <v>20097</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6883,23 +6889,23 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30775</v>
+        <v>31754</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6912,23 +6918,23 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18963</v>
+        <v>23133</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6941,23 +6947,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18772</v>
-      </c>
-      <c r="D40" s="8" t="str">
+        <v>46695</v>
+      </c>
+      <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>31</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6970,7 +6976,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6978,15 +6984,15 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32930</v>
+        <v>20815</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6999,7 +7005,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7007,15 +7013,15 @@
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24295</v>
+        <v>17944</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7028,7 +7034,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7036,15 +7042,15 @@
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47815</v>
+        <v>14311</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7057,23 +7063,23 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21641</v>
+        <v>29771</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7086,23 +7092,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19008</v>
+        <v>11292</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7115,15 +7121,15 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14983</v>
+        <v>34733</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7131,7 +7137,7 @@
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7144,23 +7150,23 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11334</v>
+        <v>22647</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7173,23 +7179,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23725</v>
+        <v>8539</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-03</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7202,23 +7208,23 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8693</v>
+        <v>9737</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7235,11 +7241,11 @@
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>52318</v>
+        <v>51436</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7247,7 +7253,7 @@
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-24</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7274,11 +7280,11 @@
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1598</v>
+        <v>1208</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7307,7 +7313,7 @@
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11129</v>
+        <v>10529</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7315,15 +7321,15 @@
       </c>
       <c r="E53" s="29" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G53" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H53" s="34">
         <f>VLOOKUP(A53,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -7332,11 +7338,11 @@
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3741</v>
+        <v>3271</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7344,7 +7350,7 @@
       </c>
       <c r="E54" s="29" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G54" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7361,11 +7367,11 @@
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6398</v>
+        <v>5888</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7373,7 +7379,7 @@
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7390,11 +7396,11 @@
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4070</v>
+        <v>3900</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7402,7 +7408,7 @@
       </c>
       <c r="E56" s="29" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-18</v>
+        <v>2023-01-19</v>
       </c>
       <c r="G56" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7419,11 +7425,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9670</v>
+        <v>9400</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7448,11 +7454,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8110</v>
+        <v>7990</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7491,7 +7497,7 @@
       </c>
       <c r="C60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1998</v>
+        <v>1962</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7516,7 +7522,7 @@
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7545,7 +7551,7 @@
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7570,36 +7576,36 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>49883</v>
+        <v>3406</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G63" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H63" s="34">
         <f>VLOOKUP(A63,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7607,23 +7613,23 @@
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3460</v>
+        <v>139827</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G64" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>49249</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -7632,11 +7638,11 @@
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>101778</v>
+        <v>96810</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7644,7 +7650,7 @@
       </c>
       <c r="E65" s="29" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G65" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7657,23 +7663,23 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>155217</v>
+        <v>37305</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7681,12 +7687,12 @@
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>49249</v>
+        <v>29426</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7694,15 +7700,15 @@
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40041</v>
+        <v>26766</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G67" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7710,28 +7716,28 @@
       </c>
       <c r="H67" s="34">
         <f>VLOOKUP(A67,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>29426</v>
+        <v>24261</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28674</v>
+        <v>5664</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7744,31 +7750,31 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6006</v>
+        <v>17380</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H69" s="34">
         <f>VLOOKUP(A69,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -7777,11 +7783,11 @@
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>561621</v>
+        <v>548697</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7789,7 +7795,7 @@
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7802,23 +7808,23 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18262</v>
+        <v>34399</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7826,36 +7832,36 @@
       </c>
       <c r="H71" s="34">
         <f>VLOOKUP(A71,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9825</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>36937</v>
+        <v>84274</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -7864,11 +7870,11 @@
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>66606</v>
+        <v>60940</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7893,11 +7899,11 @@
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>85659</v>
+        <v>80763</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7922,11 +7928,11 @@
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>45377</v>
+        <v>42641</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7934,7 +7940,7 @@
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7951,11 +7957,11 @@
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>73431</v>
+        <v>67275</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7963,7 +7969,7 @@
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7976,19 +7982,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>57809</v>
+        <v>46365</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8005,23 +8011,23 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>64024</v>
+        <v>55991</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8034,60 +8040,60 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1365725</v>
+        <v>62296</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H79" s="34">
         <f>VLOOKUP(A79,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>227708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>49389</v>
+        <v>1311041</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H80" s="34">
         <f>VLOOKUP(A80,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>227708</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -8096,11 +8102,11 @@
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>89135</v>
+        <v>85913</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8108,7 +8114,7 @@
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8121,23 +8127,23 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42512</v>
+        <v>6640</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-03</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8150,7 +8156,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8158,15 +8164,15 @@
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6928</v>
+        <v>41666</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-03</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8183,11 +8189,11 @@
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>229603</v>
+        <v>220855</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8195,7 +8201,7 @@
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-04</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8208,7 +8214,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8216,15 +8222,15 @@
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33337</v>
+        <v>33486</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8237,23 +8243,23 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34962</v>
+        <v>32545</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8266,36 +8272,36 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37186</v>
+        <v>15956</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H87" s="34">
         <f>VLOOKUP(A87,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8303,15 +8309,15 @@
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16352</v>
+        <v>36754</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8324,7 +8330,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8332,15 +8338,15 @@
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>61909</v>
+        <v>73126</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8353,7 +8359,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8361,15 +8367,15 @@
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31917</v>
+        <v>61495</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-12</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8382,23 +8388,23 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>88216</v>
+        <v>31431</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8411,19 +8417,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6685</v>
+        <v>84526</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8440,23 +8446,23 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>77626</v>
+        <v>6433</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8473,11 +8479,11 @@
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>36234</v>
+        <v>35946</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8485,7 +8491,7 @@
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-23</v>
+        <v>2023-01-24</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8502,11 +8508,11 @@
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>89835</v>
+        <v>87279</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8514,7 +8520,7 @@
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-26</v>
+        <v>2023-01-27</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8535,7 +8541,7 @@
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6664</v>
+        <v>6610</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8543,7 +8549,7 @@
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-26</v>
+        <v>2023-01-30</v>
       </c>
       <c r="G96" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8560,11 +8566,11 @@
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6286</v>
+        <v>6088</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8589,11 +8595,11 @@
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>60192</v>
+        <v>57564</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8601,7 +8607,7 @@
       </c>
       <c r="E98" s="29" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-15</v>
+        <v>2023-02-14</v>
       </c>
       <c r="G98" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8618,11 +8624,11 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1818</v>
+        <v>1800</v>
       </c>
       <c r="D99" s="8">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8647,7 +8653,7 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8659,7 +8665,7 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-11</v>
+        <v>2023-07-17</v>
       </c>
       <c r="G100" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8676,7 +8682,7 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8705,7 +8711,7 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8734,7 +8740,7 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8769,23 +8775,23 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47022</v>
+        <v>15279</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G105" s="33" t="str">
         <f t="shared" ref="G105:G113" si="3">IF(H105&gt;0,"•","")</f>
@@ -8793,70 +8799,70 @@
       </c>
       <c r="H105" s="34">
         <f>VLOOKUP(A105,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>50145</v>
+        <v>19987</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9711</v>
+        <v>16684</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E106" s="29" t="str">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G106" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19813</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16971</v>
+        <v>9513</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G107" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H107" s="34">
         <f>VLOOKUP(A107,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8864,15 +8870,15 @@
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18772</v>
+        <v>3466</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E108" s="29" t="str">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G108" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8885,23 +8891,23 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3646</v>
+        <v>13614</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G109" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8914,48 +8920,48 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14154</v>
+        <v>73644</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G110" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H110" s="34">
         <f>VLOOKUP(A110,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>95688</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>46164</v>
+        <v>2041</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E111" s="29" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8972,19 +8978,19 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2311</v>
+        <v>43788</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E112" s="29" t="str">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -9005,7 +9011,7 @@
       </c>
       <c r="B113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -9017,7 +9023,7 @@
       </c>
       <c r="E113" s="29" t="str">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G113" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9035,7 +9041,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5184214</v>
+        <v>5081363</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,10 +907,10 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>129</v>
+            <v>127</v>
           </cell>
           <cell r="D2">
-            <v>81472</v>
+            <v>81440</v>
           </cell>
           <cell r="E2">
             <v>199</v>
@@ -921,19 +921,19 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="B3" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="D3">
-            <v>24836</v>
+            <v>38451</v>
           </cell>
           <cell r="E3">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F3" t="str">
             <v>2022-11-28</v>
@@ -941,19 +941,19 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="B4" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="D4">
-            <v>52997</v>
+            <v>1722</v>
           </cell>
           <cell r="E4">
-            <v>30</v>
+            <v>51</v>
           </cell>
           <cell r="F4" t="str">
             <v>2022-11-30</v>
@@ -967,10 +967,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C5">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="D5">
-            <v>6317</v>
+            <v>5474</v>
           </cell>
           <cell r="E5">
             <v>32</v>
@@ -981,39 +981,39 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C6">
-            <v>16</v>
+            <v>13</v>
           </cell>
           <cell r="D6">
-            <v>12359</v>
+            <v>39242</v>
           </cell>
           <cell r="E6">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-12-01</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="D7">
-            <v>2128</v>
+            <v>11197</v>
           </cell>
           <cell r="E7">
-            <v>51</v>
+            <v>31</v>
           </cell>
           <cell r="F7" t="str">
             <v>2022-12-01</v>
@@ -1021,7 +1021,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
@@ -1030,38 +1030,38 @@
             <v>16</v>
           </cell>
           <cell r="D8">
-            <v>48692</v>
+            <v>17804</v>
           </cell>
           <cell r="E8">
             <v>30</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="D9">
-            <v>21285</v>
+            <v>7816</v>
           </cell>
           <cell r="E9">
-            <v>92</v>
+            <v>35</v>
           </cell>
           <cell r="F9" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
@@ -1070,18 +1070,18 @@
             <v>17</v>
           </cell>
           <cell r="D10">
-            <v>14118</v>
+            <v>71309</v>
           </cell>
           <cell r="E10">
-            <v>48</v>
+            <v>32</v>
           </cell>
           <cell r="F10" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
@@ -1090,18 +1090,18 @@
             <v>18</v>
           </cell>
           <cell r="D11">
-            <v>8303</v>
+            <v>19540</v>
           </cell>
           <cell r="E11">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
@@ -1110,50 +1110,50 @@
             <v>18</v>
           </cell>
           <cell r="D12">
-            <v>19252</v>
+            <v>61366</v>
           </cell>
           <cell r="E12">
-            <v>30</v>
+            <v>39</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C13">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="D13">
-            <v>12388</v>
+            <v>17481</v>
           </cell>
           <cell r="E13">
-            <v>31</v>
+            <v>43</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C14">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="D14">
-            <v>21256</v>
+            <v>10612</v>
           </cell>
           <cell r="E14">
-            <v>33</v>
+            <v>40</v>
           </cell>
           <cell r="F14" t="str">
             <v>2022-12-07</v>
@@ -1161,19 +1161,19 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Лен семена 100г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="D15">
-            <v>65726</v>
+            <v>4243</v>
           </cell>
           <cell r="E15">
-            <v>39</v>
+            <v>37</v>
           </cell>
           <cell r="F15" t="str">
             <v>2022-12-07</v>
@@ -1181,47 +1181,47 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C16">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D16">
-            <v>19567</v>
+            <v>43848</v>
           </cell>
           <cell r="E16">
-            <v>43</v>
+            <v>45</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C17">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D17">
-            <v>12068</v>
+            <v>11492</v>
           </cell>
           <cell r="E17">
-            <v>40</v>
+            <v>31</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="B18" t="str">
             <v>Линия ББЛ</v>
@@ -1230,58 +1230,58 @@
             <v>20</v>
           </cell>
           <cell r="D18">
-            <v>45668</v>
+            <v>12087</v>
           </cell>
           <cell r="E18">
-            <v>45</v>
+            <v>43</v>
           </cell>
           <cell r="F18" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D19">
-            <v>13277</v>
+            <v>19486</v>
           </cell>
           <cell r="E19">
-            <v>43</v>
+            <v>35</v>
           </cell>
           <cell r="F19" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C20">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D20">
-            <v>20158</v>
+            <v>18955</v>
           </cell>
           <cell r="E20">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
@@ -1290,18 +1290,18 @@
             <v>21</v>
           </cell>
           <cell r="D21">
-            <v>84567</v>
+            <v>14096</v>
           </cell>
           <cell r="E21">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F21" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
@@ -1310,38 +1310,38 @@
             <v>21</v>
           </cell>
           <cell r="D22">
-            <v>4943</v>
+            <v>9033</v>
           </cell>
           <cell r="E22">
-            <v>37</v>
+            <v>51</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C23">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D23">
-            <v>21531</v>
+            <v>35992</v>
           </cell>
           <cell r="E23">
-            <v>43</v>
+            <v>37</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
@@ -1350,33 +1350,33 @@
             <v>22</v>
           </cell>
           <cell r="D24">
-            <v>37990</v>
+            <v>20249</v>
           </cell>
           <cell r="E24">
-            <v>37</v>
+            <v>46</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>22</v>
+            <v>23</v>
           </cell>
           <cell r="D25">
-            <v>21733</v>
+            <v>27737</v>
           </cell>
           <cell r="E25">
-            <v>46</v>
+            <v>39</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="26">
@@ -1390,18 +1390,18 @@
             <v>23</v>
           </cell>
           <cell r="D26">
-            <v>18419</v>
+            <v>17691</v>
           </cell>
           <cell r="E26">
             <v>32</v>
           </cell>
           <cell r="F26" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
@@ -1410,13 +1410,13 @@
             <v>23</v>
           </cell>
           <cell r="D27">
-            <v>10010</v>
+            <v>11752</v>
           </cell>
           <cell r="E27">
-            <v>51</v>
+            <v>35</v>
           </cell>
           <cell r="F27" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="28">
@@ -1430,38 +1430,38 @@
             <v>23</v>
           </cell>
           <cell r="D28">
-            <v>33470</v>
+            <v>32532</v>
           </cell>
           <cell r="E28">
             <v>112</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Береза почки 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D29">
-            <v>17031</v>
+            <v>10913</v>
           </cell>
           <cell r="E29">
-            <v>43</v>
+            <v>30</v>
           </cell>
           <cell r="F29" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
@@ -1470,78 +1470,78 @@
             <v>25</v>
           </cell>
           <cell r="D30">
-            <v>29235</v>
+            <v>19830</v>
           </cell>
           <cell r="E30">
-            <v>39</v>
+            <v>43</v>
           </cell>
           <cell r="F30" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B31" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>25</v>
+            <v>27</v>
           </cell>
           <cell r="D31">
-            <v>12536</v>
+            <v>29892</v>
           </cell>
           <cell r="E31">
-            <v>35</v>
+            <v>44</v>
           </cell>
           <cell r="F31" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C32">
-            <v>25</v>
+            <v>27</v>
           </cell>
           <cell r="D32">
-            <v>11227</v>
-          </cell>
-          <cell r="E32">
-            <v>30</v>
+            <v>17960</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F32" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C33">
-            <v>25</v>
+            <v>27</v>
           </cell>
           <cell r="D33">
-            <v>20329</v>
+            <v>18809</v>
           </cell>
           <cell r="E33">
-            <v>43</v>
+            <v>31</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
@@ -1550,13 +1550,13 @@
             <v>27</v>
           </cell>
           <cell r="D34">
-            <v>18380</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>inf</v>
+            <v>19167</v>
+          </cell>
+          <cell r="E34">
+            <v>35</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="35">
@@ -1567,21 +1567,21 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C35">
-            <v>29</v>
+            <v>28</v>
           </cell>
           <cell r="D35">
-            <v>23133</v>
+            <v>22013</v>
           </cell>
           <cell r="E35">
             <v>38</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
@@ -1590,18 +1590,18 @@
             <v>29</v>
           </cell>
           <cell r="D36">
-            <v>31754</v>
+            <v>44385</v>
           </cell>
           <cell r="E36">
-            <v>44</v>
+            <v>31</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
@@ -1610,38 +1610,38 @@
             <v>29</v>
           </cell>
           <cell r="D37">
-            <v>20097</v>
+            <v>17048</v>
           </cell>
           <cell r="E37">
-            <v>31</v>
+            <v>41</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C38">
-            <v>30</v>
+            <v>29</v>
           </cell>
           <cell r="D38">
-            <v>46695</v>
+            <v>49768</v>
           </cell>
           <cell r="E38">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
@@ -1650,70 +1650,70 @@
             <v>30</v>
           </cell>
           <cell r="D39">
-            <v>20815</v>
+            <v>26858</v>
           </cell>
           <cell r="E39">
-            <v>35</v>
+            <v>48</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="D40">
-            <v>17944</v>
+            <v>13885</v>
           </cell>
           <cell r="E40">
-            <v>41</v>
+            <v>33</v>
           </cell>
           <cell r="F40" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Череда трава 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C41">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="D41">
-            <v>14311</v>
+            <v>28049</v>
           </cell>
           <cell r="E41">
-            <v>33</v>
+            <v>37</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B42" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C42">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="D42">
-            <v>29771</v>
+            <v>41239</v>
           </cell>
           <cell r="E42">
-            <v>37</v>
+            <v>92</v>
           </cell>
           <cell r="F42" t="str">
             <v>2022-12-23</v>
@@ -1727,10 +1727,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="D43">
-            <v>11292</v>
+            <v>10550</v>
           </cell>
           <cell r="E43">
             <v>76</v>
@@ -1747,16 +1747,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
-            <v>36</v>
+            <v>35</v>
           </cell>
           <cell r="D44">
-            <v>34733</v>
+            <v>33249</v>
           </cell>
           <cell r="E44">
             <v>33</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2022-12-29</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="45">
@@ -1767,16 +1767,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="D45">
-            <v>22647</v>
+            <v>21723</v>
           </cell>
           <cell r="E45">
             <v>32</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2023-01-04</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="46">
@@ -1787,16 +1787,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>45</v>
+            <v>41</v>
           </cell>
           <cell r="D46">
-            <v>8539</v>
+            <v>7713</v>
           </cell>
           <cell r="E46">
             <v>72</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="47">
@@ -1807,16 +1807,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C47">
-            <v>50</v>
+            <v>46</v>
           </cell>
           <cell r="D47">
-            <v>9737</v>
+            <v>8927</v>
           </cell>
           <cell r="E47">
             <v>59</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2023-01-18</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="48">
@@ -1827,16 +1827,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C48">
-            <v>55</v>
+            <v>54</v>
           </cell>
           <cell r="D48">
-            <v>51436</v>
+            <v>49490</v>
           </cell>
           <cell r="E48">
             <v>40</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="49">
@@ -1847,56 +1847,56 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>6</v>
+            <v>2</v>
           </cell>
           <cell r="D49">
-            <v>1208</v>
+            <v>431</v>
           </cell>
           <cell r="E49">
             <v>115</v>
           </cell>
           <cell r="F49" t="str">
-            <v>2022-11-17</v>
+            <v>2023-10-26</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="B50" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C50">
-            <v>15</v>
+            <v>12</v>
           </cell>
           <cell r="D50">
-            <v>10529</v>
+            <v>2471</v>
           </cell>
           <cell r="E50">
-            <v>41</v>
+            <v>110</v>
           </cell>
           <cell r="F50" t="str">
-            <v>2022-11-30</v>
+            <v>2022-11-29</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="B51" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>16</v>
+            <v>13</v>
           </cell>
           <cell r="D51">
-            <v>3271</v>
+            <v>8679</v>
           </cell>
           <cell r="E51">
-            <v>110</v>
+            <v>41</v>
           </cell>
           <cell r="F51" t="str">
-            <v>2022-12-01</v>
+            <v>2022-11-30</v>
           </cell>
         </row>
         <row r="52">
@@ -1907,16 +1907,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>25</v>
+            <v>21</v>
           </cell>
           <cell r="D52">
-            <v>5888</v>
+            <v>4952</v>
           </cell>
           <cell r="E52">
             <v>84</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="53">
@@ -1927,16 +1927,16 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>51</v>
+            <v>45</v>
           </cell>
           <cell r="D53">
-            <v>3900</v>
+            <v>3470</v>
           </cell>
           <cell r="E53">
             <v>102</v>
           </cell>
           <cell r="F53" t="str">
-            <v>2023-01-19</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="54">
@@ -1947,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>249</v>
+            <v>247</v>
           </cell>
           <cell r="D54">
-            <v>7990</v>
+            <v>7940</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1967,10 +1967,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>249</v>
+            <v>247</v>
           </cell>
           <cell r="D55">
-            <v>9400</v>
+            <v>9350</v>
           </cell>
           <cell r="E55">
             <v>1365</v>
@@ -1987,16 +1987,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C56">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="D56">
-            <v>1962</v>
+            <v>1692</v>
           </cell>
           <cell r="E56">
             <v>257</v>
           </cell>
           <cell r="F56" t="str">
-            <v>2023-10-27</v>
+            <v>2023-10-26</v>
           </cell>
         </row>
         <row r="57">
@@ -2007,16 +2007,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>12</v>
+            <v>9</v>
           </cell>
           <cell r="D57">
-            <v>1062</v>
+            <v>990</v>
           </cell>
           <cell r="E57">
             <v>286</v>
           </cell>
           <cell r="F57" t="str">
-            <v>2022-11-25</v>
+            <v>2022-11-24</v>
           </cell>
         </row>
         <row r="58">
@@ -2027,10 +2027,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="D58">
-            <v>1854</v>
+            <v>1746</v>
           </cell>
           <cell r="E58">
             <v>50</v>
@@ -2047,10 +2047,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="D59">
-            <v>3406</v>
+            <v>3046</v>
           </cell>
           <cell r="E59">
             <v>43</v>
@@ -2067,10 +2067,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="D60">
-            <v>139827</v>
+            <v>128743</v>
           </cell>
           <cell r="E60">
             <v>28</v>
@@ -2081,19 +2081,19 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="D61">
-            <v>37305</v>
+            <v>87234</v>
           </cell>
           <cell r="E61">
-            <v>30</v>
+            <v>52</v>
           </cell>
           <cell r="F61" t="str">
             <v>2022-12-09</v>
@@ -2101,22 +2101,22 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B62" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C62">
-            <v>22</v>
+            <v>23</v>
           </cell>
           <cell r="D62">
-            <v>96810</v>
+            <v>5070</v>
           </cell>
           <cell r="E62">
-            <v>52</v>
+            <v>34</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="63">
@@ -2127,50 +2127,50 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D63">
-            <v>26766</v>
+            <v>25272</v>
           </cell>
           <cell r="E63">
             <v>25</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D64">
-            <v>5664</v>
+            <v>15688</v>
           </cell>
           <cell r="E64">
-            <v>34</v>
+            <v>28</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D65">
-            <v>17380</v>
+            <v>52786</v>
           </cell>
           <cell r="E65">
             <v>28</v>
@@ -2187,10 +2187,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>27</v>
+            <v>25</v>
           </cell>
           <cell r="D66">
-            <v>34399</v>
+            <v>32689</v>
           </cell>
           <cell r="E66">
             <v>30</v>
@@ -2201,19 +2201,19 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>27</v>
+            <v>25</v>
           </cell>
           <cell r="D67">
-            <v>548697</v>
+            <v>73882</v>
           </cell>
           <cell r="E67">
-            <v>96</v>
+            <v>32</v>
           </cell>
           <cell r="F67" t="str">
             <v>2022-12-16</v>
@@ -2221,59 +2221,59 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D68">
-            <v>84274</v>
+            <v>40085</v>
           </cell>
           <cell r="E68">
             <v>32</v>
           </cell>
           <cell r="F68" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>28</v>
+            <v>27</v>
           </cell>
           <cell r="D69">
-            <v>60940</v>
+            <v>521643</v>
           </cell>
           <cell r="E69">
-            <v>28</v>
+            <v>96</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>29</v>
+            <v>27</v>
           </cell>
           <cell r="D70">
-            <v>42641</v>
+            <v>75831</v>
           </cell>
           <cell r="E70">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="F70" t="str">
             <v>2022-12-20</v>
@@ -2281,7 +2281,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
@@ -2290,70 +2290,70 @@
             <v>29</v>
           </cell>
           <cell r="D71">
-            <v>80763</v>
+            <v>61785</v>
           </cell>
           <cell r="E71">
-            <v>35</v>
+            <v>32</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
-            <v>31</v>
+            <v>34</v>
           </cell>
           <cell r="D72">
-            <v>67275</v>
+            <v>79577</v>
           </cell>
           <cell r="E72">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>35</v>
+            <v>34</v>
           </cell>
           <cell r="D73">
-            <v>46365</v>
+            <v>59956</v>
           </cell>
           <cell r="E73">
-            <v>32</v>
+            <v>61</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2022-12-28</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>36</v>
+            <v>34</v>
           </cell>
           <cell r="D74">
-            <v>62296</v>
+            <v>44655</v>
           </cell>
           <cell r="E74">
-            <v>61</v>
+            <v>32</v>
           </cell>
           <cell r="F74" t="str">
             <v>2022-12-29</v>
@@ -2361,22 +2361,22 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>36</v>
+            <v>35</v>
           </cell>
           <cell r="D75">
-            <v>1311041</v>
+            <v>5866</v>
           </cell>
           <cell r="E75">
-            <v>31</v>
+            <v>38</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-29</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="76">
@@ -2390,98 +2390,98 @@
             <v>36</v>
           </cell>
           <cell r="D76">
-            <v>55991</v>
+            <v>53893</v>
           </cell>
           <cell r="E76">
             <v>43</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-02</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B77" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>37</v>
+            <v>39</v>
           </cell>
           <cell r="D77">
-            <v>85913</v>
+            <v>211675</v>
           </cell>
           <cell r="E77">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2022-12-30</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="D78">
-            <v>6640</v>
+            <v>31326</v>
           </cell>
           <cell r="E78">
-            <v>38</v>
+            <v>29</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2023-01-04</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>41</v>
+            <v>42</v>
           </cell>
           <cell r="D79">
-            <v>220855</v>
+            <v>40914</v>
           </cell>
           <cell r="E79">
-            <v>32</v>
+            <v>53</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>41</v>
+            <v>43</v>
           </cell>
           <cell r="D80">
-            <v>41666</v>
+            <v>15218</v>
           </cell>
           <cell r="E80">
-            <v>53</v>
+            <v>37</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
@@ -2490,13 +2490,13 @@
             <v>43</v>
           </cell>
           <cell r="D81">
-            <v>33486</v>
+            <v>68392</v>
           </cell>
           <cell r="E81">
             <v>29</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="82">
@@ -2507,73 +2507,73 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="D82">
-            <v>32545</v>
+            <v>31130</v>
           </cell>
           <cell r="E82">
             <v>37</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>45</v>
+            <v>44</v>
           </cell>
           <cell r="D83">
-            <v>15956</v>
+            <v>35062</v>
           </cell>
           <cell r="E83">
-            <v>37</v>
+            <v>26</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="D84">
-            <v>36754</v>
+            <v>1504217</v>
           </cell>
           <cell r="E84">
-            <v>26</v>
+            <v>31</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2023-01-12</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>47</v>
+            <v>45</v>
           </cell>
           <cell r="D85">
-            <v>73126</v>
+            <v>65367</v>
           </cell>
           <cell r="E85">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F85" t="str">
             <v>2023-01-13</v>
@@ -2581,19 +2581,19 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>48</v>
+            <v>46</v>
           </cell>
           <cell r="D86">
-            <v>61495</v>
+            <v>79883</v>
           </cell>
           <cell r="E86">
-            <v>30</v>
+            <v>29</v>
           </cell>
           <cell r="F86" t="str">
             <v>2023-01-16</v>
@@ -2601,27 +2601,27 @@
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>48</v>
+            <v>47</v>
           </cell>
           <cell r="D87">
-            <v>84526</v>
+            <v>59911</v>
           </cell>
           <cell r="E87">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
@@ -2630,33 +2630,33 @@
             <v>48</v>
           </cell>
           <cell r="D88">
-            <v>31431</v>
+            <v>6213</v>
           </cell>
           <cell r="E88">
-            <v>32</v>
+            <v>39</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>49</v>
+            <v>48</v>
           </cell>
           <cell r="D89">
-            <v>6433</v>
+            <v>30577</v>
           </cell>
           <cell r="E89">
-            <v>39</v>
+            <v>32</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-17</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="90">
@@ -2667,16 +2667,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>54</v>
+            <v>53</v>
           </cell>
           <cell r="D90">
-            <v>35946</v>
+            <v>35118</v>
           </cell>
           <cell r="E90">
             <v>36</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-24</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="91">
@@ -2687,10 +2687,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C91">
-            <v>57</v>
+            <v>55</v>
           </cell>
           <cell r="D91">
-            <v>87279</v>
+            <v>83989</v>
           </cell>
           <cell r="E91">
             <v>44</v>
@@ -2707,10 +2707,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C92">
-            <v>58</v>
+            <v>56</v>
           </cell>
           <cell r="D92">
-            <v>6610</v>
+            <v>6322</v>
           </cell>
           <cell r="E92">
             <v>37</v>
@@ -2721,42 +2721,42 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="B93" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>69</v>
+            <v>65</v>
           </cell>
           <cell r="D93">
-            <v>6088</v>
+            <v>53478</v>
           </cell>
           <cell r="E93">
-            <v>48</v>
+            <v>28</v>
           </cell>
           <cell r="F93" t="str">
-            <v>2023-02-14</v>
+            <v>2023-02-10</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="B94" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>69</v>
+            <v>68</v>
           </cell>
           <cell r="D94">
-            <v>57564</v>
+            <v>5872</v>
           </cell>
           <cell r="E94">
-            <v>28</v>
+            <v>48</v>
           </cell>
           <cell r="F94" t="str">
-            <v>2023-02-14</v>
+            <v>2023-02-15</v>
           </cell>
         </row>
         <row r="95">
@@ -2767,16 +2767,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>78</v>
+            <v>74</v>
           </cell>
           <cell r="D95">
-            <v>1800</v>
+            <v>1692</v>
           </cell>
           <cell r="E95">
             <v>38</v>
           </cell>
           <cell r="F95" t="str">
-            <v>2023-02-27</v>
+            <v>2023-02-23</v>
           </cell>
         </row>
         <row r="96">
@@ -2787,16 +2787,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C96">
-            <v>178</v>
+            <v>177</v>
           </cell>
           <cell r="D96">
-            <v>6181</v>
+            <v>6073</v>
           </cell>
           <cell r="E96" t="str">
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-17</v>
+            <v>2023-07-18</v>
           </cell>
         </row>
         <row r="97">
@@ -2807,16 +2807,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>196</v>
+            <v>190</v>
           </cell>
           <cell r="D97">
-            <v>1008</v>
+            <v>810</v>
           </cell>
           <cell r="E97">
             <v>100</v>
           </cell>
           <cell r="F97" t="str">
-            <v>2023-08-10</v>
+            <v>2023-08-04</v>
           </cell>
         </row>
         <row r="98">
@@ -2827,16 +2827,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>196</v>
+            <v>191</v>
           </cell>
           <cell r="D98">
-            <v>1026</v>
+            <v>846</v>
           </cell>
           <cell r="E98">
             <v>100</v>
           </cell>
           <cell r="F98" t="str">
-            <v>2023-08-10</v>
+            <v>2023-08-07</v>
           </cell>
         </row>
         <row r="99">
@@ -2847,30 +2847,30 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>205</v>
+            <v>201</v>
           </cell>
           <cell r="D99">
-            <v>1476</v>
+            <v>1386</v>
           </cell>
           <cell r="E99">
             <v>100</v>
           </cell>
           <cell r="F99" t="str">
-            <v>2023-08-23</v>
+            <v>2023-08-21</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="B100" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="D100">
-            <v>15279</v>
+            <v>14600</v>
           </cell>
           <cell r="E100">
             <v>30</v>
@@ -2881,22 +2881,22 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="B101" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="D101">
-            <v>16684</v>
+            <v>14595</v>
           </cell>
           <cell r="E101">
             <v>30</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="102">
@@ -2907,10 +2907,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D102">
-            <v>9513</v>
+            <v>8631</v>
           </cell>
           <cell r="E102">
             <v>32</v>
@@ -2927,36 +2927,36 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C103">
-            <v>18</v>
+            <v>15</v>
           </cell>
           <cell r="D103">
-            <v>3466</v>
+            <v>2803</v>
           </cell>
           <cell r="E103">
             <v>34</v>
           </cell>
           <cell r="F103" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C104">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D104">
-            <v>13614</v>
+            <v>38533</v>
           </cell>
           <cell r="E104">
-            <v>41</v>
+            <v>37</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="105">
@@ -2967,21 +2967,21 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>21</v>
+            <v>20</v>
           </cell>
           <cell r="D105">
-            <v>2041</v>
+            <v>1951</v>
           </cell>
           <cell r="E105">
             <v>51</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B106" t="str">
             <v>Линия Консумаш</v>
@@ -2990,33 +2990,33 @@
             <v>21</v>
           </cell>
           <cell r="D106">
-            <v>73644</v>
+            <v>13284</v>
           </cell>
           <cell r="E106">
-            <v>31</v>
+            <v>41</v>
           </cell>
           <cell r="F106" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="B107" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>22</v>
+            <v>39</v>
           </cell>
           <cell r="D107">
-            <v>43788</v>
+            <v>124664</v>
           </cell>
           <cell r="E107">
-            <v>37</v>
+            <v>31</v>
           </cell>
           <cell r="F107" t="str">
-            <v>2022-12-09</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="108">
@@ -3027,10 +3027,10 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
-            <v>44</v>
+            <v>42</v>
           </cell>
           <cell r="D108">
-            <v>12454</v>
+            <v>11788</v>
           </cell>
           <cell r="E108">
             <v>30</v>
@@ -3058,22 +3058,22 @@
             <v>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</v>
           </cell>
           <cell r="C8">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="D8">
-            <v>78</v>
+            <v>67</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
           </cell>
           <cell r="H8">
-            <v>81472</v>
+            <v>81440</v>
           </cell>
           <cell r="I8">
-            <v>81472</v>
+            <v>81440</v>
           </cell>
           <cell r="K8">
-            <v>197</v>
+            <v>193</v>
           </cell>
         </row>
         <row r="9">
@@ -3083,89 +3083,92 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C10">
-            <v>1296</v>
+            <v>2421</v>
           </cell>
           <cell r="D10">
-            <v>92</v>
+            <v>97</v>
+          </cell>
+          <cell r="F10">
+            <v>3360</v>
+          </cell>
+          <cell r="G10">
+            <v>2</v>
           </cell>
           <cell r="H10">
-            <v>24836</v>
+            <v>38451</v>
           </cell>
           <cell r="I10">
-            <v>24836</v>
+            <v>38451</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>!</v>
           </cell>
           <cell r="K10">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="L10">
-            <v>15</v>
+            <v>22</v>
           </cell>
           <cell r="M10">
-            <v>30850</v>
+            <v>40057</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C11">
-            <v>651</v>
+            <v>2187</v>
           </cell>
           <cell r="D11">
-            <v>81</v>
+            <v>113</v>
+          </cell>
+          <cell r="F11">
+            <v>910</v>
+          </cell>
+          <cell r="G11">
+            <v>1</v>
           </cell>
           <cell r="H11">
-            <v>21285</v>
+            <v>39242</v>
           </cell>
           <cell r="I11">
-            <v>21285</v>
+            <v>39242</v>
           </cell>
           <cell r="K11">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="L11">
             <v>15</v>
           </cell>
           <cell r="M11">
-            <v>22517</v>
+            <v>39400</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C12">
-            <v>425</v>
+            <v>274</v>
           </cell>
           <cell r="D12">
-            <v>76</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="F12">
-            <v>938</v>
-          </cell>
-          <cell r="G12">
-            <v>2</v>
+            <v>114</v>
           </cell>
           <cell r="H12">
-            <v>14118</v>
+            <v>5474</v>
           </cell>
           <cell r="I12">
-            <v>14118</v>
+            <v>5474</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K12">
-            <v>20</v>
-          </cell>
-          <cell r="L12">
-            <v>19</v>
-          </cell>
-          <cell r="M12">
-            <v>14902</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="13">
@@ -3173,22 +3176,22 @@
             <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C13">
-            <v>595</v>
+            <v>590</v>
           </cell>
           <cell r="D13">
-            <v>92</v>
+            <v>88</v>
           </cell>
           <cell r="H13">
-            <v>19252</v>
+            <v>17804</v>
           </cell>
           <cell r="I13">
-            <v>19252</v>
+            <v>17804</v>
           </cell>
           <cell r="K13">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="L13">
-            <v>19</v>
+            <v>15</v>
           </cell>
           <cell r="M13">
             <v>19887</v>
@@ -3196,74 +3199,71 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C14">
-            <v>269</v>
+            <v>359</v>
           </cell>
           <cell r="D14">
-            <v>112</v>
+            <v>89</v>
           </cell>
           <cell r="H14">
-            <v>6317</v>
+            <v>11197</v>
           </cell>
           <cell r="I14">
-            <v>6317</v>
+            <v>11197</v>
           </cell>
           <cell r="K14">
-            <v>21</v>
+            <v>20</v>
+          </cell>
+          <cell r="L14">
+            <v>16</v>
+          </cell>
+          <cell r="M14">
+            <v>8209</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C15">
-            <v>2138</v>
+            <v>499</v>
           </cell>
           <cell r="D15">
-            <v>110</v>
+            <v>92</v>
           </cell>
           <cell r="H15">
-            <v>48692</v>
+            <v>17481</v>
           </cell>
           <cell r="I15">
-            <v>9582</v>
+            <v>17481</v>
           </cell>
           <cell r="K15">
-            <v>21</v>
-          </cell>
-          <cell r="L15">
-            <v>19</v>
-          </cell>
-          <cell r="M15">
-            <v>39400</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C16">
-            <v>361</v>
+            <v>3111</v>
           </cell>
           <cell r="D16">
-            <v>92</v>
+            <v>76</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H16">
-            <v>12359</v>
+            <v>71309</v>
           </cell>
           <cell r="I16">
-            <v>12359</v>
+            <v>71309</v>
           </cell>
           <cell r="K16">
-            <v>22</v>
-          </cell>
-          <cell r="L16">
             <v>20</v>
-          </cell>
-          <cell r="M16">
-            <v>8209</v>
           </cell>
         </row>
         <row r="17">
@@ -3271,128 +3271,125 @@
             <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C17">
-            <v>657</v>
+            <v>649</v>
           </cell>
           <cell r="D17">
-            <v>79</v>
+            <v>75</v>
           </cell>
           <cell r="E17" t="str">
             <v>↓</v>
           </cell>
           <cell r="H17">
-            <v>21733</v>
+            <v>20249</v>
           </cell>
           <cell r="I17">
-            <v>21733</v>
+            <v>20249</v>
           </cell>
           <cell r="K17">
-            <v>22</v>
+            <v>21</v>
+          </cell>
+          <cell r="L17">
+            <v>17</v>
+          </cell>
+          <cell r="M17">
+            <v>15103</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C18">
-            <v>2326</v>
+            <v>601</v>
           </cell>
           <cell r="D18">
-            <v>93</v>
-          </cell>
-          <cell r="F18">
-            <v>3360</v>
-          </cell>
-          <cell r="G18">
-            <v>2</v>
+            <v>84</v>
           </cell>
           <cell r="H18">
-            <v>52997</v>
+            <v>18955</v>
           </cell>
           <cell r="I18">
-            <v>52997</v>
+            <v>18955</v>
           </cell>
           <cell r="K18">
-            <v>22</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C19">
-            <v>3064</v>
+            <v>342</v>
           </cell>
           <cell r="D19">
-            <v>75</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>↓</v>
+            <v>83</v>
           </cell>
           <cell r="H19">
-            <v>84567</v>
+            <v>14096</v>
           </cell>
           <cell r="I19">
-            <v>84567</v>
+            <v>14096</v>
           </cell>
           <cell r="K19">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C20">
-            <v>493</v>
+            <v>415</v>
           </cell>
           <cell r="D20">
-            <v>95</v>
+            <v>105</v>
           </cell>
           <cell r="H20">
-            <v>19567</v>
+            <v>11492</v>
           </cell>
           <cell r="I20">
-            <v>19567</v>
+            <v>11492</v>
           </cell>
           <cell r="K20">
-            <v>23</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C21">
-            <v>588</v>
+            <v>281</v>
           </cell>
           <cell r="D21">
-            <v>85</v>
+            <v>88</v>
           </cell>
           <cell r="H21">
-            <v>21531</v>
+            <v>10612</v>
           </cell>
           <cell r="I21">
-            <v>21531</v>
+            <v>10612</v>
           </cell>
           <cell r="K21">
-            <v>24</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C22">
-            <v>418</v>
+            <v>419</v>
           </cell>
           <cell r="D22">
-            <v>106</v>
+            <v>87</v>
           </cell>
           <cell r="H22">
-            <v>12388</v>
+            <v>12087</v>
           </cell>
           <cell r="I22">
-            <v>12388</v>
+            <v>12087</v>
           </cell>
           <cell r="K22">
             <v>25</v>
@@ -3400,82 +3397,82 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Береза почки 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C23">
-            <v>318</v>
+            <v>996</v>
           </cell>
           <cell r="D23">
-            <v>81</v>
+            <v>76</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H23">
-            <v>17031</v>
+            <v>32532</v>
           </cell>
           <cell r="I23">
-            <v>17031</v>
+            <v>32532</v>
           </cell>
           <cell r="K23">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C24">
-            <v>988</v>
+            <v>458</v>
           </cell>
           <cell r="D24">
-            <v>78</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H24">
-            <v>33470</v>
+            <v>19540</v>
           </cell>
           <cell r="I24">
-            <v>33470</v>
+            <v>19540</v>
           </cell>
           <cell r="K24">
-            <v>26</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C25">
-            <v>421</v>
+            <v>44</v>
           </cell>
           <cell r="D25">
             <v>90</v>
           </cell>
           <cell r="H25">
-            <v>13277</v>
+            <v>1722</v>
           </cell>
           <cell r="I25">
-            <v>13277</v>
+            <v>1722</v>
           </cell>
           <cell r="K25">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C26">
-            <v>492</v>
+            <v>140</v>
           </cell>
           <cell r="D26">
-            <v>84</v>
+            <v>110</v>
           </cell>
           <cell r="H26">
-            <v>20329</v>
+            <v>4243</v>
           </cell>
           <cell r="I26">
-            <v>20329</v>
+            <v>4243</v>
           </cell>
           <cell r="K26">
             <v>27</v>
@@ -3483,19 +3480,19 @@
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C27">
-            <v>453</v>
+            <v>558</v>
           </cell>
           <cell r="D27">
-            <v>92</v>
+            <v>83</v>
           </cell>
           <cell r="H27">
-            <v>21256</v>
+            <v>27737</v>
           </cell>
           <cell r="I27">
-            <v>21256</v>
+            <v>27737</v>
           </cell>
           <cell r="K27">
             <v>27</v>
@@ -3506,19 +3503,19 @@
             <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C28">
-            <v>393</v>
+            <v>387</v>
           </cell>
           <cell r="D28">
-            <v>91</v>
+            <v>85</v>
           </cell>
           <cell r="H28">
-            <v>20158</v>
+            <v>19486</v>
           </cell>
           <cell r="I28">
-            <v>20158</v>
+            <v>19486</v>
           </cell>
           <cell r="K28">
-            <v>28</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="29">
@@ -3526,99 +3523,105 @@
             <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C29">
-            <v>410</v>
+            <v>403</v>
           </cell>
           <cell r="D29">
-            <v>79</v>
+            <v>75</v>
           </cell>
           <cell r="E29" t="str">
             <v>↓</v>
           </cell>
           <cell r="H29">
-            <v>18419</v>
+            <v>17691</v>
           </cell>
           <cell r="I29">
-            <v>18419</v>
+            <v>17691</v>
           </cell>
           <cell r="K29">
-            <v>28</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C30">
-            <v>276</v>
+            <v>969</v>
           </cell>
           <cell r="D30">
-            <v>88</v>
+            <v>77</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H30">
-            <v>12068</v>
+            <v>35992</v>
           </cell>
           <cell r="I30">
-            <v>12068</v>
+            <v>35992</v>
           </cell>
           <cell r="K30">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C31">
-            <v>544</v>
+            <v>478</v>
           </cell>
           <cell r="D31">
-            <v>84</v>
+            <v>80</v>
           </cell>
           <cell r="H31">
-            <v>29235</v>
+            <v>19830</v>
           </cell>
           <cell r="I31">
-            <v>29235</v>
+            <v>19830</v>
           </cell>
           <cell r="K31">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C32">
-            <v>988</v>
+            <v>193</v>
           </cell>
           <cell r="D32">
-            <v>80</v>
+            <v>78</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H32">
-            <v>37990</v>
+            <v>9033</v>
           </cell>
           <cell r="I32">
-            <v>37990</v>
+            <v>9033</v>
           </cell>
           <cell r="K32">
-            <v>29</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C33">
-            <v>191</v>
+            <v>1140</v>
           </cell>
           <cell r="D33">
-            <v>81</v>
+            <v>83</v>
           </cell>
           <cell r="H33">
-            <v>10010</v>
+            <v>61366</v>
           </cell>
           <cell r="I33">
-            <v>10010</v>
+            <v>61366</v>
           </cell>
           <cell r="K33">
             <v>30</v>
@@ -3626,159 +3629,162 @@
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C34">
-            <v>313</v>
+            <v>687</v>
           </cell>
           <cell r="D34">
-            <v>82</v>
+            <v>85</v>
           </cell>
           <cell r="H34">
-            <v>17944</v>
+            <v>29892</v>
           </cell>
           <cell r="I34">
-            <v>17944</v>
+            <v>29892</v>
           </cell>
           <cell r="K34">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C35">
-            <v>136</v>
+            <v>221</v>
           </cell>
           <cell r="D35">
-            <v>108</v>
+            <v>99</v>
           </cell>
           <cell r="H35">
-            <v>4943</v>
+            <v>7816</v>
           </cell>
           <cell r="I35">
-            <v>4943</v>
+            <v>7816</v>
           </cell>
           <cell r="K35">
-            <v>32</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C36">
-            <v>683</v>
+            <v>316</v>
           </cell>
           <cell r="D36">
-            <v>87</v>
+            <v>80</v>
           </cell>
           <cell r="H36">
-            <v>31754</v>
+            <v>17048</v>
           </cell>
           <cell r="I36">
-            <v>17838</v>
+            <v>17048</v>
           </cell>
           <cell r="K36">
-            <v>32</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C37">
-            <v>220</v>
+            <v>472</v>
           </cell>
           <cell r="D37">
-            <v>99</v>
+            <v>94</v>
           </cell>
           <cell r="H37">
-            <v>8303</v>
+            <v>18809</v>
           </cell>
           <cell r="I37">
-            <v>8303</v>
+            <v>9527</v>
           </cell>
           <cell r="K37">
-            <v>32</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C38">
-            <v>469</v>
+            <v>223</v>
           </cell>
           <cell r="D38">
-            <v>96</v>
+            <v>99</v>
           </cell>
           <cell r="H38">
-            <v>20097</v>
+            <v>11752</v>
           </cell>
           <cell r="I38">
-            <v>10815</v>
+            <v>11752</v>
           </cell>
           <cell r="K38">
-            <v>33</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Лен семена 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C39">
-            <v>1134</v>
+            <v>317</v>
           </cell>
           <cell r="D39">
-            <v>84</v>
+            <v>89</v>
           </cell>
           <cell r="H39">
-            <v>65726</v>
+            <v>13885</v>
           </cell>
           <cell r="I39">
-            <v>65726</v>
+            <v>13885</v>
           </cell>
           <cell r="K39">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C40">
-            <v>42</v>
+            <v>1310</v>
           </cell>
           <cell r="D40">
-            <v>88</v>
+            <v>93</v>
           </cell>
           <cell r="H40">
-            <v>2128</v>
+            <v>49768</v>
           </cell>
           <cell r="I40">
-            <v>2128</v>
+            <v>18844</v>
           </cell>
           <cell r="K40">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Череда трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C41">
-            <v>327</v>
+            <v>646</v>
           </cell>
           <cell r="D41">
-            <v>92</v>
+            <v>78</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H41">
-            <v>14311</v>
+            <v>41239</v>
           </cell>
           <cell r="I41">
-            <v>14311</v>
+            <v>18845</v>
           </cell>
           <cell r="K41">
             <v>35</v>
@@ -3786,82 +3792,91 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C42">
-            <v>220</v>
+            <v>443</v>
           </cell>
           <cell r="D42">
-            <v>100</v>
+            <v>76</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>↓</v>
+          </cell>
+          <cell r="F42">
+            <v>938</v>
+          </cell>
+          <cell r="G42">
+            <v>2</v>
           </cell>
           <cell r="H42">
-            <v>12536</v>
+            <v>26858</v>
           </cell>
           <cell r="I42">
-            <v>12536</v>
+            <v>11990</v>
           </cell>
           <cell r="K42">
-            <v>35</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C43">
-            <v>851</v>
+            <v>346</v>
           </cell>
           <cell r="D43">
-            <v>93</v>
+            <v>91</v>
           </cell>
           <cell r="H43">
-            <v>46695</v>
+            <v>19167</v>
           </cell>
           <cell r="I43">
-            <v>46695</v>
+            <v>19167</v>
           </cell>
           <cell r="K43">
-            <v>40</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C44">
-            <v>292</v>
+            <v>829</v>
           </cell>
           <cell r="D44">
-            <v>93</v>
+            <v>88</v>
           </cell>
           <cell r="H44">
-            <v>18380</v>
+            <v>44385</v>
           </cell>
           <cell r="I44">
-            <v>18380</v>
+            <v>44385</v>
           </cell>
           <cell r="K44">
-            <v>41</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C45">
-            <v>344</v>
+            <v>291</v>
           </cell>
           <cell r="D45">
-            <v>92</v>
+            <v>90</v>
           </cell>
           <cell r="H45">
-            <v>20815</v>
+            <v>17960</v>
           </cell>
           <cell r="I45">
-            <v>20815</v>
+            <v>17960</v>
           </cell>
           <cell r="K45">
-            <v>41</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="46">
@@ -3869,22 +3884,22 @@
             <v>Солодка корни 50г</v>
           </cell>
           <cell r="C46">
-            <v>715</v>
+            <v>700</v>
           </cell>
           <cell r="D46">
-            <v>67</v>
+            <v>63</v>
           </cell>
           <cell r="E46" t="str">
             <v>↓</v>
           </cell>
           <cell r="H46">
-            <v>51436</v>
+            <v>49490</v>
           </cell>
           <cell r="I46">
-            <v>51436</v>
+            <v>49490</v>
           </cell>
           <cell r="K46">
-            <v>41</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="47">
@@ -3892,19 +3907,19 @@
             <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C47">
-            <v>261</v>
+            <v>253</v>
           </cell>
           <cell r="D47">
-            <v>104</v>
+            <v>101</v>
           </cell>
           <cell r="F47">
             <v>70</v>
           </cell>
           <cell r="H47">
-            <v>11227</v>
+            <v>10913</v>
           </cell>
           <cell r="I47">
-            <v>125</v>
+            <v>10913</v>
           </cell>
           <cell r="K47">
             <v>42</v>
@@ -3912,145 +3927,145 @@
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C48">
-            <v>622</v>
+            <v>157</v>
           </cell>
           <cell r="D48">
-            <v>97</v>
+            <v>86</v>
           </cell>
           <cell r="H48">
-            <v>34733</v>
+            <v>7713</v>
           </cell>
           <cell r="I48">
-            <v>13019</v>
+            <v>7713</v>
           </cell>
           <cell r="K48">
-            <v>46</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C49">
-            <v>151</v>
+            <v>94</v>
           </cell>
           <cell r="D49">
-            <v>85</v>
+            <v>65</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H49">
-            <v>8539</v>
+            <v>8927</v>
           </cell>
           <cell r="I49">
-            <v>8539</v>
+            <v>2980</v>
           </cell>
           <cell r="K49">
-            <v>47</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C50">
-            <v>325</v>
+            <v>619</v>
           </cell>
           <cell r="D50">
             <v>96</v>
           </cell>
           <cell r="H50">
-            <v>22647</v>
+            <v>33249</v>
           </cell>
           <cell r="I50">
-            <v>7443</v>
+            <v>11535</v>
           </cell>
           <cell r="K50">
-            <v>48</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="C51">
-            <v>90</v>
+            <v>312</v>
           </cell>
           <cell r="D51">
-            <v>65</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>↓</v>
+            <v>91</v>
           </cell>
           <cell r="H51">
-            <v>9737</v>
+            <v>22013</v>
           </cell>
           <cell r="I51">
-            <v>3790</v>
+            <v>22013</v>
           </cell>
           <cell r="K51">
-            <v>49</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C52">
-            <v>904</v>
+            <v>325</v>
           </cell>
           <cell r="D52">
-            <v>114</v>
+            <v>93</v>
           </cell>
           <cell r="H52">
-            <v>45668</v>
+            <v>21723</v>
           </cell>
           <cell r="I52">
-            <v>12418</v>
+            <v>21723</v>
           </cell>
           <cell r="K52">
-            <v>49</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C53">
-            <v>311</v>
+            <v>447</v>
           </cell>
           <cell r="D53">
-            <v>94</v>
+            <v>98</v>
           </cell>
           <cell r="H53">
-            <v>23133</v>
+            <v>28049</v>
           </cell>
           <cell r="I53">
-            <v>23133</v>
+            <v>7909</v>
           </cell>
           <cell r="K53">
-            <v>49</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C54">
-            <v>445</v>
+            <v>893</v>
           </cell>
           <cell r="D54">
-            <v>98</v>
+            <v>109</v>
           </cell>
           <cell r="H54">
-            <v>29771</v>
+            <v>43848</v>
           </cell>
           <cell r="I54">
-            <v>9631</v>
+            <v>43848</v>
           </cell>
           <cell r="K54">
-            <v>51</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="55">
@@ -4058,10 +4073,10 @@
             <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>191</v>
+            <v>196</v>
           </cell>
           <cell r="D55">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="F55">
             <v>280</v>
@@ -4070,13 +4085,13 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>11292</v>
+            <v>10550</v>
           </cell>
           <cell r="I55">
-            <v>11292</v>
+            <v>10550</v>
           </cell>
           <cell r="K55">
-            <v>55</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="56">
@@ -4094,22 +4109,22 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C58">
-            <v>94</v>
+            <v>96</v>
           </cell>
           <cell r="D58">
             <v>116</v>
           </cell>
           <cell r="H58">
-            <v>1208</v>
+            <v>431</v>
           </cell>
           <cell r="I58">
-            <v>1208</v>
+            <v>431</v>
           </cell>
           <cell r="J58" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K58">
-            <v>12</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="59">
@@ -4117,28 +4132,28 @@
             <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>434</v>
+            <v>437</v>
           </cell>
           <cell r="D59">
-            <v>77</v>
+            <v>78</v>
           </cell>
           <cell r="E59" t="str">
             <v>↓</v>
           </cell>
           <cell r="H59">
-            <v>10529</v>
+            <v>8679</v>
           </cell>
           <cell r="I59">
-            <v>10529</v>
+            <v>8679</v>
           </cell>
           <cell r="J59" t="str">
             <v>!</v>
           </cell>
           <cell r="K59">
-            <v>18</v>
+            <v>14</v>
           </cell>
           <cell r="L59">
-            <v>19</v>
+            <v>15</v>
           </cell>
           <cell r="M59">
             <v>4062</v>
@@ -4149,19 +4164,22 @@
             <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>116</v>
+            <v>115</v>
           </cell>
           <cell r="D60">
-            <v>102</v>
+            <v>98</v>
           </cell>
           <cell r="H60">
-            <v>3271</v>
+            <v>2471</v>
           </cell>
           <cell r="I60">
-            <v>3271</v>
+            <v>2471</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K60">
-            <v>24</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="61">
@@ -4169,7 +4187,7 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>48</v>
+            <v>50</v>
           </cell>
           <cell r="D61">
             <v>54</v>
@@ -4178,13 +4196,13 @@
             <v>↓</v>
           </cell>
           <cell r="H61">
-            <v>3900</v>
+            <v>3470</v>
           </cell>
           <cell r="I61">
-            <v>3900</v>
+            <v>3470</v>
           </cell>
           <cell r="K61">
-            <v>29</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="62">
@@ -4192,19 +4210,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>129</v>
+            <v>134</v>
           </cell>
           <cell r="D62">
-            <v>100</v>
+            <v>103</v>
           </cell>
           <cell r="H62">
-            <v>5888</v>
+            <v>4952</v>
           </cell>
           <cell r="I62">
-            <v>5888</v>
+            <v>4952</v>
           </cell>
           <cell r="K62">
-            <v>41</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="63">
@@ -4212,22 +4230,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D63">
-            <v>76</v>
+            <v>65</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>7990</v>
+            <v>7940</v>
           </cell>
           <cell r="I63">
-            <v>7990</v>
+            <v>7940</v>
           </cell>
           <cell r="K63">
-            <v>139</v>
+            <v>137</v>
           </cell>
         </row>
         <row r="64">
@@ -4235,22 +4253,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="C64">
-            <v>13</v>
+            <v>11</v>
           </cell>
           <cell r="D64">
-            <v>77</v>
+            <v>64</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9400</v>
+            <v>9350</v>
           </cell>
           <cell r="I64">
-            <v>9400</v>
+            <v>9350</v>
           </cell>
           <cell r="K64">
-            <v>197</v>
+            <v>193</v>
           </cell>
         </row>
         <row r="65">
@@ -4266,7 +4284,7 @@
             <v>51</v>
           </cell>
           <cell r="D66">
-            <v>93</v>
+            <v>97</v>
           </cell>
           <cell r="J66" t="str">
             <v>!!!</v>
@@ -4277,10 +4295,10 @@
             <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>192</v>
+            <v>183</v>
           </cell>
           <cell r="D67">
-            <v>113</v>
+            <v>111</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
@@ -4291,25 +4309,25 @@
             <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="C68">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D68">
-            <v>36</v>
+            <v>32</v>
           </cell>
           <cell r="E68" t="str">
             <v>↓</v>
           </cell>
           <cell r="H68">
-            <v>1008</v>
+            <v>810</v>
           </cell>
           <cell r="I68">
-            <v>1008</v>
+            <v>810</v>
           </cell>
           <cell r="J68" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K68">
-            <v>6</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="69">
@@ -4317,10 +4335,10 @@
             <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="C69">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D69">
-            <v>37</v>
+            <v>33</v>
           </cell>
           <cell r="E69" t="str">
             <v>↓</v>
@@ -4332,16 +4350,16 @@
             <v>1</v>
           </cell>
           <cell r="H69">
-            <v>1026</v>
+            <v>846</v>
           </cell>
           <cell r="I69">
-            <v>1026</v>
+            <v>846</v>
           </cell>
           <cell r="J69" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K69">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="70">
@@ -4349,25 +4367,25 @@
             <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
           </cell>
           <cell r="C70">
-            <v>23</v>
+            <v>21</v>
           </cell>
           <cell r="D70">
-            <v>25</v>
+            <v>21</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
           </cell>
           <cell r="H70">
-            <v>1476</v>
+            <v>1386</v>
           </cell>
           <cell r="I70">
-            <v>1476</v>
+            <v>1386</v>
           </cell>
           <cell r="J70" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K70">
-            <v>10</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="71">
@@ -4375,132 +4393,132 @@
             <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
           </cell>
           <cell r="C71">
-            <v>31</v>
+            <v>33</v>
           </cell>
           <cell r="D71">
-            <v>42</v>
+            <v>41</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
           <cell r="H71">
-            <v>1962</v>
+            <v>1692</v>
           </cell>
           <cell r="I71">
-            <v>1962</v>
+            <v>1692</v>
           </cell>
           <cell r="J71" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K71">
-            <v>14</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="72">
           <cell r="B72" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C72">
-            <v>2728</v>
+            <v>6</v>
           </cell>
           <cell r="D72">
-            <v>84</v>
-          </cell>
-          <cell r="F72">
-            <v>8946</v>
-          </cell>
-          <cell r="G72">
-            <v>3</v>
+            <v>227</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H72">
-            <v>96810</v>
+            <v>990</v>
           </cell>
           <cell r="I72">
-            <v>96810</v>
+            <v>990</v>
           </cell>
           <cell r="K72">
-            <v>25</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C73">
-            <v>6</v>
+            <v>2744</v>
           </cell>
           <cell r="D73">
-            <v>231</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>↑</v>
+            <v>82</v>
+          </cell>
+          <cell r="F73">
+            <v>8946</v>
+          </cell>
+          <cell r="G73">
+            <v>3</v>
           </cell>
           <cell r="H73">
-            <v>1062</v>
+            <v>87234</v>
           </cell>
           <cell r="I73">
-            <v>1062</v>
+            <v>87234</v>
           </cell>
           <cell r="K73">
-            <v>25</v>
+            <v>22</v>
+          </cell>
+          <cell r="L73">
+            <v>16</v>
+          </cell>
+          <cell r="M73">
+            <v>40216</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C74">
-            <v>1010</v>
+            <v>4088</v>
           </cell>
           <cell r="D74">
-            <v>104</v>
-          </cell>
-          <cell r="F74">
-            <v>630</v>
-          </cell>
-          <cell r="G74">
-            <v>1</v>
+            <v>95</v>
           </cell>
           <cell r="H74">
-            <v>37305</v>
+            <v>128743</v>
           </cell>
           <cell r="I74">
-            <v>37305</v>
+            <v>128743</v>
           </cell>
           <cell r="K74">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="L74">
-            <v>13</v>
+            <v>10</v>
           </cell>
           <cell r="M74">
-            <v>29426</v>
+            <v>49249</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C75">
-            <v>3898</v>
+            <v>327</v>
           </cell>
           <cell r="D75">
-            <v>91</v>
+            <v>94</v>
           </cell>
           <cell r="H75">
-            <v>139827</v>
+            <v>15688</v>
           </cell>
           <cell r="I75">
-            <v>139827</v>
+            <v>15688</v>
           </cell>
           <cell r="K75">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="L75">
-            <v>14</v>
+            <v>11</v>
           </cell>
           <cell r="M75">
-            <v>49249</v>
+            <v>9825</v>
           </cell>
         </row>
         <row r="76">
@@ -4508,183 +4526,171 @@
             <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>13975</v>
+            <v>14280</v>
           </cell>
           <cell r="D76">
-            <v>81</v>
+            <v>80</v>
           </cell>
           <cell r="H76">
-            <v>548697</v>
+            <v>521643</v>
           </cell>
           <cell r="I76">
-            <v>548697</v>
+            <v>521643</v>
           </cell>
           <cell r="K76">
-            <v>31</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C77">
-            <v>321</v>
+            <v>747</v>
           </cell>
           <cell r="D77">
-            <v>94</v>
+            <v>97</v>
           </cell>
           <cell r="H77">
-            <v>17380</v>
+            <v>25272</v>
           </cell>
           <cell r="I77">
-            <v>17380</v>
+            <v>25272</v>
           </cell>
           <cell r="K77">
-            <v>34</v>
+            <v>33</v>
           </cell>
           <cell r="L77">
-            <v>15</v>
+            <v>10</v>
           </cell>
           <cell r="M77">
-            <v>9825</v>
+            <v>24261</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C78">
-            <v>763</v>
+            <v>1496</v>
           </cell>
           <cell r="D78">
-            <v>100</v>
+            <v>102</v>
           </cell>
           <cell r="H78">
-            <v>26766</v>
+            <v>61785</v>
           </cell>
           <cell r="I78">
-            <v>26766</v>
+            <v>61785</v>
           </cell>
           <cell r="K78">
             <v>35</v>
           </cell>
           <cell r="L78">
-            <v>14</v>
+            <v>11</v>
           </cell>
           <cell r="M78">
-            <v>24261</v>
+            <v>40138</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C79">
-            <v>1451</v>
+            <v>1382</v>
           </cell>
           <cell r="D79">
-            <v>100</v>
+            <v>98</v>
           </cell>
           <cell r="H79">
-            <v>67275</v>
+            <v>52786</v>
           </cell>
           <cell r="I79">
-            <v>67275</v>
+            <v>52786</v>
           </cell>
           <cell r="K79">
-            <v>39</v>
-          </cell>
-          <cell r="L79">
-            <v>15</v>
-          </cell>
-          <cell r="M79">
-            <v>40138</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C80">
-            <v>615</v>
+            <v>149</v>
           </cell>
           <cell r="D80">
-            <v>109</v>
+            <v>95</v>
           </cell>
           <cell r="H80">
-            <v>34399</v>
+            <v>5580</v>
           </cell>
           <cell r="I80">
-            <v>34399</v>
+            <v>5580</v>
           </cell>
           <cell r="K80">
-            <v>41</v>
-          </cell>
-          <cell r="L80">
-            <v>15</v>
-          </cell>
-          <cell r="M80">
-            <v>9849</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>1327</v>
+            <v>69</v>
           </cell>
           <cell r="D81">
-            <v>94</v>
+            <v>96</v>
           </cell>
           <cell r="H81">
-            <v>60940</v>
+            <v>3046</v>
           </cell>
           <cell r="I81">
-            <v>60940</v>
+            <v>3046</v>
           </cell>
           <cell r="K81">
-            <v>41</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C82">
-            <v>1061</v>
+            <v>1620</v>
           </cell>
           <cell r="D82">
-            <v>81</v>
+            <v>104</v>
           </cell>
           <cell r="H82">
-            <v>62296</v>
+            <v>73882</v>
           </cell>
           <cell r="I82">
-            <v>62296</v>
+            <v>33281</v>
           </cell>
           <cell r="K82">
-            <v>41</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C83">
-            <v>68</v>
+            <v>1077</v>
           </cell>
           <cell r="D83">
-            <v>94</v>
+            <v>80</v>
           </cell>
           <cell r="H83">
-            <v>3406</v>
+            <v>59956</v>
           </cell>
           <cell r="I83">
-            <v>3406</v>
+            <v>59956</v>
           </cell>
           <cell r="K83">
-            <v>42</v>
+            <v>39</v>
           </cell>
         </row>
         <row r="84">
@@ -4692,22 +4698,22 @@
             <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C84">
-            <v>193</v>
+            <v>189</v>
           </cell>
           <cell r="D84">
-            <v>86</v>
+            <v>81</v>
           </cell>
           <cell r="H84">
-            <v>15956</v>
+            <v>15218</v>
           </cell>
           <cell r="I84">
-            <v>15956</v>
+            <v>15218</v>
           </cell>
           <cell r="K84">
-            <v>42</v>
+            <v>39</v>
           </cell>
           <cell r="L84">
-            <v>20</v>
+            <v>16</v>
           </cell>
           <cell r="M84">
             <v>11416</v>
@@ -4718,168 +4724,168 @@
             <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C85">
-            <v>1412</v>
+            <v>1454</v>
           </cell>
           <cell r="D85">
-            <v>104</v>
+            <v>105</v>
           </cell>
           <cell r="H85">
-            <v>80763</v>
+            <v>75831</v>
           </cell>
           <cell r="I85">
-            <v>80763</v>
+            <v>75831</v>
           </cell>
           <cell r="K85">
-            <v>43</v>
+            <v>39</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C86">
-            <v>120</v>
+            <v>614</v>
           </cell>
           <cell r="D86">
-            <v>111</v>
+            <v>105</v>
           </cell>
           <cell r="H86">
-            <v>5664</v>
+            <v>32689</v>
           </cell>
           <cell r="I86">
-            <v>5664</v>
+            <v>32689</v>
           </cell>
           <cell r="K86">
-            <v>44</v>
+            <v>39</v>
+          </cell>
+          <cell r="L86">
+            <v>11</v>
+          </cell>
+          <cell r="M86">
+            <v>9849</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C87">
-            <v>1531</v>
+            <v>121</v>
           </cell>
           <cell r="D87">
-            <v>100</v>
+            <v>110</v>
           </cell>
           <cell r="H87">
-            <v>84274</v>
+            <v>5070</v>
           </cell>
           <cell r="I87">
-            <v>43673</v>
+            <v>5070</v>
           </cell>
           <cell r="K87">
-            <v>44</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C88">
-            <v>739</v>
+            <v>48</v>
           </cell>
           <cell r="D88">
-            <v>90</v>
+            <v>74</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H88">
-            <v>41666</v>
+            <v>4698</v>
           </cell>
           <cell r="I88">
-            <v>41666</v>
+            <v>4698</v>
           </cell>
           <cell r="K88">
-            <v>45</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C89">
-            <v>134</v>
+            <v>4</v>
           </cell>
           <cell r="D89">
-            <v>88</v>
+            <v>154</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H89">
-            <v>7200</v>
+            <v>1692</v>
           </cell>
           <cell r="I89">
-            <v>7200</v>
+            <v>1692</v>
           </cell>
           <cell r="K89">
-            <v>46</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C90">
-            <v>48</v>
+            <v>731</v>
           </cell>
           <cell r="D90">
-            <v>76</v>
-          </cell>
-          <cell r="E90" t="str">
-            <v>↓</v>
+            <v>87</v>
           </cell>
           <cell r="H90">
-            <v>4932</v>
+            <v>40914</v>
           </cell>
           <cell r="I90">
-            <v>4932</v>
+            <v>40914</v>
           </cell>
           <cell r="K90">
-            <v>46</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C91">
-            <v>28469</v>
+            <v>839</v>
           </cell>
           <cell r="D91">
-            <v>88</v>
+            <v>110</v>
           </cell>
           <cell r="H91">
-            <v>1311041</v>
+            <v>40085</v>
           </cell>
           <cell r="I91">
-            <v>1311041</v>
+            <v>40085</v>
           </cell>
           <cell r="K91">
             <v>46</v>
           </cell>
-          <cell r="L91">
-            <v>19</v>
-          </cell>
-          <cell r="M91">
-            <v>227708</v>
-          </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C92">
-            <v>4</v>
+            <v>555</v>
           </cell>
           <cell r="D92">
-            <v>161</v>
-          </cell>
-          <cell r="E92" t="str">
-            <v>↑</v>
+            <v>106</v>
           </cell>
           <cell r="H92">
-            <v>1800</v>
+            <v>31326</v>
           </cell>
           <cell r="I92">
-            <v>1800</v>
+            <v>31326</v>
           </cell>
           <cell r="K92">
             <v>47</v>
@@ -4887,79 +4893,85 @@
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C93">
-            <v>844</v>
+            <v>912</v>
           </cell>
           <cell r="D93">
-            <v>113</v>
+            <v>81</v>
           </cell>
           <cell r="H93">
-            <v>42641</v>
+            <v>68392</v>
           </cell>
           <cell r="I93">
-            <v>42641</v>
+            <v>68392</v>
           </cell>
           <cell r="K93">
-            <v>48</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C94">
-            <v>888</v>
+            <v>1315</v>
           </cell>
           <cell r="D94">
-            <v>81</v>
+            <v>85</v>
           </cell>
           <cell r="H94">
-            <v>73126</v>
+            <v>79577</v>
           </cell>
           <cell r="I94">
-            <v>73126</v>
+            <v>79577</v>
           </cell>
           <cell r="K94">
-            <v>50</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C95">
-            <v>540</v>
+            <v>6</v>
           </cell>
           <cell r="D95">
-            <v>105</v>
+            <v>209</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H95">
-            <v>33486</v>
+            <v>1746</v>
           </cell>
           <cell r="I95">
-            <v>33486</v>
+            <v>1746</v>
           </cell>
           <cell r="K95">
-            <v>50</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C96">
-            <v>840</v>
+            <v>381</v>
           </cell>
           <cell r="D96">
-            <v>85</v>
+            <v>76</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H96">
-            <v>55991</v>
+            <v>31130</v>
           </cell>
           <cell r="I96">
-            <v>55991</v>
+            <v>31130</v>
           </cell>
           <cell r="K96">
             <v>50</v>
@@ -4970,16 +4982,16 @@
             <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C97">
-            <v>650</v>
+            <v>642</v>
           </cell>
           <cell r="D97">
-            <v>91</v>
+            <v>87</v>
           </cell>
           <cell r="H97">
-            <v>46365</v>
+            <v>44655</v>
           </cell>
           <cell r="I97">
-            <v>46365</v>
+            <v>44655</v>
           </cell>
           <cell r="K97">
             <v>50</v>
@@ -4987,39 +4999,39 @@
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C98">
-            <v>379</v>
+            <v>836</v>
           </cell>
           <cell r="D98">
-            <v>80</v>
+            <v>82</v>
           </cell>
           <cell r="H98">
-            <v>32545</v>
+            <v>53893</v>
           </cell>
           <cell r="I98">
-            <v>32545</v>
+            <v>53893</v>
           </cell>
           <cell r="K98">
-            <v>51</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C99">
-            <v>1293</v>
+            <v>28492</v>
           </cell>
           <cell r="D99">
-            <v>84</v>
+            <v>87</v>
           </cell>
           <cell r="H99">
-            <v>85913</v>
+            <v>1504217</v>
           </cell>
           <cell r="I99">
-            <v>85913</v>
+            <v>1273457</v>
           </cell>
           <cell r="K99">
             <v>52</v>
@@ -5027,65 +5039,62 @@
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C100">
-            <v>755</v>
+            <v>905</v>
           </cell>
           <cell r="D100">
-            <v>86</v>
+            <v>90</v>
           </cell>
           <cell r="H100">
-            <v>61495</v>
+            <v>53478</v>
           </cell>
           <cell r="I100">
-            <v>61495</v>
+            <v>53478</v>
           </cell>
           <cell r="K100">
-            <v>54</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C101">
-            <v>6</v>
+            <v>104</v>
           </cell>
           <cell r="D101">
-            <v>222</v>
-          </cell>
-          <cell r="E101" t="str">
-            <v>↑</v>
+            <v>106</v>
           </cell>
           <cell r="H101">
-            <v>1854</v>
+            <v>5866</v>
           </cell>
           <cell r="I101">
-            <v>1854</v>
+            <v>5866</v>
           </cell>
           <cell r="K101">
-            <v>55</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C102">
-            <v>894</v>
+            <v>735</v>
           </cell>
           <cell r="D102">
-            <v>87</v>
+            <v>82</v>
           </cell>
           <cell r="H102">
-            <v>57564</v>
+            <v>59911</v>
           </cell>
           <cell r="I102">
-            <v>41166</v>
+            <v>59911</v>
           </cell>
           <cell r="K102">
-            <v>58</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="103">
@@ -5093,59 +5102,65 @@
             <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C103">
-            <v>3497</v>
+            <v>3558</v>
           </cell>
           <cell r="D103">
-            <v>85</v>
+            <v>87</v>
           </cell>
           <cell r="H103">
-            <v>220855</v>
+            <v>211675</v>
           </cell>
           <cell r="I103">
-            <v>154651</v>
+            <v>211675</v>
           </cell>
           <cell r="K103">
-            <v>60</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C104">
-            <v>1062</v>
+            <v>1018</v>
           </cell>
           <cell r="D104">
-            <v>85</v>
+            <v>102</v>
+          </cell>
+          <cell r="F104">
+            <v>630</v>
+          </cell>
+          <cell r="G104">
+            <v>1</v>
           </cell>
           <cell r="H104">
-            <v>87279</v>
+            <v>65367</v>
           </cell>
           <cell r="I104">
-            <v>87279</v>
+            <v>35685</v>
           </cell>
           <cell r="K104">
-            <v>63</v>
+            <v>61</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C105">
-            <v>405</v>
+            <v>1073</v>
           </cell>
           <cell r="D105">
-            <v>87</v>
+            <v>83</v>
           </cell>
           <cell r="H105">
-            <v>35946</v>
+            <v>83989</v>
           </cell>
           <cell r="I105">
-            <v>35946</v>
+            <v>83989</v>
           </cell>
           <cell r="K105">
-            <v>64</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="106">
@@ -5153,39 +5168,39 @@
             <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C106">
-            <v>1076</v>
+            <v>1065</v>
           </cell>
           <cell r="D106">
-            <v>93</v>
+            <v>91</v>
           </cell>
           <cell r="H106">
-            <v>84526</v>
+            <v>79883</v>
           </cell>
           <cell r="I106">
-            <v>84526</v>
+            <v>79883</v>
           </cell>
           <cell r="K106">
-            <v>66</v>
+            <v>63</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C107">
-            <v>98</v>
+            <v>395</v>
           </cell>
           <cell r="D107">
-            <v>100</v>
+            <v>82</v>
           </cell>
           <cell r="H107">
-            <v>6640</v>
+            <v>35118</v>
           </cell>
           <cell r="I107">
-            <v>6640</v>
+            <v>35118</v>
           </cell>
           <cell r="K107">
-            <v>67</v>
+            <v>64</v>
           </cell>
         </row>
         <row r="108">
@@ -5193,19 +5208,19 @@
             <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C108">
-            <v>460</v>
+            <v>467</v>
           </cell>
           <cell r="D108">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H108">
-            <v>36754</v>
+            <v>35062</v>
           </cell>
           <cell r="I108">
-            <v>36754</v>
+            <v>35062</v>
           </cell>
           <cell r="K108">
-            <v>67</v>
+            <v>65</v>
           </cell>
         </row>
         <row r="109">
@@ -5213,16 +5228,16 @@
             <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C109">
-            <v>323</v>
+            <v>326</v>
           </cell>
           <cell r="D109">
-            <v>87</v>
+            <v>84</v>
           </cell>
           <cell r="H109">
-            <v>31431</v>
+            <v>30577</v>
           </cell>
           <cell r="I109">
-            <v>21279</v>
+            <v>30577</v>
           </cell>
           <cell r="K109">
             <v>68</v>
@@ -5233,19 +5248,19 @@
             <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C110">
-            <v>61</v>
+            <v>63</v>
           </cell>
           <cell r="D110">
-            <v>91</v>
+            <v>90</v>
           </cell>
           <cell r="H110">
-            <v>6610</v>
+            <v>6322</v>
           </cell>
           <cell r="I110">
-            <v>6610</v>
+            <v>6322</v>
           </cell>
           <cell r="K110">
-            <v>79</v>
+            <v>76</v>
           </cell>
         </row>
         <row r="111">
@@ -5256,16 +5271,16 @@
             <v>63</v>
           </cell>
           <cell r="D111">
-            <v>114</v>
+            <v>112</v>
           </cell>
           <cell r="H111">
-            <v>6433</v>
+            <v>6213</v>
           </cell>
           <cell r="I111">
-            <v>6433</v>
+            <v>6213</v>
           </cell>
           <cell r="K111">
-            <v>90</v>
+            <v>87</v>
           </cell>
         </row>
         <row r="112">
@@ -5276,16 +5291,16 @@
             <v>61</v>
           </cell>
           <cell r="D112">
-            <v>103</v>
+            <v>100</v>
           </cell>
           <cell r="H112">
-            <v>6088</v>
+            <v>5872</v>
           </cell>
           <cell r="I112">
-            <v>6088</v>
+            <v>5872</v>
           </cell>
           <cell r="K112">
-            <v>98</v>
+            <v>95</v>
           </cell>
         </row>
         <row r="113">
@@ -5293,25 +5308,25 @@
             <v>Фп Ольха соплодия 20х1,5г</v>
           </cell>
           <cell r="C113">
-            <v>54</v>
+            <v>49</v>
           </cell>
           <cell r="D113">
-            <v>109</v>
+            <v>99</v>
           </cell>
           <cell r="F113">
-            <v>36</v>
+            <v>72</v>
           </cell>
           <cell r="G113">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="H113">
-            <v>6181</v>
+            <v>6073</v>
           </cell>
           <cell r="I113">
-            <v>6181</v>
+            <v>6073</v>
           </cell>
           <cell r="K113">
-            <v>114</v>
+            <v>121</v>
           </cell>
         </row>
         <row r="114">
@@ -5321,57 +5336,45 @@
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
-          </cell>
-          <cell r="C115">
-            <v>511</v>
-          </cell>
-          <cell r="D115">
-            <v>89</v>
-          </cell>
-          <cell r="H115">
-            <v>15279</v>
-          </cell>
-          <cell r="I115">
-            <v>15279</v>
+            <v>Фп Дуб кора 20х1,5г</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>↓</v>
           </cell>
           <cell r="J115" t="str">
             <v>!</v>
           </cell>
-          <cell r="K115">
-            <v>18</v>
-          </cell>
           <cell r="L115">
-            <v>19</v>
+            <v>15</v>
           </cell>
           <cell r="M115">
-            <v>19987</v>
+            <v>10407</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>605</v>
+            <v>512</v>
           </cell>
           <cell r="D116">
-            <v>98</v>
+            <v>86</v>
           </cell>
           <cell r="H116">
-            <v>16684</v>
+            <v>14595</v>
           </cell>
           <cell r="I116">
-            <v>16684</v>
+            <v>14595</v>
           </cell>
           <cell r="K116">
-            <v>20</v>
+            <v>17</v>
           </cell>
           <cell r="L116">
-            <v>21</v>
+            <v>15</v>
           </cell>
           <cell r="M116">
-            <v>19813</v>
+            <v>19987</v>
           </cell>
         </row>
         <row r="117">
@@ -5379,7 +5382,7 @@
             <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C117">
-            <v>105</v>
+            <v>107</v>
           </cell>
           <cell r="D117">
             <v>79</v>
@@ -5388,36 +5391,42 @@
             <v>↓</v>
           </cell>
           <cell r="H117">
-            <v>3466</v>
+            <v>2803</v>
           </cell>
           <cell r="I117">
-            <v>3466</v>
+            <v>2803</v>
+          </cell>
+          <cell r="J117" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K117">
-            <v>21</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>365</v>
+            <v>607</v>
           </cell>
           <cell r="D118">
-            <v>77</v>
-          </cell>
-          <cell r="E118" t="str">
-            <v>↓</v>
+            <v>95</v>
           </cell>
           <cell r="H118">
-            <v>13614</v>
+            <v>14600</v>
           </cell>
           <cell r="I118">
-            <v>13614</v>
+            <v>14600</v>
           </cell>
           <cell r="K118">
-            <v>22</v>
+            <v>18</v>
+          </cell>
+          <cell r="L118">
+            <v>17</v>
+          </cell>
+          <cell r="M118">
+            <v>19813</v>
           </cell>
         </row>
         <row r="119">
@@ -5425,68 +5434,62 @@
             <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C119">
-            <v>326</v>
+            <v>319</v>
           </cell>
           <cell r="D119">
-            <v>103</v>
+            <v>99</v>
           </cell>
           <cell r="H119">
-            <v>9513</v>
+            <v>8631</v>
           </cell>
           <cell r="I119">
-            <v>9513</v>
+            <v>8631</v>
           </cell>
           <cell r="K119">
-            <v>23</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C120">
-            <v>1366</v>
+            <v>369</v>
           </cell>
           <cell r="D120">
-            <v>91</v>
+            <v>74</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H120">
-            <v>43788</v>
+            <v>13284</v>
           </cell>
           <cell r="I120">
-            <v>14700</v>
+            <v>13284</v>
           </cell>
           <cell r="K120">
-            <v>26</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>1485</v>
+            <v>1392</v>
           </cell>
           <cell r="D121">
-            <v>72</v>
-          </cell>
-          <cell r="E121" t="str">
-            <v>↓</v>
+            <v>91</v>
           </cell>
           <cell r="H121">
-            <v>73644</v>
+            <v>38533</v>
           </cell>
           <cell r="I121">
-            <v>43602</v>
+            <v>38533</v>
           </cell>
           <cell r="K121">
-            <v>28</v>
-          </cell>
-          <cell r="L121">
-            <v>16</v>
-          </cell>
-          <cell r="M121">
-            <v>95688</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="122">
@@ -5494,22 +5497,22 @@
             <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>58</v>
+            <v>59</v>
           </cell>
           <cell r="D122">
-            <v>123</v>
+            <v>126</v>
           </cell>
           <cell r="E122" t="str">
             <v>↑</v>
           </cell>
           <cell r="H122">
-            <v>2041</v>
+            <v>1951</v>
           </cell>
           <cell r="I122">
-            <v>2041</v>
+            <v>1951</v>
           </cell>
           <cell r="K122">
-            <v>35</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="123">
@@ -5517,45 +5520,48 @@
             <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>266</v>
+            <v>270</v>
           </cell>
           <cell r="D123">
-            <v>99</v>
+            <v>101</v>
           </cell>
           <cell r="H123">
-            <v>12454</v>
+            <v>11788</v>
           </cell>
           <cell r="I123">
-            <v>2554</v>
+            <v>1888</v>
           </cell>
           <cell r="K123">
-            <v>46</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="124">
           <cell r="B124" t="str">
-            <v>ИТОГО:</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C124">
-            <v>108227</v>
+            <v>1477</v>
           </cell>
           <cell r="D124">
-            <v>88</v>
-          </cell>
-          <cell r="F124">
-            <v>14296</v>
+            <v>70</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H124">
-            <v>5093495</v>
+            <v>124664</v>
           </cell>
           <cell r="I124">
-            <v>4721445</v>
+            <v>40867</v>
           </cell>
           <cell r="K124">
-            <v>41</v>
+            <v>49</v>
+          </cell>
+          <cell r="L124">
+            <v>12</v>
           </cell>
           <cell r="M124">
-            <v>677187</v>
+            <v>41740</v>
           </cell>
         </row>
       </sheetData>
@@ -5855,8 +5861,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5905,11 +5911,11 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81472</v>
+        <v>81440</v>
       </c>
       <c r="D3" s="3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5931,19 +5937,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>24836</v>
+        <v>38451</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="28" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -5955,25 +5961,25 @@
       </c>
       <c r="H5" s="34">
         <f>VLOOKUP(A5,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>30850</v>
+        <v>40057</v>
       </c>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>52997</v>
+        <v>5474</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -5990,19 +5996,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6317</v>
+        <v>1722</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6019,23 +6025,23 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21285</v>
+        <v>39242</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6043,7 +6049,7 @@
       </c>
       <c r="H8" s="34">
         <f>VLOOKUP(A8,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>22517</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6052,11 +6058,11 @@
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12359</v>
+        <v>11197</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6077,7 +6083,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6085,57 +6091,57 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2128</v>
+        <v>17804</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19887</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>48692</v>
+        <v>7816</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>39400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6143,28 +6149,28 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14118</v>
+        <v>71309</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H12" s="34">
         <f>VLOOKUP(A12,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>14902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6172,15 +6178,15 @@
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8303</v>
+        <v>61366</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6201,44 +6207,44 @@
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19252</v>
+        <v>10612</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H14" s="34">
         <f>VLOOKUP(A14,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12388</v>
+        <v>19540</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6251,19 +6257,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>65726</v>
+        <v>17481</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6280,19 +6286,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>45668</v>
+        <v>4243</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6309,23 +6315,23 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12068</v>
+        <v>11492</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6338,23 +6344,23 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21256</v>
+        <v>43848</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6375,7 +6381,7 @@
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19567</v>
+        <v>12087</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6383,7 +6389,7 @@
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6396,23 +6402,23 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13277</v>
+        <v>19486</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6425,23 +6431,23 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20158</v>
+        <v>18955</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6454,7 +6460,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6462,7 +6468,7 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4943</v>
+        <v>35992</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6470,7 +6476,7 @@
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6483,7 +6489,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6491,15 +6497,15 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>84567</v>
+        <v>9033</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6512,23 +6518,23 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37990</v>
+        <v>14096</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6549,7 +6555,7 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21733</v>
+        <v>20249</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6557,36 +6563,36 @@
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H26" s="34">
         <f>VLOOKUP(A26,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15103</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21531</v>
+        <v>32532</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6607,15 +6613,15 @@
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10010</v>
+        <v>17691</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6628,7 +6634,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6636,15 +6642,15 @@
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33470</v>
+        <v>11752</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6665,15 +6671,15 @@
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18419</v>
+        <v>27737</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6686,23 +6692,23 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12536</v>
+        <v>10913</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6715,7 +6721,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6723,15 +6729,15 @@
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11227</v>
+        <v>19830</v>
       </c>
       <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6744,23 +6750,23 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20329</v>
-      </c>
-      <c r="D33" s="8">
+        <v>17960</v>
+      </c>
+      <c r="D33" s="8" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>inf</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6773,23 +6779,23 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29235</v>
+        <v>18809</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6802,23 +6808,23 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17031</v>
+        <v>29892</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6831,7 +6837,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6839,15 +6845,15 @@
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18380</v>
-      </c>
-      <c r="D36" s="8" t="str">
+        <v>19167</v>
+      </c>
+      <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>35</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6860,23 +6866,23 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20097</v>
+        <v>22013</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6889,7 +6895,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6897,15 +6903,15 @@
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31754</v>
+        <v>49768</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6918,7 +6924,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6926,15 +6932,15 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>23133</v>
+        <v>44385</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6947,23 +6953,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>46695</v>
+        <v>17048</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6976,7 +6982,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6984,15 +6990,15 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20815</v>
+        <v>41239</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7005,23 +7011,23 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17944</v>
+        <v>26858</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7038,11 +7044,11 @@
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14311</v>
+        <v>13885</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7050,7 +7056,7 @@
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7067,11 +7073,11 @@
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29771</v>
+        <v>28049</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7096,11 +7102,11 @@
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11292</v>
+        <v>10550</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7125,11 +7131,11 @@
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34733</v>
+        <v>33249</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7137,7 +7143,7 @@
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7154,11 +7160,11 @@
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22647</v>
+        <v>21723</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7166,7 +7172,7 @@
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-04</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7183,11 +7189,11 @@
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8539</v>
+        <v>7713</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7195,7 +7201,7 @@
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7212,11 +7218,11 @@
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9737</v>
+        <v>8927</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7224,7 +7230,7 @@
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-18</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7241,11 +7247,11 @@
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>51436</v>
+        <v>49490</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7253,7 +7259,7 @@
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7280,11 +7286,11 @@
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1208</v>
+        <v>431</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7292,7 +7298,7 @@
       </c>
       <c r="E52" s="29" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-17</v>
+        <v>2023-10-26</v>
       </c>
       <c r="G52" s="33" t="str">
         <f t="shared" ref="G52:G58" si="1">IF(H52&gt;0,"•","")</f>
@@ -7305,60 +7311,60 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10529</v>
+        <v>2471</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="E53" s="29" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-11-29</v>
       </c>
       <c r="G53" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H53" s="34">
         <f>VLOOKUP(A53,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>4062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3271</v>
+        <v>8679</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E54" s="29" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-11-30</v>
       </c>
       <c r="G54" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H54" s="34">
         <f>VLOOKUP(A54,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -7367,11 +7373,11 @@
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5888</v>
+        <v>4952</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7379,7 +7385,7 @@
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7396,11 +7402,11 @@
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3900</v>
+        <v>3470</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7408,7 +7414,7 @@
       </c>
       <c r="E56" s="29" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-19</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G56" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7425,11 +7431,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9400</v>
+        <v>9350</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7454,11 +7460,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7990</v>
+        <v>7940</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7493,11 +7499,11 @@
       </c>
       <c r="B60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1962</v>
+        <v>1692</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7505,7 +7511,7 @@
       </c>
       <c r="E60" s="29" t="str">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-10-27</v>
+        <v>2023-10-26</v>
       </c>
       <c r="G60" s="33" t="str">
         <f t="shared" ref="G60:G103" si="2">IF(H60&gt;0,"•","")</f>
@@ -7522,11 +7528,11 @@
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1062</v>
+        <v>990</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7534,7 +7540,7 @@
       </c>
       <c r="E61" s="29" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-25</v>
+        <v>2022-11-24</v>
       </c>
       <c r="G61" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7551,11 +7557,11 @@
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1854</v>
+        <v>1746</v>
       </c>
       <c r="D62" s="8">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7580,11 +7586,11 @@
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3406</v>
+        <v>3046</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7609,11 +7615,11 @@
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>139827</v>
+        <v>128743</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7638,11 +7644,11 @@
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>96810</v>
+        <v>87234</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7654,32 +7660,32 @@
       </c>
       <c r="G65" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H65" s="34">
         <f>VLOOKUP(A65,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>40216</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>37305</v>
+        <v>25272</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7687,78 +7693,78 @@
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>29426</v>
+        <v>24261</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26766</v>
+        <v>5070</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G67" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H67" s="34">
         <f>VLOOKUP(A67,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>24261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5664</v>
+        <v>15688</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H68" s="34">
         <f>VLOOKUP(A68,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17380</v>
+        <v>52786</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7770,28 +7776,28 @@
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H69" s="34">
         <f>VLOOKUP(A69,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>548697</v>
+        <v>32689</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7799,28 +7805,28 @@
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34399</v>
+        <v>73882</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7828,32 +7834,32 @@
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H71" s="34">
         <f>VLOOKUP(A71,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>84274</v>
+        <v>521643</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7866,23 +7872,23 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>60940</v>
+        <v>75831</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7895,19 +7901,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>80763</v>
+        <v>40085</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7924,7 +7930,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7932,7 +7938,7 @@
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42641</v>
+        <v>61785</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7940,28 +7946,28 @@
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H75" s="34">
         <f>VLOOKUP(A75,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>40138</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>67275</v>
+        <v>44655</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7969,36 +7975,36 @@
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H76" s="34">
         <f>VLOOKUP(A76,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>46365</v>
+        <v>59956</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8011,19 +8017,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>55991</v>
+        <v>79577</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8040,23 +8046,23 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>62296</v>
+        <v>5866</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8069,7 +8075,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8077,44 +8083,44 @@
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1311041</v>
+        <v>53893</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-02</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H80" s="34">
         <f>VLOOKUP(A80,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>227708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>85913</v>
+        <v>211675</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-30</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8127,23 +8133,23 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6640</v>
+        <v>31326</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-04</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8160,11 +8166,11 @@
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>41666</v>
+        <v>40914</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8172,7 +8178,7 @@
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8185,23 +8191,23 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>220855</v>
+        <v>31130</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8214,7 +8220,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8222,44 +8228,44 @@
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33486</v>
+        <v>15218</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H85" s="34">
         <f>VLOOKUP(A85,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32545</v>
+        <v>68392</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8272,52 +8278,52 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15956</v>
+        <v>35062</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H87" s="34">
         <f>VLOOKUP(A87,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>11416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>36754</v>
+        <v>65367</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-12</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8330,19 +8336,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>73126</v>
+        <v>1504217</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8359,19 +8365,19 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>61495</v>
+        <v>79883</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8388,23 +8394,23 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31431</v>
+        <v>59911</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8417,7 +8423,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8425,15 +8431,15 @@
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>84526</v>
+        <v>30577</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8450,11 +8456,11 @@
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6433</v>
+        <v>6213</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8462,7 +8468,7 @@
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-17</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8479,11 +8485,11 @@
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35946</v>
+        <v>35118</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8491,7 +8497,7 @@
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-24</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8508,11 +8514,11 @@
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>87279</v>
+        <v>83989</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8537,11 +8543,11 @@
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6610</v>
+        <v>6322</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8562,23 +8568,23 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6088</v>
+        <v>53478</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-14</v>
+        <v>2023-02-10</v>
       </c>
       <c r="G97" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8591,23 +8597,23 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>57564</v>
+        <v>5872</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E98" s="29" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-14</v>
+        <v>2023-02-15</v>
       </c>
       <c r="G98" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8624,11 +8630,11 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1800</v>
+        <v>1692</v>
       </c>
       <c r="D99" s="8">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8636,7 +8642,7 @@
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-27</v>
+        <v>2023-02-23</v>
       </c>
       <c r="G99" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8653,11 +8659,11 @@
       </c>
       <c r="B100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6181</v>
+        <v>6073</v>
       </c>
       <c r="D100" s="8" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8665,7 +8671,7 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-17</v>
+        <v>2023-07-18</v>
       </c>
       <c r="G100" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8678,15 +8684,15 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1026</v>
+        <v>810</v>
       </c>
       <c r="D101" s="8">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8694,7 +8700,7 @@
       </c>
       <c r="E101" s="29" t="str">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-10</v>
+        <v>2023-08-04</v>
       </c>
       <c r="G101" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8707,15 +8713,15 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1008</v>
+        <v>846</v>
       </c>
       <c r="D102" s="8">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8723,7 +8729,7 @@
       </c>
       <c r="E102" s="29" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-10</v>
+        <v>2023-08-07</v>
       </c>
       <c r="G102" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8740,11 +8746,11 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1476</v>
+        <v>1386</v>
       </c>
       <c r="D103" s="8">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8752,7 +8758,7 @@
       </c>
       <c r="E103" s="29" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-08-23</v>
+        <v>2023-08-21</v>
       </c>
       <c r="G103" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8775,15 +8781,15 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15279</v>
+        <v>14600</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8799,20 +8805,20 @@
       </c>
       <c r="H105" s="34">
         <f>VLOOKUP(A105,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19987</v>
+        <v>19813</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16684</v>
+        <v>14595</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8820,7 +8826,7 @@
       </c>
       <c r="E106" s="29" t="str">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G106" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8828,7 +8834,7 @@
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19813</v>
+        <v>19987</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -8837,11 +8843,11 @@
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9513</v>
+        <v>8631</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8866,11 +8872,11 @@
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3466</v>
+        <v>2803</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8878,7 +8884,7 @@
       </c>
       <c r="E108" s="29" t="str">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G108" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8891,23 +8897,23 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13614</v>
+        <v>38533</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G109" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8920,36 +8926,36 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>73644</v>
+        <v>1951</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G110" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H110" s="34">
         <f>VLOOKUP(A110,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>95688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8957,15 +8963,15 @@
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2041</v>
+        <v>13284</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E111" s="29" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G111" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8978,31 +8984,31 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43788</v>
+        <v>124664</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E112" s="29" t="str">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G112" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H112" s="34">
         <f>VLOOKUP(A112,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -9011,11 +9017,11 @@
       </c>
       <c r="B113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12454</v>
+        <v>11788</v>
       </c>
       <c r="D113" s="10">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -9041,7 +9047,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5081363</v>
+        <v>5169857</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,10 +907,10 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>127</v>
+            <v>125</v>
           </cell>
           <cell r="D2">
-            <v>81440</v>
+            <v>81408</v>
           </cell>
           <cell r="E2">
             <v>199</v>
@@ -927,10 +927,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>11</v>
+            <v>9</v>
           </cell>
           <cell r="D3">
-            <v>38451</v>
+            <v>32213</v>
           </cell>
           <cell r="E3">
             <v>30</v>
@@ -947,16 +947,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="D4">
-            <v>1722</v>
+            <v>1554</v>
           </cell>
           <cell r="E4">
             <v>51</v>
           </cell>
           <cell r="F4" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="5">
@@ -967,61 +967,61 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C5">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="D5">
-            <v>5474</v>
+            <v>5180</v>
           </cell>
           <cell r="E5">
             <v>32</v>
           </cell>
           <cell r="F5" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C6">
-            <v>13</v>
+            <v>16</v>
           </cell>
           <cell r="D6">
-            <v>39242</v>
+            <v>7255</v>
           </cell>
           <cell r="E6">
-            <v>30</v>
+            <v>35</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>14</v>
+            <v>16</v>
           </cell>
           <cell r="D7">
-            <v>11197</v>
+            <v>65730</v>
           </cell>
           <cell r="E7">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F7" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
@@ -1030,38 +1030,38 @@
             <v>16</v>
           </cell>
           <cell r="D8">
-            <v>17804</v>
+            <v>3821</v>
           </cell>
           <cell r="E8">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="D9">
-            <v>7816</v>
+            <v>9895</v>
           </cell>
           <cell r="E9">
-            <v>35</v>
+            <v>31</v>
           </cell>
           <cell r="F9" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-07</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="B10" t="str">
             <v>Линия ББЛ</v>
@@ -1070,58 +1070,58 @@
             <v>17</v>
           </cell>
           <cell r="D10">
-            <v>71309</v>
+            <v>57906</v>
           </cell>
           <cell r="E10">
-            <v>32</v>
+            <v>39</v>
           </cell>
           <cell r="F10" t="str">
-            <v>2022-12-06</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D11">
-            <v>19540</v>
+            <v>16786</v>
           </cell>
           <cell r="E11">
-            <v>33</v>
+            <v>43</v>
           </cell>
           <cell r="F11" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Лен семена 100г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C12">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D12">
-            <v>61366</v>
+            <v>10346</v>
           </cell>
           <cell r="E12">
-            <v>39</v>
+            <v>40</v>
           </cell>
           <cell r="F12" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
@@ -1130,18 +1130,18 @@
             <v>18</v>
           </cell>
           <cell r="D13">
-            <v>17481</v>
+            <v>18950</v>
           </cell>
           <cell r="E13">
-            <v>43</v>
+            <v>33</v>
           </cell>
           <cell r="F13" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
@@ -1150,18 +1150,18 @@
             <v>18</v>
           </cell>
           <cell r="D14">
-            <v>10612</v>
+            <v>17401</v>
           </cell>
           <cell r="E14">
-            <v>40</v>
+            <v>43</v>
           </cell>
           <cell r="F14" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
@@ -1170,18 +1170,18 @@
             <v>18</v>
           </cell>
           <cell r="D15">
-            <v>4243</v>
+            <v>41272</v>
           </cell>
           <cell r="E15">
-            <v>37</v>
+            <v>45</v>
           </cell>
           <cell r="F15" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="B16" t="str">
             <v>Линия ББЛ</v>
@@ -1190,18 +1190,18 @@
             <v>19</v>
           </cell>
           <cell r="D16">
-            <v>43848</v>
+            <v>12611</v>
           </cell>
           <cell r="E16">
-            <v>45</v>
+            <v>43</v>
           </cell>
           <cell r="F16" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
@@ -1210,58 +1210,58 @@
             <v>19</v>
           </cell>
           <cell r="D17">
-            <v>11492</v>
+            <v>18968</v>
           </cell>
           <cell r="E17">
-            <v>31</v>
+            <v>35</v>
           </cell>
           <cell r="F17" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="B18" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C18">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D18">
-            <v>12087</v>
+            <v>8123</v>
           </cell>
           <cell r="E18">
-            <v>43</v>
+            <v>51</v>
           </cell>
           <cell r="F18" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="B19" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="D19">
-            <v>19486</v>
+            <v>33684</v>
           </cell>
           <cell r="E19">
-            <v>35</v>
+            <v>37</v>
           </cell>
           <cell r="F19" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
@@ -1270,18 +1270,18 @@
             <v>20</v>
           </cell>
           <cell r="D20">
-            <v>18955</v>
+            <v>11219</v>
           </cell>
           <cell r="E20">
             <v>43</v>
           </cell>
           <cell r="F20" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Береза почки 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
@@ -1290,18 +1290,18 @@
             <v>21</v>
           </cell>
           <cell r="D21">
-            <v>14096</v>
+            <v>16795</v>
           </cell>
           <cell r="E21">
-            <v>43</v>
+            <v>32</v>
           </cell>
           <cell r="F21" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
@@ -1310,38 +1310,38 @@
             <v>21</v>
           </cell>
           <cell r="D22">
-            <v>9033</v>
+            <v>11136</v>
           </cell>
           <cell r="E22">
-            <v>51</v>
+            <v>35</v>
           </cell>
           <cell r="F22" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C23">
-            <v>21</v>
+            <v>22</v>
           </cell>
           <cell r="D23">
-            <v>35992</v>
+            <v>26575</v>
           </cell>
           <cell r="E23">
-            <v>37</v>
+            <v>39</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
@@ -1350,158 +1350,158 @@
             <v>22</v>
           </cell>
           <cell r="D24">
-            <v>20249</v>
+            <v>19079</v>
           </cell>
           <cell r="E24">
-            <v>46</v>
+            <v>31</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D25">
-            <v>27737</v>
+            <v>32466</v>
           </cell>
           <cell r="E25">
-            <v>39</v>
+            <v>112</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C26">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D26">
-            <v>17691</v>
+            <v>10754</v>
           </cell>
           <cell r="E26">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F26" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C27">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D27">
-            <v>11752</v>
+            <v>19096</v>
           </cell>
           <cell r="E27">
-            <v>35</v>
+            <v>43</v>
           </cell>
           <cell r="F27" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C28">
-            <v>23</v>
+            <v>25</v>
           </cell>
           <cell r="D28">
-            <v>32532</v>
+            <v>17389</v>
           </cell>
           <cell r="E28">
-            <v>112</v>
+            <v>35</v>
           </cell>
           <cell r="F28" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="D29">
-            <v>10913</v>
+            <v>67012</v>
           </cell>
           <cell r="E29">
             <v>30</v>
           </cell>
           <cell r="F29" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>25</v>
+            <v>26</v>
           </cell>
           <cell r="D30">
-            <v>19830</v>
+            <v>28340</v>
           </cell>
           <cell r="E30">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="F30" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B31" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>27</v>
+            <v>26</v>
           </cell>
           <cell r="D31">
-            <v>29892</v>
-          </cell>
-          <cell r="E31">
-            <v>44</v>
+            <v>17400</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F31" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
@@ -1510,58 +1510,58 @@
             <v>27</v>
           </cell>
           <cell r="D32">
-            <v>17960</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>inf</v>
+            <v>21593</v>
+          </cell>
+          <cell r="E32">
+            <v>38</v>
           </cell>
           <cell r="F32" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C33">
-            <v>27</v>
+            <v>28</v>
           </cell>
           <cell r="D33">
-            <v>18809</v>
+            <v>42098</v>
           </cell>
           <cell r="E33">
             <v>31</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C34">
-            <v>27</v>
+            <v>28</v>
           </cell>
           <cell r="D34">
-            <v>19167</v>
+            <v>16068</v>
           </cell>
           <cell r="E34">
-            <v>35</v>
+            <v>41</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
@@ -1570,38 +1570,38 @@
             <v>28</v>
           </cell>
           <cell r="D35">
-            <v>22013</v>
+            <v>18692</v>
           </cell>
           <cell r="E35">
-            <v>38</v>
+            <v>31</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C36">
+            <v>28</v>
+          </cell>
+          <cell r="D36">
+            <v>47150</v>
+          </cell>
+          <cell r="E36">
             <v>29</v>
           </cell>
-          <cell r="D36">
-            <v>44385</v>
-          </cell>
-          <cell r="E36">
-            <v>31</v>
-          </cell>
           <cell r="F36" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
@@ -1610,38 +1610,38 @@
             <v>29</v>
           </cell>
           <cell r="D37">
-            <v>17048</v>
+            <v>13549</v>
           </cell>
           <cell r="E37">
-            <v>41</v>
+            <v>33</v>
           </cell>
           <cell r="F37" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C38">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="D38">
-            <v>49768</v>
+            <v>26228</v>
           </cell>
           <cell r="E38">
-            <v>29</v>
+            <v>48</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
@@ -1650,153 +1650,153 @@
             <v>30</v>
           </cell>
           <cell r="D39">
-            <v>26858</v>
+            <v>27622</v>
           </cell>
           <cell r="E39">
-            <v>48</v>
+            <v>37</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Череда трава 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
+            <v>31</v>
+          </cell>
+          <cell r="D40">
+            <v>35049</v>
+          </cell>
+          <cell r="E40">
             <v>30</v>
           </cell>
-          <cell r="D40">
-            <v>13885</v>
-          </cell>
-          <cell r="E40">
-            <v>33</v>
-          </cell>
           <cell r="F40" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-28</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C41">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="D41">
-            <v>28049</v>
+            <v>40804</v>
           </cell>
           <cell r="E41">
-            <v>37</v>
+            <v>92</v>
           </cell>
           <cell r="F41" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="B42" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C42">
-            <v>30</v>
+            <v>34</v>
           </cell>
           <cell r="D42">
-            <v>41239</v>
+            <v>10200</v>
           </cell>
           <cell r="E42">
-            <v>92</v>
+            <v>76</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2022-12-23</v>
+            <v>2023-01-02</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
+            <v>34</v>
+          </cell>
+          <cell r="D43">
+            <v>32437</v>
+          </cell>
+          <cell r="E43">
             <v>33</v>
           </cell>
-          <cell r="D43">
-            <v>10550</v>
-          </cell>
-          <cell r="E43">
-            <v>76</v>
-          </cell>
           <cell r="F43" t="str">
-            <v>2022-12-28</v>
+            <v>2023-01-02</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B44" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
-            <v>35</v>
+            <v>39</v>
           </cell>
           <cell r="D44">
-            <v>33249</v>
+            <v>21247</v>
           </cell>
           <cell r="E44">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2022-12-30</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>39</v>
+            <v>40</v>
           </cell>
           <cell r="D45">
-            <v>21723</v>
+            <v>7363</v>
           </cell>
           <cell r="E45">
-            <v>32</v>
+            <v>72</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>41</v>
+            <v>44</v>
           </cell>
           <cell r="D46">
-            <v>7713</v>
+            <v>35215</v>
           </cell>
           <cell r="E46">
-            <v>72</v>
+            <v>46</v>
           </cell>
           <cell r="F46" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="47">
@@ -1810,13 +1810,13 @@
             <v>46</v>
           </cell>
           <cell r="D47">
-            <v>8927</v>
+            <v>8759</v>
           </cell>
           <cell r="E47">
             <v>59</v>
           </cell>
           <cell r="F47" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="48">
@@ -1827,16 +1827,16 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C48">
-            <v>54</v>
+            <v>51</v>
           </cell>
           <cell r="D48">
-            <v>49490</v>
+            <v>45935</v>
           </cell>
           <cell r="E48">
             <v>40</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-26</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="49">
@@ -1850,7 +1850,7 @@
             <v>2</v>
           </cell>
           <cell r="D49">
-            <v>431</v>
+            <v>350</v>
           </cell>
           <cell r="E49">
             <v>115</v>
@@ -1861,62 +1861,62 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="B50" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C50">
-            <v>12</v>
+            <v>20</v>
           </cell>
           <cell r="D50">
-            <v>2471</v>
+            <v>11676</v>
           </cell>
           <cell r="E50">
-            <v>110</v>
+            <v>41</v>
           </cell>
           <cell r="F50" t="str">
-            <v>2022-11-29</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="B51" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>13</v>
+            <v>22</v>
           </cell>
           <cell r="D51">
-            <v>8679</v>
+            <v>4770</v>
           </cell>
           <cell r="E51">
-            <v>41</v>
+            <v>84</v>
           </cell>
           <cell r="F51" t="str">
-            <v>2022-11-30</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="B52" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>21</v>
+            <v>23</v>
           </cell>
           <cell r="D52">
-            <v>4952</v>
+            <v>4380</v>
           </cell>
           <cell r="E52">
-            <v>84</v>
+            <v>110</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="53">
@@ -1930,13 +1930,13 @@
             <v>45</v>
           </cell>
           <cell r="D53">
-            <v>3470</v>
+            <v>3400</v>
           </cell>
           <cell r="E53">
             <v>102</v>
           </cell>
           <cell r="F53" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="54">
@@ -1947,10 +1947,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>247</v>
+            <v>245</v>
           </cell>
           <cell r="D54">
-            <v>7940</v>
+            <v>7830</v>
           </cell>
           <cell r="E54">
             <v>112</v>
@@ -1967,10 +1967,10 @@
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>247</v>
+            <v>245</v>
           </cell>
           <cell r="D55">
-            <v>9350</v>
+            <v>9260</v>
           </cell>
           <cell r="E55">
             <v>1365</v>
@@ -2007,10 +2007,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>9</v>
+            <v>7</v>
           </cell>
           <cell r="D57">
-            <v>990</v>
+            <v>972</v>
           </cell>
           <cell r="E57">
             <v>286</v>
@@ -2027,7 +2027,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="D58">
             <v>1746</v>
@@ -2036,72 +2036,72 @@
             <v>50</v>
           </cell>
           <cell r="F58" t="str">
-            <v>2022-11-28</v>
+            <v>2022-11-29</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="B59" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>18</v>
+            <v>20</v>
           </cell>
           <cell r="D59">
-            <v>3046</v>
+            <v>85247</v>
           </cell>
           <cell r="E59">
-            <v>43</v>
+            <v>52</v>
           </cell>
           <cell r="F59" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>18</v>
+            <v>22</v>
           </cell>
           <cell r="D60">
-            <v>128743</v>
+            <v>4764</v>
           </cell>
           <cell r="E60">
-            <v>28</v>
+            <v>34</v>
           </cell>
           <cell r="F60" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>20</v>
+            <v>23</v>
           </cell>
           <cell r="D61">
-            <v>87234</v>
+            <v>169879</v>
           </cell>
           <cell r="E61">
-            <v>52</v>
+            <v>28</v>
           </cell>
           <cell r="F61" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B62" t="str">
             <v>Линия ИМА С 50</v>
@@ -2110,578 +2110,578 @@
             <v>23</v>
           </cell>
           <cell r="D62">
-            <v>5070</v>
+            <v>49400</v>
           </cell>
           <cell r="E62">
-            <v>34</v>
+            <v>28</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D63">
-            <v>25272</v>
+            <v>72211</v>
           </cell>
           <cell r="E63">
-            <v>25</v>
+            <v>32</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-19</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="D64">
-            <v>15688</v>
+            <v>38789</v>
           </cell>
           <cell r="E64">
-            <v>28</v>
+            <v>32</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="D65">
-            <v>52786</v>
+            <v>74643</v>
           </cell>
           <cell r="E65">
-            <v>28</v>
+            <v>35</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>25</v>
+            <v>27</v>
           </cell>
           <cell r="D66">
-            <v>32689</v>
+            <v>512496</v>
           </cell>
           <cell r="E66">
-            <v>30</v>
+            <v>96</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="B67" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>25</v>
+            <v>32</v>
           </cell>
           <cell r="D67">
-            <v>73882</v>
+            <v>5398</v>
           </cell>
           <cell r="E67">
-            <v>32</v>
+            <v>38</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>27</v>
+            <v>33</v>
           </cell>
           <cell r="D68">
-            <v>40085</v>
+            <v>77597</v>
           </cell>
           <cell r="E68">
-            <v>32</v>
+            <v>29</v>
           </cell>
           <cell r="F68" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C69">
-            <v>27</v>
+            <v>34</v>
           </cell>
           <cell r="D69">
-            <v>521643</v>
+            <v>59181</v>
           </cell>
           <cell r="E69">
-            <v>96</v>
+            <v>61</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2022-12-20</v>
+            <v>2023-01-02</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C70">
-            <v>27</v>
+            <v>34</v>
           </cell>
           <cell r="D70">
-            <v>75831</v>
+            <v>43950</v>
           </cell>
           <cell r="E70">
-            <v>35</v>
+            <v>32</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2022-12-20</v>
+            <v>2023-01-02</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>29</v>
+            <v>36</v>
           </cell>
           <cell r="D71">
-            <v>61785</v>
+            <v>42174</v>
           </cell>
           <cell r="E71">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F71" t="str">
-            <v>2022-12-22</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
-            <v>34</v>
+            <v>38</v>
           </cell>
           <cell r="D72">
-            <v>79577</v>
+            <v>204529</v>
           </cell>
           <cell r="E72">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F72" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-06</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>34</v>
+            <v>38</v>
           </cell>
           <cell r="D73">
-            <v>59956</v>
+            <v>30732</v>
           </cell>
           <cell r="E73">
-            <v>61</v>
+            <v>29</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-06</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="B74" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>34</v>
+            <v>38</v>
           </cell>
           <cell r="D74">
-            <v>44655</v>
+            <v>53820</v>
           </cell>
           <cell r="E74">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F74" t="str">
-            <v>2022-12-29</v>
+            <v>2023-01-06</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>35</v>
+            <v>39</v>
           </cell>
           <cell r="D75">
-            <v>5866</v>
+            <v>25162</v>
           </cell>
           <cell r="E75">
-            <v>38</v>
+            <v>28</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2022-12-30</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B76" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C76">
-            <v>36</v>
+            <v>40</v>
           </cell>
           <cell r="D76">
-            <v>53893</v>
+            <v>63928</v>
           </cell>
           <cell r="E76">
-            <v>43</v>
+            <v>29</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="B77" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>39</v>
+            <v>42</v>
           </cell>
           <cell r="D77">
-            <v>211675</v>
+            <v>39834</v>
           </cell>
           <cell r="E77">
-            <v>32</v>
+            <v>53</v>
           </cell>
           <cell r="F77" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>39</v>
+            <v>43</v>
           </cell>
           <cell r="D78">
-            <v>31326</v>
+            <v>30230</v>
           </cell>
           <cell r="E78">
-            <v>29</v>
+            <v>37</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>42</v>
+            <v>43</v>
           </cell>
           <cell r="D79">
-            <v>40914</v>
+            <v>33658</v>
           </cell>
           <cell r="E79">
-            <v>53</v>
+            <v>26</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="D80">
-            <v>15218</v>
+            <v>1459368</v>
           </cell>
           <cell r="E80">
-            <v>37</v>
+            <v>31</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="B81" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>43</v>
+            <v>45</v>
           </cell>
           <cell r="D81">
-            <v>68392</v>
+            <v>96255</v>
           </cell>
           <cell r="E81">
-            <v>29</v>
+            <v>32</v>
           </cell>
           <cell r="F81" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="B82" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>43</v>
+            <v>45</v>
           </cell>
           <cell r="D82">
-            <v>31130</v>
+            <v>63667</v>
           </cell>
           <cell r="E82">
-            <v>37</v>
+            <v>30</v>
           </cell>
           <cell r="F82" t="str">
-            <v>2023-01-11</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>44</v>
+            <v>46</v>
           </cell>
           <cell r="D83">
-            <v>35062</v>
+            <v>78545</v>
           </cell>
           <cell r="E83">
-            <v>26</v>
+            <v>29</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2023-01-12</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C84">
-            <v>45</v>
+            <v>46</v>
           </cell>
           <cell r="D84">
-            <v>1504217</v>
+            <v>29191</v>
           </cell>
           <cell r="E84">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-18</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>45</v>
+            <v>48</v>
           </cell>
           <cell r="D85">
-            <v>65367</v>
+            <v>5997</v>
           </cell>
           <cell r="E85">
-            <v>30</v>
+            <v>39</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-20</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>46</v>
+            <v>49</v>
           </cell>
           <cell r="D86">
-            <v>79883</v>
+            <v>59657</v>
           </cell>
           <cell r="E86">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-23</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>47</v>
+            <v>50</v>
           </cell>
           <cell r="D87">
-            <v>59911</v>
+            <v>6863</v>
           </cell>
           <cell r="E87">
-            <v>30</v>
+            <v>43</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2023-01-17</v>
+            <v>2023-01-24</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C88">
-            <v>48</v>
+            <v>51</v>
           </cell>
           <cell r="D88">
-            <v>6213</v>
+            <v>48562</v>
           </cell>
           <cell r="E88">
-            <v>39</v>
+            <v>25</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-18</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>48</v>
+            <v>52</v>
           </cell>
           <cell r="D89">
-            <v>30577</v>
+            <v>34722</v>
           </cell>
           <cell r="E89">
-            <v>32</v>
+            <v>36</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-18</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B90" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C90">
-            <v>53</v>
+            <v>54</v>
           </cell>
           <cell r="D90">
-            <v>35118</v>
+            <v>81702</v>
           </cell>
           <cell r="E90">
-            <v>36</v>
+            <v>44</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-30</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
@@ -2690,73 +2690,73 @@
             <v>55</v>
           </cell>
           <cell r="D91">
-            <v>83989</v>
+            <v>6160</v>
           </cell>
           <cell r="E91">
-            <v>44</v>
+            <v>37</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-27</v>
+            <v>2023-01-31</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="B92" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C92">
-            <v>56</v>
+            <v>64</v>
           </cell>
           <cell r="D92">
-            <v>6322</v>
+            <v>52793</v>
           </cell>
           <cell r="E92">
-            <v>37</v>
+            <v>28</v>
           </cell>
           <cell r="F92" t="str">
-            <v>2023-01-30</v>
+            <v>2023-02-13</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="B93" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>65</v>
+            <v>66</v>
           </cell>
           <cell r="D93">
-            <v>53478</v>
+            <v>5656</v>
           </cell>
           <cell r="E93">
-            <v>28</v>
+            <v>48</v>
           </cell>
           <cell r="F93" t="str">
-            <v>2023-02-10</v>
+            <v>2023-02-15</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B94" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>68</v>
+            <v>71</v>
           </cell>
           <cell r="D94">
-            <v>5872</v>
+            <v>26576</v>
           </cell>
           <cell r="E94">
-            <v>48</v>
+            <v>37</v>
           </cell>
           <cell r="F94" t="str">
-            <v>2023-02-15</v>
+            <v>2023-02-22</v>
           </cell>
         </row>
         <row r="95">
@@ -2767,7 +2767,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>74</v>
+            <v>72</v>
           </cell>
           <cell r="D95">
             <v>1692</v>
@@ -2790,13 +2790,13 @@
             <v>177</v>
           </cell>
           <cell r="D96">
-            <v>6073</v>
+            <v>6001</v>
           </cell>
           <cell r="E96" t="str">
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-18</v>
+            <v>2023-07-20</v>
           </cell>
         </row>
         <row r="97">
@@ -2807,7 +2807,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>190</v>
+            <v>188</v>
           </cell>
           <cell r="D97">
             <v>810</v>
@@ -2827,7 +2827,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>191</v>
+            <v>189</v>
           </cell>
           <cell r="D98">
             <v>846</v>
@@ -2847,7 +2847,7 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>201</v>
+            <v>199</v>
           </cell>
           <cell r="D99">
             <v>1386</v>
@@ -2861,87 +2861,87 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="B100" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>14</v>
+            <v>13</v>
           </cell>
           <cell r="D100">
-            <v>14600</v>
+            <v>7533</v>
           </cell>
           <cell r="E100">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F100" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="B101" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="D101">
-            <v>14595</v>
+            <v>2659</v>
           </cell>
           <cell r="E101">
-            <v>30</v>
+            <v>34</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="B102" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>15</v>
+            <v>14</v>
           </cell>
           <cell r="D102">
-            <v>8631</v>
+            <v>13754</v>
           </cell>
           <cell r="E102">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="F102" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="B103" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C103">
-            <v>15</v>
+            <v>18</v>
           </cell>
           <cell r="D103">
-            <v>2803</v>
+            <v>34763</v>
           </cell>
           <cell r="E103">
-            <v>34</v>
+            <v>37</v>
           </cell>
           <cell r="F103" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-09</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
@@ -2950,93 +2950,93 @@
             <v>19</v>
           </cell>
           <cell r="D104">
-            <v>38533</v>
+            <v>1807</v>
           </cell>
           <cell r="E104">
-            <v>37</v>
+            <v>51</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-12-08</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B105" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>20</v>
+            <v>21</v>
           </cell>
           <cell r="D105">
-            <v>1951</v>
+            <v>12870</v>
           </cell>
           <cell r="E105">
-            <v>51</v>
+            <v>41</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="B106" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>21</v>
+            <v>39</v>
           </cell>
           <cell r="D106">
-            <v>13284</v>
+            <v>34262</v>
           </cell>
           <cell r="E106">
-            <v>41</v>
+            <v>30</v>
           </cell>
           <cell r="F106" t="str">
-            <v>2022-12-12</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>Фп Почечный чай листья 20x1,5г</v>
+            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="B107" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>39</v>
+            <v>42</v>
           </cell>
           <cell r="D107">
-            <v>124664</v>
+            <v>11752</v>
           </cell>
           <cell r="E107">
-            <v>31</v>
+            <v>30</v>
           </cell>
           <cell r="F107" t="str">
-            <v>2023-01-05</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
+            <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="B108" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
-            <v>42</v>
+            <v>56</v>
           </cell>
           <cell r="D108">
-            <v>11788</v>
+            <v>166941</v>
           </cell>
           <cell r="E108">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="F108" t="str">
-            <v>2023-01-10</v>
+            <v>2023-02-01</v>
           </cell>
         </row>
       </sheetData>
@@ -3058,22 +3058,22 @@
             <v>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</v>
           </cell>
           <cell r="C8">
-            <v>13</v>
+            <v>12</v>
           </cell>
           <cell r="D8">
-            <v>67</v>
+            <v>59</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
           </cell>
           <cell r="H8">
-            <v>81440</v>
+            <v>81408</v>
           </cell>
           <cell r="I8">
-            <v>81440</v>
+            <v>81408</v>
           </cell>
           <cell r="K8">
-            <v>193</v>
+            <v>191</v>
           </cell>
         </row>
         <row r="9">
@@ -3086,7 +3086,7 @@
             <v>Дуба кора 75г</v>
           </cell>
           <cell r="C10">
-            <v>2421</v>
+            <v>2407</v>
           </cell>
           <cell r="D10">
             <v>97</v>
@@ -3098,19 +3098,19 @@
             <v>2</v>
           </cell>
           <cell r="H10">
-            <v>38451</v>
+            <v>32213</v>
           </cell>
           <cell r="I10">
-            <v>38451</v>
+            <v>32213</v>
           </cell>
           <cell r="J10" t="str">
             <v>!</v>
           </cell>
           <cell r="K10">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="L10">
-            <v>22</v>
+            <v>20</v>
           </cell>
           <cell r="M10">
             <v>40057</v>
@@ -3118,109 +3118,109 @@
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C11">
-            <v>2187</v>
+            <v>266</v>
           </cell>
           <cell r="D11">
-            <v>113</v>
-          </cell>
-          <cell r="F11">
-            <v>910</v>
-          </cell>
-          <cell r="G11">
-            <v>1</v>
+            <v>111</v>
           </cell>
           <cell r="H11">
-            <v>39242</v>
+            <v>5180</v>
           </cell>
           <cell r="I11">
-            <v>39242</v>
+            <v>5180</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K11">
             <v>17</v>
           </cell>
-          <cell r="L11">
-            <v>15</v>
-          </cell>
-          <cell r="M11">
-            <v>39400</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C12">
-            <v>274</v>
+            <v>3100</v>
           </cell>
           <cell r="D12">
-            <v>114</v>
+            <v>75</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H12">
-            <v>5474</v>
+            <v>65730</v>
           </cell>
           <cell r="I12">
-            <v>5474</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>!!!</v>
+            <v>65730</v>
           </cell>
           <cell r="K12">
             <v>18</v>
           </cell>
+          <cell r="L12">
+            <v>16</v>
+          </cell>
+          <cell r="M12">
+            <v>42553</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Береза почки 50г</v>
           </cell>
           <cell r="C13">
-            <v>590</v>
+            <v>347</v>
           </cell>
           <cell r="D13">
-            <v>88</v>
+            <v>82</v>
           </cell>
           <cell r="H13">
-            <v>17804</v>
+            <v>12611</v>
           </cell>
           <cell r="I13">
-            <v>17804</v>
+            <v>12611</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v>!</v>
           </cell>
           <cell r="K13">
             <v>19</v>
           </cell>
           <cell r="L13">
-            <v>15</v>
+            <v>20</v>
           </cell>
           <cell r="M13">
-            <v>19887</v>
+            <v>9850</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C14">
-            <v>359</v>
+            <v>606</v>
           </cell>
           <cell r="D14">
-            <v>89</v>
+            <v>83</v>
           </cell>
           <cell r="H14">
-            <v>11197</v>
+            <v>17401</v>
           </cell>
           <cell r="I14">
-            <v>11197</v>
+            <v>17401</v>
           </cell>
           <cell r="K14">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="L14">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="M14">
-            <v>8209</v>
+            <v>23344</v>
           </cell>
         </row>
         <row r="15">
@@ -3228,128 +3228,122 @@
             <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C15">
-            <v>499</v>
+            <v>498</v>
           </cell>
           <cell r="D15">
-            <v>92</v>
+            <v>89</v>
           </cell>
           <cell r="H15">
-            <v>17481</v>
+            <v>16786</v>
           </cell>
           <cell r="I15">
-            <v>17481</v>
+            <v>16786</v>
           </cell>
           <cell r="K15">
-            <v>20</v>
+            <v>19</v>
+          </cell>
+          <cell r="L15">
+            <v>16</v>
+          </cell>
+          <cell r="M15">
+            <v>24166</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C16">
-            <v>3111</v>
+            <v>401</v>
           </cell>
           <cell r="D16">
-            <v>76</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>↓</v>
+            <v>101</v>
           </cell>
           <cell r="H16">
-            <v>71309</v>
+            <v>9895</v>
           </cell>
           <cell r="I16">
-            <v>71309</v>
+            <v>9895</v>
           </cell>
           <cell r="K16">
-            <v>20</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C17">
-            <v>649</v>
+            <v>417</v>
           </cell>
           <cell r="D17">
-            <v>75</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>↓</v>
+            <v>85</v>
           </cell>
           <cell r="H17">
-            <v>20249</v>
+            <v>11219</v>
           </cell>
           <cell r="I17">
-            <v>20249</v>
+            <v>11219</v>
           </cell>
           <cell r="K17">
-            <v>21</v>
-          </cell>
-          <cell r="L17">
-            <v>17</v>
-          </cell>
-          <cell r="M17">
-            <v>15103</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C18">
-            <v>601</v>
+            <v>202</v>
           </cell>
           <cell r="D18">
-            <v>84</v>
+            <v>80</v>
           </cell>
           <cell r="H18">
-            <v>18955</v>
+            <v>8123</v>
           </cell>
           <cell r="I18">
-            <v>18955</v>
+            <v>8123</v>
           </cell>
           <cell r="K18">
-            <v>21</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Береза почки 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C19">
-            <v>342</v>
+            <v>450</v>
           </cell>
           <cell r="D19">
-            <v>83</v>
+            <v>86</v>
           </cell>
           <cell r="H19">
-            <v>14096</v>
+            <v>18950</v>
           </cell>
           <cell r="I19">
-            <v>14096</v>
+            <v>18950</v>
           </cell>
           <cell r="K19">
-            <v>22</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C20">
-            <v>415</v>
+            <v>276</v>
           </cell>
           <cell r="D20">
-            <v>105</v>
+            <v>86</v>
           </cell>
           <cell r="H20">
-            <v>11492</v>
+            <v>10346</v>
           </cell>
           <cell r="I20">
-            <v>11492</v>
+            <v>10346</v>
           </cell>
           <cell r="K20">
             <v>24</v>
@@ -3357,39 +3351,39 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C21">
-            <v>281</v>
+            <v>44</v>
           </cell>
           <cell r="D21">
-            <v>88</v>
+            <v>87</v>
           </cell>
           <cell r="H21">
-            <v>10612</v>
+            <v>1554</v>
           </cell>
           <cell r="I21">
-            <v>10612</v>
+            <v>1554</v>
           </cell>
           <cell r="K21">
-            <v>25</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C22">
-            <v>419</v>
+            <v>137</v>
           </cell>
           <cell r="D22">
-            <v>87</v>
+            <v>108</v>
           </cell>
           <cell r="H22">
-            <v>12087</v>
+            <v>3821</v>
           </cell>
           <cell r="I22">
-            <v>12087</v>
+            <v>3821</v>
           </cell>
           <cell r="K22">
             <v>25</v>
@@ -3397,10 +3391,10 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C23">
-            <v>996</v>
+            <v>966</v>
           </cell>
           <cell r="D23">
             <v>76</v>
@@ -3409,10 +3403,10 @@
             <v>↓</v>
           </cell>
           <cell r="H23">
-            <v>32532</v>
+            <v>33684</v>
           </cell>
           <cell r="I23">
-            <v>32532</v>
+            <v>33684</v>
           </cell>
           <cell r="K23">
             <v>25</v>
@@ -3420,19 +3414,22 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C24">
-            <v>458</v>
+            <v>978</v>
           </cell>
           <cell r="D24">
-            <v>89</v>
+            <v>73</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H24">
-            <v>19540</v>
+            <v>32466</v>
           </cell>
           <cell r="I24">
-            <v>19540</v>
+            <v>32466</v>
           </cell>
           <cell r="K24">
             <v>25</v>
@@ -3440,19 +3437,19 @@
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C25">
-            <v>44</v>
+            <v>565</v>
           </cell>
           <cell r="D25">
-            <v>90</v>
+            <v>82</v>
           </cell>
           <cell r="H25">
-            <v>1722</v>
+            <v>26575</v>
           </cell>
           <cell r="I25">
-            <v>1722</v>
+            <v>26575</v>
           </cell>
           <cell r="K25">
             <v>26</v>
@@ -3460,42 +3457,48 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C26">
-            <v>140</v>
+            <v>398</v>
           </cell>
           <cell r="D26">
-            <v>110</v>
+            <v>73</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H26">
-            <v>4243</v>
+            <v>16795</v>
           </cell>
           <cell r="I26">
-            <v>4243</v>
+            <v>16795</v>
           </cell>
           <cell r="K26">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C27">
-            <v>558</v>
+            <v>467</v>
           </cell>
           <cell r="D27">
-            <v>83</v>
+            <v>77</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H27">
-            <v>27737</v>
+            <v>19096</v>
           </cell>
           <cell r="I27">
-            <v>27737</v>
+            <v>19096</v>
           </cell>
           <cell r="K27">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="28">
@@ -3503,145 +3506,145 @@
             <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C28">
-            <v>387</v>
+            <v>388</v>
           </cell>
           <cell r="D28">
-            <v>85</v>
+            <v>83</v>
           </cell>
           <cell r="H28">
-            <v>19486</v>
+            <v>18968</v>
           </cell>
           <cell r="I28">
-            <v>19486</v>
+            <v>18968</v>
           </cell>
           <cell r="K28">
-            <v>27</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C29">
-            <v>403</v>
+            <v>221</v>
           </cell>
           <cell r="D29">
-            <v>75</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>↓</v>
+            <v>98</v>
           </cell>
           <cell r="H29">
-            <v>17691</v>
+            <v>7255</v>
           </cell>
           <cell r="I29">
-            <v>17691</v>
+            <v>7255</v>
           </cell>
           <cell r="K29">
-            <v>27</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C30">
-            <v>969</v>
+            <v>1163</v>
           </cell>
           <cell r="D30">
-            <v>77</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>↓</v>
+            <v>84</v>
           </cell>
           <cell r="H30">
-            <v>35992</v>
+            <v>57906</v>
           </cell>
           <cell r="I30">
-            <v>35992</v>
+            <v>57906</v>
           </cell>
           <cell r="K30">
-            <v>27</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C31">
-            <v>478</v>
+            <v>315</v>
           </cell>
           <cell r="D31">
-            <v>80</v>
+            <v>78</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H31">
-            <v>19830</v>
+            <v>16068</v>
           </cell>
           <cell r="I31">
-            <v>19830</v>
+            <v>16068</v>
           </cell>
           <cell r="K31">
-            <v>27</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C32">
-            <v>193</v>
+            <v>696</v>
           </cell>
           <cell r="D32">
-            <v>78</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>↓</v>
+            <v>84</v>
           </cell>
           <cell r="H32">
-            <v>9033</v>
+            <v>28340</v>
           </cell>
           <cell r="I32">
-            <v>9033</v>
+            <v>28340</v>
           </cell>
           <cell r="K32">
-            <v>27</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Лен семена 100г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C33">
-            <v>1140</v>
+            <v>2231</v>
           </cell>
           <cell r="D33">
-            <v>83</v>
+            <v>115</v>
+          </cell>
+          <cell r="F33">
+            <v>910</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
           </cell>
           <cell r="H33">
-            <v>61366</v>
+            <v>67012</v>
           </cell>
           <cell r="I33">
-            <v>61366</v>
+            <v>27686</v>
           </cell>
           <cell r="K33">
-            <v>30</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C34">
-            <v>687</v>
+            <v>225</v>
           </cell>
           <cell r="D34">
-            <v>85</v>
+            <v>99</v>
           </cell>
           <cell r="H34">
-            <v>29892</v>
+            <v>11136</v>
           </cell>
           <cell r="I34">
-            <v>29892</v>
+            <v>11136</v>
           </cell>
           <cell r="K34">
             <v>30</v>
@@ -3649,99 +3652,102 @@
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C35">
-            <v>221</v>
+            <v>464</v>
           </cell>
           <cell r="D35">
-            <v>99</v>
+            <v>91</v>
           </cell>
           <cell r="H35">
-            <v>7816</v>
+            <v>18692</v>
           </cell>
           <cell r="I35">
-            <v>7816</v>
+            <v>18692</v>
           </cell>
           <cell r="K35">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C36">
-            <v>316</v>
+            <v>1292</v>
           </cell>
           <cell r="D36">
-            <v>80</v>
+            <v>91</v>
           </cell>
           <cell r="H36">
-            <v>17048</v>
+            <v>47150</v>
           </cell>
           <cell r="I36">
-            <v>17048</v>
+            <v>47150</v>
           </cell>
           <cell r="K36">
-            <v>31</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C37">
-            <v>472</v>
+            <v>307</v>
           </cell>
           <cell r="D37">
-            <v>94</v>
+            <v>87</v>
           </cell>
           <cell r="H37">
-            <v>18809</v>
+            <v>13549</v>
           </cell>
           <cell r="I37">
-            <v>9527</v>
+            <v>13549</v>
           </cell>
           <cell r="K37">
-            <v>31</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C38">
-            <v>223</v>
+            <v>360</v>
           </cell>
           <cell r="D38">
-            <v>99</v>
+            <v>88</v>
           </cell>
           <cell r="H38">
-            <v>11752</v>
+            <v>19079</v>
           </cell>
           <cell r="I38">
-            <v>11752</v>
+            <v>10931</v>
           </cell>
           <cell r="K38">
-            <v>32</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Череда трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C39">
-            <v>317</v>
+            <v>641</v>
           </cell>
           <cell r="D39">
-            <v>89</v>
+            <v>76</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H39">
-            <v>13885</v>
+            <v>40804</v>
           </cell>
           <cell r="I39">
-            <v>13885</v>
+            <v>18410</v>
           </cell>
           <cell r="K39">
             <v>34</v>
@@ -3749,19 +3755,19 @@
         </row>
         <row r="40">
           <cell r="B40" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C40">
-            <v>1310</v>
+            <v>359</v>
           </cell>
           <cell r="D40">
-            <v>93</v>
+            <v>94</v>
           </cell>
           <cell r="H40">
-            <v>49768</v>
+            <v>17389</v>
           </cell>
           <cell r="I40">
-            <v>18844</v>
+            <v>17389</v>
           </cell>
           <cell r="K40">
             <v>34</v>
@@ -3769,22 +3775,22 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="C41">
-            <v>646</v>
+            <v>447</v>
           </cell>
           <cell r="D41">
-            <v>78</v>
+            <v>76</v>
           </cell>
           <cell r="E41" t="str">
             <v>↓</v>
           </cell>
           <cell r="H41">
-            <v>41239</v>
+            <v>26228</v>
           </cell>
           <cell r="I41">
-            <v>18845</v>
+            <v>11360</v>
           </cell>
           <cell r="K41">
             <v>35</v>
@@ -3792,28 +3798,19 @@
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C42">
-            <v>443</v>
+            <v>854</v>
           </cell>
           <cell r="D42">
-            <v>76</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>↓</v>
-          </cell>
-          <cell r="F42">
-            <v>938</v>
-          </cell>
-          <cell r="G42">
-            <v>2</v>
+            <v>89</v>
           </cell>
           <cell r="H42">
-            <v>26858</v>
+            <v>42098</v>
           </cell>
           <cell r="I42">
-            <v>11990</v>
+            <v>42098</v>
           </cell>
           <cell r="K42">
             <v>36</v>
@@ -3821,19 +3818,22 @@
         </row>
         <row r="43">
           <cell r="B43" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C43">
-            <v>346</v>
+            <v>641</v>
           </cell>
           <cell r="D43">
-            <v>91</v>
+            <v>73</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H43">
-            <v>19167</v>
+            <v>35215</v>
           </cell>
           <cell r="I43">
-            <v>19167</v>
+            <v>20165</v>
           </cell>
           <cell r="K43">
             <v>37</v>
@@ -3841,105 +3841,105 @@
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="C44">
-            <v>829</v>
+            <v>698</v>
           </cell>
           <cell r="D44">
-            <v>88</v>
+            <v>62</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H44">
-            <v>44385</v>
+            <v>45935</v>
           </cell>
           <cell r="I44">
-            <v>44385</v>
+            <v>45935</v>
           </cell>
           <cell r="K44">
-            <v>38</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C45">
-            <v>291</v>
+            <v>610</v>
           </cell>
           <cell r="D45">
             <v>90</v>
           </cell>
           <cell r="H45">
-            <v>17960</v>
+            <v>35049</v>
           </cell>
           <cell r="I45">
-            <v>17960</v>
+            <v>15281</v>
           </cell>
           <cell r="K45">
-            <v>40</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C46">
-            <v>700</v>
+            <v>289</v>
           </cell>
           <cell r="D46">
-            <v>63</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>↓</v>
+            <v>88</v>
           </cell>
           <cell r="H46">
-            <v>49490</v>
+            <v>17400</v>
           </cell>
           <cell r="I46">
-            <v>49490</v>
+            <v>17400</v>
           </cell>
           <cell r="K46">
-            <v>40</v>
+            <v>39</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C47">
-            <v>253</v>
+            <v>158</v>
           </cell>
           <cell r="D47">
-            <v>101</v>
-          </cell>
-          <cell r="F47">
-            <v>70</v>
+            <v>85</v>
           </cell>
           <cell r="H47">
-            <v>10913</v>
+            <v>7363</v>
           </cell>
           <cell r="I47">
-            <v>10913</v>
+            <v>7363</v>
           </cell>
           <cell r="K47">
-            <v>42</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C48">
-            <v>157</v>
+            <v>249</v>
           </cell>
           <cell r="D48">
-            <v>86</v>
+            <v>99</v>
+          </cell>
+          <cell r="F48">
+            <v>70</v>
           </cell>
           <cell r="H48">
-            <v>7713</v>
+            <v>10754</v>
           </cell>
           <cell r="I48">
-            <v>7713</v>
+            <v>10754</v>
           </cell>
           <cell r="K48">
             <v>43</v>
@@ -3947,42 +3947,39 @@
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Алтей корни 75г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C49">
+            <v>603</v>
+          </cell>
+          <cell r="D49">
             <v>94</v>
           </cell>
-          <cell r="D49">
-            <v>65</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>↓</v>
-          </cell>
           <cell r="H49">
-            <v>8927</v>
+            <v>32437</v>
           </cell>
           <cell r="I49">
-            <v>2980</v>
+            <v>32437</v>
           </cell>
           <cell r="K49">
-            <v>45</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C50">
-            <v>619</v>
+            <v>906</v>
           </cell>
           <cell r="D50">
-            <v>96</v>
+            <v>109</v>
           </cell>
           <cell r="H50">
-            <v>33249</v>
+            <v>41272</v>
           </cell>
           <cell r="I50">
-            <v>11535</v>
+            <v>41272</v>
           </cell>
           <cell r="K50">
             <v>45</v>
@@ -3990,22 +3987,25 @@
         </row>
         <row r="51">
           <cell r="B51" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Алтей корни 75г</v>
           </cell>
           <cell r="C51">
-            <v>312</v>
+            <v>93</v>
           </cell>
           <cell r="D51">
-            <v>91</v>
+            <v>63</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H51">
-            <v>22013</v>
+            <v>8759</v>
           </cell>
           <cell r="I51">
-            <v>22013</v>
+            <v>8759</v>
           </cell>
           <cell r="K51">
-            <v>47</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="52">
@@ -4013,56 +4013,56 @@
             <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C52">
-            <v>325</v>
+            <v>318</v>
           </cell>
           <cell r="D52">
-            <v>93</v>
+            <v>89</v>
           </cell>
           <cell r="H52">
-            <v>21723</v>
+            <v>21247</v>
           </cell>
           <cell r="I52">
-            <v>21723</v>
+            <v>21247</v>
           </cell>
           <cell r="K52">
-            <v>47</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="C53">
-            <v>447</v>
+            <v>307</v>
           </cell>
           <cell r="D53">
-            <v>98</v>
+            <v>88</v>
           </cell>
           <cell r="H53">
-            <v>28049</v>
+            <v>21593</v>
           </cell>
           <cell r="I53">
-            <v>7909</v>
+            <v>21593</v>
           </cell>
           <cell r="K53">
-            <v>48</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C54">
-            <v>893</v>
+            <v>435</v>
           </cell>
           <cell r="D54">
-            <v>109</v>
+            <v>96</v>
           </cell>
           <cell r="H54">
-            <v>43848</v>
+            <v>27622</v>
           </cell>
           <cell r="I54">
-            <v>43848</v>
+            <v>27622</v>
           </cell>
           <cell r="K54">
             <v>48</v>
@@ -4073,10 +4073,13 @@
             <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>196</v>
+            <v>199</v>
           </cell>
           <cell r="D55">
-            <v>80</v>
+            <v>79</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>↓</v>
           </cell>
           <cell r="F55">
             <v>280</v>
@@ -4085,13 +4088,13 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>10550</v>
+            <v>10200</v>
           </cell>
           <cell r="I55">
-            <v>10550</v>
+            <v>10200</v>
           </cell>
           <cell r="K55">
-            <v>53</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="56">
@@ -4112,19 +4115,19 @@
             <v>96</v>
           </cell>
           <cell r="D58">
-            <v>116</v>
+            <v>114</v>
           </cell>
           <cell r="H58">
-            <v>431</v>
+            <v>350</v>
           </cell>
           <cell r="I58">
-            <v>431</v>
+            <v>350</v>
           </cell>
           <cell r="J58" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K58">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="59">
@@ -4132,77 +4135,77 @@
             <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>437</v>
+            <v>421</v>
           </cell>
           <cell r="D59">
-            <v>78</v>
+            <v>75</v>
           </cell>
           <cell r="E59" t="str">
             <v>↓</v>
           </cell>
           <cell r="H59">
-            <v>8679</v>
+            <v>11676</v>
           </cell>
           <cell r="I59">
-            <v>8679</v>
-          </cell>
-          <cell r="J59" t="str">
-            <v>!</v>
+            <v>7666</v>
           </cell>
           <cell r="K59">
-            <v>14</v>
+            <v>19</v>
           </cell>
           <cell r="L59">
-            <v>15</v>
+            <v>16</v>
           </cell>
           <cell r="M59">
-            <v>4062</v>
+            <v>4874</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>115</v>
+            <v>50</v>
           </cell>
           <cell r="D60">
-            <v>98</v>
+            <v>53</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H60">
-            <v>2471</v>
+            <v>3400</v>
           </cell>
           <cell r="I60">
-            <v>2471</v>
-          </cell>
-          <cell r="J60" t="str">
-            <v>!!!</v>
+            <v>3400</v>
           </cell>
           <cell r="K60">
-            <v>18</v>
+            <v>26</v>
+          </cell>
+          <cell r="L60">
+            <v>16</v>
+          </cell>
+          <cell r="M60">
+            <v>2437</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>50</v>
+            <v>117</v>
           </cell>
           <cell r="D61">
-            <v>54</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>↓</v>
+            <v>98</v>
           </cell>
           <cell r="H61">
-            <v>3470</v>
+            <v>4380</v>
           </cell>
           <cell r="I61">
-            <v>3470</v>
+            <v>2260</v>
           </cell>
           <cell r="K61">
-            <v>26</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="62">
@@ -4216,13 +4219,13 @@
             <v>103</v>
           </cell>
           <cell r="H62">
-            <v>4952</v>
+            <v>4770</v>
           </cell>
           <cell r="I62">
-            <v>4952</v>
+            <v>4770</v>
           </cell>
           <cell r="K62">
-            <v>34</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="63">
@@ -4230,22 +4233,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>17</v>
+            <v>18</v>
           </cell>
           <cell r="D63">
-            <v>65</v>
+            <v>69</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>7940</v>
+            <v>7830</v>
           </cell>
           <cell r="I63">
-            <v>7940</v>
+            <v>7830</v>
           </cell>
           <cell r="K63">
-            <v>137</v>
+            <v>134</v>
           </cell>
         </row>
         <row r="64">
@@ -4256,19 +4259,19 @@
             <v>11</v>
           </cell>
           <cell r="D64">
-            <v>64</v>
+            <v>63</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9350</v>
+            <v>9260</v>
           </cell>
           <cell r="I64">
-            <v>9350</v>
+            <v>9260</v>
           </cell>
           <cell r="K64">
-            <v>193</v>
+            <v>191</v>
           </cell>
         </row>
         <row r="65">
@@ -4278,13 +4281,13 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C66">
-            <v>51</v>
+            <v>164</v>
           </cell>
           <cell r="D66">
-            <v>97</v>
+            <v>101</v>
           </cell>
           <cell r="J66" t="str">
             <v>!!!</v>
@@ -4292,13 +4295,13 @@
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>183</v>
+            <v>46</v>
           </cell>
           <cell r="D67">
-            <v>111</v>
+            <v>91</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
@@ -4312,7 +4315,7 @@
             <v>26</v>
           </cell>
           <cell r="D68">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="E68" t="str">
             <v>↓</v>
@@ -4396,7 +4399,7 @@
             <v>33</v>
           </cell>
           <cell r="D71">
-            <v>41</v>
+            <v>40</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
@@ -4411,7 +4414,7 @@
             <v>!!!</v>
           </cell>
           <cell r="K71">
-            <v>12</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="72">
@@ -4422,19 +4425,22 @@
             <v>6</v>
           </cell>
           <cell r="D72">
-            <v>227</v>
+            <v>233</v>
           </cell>
           <cell r="E72" t="str">
             <v>↑</v>
           </cell>
           <cell r="H72">
-            <v>990</v>
+            <v>972</v>
           </cell>
           <cell r="I72">
-            <v>990</v>
+            <v>972</v>
+          </cell>
+          <cell r="J72" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K72">
-            <v>20</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="73">
@@ -4442,10 +4448,10 @@
             <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C73">
-            <v>2744</v>
+            <v>2710</v>
           </cell>
           <cell r="D73">
-            <v>82</v>
+            <v>80</v>
           </cell>
           <cell r="F73">
             <v>8946</v>
@@ -4454,16 +4460,16 @@
             <v>3</v>
           </cell>
           <cell r="H73">
-            <v>87234</v>
+            <v>85247</v>
           </cell>
           <cell r="I73">
-            <v>87234</v>
+            <v>85247</v>
           </cell>
           <cell r="K73">
             <v>22</v>
           </cell>
           <cell r="L73">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="M73">
             <v>40216</v>
@@ -4471,836 +4477,842 @@
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C74">
-            <v>4088</v>
+            <v>14272</v>
           </cell>
           <cell r="D74">
-            <v>95</v>
+            <v>79</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H74">
-            <v>128743</v>
+            <v>512496</v>
           </cell>
           <cell r="I74">
-            <v>128743</v>
+            <v>512496</v>
           </cell>
           <cell r="K74">
-            <v>28</v>
-          </cell>
-          <cell r="L74">
-            <v>10</v>
-          </cell>
-          <cell r="M74">
-            <v>49249</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C75">
-            <v>327</v>
+            <v>1410</v>
           </cell>
           <cell r="D75">
-            <v>94</v>
+            <v>100</v>
           </cell>
           <cell r="H75">
-            <v>15688</v>
+            <v>49400</v>
           </cell>
           <cell r="I75">
-            <v>15688</v>
+            <v>49400</v>
           </cell>
           <cell r="K75">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="L75">
-            <v>11</v>
+            <v>16</v>
           </cell>
           <cell r="M75">
-            <v>9825</v>
+            <v>29547</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C76">
-            <v>14280</v>
+            <v>4155</v>
           </cell>
           <cell r="D76">
-            <v>80</v>
+            <v>96</v>
           </cell>
           <cell r="H76">
-            <v>521643</v>
+            <v>169879</v>
           </cell>
           <cell r="I76">
-            <v>521643</v>
+            <v>119911</v>
           </cell>
           <cell r="K76">
-            <v>30</v>
+            <v>36</v>
+          </cell>
+          <cell r="L76">
+            <v>17</v>
+          </cell>
+          <cell r="M76">
+            <v>51267</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C77">
-            <v>747</v>
+            <v>121</v>
           </cell>
           <cell r="D77">
-            <v>97</v>
+            <v>109</v>
           </cell>
           <cell r="H77">
-            <v>25272</v>
+            <v>4764</v>
           </cell>
           <cell r="I77">
-            <v>25272</v>
+            <v>4764</v>
           </cell>
           <cell r="K77">
-            <v>33</v>
-          </cell>
-          <cell r="L77">
-            <v>10</v>
-          </cell>
-          <cell r="M77">
-            <v>24261</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C78">
-            <v>1496</v>
+            <v>1605</v>
           </cell>
           <cell r="D78">
-            <v>102</v>
+            <v>103</v>
           </cell>
           <cell r="H78">
-            <v>61785</v>
+            <v>72211</v>
           </cell>
           <cell r="I78">
-            <v>61785</v>
+            <v>72211</v>
           </cell>
           <cell r="K78">
-            <v>35</v>
+            <v>37</v>
           </cell>
           <cell r="L78">
-            <v>11</v>
+            <v>17</v>
           </cell>
           <cell r="M78">
-            <v>40138</v>
+            <v>30485</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C79">
-            <v>1382</v>
+            <v>1057</v>
           </cell>
           <cell r="D79">
-            <v>98</v>
+            <v>77</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H79">
-            <v>52786</v>
+            <v>59181</v>
           </cell>
           <cell r="I79">
-            <v>52786</v>
+            <v>59181</v>
           </cell>
           <cell r="K79">
-            <v>35</v>
+            <v>38</v>
+          </cell>
+          <cell r="L79">
+            <v>20</v>
+          </cell>
+          <cell r="M79">
+            <v>26263</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C80">
-            <v>149</v>
+            <v>1446</v>
           </cell>
           <cell r="D80">
-            <v>95</v>
+            <v>103</v>
           </cell>
           <cell r="H80">
-            <v>5580</v>
+            <v>74643</v>
           </cell>
           <cell r="I80">
-            <v>5580</v>
+            <v>74643</v>
           </cell>
           <cell r="K80">
-            <v>37</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C81">
-            <v>69</v>
+            <v>4</v>
           </cell>
           <cell r="D81">
-            <v>96</v>
+            <v>152</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H81">
-            <v>3046</v>
+            <v>1692</v>
           </cell>
           <cell r="I81">
-            <v>3046</v>
+            <v>1692</v>
           </cell>
           <cell r="K81">
-            <v>38</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C82">
-            <v>1620</v>
+            <v>46</v>
           </cell>
           <cell r="D82">
-            <v>104</v>
+            <v>69</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H82">
-            <v>73882</v>
+            <v>4680</v>
           </cell>
           <cell r="I82">
-            <v>33281</v>
+            <v>4680</v>
           </cell>
           <cell r="K82">
-            <v>38</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C83">
-            <v>1077</v>
+            <v>142</v>
           </cell>
           <cell r="D83">
-            <v>80</v>
+            <v>89</v>
           </cell>
           <cell r="H83">
-            <v>59956</v>
+            <v>9683</v>
           </cell>
           <cell r="I83">
-            <v>59956</v>
+            <v>5436</v>
           </cell>
           <cell r="K83">
-            <v>39</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C84">
-            <v>189</v>
+            <v>961</v>
           </cell>
           <cell r="D84">
-            <v>81</v>
+            <v>84</v>
           </cell>
           <cell r="H84">
-            <v>15218</v>
+            <v>63928</v>
           </cell>
           <cell r="I84">
-            <v>15218</v>
+            <v>63928</v>
           </cell>
           <cell r="K84">
-            <v>39</v>
-          </cell>
-          <cell r="L84">
-            <v>16</v>
-          </cell>
-          <cell r="M84">
-            <v>11416</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C85">
-            <v>1454</v>
+            <v>843</v>
           </cell>
           <cell r="D85">
-            <v>105</v>
+            <v>109</v>
           </cell>
           <cell r="H85">
-            <v>75831</v>
+            <v>38789</v>
           </cell>
           <cell r="I85">
-            <v>75831</v>
+            <v>38789</v>
           </cell>
           <cell r="K85">
-            <v>39</v>
+            <v>44</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C86">
-            <v>614</v>
+            <v>731</v>
           </cell>
           <cell r="D86">
-            <v>105</v>
+            <v>85</v>
           </cell>
           <cell r="H86">
-            <v>32689</v>
+            <v>39834</v>
           </cell>
           <cell r="I86">
-            <v>32689</v>
+            <v>39834</v>
           </cell>
           <cell r="K86">
-            <v>39</v>
-          </cell>
-          <cell r="L86">
-            <v>11</v>
-          </cell>
-          <cell r="M86">
-            <v>9849</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C87">
-            <v>121</v>
+            <v>551</v>
           </cell>
           <cell r="D87">
-            <v>110</v>
+            <v>105</v>
           </cell>
           <cell r="H87">
-            <v>5070</v>
+            <v>30732</v>
           </cell>
           <cell r="I87">
-            <v>5070</v>
+            <v>30732</v>
           </cell>
           <cell r="K87">
-            <v>40</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C88">
-            <v>48</v>
+            <v>6</v>
           </cell>
           <cell r="D88">
-            <v>74</v>
+            <v>204</v>
           </cell>
           <cell r="E88" t="str">
-            <v>↓</v>
+            <v>↑</v>
           </cell>
           <cell r="H88">
-            <v>4698</v>
+            <v>1746</v>
           </cell>
           <cell r="I88">
-            <v>4698</v>
+            <v>1746</v>
           </cell>
           <cell r="K88">
-            <v>42</v>
+            <v>46</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C89">
-            <v>4</v>
+            <v>1321</v>
           </cell>
           <cell r="D89">
-            <v>154</v>
-          </cell>
-          <cell r="E89" t="str">
-            <v>↑</v>
+            <v>85</v>
           </cell>
           <cell r="H89">
-            <v>1692</v>
+            <v>77597</v>
           </cell>
           <cell r="I89">
-            <v>1692</v>
+            <v>77597</v>
           </cell>
           <cell r="K89">
-            <v>42</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C90">
-            <v>731</v>
+            <v>384</v>
           </cell>
           <cell r="D90">
-            <v>87</v>
+            <v>75</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H90">
-            <v>40914</v>
+            <v>30230</v>
           </cell>
           <cell r="I90">
-            <v>40914</v>
+            <v>30230</v>
           </cell>
           <cell r="K90">
-            <v>45</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C91">
-            <v>839</v>
+            <v>28799</v>
           </cell>
           <cell r="D91">
-            <v>110</v>
+            <v>87</v>
           </cell>
           <cell r="H91">
-            <v>40085</v>
+            <v>1459368</v>
           </cell>
           <cell r="I91">
-            <v>40085</v>
+            <v>1459368</v>
           </cell>
           <cell r="K91">
-            <v>46</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C92">
-            <v>555</v>
+            <v>641</v>
           </cell>
           <cell r="D92">
-            <v>106</v>
+            <v>86</v>
           </cell>
           <cell r="H92">
-            <v>31326</v>
+            <v>43950</v>
           </cell>
           <cell r="I92">
-            <v>31326</v>
+            <v>43950</v>
           </cell>
           <cell r="K92">
-            <v>47</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C93">
-            <v>912</v>
+            <v>105</v>
           </cell>
           <cell r="D93">
-            <v>81</v>
+            <v>106</v>
           </cell>
           <cell r="H93">
-            <v>68392</v>
+            <v>5398</v>
           </cell>
           <cell r="I93">
-            <v>68392</v>
+            <v>5398</v>
           </cell>
           <cell r="K93">
-            <v>47</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C94">
-            <v>1315</v>
+            <v>826</v>
           </cell>
           <cell r="D94">
-            <v>85</v>
+            <v>79</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H94">
-            <v>79577</v>
+            <v>53820</v>
           </cell>
           <cell r="I94">
-            <v>79577</v>
+            <v>53820</v>
           </cell>
           <cell r="K94">
-            <v>48</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C95">
-            <v>6</v>
+            <v>322</v>
           </cell>
           <cell r="D95">
-            <v>209</v>
-          </cell>
-          <cell r="E95" t="str">
-            <v>↑</v>
+            <v>91</v>
           </cell>
           <cell r="H95">
-            <v>1746</v>
+            <v>25162</v>
           </cell>
           <cell r="I95">
-            <v>1746</v>
+            <v>15317</v>
           </cell>
           <cell r="K95">
-            <v>48</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C96">
-            <v>381</v>
+            <v>893</v>
           </cell>
           <cell r="D96">
-            <v>76</v>
-          </cell>
-          <cell r="E96" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H96">
-            <v>31130</v>
+            <v>52793</v>
           </cell>
           <cell r="I96">
-            <v>31130</v>
+            <v>52793</v>
           </cell>
           <cell r="K96">
-            <v>50</v>
+            <v>52</v>
           </cell>
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C97">
-            <v>642</v>
+            <v>615</v>
           </cell>
           <cell r="D97">
-            <v>87</v>
+            <v>104</v>
           </cell>
           <cell r="H97">
-            <v>44655</v>
+            <v>42174</v>
           </cell>
           <cell r="I97">
-            <v>44655</v>
+            <v>32400</v>
           </cell>
           <cell r="K97">
-            <v>50</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C98">
-            <v>836</v>
+            <v>3596</v>
           </cell>
           <cell r="D98">
-            <v>82</v>
+            <v>89</v>
           </cell>
           <cell r="H98">
-            <v>53893</v>
+            <v>204529</v>
           </cell>
           <cell r="I98">
-            <v>53893</v>
+            <v>204529</v>
           </cell>
           <cell r="K98">
-            <v>50</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C99">
-            <v>28492</v>
+            <v>1557</v>
           </cell>
           <cell r="D99">
-            <v>87</v>
+            <v>106</v>
           </cell>
           <cell r="H99">
-            <v>1504217</v>
+            <v>96255</v>
           </cell>
           <cell r="I99">
-            <v>1273457</v>
+            <v>55809</v>
           </cell>
           <cell r="K99">
-            <v>52</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C100">
-            <v>905</v>
+            <v>721</v>
           </cell>
           <cell r="D100">
-            <v>90</v>
+            <v>79</v>
+          </cell>
+          <cell r="E100" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H100">
-            <v>53478</v>
+            <v>59657</v>
           </cell>
           <cell r="I100">
-            <v>53478</v>
+            <v>59657</v>
           </cell>
           <cell r="K100">
-            <v>53</v>
+            <v>58</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C101">
-            <v>104</v>
+            <v>1019</v>
           </cell>
           <cell r="D101">
-            <v>106</v>
+            <v>101</v>
+          </cell>
+          <cell r="F101">
+            <v>630</v>
+          </cell>
+          <cell r="G101">
+            <v>1</v>
           </cell>
           <cell r="H101">
-            <v>5866</v>
+            <v>63667</v>
           </cell>
           <cell r="I101">
-            <v>5866</v>
+            <v>63667</v>
           </cell>
           <cell r="K101">
-            <v>56</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C102">
-            <v>735</v>
+            <v>1089</v>
           </cell>
           <cell r="D102">
             <v>82</v>
           </cell>
           <cell r="H102">
-            <v>59911</v>
+            <v>81702</v>
           </cell>
           <cell r="I102">
-            <v>59911</v>
+            <v>81702</v>
           </cell>
           <cell r="K102">
-            <v>56</v>
+            <v>61</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C103">
-            <v>3558</v>
+            <v>1054</v>
           </cell>
           <cell r="D103">
-            <v>87</v>
+            <v>89</v>
           </cell>
           <cell r="H103">
-            <v>211675</v>
+            <v>78545</v>
           </cell>
           <cell r="I103">
-            <v>211675</v>
+            <v>78545</v>
           </cell>
           <cell r="K103">
-            <v>57</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C104">
-            <v>1018</v>
+            <v>464</v>
           </cell>
           <cell r="D104">
-            <v>102</v>
-          </cell>
-          <cell r="F104">
-            <v>630</v>
-          </cell>
-          <cell r="G104">
-            <v>1</v>
+            <v>93</v>
           </cell>
           <cell r="H104">
-            <v>65367</v>
+            <v>33658</v>
           </cell>
           <cell r="I104">
-            <v>35685</v>
+            <v>33658</v>
           </cell>
           <cell r="K104">
-            <v>61</v>
+            <v>63</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C105">
-            <v>1073</v>
+            <v>382</v>
           </cell>
           <cell r="D105">
-            <v>83</v>
+            <v>78</v>
+          </cell>
+          <cell r="E105" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H105">
-            <v>83989</v>
+            <v>34722</v>
           </cell>
           <cell r="I105">
-            <v>83989</v>
+            <v>34722</v>
           </cell>
           <cell r="K105">
-            <v>62</v>
+            <v>64</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C106">
-            <v>1065</v>
+            <v>330</v>
           </cell>
           <cell r="D106">
-            <v>91</v>
+            <v>84</v>
           </cell>
           <cell r="H106">
-            <v>79883</v>
+            <v>29191</v>
           </cell>
           <cell r="I106">
-            <v>79883</v>
+            <v>29191</v>
           </cell>
           <cell r="K106">
-            <v>63</v>
+            <v>65</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C107">
-            <v>395</v>
+            <v>736</v>
           </cell>
           <cell r="D107">
-            <v>82</v>
+            <v>95</v>
           </cell>
           <cell r="H107">
-            <v>35118</v>
+            <v>48562</v>
           </cell>
           <cell r="I107">
-            <v>35118</v>
+            <v>24786</v>
           </cell>
           <cell r="K107">
-            <v>64</v>
+            <v>65</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C108">
-            <v>467</v>
+            <v>62</v>
           </cell>
           <cell r="D108">
-            <v>94</v>
+            <v>88</v>
           </cell>
           <cell r="H108">
-            <v>35062</v>
+            <v>6160</v>
           </cell>
           <cell r="I108">
-            <v>35062</v>
+            <v>6160</v>
           </cell>
           <cell r="K108">
-            <v>65</v>
+            <v>75</v>
           </cell>
         </row>
         <row r="109">
           <cell r="B109" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>326</v>
+            <v>61</v>
           </cell>
           <cell r="D109">
+            <v>107</v>
+          </cell>
+          <cell r="H109">
+            <v>5997</v>
+          </cell>
+          <cell r="I109">
+            <v>5997</v>
+          </cell>
+          <cell r="K109">
             <v>84</v>
-          </cell>
-          <cell r="H109">
-            <v>30577</v>
-          </cell>
-          <cell r="I109">
-            <v>30577</v>
-          </cell>
-          <cell r="K109">
-            <v>68</v>
           </cell>
         </row>
         <row r="110">
           <cell r="B110" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="C110">
-            <v>63</v>
+            <v>189</v>
           </cell>
           <cell r="D110">
+            <v>79</v>
+          </cell>
+          <cell r="E110" t="str">
+            <v>↓</v>
+          </cell>
+          <cell r="H110">
+            <v>26576</v>
+          </cell>
+          <cell r="I110">
+            <v>15020</v>
+          </cell>
+          <cell r="K110">
             <v>90</v>
-          </cell>
-          <cell r="H110">
-            <v>6322</v>
-          </cell>
-          <cell r="I110">
-            <v>6322</v>
-          </cell>
-          <cell r="K110">
-            <v>76</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C111">
-            <v>63</v>
+            <v>61</v>
           </cell>
           <cell r="D111">
-            <v>112</v>
+            <v>98</v>
           </cell>
           <cell r="H111">
-            <v>6213</v>
+            <v>5656</v>
           </cell>
           <cell r="I111">
-            <v>6213</v>
+            <v>5656</v>
           </cell>
           <cell r="K111">
-            <v>87</v>
+            <v>92</v>
           </cell>
         </row>
         <row r="112">
           <cell r="B112" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="C112">
-            <v>61</v>
+            <v>67</v>
           </cell>
           <cell r="D112">
-            <v>100</v>
+            <v>93</v>
           </cell>
           <cell r="H112">
-            <v>5872</v>
+            <v>6863</v>
           </cell>
           <cell r="I112">
-            <v>5872</v>
+            <v>2893</v>
           </cell>
           <cell r="K112">
-            <v>95</v>
+            <v>97</v>
           </cell>
         </row>
         <row r="113">
@@ -5308,10 +5320,10 @@
             <v>Фп Ольха соплодия 20х1,5г</v>
           </cell>
           <cell r="C113">
-            <v>49</v>
+            <v>47</v>
           </cell>
           <cell r="D113">
-            <v>99</v>
+            <v>93</v>
           </cell>
           <cell r="F113">
             <v>72</v>
@@ -5320,13 +5332,13 @@
             <v>2</v>
           </cell>
           <cell r="H113">
-            <v>6073</v>
+            <v>6001</v>
           </cell>
           <cell r="I113">
-            <v>6073</v>
+            <v>6001</v>
           </cell>
           <cell r="K113">
-            <v>121</v>
+            <v>127</v>
           </cell>
         </row>
         <row r="114">
@@ -5345,7 +5357,7 @@
             <v>!</v>
           </cell>
           <cell r="L115">
-            <v>15</v>
+            <v>13</v>
           </cell>
           <cell r="M115">
             <v>10407</v>
@@ -5353,100 +5365,109 @@
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
           </cell>
           <cell r="C116">
-            <v>512</v>
+            <v>107</v>
           </cell>
           <cell r="D116">
-            <v>86</v>
+            <v>78</v>
+          </cell>
+          <cell r="E116" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H116">
-            <v>14595</v>
+            <v>2659</v>
           </cell>
           <cell r="I116">
-            <v>14595</v>
+            <v>2659</v>
           </cell>
           <cell r="K116">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="L116">
-            <v>15</v>
+            <v>16</v>
           </cell>
           <cell r="M116">
-            <v>19987</v>
+            <v>4875</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C117">
-            <v>107</v>
+            <v>594</v>
           </cell>
           <cell r="D117">
-            <v>79</v>
-          </cell>
-          <cell r="E117" t="str">
-            <v>↓</v>
+            <v>92</v>
           </cell>
           <cell r="H117">
-            <v>2803</v>
+            <v>13754</v>
           </cell>
           <cell r="I117">
-            <v>2803</v>
-          </cell>
-          <cell r="J117" t="str">
-            <v>!!!</v>
+            <v>13754</v>
           </cell>
           <cell r="K117">
             <v>17</v>
           </cell>
+          <cell r="L117">
+            <v>15</v>
+          </cell>
+          <cell r="M117">
+            <v>19813</v>
+          </cell>
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C118">
-            <v>607</v>
+            <v>320</v>
           </cell>
           <cell r="D118">
-            <v>95</v>
+            <v>98</v>
           </cell>
           <cell r="H118">
-            <v>14600</v>
+            <v>7533</v>
           </cell>
           <cell r="I118">
-            <v>14600</v>
+            <v>7533</v>
           </cell>
           <cell r="K118">
             <v>18</v>
           </cell>
           <cell r="L118">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="M118">
-            <v>19813</v>
+            <v>7312</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C119">
-            <v>319</v>
+            <v>1415</v>
           </cell>
           <cell r="D119">
-            <v>99</v>
+            <v>91</v>
           </cell>
           <cell r="H119">
-            <v>8631</v>
+            <v>34763</v>
           </cell>
           <cell r="I119">
-            <v>8631</v>
+            <v>34763</v>
           </cell>
           <cell r="K119">
             <v>21</v>
+          </cell>
+          <cell r="L119">
+            <v>20</v>
+          </cell>
+          <cell r="M119">
+            <v>19813</v>
           </cell>
         </row>
         <row r="120">
@@ -5457,62 +5478,62 @@
             <v>369</v>
           </cell>
           <cell r="D120">
-            <v>74</v>
+            <v>72</v>
           </cell>
           <cell r="E120" t="str">
             <v>↓</v>
           </cell>
           <cell r="H120">
-            <v>13284</v>
+            <v>12870</v>
           </cell>
           <cell r="I120">
-            <v>13284</v>
+            <v>12870</v>
           </cell>
           <cell r="K120">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>1392</v>
+            <v>58</v>
           </cell>
           <cell r="D121">
-            <v>91</v>
+            <v>126</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H121">
-            <v>38533</v>
+            <v>1807</v>
           </cell>
           <cell r="I121">
-            <v>38533</v>
+            <v>1807</v>
           </cell>
           <cell r="K121">
-            <v>23</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>59</v>
+            <v>517</v>
           </cell>
           <cell r="D122">
-            <v>126</v>
-          </cell>
-          <cell r="E122" t="str">
-            <v>↑</v>
+            <v>85</v>
           </cell>
           <cell r="H122">
-            <v>1951</v>
+            <v>34262</v>
           </cell>
           <cell r="I122">
-            <v>1951</v>
+            <v>13856</v>
           </cell>
           <cell r="K122">
-            <v>33</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="123">
@@ -5520,19 +5541,19 @@
             <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>270</v>
+            <v>246</v>
           </cell>
           <cell r="D123">
-            <v>101</v>
+            <v>92</v>
           </cell>
           <cell r="H123">
-            <v>11788</v>
+            <v>11752</v>
           </cell>
           <cell r="I123">
-            <v>1888</v>
+            <v>11752</v>
           </cell>
           <cell r="K123">
-            <v>43</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="124">
@@ -5540,28 +5561,22 @@
             <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C124">
-            <v>1477</v>
+            <v>1473</v>
           </cell>
           <cell r="D124">
-            <v>70</v>
+            <v>69</v>
           </cell>
           <cell r="E124" t="str">
             <v>↓</v>
           </cell>
           <cell r="H124">
-            <v>124664</v>
+            <v>166941</v>
           </cell>
           <cell r="I124">
-            <v>40867</v>
+            <v>122265</v>
           </cell>
           <cell r="K124">
-            <v>49</v>
-          </cell>
-          <cell r="L124">
-            <v>12</v>
-          </cell>
-          <cell r="M124">
-            <v>41740</v>
+            <v>70</v>
           </cell>
         </row>
       </sheetData>
@@ -5861,8 +5876,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,11 +5926,11 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81440</v>
+        <v>81408</v>
       </c>
       <c r="D3" s="3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5941,11 +5956,11 @@
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>38451</v>
+        <v>32213</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5971,11 +5986,11 @@
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5474</v>
+        <v>5180</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5983,7 +5998,7 @@
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6000,11 +6015,11 @@
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1722</v>
+        <v>1554</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6012,7 +6027,7 @@
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-01</v>
       </c>
       <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6025,52 +6040,52 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>39242</v>
+        <v>7255</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H8" s="34">
         <f>VLOOKUP(A8,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>39400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11197</v>
+        <v>65730</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6078,12 +6093,12 @@
       </c>
       <c r="H9" s="34">
         <f>VLOOKUP(A9,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>8209</v>
+        <v>42553</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6091,44 +6106,44 @@
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17804</v>
+        <v>3821</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-05</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H10" s="34">
         <f>VLOOKUP(A10,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7816</v>
+        <v>9895</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-07</v>
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6141,7 +6156,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6149,15 +6164,15 @@
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>71309</v>
+        <v>57906</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="29" t="str">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-06</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G12" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6170,23 +6185,23 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>61366</v>
+        <v>10346</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G13" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6199,31 +6214,31 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10612</v>
+        <v>16786</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-08</v>
       </c>
       <c r="G14" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H14" s="34">
         <f>VLOOKUP(A14,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>24166</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6236,7 +6251,7 @@
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19540</v>
+        <v>18950</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6244,7 +6259,7 @@
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G15" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6257,7 +6272,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6265,15 +6280,15 @@
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17481</v>
+        <v>41272</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G16" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6286,7 +6301,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6294,28 +6309,28 @@
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4243</v>
+        <v>17401</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H17" s="34">
         <f>VLOOKUP(A17,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>23344</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6323,15 +6338,15 @@
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11492</v>
+        <v>18968</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6344,7 +6359,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6352,15 +6367,15 @@
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43848</v>
+        <v>33684</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6373,23 +6388,23 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12087</v>
+        <v>8123</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6402,36 +6417,36 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19486</v>
+        <v>12611</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H21" s="34">
         <f>VLOOKUP(A21,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6439,7 +6454,7 @@
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18955</v>
+        <v>11219</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6447,7 +6462,7 @@
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G22" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6460,7 +6475,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6468,15 +6483,15 @@
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35992</v>
+        <v>16795</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6489,7 +6504,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6497,15 +6512,15 @@
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9033</v>
+        <v>11136</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G24" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6518,23 +6533,23 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14096</v>
+        <v>19079</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6547,7 +6562,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6555,23 +6570,23 @@
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>20249</v>
+        <v>26575</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H26" s="34">
         <f>VLOOKUP(A26,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>15103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6580,11 +6595,11 @@
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32532</v>
+        <v>32466</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6592,7 +6607,7 @@
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6605,23 +6620,23 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17691</v>
+        <v>10754</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6634,23 +6649,23 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11752</v>
+        <v>19096</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6663,23 +6678,23 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27737</v>
+        <v>67012</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G30" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6692,23 +6707,23 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10913</v>
+        <v>17389</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6721,23 +6736,23 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19830</v>
-      </c>
-      <c r="D32" s="8">
+        <v>17400</v>
+      </c>
+      <c r="D32" s="8" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>inf</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G32" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6750,23 +6765,23 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17960</v>
-      </c>
-      <c r="D33" s="8" t="str">
+        <v>28340</v>
+      </c>
+      <c r="D33" s="8">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>44</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G33" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6779,7 +6794,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6787,15 +6802,15 @@
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18809</v>
+        <v>21593</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6808,23 +6823,23 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29892</v>
+        <v>18692</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6837,23 +6852,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19167</v>
+        <v>47150</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6866,7 +6881,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6874,15 +6889,15 @@
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>22013</v>
+        <v>42098</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6895,23 +6910,23 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>49768</v>
+        <v>16068</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6924,7 +6939,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6932,15 +6947,15 @@
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44385</v>
+        <v>13549</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G39" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6953,23 +6968,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17048</v>
+        <v>26228</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6982,7 +6997,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6990,15 +7005,15 @@
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>41239</v>
+        <v>27622</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7011,23 +7026,23 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26858</v>
+        <v>35049</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-28</v>
       </c>
       <c r="G42" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7040,23 +7055,23 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13885</v>
+        <v>40804</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G43" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7069,23 +7084,23 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28049</v>
+        <v>10200</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2023-01-02</v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7098,23 +7113,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10550</v>
+        <v>32437</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-28</v>
+        <v>2023-01-02</v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7127,23 +7142,23 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33249</v>
+        <v>21247</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-30</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7156,23 +7171,23 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21723</v>
+        <v>7363</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7185,23 +7200,23 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7713</v>
+        <v>35215</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G48" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7222,7 +7237,7 @@
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8927</v>
+        <v>8759</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7230,7 +7245,7 @@
       </c>
       <c r="E49" s="29" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G49" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7247,11 +7262,11 @@
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>49490</v>
+        <v>45935</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7259,7 +7274,7 @@
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-26</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7290,7 +7305,7 @@
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7311,81 +7326,81 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2471</v>
+        <v>11676</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E53" s="29" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-29</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G53" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H53" s="34">
         <f>VLOOKUP(A53,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8679</v>
+        <v>4770</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E54" s="29" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-30</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G54" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H54" s="34">
         <f>VLOOKUP(A54,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>4062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4952</v>
+        <v>4380</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7406,7 +7421,7 @@
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3470</v>
+        <v>3400</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7414,15 +7429,15 @@
       </c>
       <c r="E56" s="29" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G56" s="33" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H56" s="34">
         <f>VLOOKUP(A56,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -7431,11 +7446,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9350</v>
+        <v>9260</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7460,11 +7475,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7940</v>
+        <v>7830</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7528,11 +7543,11 @@
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>990</v>
+        <v>972</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7557,7 +7572,7 @@
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -7569,7 +7584,7 @@
       </c>
       <c r="E62" s="29" t="str">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-28</v>
+        <v>2022-11-29</v>
       </c>
       <c r="G62" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7582,81 +7597,81 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3046</v>
+        <v>85247</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G63" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H63" s="34">
         <f>VLOOKUP(A63,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>40216</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>128743</v>
+        <v>4764</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G64" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>49249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>87234</v>
+        <v>169879</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E65" s="29" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G65" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7664,12 +7679,12 @@
       </c>
       <c r="H65" s="34">
         <f>VLOOKUP(A65,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40216</v>
+        <v>51267</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7677,15 +7692,15 @@
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25272</v>
+        <v>49400</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7693,86 +7708,86 @@
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>24261</v>
+        <v>29547</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5070</v>
+        <v>72211</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-19</v>
       </c>
       <c r="G67" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H67" s="34">
         <f>VLOOKUP(A67,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>30485</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15688</v>
+        <v>74643</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H68" s="34">
         <f>VLOOKUP(A68,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>52786</v>
+        <v>38789</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7785,52 +7800,52 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32689</v>
+        <v>512496</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H70" s="34">
         <f>VLOOKUP(A70,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>73882</v>
+        <v>5398</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7843,23 +7858,23 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>521643</v>
+        <v>77597</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E72" s="29" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7872,23 +7887,23 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>75831</v>
+        <v>43950</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2023-01-02</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7901,81 +7916,81 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40085</v>
+        <v>59181</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2023-01-02</v>
       </c>
       <c r="G74" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H74" s="34">
         <f>VLOOKUP(A74,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>26263</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>61785</v>
+        <v>42174</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G75" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H75" s="34">
         <f>VLOOKUP(A75,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>44655</v>
+        <v>53820</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-06</v>
       </c>
       <c r="G76" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7988,23 +8003,23 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59956</v>
+        <v>204529</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-06</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8017,15 +8032,15 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>79577</v>
+        <v>30732</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8033,7 +8048,7 @@
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2023-01-06</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8046,23 +8061,23 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5866</v>
+        <v>25162</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-30</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8075,23 +8090,23 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>53893</v>
+        <v>63928</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8104,23 +8119,23 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>211675</v>
+        <v>39834</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E81" s="29" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G81" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8133,23 +8148,23 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31326</v>
+        <v>30230</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8162,23 +8177,23 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40914</v>
+        <v>33658</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8191,23 +8206,23 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>31130</v>
+        <v>1459368</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8220,52 +8235,52 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>15218</v>
+        <v>96255</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G85" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H85" s="34">
         <f>VLOOKUP(A85,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>11416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>68392</v>
+        <v>63667</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-11</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G86" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8278,23 +8293,23 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35062</v>
+        <v>78545</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-12</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8307,23 +8322,23 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>65367</v>
+        <v>29191</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-18</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8336,23 +8351,23 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1504217</v>
+        <v>5997</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-20</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8365,23 +8380,23 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>79883</v>
+        <v>59657</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-23</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8394,23 +8409,23 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59911</v>
+        <v>6863</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-17</v>
+        <v>2023-01-24</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8423,23 +8438,23 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30577</v>
+        <v>48562</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-18</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8452,23 +8467,23 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6213</v>
+        <v>34722</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-18</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8481,23 +8496,23 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35118</v>
+        <v>81702</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-30</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8510,7 +8525,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8518,15 +8533,15 @@
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>83989</v>
+        <v>6160</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-27</v>
+        <v>2023-01-31</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8539,23 +8554,23 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6322</v>
+        <v>52793</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-30</v>
+        <v>2023-02-13</v>
       </c>
       <c r="G96" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8568,23 +8583,23 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>53478</v>
+        <v>5656</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-10</v>
+        <v>2023-02-15</v>
       </c>
       <c r="G97" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8597,23 +8612,23 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5872</v>
+        <v>26576</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E98" s="29" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-15</v>
+        <v>2023-02-22</v>
       </c>
       <c r="G98" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8630,7 +8645,7 @@
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8663,7 +8678,7 @@
       </c>
       <c r="C100" s="7">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6073</v>
+        <v>6001</v>
       </c>
       <c r="D100" s="8" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8671,7 +8686,7 @@
       </c>
       <c r="E100" s="29" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-07-18</v>
+        <v>2023-07-20</v>
       </c>
       <c r="G100" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8688,7 +8703,7 @@
       </c>
       <c r="B101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C101" s="7">
         <f>VLOOKUP(A101,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8717,7 +8732,7 @@
       </c>
       <c r="B102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" s="7">
         <f>VLOOKUP(A102,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8746,7 +8761,7 @@
       </c>
       <c r="B103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C103" s="7">
         <f>VLOOKUP(A103,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
@@ -8781,23 +8796,23 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="5">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14600</v>
+        <v>7533</v>
       </c>
       <c r="D105" s="6">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E105" s="29" t="str">
         <f>VLOOKUP(A105,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G105" s="33" t="str">
         <f t="shared" ref="G105:G113" si="3">IF(H105&gt;0,"•","")</f>
@@ -8805,20 +8820,20 @@
       </c>
       <c r="H105" s="34">
         <f>VLOOKUP(A105,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19813</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="7">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>14595</v>
+        <v>13754</v>
       </c>
       <c r="D106" s="8">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8826,7 +8841,7 @@
       </c>
       <c r="E106" s="29" t="str">
         <f>VLOOKUP(A106,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G106" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8834,70 +8849,70 @@
       </c>
       <c r="H106" s="34">
         <f>VLOOKUP(A106,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>19987</v>
+        <v>19813</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="7">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8631</v>
+        <v>2659</v>
       </c>
       <c r="D107" s="8">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E107" s="29" t="str">
         <f>VLOOKUP(A107,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G107" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H107" s="34">
         <f>VLOOKUP(A107,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C108" s="7">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>2803</v>
+        <v>34763</v>
       </c>
       <c r="D108" s="8">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E108" s="29" t="str">
         <f>VLOOKUP(A108,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-02</v>
+        <v>2022-12-09</v>
       </c>
       <c r="G108" s="33" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H108" s="34">
         <f>VLOOKUP(A108,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>19813</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8905,15 +8920,15 @@
       </c>
       <c r="C109" s="7">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>38533</v>
+        <v>1807</v>
       </c>
       <c r="D109" s="8">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E109" s="29" t="str">
         <f>VLOOKUP(A109,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-08</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G109" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8926,23 +8941,23 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="7">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1951</v>
+        <v>12870</v>
       </c>
       <c r="D110" s="8">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E110" s="29" t="str">
         <f>VLOOKUP(A110,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G110" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8955,23 +8970,23 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C111" s="7">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13284</v>
+        <v>34262</v>
       </c>
       <c r="D111" s="8">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E111" s="29" t="str">
         <f>VLOOKUP(A111,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-12</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G111" s="33" t="str">
         <f t="shared" si="3"/>
@@ -8984,52 +8999,52 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C112" s="7">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>124664</v>
+        <v>11752</v>
       </c>
       <c r="D112" s="8">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E112" s="29" t="str">
         <f>VLOOKUP(A112,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-05</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G112" s="33" t="str">
         <f t="shared" si="3"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H112" s="34">
         <f>VLOOKUP(A112,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>41740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C113" s="9">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11788</v>
+        <v>166941</v>
       </c>
       <c r="D113" s="10">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E113" s="29" t="str">
         <f>VLOOKUP(A113,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-02-01</v>
       </c>
       <c r="G113" s="33" t="str">
         <f t="shared" si="3"/>
@@ -9047,7 +9062,7 @@
       <c r="B114" s="15"/>
       <c r="C114" s="17">
         <f>SUM(C105:C113)+SUM(C60:C103)+SUM(C52:C58)+SUM(C5:C50)+C3</f>
-        <v>5169857</v>
+        <v>5286861</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>

--- a/stock_analysis_final.xlsx
+++ b/stock_analysis_final.xlsx
@@ -907,10 +907,10 @@
             <v>Контрактная площадка</v>
           </cell>
           <cell r="C2">
-            <v>125</v>
+            <v>123</v>
           </cell>
           <cell r="D2">
-            <v>81408</v>
+            <v>81376</v>
           </cell>
           <cell r="E2">
             <v>199</v>
@@ -921,19 +921,19 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="B3" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C3">
-            <v>9</v>
+            <v>7</v>
           </cell>
           <cell r="D3">
-            <v>32213</v>
+            <v>3052</v>
           </cell>
           <cell r="E3">
-            <v>30</v>
+            <v>32</v>
           </cell>
           <cell r="F3" t="str">
             <v>2022-11-28</v>
@@ -947,21 +947,21 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C4">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="D4">
-            <v>1554</v>
+            <v>1512</v>
           </cell>
           <cell r="E4">
             <v>51</v>
           </cell>
           <cell r="F4" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-02</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="B5" t="str">
             <v>Линия ББЛ</v>
@@ -970,70 +970,70 @@
             <v>12</v>
           </cell>
           <cell r="D5">
-            <v>5180</v>
+            <v>7574</v>
           </cell>
           <cell r="E5">
-            <v>32</v>
+            <v>40</v>
           </cell>
           <cell r="F5" t="str">
-            <v>2022-12-01</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="B6" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C6">
-            <v>16</v>
+            <v>12</v>
           </cell>
           <cell r="D6">
-            <v>7255</v>
+            <v>6871</v>
           </cell>
           <cell r="E6">
-            <v>35</v>
+            <v>31</v>
           </cell>
           <cell r="F6" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-05</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="B7" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C7">
-            <v>16</v>
+            <v>13</v>
           </cell>
           <cell r="D7">
-            <v>65730</v>
+            <v>3317</v>
           </cell>
           <cell r="E7">
-            <v>32</v>
+            <v>37</v>
           </cell>
           <cell r="F7" t="str">
-            <v>2022-12-07</v>
+            <v>2022-12-06</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="B8" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C8">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="D8">
-            <v>3821</v>
+            <v>6121</v>
           </cell>
           <cell r="E8">
-            <v>37</v>
+            <v>35</v>
           </cell>
           <cell r="F8" t="str">
             <v>2022-12-07</v>
@@ -1041,19 +1041,19 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="B9" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C9">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="D9">
-            <v>9895</v>
+            <v>15674</v>
           </cell>
           <cell r="E9">
-            <v>31</v>
+            <v>33</v>
           </cell>
           <cell r="F9" t="str">
             <v>2022-12-07</v>
@@ -1067,10 +1067,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C10">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D10">
-            <v>57906</v>
+            <v>49828</v>
           </cell>
           <cell r="E10">
             <v>39</v>
@@ -1081,16 +1081,16 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="B11" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C11">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D11">
-            <v>16786</v>
+            <v>14251</v>
           </cell>
           <cell r="E11">
             <v>43</v>
@@ -1101,19 +1101,19 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="B12" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C12">
-            <v>17</v>
+            <v>15</v>
           </cell>
           <cell r="D12">
-            <v>10346</v>
+            <v>36512</v>
           </cell>
           <cell r="E12">
-            <v>40</v>
+            <v>45</v>
           </cell>
           <cell r="F12" t="str">
             <v>2022-12-08</v>
@@ -1121,19 +1121,19 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="B13" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C13">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="D13">
-            <v>18950</v>
+            <v>15916</v>
           </cell>
           <cell r="E13">
-            <v>33</v>
+            <v>35</v>
           </cell>
           <cell r="F13" t="str">
             <v>2022-12-09</v>
@@ -1141,19 +1141,19 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="B14" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C14">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="D14">
-            <v>17401</v>
+            <v>61891</v>
           </cell>
           <cell r="E14">
-            <v>43</v>
+            <v>30</v>
           </cell>
           <cell r="F14" t="str">
             <v>2022-12-09</v>
@@ -1161,22 +1161,22 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="B15" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C15">
-            <v>18</v>
+            <v>17</v>
           </cell>
           <cell r="D15">
-            <v>41272</v>
+            <v>9301</v>
           </cell>
           <cell r="E15">
-            <v>45</v>
+            <v>43</v>
           </cell>
           <cell r="F15" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-12</v>
           </cell>
         </row>
         <row r="16">
@@ -1187,10 +1187,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C16">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D16">
-            <v>12611</v>
+            <v>11309</v>
           </cell>
           <cell r="E16">
             <v>43</v>
@@ -1201,16 +1201,16 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="B17" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C17">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D17">
-            <v>18968</v>
+            <v>9176</v>
           </cell>
           <cell r="E17">
             <v>35</v>
@@ -1227,10 +1227,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C18">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D18">
-            <v>8123</v>
+            <v>7381</v>
           </cell>
           <cell r="E18">
             <v>51</v>
@@ -1247,10 +1247,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C19">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="D19">
-            <v>33684</v>
+            <v>29302</v>
           </cell>
           <cell r="E19">
             <v>37</v>
@@ -1261,19 +1261,19 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="B20" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C20">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="D20">
-            <v>11219</v>
+            <v>22907</v>
           </cell>
           <cell r="E20">
-            <v>43</v>
+            <v>39</v>
           </cell>
           <cell r="F20" t="str">
             <v>2022-12-13</v>
@@ -1281,39 +1281,39 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="B21" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C21">
-            <v>21</v>
+            <v>18</v>
           </cell>
           <cell r="D21">
-            <v>16795</v>
+            <v>13972</v>
           </cell>
           <cell r="E21">
-            <v>32</v>
+            <v>43</v>
           </cell>
           <cell r="F21" t="str">
-            <v>2022-12-14</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="B22" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C22">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="D22">
-            <v>11136</v>
+            <v>16853</v>
           </cell>
           <cell r="E22">
-            <v>35</v>
+            <v>31</v>
           </cell>
           <cell r="F22" t="str">
             <v>2022-12-14</v>
@@ -1321,119 +1321,119 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="B23" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C23">
-            <v>22</v>
+            <v>19</v>
           </cell>
           <cell r="D23">
-            <v>26575</v>
+            <v>14793</v>
           </cell>
           <cell r="E23">
-            <v>39</v>
+            <v>32</v>
           </cell>
           <cell r="F23" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="B24" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C24">
-            <v>22</v>
+            <v>21</v>
           </cell>
           <cell r="D24">
-            <v>19079</v>
+            <v>95294</v>
           </cell>
           <cell r="E24">
-            <v>31</v>
+            <v>32</v>
           </cell>
           <cell r="F24" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="B25" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C25">
-            <v>24</v>
+            <v>21</v>
           </cell>
           <cell r="D25">
-            <v>32466</v>
+            <v>9648</v>
           </cell>
           <cell r="E25">
-            <v>112</v>
+            <v>30</v>
           </cell>
           <cell r="F25" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="B26" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C26">
-            <v>24</v>
+            <v>21</v>
           </cell>
           <cell r="D26">
-            <v>10754</v>
+            <v>55560</v>
           </cell>
           <cell r="E26">
             <v>30</v>
           </cell>
           <cell r="F26" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="B27" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C27">
-            <v>24</v>
+            <v>23</v>
           </cell>
           <cell r="D27">
-            <v>19096</v>
+            <v>24700</v>
           </cell>
           <cell r="E27">
-            <v>43</v>
+            <v>44</v>
           </cell>
           <cell r="F27" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Тысячелистник трава 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="B28" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C28">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="D28">
-            <v>17389</v>
+            <v>38512</v>
           </cell>
           <cell r="E28">
-            <v>35</v>
+            <v>29</v>
           </cell>
           <cell r="F28" t="str">
             <v>2022-12-20</v>
@@ -1441,39 +1441,39 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="B29" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C29">
-            <v>25</v>
+            <v>24</v>
           </cell>
           <cell r="D29">
-            <v>67012</v>
+            <v>36904</v>
           </cell>
           <cell r="E29">
-            <v>30</v>
+            <v>31</v>
           </cell>
           <cell r="F29" t="str">
-            <v>2022-12-20</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Мать-и-мачеха листья 35г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="B30" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C30">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D30">
-            <v>28340</v>
+            <v>19087</v>
           </cell>
           <cell r="E30">
-            <v>44</v>
+            <v>38</v>
           </cell>
           <cell r="F30" t="str">
             <v>2022-12-21</v>
@@ -1481,19 +1481,19 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="B31" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C31">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="D31">
-            <v>17400</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>inf</v>
+            <v>13870</v>
+          </cell>
+          <cell r="E31">
+            <v>41</v>
           </cell>
           <cell r="F31" t="str">
             <v>2022-12-21</v>
@@ -1501,119 +1501,119 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="B32" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C32">
-            <v>27</v>
+            <v>24</v>
           </cell>
           <cell r="D32">
-            <v>21593</v>
-          </cell>
-          <cell r="E32">
-            <v>38</v>
+            <v>15944</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>inf</v>
           </cell>
           <cell r="F32" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Пижма цветки 75г</v>
           </cell>
           <cell r="B33" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C33">
-            <v>28</v>
+            <v>24</v>
           </cell>
           <cell r="D33">
-            <v>42098</v>
+            <v>15654</v>
           </cell>
           <cell r="E33">
             <v>31</v>
           </cell>
           <cell r="F33" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Ламинарии слоевища (морская капуста) 100г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="B34" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C34">
-            <v>28</v>
+            <v>24</v>
           </cell>
           <cell r="D34">
-            <v>16068</v>
+            <v>31444</v>
           </cell>
           <cell r="E34">
-            <v>41</v>
+            <v>112</v>
           </cell>
           <cell r="F34" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Пижма цветки 75г</v>
+            <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="B35" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C35">
-            <v>28</v>
+            <v>24</v>
           </cell>
           <cell r="D35">
-            <v>18692</v>
+            <v>16423</v>
           </cell>
           <cell r="E35">
-            <v>31</v>
+            <v>35</v>
           </cell>
           <cell r="F35" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="B36" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C36">
-            <v>28</v>
+            <v>25</v>
           </cell>
           <cell r="D36">
-            <v>47150</v>
+            <v>11421</v>
           </cell>
           <cell r="E36">
-            <v>29</v>
+            <v>33</v>
           </cell>
           <cell r="F36" t="str">
-            <v>2022-12-23</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Череда трава 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="B37" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C37">
-            <v>29</v>
+            <v>27</v>
           </cell>
           <cell r="D37">
-            <v>13549</v>
+            <v>31745</v>
           </cell>
           <cell r="E37">
-            <v>33</v>
+            <v>30</v>
           </cell>
           <cell r="F37" t="str">
             <v>2022-12-26</v>
@@ -1621,59 +1621,59 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>Липа цветки 35г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="B38" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C38">
-            <v>30</v>
+            <v>27</v>
           </cell>
           <cell r="D38">
-            <v>26228</v>
+            <v>24738</v>
           </cell>
           <cell r="E38">
-            <v>48</v>
+            <v>37</v>
           </cell>
           <cell r="F38" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="B39" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C39">
-            <v>30</v>
+            <v>27</v>
           </cell>
           <cell r="D39">
-            <v>27622</v>
+            <v>36604</v>
           </cell>
           <cell r="E39">
-            <v>37</v>
+            <v>92</v>
           </cell>
           <cell r="F39" t="str">
-            <v>2022-12-27</v>
+            <v>2022-12-26</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Липа цветки 35г</v>
           </cell>
           <cell r="B40" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C40">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="D40">
-            <v>35049</v>
+            <v>25304</v>
           </cell>
           <cell r="E40">
-            <v>30</v>
+            <v>48</v>
           </cell>
           <cell r="F40" t="str">
             <v>2022-12-28</v>
@@ -1681,19 +1681,19 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="B41" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C41">
-            <v>32</v>
+            <v>30</v>
           </cell>
           <cell r="D41">
-            <v>40804</v>
+            <v>28559</v>
           </cell>
           <cell r="E41">
-            <v>92</v>
+            <v>33</v>
           </cell>
           <cell r="F41" t="str">
             <v>2022-12-29</v>
@@ -1707,93 +1707,93 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C42">
-            <v>34</v>
+            <v>35</v>
           </cell>
           <cell r="D42">
-            <v>10200</v>
+            <v>10088</v>
           </cell>
           <cell r="E42">
             <v>76</v>
           </cell>
           <cell r="F42" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="B43" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C43">
-            <v>34</v>
+            <v>35</v>
           </cell>
           <cell r="D43">
-            <v>32437</v>
+            <v>18797</v>
           </cell>
           <cell r="E43">
-            <v>33</v>
+            <v>32</v>
           </cell>
           <cell r="F43" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="B44" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C44">
-            <v>39</v>
+            <v>41</v>
           </cell>
           <cell r="D44">
-            <v>21247</v>
+            <v>7307</v>
           </cell>
           <cell r="E44">
-            <v>32</v>
+            <v>72</v>
           </cell>
           <cell r="F44" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="B45" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C45">
-            <v>40</v>
+            <v>41</v>
           </cell>
           <cell r="D45">
-            <v>7363</v>
+            <v>32345</v>
           </cell>
           <cell r="E45">
-            <v>72</v>
+            <v>46</v>
           </cell>
           <cell r="F45" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-13</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>Эвкалипт прутовидный листья 75г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="B46" t="str">
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C46">
-            <v>44</v>
+            <v>42</v>
           </cell>
           <cell r="D46">
-            <v>35215</v>
+            <v>35556</v>
           </cell>
           <cell r="E46">
-            <v>46</v>
+            <v>43</v>
           </cell>
           <cell r="F46" t="str">
             <v>2023-01-16</v>
@@ -1807,10 +1807,10 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C47">
-            <v>46</v>
+            <v>44</v>
           </cell>
           <cell r="D47">
-            <v>8759</v>
+            <v>8255</v>
           </cell>
           <cell r="E47">
             <v>59</v>
@@ -1827,41 +1827,41 @@
             <v>Линия ББЛ</v>
           </cell>
           <cell r="C48">
-            <v>51</v>
+            <v>50</v>
           </cell>
           <cell r="D48">
-            <v>45935</v>
+            <v>44913</v>
           </cell>
           <cell r="E48">
             <v>40</v>
           </cell>
           <cell r="F48" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-26</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="B49" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C49">
-            <v>2</v>
+            <v>18</v>
           </cell>
           <cell r="D49">
-            <v>350</v>
+            <v>3830</v>
           </cell>
           <cell r="E49">
-            <v>115</v>
+            <v>84</v>
           </cell>
           <cell r="F49" t="str">
-            <v>2023-10-26</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="B50" t="str">
             <v>Линия ИМА С 21</v>
@@ -1870,90 +1870,90 @@
             <v>20</v>
           </cell>
           <cell r="D50">
-            <v>11676</v>
+            <v>3840</v>
           </cell>
           <cell r="E50">
-            <v>41</v>
+            <v>110</v>
           </cell>
           <cell r="F50" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-15</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
+            <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="B51" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C51">
-            <v>22</v>
+            <v>28</v>
           </cell>
           <cell r="D51">
-            <v>4770</v>
+            <v>15121</v>
           </cell>
           <cell r="E51">
-            <v>84</v>
+            <v>41</v>
           </cell>
           <cell r="F51" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-27</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="B52" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C52">
-            <v>23</v>
+            <v>72</v>
           </cell>
           <cell r="D52">
-            <v>4380</v>
+            <v>5610</v>
           </cell>
           <cell r="E52">
-            <v>110</v>
+            <v>102</v>
           </cell>
           <cell r="F52" t="str">
-            <v>2022-12-16</v>
+            <v>2023-02-27</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
+            <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="B53" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C53">
-            <v>45</v>
+            <v>243</v>
           </cell>
           <cell r="D53">
-            <v>3400</v>
+            <v>7700</v>
           </cell>
           <cell r="E53">
-            <v>102</v>
-          </cell>
-          <cell r="F53" t="str">
-            <v>2023-01-17</v>
+            <v>112</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
+            <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="B54" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C54">
-            <v>245</v>
+            <v>243</v>
           </cell>
           <cell r="D54">
-            <v>7830</v>
+            <v>9110</v>
           </cell>
           <cell r="E54">
-            <v>112</v>
+            <v>1365</v>
           </cell>
           <cell r="F54">
             <v>0</v>
@@ -1961,19 +1961,16 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="B55" t="str">
             <v>Линия ИМА С 21</v>
           </cell>
           <cell r="C55">
-            <v>245</v>
-          </cell>
-          <cell r="D55">
-            <v>9260</v>
+            <v>243</v>
           </cell>
           <cell r="E55">
-            <v>1365</v>
+            <v>115</v>
           </cell>
           <cell r="F55">
             <v>0</v>
@@ -1990,7 +1987,7 @@
             <v>2</v>
           </cell>
           <cell r="D56">
-            <v>1692</v>
+            <v>1386</v>
           </cell>
           <cell r="E56">
             <v>257</v>
@@ -2007,16 +2004,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C57">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="D57">
-            <v>972</v>
+            <v>864</v>
           </cell>
           <cell r="E57">
             <v>286</v>
           </cell>
           <cell r="F57" t="str">
-            <v>2022-11-24</v>
+            <v>2023-10-31</v>
           </cell>
         </row>
         <row r="58">
@@ -2027,10 +2024,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C58">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="D58">
-            <v>1746</v>
+            <v>1638</v>
           </cell>
           <cell r="E58">
             <v>50</v>
@@ -2041,162 +2038,162 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="B59" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C59">
-            <v>20</v>
+            <v>21</v>
           </cell>
           <cell r="D59">
-            <v>85247</v>
+            <v>153157</v>
           </cell>
           <cell r="E59">
-            <v>52</v>
+            <v>28</v>
           </cell>
           <cell r="F59" t="str">
-            <v>2022-12-13</v>
+            <v>2022-12-16</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="B60" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C60">
-            <v>22</v>
+            <v>23</v>
           </cell>
           <cell r="D60">
-            <v>4764</v>
+            <v>67407</v>
           </cell>
           <cell r="E60">
-            <v>34</v>
+            <v>35</v>
           </cell>
           <cell r="F60" t="str">
-            <v>2022-12-15</v>
+            <v>2022-12-20</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="B61" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C61">
-            <v>23</v>
+            <v>24</v>
           </cell>
           <cell r="D61">
-            <v>169879</v>
+            <v>35981</v>
           </cell>
           <cell r="E61">
-            <v>28</v>
+            <v>32</v>
           </cell>
           <cell r="F61" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-21</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="B62" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C62">
-            <v>23</v>
+            <v>25</v>
           </cell>
           <cell r="D62">
-            <v>49400</v>
+            <v>462852</v>
           </cell>
           <cell r="E62">
-            <v>28</v>
+            <v>96</v>
           </cell>
           <cell r="F62" t="str">
-            <v>2022-12-16</v>
+            <v>2022-12-22</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="B63" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C63">
-            <v>24</v>
+            <v>26</v>
           </cell>
           <cell r="D63">
-            <v>72211</v>
+            <v>112674</v>
           </cell>
           <cell r="E63">
-            <v>32</v>
+            <v>52</v>
           </cell>
           <cell r="F63" t="str">
-            <v>2022-12-19</v>
+            <v>2022-12-23</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="B64" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C64">
-            <v>26</v>
+            <v>30</v>
           </cell>
           <cell r="D64">
-            <v>38789</v>
+            <v>39108</v>
           </cell>
           <cell r="E64">
             <v>32</v>
           </cell>
           <cell r="F64" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-29</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="B65" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C65">
-            <v>26</v>
+            <v>31</v>
           </cell>
           <cell r="D65">
-            <v>74643</v>
+            <v>72251</v>
           </cell>
           <cell r="E65">
-            <v>35</v>
+            <v>29</v>
           </cell>
           <cell r="F65" t="str">
-            <v>2022-12-21</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="B66" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C66">
-            <v>27</v>
+            <v>31</v>
           </cell>
           <cell r="D66">
-            <v>512496</v>
+            <v>37962</v>
           </cell>
           <cell r="E66">
-            <v>96</v>
+            <v>30</v>
           </cell>
           <cell r="F66" t="str">
-            <v>2022-12-22</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="67">
@@ -2207,30 +2204,30 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C67">
-            <v>32</v>
+            <v>31</v>
           </cell>
           <cell r="D67">
-            <v>5398</v>
+            <v>5164</v>
           </cell>
           <cell r="E67">
             <v>38</v>
           </cell>
           <cell r="F67" t="str">
-            <v>2022-12-29</v>
+            <v>2022-12-30</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="B68" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C68">
-            <v>33</v>
+            <v>31</v>
           </cell>
           <cell r="D68">
-            <v>77597</v>
+            <v>26286</v>
           </cell>
           <cell r="E68">
             <v>29</v>
@@ -2241,7 +2238,7 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="B69" t="str">
             <v>Линия ИМА С 50</v>
@@ -2250,18 +2247,18 @@
             <v>34</v>
           </cell>
           <cell r="D69">
-            <v>59181</v>
+            <v>97429</v>
           </cell>
           <cell r="E69">
-            <v>61</v>
+            <v>32</v>
           </cell>
           <cell r="F69" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="B70" t="str">
             <v>Линия ИМА С 50</v>
@@ -2270,30 +2267,30 @@
             <v>34</v>
           </cell>
           <cell r="D70">
-            <v>43950</v>
+            <v>187033</v>
           </cell>
           <cell r="E70">
             <v>32</v>
           </cell>
           <cell r="F70" t="str">
-            <v>2023-01-02</v>
+            <v>2023-01-04</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="B71" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C71">
-            <v>36</v>
+            <v>34</v>
           </cell>
           <cell r="D71">
-            <v>42174</v>
+            <v>73114</v>
           </cell>
           <cell r="E71">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="F71" t="str">
             <v>2023-01-04</v>
@@ -2301,19 +2298,19 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="B72" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C72">
-            <v>38</v>
+            <v>36</v>
           </cell>
           <cell r="D72">
-            <v>204529</v>
+            <v>23758</v>
           </cell>
           <cell r="E72">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="F72" t="str">
             <v>2023-01-06</v>
@@ -2321,22 +2318,22 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="B73" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C73">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="D73">
-            <v>30732</v>
+            <v>59464</v>
           </cell>
           <cell r="E73">
             <v>29</v>
           </cell>
           <cell r="F73" t="str">
-            <v>2023-01-06</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="74">
@@ -2347,56 +2344,56 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C74">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="D74">
-            <v>53820</v>
+            <v>51534</v>
           </cell>
           <cell r="E74">
             <v>43</v>
           </cell>
           <cell r="F74" t="str">
-            <v>2023-01-06</v>
+            <v>2023-01-09</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="B75" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C75">
-            <v>39</v>
+            <v>38</v>
           </cell>
           <cell r="D75">
-            <v>25162</v>
+            <v>27170</v>
           </cell>
           <cell r="E75">
-            <v>28</v>
+            <v>37</v>
           </cell>
           <cell r="F75" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="B76" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C76">
-            <v>40</v>
+            <v>39</v>
           </cell>
           <cell r="D76">
-            <v>63928</v>
+            <v>1336014</v>
           </cell>
           <cell r="E76">
-            <v>29</v>
+            <v>31</v>
           </cell>
           <cell r="F76" t="str">
-            <v>2023-01-10</v>
+            <v>2023-01-11</v>
           </cell>
         </row>
         <row r="77">
@@ -2407,10 +2404,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C77">
-            <v>42</v>
+            <v>40</v>
           </cell>
           <cell r="D77">
-            <v>39834</v>
+            <v>38052</v>
           </cell>
           <cell r="E77">
             <v>53</v>
@@ -2421,62 +2418,62 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="B78" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C78">
-            <v>43</v>
+            <v>40</v>
           </cell>
           <cell r="D78">
-            <v>30230</v>
+            <v>31570</v>
           </cell>
           <cell r="E78">
-            <v>37</v>
+            <v>26</v>
           </cell>
           <cell r="F78" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-12</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="B79" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C79">
-            <v>43</v>
+            <v>42</v>
           </cell>
           <cell r="D79">
-            <v>33658</v>
+            <v>26365</v>
           </cell>
           <cell r="E79">
-            <v>26</v>
+            <v>32</v>
           </cell>
           <cell r="F79" t="str">
-            <v>2023-01-13</v>
+            <v>2023-01-16</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="B80" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C80">
-            <v>44</v>
+            <v>43</v>
           </cell>
           <cell r="D80">
-            <v>1459368</v>
+            <v>72659</v>
           </cell>
           <cell r="E80">
-            <v>31</v>
+            <v>29</v>
           </cell>
           <cell r="F80" t="str">
-            <v>2023-01-16</v>
+            <v>2023-01-17</v>
           </cell>
         </row>
         <row r="81">
@@ -2487,10 +2484,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C81">
-            <v>45</v>
+            <v>43</v>
           </cell>
           <cell r="D81">
-            <v>96255</v>
+            <v>91629</v>
           </cell>
           <cell r="E81">
             <v>32</v>
@@ -2507,10 +2504,10 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C82">
-            <v>45</v>
+            <v>43</v>
           </cell>
           <cell r="D82">
-            <v>63667</v>
+            <v>59941</v>
           </cell>
           <cell r="E82">
             <v>30</v>
@@ -2521,27 +2518,27 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="B83" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C83">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="D83">
-            <v>78545</v>
+            <v>55157</v>
           </cell>
           <cell r="E83">
-            <v>29</v>
+            <v>30</v>
           </cell>
           <cell r="F83" t="str">
-            <v>2023-01-18</v>
+            <v>2023-01-19</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="B84" t="str">
             <v>Линия ИМА С 50</v>
@@ -2550,78 +2547,78 @@
             <v>46</v>
           </cell>
           <cell r="D84">
-            <v>29191</v>
+            <v>5709</v>
           </cell>
           <cell r="E84">
-            <v>32</v>
+            <v>39</v>
           </cell>
           <cell r="F84" t="str">
-            <v>2023-01-18</v>
+            <v>2023-01-20</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>Фп Золототысячник трава 20х1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="B85" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C85">
-            <v>48</v>
+            <v>47</v>
           </cell>
           <cell r="D85">
-            <v>5997</v>
+            <v>44476</v>
           </cell>
           <cell r="E85">
-            <v>39</v>
+            <v>25</v>
           </cell>
           <cell r="F85" t="str">
-            <v>2023-01-20</v>
+            <v>2023-01-23</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Аир корневища 20x1,5г</v>
           </cell>
           <cell r="B86" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C86">
-            <v>49</v>
+            <v>48</v>
           </cell>
           <cell r="D86">
-            <v>59657</v>
+            <v>6503</v>
           </cell>
           <cell r="E86">
-            <v>30</v>
+            <v>43</v>
           </cell>
           <cell r="F86" t="str">
-            <v>2023-01-23</v>
+            <v>2023-01-24</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>Фп Аир корневища 20x1,5г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="B87" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C87">
-            <v>50</v>
+            <v>49</v>
           </cell>
           <cell r="D87">
-            <v>6863</v>
+            <v>31590</v>
           </cell>
           <cell r="E87">
-            <v>43</v>
+            <v>36</v>
           </cell>
           <cell r="F87" t="str">
-            <v>2023-01-24</v>
+            <v>2023-01-25</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="B88" t="str">
             <v>Линия ИМА С 50</v>
@@ -2630,38 +2627,38 @@
             <v>51</v>
           </cell>
           <cell r="D88">
-            <v>48562</v>
+            <v>83499</v>
           </cell>
           <cell r="E88">
-            <v>25</v>
+            <v>61</v>
           </cell>
           <cell r="F88" t="str">
-            <v>2023-01-25</v>
+            <v>2023-01-27</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="B89" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C89">
-            <v>52</v>
+            <v>51</v>
           </cell>
           <cell r="D89">
-            <v>34722</v>
+            <v>75006</v>
           </cell>
           <cell r="E89">
-            <v>36</v>
+            <v>44</v>
           </cell>
           <cell r="F89" t="str">
-            <v>2023-01-26</v>
+            <v>2023-01-27</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="B90" t="str">
             <v>Линия ИМА С 50</v>
@@ -2670,70 +2667,70 @@
             <v>54</v>
           </cell>
           <cell r="D90">
-            <v>81702</v>
+            <v>6034</v>
           </cell>
           <cell r="E90">
-            <v>44</v>
+            <v>37</v>
           </cell>
           <cell r="F90" t="str">
-            <v>2023-01-30</v>
+            <v>2023-02-01</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="B91" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C91">
-            <v>55</v>
+            <v>61</v>
           </cell>
           <cell r="D91">
-            <v>6160</v>
+            <v>49841</v>
           </cell>
           <cell r="E91">
-            <v>37</v>
+            <v>28</v>
           </cell>
           <cell r="F91" t="str">
-            <v>2023-01-31</v>
+            <v>2023-02-10</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="B92" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C92">
-            <v>64</v>
+            <v>63</v>
           </cell>
           <cell r="D92">
-            <v>52793</v>
+            <v>5152</v>
           </cell>
           <cell r="E92">
-            <v>28</v>
+            <v>48</v>
           </cell>
           <cell r="F92" t="str">
-            <v>2023-02-13</v>
+            <v>2023-02-14</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="B93" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C93">
-            <v>66</v>
+            <v>64</v>
           </cell>
           <cell r="D93">
-            <v>5656</v>
+            <v>11334</v>
           </cell>
           <cell r="E93">
-            <v>48</v>
+            <v>34</v>
           </cell>
           <cell r="F93" t="str">
             <v>2023-02-15</v>
@@ -2741,42 +2738,42 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>Фп Боярышник плоды 20х3,0г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="B94" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C94">
-            <v>71</v>
+            <v>66</v>
           </cell>
           <cell r="D94">
-            <v>26576</v>
+            <v>1512</v>
           </cell>
           <cell r="E94">
-            <v>37</v>
+            <v>38</v>
           </cell>
           <cell r="F94" t="str">
-            <v>2023-02-22</v>
+            <v>2023-02-17</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Боярышник плоды 20х3,0г</v>
           </cell>
           <cell r="B95" t="str">
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C95">
-            <v>72</v>
+            <v>69</v>
           </cell>
           <cell r="D95">
-            <v>1692</v>
+            <v>26018</v>
           </cell>
           <cell r="E95">
-            <v>38</v>
+            <v>37</v>
           </cell>
           <cell r="F95" t="str">
-            <v>2023-02-23</v>
+            <v>2023-02-22</v>
           </cell>
         </row>
         <row r="96">
@@ -2790,13 +2787,13 @@
             <v>177</v>
           </cell>
           <cell r="D96">
-            <v>6001</v>
+            <v>5947</v>
           </cell>
           <cell r="E96" t="str">
             <v>inf</v>
           </cell>
           <cell r="F96" t="str">
-            <v>2023-07-20</v>
+            <v>2023-07-24</v>
           </cell>
         </row>
         <row r="97">
@@ -2807,16 +2804,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C97">
-            <v>188</v>
+            <v>183</v>
           </cell>
           <cell r="D97">
-            <v>810</v>
+            <v>666</v>
           </cell>
           <cell r="E97">
             <v>100</v>
           </cell>
           <cell r="F97" t="str">
-            <v>2023-08-04</v>
+            <v>2023-08-01</v>
           </cell>
         </row>
         <row r="98">
@@ -2827,16 +2824,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C98">
-            <v>189</v>
+            <v>184</v>
           </cell>
           <cell r="D98">
-            <v>846</v>
+            <v>720</v>
           </cell>
           <cell r="E98">
             <v>100</v>
           </cell>
           <cell r="F98" t="str">
-            <v>2023-08-07</v>
+            <v>2023-08-02</v>
           </cell>
         </row>
         <row r="99">
@@ -2847,16 +2844,16 @@
             <v>Линия ИМА С 50</v>
           </cell>
           <cell r="C99">
-            <v>199</v>
+            <v>195</v>
           </cell>
           <cell r="D99">
-            <v>1386</v>
+            <v>1242</v>
           </cell>
           <cell r="E99">
             <v>100</v>
           </cell>
           <cell r="F99" t="str">
-            <v>2023-08-21</v>
+            <v>2023-08-17</v>
           </cell>
         </row>
         <row r="100">
@@ -2867,16 +2864,16 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C100">
-            <v>13</v>
+            <v>10</v>
           </cell>
           <cell r="D100">
-            <v>7533</v>
+            <v>5391</v>
           </cell>
           <cell r="E100">
             <v>32</v>
           </cell>
           <cell r="F100" t="str">
-            <v>2022-12-02</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="101">
@@ -2887,41 +2884,41 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C101">
-            <v>14</v>
+            <v>10</v>
           </cell>
           <cell r="D101">
-            <v>2659</v>
+            <v>1813</v>
           </cell>
           <cell r="E101">
             <v>34</v>
           </cell>
           <cell r="F101" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-01</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="B102" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C102">
-            <v>14</v>
+            <v>15</v>
           </cell>
           <cell r="D102">
-            <v>13754</v>
+            <v>27959</v>
           </cell>
           <cell r="E102">
-            <v>30</v>
+            <v>37</v>
           </cell>
           <cell r="F102" t="str">
-            <v>2022-12-05</v>
+            <v>2022-12-08</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="B103" t="str">
             <v>Линия Консумаш</v>
@@ -2930,18 +2927,18 @@
             <v>18</v>
           </cell>
           <cell r="D103">
-            <v>34763</v>
+            <v>1789</v>
           </cell>
           <cell r="E103">
-            <v>37</v>
+            <v>51</v>
           </cell>
           <cell r="F103" t="str">
-            <v>2022-12-09</v>
+            <v>2022-12-13</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="B104" t="str">
             <v>Линия Консумаш</v>
@@ -2950,53 +2947,53 @@
             <v>19</v>
           </cell>
           <cell r="D104">
-            <v>1807</v>
+            <v>11016</v>
           </cell>
           <cell r="E104">
-            <v>51</v>
+            <v>41</v>
           </cell>
           <cell r="F104" t="str">
-            <v>2022-12-12</v>
+            <v>2022-12-14</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="B105" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C105">
-            <v>21</v>
+            <v>35</v>
           </cell>
           <cell r="D105">
-            <v>12870</v>
+            <v>30932</v>
           </cell>
           <cell r="E105">
-            <v>41</v>
+            <v>30</v>
           </cell>
           <cell r="F105" t="str">
-            <v>2022-12-14</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="B106" t="str">
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C106">
-            <v>39</v>
+            <v>35</v>
           </cell>
           <cell r="D106">
-            <v>34262</v>
+            <v>30884</v>
           </cell>
           <cell r="E106">
             <v>30</v>
           </cell>
           <cell r="F106" t="str">
-            <v>2023-01-09</v>
+            <v>2023-01-05</v>
           </cell>
         </row>
         <row r="107">
@@ -3007,16 +3004,16 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C107">
-            <v>42</v>
+            <v>38</v>
           </cell>
           <cell r="D107">
-            <v>11752</v>
+            <v>10384</v>
           </cell>
           <cell r="E107">
             <v>30</v>
           </cell>
           <cell r="F107" t="str">
-            <v>2023-01-12</v>
+            <v>2023-01-10</v>
           </cell>
         </row>
         <row r="108">
@@ -3027,16 +3024,16 @@
             <v>Линия Консумаш</v>
           </cell>
           <cell r="C108">
-            <v>56</v>
+            <v>53</v>
           </cell>
           <cell r="D108">
-            <v>166941</v>
+            <v>157311</v>
           </cell>
           <cell r="E108">
             <v>31</v>
           </cell>
           <cell r="F108" t="str">
-            <v>2023-02-01</v>
+            <v>2023-01-31</v>
           </cell>
         </row>
       </sheetData>
@@ -3061,19 +3058,22 @@
             <v>12</v>
           </cell>
           <cell r="D8">
-            <v>59</v>
+            <v>60</v>
           </cell>
           <cell r="E8" t="str">
             <v>↓</v>
           </cell>
+          <cell r="F8">
+            <v>5</v>
+          </cell>
           <cell r="H8">
-            <v>81408</v>
+            <v>81376</v>
           </cell>
           <cell r="I8">
-            <v>81408</v>
+            <v>81376</v>
           </cell>
           <cell r="K8">
-            <v>191</v>
+            <v>189</v>
           </cell>
         </row>
         <row r="9">
@@ -3083,89 +3083,86 @@
         </row>
         <row r="10">
           <cell r="B10" t="str">
-            <v>Дуба кора 75г</v>
+            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
           </cell>
           <cell r="C10">
-            <v>2407</v>
+            <v>286</v>
           </cell>
           <cell r="D10">
-            <v>97</v>
-          </cell>
-          <cell r="F10">
-            <v>3360</v>
-          </cell>
-          <cell r="G10">
-            <v>2</v>
+            <v>119</v>
           </cell>
           <cell r="H10">
-            <v>32213</v>
+            <v>3052</v>
           </cell>
           <cell r="I10">
-            <v>32213</v>
+            <v>3052</v>
           </cell>
           <cell r="J10" t="str">
             <v>!</v>
           </cell>
           <cell r="K10">
-            <v>13</v>
+            <v>10</v>
           </cell>
           <cell r="L10">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="M10">
-            <v>40057</v>
+            <v>20074</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>Сб. Фитонефрол (Урологический сбор) 50г</v>
+            <v>Эрва шерстистая трава 30г</v>
           </cell>
           <cell r="C11">
-            <v>266</v>
+            <v>421</v>
           </cell>
           <cell r="D11">
-            <v>111</v>
+            <v>106</v>
           </cell>
           <cell r="H11">
-            <v>5180</v>
+            <v>6871</v>
           </cell>
           <cell r="I11">
-            <v>5180</v>
+            <v>6871</v>
           </cell>
           <cell r="J11" t="str">
-            <v>!!!</v>
+            <v>!</v>
           </cell>
           <cell r="K11">
-            <v>17</v>
+            <v>14</v>
+          </cell>
+          <cell r="L11">
+            <v>18</v>
+          </cell>
+          <cell r="M11">
+            <v>15771</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>Ромашка цветки вн 50г</v>
+            <v>Ноготки цветки 50г</v>
           </cell>
           <cell r="C12">
-            <v>3100</v>
+            <v>627</v>
           </cell>
           <cell r="D12">
-            <v>75</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>↓</v>
+            <v>84</v>
           </cell>
           <cell r="H12">
-            <v>65730</v>
+            <v>14251</v>
           </cell>
           <cell r="I12">
-            <v>65730</v>
+            <v>14251</v>
           </cell>
           <cell r="K12">
-            <v>18</v>
+            <v>16</v>
           </cell>
           <cell r="L12">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M12">
-            <v>42553</v>
+            <v>23344</v>
           </cell>
         </row>
         <row r="13">
@@ -3173,25 +3170,25 @@
             <v>Береза почки 50г</v>
           </cell>
           <cell r="C13">
-            <v>347</v>
+            <v>371</v>
           </cell>
           <cell r="D13">
-            <v>82</v>
+            <v>85</v>
           </cell>
           <cell r="H13">
-            <v>12611</v>
+            <v>11309</v>
           </cell>
           <cell r="I13">
-            <v>12611</v>
+            <v>11309</v>
           </cell>
           <cell r="J13" t="str">
             <v>!</v>
           </cell>
           <cell r="K13">
-            <v>19</v>
+            <v>17</v>
           </cell>
           <cell r="L13">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="M13">
             <v>9850</v>
@@ -3199,366 +3196,393 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>Ноготки цветки 50г</v>
+            <v>Пустырник трава 50г</v>
           </cell>
           <cell r="C14">
-            <v>606</v>
+            <v>304</v>
           </cell>
           <cell r="D14">
-            <v>83</v>
+            <v>94</v>
           </cell>
           <cell r="H14">
-            <v>17401</v>
+            <v>7574</v>
           </cell>
           <cell r="I14">
-            <v>17401</v>
+            <v>7574</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v>!!!</v>
           </cell>
           <cell r="K14">
-            <v>19</v>
-          </cell>
-          <cell r="L14">
-            <v>17</v>
-          </cell>
-          <cell r="M14">
-            <v>23344</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>Мята перечная листья 50г</v>
+            <v>Багульник болотный побеги 50г</v>
           </cell>
           <cell r="C15">
-            <v>498</v>
+            <v>435</v>
           </cell>
           <cell r="D15">
-            <v>89</v>
+            <v>87</v>
           </cell>
           <cell r="H15">
-            <v>16786</v>
+            <v>9301</v>
           </cell>
           <cell r="I15">
-            <v>16786</v>
+            <v>9301</v>
           </cell>
           <cell r="K15">
             <v>19</v>
           </cell>
           <cell r="L15">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="M15">
-            <v>24166</v>
+            <v>12234</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>Эрва шерстистая трава 30г</v>
+            <v>Чабрец трава 50г</v>
           </cell>
           <cell r="C16">
-            <v>401</v>
+            <v>517</v>
           </cell>
           <cell r="D16">
-            <v>101</v>
+            <v>84</v>
           </cell>
           <cell r="H16">
-            <v>9895</v>
+            <v>13972</v>
           </cell>
           <cell r="I16">
-            <v>9895</v>
+            <v>13972</v>
           </cell>
           <cell r="K16">
-            <v>21</v>
+            <v>19</v>
+          </cell>
+          <cell r="L16">
+            <v>19</v>
+          </cell>
+          <cell r="M16">
+            <v>26122</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>Багульник болотный побеги 50г</v>
+            <v>Боярышник плоды 75г</v>
           </cell>
           <cell r="C17">
-            <v>417</v>
+            <v>483</v>
           </cell>
           <cell r="D17">
-            <v>85</v>
+            <v>90</v>
           </cell>
           <cell r="H17">
-            <v>11219</v>
+            <v>15674</v>
           </cell>
           <cell r="I17">
-            <v>11219</v>
+            <v>15674</v>
           </cell>
           <cell r="K17">
-            <v>23</v>
+            <v>20</v>
+          </cell>
+          <cell r="L17">
+            <v>18</v>
+          </cell>
+          <cell r="M17">
+            <v>14455</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>Подорожник большой листья 50г</v>
+            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
           </cell>
           <cell r="C18">
-            <v>202</v>
+            <v>137</v>
           </cell>
           <cell r="D18">
-            <v>80</v>
+            <v>108</v>
           </cell>
           <cell r="H18">
-            <v>8123</v>
+            <v>3317</v>
           </cell>
           <cell r="I18">
-            <v>8123</v>
+            <v>3317</v>
           </cell>
           <cell r="K18">
-            <v>24</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>Боярышник плоды 75г</v>
+            <v>Валериана корневища с корнями 50г</v>
           </cell>
           <cell r="C19">
-            <v>450</v>
+            <v>418</v>
           </cell>
           <cell r="D19">
-            <v>86</v>
+            <v>87</v>
           </cell>
           <cell r="H19">
-            <v>18950</v>
+            <v>15916</v>
           </cell>
           <cell r="I19">
-            <v>18950</v>
+            <v>15916</v>
           </cell>
           <cell r="K19">
-            <v>24</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>Пустырник трава 50г</v>
+            <v>Шалфей листья 50г</v>
           </cell>
           <cell r="C20">
-            <v>276</v>
+            <v>984</v>
           </cell>
           <cell r="D20">
-            <v>86</v>
+            <v>77</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H20">
-            <v>10346</v>
+            <v>29302</v>
           </cell>
           <cell r="I20">
-            <v>10346</v>
+            <v>29302</v>
           </cell>
           <cell r="K20">
-            <v>24</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Рябина плоды 50г</v>
+            <v>Подорожник большой листья 50г</v>
           </cell>
           <cell r="C21">
-            <v>44</v>
+            <v>201</v>
           </cell>
           <cell r="D21">
-            <v>87</v>
+            <v>78</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H21">
-            <v>1554</v>
+            <v>7381</v>
           </cell>
           <cell r="I21">
-            <v>1554</v>
+            <v>7381</v>
           </cell>
           <cell r="K21">
-            <v>24</v>
+            <v>22</v>
+          </cell>
+          <cell r="L21">
+            <v>18</v>
+          </cell>
+          <cell r="M21">
+            <v>5910</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</v>
+            <v>Рябина плоды 50г</v>
           </cell>
           <cell r="C22">
-            <v>137</v>
+            <v>43</v>
           </cell>
           <cell r="D22">
-            <v>108</v>
+            <v>84</v>
           </cell>
           <cell r="H22">
-            <v>3821</v>
+            <v>1512</v>
           </cell>
           <cell r="I22">
-            <v>3821</v>
+            <v>1512</v>
           </cell>
           <cell r="K22">
-            <v>25</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>Шалфей листья 50г</v>
+            <v>Бессмертник песчаный цветки 30г</v>
           </cell>
           <cell r="C23">
-            <v>966</v>
+            <v>608</v>
           </cell>
           <cell r="D23">
-            <v>76</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>↓</v>
+            <v>86</v>
           </cell>
           <cell r="H23">
-            <v>33684</v>
+            <v>22907</v>
           </cell>
           <cell r="I23">
-            <v>33684</v>
+            <v>22907</v>
           </cell>
           <cell r="K23">
-            <v>25</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>Сб. Грудной №4 50г</v>
+            <v>Девясил корневища и корни 50г</v>
           </cell>
           <cell r="C24">
-            <v>978</v>
+            <v>415</v>
           </cell>
           <cell r="D24">
-            <v>73</v>
+            <v>76</v>
           </cell>
           <cell r="E24" t="str">
             <v>↓</v>
           </cell>
           <cell r="H24">
-            <v>32466</v>
+            <v>14793</v>
           </cell>
           <cell r="I24">
-            <v>32466</v>
+            <v>14793</v>
           </cell>
           <cell r="K24">
-            <v>25</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>Бессмертник песчаный цветки 30г</v>
+            <v>Аир корневища 75г</v>
           </cell>
           <cell r="C25">
-            <v>565</v>
+            <v>227</v>
           </cell>
           <cell r="D25">
-            <v>82</v>
+            <v>101</v>
           </cell>
           <cell r="H25">
-            <v>26575</v>
+            <v>6121</v>
           </cell>
           <cell r="I25">
-            <v>26575</v>
+            <v>6121</v>
           </cell>
           <cell r="K25">
-            <v>26</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>Девясил корневища и корни 50г</v>
+            <v>Укроп пахучий плоды 50г</v>
           </cell>
           <cell r="C26">
-            <v>398</v>
+            <v>2298</v>
           </cell>
           <cell r="D26">
-            <v>73</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>↓</v>
+            <v>119</v>
+          </cell>
+          <cell r="F26">
+            <v>910</v>
+          </cell>
+          <cell r="G26">
+            <v>1</v>
           </cell>
           <cell r="H26">
-            <v>16795</v>
+            <v>55560</v>
           </cell>
           <cell r="I26">
-            <v>16795</v>
+            <v>16234</v>
           </cell>
           <cell r="K26">
-            <v>26</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>Чабрец трава 50г</v>
+            <v>Сб. Грудной №4 50г</v>
           </cell>
           <cell r="C27">
-            <v>467</v>
+            <v>985</v>
           </cell>
           <cell r="D27">
-            <v>77</v>
+            <v>72</v>
           </cell>
           <cell r="E27" t="str">
             <v>↓</v>
           </cell>
           <cell r="H27">
-            <v>19096</v>
+            <v>31444</v>
           </cell>
           <cell r="I27">
-            <v>19096</v>
+            <v>31444</v>
           </cell>
           <cell r="K27">
-            <v>26</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Валериана корневища с корнями 50г</v>
+            <v>Дуба кора 75г</v>
           </cell>
           <cell r="C28">
-            <v>388</v>
+            <v>2473</v>
           </cell>
           <cell r="D28">
-            <v>83</v>
+            <v>100</v>
+          </cell>
+          <cell r="F28">
+            <v>3360</v>
+          </cell>
+          <cell r="G28">
+            <v>2</v>
           </cell>
           <cell r="H28">
-            <v>18968</v>
+            <v>61891</v>
           </cell>
           <cell r="I28">
-            <v>18968</v>
+            <v>21615</v>
           </cell>
           <cell r="K28">
-            <v>26</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Аир корневища 75г</v>
+            <v>Лен семена 100г</v>
           </cell>
           <cell r="C29">
-            <v>221</v>
+            <v>1238</v>
           </cell>
           <cell r="D29">
-            <v>98</v>
+            <v>88</v>
           </cell>
           <cell r="H29">
-            <v>7255</v>
+            <v>49828</v>
           </cell>
           <cell r="I29">
-            <v>7255</v>
+            <v>49828</v>
           </cell>
           <cell r="K29">
-            <v>28</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>Лен семена 100г</v>
+            <v>Крушина кора 50г</v>
           </cell>
           <cell r="C30">
-            <v>1163</v>
+            <v>242</v>
           </cell>
           <cell r="D30">
-            <v>84</v>
+            <v>105</v>
           </cell>
           <cell r="H30">
-            <v>57906</v>
+            <v>9176</v>
           </cell>
           <cell r="I30">
-            <v>57906</v>
+            <v>9176</v>
           </cell>
           <cell r="K30">
-            <v>28</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="31">
@@ -3566,22 +3590,19 @@
             <v>Ламинарии слоевища (морская капуста) 100г</v>
           </cell>
           <cell r="C31">
-            <v>315</v>
+            <v>340</v>
           </cell>
           <cell r="D31">
-            <v>78</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>↓</v>
+            <v>83</v>
           </cell>
           <cell r="H31">
-            <v>16068</v>
+            <v>13870</v>
           </cell>
           <cell r="I31">
-            <v>16068</v>
+            <v>13870</v>
           </cell>
           <cell r="K31">
-            <v>29</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="32">
@@ -3589,65 +3610,62 @@
             <v>Мать-и-мачеха листья 35г</v>
           </cell>
           <cell r="C32">
-            <v>696</v>
+            <v>721</v>
           </cell>
           <cell r="D32">
-            <v>84</v>
+            <v>85</v>
           </cell>
           <cell r="H32">
-            <v>28340</v>
+            <v>24700</v>
           </cell>
           <cell r="I32">
-            <v>28340</v>
+            <v>24700</v>
           </cell>
           <cell r="K32">
-            <v>29</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Укроп пахучий плоды 50г</v>
+            <v>Ромашка цветки вн 50г</v>
           </cell>
           <cell r="C33">
-            <v>2231</v>
+            <v>3188</v>
           </cell>
           <cell r="D33">
-            <v>115</v>
-          </cell>
-          <cell r="F33">
-            <v>910</v>
-          </cell>
-          <cell r="G33">
-            <v>1</v>
+            <v>77</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H33">
-            <v>67012</v>
+            <v>95294</v>
           </cell>
           <cell r="I33">
-            <v>27686</v>
+            <v>52262</v>
           </cell>
           <cell r="K33">
-            <v>29</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Крушина кора 50г</v>
+            <v>Полынь горькая трава 50г</v>
           </cell>
           <cell r="C34">
-            <v>225</v>
+            <v>1364</v>
           </cell>
           <cell r="D34">
-            <v>99</v>
+            <v>96</v>
           </cell>
           <cell r="H34">
-            <v>11136</v>
+            <v>38512</v>
           </cell>
           <cell r="I34">
-            <v>11136</v>
+            <v>38512</v>
           </cell>
           <cell r="K34">
-            <v>30</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="35">
@@ -3655,102 +3673,102 @@
             <v>Пижма цветки 75г</v>
           </cell>
           <cell r="C35">
-            <v>464</v>
+            <v>495</v>
           </cell>
           <cell r="D35">
-            <v>91</v>
+            <v>96</v>
           </cell>
           <cell r="H35">
-            <v>18692</v>
+            <v>15654</v>
           </cell>
           <cell r="I35">
-            <v>18692</v>
+            <v>15654</v>
           </cell>
           <cell r="K35">
-            <v>32</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36" t="str">
-            <v>Полынь горькая трава 50г</v>
+            <v>Череда трава 50г</v>
           </cell>
           <cell r="C36">
-            <v>1292</v>
+            <v>311</v>
           </cell>
           <cell r="D36">
-            <v>91</v>
+            <v>88</v>
           </cell>
           <cell r="H36">
-            <v>47150</v>
+            <v>11421</v>
           </cell>
           <cell r="I36">
-            <v>47150</v>
+            <v>11421</v>
           </cell>
           <cell r="K36">
-            <v>32</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Череда трава 50г</v>
+            <v>Брусника листья 50г</v>
           </cell>
           <cell r="C37">
-            <v>307</v>
+            <v>375</v>
           </cell>
           <cell r="D37">
-            <v>87</v>
+            <v>90</v>
           </cell>
           <cell r="H37">
-            <v>13549</v>
+            <v>16853</v>
           </cell>
           <cell r="I37">
-            <v>13549</v>
+            <v>8705</v>
           </cell>
           <cell r="K37">
-            <v>33</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Брусника листья 50г</v>
+            <v>Шиповник плоды низковитаминные 50г</v>
           </cell>
           <cell r="C38">
-            <v>360</v>
+            <v>671</v>
           </cell>
           <cell r="D38">
-            <v>88</v>
+            <v>78</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H38">
-            <v>19079</v>
+            <v>36604</v>
           </cell>
           <cell r="I38">
-            <v>10931</v>
+            <v>14210</v>
           </cell>
           <cell r="K38">
-            <v>34</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="39">
           <cell r="B39" t="str">
-            <v>Шиповник плоды низковитаминные 50г</v>
+            <v>Зверобой трава 50г</v>
           </cell>
           <cell r="C39">
-            <v>641</v>
+            <v>892</v>
           </cell>
           <cell r="D39">
-            <v>76</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>↓</v>
+            <v>92</v>
           </cell>
           <cell r="H39">
-            <v>40804</v>
+            <v>36904</v>
           </cell>
           <cell r="I39">
-            <v>18410</v>
+            <v>36904</v>
           </cell>
           <cell r="K39">
-            <v>34</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="40">
@@ -3758,19 +3776,19 @@
             <v>Тысячелистник трава 50г</v>
           </cell>
           <cell r="C40">
-            <v>359</v>
+            <v>358</v>
           </cell>
           <cell r="D40">
-            <v>94</v>
+            <v>93</v>
           </cell>
           <cell r="H40">
-            <v>17389</v>
+            <v>16423</v>
           </cell>
           <cell r="I40">
-            <v>17389</v>
+            <v>16423</v>
           </cell>
           <cell r="K40">
-            <v>34</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="41">
@@ -3778,7 +3796,7 @@
             <v>Липа цветки 35г</v>
           </cell>
           <cell r="C41">
-            <v>447</v>
+            <v>458</v>
           </cell>
           <cell r="D41">
             <v>76</v>
@@ -3787,33 +3805,33 @@
             <v>↓</v>
           </cell>
           <cell r="H41">
-            <v>26228</v>
+            <v>25304</v>
           </cell>
           <cell r="I41">
-            <v>11360</v>
+            <v>10436</v>
           </cell>
           <cell r="K41">
-            <v>35</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42" t="str">
-            <v>Зверобой трава 50г</v>
+            <v>Кукуруза столбики с рыльцами 40г</v>
           </cell>
           <cell r="C42">
-            <v>854</v>
+            <v>630</v>
           </cell>
           <cell r="D42">
-            <v>89</v>
+            <v>92</v>
           </cell>
           <cell r="H42">
-            <v>42098</v>
+            <v>31745</v>
           </cell>
           <cell r="I42">
-            <v>42098</v>
+            <v>11977</v>
           </cell>
           <cell r="K42">
-            <v>36</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="43">
@@ -3821,168 +3839,168 @@
             <v>Эвкалипт прутовидный листья 75г</v>
           </cell>
           <cell r="C43">
-            <v>641</v>
+            <v>666</v>
           </cell>
           <cell r="D43">
-            <v>73</v>
+            <v>75</v>
           </cell>
           <cell r="E43" t="str">
             <v>↓</v>
           </cell>
           <cell r="H43">
-            <v>35215</v>
+            <v>32345</v>
           </cell>
           <cell r="I43">
-            <v>20165</v>
+            <v>17295</v>
           </cell>
           <cell r="K43">
-            <v>37</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="44">
           <cell r="B44" t="str">
-            <v>Солодка корни 50г</v>
+            <v>Можжевельник плоды 50г</v>
           </cell>
           <cell r="C44">
-            <v>698</v>
+            <v>297</v>
           </cell>
           <cell r="D44">
-            <v>62</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>↓</v>
+            <v>89</v>
           </cell>
           <cell r="H44">
-            <v>45935</v>
+            <v>15944</v>
           </cell>
           <cell r="I44">
-            <v>45935</v>
+            <v>15944</v>
           </cell>
           <cell r="K44">
-            <v>37</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="45">
           <cell r="B45" t="str">
-            <v>Кукуруза столбики с рыльцами 40г</v>
+            <v>Солодка корни 50г</v>
           </cell>
           <cell r="C45">
-            <v>610</v>
+            <v>676</v>
           </cell>
           <cell r="D45">
-            <v>90</v>
+            <v>59</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H45">
-            <v>35049</v>
+            <v>44913</v>
           </cell>
           <cell r="I45">
-            <v>15281</v>
+            <v>44913</v>
           </cell>
           <cell r="K45">
-            <v>38</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="46">
           <cell r="B46" t="str">
-            <v>Можжевельник плоды 50г</v>
+            <v>Толокнянка листья 50г</v>
           </cell>
           <cell r="C46">
-            <v>289</v>
+            <v>258</v>
           </cell>
           <cell r="D46">
-            <v>88</v>
+            <v>103</v>
+          </cell>
+          <cell r="F46">
+            <v>70</v>
           </cell>
           <cell r="H46">
-            <v>17400</v>
+            <v>9648</v>
           </cell>
           <cell r="I46">
-            <v>17400</v>
+            <v>9648</v>
           </cell>
           <cell r="K46">
-            <v>39</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="47">
           <cell r="B47" t="str">
-            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
+            <v>Чага (березовый гриб) 50г</v>
           </cell>
           <cell r="C47">
-            <v>158</v>
+            <v>946</v>
           </cell>
           <cell r="D47">
-            <v>85</v>
+            <v>112</v>
           </cell>
           <cell r="H47">
-            <v>7363</v>
+            <v>36512</v>
           </cell>
           <cell r="I47">
-            <v>7363</v>
+            <v>36512</v>
           </cell>
           <cell r="K47">
-            <v>41</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="48">
           <cell r="B48" t="str">
-            <v>Толокнянка листья 50г</v>
+            <v>Сенна листья 50г</v>
           </cell>
           <cell r="C48">
-            <v>249</v>
+            <v>618</v>
           </cell>
           <cell r="D48">
-            <v>99</v>
-          </cell>
-          <cell r="F48">
-            <v>70</v>
+            <v>96</v>
           </cell>
           <cell r="H48">
-            <v>10754</v>
+            <v>28559</v>
           </cell>
           <cell r="I48">
-            <v>10754</v>
+            <v>28559</v>
           </cell>
           <cell r="K48">
-            <v>43</v>
+            <v>38</v>
           </cell>
         </row>
         <row r="49">
           <cell r="B49" t="str">
-            <v>Сенна листья 50г</v>
+            <v>Спорыш трава 50г</v>
           </cell>
           <cell r="C49">
-            <v>603</v>
+            <v>341</v>
           </cell>
           <cell r="D49">
             <v>94</v>
           </cell>
           <cell r="H49">
-            <v>32437</v>
+            <v>18797</v>
           </cell>
           <cell r="I49">
-            <v>32437</v>
+            <v>18797</v>
           </cell>
           <cell r="K49">
-            <v>44</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="50">
           <cell r="B50" t="str">
-            <v>Чага (березовый гриб) 50г</v>
+            <v>Крапива листья 50г</v>
           </cell>
           <cell r="C50">
-            <v>906</v>
+            <v>331</v>
           </cell>
           <cell r="D50">
-            <v>109</v>
+            <v>94</v>
           </cell>
           <cell r="H50">
-            <v>41272</v>
+            <v>19087</v>
           </cell>
           <cell r="I50">
-            <v>41272</v>
+            <v>19087</v>
           </cell>
           <cell r="K50">
-            <v>45</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="51">
@@ -3990,82 +4008,82 @@
             <v>Алтей корни 75г</v>
           </cell>
           <cell r="C51">
-            <v>93</v>
+            <v>97</v>
           </cell>
           <cell r="D51">
-            <v>63</v>
+            <v>64</v>
           </cell>
           <cell r="E51" t="str">
             <v>↓</v>
           </cell>
           <cell r="H51">
-            <v>8759</v>
+            <v>8255</v>
           </cell>
           <cell r="I51">
-            <v>8759</v>
+            <v>8255</v>
           </cell>
           <cell r="K51">
-            <v>45</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52" t="str">
-            <v>Спорыш трава 50г</v>
+            <v>Сб. Фитопектол №1 (Грудной сбор №1) 35г</v>
           </cell>
           <cell r="C52">
-            <v>318</v>
+            <v>152</v>
           </cell>
           <cell r="D52">
-            <v>89</v>
+            <v>80</v>
           </cell>
           <cell r="H52">
-            <v>21247</v>
+            <v>7307</v>
           </cell>
           <cell r="I52">
-            <v>21247</v>
+            <v>7307</v>
           </cell>
           <cell r="K52">
-            <v>46</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53" t="str">
-            <v>Крапива листья 50г</v>
+            <v>Чистотел трава 50г</v>
           </cell>
           <cell r="C53">
-            <v>307</v>
+            <v>457</v>
           </cell>
           <cell r="D53">
-            <v>88</v>
+            <v>100</v>
           </cell>
           <cell r="H53">
-            <v>21593</v>
+            <v>24738</v>
           </cell>
           <cell r="I53">
-            <v>21593</v>
+            <v>24738</v>
           </cell>
           <cell r="K53">
-            <v>47</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54" t="str">
-            <v>Чистотел трава 50г</v>
+            <v>Мята перечная листья 50г</v>
           </cell>
           <cell r="C54">
-            <v>435</v>
+            <v>544</v>
           </cell>
           <cell r="D54">
             <v>96</v>
           </cell>
           <cell r="H54">
-            <v>27622</v>
+            <v>35556</v>
           </cell>
           <cell r="I54">
-            <v>27622</v>
+            <v>11592</v>
           </cell>
           <cell r="K54">
-            <v>48</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="55">
@@ -4073,10 +4091,10 @@
             <v>Сб. Фитопектол №2 (Грудной сбор №2) 35г</v>
           </cell>
           <cell r="C55">
-            <v>199</v>
+            <v>193</v>
           </cell>
           <cell r="D55">
-            <v>79</v>
+            <v>75</v>
           </cell>
           <cell r="E55" t="str">
             <v>↓</v>
@@ -4088,13 +4106,13 @@
             <v>1</v>
           </cell>
           <cell r="H55">
-            <v>10200</v>
+            <v>10088</v>
           </cell>
           <cell r="I55">
-            <v>10200</v>
+            <v>10088</v>
           </cell>
           <cell r="K55">
-            <v>50</v>
+            <v>51</v>
           </cell>
         </row>
         <row r="56">
@@ -4112,22 +4130,19 @@
             <v>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</v>
           </cell>
           <cell r="C58">
-            <v>96</v>
+            <v>97</v>
           </cell>
           <cell r="D58">
             <v>114</v>
           </cell>
-          <cell r="H58">
-            <v>350</v>
-          </cell>
-          <cell r="I58">
-            <v>350</v>
+          <cell r="F58">
+            <v>40</v>
+          </cell>
+          <cell r="G58">
+            <v>1</v>
           </cell>
           <cell r="J58" t="str">
             <v>!!!</v>
-          </cell>
-          <cell r="K58">
-            <v>3</v>
           </cell>
         </row>
         <row r="59">
@@ -4135,7 +4150,7 @@
             <v>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</v>
           </cell>
           <cell r="C59">
-            <v>421</v>
+            <v>422</v>
           </cell>
           <cell r="D59">
             <v>75</v>
@@ -4144,48 +4159,39 @@
             <v>↓</v>
           </cell>
           <cell r="H59">
-            <v>11676</v>
+            <v>15121</v>
           </cell>
           <cell r="I59">
-            <v>7666</v>
+            <v>6306</v>
           </cell>
           <cell r="K59">
-            <v>19</v>
-          </cell>
-          <cell r="L59">
-            <v>16</v>
-          </cell>
-          <cell r="M59">
-            <v>4874</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
           </cell>
           <cell r="C60">
-            <v>50</v>
+            <v>138</v>
           </cell>
           <cell r="D60">
-            <v>53</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v>↓</v>
+            <v>106</v>
           </cell>
           <cell r="H60">
-            <v>3400</v>
+            <v>3830</v>
           </cell>
           <cell r="I60">
-            <v>3400</v>
+            <v>3830</v>
           </cell>
           <cell r="K60">
-            <v>26</v>
+            <v>27</v>
           </cell>
           <cell r="L60">
-            <v>16</v>
+            <v>18</v>
           </cell>
           <cell r="M60">
-            <v>2437</v>
+            <v>4874</v>
           </cell>
         </row>
         <row r="61">
@@ -4193,39 +4199,42 @@
             <v>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</v>
           </cell>
           <cell r="C61">
-            <v>117</v>
+            <v>119</v>
           </cell>
           <cell r="D61">
             <v>98</v>
           </cell>
           <cell r="H61">
-            <v>4380</v>
+            <v>3840</v>
           </cell>
           <cell r="I61">
-            <v>2260</v>
+            <v>1720</v>
           </cell>
           <cell r="K61">
-            <v>33</v>
+            <v>29</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62" t="str">
-            <v>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</v>
+            <v>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</v>
           </cell>
           <cell r="C62">
-            <v>134</v>
+            <v>50</v>
           </cell>
           <cell r="D62">
-            <v>103</v>
+            <v>53</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H62">
-            <v>4770</v>
+            <v>5610</v>
           </cell>
           <cell r="I62">
-            <v>4770</v>
+            <v>3190</v>
           </cell>
           <cell r="K62">
-            <v>33</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="63">
@@ -4233,22 +4242,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</v>
           </cell>
           <cell r="C63">
-            <v>18</v>
+            <v>20</v>
           </cell>
           <cell r="D63">
-            <v>69</v>
+            <v>74</v>
           </cell>
           <cell r="E63" t="str">
             <v>↓</v>
           </cell>
           <cell r="H63">
-            <v>7830</v>
+            <v>7700</v>
           </cell>
           <cell r="I63">
-            <v>7830</v>
+            <v>7700</v>
           </cell>
           <cell r="K63">
-            <v>134</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="64">
@@ -4256,22 +4265,22 @@
             <v>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</v>
           </cell>
           <cell r="C64">
-            <v>11</v>
+            <v>13</v>
           </cell>
           <cell r="D64">
-            <v>63</v>
+            <v>72</v>
           </cell>
           <cell r="E64" t="str">
             <v>↓</v>
           </cell>
           <cell r="H64">
-            <v>9260</v>
+            <v>9110</v>
           </cell>
           <cell r="I64">
-            <v>9260</v>
+            <v>9110</v>
           </cell>
           <cell r="K64">
-            <v>191</v>
+            <v>189</v>
           </cell>
         </row>
         <row r="65">
@@ -4281,13 +4290,13 @@
         </row>
         <row r="66">
           <cell r="B66" t="str">
-            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C66">
-            <v>164</v>
+            <v>42</v>
           </cell>
           <cell r="D66">
-            <v>101</v>
+            <v>85</v>
           </cell>
           <cell r="J66" t="str">
             <v>!!!</v>
@@ -4295,13 +4304,13 @@
         </row>
         <row r="67">
           <cell r="B67" t="str">
-            <v>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</v>
+            <v>Фп Фиточай "Баланс" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C67">
-            <v>46</v>
+            <v>155</v>
           </cell>
           <cell r="D67">
-            <v>91</v>
+            <v>97</v>
           </cell>
           <cell r="J67" t="str">
             <v>!!!</v>
@@ -4312,25 +4321,25 @@
             <v>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</v>
           </cell>
           <cell r="C68">
+            <v>22</v>
+          </cell>
+          <cell r="D68">
             <v>26</v>
-          </cell>
-          <cell r="D68">
-            <v>31</v>
           </cell>
           <cell r="E68" t="str">
             <v>↓</v>
           </cell>
           <cell r="H68">
-            <v>810</v>
+            <v>666</v>
           </cell>
           <cell r="I68">
-            <v>810</v>
+            <v>666</v>
           </cell>
           <cell r="J68" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K68">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="69">
@@ -4338,10 +4347,10 @@
             <v>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</v>
           </cell>
           <cell r="C69">
-            <v>23</v>
+            <v>20</v>
           </cell>
           <cell r="D69">
-            <v>33</v>
+            <v>28</v>
           </cell>
           <cell r="E69" t="str">
             <v>↓</v>
@@ -4353,16 +4362,16 @@
             <v>1</v>
           </cell>
           <cell r="H69">
-            <v>846</v>
+            <v>720</v>
           </cell>
           <cell r="I69">
-            <v>846</v>
+            <v>720</v>
           </cell>
           <cell r="J69" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K69">
-            <v>8</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="70">
@@ -4370,25 +4379,25 @@
             <v>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</v>
           </cell>
           <cell r="C70">
-            <v>21</v>
+            <v>17</v>
           </cell>
           <cell r="D70">
-            <v>21</v>
+            <v>17</v>
           </cell>
           <cell r="E70" t="str">
             <v>↓</v>
           </cell>
           <cell r="H70">
-            <v>1386</v>
+            <v>1242</v>
           </cell>
           <cell r="I70">
-            <v>1386</v>
+            <v>1242</v>
           </cell>
           <cell r="J70" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K70">
-            <v>9</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="71">
@@ -4396,25 +4405,25 @@
             <v>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</v>
           </cell>
           <cell r="C71">
-            <v>33</v>
+            <v>37</v>
           </cell>
           <cell r="D71">
-            <v>40</v>
+            <v>42</v>
           </cell>
           <cell r="E71" t="str">
             <v>↓</v>
           </cell>
           <cell r="H71">
-            <v>1692</v>
+            <v>1386</v>
           </cell>
           <cell r="I71">
-            <v>1692</v>
+            <v>1386</v>
           </cell>
           <cell r="J71" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K71">
-            <v>11</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="72">
@@ -4422,224 +4431,224 @@
             <v>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</v>
           </cell>
           <cell r="C72">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="D72">
-            <v>233</v>
+            <v>281</v>
           </cell>
           <cell r="E72" t="str">
             <v>↑</v>
           </cell>
           <cell r="H72">
-            <v>972</v>
+            <v>864</v>
           </cell>
           <cell r="I72">
-            <v>972</v>
+            <v>864</v>
           </cell>
           <cell r="J72" t="str">
             <v>!!!</v>
           </cell>
           <cell r="K72">
-            <v>18</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="73">
           <cell r="B73" t="str">
-            <v>Фп Шалфей листья 20х1,5г</v>
+            <v>Фп Сб. Грудной №4 20x2,0г</v>
           </cell>
           <cell r="C73">
-            <v>2710</v>
+            <v>14887</v>
           </cell>
           <cell r="D73">
-            <v>80</v>
-          </cell>
-          <cell r="F73">
-            <v>8946</v>
-          </cell>
-          <cell r="G73">
-            <v>3</v>
+            <v>81</v>
           </cell>
           <cell r="H73">
-            <v>85247</v>
+            <v>462852</v>
           </cell>
           <cell r="I73">
-            <v>85247</v>
+            <v>462852</v>
           </cell>
           <cell r="K73">
-            <v>22</v>
+            <v>26</v>
           </cell>
           <cell r="L73">
-            <v>14</v>
+            <v>19</v>
           </cell>
           <cell r="M73">
-            <v>40216</v>
+            <v>56684</v>
           </cell>
         </row>
         <row r="74">
           <cell r="B74" t="str">
-            <v>Фп Сб. Грудной №4 20x2,0г</v>
+            <v>Фп Шалфей листья 20х1,5г</v>
           </cell>
           <cell r="C74">
-            <v>14272</v>
+            <v>2802</v>
           </cell>
           <cell r="D74">
-            <v>79</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>↓</v>
+            <v>82</v>
+          </cell>
+          <cell r="F74">
+            <v>8946</v>
+          </cell>
+          <cell r="G74">
+            <v>3</v>
           </cell>
           <cell r="H74">
-            <v>512496</v>
+            <v>112674</v>
           </cell>
           <cell r="I74">
-            <v>512496</v>
+            <v>72107</v>
           </cell>
           <cell r="K74">
-            <v>29</v>
+            <v>28</v>
+          </cell>
+          <cell r="L74">
+            <v>19</v>
+          </cell>
+          <cell r="M74">
+            <v>30367</v>
           </cell>
         </row>
         <row r="75">
           <cell r="B75" t="str">
-            <v>Фп Сенна листья 20x1,5г</v>
+            <v>Фп Сб. Бруснивер 20x2,0г</v>
           </cell>
           <cell r="C75">
-            <v>1410</v>
+            <v>4310</v>
           </cell>
           <cell r="D75">
             <v>100</v>
           </cell>
           <cell r="H75">
-            <v>49400</v>
+            <v>153157</v>
           </cell>
           <cell r="I75">
-            <v>49400</v>
+            <v>103189</v>
           </cell>
           <cell r="K75">
             <v>32</v>
           </cell>
           <cell r="L75">
-            <v>16</v>
+            <v>15</v>
           </cell>
           <cell r="M75">
-            <v>29547</v>
+            <v>51267</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76" t="str">
-            <v>Фп Сб. Бруснивер 20x2,0г</v>
+            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
           </cell>
           <cell r="C76">
-            <v>4155</v>
+            <v>1501</v>
           </cell>
           <cell r="D76">
-            <v>96</v>
+            <v>106</v>
           </cell>
           <cell r="H76">
-            <v>169879</v>
+            <v>67407</v>
           </cell>
           <cell r="I76">
-            <v>119911</v>
+            <v>67407</v>
           </cell>
           <cell r="K76">
-            <v>36</v>
+            <v>34</v>
           </cell>
           <cell r="L76">
-            <v>17</v>
+            <v>13</v>
           </cell>
           <cell r="M76">
-            <v>51267</v>
+            <v>23393</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77" t="str">
-            <v>Фп Пижма цветки 20х1,5г</v>
+            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
           </cell>
           <cell r="C77">
-            <v>121</v>
+            <v>6</v>
           </cell>
           <cell r="D77">
-            <v>109</v>
+            <v>206</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H77">
-            <v>4764</v>
+            <v>1512</v>
           </cell>
           <cell r="I77">
-            <v>4764</v>
+            <v>1512</v>
           </cell>
           <cell r="K77">
-            <v>37</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
+            <v>Фп Чистотел трава 20х1,5г</v>
           </cell>
           <cell r="C78">
-            <v>1605</v>
+            <v>587</v>
           </cell>
           <cell r="D78">
-            <v>103</v>
+            <v>111</v>
           </cell>
           <cell r="H78">
-            <v>72211</v>
+            <v>26286</v>
           </cell>
           <cell r="I78">
-            <v>72211</v>
+            <v>26286</v>
           </cell>
           <cell r="K78">
-            <v>37</v>
+            <v>38</v>
           </cell>
           <cell r="L78">
-            <v>17</v>
+            <v>20</v>
           </cell>
           <cell r="M78">
-            <v>30485</v>
+            <v>8897</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Фп Липа цветки 20x1,5г</v>
+            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
           </cell>
           <cell r="C79">
-            <v>1057</v>
+            <v>48</v>
           </cell>
           <cell r="D79">
-            <v>77</v>
+            <v>71</v>
           </cell>
           <cell r="E79" t="str">
             <v>↓</v>
           </cell>
           <cell r="H79">
-            <v>59181</v>
+            <v>4554</v>
           </cell>
           <cell r="I79">
-            <v>59181</v>
+            <v>4554</v>
           </cell>
           <cell r="K79">
             <v>38</v>
           </cell>
-          <cell r="L79">
-            <v>20</v>
-          </cell>
-          <cell r="M79">
-            <v>26263</v>
-          </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
-            <v>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</v>
+            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
           </cell>
           <cell r="C80">
-            <v>1446</v>
+            <v>143</v>
           </cell>
           <cell r="D80">
-            <v>103</v>
+            <v>88</v>
           </cell>
           <cell r="H80">
-            <v>74643</v>
+            <v>9449</v>
           </cell>
           <cell r="I80">
-            <v>74643</v>
+            <v>5202</v>
           </cell>
           <cell r="K80">
             <v>38</v>
@@ -4647,334 +4656,340 @@
         </row>
         <row r="81">
           <cell r="B81" t="str">
-            <v>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</v>
+            <v>Фп Мята перечная листья 20x1,5г</v>
           </cell>
           <cell r="C81">
-            <v>4</v>
+            <v>994</v>
           </cell>
           <cell r="D81">
-            <v>152</v>
-          </cell>
-          <cell r="E81" t="str">
-            <v>↑</v>
+            <v>86</v>
           </cell>
           <cell r="H81">
-            <v>1692</v>
+            <v>59464</v>
           </cell>
           <cell r="I81">
-            <v>1692</v>
+            <v>59464</v>
           </cell>
           <cell r="K81">
-            <v>40</v>
+            <v>39</v>
+          </cell>
+          <cell r="L81">
+            <v>18</v>
+          </cell>
+          <cell r="M81">
+            <v>23079</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82" t="str">
-            <v>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</v>
+            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
           </cell>
           <cell r="C82">
-            <v>46</v>
+            <v>863</v>
           </cell>
           <cell r="D82">
-            <v>69</v>
-          </cell>
-          <cell r="E82" t="str">
-            <v>↓</v>
+            <v>111</v>
           </cell>
           <cell r="H82">
-            <v>4680</v>
+            <v>35981</v>
           </cell>
           <cell r="I82">
-            <v>4680</v>
+            <v>35981</v>
           </cell>
           <cell r="K82">
-            <v>40</v>
+            <v>41</v>
+          </cell>
+          <cell r="L82">
+            <v>13</v>
+          </cell>
+          <cell r="M82">
+            <v>24624</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83" t="str">
-            <v>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</v>
+            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
           </cell>
           <cell r="C83">
-            <v>142</v>
+            <v>7</v>
           </cell>
           <cell r="D83">
-            <v>89</v>
+            <v>227</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>↑</v>
           </cell>
           <cell r="H83">
-            <v>9683</v>
+            <v>1638</v>
           </cell>
           <cell r="I83">
-            <v>5436</v>
+            <v>1638</v>
           </cell>
           <cell r="K83">
-            <v>40</v>
+            <v>41</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84" t="str">
-            <v>Фп Мята перечная листья 20x1,5г</v>
+            <v>Фп Сб. Элекасол 20x2,0г</v>
           </cell>
           <cell r="C84">
-            <v>961</v>
+            <v>747</v>
           </cell>
           <cell r="D84">
-            <v>84</v>
+            <v>86</v>
           </cell>
           <cell r="H84">
-            <v>63928</v>
+            <v>38052</v>
           </cell>
           <cell r="I84">
-            <v>63928</v>
+            <v>38052</v>
           </cell>
           <cell r="K84">
-            <v>43</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85" t="str">
-            <v>Фп Сб. Арфазетин-Э 20x2,0г</v>
+            <v>Фп Брусника листья 20х1,5г</v>
           </cell>
           <cell r="C85">
-            <v>843</v>
+            <v>1364</v>
           </cell>
           <cell r="D85">
-            <v>109</v>
+            <v>87</v>
           </cell>
           <cell r="H85">
-            <v>38789</v>
+            <v>72251</v>
           </cell>
           <cell r="I85">
-            <v>38789</v>
+            <v>72251</v>
           </cell>
           <cell r="K85">
-            <v>44</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86" t="str">
-            <v>Фп Сб. Элекасол 20x2,0г</v>
+            <v>Фп Пустырник трава 20x1,5г</v>
           </cell>
           <cell r="C86">
-            <v>731</v>
+            <v>681</v>
           </cell>
           <cell r="D86">
-            <v>85</v>
+            <v>89</v>
           </cell>
           <cell r="H86">
-            <v>39834</v>
+            <v>39108</v>
           </cell>
           <cell r="I86">
-            <v>39834</v>
+            <v>39108</v>
           </cell>
           <cell r="K86">
-            <v>45</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87" t="str">
-            <v>Фп Чистотел трава 20х1,5г</v>
+            <v>Фп Подорожник листья 20x1,5г</v>
           </cell>
           <cell r="C87">
-            <v>551</v>
+            <v>413</v>
           </cell>
           <cell r="D87">
-            <v>105</v>
+            <v>79</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H87">
-            <v>30732</v>
+            <v>27170</v>
           </cell>
           <cell r="I87">
-            <v>30732</v>
+            <v>27170</v>
           </cell>
           <cell r="K87">
-            <v>46</v>
+            <v>43</v>
           </cell>
         </row>
         <row r="88">
           <cell r="B88" t="str">
-            <v>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</v>
+            <v>Фп Ромашка цветки 20x1,5г</v>
           </cell>
           <cell r="C88">
-            <v>6</v>
+            <v>29613</v>
           </cell>
           <cell r="D88">
-            <v>204</v>
-          </cell>
-          <cell r="E88" t="str">
-            <v>↑</v>
+            <v>89</v>
           </cell>
           <cell r="H88">
-            <v>1746</v>
+            <v>1336014</v>
           </cell>
           <cell r="I88">
-            <v>1746</v>
+            <v>1336014</v>
           </cell>
           <cell r="K88">
-            <v>46</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="89">
           <cell r="B89" t="str">
-            <v>Фп Брусника листья 20х1,5г</v>
+            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
           </cell>
           <cell r="C89">
-            <v>1321</v>
+            <v>334</v>
           </cell>
           <cell r="D89">
-            <v>85</v>
+            <v>94</v>
           </cell>
           <cell r="H89">
-            <v>77597</v>
+            <v>23758</v>
           </cell>
           <cell r="I89">
-            <v>77597</v>
+            <v>13913</v>
           </cell>
           <cell r="K89">
-            <v>47</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="90">
           <cell r="B90" t="str">
-            <v>Фп Подорожник листья 20x1,5г</v>
+            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
           </cell>
           <cell r="C90">
-            <v>384</v>
+            <v>658</v>
           </cell>
           <cell r="D90">
-            <v>75</v>
-          </cell>
-          <cell r="E90" t="str">
-            <v>↓</v>
+            <v>110</v>
           </cell>
           <cell r="H90">
-            <v>30230</v>
+            <v>37962</v>
           </cell>
           <cell r="I90">
-            <v>30230</v>
+            <v>28188</v>
           </cell>
           <cell r="K90">
-            <v>49</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="91">
           <cell r="B91" t="str">
-            <v>Фп Ромашка цветки 20x1,5г</v>
+            <v>Фп Сенна листья 20x1,5г</v>
           </cell>
           <cell r="C91">
-            <v>28799</v>
+            <v>1489</v>
           </cell>
           <cell r="D91">
-            <v>87</v>
+            <v>106</v>
           </cell>
           <cell r="H91">
-            <v>1459368</v>
+            <v>73114</v>
           </cell>
           <cell r="I91">
-            <v>1459368</v>
+            <v>41966</v>
           </cell>
           <cell r="K91">
-            <v>50</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="92">
           <cell r="B92" t="str">
-            <v>Фп Пустырник трава 20x1,5г</v>
+            <v>Фп Пастушья сумка трава 20х1,5г</v>
           </cell>
           <cell r="C92">
-            <v>641</v>
+            <v>107</v>
           </cell>
           <cell r="D92">
-            <v>86</v>
+            <v>107</v>
           </cell>
           <cell r="H92">
-            <v>43950</v>
+            <v>5164</v>
           </cell>
           <cell r="I92">
-            <v>43950</v>
+            <v>5164</v>
           </cell>
           <cell r="K92">
-            <v>50</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="93">
           <cell r="B93" t="str">
-            <v>Фп Пастушья сумка трава 20х1,5г</v>
+            <v>Фп Череда трава 20х1,5г</v>
           </cell>
           <cell r="C93">
-            <v>105</v>
+            <v>879</v>
           </cell>
           <cell r="D93">
-            <v>106</v>
+            <v>89</v>
           </cell>
           <cell r="H93">
-            <v>5398</v>
+            <v>49841</v>
           </cell>
           <cell r="I93">
-            <v>5398</v>
+            <v>49841</v>
           </cell>
           <cell r="K93">
-            <v>51</v>
+            <v>48</v>
           </cell>
         </row>
         <row r="94">
           <cell r="B94" t="str">
-            <v>Фп Шиповник плоды 20х2,0г</v>
+            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
           </cell>
           <cell r="C94">
-            <v>826</v>
+            <v>3762</v>
           </cell>
           <cell r="D94">
-            <v>79</v>
-          </cell>
-          <cell r="E94" t="str">
-            <v>↓</v>
+            <v>93</v>
           </cell>
           <cell r="H94">
-            <v>53820</v>
+            <v>187033</v>
           </cell>
           <cell r="I94">
-            <v>53820</v>
+            <v>187033</v>
           </cell>
           <cell r="K94">
-            <v>51</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="95">
           <cell r="B95" t="str">
-            <v>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</v>
+            <v>Фп Шиповник плоды 20х2,0г</v>
           </cell>
           <cell r="C95">
-            <v>322</v>
+            <v>820</v>
           </cell>
           <cell r="D95">
-            <v>91</v>
+            <v>77</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H95">
-            <v>25162</v>
+            <v>51534</v>
           </cell>
           <cell r="I95">
-            <v>15317</v>
+            <v>51534</v>
           </cell>
           <cell r="K95">
-            <v>52</v>
+            <v>49</v>
           </cell>
         </row>
         <row r="96">
           <cell r="B96" t="str">
-            <v>Фп Череда трава 20х1,5г</v>
+            <v>Фп Зверобой трава 20x1,5г</v>
           </cell>
           <cell r="C96">
-            <v>893</v>
+            <v>757</v>
           </cell>
           <cell r="D96">
-            <v>89</v>
+            <v>82</v>
           </cell>
           <cell r="H96">
-            <v>52793</v>
+            <v>55157</v>
           </cell>
           <cell r="I96">
-            <v>52793</v>
+            <v>55157</v>
           </cell>
           <cell r="K96">
             <v>52</v>
@@ -4982,254 +4997,251 @@
         </row>
         <row r="97">
           <cell r="B97" t="str">
-            <v>Фп Мелисса лекарственная трава 20x1,5г</v>
+            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
           </cell>
           <cell r="C97">
-            <v>615</v>
+            <v>1604</v>
           </cell>
           <cell r="D97">
-            <v>104</v>
+            <v>109</v>
           </cell>
           <cell r="H97">
-            <v>42174</v>
+            <v>91629</v>
           </cell>
           <cell r="I97">
-            <v>32400</v>
+            <v>51183</v>
           </cell>
           <cell r="K97">
-            <v>55</v>
+            <v>53</v>
           </cell>
         </row>
         <row r="98">
           <cell r="B98" t="str">
-            <v>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</v>
+            <v>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</v>
           </cell>
           <cell r="C98">
-            <v>3596</v>
+            <v>1649</v>
           </cell>
           <cell r="D98">
-            <v>89</v>
+            <v>105</v>
           </cell>
           <cell r="H98">
-            <v>204529</v>
+            <v>97429</v>
           </cell>
           <cell r="I98">
-            <v>204529</v>
+            <v>66631</v>
           </cell>
           <cell r="K98">
-            <v>55</v>
+            <v>54</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</v>
+            <v>Фп Чабрец трава 20x1,5 г</v>
           </cell>
           <cell r="C99">
-            <v>1557</v>
+            <v>1146</v>
           </cell>
           <cell r="D99">
-            <v>106</v>
+            <v>85</v>
           </cell>
           <cell r="H99">
-            <v>96255</v>
+            <v>75006</v>
           </cell>
           <cell r="I99">
-            <v>55809</v>
+            <v>75006</v>
           </cell>
           <cell r="K99">
-            <v>57</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>Фп Зверобой трава 20x1,5г</v>
+            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
           </cell>
           <cell r="C100">
-            <v>721</v>
+            <v>1043</v>
           </cell>
           <cell r="D100">
-            <v>79</v>
-          </cell>
-          <cell r="E100" t="str">
-            <v>↓</v>
+            <v>102</v>
+          </cell>
+          <cell r="F100">
+            <v>630</v>
+          </cell>
+          <cell r="G100">
+            <v>1</v>
           </cell>
           <cell r="H100">
-            <v>59657</v>
+            <v>59941</v>
           </cell>
           <cell r="I100">
-            <v>59657</v>
+            <v>59941</v>
           </cell>
           <cell r="K100">
-            <v>58</v>
+            <v>56</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</v>
+            <v>Фп Душица трава 20x1,5г</v>
           </cell>
           <cell r="C101">
-            <v>1019</v>
+            <v>406</v>
           </cell>
           <cell r="D101">
-            <v>101</v>
-          </cell>
-          <cell r="F101">
-            <v>630</v>
-          </cell>
-          <cell r="G101">
-            <v>1</v>
+            <v>82</v>
           </cell>
           <cell r="H101">
-            <v>63667</v>
+            <v>31590</v>
           </cell>
           <cell r="I101">
-            <v>63667</v>
+            <v>31590</v>
           </cell>
           <cell r="K101">
-            <v>60</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Фп Чабрец трава 20x1,5 г</v>
+            <v>Фп Крапива листья 20x1,5г</v>
           </cell>
           <cell r="C102">
-            <v>1089</v>
+            <v>1112</v>
           </cell>
           <cell r="D102">
-            <v>82</v>
+            <v>94</v>
           </cell>
           <cell r="H102">
-            <v>81702</v>
+            <v>72659</v>
           </cell>
           <cell r="I102">
-            <v>81702</v>
+            <v>72659</v>
           </cell>
           <cell r="K102">
-            <v>61</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Фп Крапива листья 20x1,5г</v>
+            <v>Фп Толокнянка листья 20x1,5г</v>
           </cell>
           <cell r="C103">
-            <v>1054</v>
+            <v>774</v>
           </cell>
           <cell r="D103">
-            <v>89</v>
+            <v>100</v>
           </cell>
           <cell r="H103">
-            <v>78545</v>
+            <v>44476</v>
           </cell>
           <cell r="I103">
-            <v>78545</v>
+            <v>20700</v>
           </cell>
           <cell r="K103">
-            <v>62</v>
+            <v>57</v>
           </cell>
         </row>
         <row r="104">
           <cell r="B104" t="str">
-            <v>Фп Хвощ полевой трава 20х1,5г</v>
+            <v>Фп Сб. Желудочный №3 20x2,0г</v>
           </cell>
           <cell r="C104">
-            <v>464</v>
+            <v>357</v>
           </cell>
           <cell r="D104">
-            <v>93</v>
+            <v>89</v>
           </cell>
           <cell r="H104">
-            <v>33658</v>
+            <v>26365</v>
           </cell>
           <cell r="I104">
-            <v>33658</v>
+            <v>26365</v>
           </cell>
           <cell r="K104">
-            <v>63</v>
+            <v>58</v>
           </cell>
         </row>
         <row r="105">
           <cell r="B105" t="str">
-            <v>Фп Душица трава 20x1,5г</v>
+            <v>Фп Хвощ полевой трава 20х1,5г</v>
           </cell>
           <cell r="C105">
-            <v>382</v>
+            <v>471</v>
           </cell>
           <cell r="D105">
-            <v>78</v>
-          </cell>
-          <cell r="E105" t="str">
-            <v>↓</v>
+            <v>94</v>
           </cell>
           <cell r="H105">
-            <v>34722</v>
+            <v>31570</v>
           </cell>
           <cell r="I105">
-            <v>34722</v>
+            <v>31570</v>
           </cell>
           <cell r="K105">
-            <v>64</v>
+            <v>59</v>
           </cell>
         </row>
         <row r="106">
           <cell r="B106" t="str">
-            <v>Фп Сб. Желудочный №3 20x2,0г</v>
+            <v>Фп Липа цветки 20x1,5г</v>
           </cell>
           <cell r="C106">
-            <v>330</v>
+            <v>1074</v>
           </cell>
           <cell r="D106">
-            <v>84</v>
+            <v>78</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H106">
-            <v>29191</v>
+            <v>83499</v>
           </cell>
           <cell r="I106">
-            <v>29191</v>
+            <v>56913</v>
           </cell>
           <cell r="K106">
-            <v>65</v>
+            <v>62</v>
           </cell>
         </row>
         <row r="107">
           <cell r="B107" t="str">
-            <v>Фп Толокнянка листья 20x1,5г</v>
+            <v>Фп Береза листья 20x1,5г</v>
           </cell>
           <cell r="C107">
-            <v>736</v>
+            <v>61</v>
           </cell>
           <cell r="D107">
-            <v>95</v>
+            <v>84</v>
           </cell>
           <cell r="H107">
-            <v>48562</v>
+            <v>6034</v>
           </cell>
           <cell r="I107">
-            <v>24786</v>
+            <v>6034</v>
           </cell>
           <cell r="K107">
-            <v>65</v>
+            <v>73</v>
           </cell>
         </row>
         <row r="108">
           <cell r="B108" t="str">
-            <v>Фп Береза листья 20x1,5г</v>
+            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
           </cell>
           <cell r="C108">
-            <v>62</v>
+            <v>65</v>
           </cell>
           <cell r="D108">
-            <v>88</v>
+            <v>103</v>
           </cell>
           <cell r="H108">
-            <v>6160</v>
+            <v>5152</v>
           </cell>
           <cell r="I108">
-            <v>6160</v>
+            <v>5152</v>
           </cell>
           <cell r="K108">
-            <v>75</v>
+            <v>79</v>
           </cell>
         </row>
         <row r="109">
@@ -5237,19 +5249,19 @@
             <v>Фп Золототысячник трава 20х1,5г</v>
           </cell>
           <cell r="C109">
-            <v>61</v>
+            <v>66</v>
           </cell>
           <cell r="D109">
-            <v>107</v>
+            <v>114</v>
           </cell>
           <cell r="H109">
-            <v>5997</v>
+            <v>5709</v>
           </cell>
           <cell r="I109">
-            <v>5997</v>
+            <v>5709</v>
           </cell>
           <cell r="K109">
-            <v>84</v>
+            <v>81</v>
           </cell>
         </row>
         <row r="110">
@@ -5260,36 +5272,36 @@
             <v>189</v>
           </cell>
           <cell r="D110">
-            <v>79</v>
+            <v>78</v>
           </cell>
           <cell r="E110" t="str">
             <v>↓</v>
           </cell>
           <cell r="H110">
-            <v>26576</v>
+            <v>26018</v>
           </cell>
           <cell r="I110">
-            <v>15020</v>
+            <v>14462</v>
           </cell>
           <cell r="K110">
-            <v>90</v>
+            <v>89</v>
           </cell>
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>Фп Фиалка трехцветная трава 20x1,5г</v>
+            <v>Фп Пижма цветки 20х1,5г</v>
           </cell>
           <cell r="C111">
-            <v>61</v>
+            <v>122</v>
           </cell>
           <cell r="D111">
-            <v>98</v>
+            <v>109</v>
           </cell>
           <cell r="H111">
-            <v>5656</v>
+            <v>11334</v>
           </cell>
           <cell r="I111">
-            <v>5656</v>
+            <v>4332</v>
           </cell>
           <cell r="K111">
             <v>92</v>
@@ -5306,13 +5318,13 @@
             <v>93</v>
           </cell>
           <cell r="H112">
-            <v>6863</v>
+            <v>6503</v>
           </cell>
           <cell r="I112">
-            <v>2893</v>
+            <v>2533</v>
           </cell>
           <cell r="K112">
-            <v>97</v>
+            <v>93</v>
           </cell>
         </row>
         <row r="113">
@@ -5320,10 +5332,10 @@
             <v>Фп Ольха соплодия 20х1,5г</v>
           </cell>
           <cell r="C113">
-            <v>47</v>
+            <v>44</v>
           </cell>
           <cell r="D113">
-            <v>93</v>
+            <v>88</v>
           </cell>
           <cell r="F113">
             <v>72</v>
@@ -5332,13 +5344,13 @@
             <v>2</v>
           </cell>
           <cell r="H113">
-            <v>6001</v>
+            <v>5947</v>
           </cell>
           <cell r="I113">
-            <v>6001</v>
+            <v>5947</v>
           </cell>
           <cell r="K113">
-            <v>127</v>
+            <v>132</v>
           </cell>
         </row>
         <row r="114">
@@ -5348,71 +5360,86 @@
         </row>
         <row r="115">
           <cell r="B115" t="str">
-            <v>Фп Дуб кора 20х1,5г</v>
-          </cell>
-          <cell r="E115" t="str">
-            <v>↓</v>
+            <v>Фп Лапчатка корневища 20x2,5г</v>
+          </cell>
+          <cell r="C115">
+            <v>115</v>
+          </cell>
+          <cell r="D115">
+            <v>82</v>
+          </cell>
+          <cell r="H115">
+            <v>1813</v>
+          </cell>
+          <cell r="I115">
+            <v>1813</v>
           </cell>
           <cell r="J115" t="str">
             <v>!</v>
           </cell>
+          <cell r="K115">
+            <v>11</v>
+          </cell>
           <cell r="L115">
-            <v>13</v>
+            <v>14</v>
           </cell>
           <cell r="M115">
-            <v>10407</v>
+            <v>4875</v>
           </cell>
         </row>
         <row r="116">
           <cell r="B116" t="str">
-            <v>Фп Лапчатка корневища 20x2,5г</v>
+            <v>Фп Крушина кора 20x1,5г</v>
           </cell>
           <cell r="C116">
-            <v>107</v>
+            <v>339</v>
           </cell>
           <cell r="D116">
-            <v>78</v>
-          </cell>
-          <cell r="E116" t="str">
-            <v>↓</v>
+            <v>103</v>
           </cell>
           <cell r="H116">
-            <v>2659</v>
+            <v>5391</v>
           </cell>
           <cell r="I116">
-            <v>2659</v>
+            <v>5391</v>
+          </cell>
+          <cell r="J116" t="str">
+            <v>!</v>
           </cell>
           <cell r="K116">
-            <v>16</v>
+            <v>13</v>
           </cell>
           <cell r="L116">
-            <v>16</v>
+            <v>14</v>
           </cell>
           <cell r="M116">
-            <v>4875</v>
+            <v>7312</v>
           </cell>
         </row>
         <row r="117">
           <cell r="B117" t="str">
-            <v>Фп Тысячелистник трава 20x1,5г</v>
+            <v>Фп Ноготки цветки 20x1,5г</v>
           </cell>
           <cell r="C117">
-            <v>594</v>
+            <v>1471</v>
           </cell>
           <cell r="D117">
-            <v>92</v>
+            <v>94</v>
           </cell>
           <cell r="H117">
-            <v>13754</v>
+            <v>27959</v>
           </cell>
           <cell r="I117">
-            <v>13754</v>
+            <v>27959</v>
+          </cell>
+          <cell r="J117" t="str">
+            <v>!</v>
           </cell>
           <cell r="K117">
-            <v>17</v>
+            <v>16</v>
           </cell>
           <cell r="L117">
-            <v>15</v>
+            <v>18</v>
           </cell>
           <cell r="M117">
             <v>19813</v>
@@ -5420,140 +5447,128 @@
         </row>
         <row r="118">
           <cell r="B118" t="str">
-            <v>Фп Крушина кора 20x1,5г</v>
+            <v>Фп Девясил корневища и корни 20х1,5г</v>
           </cell>
           <cell r="C118">
-            <v>320</v>
+            <v>389</v>
           </cell>
           <cell r="D118">
-            <v>98</v>
+            <v>75</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H118">
-            <v>7533</v>
+            <v>11016</v>
           </cell>
           <cell r="I118">
-            <v>7533</v>
+            <v>11016</v>
           </cell>
           <cell r="K118">
-            <v>18</v>
+            <v>19</v>
           </cell>
           <cell r="L118">
-            <v>16</v>
+            <v>19</v>
           </cell>
           <cell r="M118">
-            <v>7312</v>
+            <v>20962</v>
           </cell>
         </row>
         <row r="119">
           <cell r="B119" t="str">
-            <v>Фп Ноготки цветки 20x1,5г</v>
-          </cell>
-          <cell r="C119">
-            <v>1415</v>
-          </cell>
-          <cell r="D119">
-            <v>91</v>
+            <v>Фп Дуб кора 20х1,5г</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>↓</v>
           </cell>
           <cell r="H119">
-            <v>34763</v>
-          </cell>
-          <cell r="I119">
-            <v>34763</v>
+            <v>7245</v>
           </cell>
           <cell r="K119">
-            <v>21</v>
-          </cell>
-          <cell r="L119">
-            <v>20</v>
-          </cell>
-          <cell r="M119">
-            <v>19813</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="120">
           <cell r="B120" t="str">
-            <v>Фп Девясил корневища и корни 20х1,5г</v>
+            <v>Фп Бадан корневища 20x1,5г</v>
           </cell>
           <cell r="C120">
-            <v>369</v>
+            <v>58</v>
           </cell>
           <cell r="D120">
-            <v>72</v>
+            <v>127</v>
           </cell>
           <cell r="E120" t="str">
-            <v>↓</v>
+            <v>↑</v>
           </cell>
           <cell r="H120">
-            <v>12870</v>
+            <v>1789</v>
           </cell>
           <cell r="I120">
-            <v>12870</v>
+            <v>1789</v>
           </cell>
           <cell r="K120">
-            <v>22</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="121">
           <cell r="B121" t="str">
-            <v>Фп Бадан корневища 20x1,5г</v>
+            <v>Фп Валериана корневища с корнями 20x1,5г</v>
           </cell>
           <cell r="C121">
-            <v>58</v>
+            <v>548</v>
           </cell>
           <cell r="D121">
-            <v>126</v>
-          </cell>
-          <cell r="E121" t="str">
-            <v>↑</v>
+            <v>89</v>
           </cell>
           <cell r="H121">
-            <v>1807</v>
+            <v>30932</v>
           </cell>
           <cell r="I121">
-            <v>1807</v>
+            <v>10526</v>
           </cell>
           <cell r="K121">
-            <v>31</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="122">
           <cell r="B122" t="str">
-            <v>Фп Валериана корневища с корнями 20x1,5г</v>
+            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
           </cell>
           <cell r="C122">
-            <v>517</v>
+            <v>255</v>
           </cell>
           <cell r="D122">
-            <v>85</v>
+            <v>96</v>
           </cell>
           <cell r="H122">
-            <v>34262</v>
+            <v>10384</v>
           </cell>
           <cell r="I122">
-            <v>13856</v>
+            <v>10384</v>
           </cell>
           <cell r="K122">
-            <v>43</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="123">
           <cell r="B123" t="str">
-            <v>Фп Кровохлебка корневища и корни 20x1,5г</v>
+            <v>Фп Тысячелистник трава 20x1,5г</v>
           </cell>
           <cell r="C123">
-            <v>246</v>
+            <v>622</v>
           </cell>
           <cell r="D123">
-            <v>92</v>
+            <v>95</v>
           </cell>
           <cell r="H123">
-            <v>11752</v>
+            <v>30884</v>
           </cell>
           <cell r="I123">
-            <v>11752</v>
+            <v>11036</v>
           </cell>
           <cell r="K123">
-            <v>47</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="124">
@@ -5561,22 +5576,22 @@
             <v>Фп Почечный чай листья 20x1,5г</v>
           </cell>
           <cell r="C124">
-            <v>1473</v>
+            <v>1546</v>
           </cell>
           <cell r="D124">
-            <v>69</v>
+            <v>71</v>
           </cell>
           <cell r="E124" t="str">
             <v>↓</v>
           </cell>
           <cell r="H124">
-            <v>166941</v>
+            <v>157311</v>
           </cell>
           <cell r="I124">
-            <v>122265</v>
+            <v>112635</v>
           </cell>
           <cell r="K124">
-            <v>70</v>
+            <v>66</v>
           </cell>
         </row>
       </sheetData>
@@ -5876,8 +5891,8 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5926,11 +5941,11 @@
       </c>
       <c r="B3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81408</v>
+        <v>81376</v>
       </c>
       <c r="D3" s="3">
         <f>VLOOKUP(A3,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -5952,19 +5967,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32213</v>
+        <v>3052</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="28" t="str">
         <f>VLOOKUP(A5,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -5976,29 +5991,29 @@
       </c>
       <c r="H5" s="34">
         <f>VLOOKUP(A5,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40057</v>
+        <v>20074</v>
       </c>
       <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5180</v>
+        <v>1512</v>
       </c>
       <c r="D6" s="8">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E6" s="29" t="str">
         <f>VLOOKUP(A6,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-02</v>
       </c>
       <c r="G6" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6011,7 +6026,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -6019,44 +6034,44 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1554</v>
+        <v>6871</v>
       </c>
       <c r="D7" s="8">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E7" s="29" t="str">
         <f>VLOOKUP(A7,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-01</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G7" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H7" s="34">
         <f>VLOOKUP(A7,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>15771</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7255</v>
+        <v>7574</v>
       </c>
       <c r="D8" s="8">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>VLOOKUP(A8,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-05</v>
       </c>
       <c r="G8" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6069,48 +6084,48 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>65730</v>
+        <v>3317</v>
       </c>
       <c r="D9" s="8">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" s="29" t="str">
         <f>VLOOKUP(A9,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-07</v>
+        <v>2022-12-06</v>
       </c>
       <c r="G9" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H9" s="34">
         <f>VLOOKUP(A9,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>42553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3821</v>
+        <v>6121</v>
       </c>
       <c r="D10" s="8">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="29" t="str">
         <f>VLOOKUP(A10,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6127,19 +6142,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9895</v>
+        <v>15674</v>
       </c>
       <c r="D11" s="8">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>VLOOKUP(A11,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6147,11 +6162,11 @@
       </c>
       <c r="G11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H11" s="34">
         <f>VLOOKUP(A11,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6160,11 +6175,11 @@
       </c>
       <c r="B12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="7">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>57906</v>
+        <v>49828</v>
       </c>
       <c r="D12" s="8">
         <f>VLOOKUP(A12,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6185,19 +6200,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10346</v>
+        <v>36512</v>
       </c>
       <c r="D13" s="8">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13" s="29" t="str">
         <f>VLOOKUP(A13,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6214,15 +6229,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16786</v>
+        <v>14251</v>
       </c>
       <c r="D14" s="8">
         <f>VLOOKUP(A14,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6238,24 +6253,24 @@
       </c>
       <c r="H14" s="34">
         <f>VLOOKUP(A14,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>24166</v>
+        <v>23344</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18950</v>
+        <v>61891</v>
       </c>
       <c r="D15" s="8">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="29" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6272,19 +6287,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>41272</v>
+        <v>15916</v>
       </c>
       <c r="D16" s="8">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E16" s="29" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6301,48 +6316,48 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17401</v>
+        <v>29302</v>
       </c>
       <c r="D17" s="8">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-09</v>
+        <v>2022-12-12</v>
       </c>
       <c r="G17" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H17" s="34">
         <f>VLOOKUP(A17,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>23344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18968</v>
+        <v>7381</v>
       </c>
       <c r="D18" s="8">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E18" s="29" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6350,28 +6365,28 @@
       </c>
       <c r="G18" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H18" s="34">
         <f>VLOOKUP(A18,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33684</v>
+        <v>11309</v>
       </c>
       <c r="D19" s="8">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E19" s="29" t="str">
         <f>VLOOKUP(A19,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6379,28 +6394,28 @@
       </c>
       <c r="G19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H19" s="34">
         <f>VLOOKUP(A19,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8123</v>
+        <v>9301</v>
       </c>
       <c r="D20" s="8">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>VLOOKUP(A20,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6408,28 +6423,28 @@
       </c>
       <c r="G20" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H20" s="34">
         <f>VLOOKUP(A20,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>12234</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>12611</v>
+        <v>9176</v>
       </c>
       <c r="D21" s="8">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E21" s="29" t="str">
         <f>VLOOKUP(A21,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6437,28 +6452,28 @@
       </c>
       <c r="G21" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H21" s="34">
         <f>VLOOKUP(A21,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>9850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11219</v>
+        <v>22907</v>
       </c>
       <c r="D22" s="8">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>VLOOKUP(A22,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6475,48 +6490,48 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16795</v>
+        <v>13972</v>
       </c>
       <c r="D23" s="8">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E23" s="29" t="str">
         <f>VLOOKUP(A23,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-14</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H23" s="34">
         <f>VLOOKUP(A23,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>26122</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11136</v>
+        <v>14793</v>
       </c>
       <c r="D24" s="8">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="29" t="str">
         <f>VLOOKUP(A24,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6537,11 +6552,11 @@
       </c>
       <c r="B25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19079</v>
+        <v>16853</v>
       </c>
       <c r="D25" s="8">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6549,7 +6564,7 @@
       </c>
       <c r="E25" s="29" t="str">
         <f>VLOOKUP(A25,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-14</v>
       </c>
       <c r="G25" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6562,23 +6577,23 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26575</v>
+        <v>95294</v>
       </c>
       <c r="D26" s="8">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E26" s="29" t="str">
         <f>VLOOKUP(A26,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G26" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6591,23 +6606,23 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="7">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32466</v>
+        <v>9648</v>
       </c>
       <c r="D27" s="8">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="E27" s="29" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G27" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6620,15 +6635,15 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" s="7">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10754</v>
+        <v>55560</v>
       </c>
       <c r="D28" s="8">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6636,7 +6651,7 @@
       </c>
       <c r="E28" s="29" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G28" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6649,23 +6664,23 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>19096</v>
+        <v>24700</v>
       </c>
       <c r="D29" s="8">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E29" s="29" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G29" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6678,19 +6693,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>67012</v>
+        <v>38512</v>
       </c>
       <c r="D30" s="8">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="29" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6707,23 +6722,23 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17389</v>
+        <v>31444</v>
       </c>
       <c r="D31" s="8">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E31" s="29" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-20</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G31" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6736,19 +6751,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>17400</v>
-      </c>
-      <c r="D32" s="8" t="str">
+        <v>16423</v>
+      </c>
+      <c r="D32" s="8">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>inf</v>
+        <v>35</v>
       </c>
       <c r="E32" s="29" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6765,19 +6780,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>28340</v>
-      </c>
-      <c r="D33" s="8">
+        <v>15944</v>
+      </c>
+      <c r="D33" s="8" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>inf</v>
       </c>
       <c r="E33" s="29" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6798,11 +6813,11 @@
       </c>
       <c r="B34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C34" s="7">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21593</v>
+        <v>19087</v>
       </c>
       <c r="D34" s="8">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6810,7 +6825,7 @@
       </c>
       <c r="E34" s="29" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G34" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6827,11 +6842,11 @@
       </c>
       <c r="B35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C35" s="7">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>18692</v>
+        <v>15654</v>
       </c>
       <c r="D35" s="8">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -6839,7 +6854,7 @@
       </c>
       <c r="E35" s="29" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G35" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6852,23 +6867,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>47150</v>
+        <v>36904</v>
       </c>
       <c r="D36" s="8">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E36" s="29" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G36" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6881,23 +6896,23 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42098</v>
+        <v>13870</v>
       </c>
       <c r="D37" s="8">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E37" s="29" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G37" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6910,23 +6925,23 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>16068</v>
+        <v>11421</v>
       </c>
       <c r="D38" s="8">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E38" s="29" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-23</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G38" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6939,19 +6954,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" s="7">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>13549</v>
+        <v>24738</v>
       </c>
       <c r="D39" s="8">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E39" s="29" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -6968,23 +6983,23 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" s="7">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26228</v>
+        <v>31745</v>
       </c>
       <c r="D40" s="8">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E40" s="29" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G40" s="33" t="str">
         <f t="shared" si="0"/>
@@ -6997,23 +7012,23 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C41" s="7">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>27622</v>
+        <v>36604</v>
       </c>
       <c r="D41" s="8">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E41" s="29" t="str">
         <f>VLOOKUP(A41,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-27</v>
+        <v>2022-12-26</v>
       </c>
       <c r="G41" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7026,19 +7041,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35049</v>
+        <v>25304</v>
       </c>
       <c r="D42" s="8">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E42" s="29" t="str">
         <f>VLOOKUP(A42,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7055,19 +7070,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" s="7">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>40804</v>
+        <v>28559</v>
       </c>
       <c r="D43" s="8">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="E43" s="29" t="str">
         <f>VLOOKUP(A43,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7088,11 +7103,11 @@
       </c>
       <c r="B44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="7">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>10200</v>
+        <v>10088</v>
       </c>
       <c r="D44" s="8">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7100,7 +7115,7 @@
       </c>
       <c r="E44" s="29" t="str">
         <f>VLOOKUP(A44,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G44" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7113,23 +7128,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>32437</v>
+        <v>18797</v>
       </c>
       <c r="D45" s="8">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="29" t="str">
         <f>VLOOKUP(A45,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-05</v>
       </c>
       <c r="G45" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7142,23 +7157,23 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>21247</v>
+        <v>7307</v>
       </c>
       <c r="D46" s="8">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E46" s="29" t="str">
         <f>VLOOKUP(A46,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G46" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7171,23 +7186,23 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="7">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7363</v>
+        <v>32345</v>
       </c>
       <c r="D47" s="8">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E47" s="29" t="str">
         <f>VLOOKUP(A47,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-13</v>
       </c>
       <c r="G47" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7200,19 +7215,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="7">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>35215</v>
+        <v>35556</v>
       </c>
       <c r="D48" s="8">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E48" s="29" t="str">
         <f>VLOOKUP(A48,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7233,11 +7248,11 @@
       </c>
       <c r="B49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" s="7">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>8759</v>
+        <v>8255</v>
       </c>
       <c r="D49" s="8">
         <f>VLOOKUP(A49,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7262,11 +7277,11 @@
       </c>
       <c r="B50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="9">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>45935</v>
+        <v>44913</v>
       </c>
       <c r="D50" s="10">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7274,7 +7289,7 @@
       </c>
       <c r="E50" s="30" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-26</v>
       </c>
       <c r="G50" s="33" t="str">
         <f t="shared" si="0"/>
@@ -7297,36 +7312,36 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C52" s="5">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>350</v>
+        <v>3830</v>
       </c>
       <c r="D52" s="6">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E52" s="29" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-10-26</v>
+        <v>2022-12-13</v>
       </c>
       <c r="G52" s="33" t="str">
         <f t="shared" ref="G52:G58" si="1">IF(H52&gt;0,"•","")</f>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H52" s="34">
         <f>VLOOKUP(A52,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7334,44 +7349,44 @@
       </c>
       <c r="C53" s="7">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>11676</v>
+        <v>3840</v>
       </c>
       <c r="D53" s="8">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="E53" s="29" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-15</v>
       </c>
       <c r="G53" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H53" s="34">
         <f>VLOOKUP(A53,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>4874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C54" s="7">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4770</v>
+        <v>15121</v>
       </c>
       <c r="D54" s="8">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E54" s="29" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-27</v>
       </c>
       <c r="G54" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7384,23 +7399,23 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C55" s="7">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4380</v>
+        <v>5610</v>
       </c>
       <c r="D55" s="8">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E55" s="29" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2023-02-27</v>
       </c>
       <c r="G55" s="33" t="str">
         <f t="shared" si="1"/>
@@ -7413,31 +7428,31 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="C56" s="7">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="D56" s="8">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>102</v>
-      </c>
-      <c r="E56" s="29" t="str">
+        <v>115</v>
+      </c>
+      <c r="E56" s="29">
         <f>VLOOKUP(A56,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-17</v>
+        <v>0</v>
       </c>
       <c r="G56" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H56" s="34">
         <f>VLOOKUP(A56,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>2437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -7446,11 +7461,11 @@
       </c>
       <c r="B57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C57" s="7">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>9260</v>
+        <v>9110</v>
       </c>
       <c r="D57" s="8">
         <f>VLOOKUP(A57,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7475,11 +7490,11 @@
       </c>
       <c r="B58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C58" s="9">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>7830</v>
+        <v>7700</v>
       </c>
       <c r="D58" s="10">
         <f>VLOOKUP(A58,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7518,7 +7533,7 @@
       </c>
       <c r="C60" s="7">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1692</v>
+        <v>1386</v>
       </c>
       <c r="D60" s="8">
         <f>VLOOKUP(A60,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7543,11 +7558,11 @@
       </c>
       <c r="B61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="7">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>972</v>
+        <v>864</v>
       </c>
       <c r="D61" s="8">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7555,7 +7570,7 @@
       </c>
       <c r="E61" s="29" t="str">
         <f>VLOOKUP(A61,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-11-24</v>
+        <v>2023-10-31</v>
       </c>
       <c r="G61" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7572,11 +7587,11 @@
       </c>
       <c r="B62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" s="7">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1746</v>
+        <v>1638</v>
       </c>
       <c r="D62" s="8">
         <f>VLOOKUP(A62,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7597,23 +7612,23 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" s="7">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>85247</v>
+        <v>153157</v>
       </c>
       <c r="D63" s="8">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E63" s="29" t="str">
         <f>VLOOKUP(A63,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-13</v>
+        <v>2022-12-16</v>
       </c>
       <c r="G63" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7621,57 +7636,57 @@
       </c>
       <c r="H63" s="34">
         <f>VLOOKUP(A63,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>40216</v>
+        <v>51267</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="7">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>4764</v>
+        <v>67407</v>
       </c>
       <c r="D64" s="8">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E64" s="29" t="str">
         <f>VLOOKUP(A64,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-15</v>
+        <v>2022-12-20</v>
       </c>
       <c r="G64" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H64" s="34">
         <f>VLOOKUP(A64,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>23393</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" s="7">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>169879</v>
+        <v>35981</v>
       </c>
       <c r="D65" s="8">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E65" s="29" t="str">
         <f>VLOOKUP(A65,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-21</v>
       </c>
       <c r="G65" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7679,28 +7694,28 @@
       </c>
       <c r="H65" s="34">
         <f>VLOOKUP(A65,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>51267</v>
+        <v>24624</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C66" s="7">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>49400</v>
+        <v>462852</v>
       </c>
       <c r="D66" s="8">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="E66" s="29" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-16</v>
+        <v>2022-12-22</v>
       </c>
       <c r="G66" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7708,28 +7723,28 @@
       </c>
       <c r="H66" s="34">
         <f>VLOOKUP(A66,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>29547</v>
+        <v>56684</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" s="7">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>72211</v>
+        <v>112674</v>
       </c>
       <c r="D67" s="8">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E67" s="29" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-19</v>
+        <v>2022-12-23</v>
       </c>
       <c r="G67" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7737,28 +7752,28 @@
       </c>
       <c r="H67" s="34">
         <f>VLOOKUP(A67,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>30485</v>
+        <v>30367</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C68" s="7">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>74643</v>
+        <v>39108</v>
       </c>
       <c r="D68" s="8">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E68" s="29" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-29</v>
       </c>
       <c r="G68" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7771,23 +7786,23 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C69" s="7">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>38789</v>
+        <v>5164</v>
       </c>
       <c r="D69" s="8">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E69" s="29" t="str">
         <f>VLOOKUP(A69,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-21</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G69" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7800,23 +7815,23 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C70" s="7">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>512496</v>
+        <v>72251</v>
       </c>
       <c r="D70" s="8">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E70" s="29" t="str">
         <f>VLOOKUP(A70,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-22</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G70" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7829,23 +7844,23 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="7">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5398</v>
+        <v>37962</v>
       </c>
       <c r="D71" s="8">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E71" s="29" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2022-12-29</v>
+        <v>2022-12-30</v>
       </c>
       <c r="G71" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7858,15 +7873,15 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C72" s="7">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>77597</v>
+        <v>26286</v>
       </c>
       <c r="D72" s="8">
         <f>VLOOKUP(A72,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -7878,16 +7893,16 @@
       </c>
       <c r="G72" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H72" s="34">
         <f>VLOOKUP(A72,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>8897</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7895,15 +7910,15 @@
       </c>
       <c r="C73" s="7">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>43950</v>
+        <v>73114</v>
       </c>
       <c r="D73" s="8">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E73" s="29" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G73" s="33" t="str">
         <f t="shared" si="2"/>
@@ -7916,7 +7931,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -7924,40 +7939,40 @@
       </c>
       <c r="C74" s="7">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59181</v>
+        <v>97429</v>
       </c>
       <c r="D74" s="8">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E74" s="29" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-02</v>
+        <v>2023-01-04</v>
       </c>
       <c r="G74" s="33" t="str">
         <f t="shared" si="2"/>
-        <v>•</v>
+        <v/>
       </c>
       <c r="H74" s="34">
         <f>VLOOKUP(A74,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>26263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C75" s="7">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>42174</v>
+        <v>187033</v>
       </c>
       <c r="D75" s="8">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E75" s="29" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -7974,19 +7989,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C76" s="7">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>53820</v>
+        <v>23758</v>
       </c>
       <c r="D76" s="8">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E76" s="29" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8003,23 +8018,23 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="7">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>204529</v>
+        <v>51534</v>
       </c>
       <c r="D77" s="8">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E77" s="29" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-06</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G77" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8032,15 +8047,15 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="7">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30732</v>
+        <v>59464</v>
       </c>
       <c r="D78" s="8">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8048,36 +8063,36 @@
       </c>
       <c r="E78" s="29" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-06</v>
+        <v>2023-01-09</v>
       </c>
       <c r="G78" s="33" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>•</v>
       </c>
       <c r="H78" s="34">
         <f>VLOOKUP(A78,[2]остатки!$B$8:$M$124,12,FALSE)</f>
-        <v>0</v>
+        <v>23079</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79" s="7">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>25162</v>
+        <v>27170</v>
       </c>
       <c r="D79" s="8">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E79" s="29" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-09</v>
+        <v>2023-01-10</v>
       </c>
       <c r="G79" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8090,23 +8105,23 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80" s="7">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>63928</v>
+        <v>1336014</v>
       </c>
       <c r="D80" s="8">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E80" s="29" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-10</v>
+        <v>2023-01-11</v>
       </c>
       <c r="G80" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8123,11 +8138,11 @@
       </c>
       <c r="B81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C81" s="7">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>39834</v>
+        <v>38052</v>
       </c>
       <c r="D81" s="8">
         <f>VLOOKUP(A81,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
@@ -8148,23 +8163,23 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C82" s="7">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>30230</v>
+        <v>31570</v>
       </c>
       <c r="D82" s="8">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E82" s="29" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-12</v>
       </c>
       <c r="G82" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8177,23 +8192,23 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="7">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>33658</v>
+        <v>26365</v>
       </c>
       <c r="D83" s="8">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E83" s="29" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-13</v>
+        <v>2023-01-16</v>
       </c>
       <c r="G83" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8206,23 +8221,23 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" s="7">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1459368</v>
+        <v>91629</v>
       </c>
       <c r="D84" s="8">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E84" s="29" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-16</v>
+        <v>2023-01-17</v>
       </c>
       <c r="G84" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8235,19 +8250,19 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C85" s="7">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>96255</v>
+        <v>59941</v>
       </c>
       <c r="D85" s="8">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E85" s="29" t="str">
         <f>VLOOKUP(A85,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8264,19 +8279,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C86" s="7">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>63667</v>
+        <v>72659</v>
       </c>
       <c r="D86" s="8">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E86" s="29" t="str">
         <f>VLOOKUP(A86,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8293,23 +8308,23 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="7">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>78545</v>
+        <v>55157</v>
       </c>
       <c r="D87" s="8">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E87" s="29" t="str">
         <f>VLOOKUP(A87,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-18</v>
+        <v>2023-01-19</v>
       </c>
       <c r="G87" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8322,7 +8337,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8330,15 +8345,15 @@
       </c>
       <c r="C88" s="7">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>29191</v>
+        <v>5709</v>
       </c>
       <c r="D88" s="8">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E88" s="29" t="str">
         <f>VLOOKUP(A88,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-18</v>
+        <v>2023-01-20</v>
       </c>
       <c r="G88" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8351,23 +8366,23 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="7">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5997</v>
+        <v>44476</v>
       </c>
       <c r="D89" s="8">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E89" s="29" t="str">
         <f>VLOOKUP(A89,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-20</v>
+        <v>2023-01-23</v>
       </c>
       <c r="G89" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8380,23 +8395,23 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C90" s="7">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>59657</v>
+        <v>6503</v>
       </c>
       <c r="D90" s="8">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E90" s="29" t="str">
         <f>VLOOKUP(A90,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-23</v>
+        <v>2023-01-24</v>
       </c>
       <c r="G90" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8409,23 +8424,23 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="7">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6863</v>
+        <v>31590</v>
       </c>
       <c r="D91" s="8">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E91" s="29" t="str">
         <f>VLOOKUP(A91,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-24</v>
+        <v>2023-01-25</v>
       </c>
       <c r="G91" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8438,7 +8453,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8446,15 +8461,15 @@
       </c>
       <c r="C92" s="7">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>48562</v>
+        <v>83499</v>
       </c>
       <c r="D92" s="8">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E92" s="29" t="str">
         <f>VLOOKUP(A92,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-25</v>
+        <v>2023-01-27</v>
       </c>
       <c r="G92" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8467,23 +8482,23 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" s="7">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>34722</v>
+        <v>75006</v>
       </c>
       <c r="D93" s="8">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E93" s="29" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-26</v>
+        <v>2023-01-27</v>
       </c>
       <c r="G93" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8496,7 +8511,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
@@ -8504,15 +8519,15 @@
       </c>
       <c r="C94" s="7">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>81702</v>
+        <v>6034</v>
       </c>
       <c r="D94" s="8">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E94" s="29" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-30</v>
+        <v>2023-02-01</v>
       </c>
       <c r="G94" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8525,23 +8540,23 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C95" s="7">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>6160</v>
+        <v>49841</v>
       </c>
       <c r="D95" s="8">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E95" s="29" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-01-31</v>
+        <v>2023-02-10</v>
       </c>
       <c r="G95" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8554,23 +8569,23 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="7">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>52793</v>
+        <v>5152</v>
       </c>
       <c r="D96" s="8">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E96" s="29" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-13</v>
+        <v>2023-02-14</v>
       </c>
       <c r="G96" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8583,19 +8598,19 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C97" s="7">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>5656</v>
+        <v>11334</v>
       </c>
       <c r="D97" s="8">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E97" s="29" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
@@ -8612,23 +8627,23 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C98" s="7">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>26576</v>
+        <v>1512</v>
       </c>
       <c r="D98" s="8">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E98" s="29" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-22</v>
+        <v>2023-02-17</v>
       </c>
       <c r="G98" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8641,23 +8656,23 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,3,FALSE)</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C99" s="7">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,4,FALSE)</f>
-        <v>1692</v>
+        <v>26018</v>
       </c>
       <c r="D99" s="8">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$E$112,5,FALSE)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E99" s="29" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$A$2:$F$108,6,FALSE)</f>
-        <v>2023-02-23</v>
+        <v>2023-02-22</v>
       </c>
       <c r="G99" s="33" t="str">
         <f t="shared" si="2"/>
@@ -8678,7 +8693,7 @@
       </c>
       <c r="C100" s="7">
 